--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="275">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -601,6 +601,24 @@
     <t>['45+1', '62']</t>
   </si>
   <si>
+    <t>['46', '66']</t>
+  </si>
+  <si>
+    <t>['20', '52']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['12', '24']</t>
+  </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -815,6 +833,12 @@
   </si>
   <si>
     <t>['30', '58']</t>
+  </si>
+  <si>
+    <t>['20', '24', '29']</t>
+  </si>
+  <si>
+    <t>['33']</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP150"/>
+  <dimension ref="A1:BP156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1435,7 +1459,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1516,7 +1540,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ2">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1847,7 +1871,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -2053,7 +2077,7 @@
         <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2337,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>1.86</v>
@@ -2465,7 +2489,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2671,7 +2695,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2749,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ8">
         <v>1.38</v>
@@ -2877,7 +2901,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2955,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>1.43</v>
@@ -3083,7 +3107,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3289,7 +3313,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3495,7 +3519,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3573,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ12">
         <v>0.33</v>
@@ -3701,7 +3725,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3779,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ13">
         <v>0.71</v>
@@ -3907,7 +3931,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4191,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
         <v>0.71</v>
@@ -4400,7 +4424,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ16">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR16">
         <v>1.33</v>
@@ -4603,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>1.14</v>
@@ -4812,7 +4836,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4937,7 +4961,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5224,7 +5248,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ20">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5427,7 +5451,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>1</v>
@@ -5555,7 +5579,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5761,7 +5785,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5842,7 +5866,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5967,7 +5991,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6173,7 +6197,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6379,7 +6403,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6791,7 +6815,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6872,7 +6896,7 @@
         <v>2</v>
       </c>
       <c r="AQ28">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1.25</v>
@@ -6997,7 +7021,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7284,7 +7308,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR30">
         <v>1.73</v>
@@ -7409,7 +7433,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q31">
         <v>2.75</v>
@@ -7487,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ31">
         <v>0.75</v>
@@ -7821,7 +7845,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7899,7 +7923,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
         <v>1.43</v>
@@ -8233,7 +8257,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8439,7 +8463,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8726,7 +8750,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR37">
         <v>1.35</v>
@@ -8851,7 +8875,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8929,7 +8953,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
         <v>1</v>
@@ -9344,7 +9368,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ40">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR40">
         <v>1.37</v>
@@ -9753,7 +9777,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ42">
         <v>1.38</v>
@@ -9962,7 +9986,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ43">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR43">
         <v>0</v>
@@ -10087,7 +10111,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10165,7 +10189,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
         <v>1.14</v>
@@ -10705,7 +10729,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10783,7 +10807,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
         <v>0.71</v>
@@ -10989,7 +11013,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
         <v>0.33</v>
@@ -11401,7 +11425,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ50">
         <v>1.29</v>
@@ -11610,7 +11634,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ51">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>0.76</v>
@@ -12022,7 +12046,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR53">
         <v>1.24</v>
@@ -12353,7 +12377,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12434,7 +12458,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ55">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR55">
         <v>1.39</v>
@@ -12559,7 +12583,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12765,7 +12789,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12971,7 +12995,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13052,7 +13076,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ58">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>1.22</v>
@@ -13177,7 +13201,7 @@
         <v>94</v>
       </c>
       <c r="P59" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13258,7 +13282,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR59">
         <v>1.47</v>
@@ -13461,7 +13485,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -14001,7 +14025,7 @@
         <v>94</v>
       </c>
       <c r="P63" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14079,7 +14103,7 @@
         <v>3</v>
       </c>
       <c r="AP63">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ63">
         <v>3</v>
@@ -14207,7 +14231,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14494,7 +14518,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ65">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR65">
         <v>1.25</v>
@@ -14619,7 +14643,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15031,7 +15055,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15237,7 +15261,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15727,7 +15751,7 @@
         <v>1.75</v>
       </c>
       <c r="AP71">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ71">
         <v>1.75</v>
@@ -15855,7 +15879,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15936,7 +15960,7 @@
         <v>2</v>
       </c>
       <c r="AQ72">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR72">
         <v>1.35</v>
@@ -16061,7 +16085,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16139,7 +16163,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ73">
         <v>1.38</v>
@@ -16267,7 +16291,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16348,7 +16372,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ74">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR74">
         <v>1.54</v>
@@ -16473,7 +16497,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -16551,7 +16575,7 @@
         <v>0.33</v>
       </c>
       <c r="AP75">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ75">
         <v>0.33</v>
@@ -16760,7 +16784,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ76">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR76">
         <v>1.57</v>
@@ -17091,7 +17115,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17169,7 +17193,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ78">
         <v>0.75</v>
@@ -17297,7 +17321,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q79">
         <v>3.85</v>
@@ -17584,7 +17608,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ80">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR80">
         <v>1.23</v>
@@ -17709,7 +17733,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q81">
         <v>2.65</v>
@@ -17787,7 +17811,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ81">
         <v>1.29</v>
@@ -17915,7 +17939,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q82">
         <v>3.55</v>
@@ -17996,7 +18020,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ82">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR82">
         <v>1.07</v>
@@ -18202,7 +18226,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ83">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR83">
         <v>1.79</v>
@@ -18327,7 +18351,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18945,7 +18969,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19023,7 +19047,7 @@
         <v>2</v>
       </c>
       <c r="AP87">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ87">
         <v>1.86</v>
@@ -19229,7 +19253,7 @@
         <v>1.25</v>
       </c>
       <c r="AP88">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ88">
         <v>1</v>
@@ -19357,7 +19381,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19563,7 +19587,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19850,7 +19874,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ91">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR91">
         <v>1.18</v>
@@ -20053,7 +20077,7 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ92">
         <v>0.71</v>
@@ -20181,7 +20205,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20387,7 +20411,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -20468,7 +20492,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ94">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR94">
         <v>1.16</v>
@@ -20593,7 +20617,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20877,7 +20901,7 @@
         <v>1.75</v>
       </c>
       <c r="AP96">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ96">
         <v>1.43</v>
@@ -21292,7 +21316,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ98">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR98">
         <v>1.35</v>
@@ -21623,7 +21647,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -21701,7 +21725,7 @@
         <v>2.25</v>
       </c>
       <c r="AP100">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ100">
         <v>1.86</v>
@@ -21829,7 +21853,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -22525,7 +22549,7 @@
         <v>1.4</v>
       </c>
       <c r="AP104">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ104">
         <v>1.43</v>
@@ -23065,7 +23089,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23683,7 +23707,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -23970,7 +23994,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ111">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR111">
         <v>1.54</v>
@@ -24095,7 +24119,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q112">
         <v>2.45</v>
@@ -24176,7 +24200,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ112">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR112">
         <v>1.61</v>
@@ -24301,7 +24325,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -24379,10 +24403,10 @@
         <v>2</v>
       </c>
       <c r="AP113">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ113">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR113">
         <v>1.63</v>
@@ -24507,7 +24531,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q114">
         <v>3.45</v>
@@ -24585,7 +24609,7 @@
         <v>1.67</v>
       </c>
       <c r="AP114">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ114">
         <v>1.75</v>
@@ -24791,7 +24815,7 @@
         <v>1.75</v>
       </c>
       <c r="AP115">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ115">
         <v>1.14</v>
@@ -25000,7 +25024,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ116">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR116">
         <v>1.16</v>
@@ -25203,7 +25227,7 @@
         <v>0.2</v>
       </c>
       <c r="AP117">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ117">
         <v>0.17</v>
@@ -25331,7 +25355,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q118">
         <v>2.8</v>
@@ -25409,7 +25433,7 @@
         <v>1</v>
       </c>
       <c r="AP118">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ118">
         <v>1.14</v>
@@ -25618,7 +25642,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ119">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR119">
         <v>1.69</v>
@@ -25743,7 +25767,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q120">
         <v>2.55</v>
@@ -25821,7 +25845,7 @@
         <v>1.4</v>
       </c>
       <c r="AP120">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ120">
         <v>1.17</v>
@@ -26155,7 +26179,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26236,7 +26260,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ122">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR122">
         <v>1.4</v>
@@ -26361,7 +26385,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q123">
         <v>2.4</v>
@@ -26773,7 +26797,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q125">
         <v>2.63</v>
@@ -27391,7 +27415,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27678,7 +27702,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ129">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR129">
         <v>1.3</v>
@@ -27803,7 +27827,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q130">
         <v>2.75</v>
@@ -28009,7 +28033,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q131">
         <v>3.25</v>
@@ -28215,7 +28239,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28421,7 +28445,7 @@
         <v>106</v>
       </c>
       <c r="P133" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q133">
         <v>3.1</v>
@@ -28627,7 +28651,7 @@
         <v>94</v>
       </c>
       <c r="P134" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q134">
         <v>3.1</v>
@@ -28705,10 +28729,10 @@
         <v>0.8</v>
       </c>
       <c r="AP134">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ134">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR134">
         <v>1.4</v>
@@ -28911,7 +28935,7 @@
         <v>1.4</v>
       </c>
       <c r="AP135">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ135">
         <v>1.14</v>
@@ -29039,7 +29063,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q136">
         <v>3.9</v>
@@ -29326,7 +29350,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ137">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR137">
         <v>1.67</v>
@@ -29451,7 +29475,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -29529,10 +29553,10 @@
         <v>1.17</v>
       </c>
       <c r="AP138">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ138">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR138">
         <v>1.52</v>
@@ -29738,7 +29762,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ139">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR139">
         <v>1.66</v>
@@ -29944,7 +29968,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ140">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR140">
         <v>1.34</v>
@@ -30069,7 +30093,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q141">
         <v>2.62</v>
@@ -30275,7 +30299,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q142">
         <v>3.6</v>
@@ -30481,7 +30505,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q143">
         <v>3.75</v>
@@ -30687,7 +30711,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31099,7 +31123,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q146">
         <v>2.75</v>
@@ -31305,7 +31329,7 @@
         <v>98</v>
       </c>
       <c r="P147" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q147">
         <v>3.65</v>
@@ -31511,7 +31535,7 @@
         <v>94</v>
       </c>
       <c r="P148" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31717,7 +31741,7 @@
         <v>194</v>
       </c>
       <c r="P149" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q149">
         <v>3.25</v>
@@ -32080,6 +32104,1242 @@
       </c>
       <c r="BP150">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7481514</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45612.41666666666</v>
+      </c>
+      <c r="F151">
+        <v>15</v>
+      </c>
+      <c r="G151" t="s">
+        <v>74</v>
+      </c>
+      <c r="H151" t="s">
+        <v>73</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>2</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>2</v>
+      </c>
+      <c r="O151" t="s">
+        <v>195</v>
+      </c>
+      <c r="P151" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q151">
+        <v>2.5</v>
+      </c>
+      <c r="R151">
+        <v>2</v>
+      </c>
+      <c r="S151">
+        <v>5.5</v>
+      </c>
+      <c r="T151">
+        <v>1.5</v>
+      </c>
+      <c r="U151">
+        <v>2.5</v>
+      </c>
+      <c r="V151">
+        <v>3.5</v>
+      </c>
+      <c r="W151">
+        <v>1.29</v>
+      </c>
+      <c r="X151">
+        <v>11</v>
+      </c>
+      <c r="Y151">
+        <v>1.05</v>
+      </c>
+      <c r="Z151">
+        <v>1.77</v>
+      </c>
+      <c r="AA151">
+        <v>3.25</v>
+      </c>
+      <c r="AB151">
+        <v>4.94</v>
+      </c>
+      <c r="AC151">
+        <v>1.09</v>
+      </c>
+      <c r="AD151">
+        <v>7</v>
+      </c>
+      <c r="AE151">
+        <v>1.45</v>
+      </c>
+      <c r="AF151">
+        <v>2.7</v>
+      </c>
+      <c r="AG151">
+        <v>2.29</v>
+      </c>
+      <c r="AH151">
+        <v>1.55</v>
+      </c>
+      <c r="AI151">
+        <v>2.2</v>
+      </c>
+      <c r="AJ151">
+        <v>1.62</v>
+      </c>
+      <c r="AK151">
+        <v>1.15</v>
+      </c>
+      <c r="AL151">
+        <v>1.25</v>
+      </c>
+      <c r="AM151">
+        <v>2.05</v>
+      </c>
+      <c r="AN151">
+        <v>1.86</v>
+      </c>
+      <c r="AO151">
+        <v>1</v>
+      </c>
+      <c r="AP151">
+        <v>2</v>
+      </c>
+      <c r="AQ151">
+        <v>0.83</v>
+      </c>
+      <c r="AR151">
+        <v>1.43</v>
+      </c>
+      <c r="AS151">
+        <v>0.85</v>
+      </c>
+      <c r="AT151">
+        <v>2.28</v>
+      </c>
+      <c r="AU151">
+        <v>6</v>
+      </c>
+      <c r="AV151">
+        <v>3</v>
+      </c>
+      <c r="AW151">
+        <v>8</v>
+      </c>
+      <c r="AX151">
+        <v>3</v>
+      </c>
+      <c r="AY151">
+        <v>19</v>
+      </c>
+      <c r="AZ151">
+        <v>8</v>
+      </c>
+      <c r="BA151">
+        <v>6</v>
+      </c>
+      <c r="BB151">
+        <v>4</v>
+      </c>
+      <c r="BC151">
+        <v>10</v>
+      </c>
+      <c r="BD151">
+        <v>1.49</v>
+      </c>
+      <c r="BE151">
+        <v>6.25</v>
+      </c>
+      <c r="BF151">
+        <v>2.8</v>
+      </c>
+      <c r="BG151">
+        <v>1.47</v>
+      </c>
+      <c r="BH151">
+        <v>2.4</v>
+      </c>
+      <c r="BI151">
+        <v>1.79</v>
+      </c>
+      <c r="BJ151">
+        <v>1.87</v>
+      </c>
+      <c r="BK151">
+        <v>2.28</v>
+      </c>
+      <c r="BL151">
+        <v>1.53</v>
+      </c>
+      <c r="BM151">
+        <v>2.95</v>
+      </c>
+      <c r="BN151">
+        <v>1.33</v>
+      </c>
+      <c r="BO151">
+        <v>3.95</v>
+      </c>
+      <c r="BP151">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7481516</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45612.51041666666</v>
+      </c>
+      <c r="F152">
+        <v>15</v>
+      </c>
+      <c r="G152" t="s">
+        <v>80</v>
+      </c>
+      <c r="H152" t="s">
+        <v>85</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152">
+        <v>2</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>2</v>
+      </c>
+      <c r="O152" t="s">
+        <v>196</v>
+      </c>
+      <c r="P152" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q152">
+        <v>3</v>
+      </c>
+      <c r="R152">
+        <v>2.1</v>
+      </c>
+      <c r="S152">
+        <v>3.6</v>
+      </c>
+      <c r="T152">
+        <v>1.44</v>
+      </c>
+      <c r="U152">
+        <v>2.63</v>
+      </c>
+      <c r="V152">
+        <v>3</v>
+      </c>
+      <c r="W152">
+        <v>1.36</v>
+      </c>
+      <c r="X152">
+        <v>9</v>
+      </c>
+      <c r="Y152">
+        <v>1.07</v>
+      </c>
+      <c r="Z152">
+        <v>2.18</v>
+      </c>
+      <c r="AA152">
+        <v>3.27</v>
+      </c>
+      <c r="AB152">
+        <v>3.18</v>
+      </c>
+      <c r="AC152">
+        <v>1.06</v>
+      </c>
+      <c r="AD152">
+        <v>8.5</v>
+      </c>
+      <c r="AE152">
+        <v>1.35</v>
+      </c>
+      <c r="AF152">
+        <v>3.1</v>
+      </c>
+      <c r="AG152">
+        <v>1.91</v>
+      </c>
+      <c r="AH152">
+        <v>1.8</v>
+      </c>
+      <c r="AI152">
+        <v>1.8</v>
+      </c>
+      <c r="AJ152">
+        <v>1.91</v>
+      </c>
+      <c r="AK152">
+        <v>1.38</v>
+      </c>
+      <c r="AL152">
+        <v>1.28</v>
+      </c>
+      <c r="AM152">
+        <v>1.57</v>
+      </c>
+      <c r="AN152">
+        <v>1.17</v>
+      </c>
+      <c r="AO152">
+        <v>1.14</v>
+      </c>
+      <c r="AP152">
+        <v>1.43</v>
+      </c>
+      <c r="AQ152">
+        <v>1</v>
+      </c>
+      <c r="AR152">
+        <v>1.54</v>
+      </c>
+      <c r="AS152">
+        <v>1.4</v>
+      </c>
+      <c r="AT152">
+        <v>2.94</v>
+      </c>
+      <c r="AU152">
+        <v>4</v>
+      </c>
+      <c r="AV152">
+        <v>2</v>
+      </c>
+      <c r="AW152">
+        <v>5</v>
+      </c>
+      <c r="AX152">
+        <v>7</v>
+      </c>
+      <c r="AY152">
+        <v>10</v>
+      </c>
+      <c r="AZ152">
+        <v>14</v>
+      </c>
+      <c r="BA152">
+        <v>4</v>
+      </c>
+      <c r="BB152">
+        <v>6</v>
+      </c>
+      <c r="BC152">
+        <v>10</v>
+      </c>
+      <c r="BD152">
+        <v>1.77</v>
+      </c>
+      <c r="BE152">
+        <v>6.4</v>
+      </c>
+      <c r="BF152">
+        <v>2.15</v>
+      </c>
+      <c r="BG152">
+        <v>1.3</v>
+      </c>
+      <c r="BH152">
+        <v>3.05</v>
+      </c>
+      <c r="BI152">
+        <v>1.53</v>
+      </c>
+      <c r="BJ152">
+        <v>2.28</v>
+      </c>
+      <c r="BK152">
+        <v>1.86</v>
+      </c>
+      <c r="BL152">
+        <v>1.8</v>
+      </c>
+      <c r="BM152">
+        <v>2.35</v>
+      </c>
+      <c r="BN152">
+        <v>1.5</v>
+      </c>
+      <c r="BO152">
+        <v>3.05</v>
+      </c>
+      <c r="BP152">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7481513</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45612.51041666666</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153" t="s">
+        <v>86</v>
+      </c>
+      <c r="H153" t="s">
+        <v>71</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>3</v>
+      </c>
+      <c r="K153">
+        <v>3</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>3</v>
+      </c>
+      <c r="N153">
+        <v>4</v>
+      </c>
+      <c r="O153" t="s">
+        <v>197</v>
+      </c>
+      <c r="P153" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q153">
+        <v>2.3</v>
+      </c>
+      <c r="R153">
+        <v>2.1</v>
+      </c>
+      <c r="S153">
+        <v>4.75</v>
+      </c>
+      <c r="T153">
+        <v>1.4</v>
+      </c>
+      <c r="U153">
+        <v>2.75</v>
+      </c>
+      <c r="V153">
+        <v>2.8</v>
+      </c>
+      <c r="W153">
+        <v>1.38</v>
+      </c>
+      <c r="X153">
+        <v>7.5</v>
+      </c>
+      <c r="Y153">
+        <v>1.05</v>
+      </c>
+      <c r="Z153">
+        <v>1.7</v>
+      </c>
+      <c r="AA153">
+        <v>3.75</v>
+      </c>
+      <c r="AB153">
+        <v>4.45</v>
+      </c>
+      <c r="AC153">
+        <v>1.06</v>
+      </c>
+      <c r="AD153">
+        <v>8.5</v>
+      </c>
+      <c r="AE153">
+        <v>1.3</v>
+      </c>
+      <c r="AF153">
+        <v>3.35</v>
+      </c>
+      <c r="AG153">
+        <v>1.81</v>
+      </c>
+      <c r="AH153">
+        <v>1.9</v>
+      </c>
+      <c r="AI153">
+        <v>1.83</v>
+      </c>
+      <c r="AJ153">
+        <v>1.83</v>
+      </c>
+      <c r="AK153">
+        <v>1.18</v>
+      </c>
+      <c r="AL153">
+        <v>1.22</v>
+      </c>
+      <c r="AM153">
+        <v>2.05</v>
+      </c>
+      <c r="AN153">
+        <v>1.17</v>
+      </c>
+      <c r="AO153">
+        <v>0.83</v>
+      </c>
+      <c r="AP153">
+        <v>1</v>
+      </c>
+      <c r="AQ153">
+        <v>1.14</v>
+      </c>
+      <c r="AR153">
+        <v>1.58</v>
+      </c>
+      <c r="AS153">
+        <v>0.91</v>
+      </c>
+      <c r="AT153">
+        <v>2.49</v>
+      </c>
+      <c r="AU153">
+        <v>7</v>
+      </c>
+      <c r="AV153">
+        <v>10</v>
+      </c>
+      <c r="AW153">
+        <v>4</v>
+      </c>
+      <c r="AX153">
+        <v>6</v>
+      </c>
+      <c r="AY153">
+        <v>15</v>
+      </c>
+      <c r="AZ153">
+        <v>18</v>
+      </c>
+      <c r="BA153">
+        <v>7</v>
+      </c>
+      <c r="BB153">
+        <v>7</v>
+      </c>
+      <c r="BC153">
+        <v>14</v>
+      </c>
+      <c r="BD153">
+        <v>1.51</v>
+      </c>
+      <c r="BE153">
+        <v>8.5</v>
+      </c>
+      <c r="BF153">
+        <v>3.16</v>
+      </c>
+      <c r="BG153">
+        <v>1.34</v>
+      </c>
+      <c r="BH153">
+        <v>2.98</v>
+      </c>
+      <c r="BI153">
+        <v>1.6</v>
+      </c>
+      <c r="BJ153">
+        <v>2.19</v>
+      </c>
+      <c r="BK153">
+        <v>2</v>
+      </c>
+      <c r="BL153">
+        <v>1.72</v>
+      </c>
+      <c r="BM153">
+        <v>2.6</v>
+      </c>
+      <c r="BN153">
+        <v>1.44</v>
+      </c>
+      <c r="BO153">
+        <v>3.5</v>
+      </c>
+      <c r="BP153">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7481517</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45612.60416666666</v>
+      </c>
+      <c r="F154">
+        <v>15</v>
+      </c>
+      <c r="G154" t="s">
+        <v>76</v>
+      </c>
+      <c r="H154" t="s">
+        <v>78</v>
+      </c>
+      <c r="I154">
+        <v>2</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>2</v>
+      </c>
+      <c r="L154">
+        <v>2</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>2</v>
+      </c>
+      <c r="O154" t="s">
+        <v>198</v>
+      </c>
+      <c r="P154" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q154">
+        <v>2.1</v>
+      </c>
+      <c r="R154">
+        <v>2.25</v>
+      </c>
+      <c r="S154">
+        <v>5</v>
+      </c>
+      <c r="T154">
+        <v>1.33</v>
+      </c>
+      <c r="U154">
+        <v>3</v>
+      </c>
+      <c r="V154">
+        <v>2.45</v>
+      </c>
+      <c r="W154">
+        <v>1.48</v>
+      </c>
+      <c r="X154">
+        <v>5.8</v>
+      </c>
+      <c r="Y154">
+        <v>1.1</v>
+      </c>
+      <c r="Z154">
+        <v>1.6</v>
+      </c>
+      <c r="AA154">
+        <v>3.95</v>
+      </c>
+      <c r="AB154">
+        <v>5.25</v>
+      </c>
+      <c r="AC154">
+        <v>1.04</v>
+      </c>
+      <c r="AD154">
+        <v>10</v>
+      </c>
+      <c r="AE154">
+        <v>1.22</v>
+      </c>
+      <c r="AF154">
+        <v>4</v>
+      </c>
+      <c r="AG154">
+        <v>1.7</v>
+      </c>
+      <c r="AH154">
+        <v>2.15</v>
+      </c>
+      <c r="AI154">
+        <v>1.73</v>
+      </c>
+      <c r="AJ154">
+        <v>1.95</v>
+      </c>
+      <c r="AK154">
+        <v>1.14</v>
+      </c>
+      <c r="AL154">
+        <v>1.2</v>
+      </c>
+      <c r="AM154">
+        <v>2.3</v>
+      </c>
+      <c r="AN154">
+        <v>1.71</v>
+      </c>
+      <c r="AO154">
+        <v>1</v>
+      </c>
+      <c r="AP154">
+        <v>1.88</v>
+      </c>
+      <c r="AQ154">
+        <v>0.88</v>
+      </c>
+      <c r="AR154">
+        <v>1.59</v>
+      </c>
+      <c r="AS154">
+        <v>1.3</v>
+      </c>
+      <c r="AT154">
+        <v>2.89</v>
+      </c>
+      <c r="AU154">
+        <v>4</v>
+      </c>
+      <c r="AV154">
+        <v>6</v>
+      </c>
+      <c r="AW154">
+        <v>0</v>
+      </c>
+      <c r="AX154">
+        <v>2</v>
+      </c>
+      <c r="AY154">
+        <v>4</v>
+      </c>
+      <c r="AZ154">
+        <v>10</v>
+      </c>
+      <c r="BA154">
+        <v>1</v>
+      </c>
+      <c r="BB154">
+        <v>7</v>
+      </c>
+      <c r="BC154">
+        <v>8</v>
+      </c>
+      <c r="BD154">
+        <v>1.41</v>
+      </c>
+      <c r="BE154">
+        <v>9</v>
+      </c>
+      <c r="BF154">
+        <v>3.49</v>
+      </c>
+      <c r="BG154">
+        <v>1.22</v>
+      </c>
+      <c r="BH154">
+        <v>3.65</v>
+      </c>
+      <c r="BI154">
+        <v>1.4</v>
+      </c>
+      <c r="BJ154">
+        <v>2.65</v>
+      </c>
+      <c r="BK154">
+        <v>1.65</v>
+      </c>
+      <c r="BL154">
+        <v>2.05</v>
+      </c>
+      <c r="BM154">
+        <v>2</v>
+      </c>
+      <c r="BN154">
+        <v>1.73</v>
+      </c>
+      <c r="BO154">
+        <v>2.6</v>
+      </c>
+      <c r="BP154">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7481518</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45612.60416666666</v>
+      </c>
+      <c r="F155">
+        <v>15</v>
+      </c>
+      <c r="G155" t="s">
+        <v>82</v>
+      </c>
+      <c r="H155" t="s">
+        <v>79</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>2</v>
+      </c>
+      <c r="O155" t="s">
+        <v>199</v>
+      </c>
+      <c r="P155" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q155">
+        <v>3</v>
+      </c>
+      <c r="R155">
+        <v>1.95</v>
+      </c>
+      <c r="S155">
+        <v>3.6</v>
+      </c>
+      <c r="T155">
+        <v>1.48</v>
+      </c>
+      <c r="U155">
+        <v>2.5</v>
+      </c>
+      <c r="V155">
+        <v>3.1</v>
+      </c>
+      <c r="W155">
+        <v>1.33</v>
+      </c>
+      <c r="X155">
+        <v>7.2</v>
+      </c>
+      <c r="Y155">
+        <v>1.06</v>
+      </c>
+      <c r="Z155">
+        <v>2.35</v>
+      </c>
+      <c r="AA155">
+        <v>3.1</v>
+      </c>
+      <c r="AB155">
+        <v>3</v>
+      </c>
+      <c r="AC155">
+        <v>1.07</v>
+      </c>
+      <c r="AD155">
+        <v>8</v>
+      </c>
+      <c r="AE155">
+        <v>1.38</v>
+      </c>
+      <c r="AF155">
+        <v>2.95</v>
+      </c>
+      <c r="AG155">
+        <v>2.13</v>
+      </c>
+      <c r="AH155">
+        <v>1.7</v>
+      </c>
+      <c r="AI155">
+        <v>1.83</v>
+      </c>
+      <c r="AJ155">
+        <v>1.83</v>
+      </c>
+      <c r="AK155">
+        <v>1.36</v>
+      </c>
+      <c r="AL155">
+        <v>1.3</v>
+      </c>
+      <c r="AM155">
+        <v>1.57</v>
+      </c>
+      <c r="AN155">
+        <v>2.2</v>
+      </c>
+      <c r="AO155">
+        <v>1.17</v>
+      </c>
+      <c r="AP155">
+        <v>2</v>
+      </c>
+      <c r="AQ155">
+        <v>1.14</v>
+      </c>
+      <c r="AR155">
+        <v>1.67</v>
+      </c>
+      <c r="AS155">
+        <v>1.29</v>
+      </c>
+      <c r="AT155">
+        <v>2.96</v>
+      </c>
+      <c r="AU155">
+        <v>3</v>
+      </c>
+      <c r="AV155">
+        <v>10</v>
+      </c>
+      <c r="AW155">
+        <v>6</v>
+      </c>
+      <c r="AX155">
+        <v>2</v>
+      </c>
+      <c r="AY155">
+        <v>15</v>
+      </c>
+      <c r="AZ155">
+        <v>15</v>
+      </c>
+      <c r="BA155">
+        <v>5</v>
+      </c>
+      <c r="BB155">
+        <v>5</v>
+      </c>
+      <c r="BC155">
+        <v>10</v>
+      </c>
+      <c r="BD155">
+        <v>1.82</v>
+      </c>
+      <c r="BE155">
+        <v>8</v>
+      </c>
+      <c r="BF155">
+        <v>2.39</v>
+      </c>
+      <c r="BG155">
+        <v>1.37</v>
+      </c>
+      <c r="BH155">
+        <v>2.83</v>
+      </c>
+      <c r="BI155">
+        <v>1.65</v>
+      </c>
+      <c r="BJ155">
+        <v>2.1</v>
+      </c>
+      <c r="BK155">
+        <v>2.08</v>
+      </c>
+      <c r="BL155">
+        <v>1.67</v>
+      </c>
+      <c r="BM155">
+        <v>2.73</v>
+      </c>
+      <c r="BN155">
+        <v>1.4</v>
+      </c>
+      <c r="BO155">
+        <v>3.7</v>
+      </c>
+      <c r="BP155">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7481519</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45612.70833333334</v>
+      </c>
+      <c r="F156">
+        <v>15</v>
+      </c>
+      <c r="G156" t="s">
+        <v>77</v>
+      </c>
+      <c r="H156" t="s">
+        <v>70</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>2</v>
+      </c>
+      <c r="N156">
+        <v>3</v>
+      </c>
+      <c r="O156" t="s">
+        <v>200</v>
+      </c>
+      <c r="P156" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q156">
+        <v>2.7</v>
+      </c>
+      <c r="R156">
+        <v>2</v>
+      </c>
+      <c r="S156">
+        <v>4</v>
+      </c>
+      <c r="T156">
+        <v>1.44</v>
+      </c>
+      <c r="U156">
+        <v>2.6</v>
+      </c>
+      <c r="V156">
+        <v>2.95</v>
+      </c>
+      <c r="W156">
+        <v>1.35</v>
+      </c>
+      <c r="X156">
+        <v>8</v>
+      </c>
+      <c r="Y156">
+        <v>1.04</v>
+      </c>
+      <c r="Z156">
+        <v>1.9</v>
+      </c>
+      <c r="AA156">
+        <v>3.4</v>
+      </c>
+      <c r="AB156">
+        <v>3.85</v>
+      </c>
+      <c r="AC156">
+        <v>1.07</v>
+      </c>
+      <c r="AD156">
+        <v>8</v>
+      </c>
+      <c r="AE156">
+        <v>1.36</v>
+      </c>
+      <c r="AF156">
+        <v>3.1</v>
+      </c>
+      <c r="AG156">
+        <v>2.05</v>
+      </c>
+      <c r="AH156">
+        <v>1.77</v>
+      </c>
+      <c r="AI156">
+        <v>1.83</v>
+      </c>
+      <c r="AJ156">
+        <v>1.85</v>
+      </c>
+      <c r="AK156">
+        <v>1.25</v>
+      </c>
+      <c r="AL156">
+        <v>1.25</v>
+      </c>
+      <c r="AM156">
+        <v>1.77</v>
+      </c>
+      <c r="AN156">
+        <v>2.29</v>
+      </c>
+      <c r="AO156">
+        <v>1.83</v>
+      </c>
+      <c r="AP156">
+        <v>2</v>
+      </c>
+      <c r="AQ156">
+        <v>2</v>
+      </c>
+      <c r="AR156">
+        <v>1.44</v>
+      </c>
+      <c r="AS156">
+        <v>1.16</v>
+      </c>
+      <c r="AT156">
+        <v>2.6</v>
+      </c>
+      <c r="AU156">
+        <v>6</v>
+      </c>
+      <c r="AV156">
+        <v>6</v>
+      </c>
+      <c r="AW156">
+        <v>4</v>
+      </c>
+      <c r="AX156">
+        <v>3</v>
+      </c>
+      <c r="AY156">
+        <v>12</v>
+      </c>
+      <c r="AZ156">
+        <v>10</v>
+      </c>
+      <c r="BA156">
+        <v>4</v>
+      </c>
+      <c r="BB156">
+        <v>0</v>
+      </c>
+      <c r="BC156">
+        <v>4</v>
+      </c>
+      <c r="BD156">
+        <v>1.69</v>
+      </c>
+      <c r="BE156">
+        <v>8</v>
+      </c>
+      <c r="BF156">
+        <v>2.54</v>
+      </c>
+      <c r="BG156">
+        <v>1.29</v>
+      </c>
+      <c r="BH156">
+        <v>3.25</v>
+      </c>
+      <c r="BI156">
+        <v>1.52</v>
+      </c>
+      <c r="BJ156">
+        <v>2.36</v>
+      </c>
+      <c r="BK156">
+        <v>1.87</v>
+      </c>
+      <c r="BL156">
+        <v>1.83</v>
+      </c>
+      <c r="BM156">
+        <v>2.39</v>
+      </c>
+      <c r="BN156">
+        <v>1.51</v>
+      </c>
+      <c r="BO156">
+        <v>3.2</v>
+      </c>
+      <c r="BP156">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="279">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -601,7 +601,7 @@
     <t>['45+1', '62']</t>
   </si>
   <si>
-    <t>['46', '66']</t>
+    <t>['46', '67']</t>
   </si>
   <si>
     <t>['20', '52']</t>
@@ -617,6 +617,18 @@
   </si>
   <si>
     <t>['60']</t>
+  </si>
+  <si>
+    <t>['9', '16', '68']</t>
+  </si>
+  <si>
+    <t>['38', '45+1']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['31', '45+1']</t>
   </si>
   <si>
     <t>['42', '45+3']</t>
@@ -635,9 +647,6 @@
   </si>
   <si>
     <t>['14', '42']</t>
-  </si>
-  <si>
-    <t>['14']</t>
   </si>
   <si>
     <t>['87']</t>
@@ -839,6 +848,9 @@
   </si>
   <si>
     <t>['33']</t>
+  </si>
+  <si>
+    <t>['35']</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP156"/>
+  <dimension ref="A1:BP161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1459,7 +1471,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1746,7 +1758,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ3">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1871,7 +1883,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1949,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ4">
         <v>1.75</v>
@@ -2077,7 +2089,7 @@
         <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2489,7 +2501,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2695,7 +2707,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2901,7 +2913,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -3107,7 +3119,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3313,7 +3325,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3394,7 +3406,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ11">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3519,7 +3531,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3600,7 +3612,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ12">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3725,7 +3737,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3931,7 +3943,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4012,7 +4024,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ14">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4961,7 +4973,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5579,7 +5591,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5657,7 +5669,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ22">
         <v>1.75</v>
@@ -5785,7 +5797,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5991,7 +6003,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6072,7 +6084,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ24">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>2.51</v>
@@ -6197,7 +6209,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6275,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ25">
         <v>3</v>
@@ -6403,7 +6415,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6481,10 +6493,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ26">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -6687,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ27">
         <v>1.29</v>
@@ -6815,7 +6827,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7021,7 +7033,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7433,7 +7445,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q31">
         <v>2.75</v>
@@ -7845,7 +7857,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8132,7 +8144,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ34">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR34">
         <v>1.17</v>
@@ -8257,7 +8269,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8463,7 +8475,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8544,7 +8556,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ36">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>2.09</v>
@@ -8875,7 +8887,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9571,7 +9583,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ41">
         <v>1.43</v>
@@ -9983,7 +9995,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ43">
         <v>1.14</v>
@@ -10111,7 +10123,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10604,7 +10616,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ46">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>1.47</v>
@@ -10729,7 +10741,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11016,7 +11028,7 @@
         <v>2</v>
       </c>
       <c r="AQ48">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR48">
         <v>1.67</v>
@@ -11222,7 +11234,7 @@
         <v>2</v>
       </c>
       <c r="AQ49">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR49">
         <v>1.38</v>
@@ -11837,7 +11849,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ52">
         <v>0.75</v>
@@ -12043,7 +12055,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ53">
         <v>0.83</v>
@@ -12377,7 +12389,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12583,7 +12595,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12661,7 +12673,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ56">
         <v>1.86</v>
@@ -12789,7 +12801,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12995,7 +13007,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13201,7 +13213,7 @@
         <v>94</v>
       </c>
       <c r="P59" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13691,7 +13703,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ61">
         <v>1.43</v>
@@ -14025,7 +14037,7 @@
         <v>94</v>
       </c>
       <c r="P63" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14231,7 +14243,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14309,7 +14321,7 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ64">
         <v>1.14</v>
@@ -14643,7 +14655,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14721,7 +14733,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ66">
         <v>0.71</v>
@@ -14930,7 +14942,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ67">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR67">
         <v>1.16</v>
@@ -15055,7 +15067,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15136,7 +15148,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ68">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR68">
         <v>1.07</v>
@@ -15261,7 +15273,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15339,7 +15351,7 @@
         <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ69">
         <v>0.71</v>
@@ -15548,7 +15560,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ70">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>1.04</v>
@@ -15879,7 +15891,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16085,7 +16097,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16291,7 +16303,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16497,7 +16509,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -16578,7 +16590,7 @@
         <v>1</v>
       </c>
       <c r="AQ75">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR75">
         <v>1.58</v>
@@ -16987,7 +16999,7 @@
         <v>1.67</v>
       </c>
       <c r="AP77">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ77">
         <v>0.71</v>
@@ -17115,7 +17127,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17321,7 +17333,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q79">
         <v>3.85</v>
@@ -17733,7 +17745,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q81">
         <v>2.65</v>
@@ -17939,7 +17951,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q82">
         <v>3.55</v>
@@ -18223,7 +18235,7 @@
         <v>2.33</v>
       </c>
       <c r="AP83">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ83">
         <v>0.88</v>
@@ -18351,7 +18363,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18429,7 +18441,7 @@
         <v>3</v>
       </c>
       <c r="AP84">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ84">
         <v>3</v>
@@ -18969,7 +18981,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19381,7 +19393,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19462,7 +19474,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ89">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR89">
         <v>1.46</v>
@@ -19587,7 +19599,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19871,7 +19883,7 @@
         <v>0.33</v>
       </c>
       <c r="AP91">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ91">
         <v>0.83</v>
@@ -20205,7 +20217,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20283,7 +20295,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ93">
         <v>1</v>
@@ -20411,7 +20423,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -20617,7 +20629,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20695,7 +20707,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ95">
         <v>1.38</v>
@@ -21110,7 +21122,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ97">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR97">
         <v>1.7</v>
@@ -21522,7 +21534,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ99">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR99">
         <v>1.46</v>
@@ -21647,7 +21659,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -21853,7 +21865,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -22758,7 +22770,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ105">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR105">
         <v>1.71</v>
@@ -23089,7 +23101,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23167,7 +23179,7 @@
         <v>3</v>
       </c>
       <c r="AP107">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ107">
         <v>3</v>
@@ -23376,7 +23388,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ108">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR108">
         <v>1.17</v>
@@ -23707,7 +23719,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -23785,7 +23797,7 @@
         <v>0.8</v>
       </c>
       <c r="AP110">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ110">
         <v>1.38</v>
@@ -24119,7 +24131,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q112">
         <v>2.45</v>
@@ -24197,7 +24209,7 @@
         <v>1.25</v>
       </c>
       <c r="AP112">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ112">
         <v>1.14</v>
@@ -24325,7 +24337,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -24531,7 +24543,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q114">
         <v>3.45</v>
@@ -25021,7 +25033,7 @@
         <v>0.75</v>
       </c>
       <c r="AP116">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ116">
         <v>1.14</v>
@@ -25230,7 +25242,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ117">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR117">
         <v>1.47</v>
@@ -25355,7 +25367,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q118">
         <v>2.8</v>
@@ -25436,7 +25448,7 @@
         <v>2</v>
       </c>
       <c r="AQ118">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR118">
         <v>1.68</v>
@@ -25639,7 +25651,7 @@
         <v>1.4</v>
       </c>
       <c r="AP119">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ119">
         <v>1</v>
@@ -25767,7 +25779,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q120">
         <v>2.55</v>
@@ -25848,7 +25860,7 @@
         <v>2</v>
       </c>
       <c r="AQ120">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR120">
         <v>1.6</v>
@@ -26179,7 +26191,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26385,7 +26397,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q123">
         <v>2.4</v>
@@ -26669,7 +26681,7 @@
         <v>1.17</v>
       </c>
       <c r="AP124">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ124">
         <v>1</v>
@@ -26797,7 +26809,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q125">
         <v>2.63</v>
@@ -26875,7 +26887,7 @@
         <v>1.8</v>
       </c>
       <c r="AP125">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ125">
         <v>1.86</v>
@@ -27415,7 +27427,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27827,7 +27839,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q130">
         <v>2.75</v>
@@ -28033,7 +28045,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q131">
         <v>3.25</v>
@@ -28239,7 +28251,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28445,7 +28457,7 @@
         <v>106</v>
       </c>
       <c r="P133" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q133">
         <v>3.1</v>
@@ -28526,7 +28538,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ133">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR133">
         <v>1.15</v>
@@ -28651,7 +28663,7 @@
         <v>94</v>
       </c>
       <c r="P134" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q134">
         <v>3.1</v>
@@ -29063,7 +29075,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q136">
         <v>3.9</v>
@@ -29141,10 +29153,10 @@
         <v>0.83</v>
       </c>
       <c r="AP136">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ136">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR136">
         <v>1.12</v>
@@ -29347,7 +29359,7 @@
         <v>2.2</v>
       </c>
       <c r="AP137">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ137">
         <v>2</v>
@@ -29475,7 +29487,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -29759,7 +29771,7 @@
         <v>1.17</v>
       </c>
       <c r="AP139">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ139">
         <v>0.88</v>
@@ -30093,7 +30105,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q141">
         <v>2.62</v>
@@ -30299,7 +30311,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q142">
         <v>3.6</v>
@@ -30505,7 +30517,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q143">
         <v>3.75</v>
@@ -30711,7 +30723,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31123,7 +31135,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q146">
         <v>2.75</v>
@@ -31329,7 +31341,7 @@
         <v>98</v>
       </c>
       <c r="P147" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q147">
         <v>3.65</v>
@@ -31535,7 +31547,7 @@
         <v>94</v>
       </c>
       <c r="P148" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31741,7 +31753,7 @@
         <v>194</v>
       </c>
       <c r="P149" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q149">
         <v>3.25</v>
@@ -32535,7 +32547,7 @@
         <v>45612.51041666666</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G153" t="s">
         <v>86</v>
@@ -32565,7 +32577,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q153">
         <v>2.3</v>
@@ -32977,7 +32989,7 @@
         <v>199</v>
       </c>
       <c r="P155" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33183,7 +33195,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -33340,6 +33352,1036 @@
       </c>
       <c r="BP156">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7481515</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45613.51041666666</v>
+      </c>
+      <c r="F157">
+        <v>15</v>
+      </c>
+      <c r="G157" t="s">
+        <v>89</v>
+      </c>
+      <c r="H157" t="s">
+        <v>84</v>
+      </c>
+      <c r="I157">
+        <v>2</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>2</v>
+      </c>
+      <c r="L157">
+        <v>3</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>4</v>
+      </c>
+      <c r="O157" t="s">
+        <v>201</v>
+      </c>
+      <c r="P157" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q157">
+        <v>2.4</v>
+      </c>
+      <c r="R157">
+        <v>1.95</v>
+      </c>
+      <c r="S157">
+        <v>6</v>
+      </c>
+      <c r="T157">
+        <v>1.57</v>
+      </c>
+      <c r="U157">
+        <v>2.25</v>
+      </c>
+      <c r="V157">
+        <v>3.75</v>
+      </c>
+      <c r="W157">
+        <v>1.25</v>
+      </c>
+      <c r="X157">
+        <v>13</v>
+      </c>
+      <c r="Y157">
+        <v>1.04</v>
+      </c>
+      <c r="Z157">
+        <v>1.75</v>
+      </c>
+      <c r="AA157">
+        <v>3.1</v>
+      </c>
+      <c r="AB157">
+        <v>4.5</v>
+      </c>
+      <c r="AC157">
+        <v>1.1</v>
+      </c>
+      <c r="AD157">
+        <v>6.5</v>
+      </c>
+      <c r="AE157">
+        <v>1.48</v>
+      </c>
+      <c r="AF157">
+        <v>2.37</v>
+      </c>
+      <c r="AG157">
+        <v>2.47</v>
+      </c>
+      <c r="AH157">
+        <v>1.48</v>
+      </c>
+      <c r="AI157">
+        <v>2.5</v>
+      </c>
+      <c r="AJ157">
+        <v>1.5</v>
+      </c>
+      <c r="AK157">
+        <v>1.17</v>
+      </c>
+      <c r="AL157">
+        <v>1.25</v>
+      </c>
+      <c r="AM157">
+        <v>2</v>
+      </c>
+      <c r="AN157">
+        <v>2.5</v>
+      </c>
+      <c r="AO157">
+        <v>0.33</v>
+      </c>
+      <c r="AP157">
+        <v>2.57</v>
+      </c>
+      <c r="AQ157">
+        <v>0.29</v>
+      </c>
+      <c r="AR157">
+        <v>1.68</v>
+      </c>
+      <c r="AS157">
+        <v>1.06</v>
+      </c>
+      <c r="AT157">
+        <v>2.74</v>
+      </c>
+      <c r="AU157">
+        <v>8</v>
+      </c>
+      <c r="AV157">
+        <v>4</v>
+      </c>
+      <c r="AW157">
+        <v>6</v>
+      </c>
+      <c r="AX157">
+        <v>8</v>
+      </c>
+      <c r="AY157">
+        <v>16</v>
+      </c>
+      <c r="AZ157">
+        <v>14</v>
+      </c>
+      <c r="BA157">
+        <v>4</v>
+      </c>
+      <c r="BB157">
+        <v>4</v>
+      </c>
+      <c r="BC157">
+        <v>8</v>
+      </c>
+      <c r="BD157">
+        <v>1.38</v>
+      </c>
+      <c r="BE157">
+        <v>6.75</v>
+      </c>
+      <c r="BF157">
+        <v>3.15</v>
+      </c>
+      <c r="BG157">
+        <v>1.3</v>
+      </c>
+      <c r="BH157">
+        <v>3.05</v>
+      </c>
+      <c r="BI157">
+        <v>1.53</v>
+      </c>
+      <c r="BJ157">
+        <v>2.28</v>
+      </c>
+      <c r="BK157">
+        <v>1.98</v>
+      </c>
+      <c r="BL157">
+        <v>1.82</v>
+      </c>
+      <c r="BM157">
+        <v>2.32</v>
+      </c>
+      <c r="BN157">
+        <v>1.52</v>
+      </c>
+      <c r="BO157">
+        <v>3</v>
+      </c>
+      <c r="BP157">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7481511</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45613.51041666666</v>
+      </c>
+      <c r="F158">
+        <v>15</v>
+      </c>
+      <c r="G158" t="s">
+        <v>72</v>
+      </c>
+      <c r="H158" t="s">
+        <v>88</v>
+      </c>
+      <c r="I158">
+        <v>2</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>2</v>
+      </c>
+      <c r="L158">
+        <v>2</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>2</v>
+      </c>
+      <c r="O158" t="s">
+        <v>202</v>
+      </c>
+      <c r="P158" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q158">
+        <v>2.5</v>
+      </c>
+      <c r="R158">
+        <v>2.05</v>
+      </c>
+      <c r="S158">
+        <v>4.33</v>
+      </c>
+      <c r="T158">
+        <v>1.42</v>
+      </c>
+      <c r="U158">
+        <v>2.65</v>
+      </c>
+      <c r="V158">
+        <v>2.9</v>
+      </c>
+      <c r="W158">
+        <v>1.36</v>
+      </c>
+      <c r="X158">
+        <v>6.9</v>
+      </c>
+      <c r="Y158">
+        <v>1.07</v>
+      </c>
+      <c r="Z158">
+        <v>1.8</v>
+      </c>
+      <c r="AA158">
+        <v>3.3</v>
+      </c>
+      <c r="AB158">
+        <v>3.9</v>
+      </c>
+      <c r="AC158">
+        <v>1.07</v>
+      </c>
+      <c r="AD158">
+        <v>8</v>
+      </c>
+      <c r="AE158">
+        <v>1.35</v>
+      </c>
+      <c r="AF158">
+        <v>3.1</v>
+      </c>
+      <c r="AG158">
+        <v>1.95</v>
+      </c>
+      <c r="AH158">
+        <v>1.73</v>
+      </c>
+      <c r="AI158">
+        <v>1.83</v>
+      </c>
+      <c r="AJ158">
+        <v>1.83</v>
+      </c>
+      <c r="AK158">
+        <v>1.22</v>
+      </c>
+      <c r="AL158">
+        <v>1.25</v>
+      </c>
+      <c r="AM158">
+        <v>1.85</v>
+      </c>
+      <c r="AN158">
+        <v>0.86</v>
+      </c>
+      <c r="AO158">
+        <v>0.17</v>
+      </c>
+      <c r="AP158">
+        <v>1.13</v>
+      </c>
+      <c r="AQ158">
+        <v>0.14</v>
+      </c>
+      <c r="AR158">
+        <v>1.49</v>
+      </c>
+      <c r="AS158">
+        <v>1.27</v>
+      </c>
+      <c r="AT158">
+        <v>2.76</v>
+      </c>
+      <c r="AU158">
+        <v>6</v>
+      </c>
+      <c r="AV158">
+        <v>3</v>
+      </c>
+      <c r="AW158">
+        <v>5</v>
+      </c>
+      <c r="AX158">
+        <v>10</v>
+      </c>
+      <c r="AY158">
+        <v>13</v>
+      </c>
+      <c r="AZ158">
+        <v>21</v>
+      </c>
+      <c r="BA158">
+        <v>5</v>
+      </c>
+      <c r="BB158">
+        <v>9</v>
+      </c>
+      <c r="BC158">
+        <v>14</v>
+      </c>
+      <c r="BD158">
+        <v>1.64</v>
+      </c>
+      <c r="BE158">
+        <v>8</v>
+      </c>
+      <c r="BF158">
+        <v>2.77</v>
+      </c>
+      <c r="BG158">
+        <v>1.34</v>
+      </c>
+      <c r="BH158">
+        <v>2.98</v>
+      </c>
+      <c r="BI158">
+        <v>1.6</v>
+      </c>
+      <c r="BJ158">
+        <v>2.19</v>
+      </c>
+      <c r="BK158">
+        <v>2</v>
+      </c>
+      <c r="BL158">
+        <v>1.72</v>
+      </c>
+      <c r="BM158">
+        <v>2.6</v>
+      </c>
+      <c r="BN158">
+        <v>1.44</v>
+      </c>
+      <c r="BO158">
+        <v>3.5</v>
+      </c>
+      <c r="BP158">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7481512</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45613.60416666666</v>
+      </c>
+      <c r="F159">
+        <v>15</v>
+      </c>
+      <c r="G159" t="s">
+        <v>87</v>
+      </c>
+      <c r="H159" t="s">
+        <v>81</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>1</v>
+      </c>
+      <c r="O159" t="s">
+        <v>203</v>
+      </c>
+      <c r="P159" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q159">
+        <v>3.75</v>
+      </c>
+      <c r="R159">
+        <v>1.83</v>
+      </c>
+      <c r="S159">
+        <v>3.6</v>
+      </c>
+      <c r="T159">
+        <v>1.62</v>
+      </c>
+      <c r="U159">
+        <v>2.2</v>
+      </c>
+      <c r="V159">
+        <v>4</v>
+      </c>
+      <c r="W159">
+        <v>1.22</v>
+      </c>
+      <c r="X159">
+        <v>13</v>
+      </c>
+      <c r="Y159">
+        <v>1.04</v>
+      </c>
+      <c r="Z159">
+        <v>2.75</v>
+      </c>
+      <c r="AA159">
+        <v>2.75</v>
+      </c>
+      <c r="AB159">
+        <v>2.6</v>
+      </c>
+      <c r="AC159">
+        <v>1.12</v>
+      </c>
+      <c r="AD159">
+        <v>5.75</v>
+      </c>
+      <c r="AE159">
+        <v>1.55</v>
+      </c>
+      <c r="AF159">
+        <v>2.2</v>
+      </c>
+      <c r="AG159">
+        <v>2.85</v>
+      </c>
+      <c r="AH159">
+        <v>1.37</v>
+      </c>
+      <c r="AI159">
+        <v>2.2</v>
+      </c>
+      <c r="AJ159">
+        <v>1.62</v>
+      </c>
+      <c r="AK159">
+        <v>1.44</v>
+      </c>
+      <c r="AL159">
+        <v>1.36</v>
+      </c>
+      <c r="AM159">
+        <v>1.4</v>
+      </c>
+      <c r="AN159">
+        <v>0.17</v>
+      </c>
+      <c r="AO159">
+        <v>1.17</v>
+      </c>
+      <c r="AP159">
+        <v>0.57</v>
+      </c>
+      <c r="AQ159">
+        <v>1</v>
+      </c>
+      <c r="AR159">
+        <v>1.21</v>
+      </c>
+      <c r="AS159">
+        <v>1.04</v>
+      </c>
+      <c r="AT159">
+        <v>2.25</v>
+      </c>
+      <c r="AU159">
+        <v>4</v>
+      </c>
+      <c r="AV159">
+        <v>6</v>
+      </c>
+      <c r="AW159">
+        <v>6</v>
+      </c>
+      <c r="AX159">
+        <v>8</v>
+      </c>
+      <c r="AY159">
+        <v>11</v>
+      </c>
+      <c r="AZ159">
+        <v>16</v>
+      </c>
+      <c r="BA159">
+        <v>4</v>
+      </c>
+      <c r="BB159">
+        <v>5</v>
+      </c>
+      <c r="BC159">
+        <v>9</v>
+      </c>
+      <c r="BD159">
+        <v>1.95</v>
+      </c>
+      <c r="BE159">
+        <v>7.5</v>
+      </c>
+      <c r="BF159">
+        <v>2.1</v>
+      </c>
+      <c r="BG159">
+        <v>1.5</v>
+      </c>
+      <c r="BH159">
+        <v>2.4</v>
+      </c>
+      <c r="BI159">
+        <v>1.87</v>
+      </c>
+      <c r="BJ159">
+        <v>1.83</v>
+      </c>
+      <c r="BK159">
+        <v>2.43</v>
+      </c>
+      <c r="BL159">
+        <v>1.49</v>
+      </c>
+      <c r="BM159">
+        <v>3.3</v>
+      </c>
+      <c r="BN159">
+        <v>1.29</v>
+      </c>
+      <c r="BO159">
+        <v>4.3</v>
+      </c>
+      <c r="BP159">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7481510</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45613.60416666666</v>
+      </c>
+      <c r="F160">
+        <v>15</v>
+      </c>
+      <c r="G160" t="s">
+        <v>90</v>
+      </c>
+      <c r="H160" t="s">
+        <v>75</v>
+      </c>
+      <c r="I160">
+        <v>2</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <v>3</v>
+      </c>
+      <c r="L160">
+        <v>2</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160">
+        <v>3</v>
+      </c>
+      <c r="O160" t="s">
+        <v>204</v>
+      </c>
+      <c r="P160" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q160">
+        <v>2.75</v>
+      </c>
+      <c r="R160">
+        <v>2.25</v>
+      </c>
+      <c r="S160">
+        <v>3.75</v>
+      </c>
+      <c r="T160">
+        <v>1.36</v>
+      </c>
+      <c r="U160">
+        <v>3</v>
+      </c>
+      <c r="V160">
+        <v>2.63</v>
+      </c>
+      <c r="W160">
+        <v>1.44</v>
+      </c>
+      <c r="X160">
+        <v>7</v>
+      </c>
+      <c r="Y160">
+        <v>1.1</v>
+      </c>
+      <c r="Z160">
+        <v>1.73</v>
+      </c>
+      <c r="AA160">
+        <v>3.5</v>
+      </c>
+      <c r="AB160">
+        <v>3.9</v>
+      </c>
+      <c r="AC160">
+        <v>1.05</v>
+      </c>
+      <c r="AD160">
+        <v>9.5</v>
+      </c>
+      <c r="AE160">
+        <v>1.25</v>
+      </c>
+      <c r="AF160">
+        <v>3.8</v>
+      </c>
+      <c r="AG160">
+        <v>1.65</v>
+      </c>
+      <c r="AH160">
+        <v>2.05</v>
+      </c>
+      <c r="AI160">
+        <v>1.62</v>
+      </c>
+      <c r="AJ160">
+        <v>2.2</v>
+      </c>
+      <c r="AK160">
+        <v>1.3</v>
+      </c>
+      <c r="AL160">
+        <v>1.25</v>
+      </c>
+      <c r="AM160">
+        <v>1.7</v>
+      </c>
+      <c r="AN160">
+        <v>1.6</v>
+      </c>
+      <c r="AO160">
+        <v>1.14</v>
+      </c>
+      <c r="AP160">
+        <v>1.83</v>
+      </c>
+      <c r="AQ160">
+        <v>1</v>
+      </c>
+      <c r="AR160">
+        <v>1.75</v>
+      </c>
+      <c r="AS160">
+        <v>1.46</v>
+      </c>
+      <c r="AT160">
+        <v>3.21</v>
+      </c>
+      <c r="AU160">
+        <v>7</v>
+      </c>
+      <c r="AV160">
+        <v>6</v>
+      </c>
+      <c r="AW160">
+        <v>7</v>
+      </c>
+      <c r="AX160">
+        <v>2</v>
+      </c>
+      <c r="AY160">
+        <v>17</v>
+      </c>
+      <c r="AZ160">
+        <v>8</v>
+      </c>
+      <c r="BA160">
+        <v>7</v>
+      </c>
+      <c r="BB160">
+        <v>4</v>
+      </c>
+      <c r="BC160">
+        <v>11</v>
+      </c>
+      <c r="BD160">
+        <v>1.68</v>
+      </c>
+      <c r="BE160">
+        <v>6.25</v>
+      </c>
+      <c r="BF160">
+        <v>2.3</v>
+      </c>
+      <c r="BG160">
+        <v>1.37</v>
+      </c>
+      <c r="BH160">
+        <v>2.75</v>
+      </c>
+      <c r="BI160">
+        <v>1.64</v>
+      </c>
+      <c r="BJ160">
+        <v>2.08</v>
+      </c>
+      <c r="BK160">
+        <v>2.04</v>
+      </c>
+      <c r="BL160">
+        <v>1.66</v>
+      </c>
+      <c r="BM160">
+        <v>2.63</v>
+      </c>
+      <c r="BN160">
+        <v>1.41</v>
+      </c>
+      <c r="BO160">
+        <v>3.4</v>
+      </c>
+      <c r="BP160">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7481520</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45613.70833333334</v>
+      </c>
+      <c r="F161">
+        <v>15</v>
+      </c>
+      <c r="G161" t="s">
+        <v>91</v>
+      </c>
+      <c r="H161" t="s">
+        <v>83</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+      <c r="O161" t="s">
+        <v>94</v>
+      </c>
+      <c r="P161" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q161">
+        <v>2.6</v>
+      </c>
+      <c r="R161">
+        <v>2</v>
+      </c>
+      <c r="S161">
+        <v>5</v>
+      </c>
+      <c r="T161">
+        <v>1.53</v>
+      </c>
+      <c r="U161">
+        <v>2.38</v>
+      </c>
+      <c r="V161">
+        <v>3.5</v>
+      </c>
+      <c r="W161">
+        <v>1.29</v>
+      </c>
+      <c r="X161">
+        <v>11</v>
+      </c>
+      <c r="Y161">
+        <v>1.05</v>
+      </c>
+      <c r="Z161">
+        <v>1.8</v>
+      </c>
+      <c r="AA161">
+        <v>3.1</v>
+      </c>
+      <c r="AB161">
+        <v>4</v>
+      </c>
+      <c r="AC161">
+        <v>1.1</v>
+      </c>
+      <c r="AD161">
+        <v>6.5</v>
+      </c>
+      <c r="AE161">
+        <v>1.48</v>
+      </c>
+      <c r="AF161">
+        <v>2.65</v>
+      </c>
+      <c r="AG161">
+        <v>2.25</v>
+      </c>
+      <c r="AH161">
+        <v>1.53</v>
+      </c>
+      <c r="AI161">
+        <v>2.1</v>
+      </c>
+      <c r="AJ161">
+        <v>1.67</v>
+      </c>
+      <c r="AK161">
+        <v>1.2</v>
+      </c>
+      <c r="AL161">
+        <v>1.28</v>
+      </c>
+      <c r="AM161">
+        <v>1.85</v>
+      </c>
+      <c r="AN161">
+        <v>1.5</v>
+      </c>
+      <c r="AO161">
+        <v>1</v>
+      </c>
+      <c r="AP161">
+        <v>1.43</v>
+      </c>
+      <c r="AQ161">
+        <v>1</v>
+      </c>
+      <c r="AR161">
+        <v>1.62</v>
+      </c>
+      <c r="AS161">
+        <v>1.09</v>
+      </c>
+      <c r="AT161">
+        <v>2.71</v>
+      </c>
+      <c r="AU161">
+        <v>9</v>
+      </c>
+      <c r="AV161">
+        <v>3</v>
+      </c>
+      <c r="AW161">
+        <v>11</v>
+      </c>
+      <c r="AX161">
+        <v>4</v>
+      </c>
+      <c r="AY161">
+        <v>21</v>
+      </c>
+      <c r="AZ161">
+        <v>9</v>
+      </c>
+      <c r="BA161">
+        <v>5</v>
+      </c>
+      <c r="BB161">
+        <v>5</v>
+      </c>
+      <c r="BC161">
+        <v>10</v>
+      </c>
+      <c r="BD161">
+        <v>1.51</v>
+      </c>
+      <c r="BE161">
+        <v>8</v>
+      </c>
+      <c r="BF161">
+        <v>3.17</v>
+      </c>
+      <c r="BG161">
+        <v>1.43</v>
+      </c>
+      <c r="BH161">
+        <v>2.6</v>
+      </c>
+      <c r="BI161">
+        <v>1.75</v>
+      </c>
+      <c r="BJ161">
+        <v>1.96</v>
+      </c>
+      <c r="BK161">
+        <v>2.24</v>
+      </c>
+      <c r="BL161">
+        <v>1.57</v>
+      </c>
+      <c r="BM161">
+        <v>2.98</v>
+      </c>
+      <c r="BN161">
+        <v>1.34</v>
+      </c>
+      <c r="BO161">
+        <v>3.9</v>
+      </c>
+      <c r="BP161">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -622,10 +622,10 @@
     <t>['9', '16', '68']</t>
   </si>
   <si>
-    <t>['38', '45+1']</t>
+    <t>['14']</t>
   </si>
   <si>
-    <t>['14']</t>
+    <t>['38', '45+1']</t>
   </si>
   <si>
     <t>['31', '45+1']</t>
@@ -3119,7 +3119,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -32679,13 +32679,13 @@
         <v>4</v>
       </c>
       <c r="AX153">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY153">
         <v>15</v>
       </c>
       <c r="AZ153">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA153">
         <v>7</v>
@@ -33359,7 +33359,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>7481515</v>
+        <v>7481520</v>
       </c>
       <c r="C157" t="s">
         <v>68</v>
@@ -33368,76 +33368,76 @@
         <v>69</v>
       </c>
       <c r="E157" s="2">
-        <v>45613.51041666666</v>
+        <v>45612.875</v>
       </c>
       <c r="F157">
         <v>15</v>
       </c>
       <c r="G157" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H157" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J157">
         <v>0</v>
       </c>
       <c r="K157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L157">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N157">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O157" t="s">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="P157" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="Q157">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="R157">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S157">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T157">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U157">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V157">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="W157">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X157">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y157">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Z157">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AA157">
         <v>3.1</v>
       </c>
       <c r="AB157">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AC157">
         <v>1.1</v>
@@ -33449,115 +33449,115 @@
         <v>1.48</v>
       </c>
       <c r="AF157">
-        <v>2.37</v>
+        <v>2.65</v>
       </c>
       <c r="AG157">
-        <v>2.47</v>
+        <v>2.25</v>
       </c>
       <c r="AH157">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AI157">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AJ157">
+        <v>1.67</v>
+      </c>
+      <c r="AK157">
+        <v>1.2</v>
+      </c>
+      <c r="AL157">
+        <v>1.28</v>
+      </c>
+      <c r="AM157">
+        <v>1.85</v>
+      </c>
+      <c r="AN157">
         <v>1.5</v>
       </c>
-      <c r="AK157">
-        <v>1.17</v>
-      </c>
-      <c r="AL157">
-        <v>1.25</v>
-      </c>
-      <c r="AM157">
-        <v>2</v>
-      </c>
-      <c r="AN157">
-        <v>2.5</v>
-      </c>
       <c r="AO157">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP157">
-        <v>2.57</v>
+        <v>1.43</v>
       </c>
       <c r="AQ157">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="AR157">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="AS157">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AT157">
-        <v>2.74</v>
+        <v>2.71</v>
       </c>
       <c r="AU157">
+        <v>9</v>
+      </c>
+      <c r="AV157">
+        <v>3</v>
+      </c>
+      <c r="AW157">
+        <v>11</v>
+      </c>
+      <c r="AX157">
+        <v>4</v>
+      </c>
+      <c r="AY157">
+        <v>21</v>
+      </c>
+      <c r="AZ157">
+        <v>9</v>
+      </c>
+      <c r="BA157">
+        <v>5</v>
+      </c>
+      <c r="BB157">
+        <v>5</v>
+      </c>
+      <c r="BC157">
+        <v>10</v>
+      </c>
+      <c r="BD157">
+        <v>1.51</v>
+      </c>
+      <c r="BE157">
         <v>8</v>
       </c>
-      <c r="AV157">
-        <v>4</v>
-      </c>
-      <c r="AW157">
-        <v>6</v>
-      </c>
-      <c r="AX157">
-        <v>8</v>
-      </c>
-      <c r="AY157">
-        <v>16</v>
-      </c>
-      <c r="AZ157">
-        <v>14</v>
-      </c>
-      <c r="BA157">
-        <v>4</v>
-      </c>
-      <c r="BB157">
-        <v>4</v>
-      </c>
-      <c r="BC157">
-        <v>8</v>
-      </c>
-      <c r="BD157">
-        <v>1.38</v>
-      </c>
-      <c r="BE157">
-        <v>6.75</v>
-      </c>
       <c r="BF157">
-        <v>3.15</v>
+        <v>3.17</v>
       </c>
       <c r="BG157">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="BH157">
-        <v>3.05</v>
+        <v>2.6</v>
       </c>
       <c r="BI157">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="BJ157">
-        <v>2.28</v>
+        <v>1.96</v>
       </c>
       <c r="BK157">
-        <v>1.98</v>
+        <v>2.24</v>
       </c>
       <c r="BL157">
-        <v>1.82</v>
+        <v>1.57</v>
       </c>
       <c r="BM157">
-        <v>2.32</v>
+        <v>2.98</v>
       </c>
       <c r="BN157">
-        <v>1.52</v>
+        <v>1.34</v>
       </c>
       <c r="BO157">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="BP157">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="158" spans="1:68">
@@ -33565,7 +33565,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>7481511</v>
+        <v>7481515</v>
       </c>
       <c r="C158" t="s">
         <v>68</v>
@@ -33574,16 +33574,16 @@
         <v>69</v>
       </c>
       <c r="E158" s="2">
-        <v>45613.51041666666</v>
+        <v>45612.875</v>
       </c>
       <c r="F158">
         <v>15</v>
       </c>
       <c r="G158" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="H158" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I158">
         <v>2</v>
@@ -33595,175 +33595,175 @@
         <v>2</v>
       </c>
       <c r="L158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N158">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O158" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P158" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="Q158">
+        <v>2.4</v>
+      </c>
+      <c r="R158">
+        <v>1.95</v>
+      </c>
+      <c r="S158">
+        <v>6</v>
+      </c>
+      <c r="T158">
+        <v>1.57</v>
+      </c>
+      <c r="U158">
+        <v>2.25</v>
+      </c>
+      <c r="V158">
+        <v>3.75</v>
+      </c>
+      <c r="W158">
+        <v>1.25</v>
+      </c>
+      <c r="X158">
+        <v>13</v>
+      </c>
+      <c r="Y158">
+        <v>1.04</v>
+      </c>
+      <c r="Z158">
+        <v>1.75</v>
+      </c>
+      <c r="AA158">
+        <v>3.1</v>
+      </c>
+      <c r="AB158">
+        <v>4.5</v>
+      </c>
+      <c r="AC158">
+        <v>1.1</v>
+      </c>
+      <c r="AD158">
+        <v>6.5</v>
+      </c>
+      <c r="AE158">
+        <v>1.48</v>
+      </c>
+      <c r="AF158">
+        <v>2.37</v>
+      </c>
+      <c r="AG158">
+        <v>2.47</v>
+      </c>
+      <c r="AH158">
+        <v>1.48</v>
+      </c>
+      <c r="AI158">
         <v>2.5</v>
       </c>
-      <c r="R158">
-        <v>2.05</v>
-      </c>
-      <c r="S158">
-        <v>4.33</v>
-      </c>
-      <c r="T158">
-        <v>1.42</v>
-      </c>
-      <c r="U158">
-        <v>2.65</v>
-      </c>
-      <c r="V158">
-        <v>2.9</v>
-      </c>
-      <c r="W158">
-        <v>1.36</v>
-      </c>
-      <c r="X158">
-        <v>6.9</v>
-      </c>
-      <c r="Y158">
-        <v>1.07</v>
-      </c>
-      <c r="Z158">
-        <v>1.8</v>
-      </c>
-      <c r="AA158">
-        <v>3.3</v>
-      </c>
-      <c r="AB158">
-        <v>3.9</v>
-      </c>
-      <c r="AC158">
-        <v>1.07</v>
-      </c>
-      <c r="AD158">
-        <v>8</v>
-      </c>
-      <c r="AE158">
-        <v>1.35</v>
-      </c>
-      <c r="AF158">
-        <v>3.1</v>
-      </c>
-      <c r="AG158">
-        <v>1.95</v>
-      </c>
-      <c r="AH158">
-        <v>1.73</v>
-      </c>
-      <c r="AI158">
-        <v>1.83</v>
-      </c>
       <c r="AJ158">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="AK158">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AL158">
         <v>1.25</v>
       </c>
       <c r="AM158">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AN158">
-        <v>0.86</v>
+        <v>2.5</v>
       </c>
       <c r="AO158">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="AP158">
-        <v>1.13</v>
+        <v>2.57</v>
       </c>
       <c r="AQ158">
-        <v>0.14</v>
+        <v>0.29</v>
       </c>
       <c r="AR158">
-        <v>1.49</v>
+        <v>1.68</v>
       </c>
       <c r="AS158">
-        <v>1.27</v>
+        <v>1.06</v>
       </c>
       <c r="AT158">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="AU158">
+        <v>8</v>
+      </c>
+      <c r="AV158">
+        <v>4</v>
+      </c>
+      <c r="AW158">
         <v>6</v>
       </c>
-      <c r="AV158">
+      <c r="AX158">
+        <v>8</v>
+      </c>
+      <c r="AY158">
+        <v>16</v>
+      </c>
+      <c r="AZ158">
+        <v>14</v>
+      </c>
+      <c r="BA158">
+        <v>4</v>
+      </c>
+      <c r="BB158">
+        <v>4</v>
+      </c>
+      <c r="BC158">
+        <v>8</v>
+      </c>
+      <c r="BD158">
+        <v>1.38</v>
+      </c>
+      <c r="BE158">
+        <v>6.75</v>
+      </c>
+      <c r="BF158">
+        <v>3.15</v>
+      </c>
+      <c r="BG158">
+        <v>1.3</v>
+      </c>
+      <c r="BH158">
+        <v>3.05</v>
+      </c>
+      <c r="BI158">
+        <v>1.53</v>
+      </c>
+      <c r="BJ158">
+        <v>2.28</v>
+      </c>
+      <c r="BK158">
+        <v>1.98</v>
+      </c>
+      <c r="BL158">
+        <v>1.82</v>
+      </c>
+      <c r="BM158">
+        <v>2.32</v>
+      </c>
+      <c r="BN158">
+        <v>1.52</v>
+      </c>
+      <c r="BO158">
         <v>3</v>
       </c>
-      <c r="AW158">
-        <v>5</v>
-      </c>
-      <c r="AX158">
-        <v>10</v>
-      </c>
-      <c r="AY158">
-        <v>13</v>
-      </c>
-      <c r="AZ158">
-        <v>21</v>
-      </c>
-      <c r="BA158">
-        <v>5</v>
-      </c>
-      <c r="BB158">
-        <v>9</v>
-      </c>
-      <c r="BC158">
-        <v>14</v>
-      </c>
-      <c r="BD158">
-        <v>1.64</v>
-      </c>
-      <c r="BE158">
-        <v>8</v>
-      </c>
-      <c r="BF158">
-        <v>2.77</v>
-      </c>
-      <c r="BG158">
-        <v>1.34</v>
-      </c>
-      <c r="BH158">
-        <v>2.98</v>
-      </c>
-      <c r="BI158">
-        <v>1.6</v>
-      </c>
-      <c r="BJ158">
-        <v>2.19</v>
-      </c>
-      <c r="BK158">
-        <v>2</v>
-      </c>
-      <c r="BL158">
-        <v>1.72</v>
-      </c>
-      <c r="BM158">
-        <v>2.6</v>
-      </c>
-      <c r="BN158">
-        <v>1.44</v>
-      </c>
-      <c r="BO158">
-        <v>3.5</v>
-      </c>
       <c r="BP158">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="159" spans="1:68">
@@ -33780,7 +33780,7 @@
         <v>69</v>
       </c>
       <c r="E159" s="2">
-        <v>45613.60416666666</v>
+        <v>45612.875</v>
       </c>
       <c r="F159">
         <v>15</v>
@@ -33810,7 +33810,7 @@
         <v>1</v>
       </c>
       <c r="O159" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P159" t="s">
         <v>94</v>
@@ -33977,7 +33977,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>7481510</v>
+        <v>7481511</v>
       </c>
       <c r="C160" t="s">
         <v>68</v>
@@ -33986,196 +33986,196 @@
         <v>69</v>
       </c>
       <c r="E160" s="2">
-        <v>45613.60416666666</v>
+        <v>45612.875</v>
       </c>
       <c r="F160">
         <v>15</v>
       </c>
       <c r="G160" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="H160" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="I160">
         <v>2</v>
       </c>
       <c r="J160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L160">
         <v>2</v>
       </c>
       <c r="M160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O160" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P160" t="s">
-        <v>278</v>
+        <v>94</v>
       </c>
       <c r="Q160">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="R160">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="S160">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="T160">
+        <v>1.42</v>
+      </c>
+      <c r="U160">
+        <v>2.65</v>
+      </c>
+      <c r="V160">
+        <v>2.9</v>
+      </c>
+      <c r="W160">
         <v>1.36</v>
       </c>
-      <c r="U160">
-        <v>3</v>
-      </c>
-      <c r="V160">
-        <v>2.63</v>
-      </c>
-      <c r="W160">
-        <v>1.44</v>
-      </c>
       <c r="X160">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="Y160">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="Z160">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AA160">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AB160">
         <v>3.9</v>
       </c>
       <c r="AC160">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AD160">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AE160">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AF160">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="AG160">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="AH160">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="AI160">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AJ160">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AK160">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AL160">
         <v>1.25</v>
       </c>
       <c r="AM160">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="AN160">
+        <v>0.86</v>
+      </c>
+      <c r="AO160">
+        <v>0.17</v>
+      </c>
+      <c r="AP160">
+        <v>1.13</v>
+      </c>
+      <c r="AQ160">
+        <v>0.14</v>
+      </c>
+      <c r="AR160">
+        <v>1.49</v>
+      </c>
+      <c r="AS160">
+        <v>1.27</v>
+      </c>
+      <c r="AT160">
+        <v>2.76</v>
+      </c>
+      <c r="AU160">
+        <v>6</v>
+      </c>
+      <c r="AV160">
+        <v>3</v>
+      </c>
+      <c r="AW160">
+        <v>5</v>
+      </c>
+      <c r="AX160">
+        <v>10</v>
+      </c>
+      <c r="AY160">
+        <v>13</v>
+      </c>
+      <c r="AZ160">
+        <v>21</v>
+      </c>
+      <c r="BA160">
+        <v>5</v>
+      </c>
+      <c r="BB160">
+        <v>9</v>
+      </c>
+      <c r="BC160">
+        <v>14</v>
+      </c>
+      <c r="BD160">
+        <v>1.64</v>
+      </c>
+      <c r="BE160">
+        <v>8</v>
+      </c>
+      <c r="BF160">
+        <v>2.77</v>
+      </c>
+      <c r="BG160">
+        <v>1.34</v>
+      </c>
+      <c r="BH160">
+        <v>2.98</v>
+      </c>
+      <c r="BI160">
         <v>1.6</v>
       </c>
-      <c r="AO160">
-        <v>1.14</v>
-      </c>
-      <c r="AP160">
-        <v>1.83</v>
-      </c>
-      <c r="AQ160">
-        <v>1</v>
-      </c>
-      <c r="AR160">
-        <v>1.75</v>
-      </c>
-      <c r="AS160">
-        <v>1.46</v>
-      </c>
-      <c r="AT160">
-        <v>3.21</v>
-      </c>
-      <c r="AU160">
-        <v>7</v>
-      </c>
-      <c r="AV160">
-        <v>6</v>
-      </c>
-      <c r="AW160">
-        <v>7</v>
-      </c>
-      <c r="AX160">
-        <v>2</v>
-      </c>
-      <c r="AY160">
-        <v>17</v>
-      </c>
-      <c r="AZ160">
-        <v>8</v>
-      </c>
-      <c r="BA160">
-        <v>7</v>
-      </c>
-      <c r="BB160">
-        <v>4</v>
-      </c>
-      <c r="BC160">
-        <v>11</v>
-      </c>
-      <c r="BD160">
-        <v>1.68</v>
-      </c>
-      <c r="BE160">
-        <v>6.25</v>
-      </c>
-      <c r="BF160">
-        <v>2.3</v>
-      </c>
-      <c r="BG160">
-        <v>1.37</v>
-      </c>
-      <c r="BH160">
-        <v>2.75</v>
-      </c>
-      <c r="BI160">
-        <v>1.64</v>
-      </c>
       <c r="BJ160">
-        <v>2.08</v>
+        <v>2.19</v>
       </c>
       <c r="BK160">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="BL160">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="BM160">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="BN160">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="BO160">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="BP160">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="161" spans="1:68">
@@ -34183,7 +34183,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>7481520</v>
+        <v>7481510</v>
       </c>
       <c r="C161" t="s">
         <v>68</v>
@@ -34192,196 +34192,196 @@
         <v>69</v>
       </c>
       <c r="E161" s="2">
-        <v>45613.70833333334</v>
+        <v>45612.875</v>
       </c>
       <c r="F161">
         <v>15</v>
       </c>
       <c r="G161" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H161" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K161">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N161">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O161" t="s">
-        <v>94</v>
+        <v>204</v>
       </c>
       <c r="P161" t="s">
-        <v>94</v>
+        <v>278</v>
       </c>
       <c r="Q161">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="R161">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="S161">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="T161">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="U161">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="V161">
+        <v>2.63</v>
+      </c>
+      <c r="W161">
+        <v>1.44</v>
+      </c>
+      <c r="X161">
+        <v>7</v>
+      </c>
+      <c r="Y161">
+        <v>1.1</v>
+      </c>
+      <c r="Z161">
+        <v>1.73</v>
+      </c>
+      <c r="AA161">
         <v>3.5</v>
       </c>
-      <c r="W161">
-        <v>1.29</v>
-      </c>
-      <c r="X161">
+      <c r="AB161">
+        <v>3.9</v>
+      </c>
+      <c r="AC161">
+        <v>1.05</v>
+      </c>
+      <c r="AD161">
+        <v>9.5</v>
+      </c>
+      <c r="AE161">
+        <v>1.25</v>
+      </c>
+      <c r="AF161">
+        <v>3.8</v>
+      </c>
+      <c r="AG161">
+        <v>1.65</v>
+      </c>
+      <c r="AH161">
+        <v>2.05</v>
+      </c>
+      <c r="AI161">
+        <v>1.62</v>
+      </c>
+      <c r="AJ161">
+        <v>2.2</v>
+      </c>
+      <c r="AK161">
+        <v>1.3</v>
+      </c>
+      <c r="AL161">
+        <v>1.25</v>
+      </c>
+      <c r="AM161">
+        <v>1.7</v>
+      </c>
+      <c r="AN161">
+        <v>1.6</v>
+      </c>
+      <c r="AO161">
+        <v>1.14</v>
+      </c>
+      <c r="AP161">
+        <v>1.83</v>
+      </c>
+      <c r="AQ161">
+        <v>1</v>
+      </c>
+      <c r="AR161">
+        <v>1.75</v>
+      </c>
+      <c r="AS161">
+        <v>1.46</v>
+      </c>
+      <c r="AT161">
+        <v>3.21</v>
+      </c>
+      <c r="AU161">
+        <v>7</v>
+      </c>
+      <c r="AV161">
+        <v>6</v>
+      </c>
+      <c r="AW161">
+        <v>7</v>
+      </c>
+      <c r="AX161">
+        <v>2</v>
+      </c>
+      <c r="AY161">
+        <v>17</v>
+      </c>
+      <c r="AZ161">
+        <v>8</v>
+      </c>
+      <c r="BA161">
+        <v>7</v>
+      </c>
+      <c r="BB161">
+        <v>4</v>
+      </c>
+      <c r="BC161">
         <v>11</v>
       </c>
-      <c r="Y161">
-        <v>1.05</v>
-      </c>
-      <c r="Z161">
-        <v>1.8</v>
-      </c>
-      <c r="AA161">
-        <v>3.1</v>
-      </c>
-      <c r="AB161">
-        <v>4</v>
-      </c>
-      <c r="AC161">
-        <v>1.1</v>
-      </c>
-      <c r="AD161">
-        <v>6.5</v>
-      </c>
-      <c r="AE161">
-        <v>1.48</v>
-      </c>
-      <c r="AF161">
-        <v>2.65</v>
-      </c>
-      <c r="AG161">
-        <v>2.25</v>
-      </c>
-      <c r="AH161">
-        <v>1.53</v>
-      </c>
-      <c r="AI161">
-        <v>2.1</v>
-      </c>
-      <c r="AJ161">
-        <v>1.67</v>
-      </c>
-      <c r="AK161">
-        <v>1.2</v>
-      </c>
-      <c r="AL161">
-        <v>1.28</v>
-      </c>
-      <c r="AM161">
-        <v>1.85</v>
-      </c>
-      <c r="AN161">
-        <v>1.5</v>
-      </c>
-      <c r="AO161">
-        <v>1</v>
-      </c>
-      <c r="AP161">
-        <v>1.43</v>
-      </c>
-      <c r="AQ161">
-        <v>1</v>
-      </c>
-      <c r="AR161">
-        <v>1.62</v>
-      </c>
-      <c r="AS161">
-        <v>1.09</v>
-      </c>
-      <c r="AT161">
-        <v>2.71</v>
-      </c>
-      <c r="AU161">
-        <v>9</v>
-      </c>
-      <c r="AV161">
-        <v>3</v>
-      </c>
-      <c r="AW161">
-        <v>11</v>
-      </c>
-      <c r="AX161">
-        <v>4</v>
-      </c>
-      <c r="AY161">
-        <v>21</v>
-      </c>
-      <c r="AZ161">
-        <v>9</v>
-      </c>
-      <c r="BA161">
-        <v>5</v>
-      </c>
-      <c r="BB161">
-        <v>5</v>
-      </c>
-      <c r="BC161">
-        <v>10</v>
-      </c>
       <c r="BD161">
-        <v>1.51</v>
+        <v>1.68</v>
       </c>
       <c r="BE161">
-        <v>8</v>
+        <v>6.25</v>
       </c>
       <c r="BF161">
-        <v>3.17</v>
+        <v>2.3</v>
       </c>
       <c r="BG161">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="BH161">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="BI161">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="BJ161">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="BK161">
-        <v>2.24</v>
+        <v>2.04</v>
       </c>
       <c r="BL161">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="BM161">
-        <v>2.98</v>
+        <v>2.63</v>
       </c>
       <c r="BN161">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="BO161">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="BP161">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -622,10 +622,10 @@
     <t>['9', '16', '68']</t>
   </si>
   <si>
-    <t>['14']</t>
+    <t>['38', '45+1']</t>
   </si>
   <si>
-    <t>['38', '45+1']</t>
+    <t>['14']</t>
   </si>
   <si>
     <t>['31', '45+1']</t>
@@ -3119,7 +3119,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -33359,7 +33359,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>7481520</v>
+        <v>7481515</v>
       </c>
       <c r="C157" t="s">
         <v>68</v>
@@ -33368,76 +33368,76 @@
         <v>69</v>
       </c>
       <c r="E157" s="2">
-        <v>45612.875</v>
+        <v>45613.51041666666</v>
       </c>
       <c r="F157">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H157" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J157">
         <v>0</v>
       </c>
       <c r="K157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L157">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N157">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O157" t="s">
-        <v>94</v>
+        <v>201</v>
       </c>
       <c r="P157" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="Q157">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="R157">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S157">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T157">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U157">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V157">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W157">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X157">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y157">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Z157">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA157">
         <v>3.1</v>
       </c>
       <c r="AB157">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AC157">
         <v>1.1</v>
@@ -33449,115 +33449,115 @@
         <v>1.48</v>
       </c>
       <c r="AF157">
-        <v>2.65</v>
+        <v>2.37</v>
       </c>
       <c r="AG157">
-        <v>2.25</v>
+        <v>2.47</v>
       </c>
       <c r="AH157">
+        <v>1.48</v>
+      </c>
+      <c r="AI157">
+        <v>2.5</v>
+      </c>
+      <c r="AJ157">
+        <v>1.5</v>
+      </c>
+      <c r="AK157">
+        <v>1.17</v>
+      </c>
+      <c r="AL157">
+        <v>1.25</v>
+      </c>
+      <c r="AM157">
+        <v>2</v>
+      </c>
+      <c r="AN157">
+        <v>2.5</v>
+      </c>
+      <c r="AO157">
+        <v>0.33</v>
+      </c>
+      <c r="AP157">
+        <v>2.57</v>
+      </c>
+      <c r="AQ157">
+        <v>0.29</v>
+      </c>
+      <c r="AR157">
+        <v>1.68</v>
+      </c>
+      <c r="AS157">
+        <v>1.06</v>
+      </c>
+      <c r="AT157">
+        <v>2.74</v>
+      </c>
+      <c r="AU157">
+        <v>8</v>
+      </c>
+      <c r="AV157">
+        <v>4</v>
+      </c>
+      <c r="AW157">
+        <v>6</v>
+      </c>
+      <c r="AX157">
+        <v>8</v>
+      </c>
+      <c r="AY157">
+        <v>16</v>
+      </c>
+      <c r="AZ157">
+        <v>14</v>
+      </c>
+      <c r="BA157">
+        <v>4</v>
+      </c>
+      <c r="BB157">
+        <v>4</v>
+      </c>
+      <c r="BC157">
+        <v>8</v>
+      </c>
+      <c r="BD157">
+        <v>1.38</v>
+      </c>
+      <c r="BE157">
+        <v>6.75</v>
+      </c>
+      <c r="BF157">
+        <v>3.15</v>
+      </c>
+      <c r="BG157">
+        <v>1.3</v>
+      </c>
+      <c r="BH157">
+        <v>3.05</v>
+      </c>
+      <c r="BI157">
         <v>1.53</v>
       </c>
-      <c r="AI157">
-        <v>2.1</v>
-      </c>
-      <c r="AJ157">
-        <v>1.67</v>
-      </c>
-      <c r="AK157">
-        <v>1.2</v>
-      </c>
-      <c r="AL157">
-        <v>1.28</v>
-      </c>
-      <c r="AM157">
-        <v>1.85</v>
-      </c>
-      <c r="AN157">
-        <v>1.5</v>
-      </c>
-      <c r="AO157">
-        <v>1</v>
-      </c>
-      <c r="AP157">
-        <v>1.43</v>
-      </c>
-      <c r="AQ157">
-        <v>1</v>
-      </c>
-      <c r="AR157">
-        <v>1.62</v>
-      </c>
-      <c r="AS157">
-        <v>1.09</v>
-      </c>
-      <c r="AT157">
-        <v>2.71</v>
-      </c>
-      <c r="AU157">
-        <v>9</v>
-      </c>
-      <c r="AV157">
+      <c r="BJ157">
+        <v>2.28</v>
+      </c>
+      <c r="BK157">
+        <v>1.98</v>
+      </c>
+      <c r="BL157">
+        <v>1.82</v>
+      </c>
+      <c r="BM157">
+        <v>2.32</v>
+      </c>
+      <c r="BN157">
+        <v>1.52</v>
+      </c>
+      <c r="BO157">
         <v>3</v>
       </c>
-      <c r="AW157">
-        <v>11</v>
-      </c>
-      <c r="AX157">
-        <v>4</v>
-      </c>
-      <c r="AY157">
-        <v>21</v>
-      </c>
-      <c r="AZ157">
-        <v>9</v>
-      </c>
-      <c r="BA157">
-        <v>5</v>
-      </c>
-      <c r="BB157">
-        <v>5</v>
-      </c>
-      <c r="BC157">
-        <v>10</v>
-      </c>
-      <c r="BD157">
-        <v>1.51</v>
-      </c>
-      <c r="BE157">
-        <v>8</v>
-      </c>
-      <c r="BF157">
-        <v>3.17</v>
-      </c>
-      <c r="BG157">
-        <v>1.43</v>
-      </c>
-      <c r="BH157">
-        <v>2.6</v>
-      </c>
-      <c r="BI157">
-        <v>1.75</v>
-      </c>
-      <c r="BJ157">
-        <v>1.96</v>
-      </c>
-      <c r="BK157">
-        <v>2.24</v>
-      </c>
-      <c r="BL157">
-        <v>1.57</v>
-      </c>
-      <c r="BM157">
-        <v>2.98</v>
-      </c>
-      <c r="BN157">
-        <v>1.34</v>
-      </c>
-      <c r="BO157">
-        <v>3.9</v>
-      </c>
       <c r="BP157">
-        <v>1.19</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="158" spans="1:68">
@@ -33565,7 +33565,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>7481515</v>
+        <v>7481511</v>
       </c>
       <c r="C158" t="s">
         <v>68</v>
@@ -33574,16 +33574,16 @@
         <v>69</v>
       </c>
       <c r="E158" s="2">
-        <v>45612.875</v>
+        <v>45613.51041666666</v>
       </c>
       <c r="F158">
         <v>15</v>
       </c>
       <c r="G158" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="H158" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I158">
         <v>2</v>
@@ -33595,175 +33595,175 @@
         <v>2</v>
       </c>
       <c r="L158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N158">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O158" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P158" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="Q158">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R158">
+        <v>2.05</v>
+      </c>
+      <c r="S158">
+        <v>4.33</v>
+      </c>
+      <c r="T158">
+        <v>1.42</v>
+      </c>
+      <c r="U158">
+        <v>2.65</v>
+      </c>
+      <c r="V158">
+        <v>2.9</v>
+      </c>
+      <c r="W158">
+        <v>1.36</v>
+      </c>
+      <c r="X158">
+        <v>6.9</v>
+      </c>
+      <c r="Y158">
+        <v>1.07</v>
+      </c>
+      <c r="Z158">
+        <v>1.8</v>
+      </c>
+      <c r="AA158">
+        <v>3.3</v>
+      </c>
+      <c r="AB158">
+        <v>3.9</v>
+      </c>
+      <c r="AC158">
+        <v>1.07</v>
+      </c>
+      <c r="AD158">
+        <v>8</v>
+      </c>
+      <c r="AE158">
+        <v>1.35</v>
+      </c>
+      <c r="AF158">
+        <v>3.1</v>
+      </c>
+      <c r="AG158">
         <v>1.95</v>
       </c>
-      <c r="S158">
-        <v>6</v>
-      </c>
-      <c r="T158">
-        <v>1.57</v>
-      </c>
-      <c r="U158">
-        <v>2.25</v>
-      </c>
-      <c r="V158">
-        <v>3.75</v>
-      </c>
-      <c r="W158">
-        <v>1.25</v>
-      </c>
-      <c r="X158">
-        <v>13</v>
-      </c>
-      <c r="Y158">
-        <v>1.04</v>
-      </c>
-      <c r="Z158">
-        <v>1.75</v>
-      </c>
-      <c r="AA158">
-        <v>3.1</v>
-      </c>
-      <c r="AB158">
-        <v>4.5</v>
-      </c>
-      <c r="AC158">
-        <v>1.1</v>
-      </c>
-      <c r="AD158">
-        <v>6.5</v>
-      </c>
-      <c r="AE158">
-        <v>1.48</v>
-      </c>
-      <c r="AF158">
-        <v>2.37</v>
-      </c>
-      <c r="AG158">
-        <v>2.47</v>
-      </c>
       <c r="AH158">
-        <v>1.48</v>
+        <v>1.73</v>
       </c>
       <c r="AI158">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="AJ158">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="AK158">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AL158">
         <v>1.25</v>
       </c>
       <c r="AM158">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AN158">
-        <v>2.5</v>
+        <v>0.86</v>
       </c>
       <c r="AO158">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="AP158">
-        <v>2.57</v>
+        <v>1.13</v>
       </c>
       <c r="AQ158">
-        <v>0.29</v>
+        <v>0.14</v>
       </c>
       <c r="AR158">
-        <v>1.68</v>
+        <v>1.49</v>
       </c>
       <c r="AS158">
-        <v>1.06</v>
+        <v>1.27</v>
       </c>
       <c r="AT158">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="AU158">
+        <v>6</v>
+      </c>
+      <c r="AV158">
+        <v>3</v>
+      </c>
+      <c r="AW158">
+        <v>5</v>
+      </c>
+      <c r="AX158">
+        <v>10</v>
+      </c>
+      <c r="AY158">
+        <v>13</v>
+      </c>
+      <c r="AZ158">
+        <v>21</v>
+      </c>
+      <c r="BA158">
+        <v>5</v>
+      </c>
+      <c r="BB158">
+        <v>9</v>
+      </c>
+      <c r="BC158">
+        <v>14</v>
+      </c>
+      <c r="BD158">
+        <v>1.64</v>
+      </c>
+      <c r="BE158">
         <v>8</v>
       </c>
-      <c r="AV158">
-        <v>4</v>
-      </c>
-      <c r="AW158">
-        <v>6</v>
-      </c>
-      <c r="AX158">
-        <v>8</v>
-      </c>
-      <c r="AY158">
-        <v>16</v>
-      </c>
-      <c r="AZ158">
-        <v>14</v>
-      </c>
-      <c r="BA158">
-        <v>4</v>
-      </c>
-      <c r="BB158">
-        <v>4</v>
-      </c>
-      <c r="BC158">
-        <v>8</v>
-      </c>
-      <c r="BD158">
-        <v>1.38</v>
-      </c>
-      <c r="BE158">
-        <v>6.75</v>
-      </c>
       <c r="BF158">
-        <v>3.15</v>
+        <v>2.77</v>
       </c>
       <c r="BG158">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="BH158">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="BI158">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="BJ158">
-        <v>2.28</v>
+        <v>2.19</v>
       </c>
       <c r="BK158">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BL158">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="BM158">
-        <v>2.32</v>
+        <v>2.6</v>
       </c>
       <c r="BN158">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="BO158">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="BP158">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="159" spans="1:68">
@@ -33780,7 +33780,7 @@
         <v>69</v>
       </c>
       <c r="E159" s="2">
-        <v>45612.875</v>
+        <v>45613.60416666666</v>
       </c>
       <c r="F159">
         <v>15</v>
@@ -33810,7 +33810,7 @@
         <v>1</v>
       </c>
       <c r="O159" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P159" t="s">
         <v>94</v>
@@ -33977,7 +33977,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>7481511</v>
+        <v>7481510</v>
       </c>
       <c r="C160" t="s">
         <v>68</v>
@@ -33986,196 +33986,196 @@
         <v>69</v>
       </c>
       <c r="E160" s="2">
-        <v>45612.875</v>
+        <v>45613.60416666666</v>
       </c>
       <c r="F160">
         <v>15</v>
       </c>
       <c r="G160" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H160" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="I160">
         <v>2</v>
       </c>
       <c r="J160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L160">
         <v>2</v>
       </c>
       <c r="M160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O160" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P160" t="s">
-        <v>94</v>
+        <v>278</v>
       </c>
       <c r="Q160">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="R160">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="S160">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="T160">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="U160">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="V160">
-        <v>2.9</v>
+        <v>2.63</v>
       </c>
       <c r="W160">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="X160">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="Y160">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="Z160">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA160">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AB160">
         <v>3.9</v>
       </c>
       <c r="AC160">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AD160">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AE160">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AF160">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="AG160">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="AH160">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="AI160">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AJ160">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="AK160">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AL160">
         <v>1.25</v>
       </c>
       <c r="AM160">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="AN160">
-        <v>0.86</v>
+        <v>1.6</v>
       </c>
       <c r="AO160">
-        <v>0.17</v>
+        <v>1.14</v>
       </c>
       <c r="AP160">
-        <v>1.13</v>
+        <v>1.83</v>
       </c>
       <c r="AQ160">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="AR160">
-        <v>1.49</v>
+        <v>1.75</v>
       </c>
       <c r="AS160">
-        <v>1.27</v>
+        <v>1.46</v>
       </c>
       <c r="AT160">
-        <v>2.76</v>
+        <v>3.21</v>
       </c>
       <c r="AU160">
+        <v>7</v>
+      </c>
+      <c r="AV160">
         <v>6</v>
       </c>
-      <c r="AV160">
-        <v>3</v>
-      </c>
       <c r="AW160">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX160">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AY160">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ160">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="BA160">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB160">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BC160">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BD160">
+        <v>1.68</v>
+      </c>
+      <c r="BE160">
+        <v>6.25</v>
+      </c>
+      <c r="BF160">
+        <v>2.3</v>
+      </c>
+      <c r="BG160">
+        <v>1.37</v>
+      </c>
+      <c r="BH160">
+        <v>2.75</v>
+      </c>
+      <c r="BI160">
         <v>1.64</v>
       </c>
-      <c r="BE160">
-        <v>8</v>
-      </c>
-      <c r="BF160">
-        <v>2.77</v>
-      </c>
-      <c r="BG160">
-        <v>1.34</v>
-      </c>
-      <c r="BH160">
-        <v>2.98</v>
-      </c>
-      <c r="BI160">
-        <v>1.6</v>
-      </c>
       <c r="BJ160">
-        <v>2.19</v>
+        <v>2.08</v>
       </c>
       <c r="BK160">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="BL160">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="BM160">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="BN160">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="BO160">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="BP160">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="161" spans="1:68">
@@ -34183,7 +34183,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>7481510</v>
+        <v>7481520</v>
       </c>
       <c r="C161" t="s">
         <v>68</v>
@@ -34192,196 +34192,196 @@
         <v>69</v>
       </c>
       <c r="E161" s="2">
-        <v>45612.875</v>
+        <v>45613.70833333334</v>
       </c>
       <c r="F161">
         <v>15</v>
       </c>
       <c r="G161" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H161" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+      <c r="O161" t="s">
+        <v>94</v>
+      </c>
+      <c r="P161" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q161">
+        <v>2.6</v>
+      </c>
+      <c r="R161">
+        <v>2</v>
+      </c>
+      <c r="S161">
+        <v>5</v>
+      </c>
+      <c r="T161">
+        <v>1.53</v>
+      </c>
+      <c r="U161">
+        <v>2.38</v>
+      </c>
+      <c r="V161">
+        <v>3.5</v>
+      </c>
+      <c r="W161">
+        <v>1.29</v>
+      </c>
+      <c r="X161">
+        <v>11</v>
+      </c>
+      <c r="Y161">
+        <v>1.05</v>
+      </c>
+      <c r="Z161">
+        <v>1.8</v>
+      </c>
+      <c r="AA161">
+        <v>3.1</v>
+      </c>
+      <c r="AB161">
+        <v>4</v>
+      </c>
+      <c r="AC161">
+        <v>1.1</v>
+      </c>
+      <c r="AD161">
+        <v>6.5</v>
+      </c>
+      <c r="AE161">
+        <v>1.48</v>
+      </c>
+      <c r="AF161">
+        <v>2.65</v>
+      </c>
+      <c r="AG161">
+        <v>2.25</v>
+      </c>
+      <c r="AH161">
+        <v>1.53</v>
+      </c>
+      <c r="AI161">
+        <v>2.1</v>
+      </c>
+      <c r="AJ161">
+        <v>1.67</v>
+      </c>
+      <c r="AK161">
+        <v>1.2</v>
+      </c>
+      <c r="AL161">
+        <v>1.28</v>
+      </c>
+      <c r="AM161">
+        <v>1.85</v>
+      </c>
+      <c r="AN161">
+        <v>1.5</v>
+      </c>
+      <c r="AO161">
+        <v>1</v>
+      </c>
+      <c r="AP161">
+        <v>1.43</v>
+      </c>
+      <c r="AQ161">
+        <v>1</v>
+      </c>
+      <c r="AR161">
+        <v>1.62</v>
+      </c>
+      <c r="AS161">
+        <v>1.09</v>
+      </c>
+      <c r="AT161">
+        <v>2.71</v>
+      </c>
+      <c r="AU161">
+        <v>9</v>
+      </c>
+      <c r="AV161">
         <v>3</v>
       </c>
-      <c r="L161">
-        <v>2</v>
-      </c>
-      <c r="M161">
-        <v>1</v>
-      </c>
-      <c r="N161">
-        <v>3</v>
-      </c>
-      <c r="O161" t="s">
-        <v>204</v>
-      </c>
-      <c r="P161" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q161">
-        <v>2.75</v>
-      </c>
-      <c r="R161">
-        <v>2.25</v>
-      </c>
-      <c r="S161">
-        <v>3.75</v>
-      </c>
-      <c r="T161">
-        <v>1.36</v>
-      </c>
-      <c r="U161">
-        <v>3</v>
-      </c>
-      <c r="V161">
-        <v>2.63</v>
-      </c>
-      <c r="W161">
-        <v>1.44</v>
-      </c>
-      <c r="X161">
-        <v>7</v>
-      </c>
-      <c r="Y161">
-        <v>1.1</v>
-      </c>
-      <c r="Z161">
-        <v>1.73</v>
-      </c>
-      <c r="AA161">
-        <v>3.5</v>
-      </c>
-      <c r="AB161">
+      <c r="AW161">
+        <v>11</v>
+      </c>
+      <c r="AX161">
+        <v>4</v>
+      </c>
+      <c r="AY161">
+        <v>21</v>
+      </c>
+      <c r="AZ161">
+        <v>9</v>
+      </c>
+      <c r="BA161">
+        <v>5</v>
+      </c>
+      <c r="BB161">
+        <v>5</v>
+      </c>
+      <c r="BC161">
+        <v>10</v>
+      </c>
+      <c r="BD161">
+        <v>1.51</v>
+      </c>
+      <c r="BE161">
+        <v>8</v>
+      </c>
+      <c r="BF161">
+        <v>3.17</v>
+      </c>
+      <c r="BG161">
+        <v>1.43</v>
+      </c>
+      <c r="BH161">
+        <v>2.6</v>
+      </c>
+      <c r="BI161">
+        <v>1.75</v>
+      </c>
+      <c r="BJ161">
+        <v>1.96</v>
+      </c>
+      <c r="BK161">
+        <v>2.24</v>
+      </c>
+      <c r="BL161">
+        <v>1.57</v>
+      </c>
+      <c r="BM161">
+        <v>2.98</v>
+      </c>
+      <c r="BN161">
+        <v>1.34</v>
+      </c>
+      <c r="BO161">
         <v>3.9</v>
       </c>
-      <c r="AC161">
-        <v>1.05</v>
-      </c>
-      <c r="AD161">
-        <v>9.5</v>
-      </c>
-      <c r="AE161">
-        <v>1.25</v>
-      </c>
-      <c r="AF161">
-        <v>3.8</v>
-      </c>
-      <c r="AG161">
-        <v>1.65</v>
-      </c>
-      <c r="AH161">
-        <v>2.05</v>
-      </c>
-      <c r="AI161">
-        <v>1.62</v>
-      </c>
-      <c r="AJ161">
-        <v>2.2</v>
-      </c>
-      <c r="AK161">
-        <v>1.3</v>
-      </c>
-      <c r="AL161">
-        <v>1.25</v>
-      </c>
-      <c r="AM161">
-        <v>1.7</v>
-      </c>
-      <c r="AN161">
-        <v>1.6</v>
-      </c>
-      <c r="AO161">
-        <v>1.14</v>
-      </c>
-      <c r="AP161">
-        <v>1.83</v>
-      </c>
-      <c r="AQ161">
-        <v>1</v>
-      </c>
-      <c r="AR161">
-        <v>1.75</v>
-      </c>
-      <c r="AS161">
-        <v>1.46</v>
-      </c>
-      <c r="AT161">
-        <v>3.21</v>
-      </c>
-      <c r="AU161">
-        <v>7</v>
-      </c>
-      <c r="AV161">
-        <v>6</v>
-      </c>
-      <c r="AW161">
-        <v>7</v>
-      </c>
-      <c r="AX161">
-        <v>2</v>
-      </c>
-      <c r="AY161">
-        <v>17</v>
-      </c>
-      <c r="AZ161">
-        <v>8</v>
-      </c>
-      <c r="BA161">
-        <v>7</v>
-      </c>
-      <c r="BB161">
-        <v>4</v>
-      </c>
-      <c r="BC161">
-        <v>11</v>
-      </c>
-      <c r="BD161">
-        <v>1.68</v>
-      </c>
-      <c r="BE161">
-        <v>6.25</v>
-      </c>
-      <c r="BF161">
-        <v>2.3</v>
-      </c>
-      <c r="BG161">
-        <v>1.37</v>
-      </c>
-      <c r="BH161">
-        <v>2.75</v>
-      </c>
-      <c r="BI161">
-        <v>1.64</v>
-      </c>
-      <c r="BJ161">
-        <v>2.08</v>
-      </c>
-      <c r="BK161">
-        <v>2.04</v>
-      </c>
-      <c r="BL161">
-        <v>1.66</v>
-      </c>
-      <c r="BM161">
-        <v>2.63</v>
-      </c>
-      <c r="BN161">
-        <v>1.41</v>
-      </c>
-      <c r="BO161">
-        <v>3.4</v>
-      </c>
       <c r="BP161">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="280">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -631,13 +631,13 @@
     <t>['31', '45+1']</t>
   </si>
   <si>
+    <t>['45', '79']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
     <t>['14', '43', '84', '90+1']</t>
-  </si>
-  <si>
-    <t>['45', '79']</t>
   </si>
   <si>
     <t>['5']</t>
@@ -851,6 +851,9 @@
   </si>
   <si>
     <t>['35']</t>
+  </si>
+  <si>
+    <t>['83']</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP161"/>
+  <dimension ref="A1:BP162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1471,7 +1474,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1883,7 +1886,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -2089,7 +2092,7 @@
         <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -3406,7 +3409,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3609,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ12">
         <v>0.29</v>
@@ -6084,7 +6087,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR24">
         <v>2.51</v>
@@ -7523,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ31">
         <v>0.75</v>
@@ -9789,7 +9792,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ42">
         <v>1.38</v>
@@ -11234,7 +11237,7 @@
         <v>2</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR49">
         <v>1.38</v>
@@ -13497,7 +13500,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -15560,7 +15563,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR70">
         <v>1.04</v>
@@ -19059,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="AP87">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ87">
         <v>1.86</v>
@@ -23388,7 +23391,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ108">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR108">
         <v>1.17</v>
@@ -24621,7 +24624,7 @@
         <v>1.67</v>
       </c>
       <c r="AP114">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ114">
         <v>1.75</v>
@@ -25860,7 +25863,7 @@
         <v>2</v>
       </c>
       <c r="AQ120">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR120">
         <v>1.6</v>
@@ -32449,7 +32452,7 @@
         <v>1.14</v>
       </c>
       <c r="AP152">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ152">
         <v>1</v>
@@ -33894,7 +33897,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ159">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR159">
         <v>1.21</v>
@@ -34382,6 +34385,212 @@
       </c>
       <c r="BP161">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7481492</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45616.66666666666</v>
+      </c>
+      <c r="F162">
+        <v>13</v>
+      </c>
+      <c r="G162" t="s">
+        <v>80</v>
+      </c>
+      <c r="H162" t="s">
+        <v>81</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <v>2</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+      <c r="N162">
+        <v>3</v>
+      </c>
+      <c r="O162" t="s">
+        <v>205</v>
+      </c>
+      <c r="P162" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q162">
+        <v>2.95</v>
+      </c>
+      <c r="R162">
+        <v>1.85</v>
+      </c>
+      <c r="S162">
+        <v>4.33</v>
+      </c>
+      <c r="T162">
+        <v>1.6</v>
+      </c>
+      <c r="U162">
+        <v>2.22</v>
+      </c>
+      <c r="V162">
+        <v>3.95</v>
+      </c>
+      <c r="W162">
+        <v>1.21</v>
+      </c>
+      <c r="X162">
+        <v>10.5</v>
+      </c>
+      <c r="Y162">
+        <v>1.02</v>
+      </c>
+      <c r="Z162">
+        <v>2.05</v>
+      </c>
+      <c r="AA162">
+        <v>2.9</v>
+      </c>
+      <c r="AB162">
+        <v>3.6</v>
+      </c>
+      <c r="AC162">
+        <v>1.11</v>
+      </c>
+      <c r="AD162">
+        <v>6.5</v>
+      </c>
+      <c r="AE162">
+        <v>1.57</v>
+      </c>
+      <c r="AF162">
+        <v>2.25</v>
+      </c>
+      <c r="AG162">
+        <v>2.65</v>
+      </c>
+      <c r="AH162">
+        <v>1.42</v>
+      </c>
+      <c r="AI162">
+        <v>2.2</v>
+      </c>
+      <c r="AJ162">
+        <v>1.62</v>
+      </c>
+      <c r="AK162">
+        <v>1.25</v>
+      </c>
+      <c r="AL162">
+        <v>1.3</v>
+      </c>
+      <c r="AM162">
+        <v>1.66</v>
+      </c>
+      <c r="AN162">
+        <v>1.43</v>
+      </c>
+      <c r="AO162">
+        <v>1</v>
+      </c>
+      <c r="AP162">
+        <v>1.63</v>
+      </c>
+      <c r="AQ162">
+        <v>0.88</v>
+      </c>
+      <c r="AR162">
+        <v>1.47</v>
+      </c>
+      <c r="AS162">
+        <v>1.13</v>
+      </c>
+      <c r="AT162">
+        <v>2.6</v>
+      </c>
+      <c r="AU162">
+        <v>6</v>
+      </c>
+      <c r="AV162">
+        <v>4</v>
+      </c>
+      <c r="AW162">
+        <v>5</v>
+      </c>
+      <c r="AX162">
+        <v>7</v>
+      </c>
+      <c r="AY162">
+        <v>14</v>
+      </c>
+      <c r="AZ162">
+        <v>14</v>
+      </c>
+      <c r="BA162">
+        <v>4</v>
+      </c>
+      <c r="BB162">
+        <v>5</v>
+      </c>
+      <c r="BC162">
+        <v>9</v>
+      </c>
+      <c r="BD162">
+        <v>1.53</v>
+      </c>
+      <c r="BE162">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="BF162">
+        <v>3.04</v>
+      </c>
+      <c r="BG162">
+        <v>1.4</v>
+      </c>
+      <c r="BH162">
+        <v>2.73</v>
+      </c>
+      <c r="BI162">
+        <v>1.69</v>
+      </c>
+      <c r="BJ162">
+        <v>2.04</v>
+      </c>
+      <c r="BK162">
+        <v>2.15</v>
+      </c>
+      <c r="BL162">
+        <v>1.62</v>
+      </c>
+      <c r="BM162">
+        <v>2.83</v>
+      </c>
+      <c r="BN162">
+        <v>1.37</v>
+      </c>
+      <c r="BO162">
+        <v>3.88</v>
+      </c>
+      <c r="BP162">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="280">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1215,7 +1215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP162"/>
+  <dimension ref="A1:BP163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2997,7 +2997,7 @@
         <v>2</v>
       </c>
       <c r="AQ9">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -4436,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ16">
         <v>2</v>
@@ -7941,7 +7941,7 @@
         <v>2</v>
       </c>
       <c r="AQ33">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR33">
         <v>0.95</v>
@@ -9380,7 +9380,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ40">
         <v>1.14</v>
@@ -9589,7 +9589,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ41">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR41">
         <v>1</v>
@@ -13088,7 +13088,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13709,7 +13709,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ61">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR61">
         <v>1.87</v>
@@ -17620,7 +17620,7 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ80">
         <v>1.14</v>
@@ -20919,7 +20919,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ96">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR96">
         <v>1.53</v>
@@ -22567,7 +22567,7 @@
         <v>1</v>
       </c>
       <c r="AQ104">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR104">
         <v>1.64</v>
@@ -23388,7 +23388,7 @@
         <v>1.5</v>
       </c>
       <c r="AP108">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ108">
         <v>0.88</v>
@@ -28335,7 +28335,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ132">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR132">
         <v>1.78</v>
@@ -28538,7 +28538,7 @@
         <v>0.2</v>
       </c>
       <c r="AP133">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ133">
         <v>0.29</v>
@@ -31422,7 +31422,7 @@
         <v>3</v>
       </c>
       <c r="AP147">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ147">
         <v>3</v>
@@ -34527,22 +34527,22 @@
         <v>2.6</v>
       </c>
       <c r="AU162">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV162">
+        <v>3</v>
+      </c>
+      <c r="AW162">
         <v>4</v>
-      </c>
-      <c r="AW162">
-        <v>5</v>
       </c>
       <c r="AX162">
         <v>7</v>
       </c>
       <c r="AY162">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AZ162">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA162">
         <v>4</v>
@@ -34591,6 +34591,212 @@
       </c>
       <c r="BP162">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7728370</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45618.6875</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163" t="s">
+        <v>73</v>
+      </c>
+      <c r="H163" t="s">
+        <v>82</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163" t="s">
+        <v>94</v>
+      </c>
+      <c r="P163" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q163">
+        <v>4</v>
+      </c>
+      <c r="R163">
+        <v>1.91</v>
+      </c>
+      <c r="S163">
+        <v>3.1</v>
+      </c>
+      <c r="T163">
+        <v>1.57</v>
+      </c>
+      <c r="U163">
+        <v>2.25</v>
+      </c>
+      <c r="V163">
+        <v>3.75</v>
+      </c>
+      <c r="W163">
+        <v>1.25</v>
+      </c>
+      <c r="X163">
+        <v>13</v>
+      </c>
+      <c r="Y163">
+        <v>1.04</v>
+      </c>
+      <c r="Z163">
+        <v>3.1</v>
+      </c>
+      <c r="AA163">
+        <v>2.85</v>
+      </c>
+      <c r="AB163">
+        <v>2.33</v>
+      </c>
+      <c r="AC163">
+        <v>1.1</v>
+      </c>
+      <c r="AD163">
+        <v>7</v>
+      </c>
+      <c r="AE163">
+        <v>1.53</v>
+      </c>
+      <c r="AF163">
+        <v>2.5</v>
+      </c>
+      <c r="AG163">
+        <v>2.63</v>
+      </c>
+      <c r="AH163">
+        <v>1.43</v>
+      </c>
+      <c r="AI163">
+        <v>2.1</v>
+      </c>
+      <c r="AJ163">
+        <v>1.67</v>
+      </c>
+      <c r="AK163">
+        <v>1.57</v>
+      </c>
+      <c r="AL163">
+        <v>1.3</v>
+      </c>
+      <c r="AM163">
+        <v>1.35</v>
+      </c>
+      <c r="AN163">
+        <v>0.88</v>
+      </c>
+      <c r="AO163">
+        <v>1.43</v>
+      </c>
+      <c r="AP163">
+        <v>0.89</v>
+      </c>
+      <c r="AQ163">
+        <v>1.38</v>
+      </c>
+      <c r="AR163">
+        <v>1.14</v>
+      </c>
+      <c r="AS163">
+        <v>1.25</v>
+      </c>
+      <c r="AT163">
+        <v>2.39</v>
+      </c>
+      <c r="AU163">
+        <v>4</v>
+      </c>
+      <c r="AV163">
+        <v>3</v>
+      </c>
+      <c r="AW163">
+        <v>3</v>
+      </c>
+      <c r="AX163">
+        <v>5</v>
+      </c>
+      <c r="AY163">
+        <v>15</v>
+      </c>
+      <c r="AZ163">
+        <v>11</v>
+      </c>
+      <c r="BA163">
+        <v>6</v>
+      </c>
+      <c r="BB163">
+        <v>4</v>
+      </c>
+      <c r="BC163">
+        <v>10</v>
+      </c>
+      <c r="BD163">
+        <v>2.17</v>
+      </c>
+      <c r="BE163">
+        <v>6.1</v>
+      </c>
+      <c r="BF163">
+        <v>1.79</v>
+      </c>
+      <c r="BG163">
+        <v>1.36</v>
+      </c>
+      <c r="BH163">
+        <v>2.8</v>
+      </c>
+      <c r="BI163">
+        <v>1.62</v>
+      </c>
+      <c r="BJ163">
+        <v>2.1</v>
+      </c>
+      <c r="BK163">
+        <v>2</v>
+      </c>
+      <c r="BL163">
+        <v>1.8</v>
+      </c>
+      <c r="BM163">
+        <v>2.55</v>
+      </c>
+      <c r="BN163">
+        <v>1.42</v>
+      </c>
+      <c r="BO163">
+        <v>3.4</v>
+      </c>
+      <c r="BP163">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="283">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -634,6 +634,15 @@
     <t>['45', '79']</t>
   </si>
   <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['30', '58']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -841,19 +850,19 @@
     <t>['39', '78']</t>
   </si>
   <si>
-    <t>['30', '58']</t>
-  </si>
-  <si>
     <t>['20', '24', '29']</t>
   </si>
   <si>
     <t>['33']</t>
   </si>
   <si>
-    <t>['35']</t>
+    <t>['83']</t>
   </si>
   <si>
-    <t>['83']</t>
+    <t>['24', '65']</t>
+  </si>
+  <si>
+    <t>['16', '56']</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP163"/>
+  <dimension ref="A1:BP168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1474,7 +1483,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1552,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1886,7 +1895,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1967,7 +1976,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ4">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2504,7 +2513,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2710,7 +2719,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2791,7 +2800,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ8">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2916,7 +2925,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -3200,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ10">
         <v>0.75</v>
@@ -3328,7 +3337,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3534,7 +3543,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3740,7 +3749,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3821,7 +3830,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ13">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR13">
         <v>1.32</v>
@@ -3946,7 +3955,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4645,7 +4654,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4848,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ18">
         <v>1.14</v>
@@ -4976,7 +4985,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5057,7 +5066,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ19">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5594,7 +5603,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5672,10 +5681,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ22">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5800,7 +5809,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5878,7 +5887,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
         <v>0.88</v>
@@ -6006,7 +6015,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6084,7 +6093,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ24">
         <v>0.88</v>
@@ -6212,7 +6221,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6293,7 +6302,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ25">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6418,7 +6427,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6830,7 +6839,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6908,7 +6917,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -7036,7 +7045,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7114,7 +7123,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ29">
         <v>1.86</v>
@@ -7448,7 +7457,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q31">
         <v>2.75</v>
@@ -7735,7 +7744,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ32">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR32">
         <v>0.48</v>
@@ -7860,7 +7869,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8272,7 +8281,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8353,7 +8362,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ35">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AR35">
         <v>1.42</v>
@@ -8478,7 +8487,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8556,7 +8565,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8890,7 +8899,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9174,7 +9183,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9586,7 +9595,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ41">
         <v>1.38</v>
@@ -9795,7 +9804,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ42">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR42">
         <v>1.8</v>
@@ -10126,7 +10135,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10207,7 +10216,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR44">
         <v>1.41</v>
@@ -10413,7 +10422,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ45">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR45">
         <v>0.96</v>
@@ -10616,7 +10625,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10744,7 +10753,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11234,7 +11243,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ49">
         <v>0.88</v>
@@ -12264,10 +12273,10 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ54">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR54">
         <v>1.46</v>
@@ -12392,7 +12401,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12598,7 +12607,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12804,7 +12813,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12882,7 +12891,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -13010,7 +13019,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13216,7 +13225,7 @@
         <v>94</v>
       </c>
       <c r="P59" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -14040,7 +14049,7 @@
         <v>94</v>
       </c>
       <c r="P63" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14121,7 +14130,7 @@
         <v>1</v>
       </c>
       <c r="AQ63">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AR63">
         <v>1.39</v>
@@ -14246,7 +14255,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14324,10 +14333,10 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ64">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR64">
         <v>1.13</v>
@@ -14658,7 +14667,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14739,7 +14748,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ66">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR66">
         <v>1.93</v>
@@ -15070,7 +15079,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15276,7 +15285,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15769,7 +15778,7 @@
         <v>2</v>
       </c>
       <c r="AQ71">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR71">
         <v>1.44</v>
@@ -15894,7 +15903,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15972,7 +15981,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ72">
         <v>1.14</v>
@@ -16100,7 +16109,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16181,7 +16190,7 @@
         <v>2</v>
       </c>
       <c r="AQ73">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR73">
         <v>2.06</v>
@@ -16306,7 +16315,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16384,7 +16393,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ74">
         <v>2</v>
@@ -16512,7 +16521,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -16796,7 +16805,7 @@
         <v>0.5</v>
       </c>
       <c r="AP76">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ76">
         <v>0.83</v>
@@ -17005,7 +17014,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ77">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR77">
         <v>1.33</v>
@@ -17130,7 +17139,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17336,7 +17345,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q79">
         <v>3.85</v>
@@ -17417,7 +17426,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ79">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR79">
         <v>1.18</v>
@@ -17748,7 +17757,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q81">
         <v>2.65</v>
@@ -17954,7 +17963,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q82">
         <v>3.55</v>
@@ -18366,7 +18375,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18447,7 +18456,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ84">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AR84">
         <v>1.8</v>
@@ -18984,7 +18993,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19396,7 +19405,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19602,7 +19611,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19683,7 +19692,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ90">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR90">
         <v>1.45</v>
@@ -19886,7 +19895,7 @@
         <v>0.33</v>
       </c>
       <c r="AP91">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ91">
         <v>0.83</v>
@@ -20220,7 +20229,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20426,7 +20435,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -20632,7 +20641,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20713,7 +20722,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ95">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR95">
         <v>1.44</v>
@@ -21122,7 +21131,7 @@
         <v>0.25</v>
       </c>
       <c r="AP97">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ97">
         <v>0.14</v>
@@ -21328,7 +21337,7 @@
         <v>0.67</v>
       </c>
       <c r="AP98">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ98">
         <v>1.14</v>
@@ -21662,7 +21671,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -21868,7 +21877,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -21946,7 +21955,7 @@
         <v>1.2</v>
       </c>
       <c r="AP101">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ101">
         <v>0.75</v>
@@ -22358,7 +22367,7 @@
         <v>1.2</v>
       </c>
       <c r="AP103">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ103">
         <v>1</v>
@@ -22770,7 +22779,7 @@
         <v>0.25</v>
       </c>
       <c r="AP105">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ105">
         <v>0.29</v>
@@ -22979,7 +22988,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ106">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR106">
         <v>1.12</v>
@@ -23104,7 +23113,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23185,7 +23194,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ107">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AR107">
         <v>1.53</v>
@@ -23722,7 +23731,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -23803,7 +23812,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ110">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR110">
         <v>1.96</v>
@@ -24134,7 +24143,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q112">
         <v>2.45</v>
@@ -24340,7 +24349,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -24546,7 +24555,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q114">
         <v>3.45</v>
@@ -24627,7 +24636,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ114">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR114">
         <v>1.49</v>
@@ -24833,7 +24842,7 @@
         <v>2</v>
       </c>
       <c r="AQ115">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR115">
         <v>1.43</v>
@@ -25036,7 +25045,7 @@
         <v>0.75</v>
       </c>
       <c r="AP116">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ116">
         <v>1.14</v>
@@ -25370,7 +25379,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q118">
         <v>2.8</v>
@@ -25782,7 +25791,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q120">
         <v>2.55</v>
@@ -26194,7 +26203,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26272,7 +26281,7 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ122">
         <v>0.83</v>
@@ -26400,7 +26409,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q123">
         <v>2.4</v>
@@ -26812,7 +26821,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q125">
         <v>2.63</v>
@@ -27096,7 +27105,7 @@
         <v>1</v>
       </c>
       <c r="AP126">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ126">
         <v>0.71</v>
@@ -27302,10 +27311,10 @@
         <v>1</v>
       </c>
       <c r="AP127">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ127">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR127">
         <v>1.1</v>
@@ -27430,7 +27439,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27511,7 +27520,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ128">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AR128">
         <v>1.61</v>
@@ -27842,7 +27851,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q130">
         <v>2.75</v>
@@ -27923,7 +27932,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ130">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR130">
         <v>1.16</v>
@@ -28048,7 +28057,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q131">
         <v>3.25</v>
@@ -28254,7 +28263,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28332,7 +28341,7 @@
         <v>1.17</v>
       </c>
       <c r="AP132">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ132">
         <v>1.38</v>
@@ -28460,7 +28469,7 @@
         <v>106</v>
       </c>
       <c r="P133" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q133">
         <v>3.1</v>
@@ -28666,7 +28675,7 @@
         <v>94</v>
       </c>
       <c r="P134" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q134">
         <v>3.1</v>
@@ -28953,7 +28962,7 @@
         <v>2</v>
       </c>
       <c r="AQ135">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR135">
         <v>1.55</v>
@@ -29078,7 +29087,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q136">
         <v>3.9</v>
@@ -29156,7 +29165,7 @@
         <v>0.83</v>
       </c>
       <c r="AP136">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ136">
         <v>1</v>
@@ -29490,7 +29499,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -30108,7 +30117,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q141">
         <v>2.62</v>
@@ -30189,7 +30198,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ141">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR141">
         <v>1.42</v>
@@ -30314,7 +30323,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q142">
         <v>3.6</v>
@@ -30395,7 +30404,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ142">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR142">
         <v>1.16</v>
@@ -30520,7 +30529,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q143">
         <v>3.75</v>
@@ -30601,7 +30610,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ143">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR143">
         <v>1.11</v>
@@ -30726,7 +30735,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -30804,7 +30813,7 @@
         <v>0.83</v>
       </c>
       <c r="AP144">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ144">
         <v>0.71</v>
@@ -31010,7 +31019,7 @@
         <v>0.86</v>
       </c>
       <c r="AP145">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ145">
         <v>0.75</v>
@@ -31138,7 +31147,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q146">
         <v>2.75</v>
@@ -31216,7 +31225,7 @@
         <v>2</v>
       </c>
       <c r="AP146">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ146">
         <v>1.86</v>
@@ -31344,7 +31353,7 @@
         <v>98</v>
       </c>
       <c r="P147" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q147">
         <v>3.65</v>
@@ -31425,7 +31434,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ147">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AR147">
         <v>1.13</v>
@@ -31550,7 +31559,7 @@
         <v>94</v>
       </c>
       <c r="P148" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31628,7 +31637,7 @@
         <v>1</v>
       </c>
       <c r="AP148">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ148">
         <v>1.29</v>
@@ -31756,7 +31765,7 @@
         <v>194</v>
       </c>
       <c r="P149" t="s">
-        <v>275</v>
+        <v>208</v>
       </c>
       <c r="Q149">
         <v>3.25</v>
@@ -32043,7 +32052,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ150">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR150">
         <v>1.6</v>
@@ -32580,7 +32589,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q153">
         <v>2.3</v>
@@ -32992,7 +33001,7 @@
         <v>199</v>
       </c>
       <c r="P155" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33198,7 +33207,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -33894,7 +33903,7 @@
         <v>1.17</v>
       </c>
       <c r="AP159">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ159">
         <v>0.88</v>
@@ -34022,7 +34031,7 @@
         <v>204</v>
       </c>
       <c r="P160" t="s">
-        <v>278</v>
+        <v>206</v>
       </c>
       <c r="Q160">
         <v>2.75</v>
@@ -34434,7 +34443,7 @@
         <v>205</v>
       </c>
       <c r="P162" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q162">
         <v>2.95</v>
@@ -34797,6 +34806,1036 @@
       </c>
       <c r="BP163">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7728372</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45619.41666666666</v>
+      </c>
+      <c r="F164">
+        <v>16</v>
+      </c>
+      <c r="G164" t="s">
+        <v>87</v>
+      </c>
+      <c r="H164" t="s">
+        <v>90</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>2</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>2</v>
+      </c>
+      <c r="N164">
+        <v>3</v>
+      </c>
+      <c r="O164" t="s">
+        <v>206</v>
+      </c>
+      <c r="P164" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q164">
+        <v>4.75</v>
+      </c>
+      <c r="R164">
+        <v>2.2</v>
+      </c>
+      <c r="S164">
+        <v>2.4</v>
+      </c>
+      <c r="T164">
+        <v>1.4</v>
+      </c>
+      <c r="U164">
+        <v>2.75</v>
+      </c>
+      <c r="V164">
+        <v>2.75</v>
+      </c>
+      <c r="W164">
+        <v>1.4</v>
+      </c>
+      <c r="X164">
+        <v>8</v>
+      </c>
+      <c r="Y164">
+        <v>1.08</v>
+      </c>
+      <c r="Z164">
+        <v>7.21</v>
+      </c>
+      <c r="AA164">
+        <v>1.4</v>
+      </c>
+      <c r="AB164">
+        <v>3.87</v>
+      </c>
+      <c r="AC164">
+        <v>1.05</v>
+      </c>
+      <c r="AD164">
+        <v>9</v>
+      </c>
+      <c r="AE164">
+        <v>1.3</v>
+      </c>
+      <c r="AF164">
+        <v>3.3</v>
+      </c>
+      <c r="AG164">
+        <v>2.01</v>
+      </c>
+      <c r="AH164">
+        <v>1.81</v>
+      </c>
+      <c r="AI164">
+        <v>1.83</v>
+      </c>
+      <c r="AJ164">
+        <v>1.83</v>
+      </c>
+      <c r="AK164">
+        <v>2</v>
+      </c>
+      <c r="AL164">
+        <v>1.22</v>
+      </c>
+      <c r="AM164">
+        <v>1.16</v>
+      </c>
+      <c r="AN164">
+        <v>0.57</v>
+      </c>
+      <c r="AO164">
+        <v>1.38</v>
+      </c>
+      <c r="AP164">
+        <v>0.5</v>
+      </c>
+      <c r="AQ164">
+        <v>1.56</v>
+      </c>
+      <c r="AR164">
+        <v>1.2</v>
+      </c>
+      <c r="AS164">
+        <v>1.39</v>
+      </c>
+      <c r="AT164">
+        <v>2.59</v>
+      </c>
+      <c r="AU164">
+        <v>5</v>
+      </c>
+      <c r="AV164">
+        <v>4</v>
+      </c>
+      <c r="AW164">
+        <v>2</v>
+      </c>
+      <c r="AX164">
+        <v>12</v>
+      </c>
+      <c r="AY164">
+        <v>8</v>
+      </c>
+      <c r="AZ164">
+        <v>18</v>
+      </c>
+      <c r="BA164">
+        <v>5</v>
+      </c>
+      <c r="BB164">
+        <v>3</v>
+      </c>
+      <c r="BC164">
+        <v>8</v>
+      </c>
+      <c r="BD164">
+        <v>2.65</v>
+      </c>
+      <c r="BE164">
+        <v>6.4</v>
+      </c>
+      <c r="BF164">
+        <v>1.52</v>
+      </c>
+      <c r="BG164">
+        <v>1.34</v>
+      </c>
+      <c r="BH164">
+        <v>2.85</v>
+      </c>
+      <c r="BI164">
+        <v>1.6</v>
+      </c>
+      <c r="BJ164">
+        <v>2.15</v>
+      </c>
+      <c r="BK164">
+        <v>1.98</v>
+      </c>
+      <c r="BL164">
+        <v>1.82</v>
+      </c>
+      <c r="BM164">
+        <v>2.5</v>
+      </c>
+      <c r="BN164">
+        <v>1.44</v>
+      </c>
+      <c r="BO164">
+        <v>3.3</v>
+      </c>
+      <c r="BP164">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7728373</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45619.51041666666</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165" t="s">
+        <v>70</v>
+      </c>
+      <c r="H165" t="s">
+        <v>72</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+      <c r="O165" t="s">
+        <v>94</v>
+      </c>
+      <c r="P165" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q165">
+        <v>2.75</v>
+      </c>
+      <c r="R165">
+        <v>2.1</v>
+      </c>
+      <c r="S165">
+        <v>4</v>
+      </c>
+      <c r="T165">
+        <v>1.44</v>
+      </c>
+      <c r="U165">
+        <v>2.63</v>
+      </c>
+      <c r="V165">
+        <v>3.25</v>
+      </c>
+      <c r="W165">
+        <v>1.33</v>
+      </c>
+      <c r="X165">
+        <v>9</v>
+      </c>
+      <c r="Y165">
+        <v>1.07</v>
+      </c>
+      <c r="Z165">
+        <v>2.17</v>
+      </c>
+      <c r="AA165">
+        <v>3.16</v>
+      </c>
+      <c r="AB165">
+        <v>3.02</v>
+      </c>
+      <c r="AC165">
+        <v>1.07</v>
+      </c>
+      <c r="AD165">
+        <v>8</v>
+      </c>
+      <c r="AE165">
+        <v>1.33</v>
+      </c>
+      <c r="AF165">
+        <v>3.1</v>
+      </c>
+      <c r="AG165">
+        <v>2</v>
+      </c>
+      <c r="AH165">
+        <v>1.84</v>
+      </c>
+      <c r="AI165">
+        <v>1.83</v>
+      </c>
+      <c r="AJ165">
+        <v>1.83</v>
+      </c>
+      <c r="AK165">
+        <v>1.28</v>
+      </c>
+      <c r="AL165">
+        <v>1.25</v>
+      </c>
+      <c r="AM165">
+        <v>1.72</v>
+      </c>
+      <c r="AN165">
+        <v>1.38</v>
+      </c>
+      <c r="AO165">
+        <v>1.14</v>
+      </c>
+      <c r="AP165">
+        <v>1.33</v>
+      </c>
+      <c r="AQ165">
+        <v>1.13</v>
+      </c>
+      <c r="AR165">
+        <v>1.7</v>
+      </c>
+      <c r="AS165">
+        <v>1.28</v>
+      </c>
+      <c r="AT165">
+        <v>2.98</v>
+      </c>
+      <c r="AU165">
+        <v>5</v>
+      </c>
+      <c r="AV165">
+        <v>4</v>
+      </c>
+      <c r="AW165">
+        <v>14</v>
+      </c>
+      <c r="AX165">
+        <v>2</v>
+      </c>
+      <c r="AY165">
+        <v>24</v>
+      </c>
+      <c r="AZ165">
+        <v>8</v>
+      </c>
+      <c r="BA165">
+        <v>5</v>
+      </c>
+      <c r="BB165">
+        <v>4</v>
+      </c>
+      <c r="BC165">
+        <v>9</v>
+      </c>
+      <c r="BD165">
+        <v>1.68</v>
+      </c>
+      <c r="BE165">
+        <v>6.25</v>
+      </c>
+      <c r="BF165">
+        <v>2.3</v>
+      </c>
+      <c r="BG165">
+        <v>1.34</v>
+      </c>
+      <c r="BH165">
+        <v>2.88</v>
+      </c>
+      <c r="BI165">
+        <v>1.58</v>
+      </c>
+      <c r="BJ165">
+        <v>2.16</v>
+      </c>
+      <c r="BK165">
+        <v>1.98</v>
+      </c>
+      <c r="BL165">
+        <v>1.82</v>
+      </c>
+      <c r="BM165">
+        <v>2.5</v>
+      </c>
+      <c r="BN165">
+        <v>1.44</v>
+      </c>
+      <c r="BO165">
+        <v>3.3</v>
+      </c>
+      <c r="BP165">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7728366</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45619.60416666666</v>
+      </c>
+      <c r="F166">
+        <v>16</v>
+      </c>
+      <c r="G166" t="s">
+        <v>78</v>
+      </c>
+      <c r="H166" t="s">
+        <v>74</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>1</v>
+      </c>
+      <c r="O166" t="s">
+        <v>207</v>
+      </c>
+      <c r="P166" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q166">
+        <v>3.2</v>
+      </c>
+      <c r="R166">
+        <v>1.95</v>
+      </c>
+      <c r="S166">
+        <v>4</v>
+      </c>
+      <c r="T166">
+        <v>1.53</v>
+      </c>
+      <c r="U166">
+        <v>2.38</v>
+      </c>
+      <c r="V166">
+        <v>3.75</v>
+      </c>
+      <c r="W166">
+        <v>1.25</v>
+      </c>
+      <c r="X166">
+        <v>11</v>
+      </c>
+      <c r="Y166">
+        <v>1.05</v>
+      </c>
+      <c r="Z166">
+        <v>2.31</v>
+      </c>
+      <c r="AA166">
+        <v>2.93</v>
+      </c>
+      <c r="AB166">
+        <v>3.3</v>
+      </c>
+      <c r="AC166">
+        <v>1.09</v>
+      </c>
+      <c r="AD166">
+        <v>7</v>
+      </c>
+      <c r="AE166">
+        <v>1.45</v>
+      </c>
+      <c r="AF166">
+        <v>2.6</v>
+      </c>
+      <c r="AG166">
+        <v>2.5</v>
+      </c>
+      <c r="AH166">
+        <v>1.47</v>
+      </c>
+      <c r="AI166">
+        <v>2</v>
+      </c>
+      <c r="AJ166">
+        <v>1.73</v>
+      </c>
+      <c r="AK166">
+        <v>1.35</v>
+      </c>
+      <c r="AL166">
+        <v>1.3</v>
+      </c>
+      <c r="AM166">
+        <v>1.57</v>
+      </c>
+      <c r="AN166">
+        <v>1.14</v>
+      </c>
+      <c r="AO166">
+        <v>0.71</v>
+      </c>
+      <c r="AP166">
+        <v>1.38</v>
+      </c>
+      <c r="AQ166">
+        <v>0.63</v>
+      </c>
+      <c r="AR166">
+        <v>1.42</v>
+      </c>
+      <c r="AS166">
+        <v>1.14</v>
+      </c>
+      <c r="AT166">
+        <v>2.56</v>
+      </c>
+      <c r="AU166">
+        <v>7</v>
+      </c>
+      <c r="AV166">
+        <v>2</v>
+      </c>
+      <c r="AW166">
+        <v>5</v>
+      </c>
+      <c r="AX166">
+        <v>2</v>
+      </c>
+      <c r="AY166">
+        <v>16</v>
+      </c>
+      <c r="AZ166">
+        <v>6</v>
+      </c>
+      <c r="BA166">
+        <v>5</v>
+      </c>
+      <c r="BB166">
+        <v>5</v>
+      </c>
+      <c r="BC166">
+        <v>10</v>
+      </c>
+      <c r="BD166">
+        <v>1.74</v>
+      </c>
+      <c r="BE166">
+        <v>6.4</v>
+      </c>
+      <c r="BF166">
+        <v>2.18</v>
+      </c>
+      <c r="BG166">
+        <v>1.29</v>
+      </c>
+      <c r="BH166">
+        <v>3.25</v>
+      </c>
+      <c r="BI166">
+        <v>1.52</v>
+      </c>
+      <c r="BJ166">
+        <v>2.36</v>
+      </c>
+      <c r="BK166">
+        <v>1.87</v>
+      </c>
+      <c r="BL166">
+        <v>1.83</v>
+      </c>
+      <c r="BM166">
+        <v>2.39</v>
+      </c>
+      <c r="BN166">
+        <v>1.51</v>
+      </c>
+      <c r="BO166">
+        <v>3.2</v>
+      </c>
+      <c r="BP166">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7728367</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45619.60416666666</v>
+      </c>
+      <c r="F167">
+        <v>16</v>
+      </c>
+      <c r="G167" t="s">
+        <v>88</v>
+      </c>
+      <c r="H167" t="s">
+        <v>91</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <v>2</v>
+      </c>
+      <c r="L167">
+        <v>2</v>
+      </c>
+      <c r="M167">
+        <v>2</v>
+      </c>
+      <c r="N167">
+        <v>4</v>
+      </c>
+      <c r="O167" t="s">
+        <v>208</v>
+      </c>
+      <c r="P167" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q167">
+        <v>3</v>
+      </c>
+      <c r="R167">
+        <v>2.05</v>
+      </c>
+      <c r="S167">
+        <v>3.75</v>
+      </c>
+      <c r="T167">
+        <v>1.44</v>
+      </c>
+      <c r="U167">
+        <v>2.63</v>
+      </c>
+      <c r="V167">
+        <v>3.4</v>
+      </c>
+      <c r="W167">
+        <v>1.3</v>
+      </c>
+      <c r="X167">
+        <v>10</v>
+      </c>
+      <c r="Y167">
+        <v>1.06</v>
+      </c>
+      <c r="Z167">
+        <v>2.31</v>
+      </c>
+      <c r="AA167">
+        <v>3.2</v>
+      </c>
+      <c r="AB167">
+        <v>3</v>
+      </c>
+      <c r="AC167">
+        <v>1.07</v>
+      </c>
+      <c r="AD167">
+        <v>8</v>
+      </c>
+      <c r="AE167">
+        <v>1.36</v>
+      </c>
+      <c r="AF167">
+        <v>2.95</v>
+      </c>
+      <c r="AG167">
+        <v>2.23</v>
+      </c>
+      <c r="AH167">
+        <v>1.58</v>
+      </c>
+      <c r="AI167">
+        <v>1.83</v>
+      </c>
+      <c r="AJ167">
+        <v>1.83</v>
+      </c>
+      <c r="AK167">
+        <v>1.35</v>
+      </c>
+      <c r="AL167">
+        <v>1.28</v>
+      </c>
+      <c r="AM167">
+        <v>1.6</v>
+      </c>
+      <c r="AN167">
+        <v>2.14</v>
+      </c>
+      <c r="AO167">
+        <v>1.75</v>
+      </c>
+      <c r="AP167">
+        <v>2</v>
+      </c>
+      <c r="AQ167">
+        <v>1.67</v>
+      </c>
+      <c r="AR167">
+        <v>1.65</v>
+      </c>
+      <c r="AS167">
+        <v>1.41</v>
+      </c>
+      <c r="AT167">
+        <v>3.06</v>
+      </c>
+      <c r="AU167">
+        <v>8</v>
+      </c>
+      <c r="AV167">
+        <v>5</v>
+      </c>
+      <c r="AW167">
+        <v>6</v>
+      </c>
+      <c r="AX167">
+        <v>1</v>
+      </c>
+      <c r="AY167">
+        <v>21</v>
+      </c>
+      <c r="AZ167">
+        <v>8</v>
+      </c>
+      <c r="BA167">
+        <v>10</v>
+      </c>
+      <c r="BB167">
+        <v>2</v>
+      </c>
+      <c r="BC167">
+        <v>12</v>
+      </c>
+      <c r="BD167">
+        <v>1.76</v>
+      </c>
+      <c r="BE167">
+        <v>6.4</v>
+      </c>
+      <c r="BF167">
+        <v>2.18</v>
+      </c>
+      <c r="BG167">
+        <v>1.29</v>
+      </c>
+      <c r="BH167">
+        <v>3.25</v>
+      </c>
+      <c r="BI167">
+        <v>1.52</v>
+      </c>
+      <c r="BJ167">
+        <v>2.36</v>
+      </c>
+      <c r="BK167">
+        <v>1.87</v>
+      </c>
+      <c r="BL167">
+        <v>1.83</v>
+      </c>
+      <c r="BM167">
+        <v>2.39</v>
+      </c>
+      <c r="BN167">
+        <v>1.51</v>
+      </c>
+      <c r="BO167">
+        <v>3.2</v>
+      </c>
+      <c r="BP167">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7728371</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45619.70833333334</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168" t="s">
+        <v>83</v>
+      </c>
+      <c r="H168" t="s">
+        <v>76</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+      <c r="O168" t="s">
+        <v>94</v>
+      </c>
+      <c r="P168" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q168">
+        <v>3.5</v>
+      </c>
+      <c r="R168">
+        <v>2</v>
+      </c>
+      <c r="S168">
+        <v>3.4</v>
+      </c>
+      <c r="T168">
+        <v>1.5</v>
+      </c>
+      <c r="U168">
+        <v>2.5</v>
+      </c>
+      <c r="V168">
+        <v>3.4</v>
+      </c>
+      <c r="W168">
+        <v>1.3</v>
+      </c>
+      <c r="X168">
+        <v>10</v>
+      </c>
+      <c r="Y168">
+        <v>1.06</v>
+      </c>
+      <c r="Z168">
+        <v>2.35</v>
+      </c>
+      <c r="AA168">
+        <v>2.79</v>
+      </c>
+      <c r="AB168">
+        <v>2.58</v>
+      </c>
+      <c r="AC168">
+        <v>1.11</v>
+      </c>
+      <c r="AD168">
+        <v>6.5</v>
+      </c>
+      <c r="AE168">
+        <v>1.48</v>
+      </c>
+      <c r="AF168">
+        <v>2.37</v>
+      </c>
+      <c r="AG168">
+        <v>2.25</v>
+      </c>
+      <c r="AH168">
+        <v>1.57</v>
+      </c>
+      <c r="AI168">
+        <v>1.83</v>
+      </c>
+      <c r="AJ168">
+        <v>1.83</v>
+      </c>
+      <c r="AK168">
+        <v>1.47</v>
+      </c>
+      <c r="AL168">
+        <v>1.28</v>
+      </c>
+      <c r="AM168">
+        <v>1.45</v>
+      </c>
+      <c r="AN168">
+        <v>2</v>
+      </c>
+      <c r="AO168">
+        <v>3</v>
+      </c>
+      <c r="AP168">
+        <v>1.88</v>
+      </c>
+      <c r="AQ168">
+        <v>2.75</v>
+      </c>
+      <c r="AR168">
+        <v>1.29</v>
+      </c>
+      <c r="AS168">
+        <v>1.43</v>
+      </c>
+      <c r="AT168">
+        <v>2.72</v>
+      </c>
+      <c r="AU168">
+        <v>7</v>
+      </c>
+      <c r="AV168">
+        <v>8</v>
+      </c>
+      <c r="AW168">
+        <v>5</v>
+      </c>
+      <c r="AX168">
+        <v>3</v>
+      </c>
+      <c r="AY168">
+        <v>20</v>
+      </c>
+      <c r="AZ168">
+        <v>12</v>
+      </c>
+      <c r="BA168">
+        <v>3</v>
+      </c>
+      <c r="BB168">
+        <v>2</v>
+      </c>
+      <c r="BC168">
+        <v>5</v>
+      </c>
+      <c r="BD168">
+        <v>1.92</v>
+      </c>
+      <c r="BE168">
+        <v>6.1</v>
+      </c>
+      <c r="BF168">
+        <v>1.98</v>
+      </c>
+      <c r="BG168">
+        <v>1.31</v>
+      </c>
+      <c r="BH168">
+        <v>3.15</v>
+      </c>
+      <c r="BI168">
+        <v>1.55</v>
+      </c>
+      <c r="BJ168">
+        <v>2.29</v>
+      </c>
+      <c r="BK168">
+        <v>1.92</v>
+      </c>
+      <c r="BL168">
+        <v>1.79</v>
+      </c>
+      <c r="BM168">
+        <v>2.47</v>
+      </c>
+      <c r="BN168">
+        <v>1.48</v>
+      </c>
+      <c r="BO168">
+        <v>3.3</v>
+      </c>
+      <c r="BP168">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -604,31 +604,31 @@
     <t>['46', '67']</t>
   </si>
   <si>
+    <t>['90']</t>
+  </si>
+  <si>
     <t>['20', '52']</t>
   </si>
   <si>
-    <t>['90']</t>
+    <t>['73']</t>
   </si>
   <si>
     <t>['12', '24']</t>
   </si>
   <si>
-    <t>['73']</t>
+    <t>['60']</t>
   </si>
   <si>
-    <t>['60']</t>
+    <t>['38', '45+1']</t>
   </si>
   <si>
     <t>['9', '16', '68']</t>
   </si>
   <si>
-    <t>['38', '45+1']</t>
+    <t>['31', '45+1']</t>
   </si>
   <si>
     <t>['14']</t>
-  </si>
-  <si>
-    <t>['31', '45+1']</t>
   </si>
   <si>
     <t>['45', '79']</t>
@@ -637,10 +637,10 @@
     <t>['35']</t>
   </si>
   <si>
-    <t>['67']</t>
+    <t>['5', '45+3', '53', '83']</t>
   </si>
   <si>
-    <t>['30', '58']</t>
+    <t>['83']</t>
   </si>
   <si>
     <t>['42', '45+3']</t>
@@ -850,19 +850,19 @@
     <t>['39', '78']</t>
   </si>
   <si>
+    <t>['30', '58']</t>
+  </si>
+  <si>
     <t>['20', '24', '29']</t>
   </si>
   <si>
     <t>['33']</t>
   </si>
   <si>
-    <t>['83']</t>
-  </si>
-  <si>
     <t>['24', '65']</t>
   </si>
   <si>
-    <t>['16', '56']</t>
+    <t>['70']</t>
   </si>
 </sst>
 </file>
@@ -1976,7 +1976,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ4">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2388,7 +2388,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2594,7 +2594,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3209,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.38</v>
+        <v>1.14</v>
       </c>
       <c r="AQ10">
         <v>0.75</v>
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ11">
         <v>0.88</v>
@@ -3830,7 +3830,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ13">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
       <c r="AR13">
         <v>1.32</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -5478,7 +5478,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5684,7 +5684,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ22">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5887,7 +5887,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ23">
         <v>0.88</v>
@@ -7123,10 +7123,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.38</v>
+        <v>1.14</v>
       </c>
       <c r="AQ29">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR29">
         <v>1.44</v>
@@ -7744,7 +7744,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ32">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR32">
         <v>0.48</v>
@@ -8153,7 +8153,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ34">
         <v>0.14</v>
@@ -8771,7 +8771,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ37">
         <v>0.88</v>
@@ -8980,7 +8980,7 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR38">
         <v>1.41</v>
@@ -9183,7 +9183,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -10422,7 +10422,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ45">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
       <c r="AR45">
         <v>0.96</v>
@@ -10625,7 +10625,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -12273,10 +12273,10 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>1.38</v>
+        <v>1.14</v>
       </c>
       <c r="AQ54">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR54">
         <v>1.46</v>
@@ -12479,7 +12479,7 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ55">
         <v>2</v>
@@ -12688,7 +12688,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ56">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR56">
         <v>1.94</v>
@@ -13512,7 +13512,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR60">
         <v>1.51</v>
@@ -14539,7 +14539,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ65">
         <v>1.14</v>
@@ -14748,7 +14748,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ66">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
       <c r="AR66">
         <v>1.93</v>
@@ -14951,7 +14951,7 @@
         <v>0</v>
       </c>
       <c r="AP67">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ67">
         <v>0.14</v>
@@ -15778,7 +15778,7 @@
         <v>2</v>
       </c>
       <c r="AQ71">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR71">
         <v>1.44</v>
@@ -16393,7 +16393,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.38</v>
+        <v>1.14</v>
       </c>
       <c r="AQ74">
         <v>2</v>
@@ -16805,7 +16805,7 @@
         <v>0.5</v>
       </c>
       <c r="AP76">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ76">
         <v>0.83</v>
@@ -17014,7 +17014,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ77">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
       <c r="AR77">
         <v>1.33</v>
@@ -17423,7 +17423,7 @@
         <v>2.33</v>
       </c>
       <c r="AP79">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ79">
         <v>1.13</v>
@@ -19074,7 +19074,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ87">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR87">
         <v>1.47</v>
@@ -19280,7 +19280,7 @@
         <v>2</v>
       </c>
       <c r="AQ88">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR88">
         <v>1.96</v>
@@ -19692,7 +19692,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ90">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR90">
         <v>1.45</v>
@@ -20513,7 +20513,7 @@
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ94">
         <v>1</v>
@@ -21337,7 +21337,7 @@
         <v>0.67</v>
       </c>
       <c r="AP98">
-        <v>1.38</v>
+        <v>1.14</v>
       </c>
       <c r="AQ98">
         <v>1.14</v>
@@ -21543,7 +21543,7 @@
         <v>1</v>
       </c>
       <c r="AP99">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ99">
         <v>1</v>
@@ -21752,7 +21752,7 @@
         <v>2</v>
       </c>
       <c r="AQ100">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR100">
         <v>1.65</v>
@@ -21955,7 +21955,7 @@
         <v>1.2</v>
       </c>
       <c r="AP101">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ101">
         <v>0.75</v>
@@ -22370,7 +22370,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ103">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR103">
         <v>1.13</v>
@@ -22988,7 +22988,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ106">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
       <c r="AR106">
         <v>1.12</v>
@@ -23603,7 +23603,7 @@
         <v>1.25</v>
       </c>
       <c r="AP109">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ109">
         <v>1.29</v>
@@ -24636,7 +24636,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ114">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR114">
         <v>1.49</v>
@@ -26281,7 +26281,7 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>1.38</v>
+        <v>1.14</v>
       </c>
       <c r="AQ122">
         <v>0.83</v>
@@ -26696,7 +26696,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ124">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR124">
         <v>1.53</v>
@@ -26902,7 +26902,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ125">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR125">
         <v>1.8</v>
@@ -27105,7 +27105,7 @@
         <v>1</v>
       </c>
       <c r="AP126">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ126">
         <v>0.71</v>
@@ -27314,7 +27314,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ127">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
       <c r="AR127">
         <v>1.1</v>
@@ -27723,7 +27723,7 @@
         <v>1.4</v>
       </c>
       <c r="AP129">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ129">
         <v>0.88</v>
@@ -27929,7 +27929,7 @@
         <v>1.17</v>
       </c>
       <c r="AP130">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ130">
         <v>1.56</v>
@@ -30195,7 +30195,7 @@
         <v>1.14</v>
       </c>
       <c r="AP141">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ141">
         <v>1.56</v>
@@ -30607,10 +30607,10 @@
         <v>1.86</v>
       </c>
       <c r="AP143">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ143">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR143">
         <v>1.11</v>
@@ -31225,10 +31225,10 @@
         <v>2</v>
       </c>
       <c r="AP146">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ146">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR146">
         <v>1.62</v>
@@ -31637,7 +31637,7 @@
         <v>1</v>
       </c>
       <c r="AP148">
-        <v>1.38</v>
+        <v>1.14</v>
       </c>
       <c r="AQ148">
         <v>1.29</v>
@@ -31765,7 +31765,7 @@
         <v>194</v>
       </c>
       <c r="P149" t="s">
-        <v>208</v>
+        <v>278</v>
       </c>
       <c r="Q149">
         <v>3.25</v>
@@ -31846,7 +31846,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ149">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR149">
         <v>1.82</v>
@@ -32052,7 +32052,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ150">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
       <c r="AR150">
         <v>1.6</v>
@@ -32341,7 +32341,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>7481516</v>
+        <v>7481513</v>
       </c>
       <c r="C152" t="s">
         <v>68</v>
@@ -32356,70 +32356,70 @@
         <v>15</v>
       </c>
       <c r="G152" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H152" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M152">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N152">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O152" t="s">
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>94</v>
+        <v>279</v>
       </c>
       <c r="Q152">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="R152">
         <v>2.1</v>
       </c>
       <c r="S152">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="T152">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U152">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V152">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="W152">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="X152">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="Y152">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="Z152">
-        <v>2.18</v>
+        <v>1.7</v>
       </c>
       <c r="AA152">
-        <v>3.27</v>
+        <v>3.75</v>
       </c>
       <c r="AB152">
-        <v>3.18</v>
+        <v>4.45</v>
       </c>
       <c r="AC152">
         <v>1.06</v>
@@ -32428,118 +32428,118 @@
         <v>8.5</v>
       </c>
       <c r="AE152">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AF152">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="AG152">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="AH152">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AI152">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AJ152">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AK152">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AL152">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AM152">
-        <v>1.57</v>
+        <v>2.05</v>
       </c>
       <c r="AN152">
         <v>1.17</v>
       </c>
       <c r="AO152">
+        <v>0.83</v>
+      </c>
+      <c r="AP152">
+        <v>1</v>
+      </c>
+      <c r="AQ152">
         <v>1.14</v>
       </c>
-      <c r="AP152">
-        <v>1.63</v>
-      </c>
-      <c r="AQ152">
-        <v>1</v>
-      </c>
       <c r="AR152">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="AS152">
-        <v>1.4</v>
+        <v>0.91</v>
       </c>
       <c r="AT152">
-        <v>2.94</v>
+        <v>2.49</v>
       </c>
       <c r="AU152">
+        <v>7</v>
+      </c>
+      <c r="AV152">
+        <v>10</v>
+      </c>
+      <c r="AW152">
         <v>4</v>
-      </c>
-      <c r="AV152">
-        <v>2</v>
-      </c>
-      <c r="AW152">
-        <v>5</v>
       </c>
       <c r="AX152">
         <v>7</v>
       </c>
       <c r="AY152">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ152">
+        <v>19</v>
+      </c>
+      <c r="BA152">
+        <v>7</v>
+      </c>
+      <c r="BB152">
+        <v>7</v>
+      </c>
+      <c r="BC152">
         <v>14</v>
       </c>
-      <c r="BA152">
-        <v>4</v>
-      </c>
-      <c r="BB152">
-        <v>6</v>
-      </c>
-      <c r="BC152">
-        <v>10</v>
-      </c>
       <c r="BD152">
-        <v>1.77</v>
+        <v>1.51</v>
       </c>
       <c r="BE152">
-        <v>6.4</v>
+        <v>8.5</v>
       </c>
       <c r="BF152">
-        <v>2.15</v>
+        <v>3.16</v>
       </c>
       <c r="BG152">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="BH152">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="BI152">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="BJ152">
-        <v>2.28</v>
+        <v>2.19</v>
       </c>
       <c r="BK152">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="BL152">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="BM152">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="BN152">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="BO152">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="BP152">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="153" spans="1:68">
@@ -32547,7 +32547,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>7481513</v>
+        <v>7481516</v>
       </c>
       <c r="C153" t="s">
         <v>68</v>
@@ -32562,70 +32562,70 @@
         <v>15</v>
       </c>
       <c r="G153" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H153" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K153">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M153">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N153">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O153" t="s">
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>278</v>
+        <v>94</v>
       </c>
       <c r="Q153">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="R153">
         <v>2.1</v>
       </c>
       <c r="S153">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="T153">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U153">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V153">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="W153">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="X153">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="Y153">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="Z153">
-        <v>1.7</v>
+        <v>2.18</v>
       </c>
       <c r="AA153">
-        <v>3.75</v>
+        <v>3.27</v>
       </c>
       <c r="AB153">
-        <v>4.45</v>
+        <v>3.18</v>
       </c>
       <c r="AC153">
         <v>1.06</v>
@@ -32634,118 +32634,118 @@
         <v>8.5</v>
       </c>
       <c r="AE153">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AF153">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="AG153">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="AH153">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AI153">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AJ153">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AK153">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AL153">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AM153">
-        <v>2.05</v>
+        <v>1.57</v>
       </c>
       <c r="AN153">
         <v>1.17</v>
       </c>
       <c r="AO153">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AP153">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AQ153">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR153">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AS153">
-        <v>0.91</v>
+        <v>1.4</v>
       </c>
       <c r="AT153">
-        <v>2.49</v>
+        <v>2.94</v>
       </c>
       <c r="AU153">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV153">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AW153">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX153">
         <v>7</v>
       </c>
       <c r="AY153">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AZ153">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="BA153">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BB153">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC153">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BD153">
-        <v>1.51</v>
+        <v>1.77</v>
       </c>
       <c r="BE153">
-        <v>8.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF153">
-        <v>3.16</v>
+        <v>2.15</v>
       </c>
       <c r="BG153">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="BH153">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="BI153">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="BJ153">
-        <v>2.19</v>
+        <v>2.28</v>
       </c>
       <c r="BK153">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="BL153">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="BM153">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="BN153">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="BO153">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="BP153">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="154" spans="1:68">
@@ -32753,7 +32753,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>7481517</v>
+        <v>7481518</v>
       </c>
       <c r="C154" t="s">
         <v>68</v>
@@ -32768,25 +32768,25 @@
         <v>15</v>
       </c>
       <c r="G154" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H154" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N154">
         <v>2</v>
@@ -32795,163 +32795,163 @@
         <v>198</v>
       </c>
       <c r="P154" t="s">
-        <v>94</v>
+        <v>280</v>
       </c>
       <c r="Q154">
+        <v>3</v>
+      </c>
+      <c r="R154">
+        <v>1.95</v>
+      </c>
+      <c r="S154">
+        <v>3.6</v>
+      </c>
+      <c r="T154">
+        <v>1.48</v>
+      </c>
+      <c r="U154">
+        <v>2.5</v>
+      </c>
+      <c r="V154">
+        <v>3.1</v>
+      </c>
+      <c r="W154">
+        <v>1.33</v>
+      </c>
+      <c r="X154">
+        <v>7.2</v>
+      </c>
+      <c r="Y154">
+        <v>1.06</v>
+      </c>
+      <c r="Z154">
+        <v>2.35</v>
+      </c>
+      <c r="AA154">
+        <v>3.1</v>
+      </c>
+      <c r="AB154">
+        <v>3</v>
+      </c>
+      <c r="AC154">
+        <v>1.07</v>
+      </c>
+      <c r="AD154">
+        <v>8</v>
+      </c>
+      <c r="AE154">
+        <v>1.38</v>
+      </c>
+      <c r="AF154">
+        <v>2.95</v>
+      </c>
+      <c r="AG154">
+        <v>2.13</v>
+      </c>
+      <c r="AH154">
+        <v>1.7</v>
+      </c>
+      <c r="AI154">
+        <v>1.83</v>
+      </c>
+      <c r="AJ154">
+        <v>1.83</v>
+      </c>
+      <c r="AK154">
+        <v>1.36</v>
+      </c>
+      <c r="AL154">
+        <v>1.3</v>
+      </c>
+      <c r="AM154">
+        <v>1.57</v>
+      </c>
+      <c r="AN154">
+        <v>2.2</v>
+      </c>
+      <c r="AO154">
+        <v>1.17</v>
+      </c>
+      <c r="AP154">
+        <v>2</v>
+      </c>
+      <c r="AQ154">
+        <v>1.14</v>
+      </c>
+      <c r="AR154">
+        <v>1.67</v>
+      </c>
+      <c r="AS154">
+        <v>1.29</v>
+      </c>
+      <c r="AT154">
+        <v>2.96</v>
+      </c>
+      <c r="AU154">
+        <v>3</v>
+      </c>
+      <c r="AV154">
+        <v>10</v>
+      </c>
+      <c r="AW154">
+        <v>6</v>
+      </c>
+      <c r="AX154">
+        <v>2</v>
+      </c>
+      <c r="AY154">
+        <v>15</v>
+      </c>
+      <c r="AZ154">
+        <v>15</v>
+      </c>
+      <c r="BA154">
+        <v>5</v>
+      </c>
+      <c r="BB154">
+        <v>5</v>
+      </c>
+      <c r="BC154">
+        <v>10</v>
+      </c>
+      <c r="BD154">
+        <v>1.82</v>
+      </c>
+      <c r="BE154">
+        <v>8</v>
+      </c>
+      <c r="BF154">
+        <v>2.39</v>
+      </c>
+      <c r="BG154">
+        <v>1.37</v>
+      </c>
+      <c r="BH154">
+        <v>2.83</v>
+      </c>
+      <c r="BI154">
+        <v>1.65</v>
+      </c>
+      <c r="BJ154">
         <v>2.1</v>
       </c>
-      <c r="R154">
-        <v>2.25</v>
-      </c>
-      <c r="S154">
-        <v>5</v>
-      </c>
-      <c r="T154">
-        <v>1.33</v>
-      </c>
-      <c r="U154">
-        <v>3</v>
-      </c>
-      <c r="V154">
-        <v>2.45</v>
-      </c>
-      <c r="W154">
-        <v>1.48</v>
-      </c>
-      <c r="X154">
-        <v>5.8</v>
-      </c>
-      <c r="Y154">
-        <v>1.1</v>
-      </c>
-      <c r="Z154">
-        <v>1.6</v>
-      </c>
-      <c r="AA154">
-        <v>3.95</v>
-      </c>
-      <c r="AB154">
-        <v>5.25</v>
-      </c>
-      <c r="AC154">
-        <v>1.04</v>
-      </c>
-      <c r="AD154">
-        <v>10</v>
-      </c>
-      <c r="AE154">
-        <v>1.22</v>
-      </c>
-      <c r="AF154">
-        <v>4</v>
-      </c>
-      <c r="AG154">
-        <v>1.7</v>
-      </c>
-      <c r="AH154">
-        <v>2.15</v>
-      </c>
-      <c r="AI154">
-        <v>1.73</v>
-      </c>
-      <c r="AJ154">
-        <v>1.95</v>
-      </c>
-      <c r="AK154">
-        <v>1.14</v>
-      </c>
-      <c r="AL154">
-        <v>1.2</v>
-      </c>
-      <c r="AM154">
-        <v>2.3</v>
-      </c>
-      <c r="AN154">
-        <v>1.71</v>
-      </c>
-      <c r="AO154">
-        <v>1</v>
-      </c>
-      <c r="AP154">
-        <v>1.88</v>
-      </c>
-      <c r="AQ154">
-        <v>0.88</v>
-      </c>
-      <c r="AR154">
-        <v>1.59</v>
-      </c>
-      <c r="AS154">
-        <v>1.3</v>
-      </c>
-      <c r="AT154">
-        <v>2.89</v>
-      </c>
-      <c r="AU154">
-        <v>4</v>
-      </c>
-      <c r="AV154">
-        <v>6</v>
-      </c>
-      <c r="AW154">
-        <v>0</v>
-      </c>
-      <c r="AX154">
-        <v>2</v>
-      </c>
-      <c r="AY154">
-        <v>4</v>
-      </c>
-      <c r="AZ154">
-        <v>10</v>
-      </c>
-      <c r="BA154">
-        <v>1</v>
-      </c>
-      <c r="BB154">
-        <v>7</v>
-      </c>
-      <c r="BC154">
-        <v>8</v>
-      </c>
-      <c r="BD154">
-        <v>1.41</v>
-      </c>
-      <c r="BE154">
-        <v>9</v>
-      </c>
-      <c r="BF154">
-        <v>3.49</v>
-      </c>
-      <c r="BG154">
-        <v>1.22</v>
-      </c>
-      <c r="BH154">
-        <v>3.65</v>
-      </c>
-      <c r="BI154">
+      <c r="BK154">
+        <v>2.08</v>
+      </c>
+      <c r="BL154">
+        <v>1.67</v>
+      </c>
+      <c r="BM154">
+        <v>2.73</v>
+      </c>
+      <c r="BN154">
         <v>1.4</v>
       </c>
-      <c r="BJ154">
-        <v>2.65</v>
-      </c>
-      <c r="BK154">
-        <v>1.65</v>
-      </c>
-      <c r="BL154">
-        <v>2.05</v>
-      </c>
-      <c r="BM154">
-        <v>2</v>
-      </c>
-      <c r="BN154">
-        <v>1.73</v>
-      </c>
       <c r="BO154">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="BP154">
-        <v>1.41</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="155" spans="1:68">
@@ -32959,7 +32959,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>7481518</v>
+        <v>7481517</v>
       </c>
       <c r="C155" t="s">
         <v>68</v>
@@ -32974,25 +32974,25 @@
         <v>15</v>
       </c>
       <c r="G155" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H155" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N155">
         <v>2</v>
@@ -33001,163 +33001,163 @@
         <v>199</v>
       </c>
       <c r="P155" t="s">
-        <v>279</v>
+        <v>94</v>
       </c>
       <c r="Q155">
+        <v>2.1</v>
+      </c>
+      <c r="R155">
+        <v>2.25</v>
+      </c>
+      <c r="S155">
+        <v>5</v>
+      </c>
+      <c r="T155">
+        <v>1.33</v>
+      </c>
+      <c r="U155">
         <v>3</v>
       </c>
-      <c r="R155">
+      <c r="V155">
+        <v>2.45</v>
+      </c>
+      <c r="W155">
+        <v>1.48</v>
+      </c>
+      <c r="X155">
+        <v>5.8</v>
+      </c>
+      <c r="Y155">
+        <v>1.1</v>
+      </c>
+      <c r="Z155">
+        <v>1.6</v>
+      </c>
+      <c r="AA155">
+        <v>3.95</v>
+      </c>
+      <c r="AB155">
+        <v>5.25</v>
+      </c>
+      <c r="AC155">
+        <v>1.04</v>
+      </c>
+      <c r="AD155">
+        <v>10</v>
+      </c>
+      <c r="AE155">
+        <v>1.22</v>
+      </c>
+      <c r="AF155">
+        <v>4</v>
+      </c>
+      <c r="AG155">
+        <v>1.7</v>
+      </c>
+      <c r="AH155">
+        <v>2.15</v>
+      </c>
+      <c r="AI155">
+        <v>1.73</v>
+      </c>
+      <c r="AJ155">
         <v>1.95</v>
       </c>
-      <c r="S155">
-        <v>3.6</v>
-      </c>
-      <c r="T155">
-        <v>1.48</v>
-      </c>
-      <c r="U155">
-        <v>2.5</v>
-      </c>
-      <c r="V155">
-        <v>3.1</v>
-      </c>
-      <c r="W155">
-        <v>1.33</v>
-      </c>
-      <c r="X155">
-        <v>7.2</v>
-      </c>
-      <c r="Y155">
-        <v>1.06</v>
-      </c>
-      <c r="Z155">
-        <v>2.35</v>
-      </c>
-      <c r="AA155">
-        <v>3.1</v>
-      </c>
-      <c r="AB155">
-        <v>3</v>
-      </c>
-      <c r="AC155">
-        <v>1.07</v>
-      </c>
-      <c r="AD155">
+      <c r="AK155">
+        <v>1.14</v>
+      </c>
+      <c r="AL155">
+        <v>1.2</v>
+      </c>
+      <c r="AM155">
+        <v>2.3</v>
+      </c>
+      <c r="AN155">
+        <v>1.71</v>
+      </c>
+      <c r="AO155">
+        <v>1</v>
+      </c>
+      <c r="AP155">
+        <v>1.88</v>
+      </c>
+      <c r="AQ155">
+        <v>0.88</v>
+      </c>
+      <c r="AR155">
+        <v>1.59</v>
+      </c>
+      <c r="AS155">
+        <v>1.3</v>
+      </c>
+      <c r="AT155">
+        <v>2.89</v>
+      </c>
+      <c r="AU155">
+        <v>4</v>
+      </c>
+      <c r="AV155">
+        <v>6</v>
+      </c>
+      <c r="AW155">
+        <v>0</v>
+      </c>
+      <c r="AX155">
+        <v>2</v>
+      </c>
+      <c r="AY155">
+        <v>4</v>
+      </c>
+      <c r="AZ155">
+        <v>10</v>
+      </c>
+      <c r="BA155">
+        <v>1</v>
+      </c>
+      <c r="BB155">
+        <v>7</v>
+      </c>
+      <c r="BC155">
         <v>8</v>
       </c>
-      <c r="AE155">
-        <v>1.38</v>
-      </c>
-      <c r="AF155">
-        <v>2.95</v>
-      </c>
-      <c r="AG155">
-        <v>2.13</v>
-      </c>
-      <c r="AH155">
-        <v>1.7</v>
-      </c>
-      <c r="AI155">
-        <v>1.83</v>
-      </c>
-      <c r="AJ155">
-        <v>1.83</v>
-      </c>
-      <c r="AK155">
-        <v>1.36</v>
-      </c>
-      <c r="AL155">
-        <v>1.3</v>
-      </c>
-      <c r="AM155">
-        <v>1.57</v>
-      </c>
-      <c r="AN155">
-        <v>2.2</v>
-      </c>
-      <c r="AO155">
-        <v>1.17</v>
-      </c>
-      <c r="AP155">
-        <v>2</v>
-      </c>
-      <c r="AQ155">
-        <v>1.14</v>
-      </c>
-      <c r="AR155">
-        <v>1.67</v>
-      </c>
-      <c r="AS155">
-        <v>1.29</v>
-      </c>
-      <c r="AT155">
-        <v>2.96</v>
-      </c>
-      <c r="AU155">
-        <v>3</v>
-      </c>
-      <c r="AV155">
-        <v>10</v>
-      </c>
-      <c r="AW155">
-        <v>6</v>
-      </c>
-      <c r="AX155">
-        <v>2</v>
-      </c>
-      <c r="AY155">
-        <v>15</v>
-      </c>
-      <c r="AZ155">
-        <v>15</v>
-      </c>
-      <c r="BA155">
-        <v>5</v>
-      </c>
-      <c r="BB155">
-        <v>5</v>
-      </c>
-      <c r="BC155">
-        <v>10</v>
-      </c>
       <c r="BD155">
-        <v>1.82</v>
+        <v>1.41</v>
       </c>
       <c r="BE155">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF155">
-        <v>2.39</v>
+        <v>3.49</v>
       </c>
       <c r="BG155">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="BH155">
-        <v>2.83</v>
+        <v>3.65</v>
       </c>
       <c r="BI155">
+        <v>1.4</v>
+      </c>
+      <c r="BJ155">
+        <v>2.65</v>
+      </c>
+      <c r="BK155">
         <v>1.65</v>
       </c>
-      <c r="BJ155">
-        <v>2.1</v>
-      </c>
-      <c r="BK155">
-        <v>2.08</v>
-      </c>
       <c r="BL155">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="BM155">
-        <v>2.73</v>
+        <v>2</v>
       </c>
       <c r="BN155">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="BO155">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="BP155">
-        <v>1.23</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="156" spans="1:68">
@@ -33371,7 +33371,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>7481515</v>
+        <v>7481511</v>
       </c>
       <c r="C157" t="s">
         <v>68</v>
@@ -33383,13 +33383,13 @@
         <v>45613.51041666666</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G157" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="H157" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I157">
         <v>2</v>
@@ -33401,175 +33401,175 @@
         <v>2</v>
       </c>
       <c r="L157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N157">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O157" t="s">
         <v>201</v>
       </c>
       <c r="P157" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="Q157">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R157">
+        <v>2.05</v>
+      </c>
+      <c r="S157">
+        <v>4.33</v>
+      </c>
+      <c r="T157">
+        <v>1.42</v>
+      </c>
+      <c r="U157">
+        <v>2.65</v>
+      </c>
+      <c r="V157">
+        <v>2.9</v>
+      </c>
+      <c r="W157">
+        <v>1.36</v>
+      </c>
+      <c r="X157">
+        <v>6.9</v>
+      </c>
+      <c r="Y157">
+        <v>1.07</v>
+      </c>
+      <c r="Z157">
+        <v>1.8</v>
+      </c>
+      <c r="AA157">
+        <v>3.3</v>
+      </c>
+      <c r="AB157">
+        <v>3.9</v>
+      </c>
+      <c r="AC157">
+        <v>1.07</v>
+      </c>
+      <c r="AD157">
+        <v>8</v>
+      </c>
+      <c r="AE157">
+        <v>1.35</v>
+      </c>
+      <c r="AF157">
+        <v>3.1</v>
+      </c>
+      <c r="AG157">
         <v>1.95</v>
       </c>
-      <c r="S157">
-        <v>6</v>
-      </c>
-      <c r="T157">
-        <v>1.57</v>
-      </c>
-      <c r="U157">
-        <v>2.25</v>
-      </c>
-      <c r="V157">
-        <v>3.75</v>
-      </c>
-      <c r="W157">
-        <v>1.25</v>
-      </c>
-      <c r="X157">
-        <v>13</v>
-      </c>
-      <c r="Y157">
-        <v>1.04</v>
-      </c>
-      <c r="Z157">
-        <v>1.75</v>
-      </c>
-      <c r="AA157">
-        <v>3.1</v>
-      </c>
-      <c r="AB157">
-        <v>4.5</v>
-      </c>
-      <c r="AC157">
-        <v>1.1</v>
-      </c>
-      <c r="AD157">
-        <v>6.5</v>
-      </c>
-      <c r="AE157">
-        <v>1.48</v>
-      </c>
-      <c r="AF157">
-        <v>2.37</v>
-      </c>
-      <c r="AG157">
-        <v>2.47</v>
-      </c>
       <c r="AH157">
-        <v>1.48</v>
+        <v>1.73</v>
       </c>
       <c r="AI157">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="AJ157">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="AK157">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AL157">
         <v>1.25</v>
       </c>
       <c r="AM157">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AN157">
-        <v>2.5</v>
+        <v>0.86</v>
       </c>
       <c r="AO157">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="AP157">
-        <v>2.57</v>
+        <v>1.13</v>
       </c>
       <c r="AQ157">
-        <v>0.29</v>
+        <v>0.14</v>
       </c>
       <c r="AR157">
-        <v>1.68</v>
+        <v>1.49</v>
       </c>
       <c r="AS157">
-        <v>1.06</v>
+        <v>1.27</v>
       </c>
       <c r="AT157">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="AU157">
+        <v>6</v>
+      </c>
+      <c r="AV157">
+        <v>3</v>
+      </c>
+      <c r="AW157">
+        <v>5</v>
+      </c>
+      <c r="AX157">
+        <v>10</v>
+      </c>
+      <c r="AY157">
+        <v>13</v>
+      </c>
+      <c r="AZ157">
+        <v>21</v>
+      </c>
+      <c r="BA157">
+        <v>5</v>
+      </c>
+      <c r="BB157">
+        <v>9</v>
+      </c>
+      <c r="BC157">
+        <v>14</v>
+      </c>
+      <c r="BD157">
+        <v>1.64</v>
+      </c>
+      <c r="BE157">
         <v>8</v>
       </c>
-      <c r="AV157">
-        <v>4</v>
-      </c>
-      <c r="AW157">
-        <v>6</v>
-      </c>
-      <c r="AX157">
-        <v>8</v>
-      </c>
-      <c r="AY157">
-        <v>16</v>
-      </c>
-      <c r="AZ157">
-        <v>14</v>
-      </c>
-      <c r="BA157">
-        <v>4</v>
-      </c>
-      <c r="BB157">
-        <v>4</v>
-      </c>
-      <c r="BC157">
-        <v>8</v>
-      </c>
-      <c r="BD157">
-        <v>1.38</v>
-      </c>
-      <c r="BE157">
-        <v>6.75</v>
-      </c>
       <c r="BF157">
-        <v>3.15</v>
+        <v>2.77</v>
       </c>
       <c r="BG157">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="BH157">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="BI157">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="BJ157">
-        <v>2.28</v>
+        <v>2.19</v>
       </c>
       <c r="BK157">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BL157">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="BM157">
-        <v>2.32</v>
+        <v>2.6</v>
       </c>
       <c r="BN157">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="BO157">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="BP157">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="158" spans="1:68">
@@ -33577,7 +33577,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>7481511</v>
+        <v>7481515</v>
       </c>
       <c r="C158" t="s">
         <v>68</v>
@@ -33589,13 +33589,13 @@
         <v>45613.51041666666</v>
       </c>
       <c r="F158">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G158" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="H158" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I158">
         <v>2</v>
@@ -33607,175 +33607,175 @@
         <v>2</v>
       </c>
       <c r="L158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N158">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O158" t="s">
         <v>202</v>
       </c>
       <c r="P158" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="Q158">
+        <v>2.4</v>
+      </c>
+      <c r="R158">
+        <v>1.95</v>
+      </c>
+      <c r="S158">
+        <v>6</v>
+      </c>
+      <c r="T158">
+        <v>1.57</v>
+      </c>
+      <c r="U158">
+        <v>2.25</v>
+      </c>
+      <c r="V158">
+        <v>3.75</v>
+      </c>
+      <c r="W158">
+        <v>1.25</v>
+      </c>
+      <c r="X158">
+        <v>13</v>
+      </c>
+      <c r="Y158">
+        <v>1.04</v>
+      </c>
+      <c r="Z158">
+        <v>1.75</v>
+      </c>
+      <c r="AA158">
+        <v>3.1</v>
+      </c>
+      <c r="AB158">
+        <v>4.5</v>
+      </c>
+      <c r="AC158">
+        <v>1.1</v>
+      </c>
+      <c r="AD158">
+        <v>6.5</v>
+      </c>
+      <c r="AE158">
+        <v>1.48</v>
+      </c>
+      <c r="AF158">
+        <v>2.37</v>
+      </c>
+      <c r="AG158">
+        <v>2.47</v>
+      </c>
+      <c r="AH158">
+        <v>1.48</v>
+      </c>
+      <c r="AI158">
         <v>2.5</v>
       </c>
-      <c r="R158">
-        <v>2.05</v>
-      </c>
-      <c r="S158">
-        <v>4.33</v>
-      </c>
-      <c r="T158">
-        <v>1.42</v>
-      </c>
-      <c r="U158">
-        <v>2.65</v>
-      </c>
-      <c r="V158">
-        <v>2.9</v>
-      </c>
-      <c r="W158">
-        <v>1.36</v>
-      </c>
-      <c r="X158">
-        <v>6.9</v>
-      </c>
-      <c r="Y158">
-        <v>1.07</v>
-      </c>
-      <c r="Z158">
-        <v>1.8</v>
-      </c>
-      <c r="AA158">
-        <v>3.3</v>
-      </c>
-      <c r="AB158">
-        <v>3.9</v>
-      </c>
-      <c r="AC158">
-        <v>1.07</v>
-      </c>
-      <c r="AD158">
-        <v>8</v>
-      </c>
-      <c r="AE158">
-        <v>1.35</v>
-      </c>
-      <c r="AF158">
-        <v>3.1</v>
-      </c>
-      <c r="AG158">
-        <v>1.95</v>
-      </c>
-      <c r="AH158">
-        <v>1.73</v>
-      </c>
-      <c r="AI158">
-        <v>1.83</v>
-      </c>
       <c r="AJ158">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="AK158">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AL158">
         <v>1.25</v>
       </c>
       <c r="AM158">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AN158">
-        <v>0.86</v>
+        <v>2.5</v>
       </c>
       <c r="AO158">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="AP158">
-        <v>1.13</v>
+        <v>2.57</v>
       </c>
       <c r="AQ158">
-        <v>0.14</v>
+        <v>0.29</v>
       </c>
       <c r="AR158">
-        <v>1.49</v>
+        <v>1.68</v>
       </c>
       <c r="AS158">
-        <v>1.27</v>
+        <v>1.06</v>
       </c>
       <c r="AT158">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="AU158">
+        <v>8</v>
+      </c>
+      <c r="AV158">
+        <v>4</v>
+      </c>
+      <c r="AW158">
         <v>6</v>
       </c>
-      <c r="AV158">
+      <c r="AX158">
+        <v>8</v>
+      </c>
+      <c r="AY158">
+        <v>16</v>
+      </c>
+      <c r="AZ158">
+        <v>14</v>
+      </c>
+      <c r="BA158">
+        <v>4</v>
+      </c>
+      <c r="BB158">
+        <v>4</v>
+      </c>
+      <c r="BC158">
+        <v>8</v>
+      </c>
+      <c r="BD158">
+        <v>1.38</v>
+      </c>
+      <c r="BE158">
+        <v>6.75</v>
+      </c>
+      <c r="BF158">
+        <v>3.15</v>
+      </c>
+      <c r="BG158">
+        <v>1.3</v>
+      </c>
+      <c r="BH158">
+        <v>3.05</v>
+      </c>
+      <c r="BI158">
+        <v>1.53</v>
+      </c>
+      <c r="BJ158">
+        <v>2.28</v>
+      </c>
+      <c r="BK158">
+        <v>1.98</v>
+      </c>
+      <c r="BL158">
+        <v>1.82</v>
+      </c>
+      <c r="BM158">
+        <v>2.32</v>
+      </c>
+      <c r="BN158">
+        <v>1.52</v>
+      </c>
+      <c r="BO158">
         <v>3</v>
       </c>
-      <c r="AW158">
-        <v>5</v>
-      </c>
-      <c r="AX158">
-        <v>10</v>
-      </c>
-      <c r="AY158">
-        <v>13</v>
-      </c>
-      <c r="AZ158">
-        <v>21</v>
-      </c>
-      <c r="BA158">
-        <v>5</v>
-      </c>
-      <c r="BB158">
-        <v>9</v>
-      </c>
-      <c r="BC158">
-        <v>14</v>
-      </c>
-      <c r="BD158">
-        <v>1.64</v>
-      </c>
-      <c r="BE158">
-        <v>8</v>
-      </c>
-      <c r="BF158">
-        <v>2.77</v>
-      </c>
-      <c r="BG158">
-        <v>1.34</v>
-      </c>
-      <c r="BH158">
-        <v>2.98</v>
-      </c>
-      <c r="BI158">
-        <v>1.6</v>
-      </c>
-      <c r="BJ158">
-        <v>2.19</v>
-      </c>
-      <c r="BK158">
-        <v>2</v>
-      </c>
-      <c r="BL158">
-        <v>1.72</v>
-      </c>
-      <c r="BM158">
-        <v>2.6</v>
-      </c>
-      <c r="BN158">
-        <v>1.44</v>
-      </c>
-      <c r="BO158">
-        <v>3.5</v>
-      </c>
       <c r="BP158">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="159" spans="1:68">
@@ -33783,7 +33783,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>7481512</v>
+        <v>7481510</v>
       </c>
       <c r="C159" t="s">
         <v>68</v>
@@ -33798,190 +33798,190 @@
         <v>15</v>
       </c>
       <c r="G159" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H159" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O159" t="s">
         <v>203</v>
       </c>
       <c r="P159" t="s">
-        <v>94</v>
+        <v>206</v>
       </c>
       <c r="Q159">
+        <v>2.75</v>
+      </c>
+      <c r="R159">
+        <v>2.25</v>
+      </c>
+      <c r="S159">
         <v>3.75</v>
       </c>
-      <c r="R159">
+      <c r="T159">
+        <v>1.36</v>
+      </c>
+      <c r="U159">
+        <v>3</v>
+      </c>
+      <c r="V159">
+        <v>2.63</v>
+      </c>
+      <c r="W159">
+        <v>1.44</v>
+      </c>
+      <c r="X159">
+        <v>7</v>
+      </c>
+      <c r="Y159">
+        <v>1.1</v>
+      </c>
+      <c r="Z159">
+        <v>1.73</v>
+      </c>
+      <c r="AA159">
+        <v>3.5</v>
+      </c>
+      <c r="AB159">
+        <v>3.9</v>
+      </c>
+      <c r="AC159">
+        <v>1.05</v>
+      </c>
+      <c r="AD159">
+        <v>9.5</v>
+      </c>
+      <c r="AE159">
+        <v>1.25</v>
+      </c>
+      <c r="AF159">
+        <v>3.8</v>
+      </c>
+      <c r="AG159">
+        <v>1.65</v>
+      </c>
+      <c r="AH159">
+        <v>2.05</v>
+      </c>
+      <c r="AI159">
+        <v>1.62</v>
+      </c>
+      <c r="AJ159">
+        <v>2.2</v>
+      </c>
+      <c r="AK159">
+        <v>1.3</v>
+      </c>
+      <c r="AL159">
+        <v>1.25</v>
+      </c>
+      <c r="AM159">
+        <v>1.7</v>
+      </c>
+      <c r="AN159">
+        <v>1.6</v>
+      </c>
+      <c r="AO159">
+        <v>1.14</v>
+      </c>
+      <c r="AP159">
         <v>1.83</v>
       </c>
-      <c r="S159">
-        <v>3.6</v>
-      </c>
-      <c r="T159">
-        <v>1.62</v>
-      </c>
-      <c r="U159">
-        <v>2.2</v>
-      </c>
-      <c r="V159">
-        <v>4</v>
-      </c>
-      <c r="W159">
-        <v>1.22</v>
-      </c>
-      <c r="X159">
-        <v>13</v>
-      </c>
-      <c r="Y159">
-        <v>1.04</v>
-      </c>
-      <c r="Z159">
-        <v>2.75</v>
-      </c>
-      <c r="AA159">
-        <v>2.75</v>
-      </c>
-      <c r="AB159">
-        <v>2.6</v>
-      </c>
-      <c r="AC159">
-        <v>1.12</v>
-      </c>
-      <c r="AD159">
-        <v>5.75</v>
-      </c>
-      <c r="AE159">
-        <v>1.55</v>
-      </c>
-      <c r="AF159">
-        <v>2.2</v>
-      </c>
-      <c r="AG159">
-        <v>2.85</v>
-      </c>
-      <c r="AH159">
-        <v>1.37</v>
-      </c>
-      <c r="AI159">
-        <v>2.2</v>
-      </c>
-      <c r="AJ159">
-        <v>1.62</v>
-      </c>
-      <c r="AK159">
-        <v>1.44</v>
-      </c>
-      <c r="AL159">
-        <v>1.36</v>
-      </c>
-      <c r="AM159">
-        <v>1.4</v>
-      </c>
-      <c r="AN159">
-        <v>0.17</v>
-      </c>
-      <c r="AO159">
-        <v>1.17</v>
-      </c>
-      <c r="AP159">
-        <v>0.5</v>
-      </c>
       <c r="AQ159">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR159">
-        <v>1.21</v>
+        <v>1.75</v>
       </c>
       <c r="AS159">
-        <v>1.04</v>
+        <v>1.46</v>
       </c>
       <c r="AT159">
-        <v>2.25</v>
+        <v>3.21</v>
       </c>
       <c r="AU159">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV159">
         <v>6</v>
       </c>
       <c r="AW159">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX159">
+        <v>2</v>
+      </c>
+      <c r="AY159">
+        <v>17</v>
+      </c>
+      <c r="AZ159">
         <v>8</v>
       </c>
-      <c r="AY159">
+      <c r="BA159">
+        <v>7</v>
+      </c>
+      <c r="BB159">
+        <v>4</v>
+      </c>
+      <c r="BC159">
         <v>11</v>
       </c>
-      <c r="AZ159">
-        <v>16</v>
-      </c>
-      <c r="BA159">
-        <v>4</v>
-      </c>
-      <c r="BB159">
-        <v>5</v>
-      </c>
-      <c r="BC159">
-        <v>9</v>
-      </c>
       <c r="BD159">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="BE159">
-        <v>7.5</v>
+        <v>6.25</v>
       </c>
       <c r="BF159">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="BG159">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="BH159">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="BI159">
-        <v>1.87</v>
+        <v>1.64</v>
       </c>
       <c r="BJ159">
-        <v>1.83</v>
+        <v>2.08</v>
       </c>
       <c r="BK159">
-        <v>2.43</v>
+        <v>2.04</v>
       </c>
       <c r="BL159">
-        <v>1.49</v>
+        <v>1.66</v>
       </c>
       <c r="BM159">
-        <v>3.3</v>
+        <v>2.63</v>
       </c>
       <c r="BN159">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="BO159">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="BP159">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="160" spans="1:68">
@@ -33989,7 +33989,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>7481510</v>
+        <v>7481512</v>
       </c>
       <c r="C160" t="s">
         <v>68</v>
@@ -34004,190 +34004,190 @@
         <v>15</v>
       </c>
       <c r="G160" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H160" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K160">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N160">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O160" t="s">
         <v>204</v>
       </c>
       <c r="P160" t="s">
-        <v>206</v>
+        <v>94</v>
       </c>
       <c r="Q160">
+        <v>3.75</v>
+      </c>
+      <c r="R160">
+        <v>1.83</v>
+      </c>
+      <c r="S160">
+        <v>3.6</v>
+      </c>
+      <c r="T160">
+        <v>1.62</v>
+      </c>
+      <c r="U160">
+        <v>2.2</v>
+      </c>
+      <c r="V160">
+        <v>4</v>
+      </c>
+      <c r="W160">
+        <v>1.22</v>
+      </c>
+      <c r="X160">
+        <v>13</v>
+      </c>
+      <c r="Y160">
+        <v>1.04</v>
+      </c>
+      <c r="Z160">
         <v>2.75</v>
       </c>
-      <c r="R160">
+      <c r="AA160">
+        <v>2.75</v>
+      </c>
+      <c r="AB160">
+        <v>2.6</v>
+      </c>
+      <c r="AC160">
+        <v>1.12</v>
+      </c>
+      <c r="AD160">
+        <v>5.75</v>
+      </c>
+      <c r="AE160">
+        <v>1.55</v>
+      </c>
+      <c r="AF160">
+        <v>2.2</v>
+      </c>
+      <c r="AG160">
+        <v>2.85</v>
+      </c>
+      <c r="AH160">
+        <v>1.37</v>
+      </c>
+      <c r="AI160">
+        <v>2.2</v>
+      </c>
+      <c r="AJ160">
+        <v>1.62</v>
+      </c>
+      <c r="AK160">
+        <v>1.44</v>
+      </c>
+      <c r="AL160">
+        <v>1.36</v>
+      </c>
+      <c r="AM160">
+        <v>1.4</v>
+      </c>
+      <c r="AN160">
+        <v>0.17</v>
+      </c>
+      <c r="AO160">
+        <v>1.17</v>
+      </c>
+      <c r="AP160">
+        <v>0.5</v>
+      </c>
+      <c r="AQ160">
+        <v>0.88</v>
+      </c>
+      <c r="AR160">
+        <v>1.21</v>
+      </c>
+      <c r="AS160">
+        <v>1.04</v>
+      </c>
+      <c r="AT160">
         <v>2.25</v>
       </c>
-      <c r="S160">
-        <v>3.75</v>
-      </c>
-      <c r="T160">
-        <v>1.36</v>
-      </c>
-      <c r="U160">
-        <v>3</v>
-      </c>
-      <c r="V160">
-        <v>2.63</v>
-      </c>
-      <c r="W160">
-        <v>1.44</v>
-      </c>
-      <c r="X160">
-        <v>7</v>
-      </c>
-      <c r="Y160">
-        <v>1.1</v>
-      </c>
-      <c r="Z160">
-        <v>1.73</v>
-      </c>
-      <c r="AA160">
-        <v>3.5</v>
-      </c>
-      <c r="AB160">
-        <v>3.9</v>
-      </c>
-      <c r="AC160">
-        <v>1.05</v>
-      </c>
-      <c r="AD160">
-        <v>9.5</v>
-      </c>
-      <c r="AE160">
-        <v>1.25</v>
-      </c>
-      <c r="AF160">
-        <v>3.8</v>
-      </c>
-      <c r="AG160">
-        <v>1.65</v>
-      </c>
-      <c r="AH160">
-        <v>2.05</v>
-      </c>
-      <c r="AI160">
-        <v>1.62</v>
-      </c>
-      <c r="AJ160">
-        <v>2.2</v>
-      </c>
-      <c r="AK160">
-        <v>1.3</v>
-      </c>
-      <c r="AL160">
-        <v>1.25</v>
-      </c>
-      <c r="AM160">
-        <v>1.7</v>
-      </c>
-      <c r="AN160">
-        <v>1.6</v>
-      </c>
-      <c r="AO160">
-        <v>1.14</v>
-      </c>
-      <c r="AP160">
-        <v>1.83</v>
-      </c>
-      <c r="AQ160">
-        <v>1</v>
-      </c>
-      <c r="AR160">
-        <v>1.75</v>
-      </c>
-      <c r="AS160">
-        <v>1.46</v>
-      </c>
-      <c r="AT160">
-        <v>3.21</v>
-      </c>
       <c r="AU160">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV160">
         <v>6</v>
       </c>
       <c r="AW160">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX160">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AY160">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AZ160">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BA160">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BB160">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC160">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD160">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="BE160">
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="BF160">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="BG160">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="BH160">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="BI160">
-        <v>1.64</v>
+        <v>1.87</v>
       </c>
       <c r="BJ160">
-        <v>2.08</v>
+        <v>1.83</v>
       </c>
       <c r="BK160">
-        <v>2.04</v>
+        <v>2.43</v>
       </c>
       <c r="BL160">
-        <v>1.66</v>
+        <v>1.49</v>
       </c>
       <c r="BM160">
-        <v>2.63</v>
+        <v>3.3</v>
       </c>
       <c r="BN160">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="BO160">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="BP160">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="161" spans="1:68">
@@ -34443,7 +34443,7 @@
         <v>205</v>
       </c>
       <c r="P162" t="s">
-        <v>280</v>
+        <v>208</v>
       </c>
       <c r="Q162">
         <v>2.95</v>
@@ -34813,7 +34813,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>7728372</v>
+        <v>7728371</v>
       </c>
       <c r="C164" t="s">
         <v>68</v>
@@ -34822,94 +34822,94 @@
         <v>69</v>
       </c>
       <c r="E164" s="2">
-        <v>45619.41666666666</v>
+        <v>45618.875</v>
       </c>
       <c r="F164">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G164" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H164" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N164">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O164" t="s">
-        <v>206</v>
+        <v>94</v>
       </c>
       <c r="P164" t="s">
-        <v>281</v>
+        <v>94</v>
       </c>
       <c r="Q164">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="R164">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S164">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="T164">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="U164">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V164">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="W164">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="X164">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y164">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="Z164">
-        <v>7.21</v>
+        <v>2.35</v>
       </c>
       <c r="AA164">
-        <v>1.4</v>
+        <v>2.79</v>
       </c>
       <c r="AB164">
-        <v>3.87</v>
+        <v>2.58</v>
       </c>
       <c r="AC164">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="AD164">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AE164">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="AF164">
-        <v>3.3</v>
+        <v>2.37</v>
       </c>
       <c r="AG164">
-        <v>2.01</v>
+        <v>2.25</v>
       </c>
       <c r="AH164">
-        <v>1.81</v>
+        <v>1.57</v>
       </c>
       <c r="AI164">
         <v>1.83</v>
@@ -34918,100 +34918,100 @@
         <v>1.83</v>
       </c>
       <c r="AK164">
-        <v>2</v>
+        <v>1.47</v>
       </c>
       <c r="AL164">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AM164">
-        <v>1.16</v>
+        <v>1.45</v>
       </c>
       <c r="AN164">
-        <v>0.57</v>
+        <v>2</v>
       </c>
       <c r="AO164">
-        <v>1.38</v>
+        <v>3</v>
       </c>
       <c r="AP164">
-        <v>0.5</v>
+        <v>1.88</v>
       </c>
       <c r="AQ164">
-        <v>1.56</v>
+        <v>2.75</v>
       </c>
       <c r="AR164">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AS164">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="AT164">
-        <v>2.59</v>
+        <v>2.72</v>
       </c>
       <c r="AU164">
+        <v>7</v>
+      </c>
+      <c r="AV164">
+        <v>8</v>
+      </c>
+      <c r="AW164">
         <v>5</v>
       </c>
-      <c r="AV164">
-        <v>4</v>
-      </c>
-      <c r="AW164">
-        <v>2</v>
-      </c>
       <c r="AX164">
+        <v>3</v>
+      </c>
+      <c r="AY164">
+        <v>20</v>
+      </c>
+      <c r="AZ164">
         <v>12</v>
       </c>
-      <c r="AY164">
-        <v>8</v>
-      </c>
-      <c r="AZ164">
-        <v>18</v>
-      </c>
       <c r="BA164">
+        <v>3</v>
+      </c>
+      <c r="BB164">
+        <v>2</v>
+      </c>
+      <c r="BC164">
         <v>5</v>
       </c>
-      <c r="BB164">
-        <v>3</v>
-      </c>
-      <c r="BC164">
-        <v>8</v>
-      </c>
       <c r="BD164">
-        <v>2.65</v>
+        <v>1.92</v>
       </c>
       <c r="BE164">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="BF164">
-        <v>1.52</v>
+        <v>1.98</v>
       </c>
       <c r="BG164">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="BH164">
-        <v>2.85</v>
+        <v>3.15</v>
       </c>
       <c r="BI164">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="BJ164">
-        <v>2.15</v>
+        <v>2.29</v>
       </c>
       <c r="BK164">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="BL164">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="BM164">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="BN164">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="BO164">
         <v>3.3</v>
       </c>
       <c r="BP164">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="165" spans="1:68">
@@ -35019,7 +35019,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>7728373</v>
+        <v>7728372</v>
       </c>
       <c r="C165" t="s">
         <v>68</v>
@@ -35028,94 +35028,94 @@
         <v>69</v>
       </c>
       <c r="E165" s="2">
-        <v>45619.51041666666</v>
+        <v>45619.41666666666</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G165" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="H165" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N165">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O165" t="s">
-        <v>94</v>
+        <v>206</v>
       </c>
       <c r="P165" t="s">
-        <v>94</v>
+        <v>281</v>
       </c>
       <c r="Q165">
+        <v>4.75</v>
+      </c>
+      <c r="R165">
+        <v>2.2</v>
+      </c>
+      <c r="S165">
+        <v>2.4</v>
+      </c>
+      <c r="T165">
+        <v>1.4</v>
+      </c>
+      <c r="U165">
         <v>2.75</v>
       </c>
-      <c r="R165">
-        <v>2.1</v>
-      </c>
-      <c r="S165">
-        <v>4</v>
-      </c>
-      <c r="T165">
-        <v>1.44</v>
-      </c>
-      <c r="U165">
-        <v>2.63</v>
-      </c>
       <c r="V165">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="W165">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X165">
+        <v>8</v>
+      </c>
+      <c r="Y165">
+        <v>1.08</v>
+      </c>
+      <c r="Z165">
+        <v>7.21</v>
+      </c>
+      <c r="AA165">
+        <v>1.4</v>
+      </c>
+      <c r="AB165">
+        <v>3.87</v>
+      </c>
+      <c r="AC165">
+        <v>1.05</v>
+      </c>
+      <c r="AD165">
         <v>9</v>
       </c>
-      <c r="Y165">
-        <v>1.07</v>
-      </c>
-      <c r="Z165">
-        <v>2.17</v>
-      </c>
-      <c r="AA165">
-        <v>3.16</v>
-      </c>
-      <c r="AB165">
-        <v>3.02</v>
-      </c>
-      <c r="AC165">
-        <v>1.07</v>
-      </c>
-      <c r="AD165">
-        <v>8</v>
-      </c>
       <c r="AE165">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AF165">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AG165">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="AH165">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="AI165">
         <v>1.83</v>
@@ -35124,34 +35124,34 @@
         <v>1.83</v>
       </c>
       <c r="AK165">
-        <v>1.28</v>
+        <v>2</v>
       </c>
       <c r="AL165">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM165">
-        <v>1.72</v>
+        <v>1.16</v>
       </c>
       <c r="AN165">
+        <v>0.57</v>
+      </c>
+      <c r="AO165">
         <v>1.38</v>
       </c>
-      <c r="AO165">
-        <v>1.14</v>
-      </c>
       <c r="AP165">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ165">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AR165">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="AS165">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="AT165">
-        <v>2.98</v>
+        <v>2.59</v>
       </c>
       <c r="AU165">
         <v>5</v>
@@ -35160,46 +35160,46 @@
         <v>4</v>
       </c>
       <c r="AW165">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AX165">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AY165">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AZ165">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="BA165">
         <v>5</v>
       </c>
       <c r="BB165">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC165">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD165">
-        <v>1.68</v>
+        <v>2.65</v>
       </c>
       <c r="BE165">
-        <v>6.25</v>
+        <v>6.4</v>
       </c>
       <c r="BF165">
-        <v>2.3</v>
+        <v>1.52</v>
       </c>
       <c r="BG165">
         <v>1.34</v>
       </c>
       <c r="BH165">
-        <v>2.88</v>
+        <v>2.85</v>
       </c>
       <c r="BI165">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="BJ165">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="BK165">
         <v>1.98</v>
@@ -35225,7 +35225,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>7728366</v>
+        <v>7728373</v>
       </c>
       <c r="C166" t="s">
         <v>68</v>
@@ -35234,16 +35234,16 @@
         <v>69</v>
       </c>
       <c r="E166" s="2">
-        <v>45619.60416666666</v>
+        <v>45619.51041666666</v>
       </c>
       <c r="F166">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G166" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H166" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -35255,175 +35255,175 @@
         <v>0</v>
       </c>
       <c r="L166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M166">
         <v>0</v>
       </c>
       <c r="N166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O166" t="s">
-        <v>207</v>
+        <v>94</v>
       </c>
       <c r="P166" t="s">
         <v>94</v>
       </c>
       <c r="Q166">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="R166">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S166">
         <v>4</v>
       </c>
       <c r="T166">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="U166">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="V166">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="W166">
+        <v>1.33</v>
+      </c>
+      <c r="X166">
+        <v>9</v>
+      </c>
+      <c r="Y166">
+        <v>1.07</v>
+      </c>
+      <c r="Z166">
+        <v>2.17</v>
+      </c>
+      <c r="AA166">
+        <v>3.16</v>
+      </c>
+      <c r="AB166">
+        <v>3.02</v>
+      </c>
+      <c r="AC166">
+        <v>1.07</v>
+      </c>
+      <c r="AD166">
+        <v>8</v>
+      </c>
+      <c r="AE166">
+        <v>1.33</v>
+      </c>
+      <c r="AF166">
+        <v>3.1</v>
+      </c>
+      <c r="AG166">
+        <v>2</v>
+      </c>
+      <c r="AH166">
+        <v>1.84</v>
+      </c>
+      <c r="AI166">
+        <v>1.83</v>
+      </c>
+      <c r="AJ166">
+        <v>1.83</v>
+      </c>
+      <c r="AK166">
+        <v>1.28</v>
+      </c>
+      <c r="AL166">
         <v>1.25</v>
       </c>
-      <c r="X166">
-        <v>11</v>
-      </c>
-      <c r="Y166">
-        <v>1.05</v>
-      </c>
-      <c r="Z166">
-        <v>2.31</v>
-      </c>
-      <c r="AA166">
-        <v>2.93</v>
-      </c>
-      <c r="AB166">
-        <v>3.3</v>
-      </c>
-      <c r="AC166">
-        <v>1.09</v>
-      </c>
-      <c r="AD166">
-        <v>7</v>
-      </c>
-      <c r="AE166">
-        <v>1.45</v>
-      </c>
-      <c r="AF166">
-        <v>2.6</v>
-      </c>
-      <c r="AG166">
-        <v>2.5</v>
-      </c>
-      <c r="AH166">
-        <v>1.47</v>
-      </c>
-      <c r="AI166">
-        <v>2</v>
-      </c>
-      <c r="AJ166">
-        <v>1.73</v>
-      </c>
-      <c r="AK166">
-        <v>1.35</v>
-      </c>
-      <c r="AL166">
-        <v>1.3</v>
-      </c>
       <c r="AM166">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="AN166">
+        <v>1.38</v>
+      </c>
+      <c r="AO166">
         <v>1.14</v>
       </c>
-      <c r="AO166">
-        <v>0.71</v>
-      </c>
       <c r="AP166">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ166">
-        <v>0.63</v>
+        <v>1.13</v>
       </c>
       <c r="AR166">
-        <v>1.42</v>
+        <v>1.7</v>
       </c>
       <c r="AS166">
-        <v>1.14</v>
+        <v>1.28</v>
       </c>
       <c r="AT166">
-        <v>2.56</v>
+        <v>2.98</v>
       </c>
       <c r="AU166">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV166">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW166">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AX166">
         <v>2</v>
       </c>
       <c r="AY166">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AZ166">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA166">
         <v>5</v>
       </c>
       <c r="BB166">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC166">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD166">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="BE166">
-        <v>6.4</v>
+        <v>6.25</v>
       </c>
       <c r="BF166">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="BG166">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="BH166">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="BI166">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="BJ166">
-        <v>2.36</v>
+        <v>2.16</v>
       </c>
       <c r="BK166">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="BL166">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="BM166">
-        <v>2.39</v>
+        <v>2.5</v>
       </c>
       <c r="BN166">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="BO166">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="BP166">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="167" spans="1:68">
@@ -35431,7 +35431,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>7728367</v>
+        <v>7728369</v>
       </c>
       <c r="C167" t="s">
         <v>68</v>
@@ -35440,196 +35440,196 @@
         <v>69</v>
       </c>
       <c r="E167" s="2">
-        <v>45619.60416666666</v>
+        <v>45619.875</v>
       </c>
       <c r="F167">
         <v>16</v>
       </c>
       <c r="G167" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H167" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K167">
         <v>2</v>
       </c>
       <c r="L167">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N167">
         <v>4</v>
       </c>
       <c r="O167" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P167" t="s">
-        <v>282</v>
+        <v>94</v>
       </c>
       <c r="Q167">
         <v>3</v>
       </c>
       <c r="R167">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="S167">
+        <v>4.5</v>
+      </c>
+      <c r="T167">
+        <v>1.57</v>
+      </c>
+      <c r="U167">
+        <v>2.25</v>
+      </c>
+      <c r="V167">
         <v>3.75</v>
       </c>
-      <c r="T167">
+      <c r="W167">
+        <v>1.25</v>
+      </c>
+      <c r="X167">
+        <v>13</v>
+      </c>
+      <c r="Y167">
+        <v>1.04</v>
+      </c>
+      <c r="Z167">
+        <v>2.07</v>
+      </c>
+      <c r="AA167">
+        <v>2.85</v>
+      </c>
+      <c r="AB167">
+        <v>3.24</v>
+      </c>
+      <c r="AC167">
+        <v>1.11</v>
+      </c>
+      <c r="AD167">
+        <v>6.5</v>
+      </c>
+      <c r="AE167">
+        <v>1.5</v>
+      </c>
+      <c r="AF167">
+        <v>2.4</v>
+      </c>
+      <c r="AG167">
+        <v>2.45</v>
+      </c>
+      <c r="AH167">
+        <v>1.49</v>
+      </c>
+      <c r="AI167">
+        <v>2.2</v>
+      </c>
+      <c r="AJ167">
+        <v>1.62</v>
+      </c>
+      <c r="AK167">
+        <v>1.28</v>
+      </c>
+      <c r="AL167">
+        <v>1.3</v>
+      </c>
+      <c r="AM167">
+        <v>1.63</v>
+      </c>
+      <c r="AN167">
+        <v>1.75</v>
+      </c>
+      <c r="AO167">
+        <v>1</v>
+      </c>
+      <c r="AP167">
+        <v>1.89</v>
+      </c>
+      <c r="AQ167">
+        <v>0.89</v>
+      </c>
+      <c r="AR167">
         <v>1.44</v>
       </c>
-      <c r="U167">
-        <v>2.63</v>
-      </c>
-      <c r="V167">
-        <v>3.4</v>
-      </c>
-      <c r="W167">
-        <v>1.3</v>
-      </c>
-      <c r="X167">
+      <c r="AS167">
+        <v>1.1</v>
+      </c>
+      <c r="AT167">
+        <v>2.54</v>
+      </c>
+      <c r="AU167">
         <v>10</v>
       </c>
-      <c r="Y167">
-        <v>1.06</v>
-      </c>
-      <c r="Z167">
-        <v>2.31</v>
-      </c>
-      <c r="AA167">
-        <v>3.2</v>
-      </c>
-      <c r="AB167">
-        <v>3</v>
-      </c>
-      <c r="AC167">
-        <v>1.07</v>
-      </c>
-      <c r="AD167">
-        <v>8</v>
-      </c>
-      <c r="AE167">
-        <v>1.36</v>
-      </c>
-      <c r="AF167">
-        <v>2.95</v>
-      </c>
-      <c r="AG167">
-        <v>2.23</v>
-      </c>
-      <c r="AH167">
-        <v>1.58</v>
-      </c>
-      <c r="AI167">
-        <v>1.83</v>
-      </c>
-      <c r="AJ167">
-        <v>1.83</v>
-      </c>
-      <c r="AK167">
-        <v>1.35</v>
-      </c>
-      <c r="AL167">
-        <v>1.28</v>
-      </c>
-      <c r="AM167">
+      <c r="AV167">
+        <v>2</v>
+      </c>
+      <c r="AW167">
+        <v>5</v>
+      </c>
+      <c r="AX167">
+        <v>2</v>
+      </c>
+      <c r="AY167">
+        <v>22</v>
+      </c>
+      <c r="AZ167">
+        <v>5</v>
+      </c>
+      <c r="BA167">
+        <v>6</v>
+      </c>
+      <c r="BB167">
+        <v>0</v>
+      </c>
+      <c r="BC167">
+        <v>6</v>
+      </c>
+      <c r="BD167">
+        <v>1.68</v>
+      </c>
+      <c r="BE167">
+        <v>6.25</v>
+      </c>
+      <c r="BF167">
+        <v>2.33</v>
+      </c>
+      <c r="BG167">
+        <v>1.34</v>
+      </c>
+      <c r="BH167">
+        <v>2.98</v>
+      </c>
+      <c r="BI167">
         <v>1.6</v>
       </c>
-      <c r="AN167">
-        <v>2.14</v>
-      </c>
-      <c r="AO167">
-        <v>1.75</v>
-      </c>
-      <c r="AP167">
-        <v>2</v>
-      </c>
-      <c r="AQ167">
-        <v>1.67</v>
-      </c>
-      <c r="AR167">
-        <v>1.65</v>
-      </c>
-      <c r="AS167">
-        <v>1.41</v>
-      </c>
-      <c r="AT167">
-        <v>3.06</v>
-      </c>
-      <c r="AU167">
-        <v>8</v>
-      </c>
-      <c r="AV167">
-        <v>5</v>
-      </c>
-      <c r="AW167">
-        <v>6</v>
-      </c>
-      <c r="AX167">
-        <v>1</v>
-      </c>
-      <c r="AY167">
-        <v>21</v>
-      </c>
-      <c r="AZ167">
-        <v>8</v>
-      </c>
-      <c r="BA167">
-        <v>10</v>
-      </c>
-      <c r="BB167">
-        <v>2</v>
-      </c>
-      <c r="BC167">
-        <v>12</v>
-      </c>
-      <c r="BD167">
-        <v>1.76</v>
-      </c>
-      <c r="BE167">
-        <v>6.4</v>
-      </c>
-      <c r="BF167">
-        <v>2.18</v>
-      </c>
-      <c r="BG167">
-        <v>1.29</v>
-      </c>
-      <c r="BH167">
-        <v>3.25</v>
-      </c>
-      <c r="BI167">
-        <v>1.52</v>
-      </c>
       <c r="BJ167">
-        <v>2.36</v>
+        <v>2.19</v>
       </c>
       <c r="BK167">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="BL167">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="BM167">
-        <v>2.39</v>
+        <v>2.6</v>
       </c>
       <c r="BN167">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="BO167">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="BP167">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="168" spans="1:68">
@@ -35637,7 +35637,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>7728371</v>
+        <v>7728374</v>
       </c>
       <c r="C168" t="s">
         <v>68</v>
@@ -35646,16 +35646,16 @@
         <v>69</v>
       </c>
       <c r="E168" s="2">
-        <v>45619.70833333334</v>
+        <v>45620.60416666666</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G168" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H168" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -35667,79 +35667,79 @@
         <v>0</v>
       </c>
       <c r="L168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O168" t="s">
-        <v>94</v>
+        <v>208</v>
       </c>
       <c r="P168" t="s">
-        <v>94</v>
+        <v>282</v>
       </c>
       <c r="Q168">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="R168">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S168">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T168">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U168">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V168">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="W168">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="X168">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y168">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="Z168">
-        <v>2.35</v>
+        <v>2.52</v>
       </c>
       <c r="AA168">
-        <v>2.79</v>
+        <v>3.06</v>
       </c>
       <c r="AB168">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="AC168">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AD168">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AE168">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="AF168">
-        <v>2.37</v>
+        <v>3.1</v>
       </c>
       <c r="AG168">
-        <v>2.25</v>
+        <v>2.04</v>
       </c>
       <c r="AH168">
-        <v>1.57</v>
+        <v>1.82</v>
       </c>
       <c r="AI168">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AJ168">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AK168">
         <v>1.47</v>
@@ -35748,94 +35748,94 @@
         <v>1.28</v>
       </c>
       <c r="AM168">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="AN168">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AO168">
-        <v>3</v>
+        <v>1.86</v>
       </c>
       <c r="AP168">
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="AQ168">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="AR168">
+        <v>1.15</v>
+      </c>
+      <c r="AS168">
+        <v>1.31</v>
+      </c>
+      <c r="AT168">
+        <v>2.46</v>
+      </c>
+      <c r="AU168">
+        <v>4</v>
+      </c>
+      <c r="AV168">
+        <v>10</v>
+      </c>
+      <c r="AW168">
+        <v>6</v>
+      </c>
+      <c r="AX168">
+        <v>8</v>
+      </c>
+      <c r="AY168">
+        <v>11</v>
+      </c>
+      <c r="AZ168">
+        <v>23</v>
+      </c>
+      <c r="BA168">
+        <v>4</v>
+      </c>
+      <c r="BB168">
+        <v>8</v>
+      </c>
+      <c r="BC168">
+        <v>12</v>
+      </c>
+      <c r="BD168">
+        <v>1.86</v>
+      </c>
+      <c r="BE168">
+        <v>6.4</v>
+      </c>
+      <c r="BF168">
+        <v>2.02</v>
+      </c>
+      <c r="BG168">
         <v>1.29</v>
       </c>
-      <c r="AS168">
-        <v>1.43</v>
-      </c>
-      <c r="AT168">
-        <v>2.72</v>
-      </c>
-      <c r="AU168">
-        <v>7</v>
-      </c>
-      <c r="AV168">
-        <v>8</v>
-      </c>
-      <c r="AW168">
-        <v>5</v>
-      </c>
-      <c r="AX168">
-        <v>3</v>
-      </c>
-      <c r="AY168">
-        <v>20</v>
-      </c>
-      <c r="AZ168">
-        <v>12</v>
-      </c>
-      <c r="BA168">
-        <v>3</v>
-      </c>
-      <c r="BB168">
-        <v>2</v>
-      </c>
-      <c r="BC168">
-        <v>5</v>
-      </c>
-      <c r="BD168">
-        <v>1.92</v>
-      </c>
-      <c r="BE168">
-        <v>6.1</v>
-      </c>
-      <c r="BF168">
-        <v>1.98</v>
-      </c>
-      <c r="BG168">
-        <v>1.31</v>
-      </c>
       <c r="BH168">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="BI168">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="BJ168">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="BK168">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="BL168">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="BM168">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="BN168">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="BO168">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="BP168">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="286">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -604,31 +604,31 @@
     <t>['46', '67']</t>
   </si>
   <si>
+    <t>['20', '52']</t>
+  </si>
+  <si>
     <t>['90']</t>
   </si>
   <si>
-    <t>['20', '52']</t>
+    <t>['12', '24']</t>
   </si>
   <si>
     <t>['73']</t>
   </si>
   <si>
-    <t>['12', '24']</t>
+    <t>['60']</t>
   </si>
   <si>
-    <t>['60']</t>
+    <t>['9', '16', '68']</t>
   </si>
   <si>
     <t>['38', '45+1']</t>
   </si>
   <si>
-    <t>['9', '16', '68']</t>
+    <t>['14']</t>
   </si>
   <si>
     <t>['31', '45+1']</t>
-  </si>
-  <si>
-    <t>['14']</t>
   </si>
   <si>
     <t>['45', '79']</t>
@@ -637,10 +637,16 @@
     <t>['35']</t>
   </si>
   <si>
+    <t>['30', '58']</t>
+  </si>
+  <si>
     <t>['5', '45+3', '53', '83']</t>
   </si>
   <si>
     <t>['83']</t>
+  </si>
+  <si>
+    <t>['34', '81']</t>
   </si>
   <si>
     <t>['42', '45+3']</t>
@@ -850,9 +856,6 @@
     <t>['39', '78']</t>
   </si>
   <si>
-    <t>['30', '58']</t>
-  </si>
-  <si>
     <t>['20', '24', '29']</t>
   </si>
   <si>
@@ -862,7 +865,13 @@
     <t>['24', '65']</t>
   </si>
   <si>
+    <t>['16', '56']</t>
+  </si>
+  <si>
     <t>['70']</t>
+  </si>
+  <si>
+    <t>['76']</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP168"/>
+  <dimension ref="A1:BP171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1483,7 +1492,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1767,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ3">
         <v>0.14</v>
@@ -1895,7 +1904,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1976,7 +1985,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ4">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2513,7 +2522,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2719,7 +2728,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2925,7 +2934,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -3131,7 +3140,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3337,7 +3346,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3543,7 +3552,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3624,7 +3633,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ12">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3749,7 +3758,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3955,7 +3964,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4242,7 +4251,7 @@
         <v>2</v>
       </c>
       <c r="AQ15">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR15">
         <v>1.13</v>
@@ -4985,7 +4994,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5269,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ20">
         <v>1.14</v>
@@ -5603,7 +5612,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5684,7 +5693,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ22">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5809,7 +5818,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5887,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
         <v>0.88</v>
@@ -6015,7 +6024,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6221,7 +6230,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6427,7 +6436,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6508,7 +6517,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ26">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -6839,7 +6848,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7045,7 +7054,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7457,7 +7466,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q31">
         <v>2.75</v>
@@ -7741,10 +7750,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ32">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR32">
         <v>0.48</v>
@@ -7869,7 +7878,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8281,7 +8290,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8487,7 +8496,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8899,7 +8908,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9183,7 +9192,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -10135,7 +10144,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10419,7 +10428,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45">
         <v>0.71</v>
@@ -10625,7 +10634,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10753,7 +10762,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10834,7 +10843,7 @@
         <v>2</v>
       </c>
       <c r="AQ47">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR47">
         <v>1.72</v>
@@ -11040,7 +11049,7 @@
         <v>2</v>
       </c>
       <c r="AQ48">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR48">
         <v>1.67</v>
@@ -11655,7 +11664,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -12276,7 +12285,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ54">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR54">
         <v>1.46</v>
@@ -12401,7 +12410,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12607,7 +12616,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12813,7 +12822,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -13019,7 +13028,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13225,7 +13234,7 @@
         <v>94</v>
       </c>
       <c r="P59" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -14049,7 +14058,7 @@
         <v>94</v>
       </c>
       <c r="P63" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14255,7 +14264,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14667,7 +14676,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15079,7 +15088,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15157,7 +15166,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ68">
         <v>1</v>
@@ -15285,7 +15294,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15366,7 +15375,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ69">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR69">
         <v>1.25</v>
@@ -15569,7 +15578,7 @@
         <v>2</v>
       </c>
       <c r="AP70">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ70">
         <v>0.88</v>
@@ -15778,7 +15787,7 @@
         <v>2</v>
       </c>
       <c r="AQ71">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR71">
         <v>1.44</v>
@@ -15903,7 +15912,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16109,7 +16118,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16315,7 +16324,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16521,7 +16530,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -16602,7 +16611,7 @@
         <v>1</v>
       </c>
       <c r="AQ75">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR75">
         <v>1.58</v>
@@ -16805,7 +16814,7 @@
         <v>0.5</v>
       </c>
       <c r="AP76">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ76">
         <v>0.83</v>
@@ -17139,7 +17148,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17345,7 +17354,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q79">
         <v>3.85</v>
@@ -17757,7 +17766,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q81">
         <v>2.65</v>
@@ -17963,7 +17972,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q82">
         <v>3.55</v>
@@ -18041,7 +18050,7 @@
         <v>1.67</v>
       </c>
       <c r="AP82">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ82">
         <v>2</v>
@@ -18375,7 +18384,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18993,7 +19002,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19405,7 +19414,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19483,7 +19492,7 @@
         <v>0</v>
       </c>
       <c r="AP89">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ89">
         <v>0.14</v>
@@ -19611,7 +19620,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19692,7 +19701,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ90">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR90">
         <v>1.45</v>
@@ -20104,7 +20113,7 @@
         <v>2</v>
       </c>
       <c r="AQ92">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR92">
         <v>1.5</v>
@@ -20229,7 +20238,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20435,7 +20444,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -20641,7 +20650,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -21671,7 +21680,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -21877,7 +21886,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -21955,7 +21964,7 @@
         <v>1.2</v>
       </c>
       <c r="AP101">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ101">
         <v>0.75</v>
@@ -22164,7 +22173,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ102">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR102">
         <v>1.55</v>
@@ -22782,7 +22791,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ105">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR105">
         <v>1.71</v>
@@ -22985,7 +22994,7 @@
         <v>1.25</v>
       </c>
       <c r="AP106">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ106">
         <v>0.71</v>
@@ -23113,7 +23122,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23731,7 +23740,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -24015,7 +24024,7 @@
         <v>1.75</v>
       </c>
       <c r="AP111">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ111">
         <v>0.88</v>
@@ -24143,7 +24152,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q112">
         <v>2.45</v>
@@ -24349,7 +24358,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -24555,7 +24564,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q114">
         <v>3.45</v>
@@ -24636,7 +24645,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ114">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR114">
         <v>1.49</v>
@@ -25379,7 +25388,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q118">
         <v>2.8</v>
@@ -25791,7 +25800,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q120">
         <v>2.55</v>
@@ -26203,7 +26212,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26409,7 +26418,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q123">
         <v>2.4</v>
@@ -26487,7 +26496,7 @@
         <v>1</v>
       </c>
       <c r="AP123">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ123">
         <v>0.75</v>
@@ -26821,7 +26830,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q125">
         <v>2.63</v>
@@ -27105,10 +27114,10 @@
         <v>1</v>
       </c>
       <c r="AP126">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ126">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR126">
         <v>1.56</v>
@@ -27439,7 +27448,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27851,7 +27860,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q130">
         <v>2.75</v>
@@ -28057,7 +28066,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q131">
         <v>3.25</v>
@@ -28135,7 +28144,7 @@
         <v>1</v>
       </c>
       <c r="AP131">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ131">
         <v>1.29</v>
@@ -28263,7 +28272,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28469,7 +28478,7 @@
         <v>106</v>
       </c>
       <c r="P133" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q133">
         <v>3.1</v>
@@ -28550,7 +28559,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ133">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR133">
         <v>1.15</v>
@@ -28675,7 +28684,7 @@
         <v>94</v>
       </c>
       <c r="P134" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q134">
         <v>3.1</v>
@@ -29087,7 +29096,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q136">
         <v>3.9</v>
@@ -29499,7 +29508,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -30117,7 +30126,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q141">
         <v>2.62</v>
@@ -30323,7 +30332,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q142">
         <v>3.6</v>
@@ -30401,7 +30410,7 @@
         <v>1.17</v>
       </c>
       <c r="AP142">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ142">
         <v>1.13</v>
@@ -30529,7 +30538,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q143">
         <v>3.75</v>
@@ -30610,7 +30619,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ143">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR143">
         <v>1.11</v>
@@ -30735,7 +30744,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -30816,7 +30825,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ144">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR144">
         <v>1.75</v>
@@ -31147,7 +31156,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q146">
         <v>2.75</v>
@@ -31225,7 +31234,7 @@
         <v>2</v>
       </c>
       <c r="AP146">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ146">
         <v>1.75</v>
@@ -31353,7 +31362,7 @@
         <v>98</v>
       </c>
       <c r="P147" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q147">
         <v>3.65</v>
@@ -31559,7 +31568,7 @@
         <v>94</v>
       </c>
       <c r="P148" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31765,7 +31774,7 @@
         <v>194</v>
       </c>
       <c r="P149" t="s">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="Q149">
         <v>3.25</v>
@@ -31843,7 +31852,7 @@
         <v>1</v>
       </c>
       <c r="AP149">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ149">
         <v>0.89</v>
@@ -32341,7 +32350,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>7481513</v>
+        <v>7481516</v>
       </c>
       <c r="C152" t="s">
         <v>68</v>
@@ -32356,70 +32365,70 @@
         <v>15</v>
       </c>
       <c r="G152" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H152" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M152">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N152">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O152" t="s">
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>279</v>
+        <v>94</v>
       </c>
       <c r="Q152">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="R152">
         <v>2.1</v>
       </c>
       <c r="S152">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="T152">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U152">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V152">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="W152">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="X152">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="Y152">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="Z152">
-        <v>1.7</v>
+        <v>2.18</v>
       </c>
       <c r="AA152">
-        <v>3.75</v>
+        <v>3.27</v>
       </c>
       <c r="AB152">
-        <v>4.45</v>
+        <v>3.18</v>
       </c>
       <c r="AC152">
         <v>1.06</v>
@@ -32428,118 +32437,118 @@
         <v>8.5</v>
       </c>
       <c r="AE152">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AF152">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="AG152">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="AH152">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AI152">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AJ152">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AK152">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AL152">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AM152">
-        <v>2.05</v>
+        <v>1.57</v>
       </c>
       <c r="AN152">
         <v>1.17</v>
       </c>
       <c r="AO152">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AP152">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AQ152">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR152">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AS152">
-        <v>0.91</v>
+        <v>1.4</v>
       </c>
       <c r="AT152">
-        <v>2.49</v>
+        <v>2.94</v>
       </c>
       <c r="AU152">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV152">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AW152">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX152">
         <v>7</v>
       </c>
       <c r="AY152">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AZ152">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="BA152">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BB152">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC152">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BD152">
-        <v>1.51</v>
+        <v>1.77</v>
       </c>
       <c r="BE152">
-        <v>8.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF152">
-        <v>3.16</v>
+        <v>2.15</v>
       </c>
       <c r="BG152">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="BH152">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="BI152">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="BJ152">
-        <v>2.19</v>
+        <v>2.28</v>
       </c>
       <c r="BK152">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="BL152">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="BM152">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="BN152">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="BO152">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="BP152">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="153" spans="1:68">
@@ -32547,7 +32556,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>7481516</v>
+        <v>7481513</v>
       </c>
       <c r="C153" t="s">
         <v>68</v>
@@ -32562,70 +32571,70 @@
         <v>15</v>
       </c>
       <c r="G153" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H153" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N153">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O153" t="s">
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>94</v>
+        <v>280</v>
       </c>
       <c r="Q153">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="R153">
         <v>2.1</v>
       </c>
       <c r="S153">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="T153">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U153">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V153">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="W153">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="X153">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="Y153">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="Z153">
-        <v>2.18</v>
+        <v>1.7</v>
       </c>
       <c r="AA153">
-        <v>3.27</v>
+        <v>3.75</v>
       </c>
       <c r="AB153">
-        <v>3.18</v>
+        <v>4.45</v>
       </c>
       <c r="AC153">
         <v>1.06</v>
@@ -32634,118 +32643,118 @@
         <v>8.5</v>
       </c>
       <c r="AE153">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AF153">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="AG153">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="AH153">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AI153">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AJ153">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AK153">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AL153">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AM153">
-        <v>1.57</v>
+        <v>2.05</v>
       </c>
       <c r="AN153">
         <v>1.17</v>
       </c>
       <c r="AO153">
+        <v>0.83</v>
+      </c>
+      <c r="AP153">
+        <v>1</v>
+      </c>
+      <c r="AQ153">
         <v>1.14</v>
       </c>
-      <c r="AP153">
-        <v>1.63</v>
-      </c>
-      <c r="AQ153">
-        <v>1</v>
-      </c>
       <c r="AR153">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="AS153">
-        <v>1.4</v>
+        <v>0.91</v>
       </c>
       <c r="AT153">
-        <v>2.94</v>
+        <v>2.49</v>
       </c>
       <c r="AU153">
+        <v>7</v>
+      </c>
+      <c r="AV153">
+        <v>10</v>
+      </c>
+      <c r="AW153">
         <v>4</v>
-      </c>
-      <c r="AV153">
-        <v>2</v>
-      </c>
-      <c r="AW153">
-        <v>5</v>
       </c>
       <c r="AX153">
         <v>7</v>
       </c>
       <c r="AY153">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ153">
+        <v>19</v>
+      </c>
+      <c r="BA153">
+        <v>7</v>
+      </c>
+      <c r="BB153">
+        <v>7</v>
+      </c>
+      <c r="BC153">
         <v>14</v>
       </c>
-      <c r="BA153">
-        <v>4</v>
-      </c>
-      <c r="BB153">
-        <v>6</v>
-      </c>
-      <c r="BC153">
-        <v>10</v>
-      </c>
       <c r="BD153">
-        <v>1.77</v>
+        <v>1.51</v>
       </c>
       <c r="BE153">
-        <v>6.4</v>
+        <v>8.5</v>
       </c>
       <c r="BF153">
-        <v>2.15</v>
+        <v>3.16</v>
       </c>
       <c r="BG153">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="BH153">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="BI153">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="BJ153">
-        <v>2.28</v>
+        <v>2.19</v>
       </c>
       <c r="BK153">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="BL153">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="BM153">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="BN153">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="BO153">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="BP153">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="154" spans="1:68">
@@ -32753,7 +32762,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>7481518</v>
+        <v>7481517</v>
       </c>
       <c r="C154" t="s">
         <v>68</v>
@@ -32768,25 +32777,25 @@
         <v>15</v>
       </c>
       <c r="G154" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H154" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N154">
         <v>2</v>
@@ -32795,163 +32804,163 @@
         <v>198</v>
       </c>
       <c r="P154" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="Q154">
+        <v>2.1</v>
+      </c>
+      <c r="R154">
+        <v>2.25</v>
+      </c>
+      <c r="S154">
+        <v>5</v>
+      </c>
+      <c r="T154">
+        <v>1.33</v>
+      </c>
+      <c r="U154">
         <v>3</v>
       </c>
-      <c r="R154">
+      <c r="V154">
+        <v>2.45</v>
+      </c>
+      <c r="W154">
+        <v>1.48</v>
+      </c>
+      <c r="X154">
+        <v>5.8</v>
+      </c>
+      <c r="Y154">
+        <v>1.1</v>
+      </c>
+      <c r="Z154">
+        <v>1.6</v>
+      </c>
+      <c r="AA154">
+        <v>3.95</v>
+      </c>
+      <c r="AB154">
+        <v>5.25</v>
+      </c>
+      <c r="AC154">
+        <v>1.04</v>
+      </c>
+      <c r="AD154">
+        <v>10</v>
+      </c>
+      <c r="AE154">
+        <v>1.22</v>
+      </c>
+      <c r="AF154">
+        <v>4</v>
+      </c>
+      <c r="AG154">
+        <v>1.7</v>
+      </c>
+      <c r="AH154">
+        <v>2.15</v>
+      </c>
+      <c r="AI154">
+        <v>1.73</v>
+      </c>
+      <c r="AJ154">
         <v>1.95</v>
       </c>
-      <c r="S154">
-        <v>3.6</v>
-      </c>
-      <c r="T154">
-        <v>1.48</v>
-      </c>
-      <c r="U154">
-        <v>2.5</v>
-      </c>
-      <c r="V154">
-        <v>3.1</v>
-      </c>
-      <c r="W154">
-        <v>1.33</v>
-      </c>
-      <c r="X154">
-        <v>7.2</v>
-      </c>
-      <c r="Y154">
-        <v>1.06</v>
-      </c>
-      <c r="Z154">
-        <v>2.35</v>
-      </c>
-      <c r="AA154">
-        <v>3.1</v>
-      </c>
-      <c r="AB154">
-        <v>3</v>
-      </c>
-      <c r="AC154">
-        <v>1.07</v>
-      </c>
-      <c r="AD154">
+      <c r="AK154">
+        <v>1.14</v>
+      </c>
+      <c r="AL154">
+        <v>1.2</v>
+      </c>
+      <c r="AM154">
+        <v>2.3</v>
+      </c>
+      <c r="AN154">
+        <v>1.71</v>
+      </c>
+      <c r="AO154">
+        <v>1</v>
+      </c>
+      <c r="AP154">
+        <v>1.88</v>
+      </c>
+      <c r="AQ154">
+        <v>0.88</v>
+      </c>
+      <c r="AR154">
+        <v>1.59</v>
+      </c>
+      <c r="AS154">
+        <v>1.3</v>
+      </c>
+      <c r="AT154">
+        <v>2.89</v>
+      </c>
+      <c r="AU154">
+        <v>4</v>
+      </c>
+      <c r="AV154">
+        <v>6</v>
+      </c>
+      <c r="AW154">
+        <v>0</v>
+      </c>
+      <c r="AX154">
+        <v>2</v>
+      </c>
+      <c r="AY154">
+        <v>4</v>
+      </c>
+      <c r="AZ154">
+        <v>10</v>
+      </c>
+      <c r="BA154">
+        <v>1</v>
+      </c>
+      <c r="BB154">
+        <v>7</v>
+      </c>
+      <c r="BC154">
         <v>8</v>
       </c>
-      <c r="AE154">
-        <v>1.38</v>
-      </c>
-      <c r="AF154">
-        <v>2.95</v>
-      </c>
-      <c r="AG154">
-        <v>2.13</v>
-      </c>
-      <c r="AH154">
-        <v>1.7</v>
-      </c>
-      <c r="AI154">
-        <v>1.83</v>
-      </c>
-      <c r="AJ154">
-        <v>1.83</v>
-      </c>
-      <c r="AK154">
-        <v>1.36</v>
-      </c>
-      <c r="AL154">
-        <v>1.3</v>
-      </c>
-      <c r="AM154">
-        <v>1.57</v>
-      </c>
-      <c r="AN154">
-        <v>2.2</v>
-      </c>
-      <c r="AO154">
-        <v>1.17</v>
-      </c>
-      <c r="AP154">
-        <v>2</v>
-      </c>
-      <c r="AQ154">
-        <v>1.14</v>
-      </c>
-      <c r="AR154">
-        <v>1.67</v>
-      </c>
-      <c r="AS154">
-        <v>1.29</v>
-      </c>
-      <c r="AT154">
-        <v>2.96</v>
-      </c>
-      <c r="AU154">
-        <v>3</v>
-      </c>
-      <c r="AV154">
-        <v>10</v>
-      </c>
-      <c r="AW154">
-        <v>6</v>
-      </c>
-      <c r="AX154">
-        <v>2</v>
-      </c>
-      <c r="AY154">
-        <v>15</v>
-      </c>
-      <c r="AZ154">
-        <v>15</v>
-      </c>
-      <c r="BA154">
-        <v>5</v>
-      </c>
-      <c r="BB154">
-        <v>5</v>
-      </c>
-      <c r="BC154">
-        <v>10</v>
-      </c>
       <c r="BD154">
-        <v>1.82</v>
+        <v>1.41</v>
       </c>
       <c r="BE154">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF154">
-        <v>2.39</v>
+        <v>3.49</v>
       </c>
       <c r="BG154">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="BH154">
-        <v>2.83</v>
+        <v>3.65</v>
       </c>
       <c r="BI154">
+        <v>1.4</v>
+      </c>
+      <c r="BJ154">
+        <v>2.65</v>
+      </c>
+      <c r="BK154">
         <v>1.65</v>
       </c>
-      <c r="BJ154">
-        <v>2.1</v>
-      </c>
-      <c r="BK154">
-        <v>2.08</v>
-      </c>
       <c r="BL154">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="BM154">
-        <v>2.73</v>
+        <v>2</v>
       </c>
       <c r="BN154">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="BO154">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="BP154">
-        <v>1.23</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="155" spans="1:68">
@@ -32959,7 +32968,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>7481517</v>
+        <v>7481518</v>
       </c>
       <c r="C155" t="s">
         <v>68</v>
@@ -32974,25 +32983,25 @@
         <v>15</v>
       </c>
       <c r="G155" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H155" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I155">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N155">
         <v>2</v>
@@ -33001,163 +33010,163 @@
         <v>199</v>
       </c>
       <c r="P155" t="s">
-        <v>94</v>
+        <v>281</v>
       </c>
       <c r="Q155">
+        <v>3</v>
+      </c>
+      <c r="R155">
+        <v>1.95</v>
+      </c>
+      <c r="S155">
+        <v>3.6</v>
+      </c>
+      <c r="T155">
+        <v>1.48</v>
+      </c>
+      <c r="U155">
+        <v>2.5</v>
+      </c>
+      <c r="V155">
+        <v>3.1</v>
+      </c>
+      <c r="W155">
+        <v>1.33</v>
+      </c>
+      <c r="X155">
+        <v>7.2</v>
+      </c>
+      <c r="Y155">
+        <v>1.06</v>
+      </c>
+      <c r="Z155">
+        <v>2.35</v>
+      </c>
+      <c r="AA155">
+        <v>3.1</v>
+      </c>
+      <c r="AB155">
+        <v>3</v>
+      </c>
+      <c r="AC155">
+        <v>1.07</v>
+      </c>
+      <c r="AD155">
+        <v>8</v>
+      </c>
+      <c r="AE155">
+        <v>1.38</v>
+      </c>
+      <c r="AF155">
+        <v>2.95</v>
+      </c>
+      <c r="AG155">
+        <v>2.13</v>
+      </c>
+      <c r="AH155">
+        <v>1.7</v>
+      </c>
+      <c r="AI155">
+        <v>1.83</v>
+      </c>
+      <c r="AJ155">
+        <v>1.83</v>
+      </c>
+      <c r="AK155">
+        <v>1.36</v>
+      </c>
+      <c r="AL155">
+        <v>1.3</v>
+      </c>
+      <c r="AM155">
+        <v>1.57</v>
+      </c>
+      <c r="AN155">
+        <v>2.2</v>
+      </c>
+      <c r="AO155">
+        <v>1.17</v>
+      </c>
+      <c r="AP155">
+        <v>2</v>
+      </c>
+      <c r="AQ155">
+        <v>1.14</v>
+      </c>
+      <c r="AR155">
+        <v>1.67</v>
+      </c>
+      <c r="AS155">
+        <v>1.29</v>
+      </c>
+      <c r="AT155">
+        <v>2.96</v>
+      </c>
+      <c r="AU155">
+        <v>3</v>
+      </c>
+      <c r="AV155">
+        <v>10</v>
+      </c>
+      <c r="AW155">
+        <v>6</v>
+      </c>
+      <c r="AX155">
+        <v>2</v>
+      </c>
+      <c r="AY155">
+        <v>15</v>
+      </c>
+      <c r="AZ155">
+        <v>15</v>
+      </c>
+      <c r="BA155">
+        <v>5</v>
+      </c>
+      <c r="BB155">
+        <v>5</v>
+      </c>
+      <c r="BC155">
+        <v>10</v>
+      </c>
+      <c r="BD155">
+        <v>1.82</v>
+      </c>
+      <c r="BE155">
+        <v>8</v>
+      </c>
+      <c r="BF155">
+        <v>2.39</v>
+      </c>
+      <c r="BG155">
+        <v>1.37</v>
+      </c>
+      <c r="BH155">
+        <v>2.83</v>
+      </c>
+      <c r="BI155">
+        <v>1.65</v>
+      </c>
+      <c r="BJ155">
         <v>2.1</v>
       </c>
-      <c r="R155">
-        <v>2.25</v>
-      </c>
-      <c r="S155">
-        <v>5</v>
-      </c>
-      <c r="T155">
-        <v>1.33</v>
-      </c>
-      <c r="U155">
-        <v>3</v>
-      </c>
-      <c r="V155">
-        <v>2.45</v>
-      </c>
-      <c r="W155">
-        <v>1.48</v>
-      </c>
-      <c r="X155">
-        <v>5.8</v>
-      </c>
-      <c r="Y155">
-        <v>1.1</v>
-      </c>
-      <c r="Z155">
-        <v>1.6</v>
-      </c>
-      <c r="AA155">
-        <v>3.95</v>
-      </c>
-      <c r="AB155">
-        <v>5.25</v>
-      </c>
-      <c r="AC155">
-        <v>1.04</v>
-      </c>
-      <c r="AD155">
-        <v>10</v>
-      </c>
-      <c r="AE155">
-        <v>1.22</v>
-      </c>
-      <c r="AF155">
-        <v>4</v>
-      </c>
-      <c r="AG155">
-        <v>1.7</v>
-      </c>
-      <c r="AH155">
-        <v>2.15</v>
-      </c>
-      <c r="AI155">
-        <v>1.73</v>
-      </c>
-      <c r="AJ155">
-        <v>1.95</v>
-      </c>
-      <c r="AK155">
-        <v>1.14</v>
-      </c>
-      <c r="AL155">
-        <v>1.2</v>
-      </c>
-      <c r="AM155">
-        <v>2.3</v>
-      </c>
-      <c r="AN155">
-        <v>1.71</v>
-      </c>
-      <c r="AO155">
-        <v>1</v>
-      </c>
-      <c r="AP155">
-        <v>1.88</v>
-      </c>
-      <c r="AQ155">
-        <v>0.88</v>
-      </c>
-      <c r="AR155">
-        <v>1.59</v>
-      </c>
-      <c r="AS155">
-        <v>1.3</v>
-      </c>
-      <c r="AT155">
-        <v>2.89</v>
-      </c>
-      <c r="AU155">
-        <v>4</v>
-      </c>
-      <c r="AV155">
-        <v>6</v>
-      </c>
-      <c r="AW155">
-        <v>0</v>
-      </c>
-      <c r="AX155">
-        <v>2</v>
-      </c>
-      <c r="AY155">
-        <v>4</v>
-      </c>
-      <c r="AZ155">
-        <v>10</v>
-      </c>
-      <c r="BA155">
-        <v>1</v>
-      </c>
-      <c r="BB155">
-        <v>7</v>
-      </c>
-      <c r="BC155">
-        <v>8</v>
-      </c>
-      <c r="BD155">
-        <v>1.41</v>
-      </c>
-      <c r="BE155">
-        <v>9</v>
-      </c>
-      <c r="BF155">
-        <v>3.49</v>
-      </c>
-      <c r="BG155">
-        <v>1.22</v>
-      </c>
-      <c r="BH155">
-        <v>3.65</v>
-      </c>
-      <c r="BI155">
+      <c r="BK155">
+        <v>2.08</v>
+      </c>
+      <c r="BL155">
+        <v>1.67</v>
+      </c>
+      <c r="BM155">
+        <v>2.73</v>
+      </c>
+      <c r="BN155">
         <v>1.4</v>
       </c>
-      <c r="BJ155">
-        <v>2.65</v>
-      </c>
-      <c r="BK155">
-        <v>1.65</v>
-      </c>
-      <c r="BL155">
-        <v>2.05</v>
-      </c>
-      <c r="BM155">
-        <v>2</v>
-      </c>
-      <c r="BN155">
-        <v>1.73</v>
-      </c>
       <c r="BO155">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="BP155">
-        <v>1.41</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="156" spans="1:68">
@@ -33207,7 +33216,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -33371,7 +33380,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>7481511</v>
+        <v>7481515</v>
       </c>
       <c r="C157" t="s">
         <v>68</v>
@@ -33383,13 +33392,13 @@
         <v>45613.51041666666</v>
       </c>
       <c r="F157">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="H157" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I157">
         <v>2</v>
@@ -33401,175 +33410,175 @@
         <v>2</v>
       </c>
       <c r="L157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N157">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O157" t="s">
         <v>201</v>
       </c>
       <c r="P157" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="Q157">
+        <v>2.4</v>
+      </c>
+      <c r="R157">
+        <v>1.95</v>
+      </c>
+      <c r="S157">
+        <v>6</v>
+      </c>
+      <c r="T157">
+        <v>1.57</v>
+      </c>
+      <c r="U157">
+        <v>2.25</v>
+      </c>
+      <c r="V157">
+        <v>3.75</v>
+      </c>
+      <c r="W157">
+        <v>1.25</v>
+      </c>
+      <c r="X157">
+        <v>13</v>
+      </c>
+      <c r="Y157">
+        <v>1.04</v>
+      </c>
+      <c r="Z157">
+        <v>1.75</v>
+      </c>
+      <c r="AA157">
+        <v>3.1</v>
+      </c>
+      <c r="AB157">
+        <v>4.5</v>
+      </c>
+      <c r="AC157">
+        <v>1.1</v>
+      </c>
+      <c r="AD157">
+        <v>6.5</v>
+      </c>
+      <c r="AE157">
+        <v>1.48</v>
+      </c>
+      <c r="AF157">
+        <v>2.37</v>
+      </c>
+      <c r="AG157">
+        <v>2.47</v>
+      </c>
+      <c r="AH157">
+        <v>1.48</v>
+      </c>
+      <c r="AI157">
         <v>2.5</v>
       </c>
-      <c r="R157">
-        <v>2.05</v>
-      </c>
-      <c r="S157">
-        <v>4.33</v>
-      </c>
-      <c r="T157">
-        <v>1.42</v>
-      </c>
-      <c r="U157">
-        <v>2.65</v>
-      </c>
-      <c r="V157">
-        <v>2.9</v>
-      </c>
-      <c r="W157">
-        <v>1.36</v>
-      </c>
-      <c r="X157">
-        <v>6.9</v>
-      </c>
-      <c r="Y157">
-        <v>1.07</v>
-      </c>
-      <c r="Z157">
-        <v>1.8</v>
-      </c>
-      <c r="AA157">
-        <v>3.3</v>
-      </c>
-      <c r="AB157">
-        <v>3.9</v>
-      </c>
-      <c r="AC157">
-        <v>1.07</v>
-      </c>
-      <c r="AD157">
-        <v>8</v>
-      </c>
-      <c r="AE157">
-        <v>1.35</v>
-      </c>
-      <c r="AF157">
-        <v>3.1</v>
-      </c>
-      <c r="AG157">
-        <v>1.95</v>
-      </c>
-      <c r="AH157">
-        <v>1.73</v>
-      </c>
-      <c r="AI157">
-        <v>1.83</v>
-      </c>
       <c r="AJ157">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="AK157">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AL157">
         <v>1.25</v>
       </c>
       <c r="AM157">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AN157">
-        <v>0.86</v>
+        <v>2.5</v>
       </c>
       <c r="AO157">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="AP157">
-        <v>1.13</v>
+        <v>2.57</v>
       </c>
       <c r="AQ157">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR157">
-        <v>1.49</v>
+        <v>1.68</v>
       </c>
       <c r="AS157">
-        <v>1.27</v>
+        <v>1.06</v>
       </c>
       <c r="AT157">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="AU157">
+        <v>8</v>
+      </c>
+      <c r="AV157">
+        <v>4</v>
+      </c>
+      <c r="AW157">
         <v>6</v>
       </c>
-      <c r="AV157">
+      <c r="AX157">
+        <v>8</v>
+      </c>
+      <c r="AY157">
+        <v>16</v>
+      </c>
+      <c r="AZ157">
+        <v>14</v>
+      </c>
+      <c r="BA157">
+        <v>4</v>
+      </c>
+      <c r="BB157">
+        <v>4</v>
+      </c>
+      <c r="BC157">
+        <v>8</v>
+      </c>
+      <c r="BD157">
+        <v>1.38</v>
+      </c>
+      <c r="BE157">
+        <v>6.75</v>
+      </c>
+      <c r="BF157">
+        <v>3.15</v>
+      </c>
+      <c r="BG157">
+        <v>1.3</v>
+      </c>
+      <c r="BH157">
+        <v>3.05</v>
+      </c>
+      <c r="BI157">
+        <v>1.53</v>
+      </c>
+      <c r="BJ157">
+        <v>2.28</v>
+      </c>
+      <c r="BK157">
+        <v>1.98</v>
+      </c>
+      <c r="BL157">
+        <v>1.82</v>
+      </c>
+      <c r="BM157">
+        <v>2.32</v>
+      </c>
+      <c r="BN157">
+        <v>1.52</v>
+      </c>
+      <c r="BO157">
         <v>3</v>
       </c>
-      <c r="AW157">
-        <v>5</v>
-      </c>
-      <c r="AX157">
-        <v>10</v>
-      </c>
-      <c r="AY157">
-        <v>13</v>
-      </c>
-      <c r="AZ157">
-        <v>21</v>
-      </c>
-      <c r="BA157">
-        <v>5</v>
-      </c>
-      <c r="BB157">
-        <v>9</v>
-      </c>
-      <c r="BC157">
-        <v>14</v>
-      </c>
-      <c r="BD157">
-        <v>1.64</v>
-      </c>
-      <c r="BE157">
-        <v>8</v>
-      </c>
-      <c r="BF157">
-        <v>2.77</v>
-      </c>
-      <c r="BG157">
-        <v>1.34</v>
-      </c>
-      <c r="BH157">
-        <v>2.98</v>
-      </c>
-      <c r="BI157">
-        <v>1.6</v>
-      </c>
-      <c r="BJ157">
-        <v>2.19</v>
-      </c>
-      <c r="BK157">
-        <v>2</v>
-      </c>
-      <c r="BL157">
-        <v>1.72</v>
-      </c>
-      <c r="BM157">
-        <v>2.6</v>
-      </c>
-      <c r="BN157">
-        <v>1.44</v>
-      </c>
-      <c r="BO157">
-        <v>3.5</v>
-      </c>
       <c r="BP157">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="158" spans="1:68">
@@ -33577,7 +33586,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>7481515</v>
+        <v>7481511</v>
       </c>
       <c r="C158" t="s">
         <v>68</v>
@@ -33589,13 +33598,13 @@
         <v>45613.51041666666</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G158" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="H158" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I158">
         <v>2</v>
@@ -33607,175 +33616,175 @@
         <v>2</v>
       </c>
       <c r="L158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N158">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O158" t="s">
         <v>202</v>
       </c>
       <c r="P158" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="Q158">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R158">
+        <v>2.05</v>
+      </c>
+      <c r="S158">
+        <v>4.33</v>
+      </c>
+      <c r="T158">
+        <v>1.42</v>
+      </c>
+      <c r="U158">
+        <v>2.65</v>
+      </c>
+      <c r="V158">
+        <v>2.9</v>
+      </c>
+      <c r="W158">
+        <v>1.36</v>
+      </c>
+      <c r="X158">
+        <v>6.9</v>
+      </c>
+      <c r="Y158">
+        <v>1.07</v>
+      </c>
+      <c r="Z158">
+        <v>1.8</v>
+      </c>
+      <c r="AA158">
+        <v>3.3</v>
+      </c>
+      <c r="AB158">
+        <v>3.9</v>
+      </c>
+      <c r="AC158">
+        <v>1.07</v>
+      </c>
+      <c r="AD158">
+        <v>8</v>
+      </c>
+      <c r="AE158">
+        <v>1.35</v>
+      </c>
+      <c r="AF158">
+        <v>3.1</v>
+      </c>
+      <c r="AG158">
         <v>1.95</v>
       </c>
-      <c r="S158">
-        <v>6</v>
-      </c>
-      <c r="T158">
-        <v>1.57</v>
-      </c>
-      <c r="U158">
-        <v>2.25</v>
-      </c>
-      <c r="V158">
-        <v>3.75</v>
-      </c>
-      <c r="W158">
-        <v>1.25</v>
-      </c>
-      <c r="X158">
-        <v>13</v>
-      </c>
-      <c r="Y158">
-        <v>1.04</v>
-      </c>
-      <c r="Z158">
-        <v>1.75</v>
-      </c>
-      <c r="AA158">
-        <v>3.1</v>
-      </c>
-      <c r="AB158">
-        <v>4.5</v>
-      </c>
-      <c r="AC158">
-        <v>1.1</v>
-      </c>
-      <c r="AD158">
-        <v>6.5</v>
-      </c>
-      <c r="AE158">
-        <v>1.48</v>
-      </c>
-      <c r="AF158">
-        <v>2.37</v>
-      </c>
-      <c r="AG158">
-        <v>2.47</v>
-      </c>
       <c r="AH158">
-        <v>1.48</v>
+        <v>1.73</v>
       </c>
       <c r="AI158">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="AJ158">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="AK158">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AL158">
         <v>1.25</v>
       </c>
       <c r="AM158">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AN158">
-        <v>2.5</v>
+        <v>0.86</v>
       </c>
       <c r="AO158">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="AP158">
-        <v>2.57</v>
+        <v>1.13</v>
       </c>
       <c r="AQ158">
-        <v>0.29</v>
+        <v>0.14</v>
       </c>
       <c r="AR158">
-        <v>1.68</v>
+        <v>1.49</v>
       </c>
       <c r="AS158">
-        <v>1.06</v>
+        <v>1.27</v>
       </c>
       <c r="AT158">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="AU158">
+        <v>6</v>
+      </c>
+      <c r="AV158">
+        <v>3</v>
+      </c>
+      <c r="AW158">
+        <v>5</v>
+      </c>
+      <c r="AX158">
+        <v>10</v>
+      </c>
+      <c r="AY158">
+        <v>13</v>
+      </c>
+      <c r="AZ158">
+        <v>21</v>
+      </c>
+      <c r="BA158">
+        <v>5</v>
+      </c>
+      <c r="BB158">
+        <v>9</v>
+      </c>
+      <c r="BC158">
+        <v>14</v>
+      </c>
+      <c r="BD158">
+        <v>1.64</v>
+      </c>
+      <c r="BE158">
         <v>8</v>
       </c>
-      <c r="AV158">
-        <v>4</v>
-      </c>
-      <c r="AW158">
-        <v>6</v>
-      </c>
-      <c r="AX158">
-        <v>8</v>
-      </c>
-      <c r="AY158">
-        <v>16</v>
-      </c>
-      <c r="AZ158">
-        <v>14</v>
-      </c>
-      <c r="BA158">
-        <v>4</v>
-      </c>
-      <c r="BB158">
-        <v>4</v>
-      </c>
-      <c r="BC158">
-        <v>8</v>
-      </c>
-      <c r="BD158">
-        <v>1.38</v>
-      </c>
-      <c r="BE158">
-        <v>6.75</v>
-      </c>
       <c r="BF158">
-        <v>3.15</v>
+        <v>2.77</v>
       </c>
       <c r="BG158">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="BH158">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="BI158">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="BJ158">
-        <v>2.28</v>
+        <v>2.19</v>
       </c>
       <c r="BK158">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BL158">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="BM158">
-        <v>2.32</v>
+        <v>2.6</v>
       </c>
       <c r="BN158">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="BO158">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="BP158">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="159" spans="1:68">
@@ -33783,7 +33792,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>7481510</v>
+        <v>7481512</v>
       </c>
       <c r="C159" t="s">
         <v>68</v>
@@ -33798,190 +33807,190 @@
         <v>15</v>
       </c>
       <c r="G159" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H159" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O159" t="s">
         <v>203</v>
       </c>
       <c r="P159" t="s">
-        <v>206</v>
+        <v>94</v>
       </c>
       <c r="Q159">
+        <v>3.75</v>
+      </c>
+      <c r="R159">
+        <v>1.83</v>
+      </c>
+      <c r="S159">
+        <v>3.6</v>
+      </c>
+      <c r="T159">
+        <v>1.62</v>
+      </c>
+      <c r="U159">
+        <v>2.2</v>
+      </c>
+      <c r="V159">
+        <v>4</v>
+      </c>
+      <c r="W159">
+        <v>1.22</v>
+      </c>
+      <c r="X159">
+        <v>13</v>
+      </c>
+      <c r="Y159">
+        <v>1.04</v>
+      </c>
+      <c r="Z159">
         <v>2.75</v>
       </c>
-      <c r="R159">
+      <c r="AA159">
+        <v>2.75</v>
+      </c>
+      <c r="AB159">
+        <v>2.6</v>
+      </c>
+      <c r="AC159">
+        <v>1.12</v>
+      </c>
+      <c r="AD159">
+        <v>5.75</v>
+      </c>
+      <c r="AE159">
+        <v>1.55</v>
+      </c>
+      <c r="AF159">
+        <v>2.2</v>
+      </c>
+      <c r="AG159">
+        <v>2.85</v>
+      </c>
+      <c r="AH159">
+        <v>1.37</v>
+      </c>
+      <c r="AI159">
+        <v>2.2</v>
+      </c>
+      <c r="AJ159">
+        <v>1.62</v>
+      </c>
+      <c r="AK159">
+        <v>1.44</v>
+      </c>
+      <c r="AL159">
+        <v>1.36</v>
+      </c>
+      <c r="AM159">
+        <v>1.4</v>
+      </c>
+      <c r="AN159">
+        <v>0.17</v>
+      </c>
+      <c r="AO159">
+        <v>1.17</v>
+      </c>
+      <c r="AP159">
+        <v>0.5</v>
+      </c>
+      <c r="AQ159">
+        <v>0.88</v>
+      </c>
+      <c r="AR159">
+        <v>1.21</v>
+      </c>
+      <c r="AS159">
+        <v>1.04</v>
+      </c>
+      <c r="AT159">
         <v>2.25</v>
       </c>
-      <c r="S159">
-        <v>3.75</v>
-      </c>
-      <c r="T159">
-        <v>1.36</v>
-      </c>
-      <c r="U159">
-        <v>3</v>
-      </c>
-      <c r="V159">
-        <v>2.63</v>
-      </c>
-      <c r="W159">
-        <v>1.44</v>
-      </c>
-      <c r="X159">
-        <v>7</v>
-      </c>
-      <c r="Y159">
-        <v>1.1</v>
-      </c>
-      <c r="Z159">
-        <v>1.73</v>
-      </c>
-      <c r="AA159">
-        <v>3.5</v>
-      </c>
-      <c r="AB159">
-        <v>3.9</v>
-      </c>
-      <c r="AC159">
-        <v>1.05</v>
-      </c>
-      <c r="AD159">
-        <v>9.5</v>
-      </c>
-      <c r="AE159">
-        <v>1.25</v>
-      </c>
-      <c r="AF159">
-        <v>3.8</v>
-      </c>
-      <c r="AG159">
-        <v>1.65</v>
-      </c>
-      <c r="AH159">
-        <v>2.05</v>
-      </c>
-      <c r="AI159">
-        <v>1.62</v>
-      </c>
-      <c r="AJ159">
-        <v>2.2</v>
-      </c>
-      <c r="AK159">
-        <v>1.3</v>
-      </c>
-      <c r="AL159">
-        <v>1.25</v>
-      </c>
-      <c r="AM159">
-        <v>1.7</v>
-      </c>
-      <c r="AN159">
-        <v>1.6</v>
-      </c>
-      <c r="AO159">
-        <v>1.14</v>
-      </c>
-      <c r="AP159">
-        <v>1.83</v>
-      </c>
-      <c r="AQ159">
-        <v>1</v>
-      </c>
-      <c r="AR159">
-        <v>1.75</v>
-      </c>
-      <c r="AS159">
-        <v>1.46</v>
-      </c>
-      <c r="AT159">
-        <v>3.21</v>
-      </c>
       <c r="AU159">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV159">
         <v>6</v>
       </c>
       <c r="AW159">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX159">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AY159">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AZ159">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BA159">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BB159">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC159">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD159">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="BE159">
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="BF159">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="BG159">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="BH159">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="BI159">
-        <v>1.64</v>
+        <v>1.87</v>
       </c>
       <c r="BJ159">
-        <v>2.08</v>
+        <v>1.83</v>
       </c>
       <c r="BK159">
-        <v>2.04</v>
+        <v>2.43</v>
       </c>
       <c r="BL159">
-        <v>1.66</v>
+        <v>1.49</v>
       </c>
       <c r="BM159">
-        <v>2.63</v>
+        <v>3.3</v>
       </c>
       <c r="BN159">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="BO159">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="BP159">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="160" spans="1:68">
@@ -33989,7 +33998,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>7481512</v>
+        <v>7481510</v>
       </c>
       <c r="C160" t="s">
         <v>68</v>
@@ -34004,190 +34013,190 @@
         <v>15</v>
       </c>
       <c r="G160" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H160" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O160" t="s">
         <v>204</v>
       </c>
       <c r="P160" t="s">
-        <v>94</v>
+        <v>206</v>
       </c>
       <c r="Q160">
+        <v>2.75</v>
+      </c>
+      <c r="R160">
+        <v>2.25</v>
+      </c>
+      <c r="S160">
         <v>3.75</v>
       </c>
-      <c r="R160">
+      <c r="T160">
+        <v>1.36</v>
+      </c>
+      <c r="U160">
+        <v>3</v>
+      </c>
+      <c r="V160">
+        <v>2.63</v>
+      </c>
+      <c r="W160">
+        <v>1.44</v>
+      </c>
+      <c r="X160">
+        <v>7</v>
+      </c>
+      <c r="Y160">
+        <v>1.1</v>
+      </c>
+      <c r="Z160">
+        <v>1.73</v>
+      </c>
+      <c r="AA160">
+        <v>3.5</v>
+      </c>
+      <c r="AB160">
+        <v>3.9</v>
+      </c>
+      <c r="AC160">
+        <v>1.05</v>
+      </c>
+      <c r="AD160">
+        <v>9.5</v>
+      </c>
+      <c r="AE160">
+        <v>1.25</v>
+      </c>
+      <c r="AF160">
+        <v>3.8</v>
+      </c>
+      <c r="AG160">
+        <v>1.65</v>
+      </c>
+      <c r="AH160">
+        <v>2.05</v>
+      </c>
+      <c r="AI160">
+        <v>1.62</v>
+      </c>
+      <c r="AJ160">
+        <v>2.2</v>
+      </c>
+      <c r="AK160">
+        <v>1.3</v>
+      </c>
+      <c r="AL160">
+        <v>1.25</v>
+      </c>
+      <c r="AM160">
+        <v>1.7</v>
+      </c>
+      <c r="AN160">
+        <v>1.6</v>
+      </c>
+      <c r="AO160">
+        <v>1.14</v>
+      </c>
+      <c r="AP160">
         <v>1.83</v>
       </c>
-      <c r="S160">
-        <v>3.6</v>
-      </c>
-      <c r="T160">
-        <v>1.62</v>
-      </c>
-      <c r="U160">
-        <v>2.2</v>
-      </c>
-      <c r="V160">
-        <v>4</v>
-      </c>
-      <c r="W160">
-        <v>1.22</v>
-      </c>
-      <c r="X160">
-        <v>13</v>
-      </c>
-      <c r="Y160">
-        <v>1.04</v>
-      </c>
-      <c r="Z160">
-        <v>2.75</v>
-      </c>
-      <c r="AA160">
-        <v>2.75</v>
-      </c>
-      <c r="AB160">
-        <v>2.6</v>
-      </c>
-      <c r="AC160">
-        <v>1.12</v>
-      </c>
-      <c r="AD160">
-        <v>5.75</v>
-      </c>
-      <c r="AE160">
-        <v>1.55</v>
-      </c>
-      <c r="AF160">
-        <v>2.2</v>
-      </c>
-      <c r="AG160">
-        <v>2.85</v>
-      </c>
-      <c r="AH160">
-        <v>1.37</v>
-      </c>
-      <c r="AI160">
-        <v>2.2</v>
-      </c>
-      <c r="AJ160">
-        <v>1.62</v>
-      </c>
-      <c r="AK160">
-        <v>1.44</v>
-      </c>
-      <c r="AL160">
-        <v>1.36</v>
-      </c>
-      <c r="AM160">
-        <v>1.4</v>
-      </c>
-      <c r="AN160">
-        <v>0.17</v>
-      </c>
-      <c r="AO160">
-        <v>1.17</v>
-      </c>
-      <c r="AP160">
-        <v>0.5</v>
-      </c>
       <c r="AQ160">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR160">
-        <v>1.21</v>
+        <v>1.75</v>
       </c>
       <c r="AS160">
-        <v>1.04</v>
+        <v>1.46</v>
       </c>
       <c r="AT160">
-        <v>2.25</v>
+        <v>3.21</v>
       </c>
       <c r="AU160">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV160">
         <v>6</v>
       </c>
       <c r="AW160">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX160">
+        <v>2</v>
+      </c>
+      <c r="AY160">
+        <v>17</v>
+      </c>
+      <c r="AZ160">
         <v>8</v>
       </c>
-      <c r="AY160">
+      <c r="BA160">
+        <v>7</v>
+      </c>
+      <c r="BB160">
+        <v>4</v>
+      </c>
+      <c r="BC160">
         <v>11</v>
       </c>
-      <c r="AZ160">
-        <v>16</v>
-      </c>
-      <c r="BA160">
-        <v>4</v>
-      </c>
-      <c r="BB160">
-        <v>5</v>
-      </c>
-      <c r="BC160">
-        <v>9</v>
-      </c>
       <c r="BD160">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="BE160">
-        <v>7.5</v>
+        <v>6.25</v>
       </c>
       <c r="BF160">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="BG160">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="BH160">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="BI160">
-        <v>1.87</v>
+        <v>1.64</v>
       </c>
       <c r="BJ160">
-        <v>1.83</v>
+        <v>2.08</v>
       </c>
       <c r="BK160">
-        <v>2.43</v>
+        <v>2.04</v>
       </c>
       <c r="BL160">
-        <v>1.49</v>
+        <v>1.66</v>
       </c>
       <c r="BM160">
-        <v>3.3</v>
+        <v>2.63</v>
       </c>
       <c r="BN160">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="BO160">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="BP160">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="161" spans="1:68">
@@ -34443,7 +34452,7 @@
         <v>205</v>
       </c>
       <c r="P162" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q162">
         <v>2.95</v>
@@ -35028,7 +35037,7 @@
         <v>69</v>
       </c>
       <c r="E165" s="2">
-        <v>45619.41666666666</v>
+        <v>45618.875</v>
       </c>
       <c r="F165">
         <v>16</v>
@@ -35061,7 +35070,7 @@
         <v>206</v>
       </c>
       <c r="P165" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q165">
         <v>4.75</v>
@@ -35234,7 +35243,7 @@
         <v>69</v>
       </c>
       <c r="E166" s="2">
-        <v>45619.51041666666</v>
+        <v>45618.875</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -35431,7 +35440,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>7728369</v>
+        <v>7728367</v>
       </c>
       <c r="C167" t="s">
         <v>68</v>
@@ -35440,31 +35449,31 @@
         <v>69</v>
       </c>
       <c r="E167" s="2">
-        <v>45619.875</v>
+        <v>45619.60416666666</v>
       </c>
       <c r="F167">
         <v>16</v>
       </c>
       <c r="G167" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H167" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K167">
         <v>2</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M167">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N167">
         <v>4</v>
@@ -35473,163 +35482,163 @@
         <v>207</v>
       </c>
       <c r="P167" t="s">
-        <v>94</v>
+        <v>283</v>
       </c>
       <c r="Q167">
         <v>3</v>
       </c>
       <c r="R167">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="S167">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="T167">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="U167">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="V167">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="W167">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="X167">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y167">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="Z167">
-        <v>2.07</v>
+        <v>2.31</v>
       </c>
       <c r="AA167">
-        <v>2.85</v>
+        <v>3.2</v>
       </c>
       <c r="AB167">
-        <v>3.24</v>
+        <v>3</v>
       </c>
       <c r="AC167">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AD167">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AE167">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AF167">
-        <v>2.4</v>
+        <v>2.95</v>
       </c>
       <c r="AG167">
-        <v>2.45</v>
+        <v>2.23</v>
       </c>
       <c r="AH167">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="AI167">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AJ167">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AK167">
+        <v>1.35</v>
+      </c>
+      <c r="AL167">
         <v>1.28</v>
       </c>
-      <c r="AL167">
-        <v>1.3</v>
-      </c>
       <c r="AM167">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="AN167">
+        <v>2.14</v>
+      </c>
+      <c r="AO167">
         <v>1.75</v>
       </c>
-      <c r="AO167">
-        <v>1</v>
-      </c>
       <c r="AP167">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ167">
-        <v>0.89</v>
+        <v>1.67</v>
       </c>
       <c r="AR167">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="AS167">
-        <v>1.1</v>
+        <v>1.41</v>
       </c>
       <c r="AT167">
-        <v>2.54</v>
+        <v>3.06</v>
       </c>
       <c r="AU167">
+        <v>6</v>
+      </c>
+      <c r="AV167">
+        <v>4</v>
+      </c>
+      <c r="AW167">
+        <v>3</v>
+      </c>
+      <c r="AX167">
+        <v>0</v>
+      </c>
+      <c r="AY167">
+        <v>9</v>
+      </c>
+      <c r="AZ167">
+        <v>4</v>
+      </c>
+      <c r="BA167">
         <v>10</v>
       </c>
-      <c r="AV167">
-        <v>2</v>
-      </c>
-      <c r="AW167">
-        <v>5</v>
-      </c>
-      <c r="AX167">
-        <v>2</v>
-      </c>
-      <c r="AY167">
-        <v>22</v>
-      </c>
-      <c r="AZ167">
-        <v>5</v>
-      </c>
-      <c r="BA167">
-        <v>6</v>
-      </c>
       <c r="BB167">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC167">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BD167">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="BE167">
-        <v>6.25</v>
+        <v>6.4</v>
       </c>
       <c r="BF167">
-        <v>2.33</v>
+        <v>2.18</v>
       </c>
       <c r="BG167">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="BH167">
-        <v>2.98</v>
+        <v>3.25</v>
       </c>
       <c r="BI167">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="BJ167">
-        <v>2.19</v>
+        <v>2.36</v>
       </c>
       <c r="BK167">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="BL167">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="BM167">
-        <v>2.6</v>
+        <v>2.39</v>
       </c>
       <c r="BN167">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="BO167">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="BP167">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="168" spans="1:68">
@@ -35637,7 +35646,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>7728374</v>
+        <v>7728369</v>
       </c>
       <c r="C168" t="s">
         <v>68</v>
@@ -35646,196 +35655,814 @@
         <v>69</v>
       </c>
       <c r="E168" s="2">
-        <v>45620.60416666666</v>
+        <v>45619.875</v>
       </c>
       <c r="F168">
         <v>16</v>
       </c>
       <c r="G168" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H168" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J168">
         <v>0</v>
       </c>
       <c r="K168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L168">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N168">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O168" t="s">
         <v>208</v>
       </c>
       <c r="P168" t="s">
-        <v>282</v>
+        <v>94</v>
       </c>
       <c r="Q168">
+        <v>3</v>
+      </c>
+      <c r="R168">
+        <v>1.91</v>
+      </c>
+      <c r="S168">
+        <v>4.5</v>
+      </c>
+      <c r="T168">
+        <v>1.57</v>
+      </c>
+      <c r="U168">
+        <v>2.25</v>
+      </c>
+      <c r="V168">
+        <v>3.75</v>
+      </c>
+      <c r="W168">
+        <v>1.25</v>
+      </c>
+      <c r="X168">
+        <v>13</v>
+      </c>
+      <c r="Y168">
+        <v>1.04</v>
+      </c>
+      <c r="Z168">
+        <v>2.07</v>
+      </c>
+      <c r="AA168">
+        <v>2.85</v>
+      </c>
+      <c r="AB168">
+        <v>3.24</v>
+      </c>
+      <c r="AC168">
+        <v>1.11</v>
+      </c>
+      <c r="AD168">
+        <v>6.5</v>
+      </c>
+      <c r="AE168">
+        <v>1.5</v>
+      </c>
+      <c r="AF168">
+        <v>2.4</v>
+      </c>
+      <c r="AG168">
+        <v>2.45</v>
+      </c>
+      <c r="AH168">
+        <v>1.49</v>
+      </c>
+      <c r="AI168">
+        <v>2.2</v>
+      </c>
+      <c r="AJ168">
+        <v>1.62</v>
+      </c>
+      <c r="AK168">
+        <v>1.28</v>
+      </c>
+      <c r="AL168">
+        <v>1.3</v>
+      </c>
+      <c r="AM168">
+        <v>1.63</v>
+      </c>
+      <c r="AN168">
+        <v>1.75</v>
+      </c>
+      <c r="AO168">
+        <v>1</v>
+      </c>
+      <c r="AP168">
+        <v>1.89</v>
+      </c>
+      <c r="AQ168">
+        <v>0.89</v>
+      </c>
+      <c r="AR168">
+        <v>1.44</v>
+      </c>
+      <c r="AS168">
+        <v>1.1</v>
+      </c>
+      <c r="AT168">
+        <v>2.54</v>
+      </c>
+      <c r="AU168">
+        <v>10</v>
+      </c>
+      <c r="AV168">
+        <v>2</v>
+      </c>
+      <c r="AW168">
+        <v>5</v>
+      </c>
+      <c r="AX168">
+        <v>2</v>
+      </c>
+      <c r="AY168">
+        <v>22</v>
+      </c>
+      <c r="AZ168">
+        <v>5</v>
+      </c>
+      <c r="BA168">
+        <v>6</v>
+      </c>
+      <c r="BB168">
+        <v>0</v>
+      </c>
+      <c r="BC168">
+        <v>6</v>
+      </c>
+      <c r="BD168">
+        <v>1.68</v>
+      </c>
+      <c r="BE168">
+        <v>6.25</v>
+      </c>
+      <c r="BF168">
+        <v>2.33</v>
+      </c>
+      <c r="BG168">
+        <v>1.34</v>
+      </c>
+      <c r="BH168">
+        <v>2.98</v>
+      </c>
+      <c r="BI168">
+        <v>1.6</v>
+      </c>
+      <c r="BJ168">
+        <v>2.19</v>
+      </c>
+      <c r="BK168">
+        <v>2</v>
+      </c>
+      <c r="BL168">
+        <v>1.72</v>
+      </c>
+      <c r="BM168">
+        <v>2.6</v>
+      </c>
+      <c r="BN168">
+        <v>1.44</v>
+      </c>
+      <c r="BO168">
+        <v>3.5</v>
+      </c>
+      <c r="BP168">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7728374</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45619.875</v>
+      </c>
+      <c r="F169">
+        <v>16</v>
+      </c>
+      <c r="G169" t="s">
+        <v>81</v>
+      </c>
+      <c r="H169" t="s">
+        <v>86</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169">
+        <v>2</v>
+      </c>
+      <c r="O169" t="s">
+        <v>209</v>
+      </c>
+      <c r="P169" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q169">
         <v>3.25</v>
       </c>
-      <c r="R168">
+      <c r="R169">
         <v>2.1</v>
       </c>
-      <c r="S168">
+      <c r="S169">
         <v>3.25</v>
       </c>
-      <c r="T168">
+      <c r="T169">
         <v>1.44</v>
       </c>
-      <c r="U168">
+      <c r="U169">
         <v>2.63</v>
       </c>
-      <c r="V168">
+      <c r="V169">
         <v>3</v>
       </c>
-      <c r="W168">
+      <c r="W169">
         <v>1.36</v>
       </c>
-      <c r="X168">
+      <c r="X169">
         <v>9</v>
       </c>
-      <c r="Y168">
+      <c r="Y169">
         <v>1.07</v>
       </c>
-      <c r="Z168">
+      <c r="Z169">
         <v>2.52</v>
       </c>
-      <c r="AA168">
+      <c r="AA169">
         <v>3.06</v>
       </c>
-      <c r="AB168">
+      <c r="AB169">
         <v>2.52</v>
       </c>
-      <c r="AC168">
+      <c r="AC169">
         <v>1.07</v>
       </c>
-      <c r="AD168">
+      <c r="AD169">
         <v>8</v>
       </c>
-      <c r="AE168">
+      <c r="AE169">
         <v>1.33</v>
       </c>
-      <c r="AF168">
+      <c r="AF169">
         <v>3.1</v>
       </c>
-      <c r="AG168">
+      <c r="AG169">
         <v>2.04</v>
       </c>
-      <c r="AH168">
+      <c r="AH169">
         <v>1.82</v>
       </c>
-      <c r="AI168">
+      <c r="AI169">
         <v>1.8</v>
       </c>
-      <c r="AJ168">
+      <c r="AJ169">
         <v>1.91</v>
       </c>
-      <c r="AK168">
+      <c r="AK169">
         <v>1.47</v>
       </c>
-      <c r="AL168">
+      <c r="AL169">
         <v>1.28</v>
       </c>
-      <c r="AM168">
+      <c r="AM169">
         <v>1.47</v>
       </c>
-      <c r="AN168">
+      <c r="AN169">
         <v>1.71</v>
       </c>
-      <c r="AO168">
+      <c r="AO169">
         <v>1.86</v>
       </c>
-      <c r="AP168">
+      <c r="AP169">
         <v>1.63</v>
       </c>
-      <c r="AQ168">
+      <c r="AQ169">
         <v>1.75</v>
       </c>
-      <c r="AR168">
+      <c r="AR169">
         <v>1.15</v>
       </c>
-      <c r="AS168">
+      <c r="AS169">
         <v>1.31</v>
       </c>
-      <c r="AT168">
+      <c r="AT169">
         <v>2.46</v>
       </c>
-      <c r="AU168">
+      <c r="AU169">
         <v>4</v>
       </c>
-      <c r="AV168">
+      <c r="AV169">
         <v>10</v>
       </c>
-      <c r="AW168">
+      <c r="AW169">
         <v>6</v>
       </c>
-      <c r="AX168">
+      <c r="AX169">
         <v>8</v>
       </c>
-      <c r="AY168">
+      <c r="AY169">
         <v>11</v>
       </c>
-      <c r="AZ168">
+      <c r="AZ169">
         <v>23</v>
       </c>
-      <c r="BA168">
+      <c r="BA169">
         <v>4</v>
       </c>
-      <c r="BB168">
+      <c r="BB169">
         <v>8</v>
       </c>
-      <c r="BC168">
+      <c r="BC169">
         <v>12</v>
       </c>
-      <c r="BD168">
+      <c r="BD169">
         <v>1.86</v>
       </c>
-      <c r="BE168">
+      <c r="BE169">
         <v>6.4</v>
       </c>
-      <c r="BF168">
+      <c r="BF169">
         <v>2.02</v>
       </c>
-      <c r="BG168">
+      <c r="BG169">
         <v>1.29</v>
       </c>
-      <c r="BH168">
+      <c r="BH169">
         <v>3.25</v>
       </c>
-      <c r="BI168">
+      <c r="BI169">
         <v>1.52</v>
       </c>
-      <c r="BJ168">
+      <c r="BJ169">
         <v>2.36</v>
       </c>
-      <c r="BK168">
+      <c r="BK169">
         <v>1.87</v>
       </c>
-      <c r="BL168">
+      <c r="BL169">
         <v>1.83</v>
       </c>
-      <c r="BM168">
+      <c r="BM169">
         <v>2.39</v>
       </c>
-      <c r="BN168">
+      <c r="BN169">
         <v>1.51</v>
       </c>
-      <c r="BO168">
+      <c r="BO169">
         <v>3.2</v>
       </c>
-      <c r="BP168">
+      <c r="BP169">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7728365</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45620.41666666666</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170" t="s">
+        <v>85</v>
+      </c>
+      <c r="H170" t="s">
+        <v>84</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>2</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+      <c r="N170">
+        <v>3</v>
+      </c>
+      <c r="O170" t="s">
+        <v>210</v>
+      </c>
+      <c r="P170" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q170">
+        <v>2.88</v>
+      </c>
+      <c r="R170">
+        <v>2.05</v>
+      </c>
+      <c r="S170">
+        <v>4</v>
+      </c>
+      <c r="T170">
+        <v>1.5</v>
+      </c>
+      <c r="U170">
+        <v>2.5</v>
+      </c>
+      <c r="V170">
+        <v>3.4</v>
+      </c>
+      <c r="W170">
+        <v>1.3</v>
+      </c>
+      <c r="X170">
+        <v>10</v>
+      </c>
+      <c r="Y170">
+        <v>1.06</v>
+      </c>
+      <c r="Z170">
+        <v>2.04</v>
+      </c>
+      <c r="AA170">
+        <v>3.25</v>
+      </c>
+      <c r="AB170">
+        <v>3.55</v>
+      </c>
+      <c r="AC170">
+        <v>1.08</v>
+      </c>
+      <c r="AD170">
+        <v>7.5</v>
+      </c>
+      <c r="AE170">
+        <v>1.4</v>
+      </c>
+      <c r="AF170">
+        <v>2.8</v>
+      </c>
+      <c r="AG170">
+        <v>2.2</v>
+      </c>
+      <c r="AH170">
+        <v>1.62</v>
+      </c>
+      <c r="AI170">
+        <v>1.91</v>
+      </c>
+      <c r="AJ170">
+        <v>1.8</v>
+      </c>
+      <c r="AK170">
+        <v>1.28</v>
+      </c>
+      <c r="AL170">
+        <v>1.28</v>
+      </c>
+      <c r="AM170">
+        <v>1.72</v>
+      </c>
+      <c r="AN170">
+        <v>1.29</v>
+      </c>
+      <c r="AO170">
+        <v>0.29</v>
+      </c>
+      <c r="AP170">
+        <v>1.5</v>
+      </c>
+      <c r="AQ170">
+        <v>0.25</v>
+      </c>
+      <c r="AR170">
+        <v>1.71</v>
+      </c>
+      <c r="AS170">
+        <v>1.1</v>
+      </c>
+      <c r="AT170">
+        <v>2.81</v>
+      </c>
+      <c r="AU170">
+        <v>4</v>
+      </c>
+      <c r="AV170">
+        <v>3</v>
+      </c>
+      <c r="AW170">
+        <v>6</v>
+      </c>
+      <c r="AX170">
+        <v>4</v>
+      </c>
+      <c r="AY170">
+        <v>15</v>
+      </c>
+      <c r="AZ170">
+        <v>10</v>
+      </c>
+      <c r="BA170">
+        <v>5</v>
+      </c>
+      <c r="BB170">
+        <v>4</v>
+      </c>
+      <c r="BC170">
+        <v>9</v>
+      </c>
+      <c r="BD170">
+        <v>1.58</v>
+      </c>
+      <c r="BE170">
+        <v>6.4</v>
+      </c>
+      <c r="BF170">
+        <v>2.48</v>
+      </c>
+      <c r="BG170">
+        <v>1.38</v>
+      </c>
+      <c r="BH170">
+        <v>2.7</v>
+      </c>
+      <c r="BI170">
+        <v>1.64</v>
+      </c>
+      <c r="BJ170">
+        <v>2.07</v>
+      </c>
+      <c r="BK170">
+        <v>2</v>
+      </c>
+      <c r="BL170">
+        <v>1.8</v>
+      </c>
+      <c r="BM170">
+        <v>2.63</v>
+      </c>
+      <c r="BN170">
+        <v>1.4</v>
+      </c>
+      <c r="BO170">
+        <v>3.45</v>
+      </c>
+      <c r="BP170">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7728375</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45620.51041666666</v>
+      </c>
+      <c r="F171">
+        <v>16</v>
+      </c>
+      <c r="G171" t="s">
+        <v>71</v>
+      </c>
+      <c r="H171" t="s">
+        <v>80</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>1</v>
+      </c>
+      <c r="O171" t="s">
+        <v>133</v>
+      </c>
+      <c r="P171" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q171">
+        <v>2.88</v>
+      </c>
+      <c r="R171">
+        <v>1.91</v>
+      </c>
+      <c r="S171">
+        <v>4.5</v>
+      </c>
+      <c r="T171">
+        <v>1.57</v>
+      </c>
+      <c r="U171">
+        <v>2.25</v>
+      </c>
+      <c r="V171">
+        <v>3.75</v>
+      </c>
+      <c r="W171">
+        <v>1.25</v>
+      </c>
+      <c r="X171">
+        <v>13</v>
+      </c>
+      <c r="Y171">
+        <v>1.04</v>
+      </c>
+      <c r="Z171">
+        <v>2.1</v>
+      </c>
+      <c r="AA171">
+        <v>2.86</v>
+      </c>
+      <c r="AB171">
+        <v>3.38</v>
+      </c>
+      <c r="AC171">
+        <v>1.09</v>
+      </c>
+      <c r="AD171">
+        <v>7</v>
+      </c>
+      <c r="AE171">
+        <v>1.55</v>
+      </c>
+      <c r="AF171">
+        <v>2.3</v>
+      </c>
+      <c r="AG171">
+        <v>2.4</v>
+      </c>
+      <c r="AH171">
+        <v>1.49</v>
+      </c>
+      <c r="AI171">
+        <v>2.2</v>
+      </c>
+      <c r="AJ171">
+        <v>1.62</v>
+      </c>
+      <c r="AK171">
+        <v>1.25</v>
+      </c>
+      <c r="AL171">
+        <v>1.3</v>
+      </c>
+      <c r="AM171">
+        <v>1.7</v>
+      </c>
+      <c r="AN171">
+        <v>2.13</v>
+      </c>
+      <c r="AO171">
+        <v>0.71</v>
+      </c>
+      <c r="AP171">
+        <v>2.22</v>
+      </c>
+      <c r="AQ171">
+        <v>0.63</v>
+      </c>
+      <c r="AR171">
+        <v>1.18</v>
+      </c>
+      <c r="AS171">
+        <v>1.15</v>
+      </c>
+      <c r="AT171">
+        <v>2.33</v>
+      </c>
+      <c r="AU171">
+        <v>4</v>
+      </c>
+      <c r="AV171">
+        <v>3</v>
+      </c>
+      <c r="AW171">
+        <v>6</v>
+      </c>
+      <c r="AX171">
+        <v>7</v>
+      </c>
+      <c r="AY171">
+        <v>11</v>
+      </c>
+      <c r="AZ171">
+        <v>13</v>
+      </c>
+      <c r="BA171">
+        <v>4</v>
+      </c>
+      <c r="BB171">
+        <v>5</v>
+      </c>
+      <c r="BC171">
+        <v>9</v>
+      </c>
+      <c r="BD171">
+        <v>1.65</v>
+      </c>
+      <c r="BE171">
+        <v>6.25</v>
+      </c>
+      <c r="BF171">
+        <v>2.33</v>
+      </c>
+      <c r="BG171">
+        <v>1.37</v>
+      </c>
+      <c r="BH171">
+        <v>2.83</v>
+      </c>
+      <c r="BI171">
+        <v>1.65</v>
+      </c>
+      <c r="BJ171">
+        <v>2.1</v>
+      </c>
+      <c r="BK171">
+        <v>2.08</v>
+      </c>
+      <c r="BL171">
+        <v>1.67</v>
+      </c>
+      <c r="BM171">
+        <v>2.73</v>
+      </c>
+      <c r="BN171">
+        <v>1.4</v>
+      </c>
+      <c r="BO171">
+        <v>3.7</v>
+      </c>
+      <c r="BP171">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="290">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -637,6 +637,9 @@
     <t>['35']</t>
   </si>
   <si>
+    <t>['67']</t>
+  </si>
+  <si>
     <t>['30', '58']</t>
   </si>
   <si>
@@ -647,6 +650,12 @@
   </si>
   <si>
     <t>['34', '81']</t>
+  </si>
+  <si>
+    <t>['57', '61', '76', '82']</t>
+  </si>
+  <si>
+    <t>['14', '33', '81', '90+5']</t>
   </si>
   <si>
     <t>['42', '45+3']</t>
@@ -872,6 +881,9 @@
   </si>
   <si>
     <t>['76']</t>
+  </si>
+  <si>
+    <t>['16', '41']</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP171"/>
+  <dimension ref="A1:BP176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1492,7 +1504,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1779,7 +1791,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ3">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1904,7 +1916,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -2191,7 +2203,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2522,7 +2534,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2600,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ7">
         <v>0.89</v>
@@ -2728,7 +2740,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2934,7 +2946,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -3218,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ10">
         <v>0.75</v>
@@ -3346,7 +3358,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3552,7 +3564,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3758,7 +3770,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3839,7 +3851,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ13">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR13">
         <v>1.32</v>
@@ -3964,7 +3976,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4660,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ17">
         <v>1.13</v>
@@ -4994,7 +5006,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5612,7 +5624,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5818,7 +5830,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6024,7 +6036,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6230,7 +6242,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6436,7 +6448,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6720,10 +6732,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -6848,7 +6860,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7054,7 +7066,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7132,7 +7144,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ29">
         <v>1.75</v>
@@ -7338,10 +7350,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ30">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR30">
         <v>1.73</v>
@@ -7466,7 +7478,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q31">
         <v>2.75</v>
@@ -7878,7 +7890,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8165,7 +8177,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ34">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR34">
         <v>1.17</v>
@@ -8290,7 +8302,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8496,7 +8508,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8908,7 +8920,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9195,7 +9207,7 @@
         <v>2</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR39">
         <v>1.32</v>
@@ -10144,7 +10156,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10431,7 +10443,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR45">
         <v>0.96</v>
@@ -10762,7 +10774,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10840,7 +10852,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ47">
         <v>0.63</v>
@@ -11461,7 +11473,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ50">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR50">
         <v>1.56</v>
@@ -12079,7 +12091,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ53">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR53">
         <v>1.24</v>
@@ -12282,7 +12294,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ54">
         <v>1.67</v>
@@ -12410,7 +12422,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12616,7 +12628,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12694,7 +12706,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
         <v>1.75</v>
@@ -12822,7 +12834,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12903,7 +12915,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR57">
         <v>1.77</v>
@@ -13028,7 +13040,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13234,7 +13246,7 @@
         <v>94</v>
       </c>
       <c r="P59" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13312,7 +13324,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ59">
         <v>0.88</v>
@@ -13933,7 +13945,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ62">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR62">
         <v>1.36</v>
@@ -14058,7 +14070,7 @@
         <v>94</v>
       </c>
       <c r="P63" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14264,7 +14276,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14676,7 +14688,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14754,10 +14766,10 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR66">
         <v>1.93</v>
@@ -14963,7 +14975,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ67">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR67">
         <v>1.16</v>
@@ -15088,7 +15100,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15294,7 +15306,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15912,7 +15924,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16118,7 +16130,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16196,7 +16208,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ73">
         <v>1.56</v>
@@ -16324,7 +16336,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16402,7 +16414,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ74">
         <v>2</v>
@@ -16530,7 +16542,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -16817,7 +16829,7 @@
         <v>2</v>
       </c>
       <c r="AQ76">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR76">
         <v>1.57</v>
@@ -17023,7 +17035,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ77">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR77">
         <v>1.33</v>
@@ -17148,7 +17160,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17354,7 +17366,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q79">
         <v>3.85</v>
@@ -17766,7 +17778,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q81">
         <v>2.65</v>
@@ -17847,7 +17859,7 @@
         <v>2</v>
       </c>
       <c r="AQ81">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR81">
         <v>1.41</v>
@@ -17972,7 +17984,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q82">
         <v>3.55</v>
@@ -18256,7 +18268,7 @@
         <v>2.33</v>
       </c>
       <c r="AP83">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ83">
         <v>0.88</v>
@@ -18384,7 +18396,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18874,10 +18886,10 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ86">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR86">
         <v>1.47</v>
@@ -19002,7 +19014,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19286,7 +19298,7 @@
         <v>1.25</v>
       </c>
       <c r="AP88">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ88">
         <v>0.89</v>
@@ -19414,7 +19426,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19495,7 +19507,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ89">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR89">
         <v>1.46</v>
@@ -19620,7 +19632,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19907,7 +19919,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ91">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR91">
         <v>1.18</v>
@@ -20238,7 +20250,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20319,7 +20331,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ93">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR93">
         <v>1.42</v>
@@ -20444,7 +20456,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -20650,7 +20662,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -21143,7 +21155,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ97">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR97">
         <v>1.7</v>
@@ -21346,7 +21358,7 @@
         <v>0.67</v>
       </c>
       <c r="AP98">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ98">
         <v>1.14</v>
@@ -21680,7 +21692,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -21886,7 +21898,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -22170,7 +22182,7 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ102">
         <v>0.63</v>
@@ -22997,7 +23009,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ106">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR106">
         <v>1.12</v>
@@ -23122,7 +23134,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23615,7 +23627,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ109">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR109">
         <v>1.4</v>
@@ -23740,7 +23752,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -24152,7 +24164,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q112">
         <v>2.45</v>
@@ -24358,7 +24370,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -24564,7 +24576,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q114">
         <v>3.45</v>
@@ -25263,7 +25275,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ117">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR117">
         <v>1.47</v>
@@ -25388,7 +25400,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q118">
         <v>2.8</v>
@@ -25466,7 +25478,7 @@
         <v>1</v>
       </c>
       <c r="AP118">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ118">
         <v>1</v>
@@ -25672,7 +25684,7 @@
         <v>1.4</v>
       </c>
       <c r="AP119">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ119">
         <v>1</v>
@@ -25800,7 +25812,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q120">
         <v>2.55</v>
@@ -26087,7 +26099,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ121">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR121">
         <v>1.32</v>
@@ -26212,7 +26224,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26290,10 +26302,10 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ122">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR122">
         <v>1.4</v>
@@ -26418,7 +26430,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q123">
         <v>2.4</v>
@@ -26830,7 +26842,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q125">
         <v>2.63</v>
@@ -27323,7 +27335,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ127">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR127">
         <v>1.1</v>
@@ -27448,7 +27460,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27526,7 +27538,7 @@
         <v>3</v>
       </c>
       <c r="AP128">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ128">
         <v>2.75</v>
@@ -27860,7 +27872,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q130">
         <v>2.75</v>
@@ -28066,7 +28078,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q131">
         <v>3.25</v>
@@ -28147,7 +28159,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ131">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR131">
         <v>1.64</v>
@@ -28272,7 +28284,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28478,7 +28490,7 @@
         <v>106</v>
       </c>
       <c r="P133" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q133">
         <v>3.1</v>
@@ -28684,7 +28696,7 @@
         <v>94</v>
       </c>
       <c r="P134" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q134">
         <v>3.1</v>
@@ -29096,7 +29108,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q136">
         <v>3.9</v>
@@ -29508,7 +29520,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -30126,7 +30138,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q141">
         <v>2.62</v>
@@ -30332,7 +30344,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q142">
         <v>3.6</v>
@@ -30538,7 +30550,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q143">
         <v>3.75</v>
@@ -30744,7 +30756,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31156,7 +31168,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q146">
         <v>2.75</v>
@@ -31362,7 +31374,7 @@
         <v>98</v>
       </c>
       <c r="P147" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q147">
         <v>3.65</v>
@@ -31568,7 +31580,7 @@
         <v>94</v>
       </c>
       <c r="P148" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31646,10 +31658,10 @@
         <v>1</v>
       </c>
       <c r="AP148">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ148">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR148">
         <v>1.4</v>
@@ -31774,7 +31786,7 @@
         <v>194</v>
       </c>
       <c r="P149" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q149">
         <v>3.25</v>
@@ -32058,10 +32070,10 @@
         <v>0.83</v>
       </c>
       <c r="AP150">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ150">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR150">
         <v>1.6</v>
@@ -32267,7 +32279,7 @@
         <v>2</v>
       </c>
       <c r="AQ151">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR151">
         <v>1.43</v>
@@ -32598,7 +32610,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q153">
         <v>2.3</v>
@@ -33010,7 +33022,7 @@
         <v>199</v>
       </c>
       <c r="P155" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33088,7 +33100,7 @@
         <v>1.17</v>
       </c>
       <c r="AP155">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ155">
         <v>1.14</v>
@@ -33216,7 +33228,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -33709,7 +33721,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ158">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR158">
         <v>1.49</v>
@@ -34118,7 +34130,7 @@
         <v>1.14</v>
       </c>
       <c r="AP160">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ160">
         <v>1</v>
@@ -34327,7 +34339,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ161">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR161">
         <v>1.62</v>
@@ -34452,7 +34464,7 @@
         <v>205</v>
       </c>
       <c r="P162" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q162">
         <v>2.95</v>
@@ -35070,7 +35082,7 @@
         <v>206</v>
       </c>
       <c r="P165" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q165">
         <v>4.75</v>
@@ -35440,7 +35452,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>7728367</v>
+        <v>7728366</v>
       </c>
       <c r="C167" t="s">
         <v>68</v>
@@ -35455,154 +35467,154 @@
         <v>16</v>
       </c>
       <c r="G167" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H167" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N167">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O167" t="s">
         <v>207</v>
       </c>
       <c r="P167" t="s">
-        <v>283</v>
+        <v>94</v>
       </c>
       <c r="Q167">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="R167">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S167">
+        <v>4</v>
+      </c>
+      <c r="T167">
+        <v>1.53</v>
+      </c>
+      <c r="U167">
+        <v>2.38</v>
+      </c>
+      <c r="V167">
         <v>3.75</v>
       </c>
-      <c r="T167">
-        <v>1.44</v>
-      </c>
-      <c r="U167">
-        <v>2.63</v>
-      </c>
-      <c r="V167">
-        <v>3.4</v>
-      </c>
       <c r="W167">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="X167">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y167">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z167">
         <v>2.31</v>
       </c>
       <c r="AA167">
-        <v>3.2</v>
+        <v>2.93</v>
       </c>
       <c r="AB167">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AC167">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="AD167">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE167">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="AF167">
-        <v>2.95</v>
+        <v>2.6</v>
       </c>
       <c r="AG167">
-        <v>2.23</v>
+        <v>2.5</v>
       </c>
       <c r="AH167">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="AI167">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AJ167">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AK167">
         <v>1.35</v>
       </c>
       <c r="AL167">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AM167">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AN167">
-        <v>2.14</v>
+        <v>1.14</v>
       </c>
       <c r="AO167">
-        <v>1.75</v>
+        <v>0.71</v>
       </c>
       <c r="AP167">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="AQ167">
-        <v>1.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR167">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="AS167">
-        <v>1.41</v>
+        <v>1.14</v>
       </c>
       <c r="AT167">
-        <v>3.06</v>
+        <v>2.56</v>
       </c>
       <c r="AU167">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AV167">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW167">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AX167">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AY167">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AZ167">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BA167">
+        <v>5</v>
+      </c>
+      <c r="BB167">
+        <v>5</v>
+      </c>
+      <c r="BC167">
         <v>10</v>
       </c>
-      <c r="BB167">
-        <v>2</v>
-      </c>
-      <c r="BC167">
-        <v>12</v>
-      </c>
       <c r="BD167">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="BE167">
         <v>6.4</v>
@@ -35638,7 +35650,7 @@
         <v>3.2</v>
       </c>
       <c r="BP167">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="168" spans="1:68">
@@ -35646,7 +35658,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>7728369</v>
+        <v>7728367</v>
       </c>
       <c r="C168" t="s">
         <v>68</v>
@@ -35655,31 +35667,31 @@
         <v>69</v>
       </c>
       <c r="E168" s="2">
-        <v>45619.875</v>
+        <v>45619.60416666666</v>
       </c>
       <c r="F168">
         <v>16</v>
       </c>
       <c r="G168" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H168" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K168">
         <v>2</v>
       </c>
       <c r="L168">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N168">
         <v>4</v>
@@ -35688,163 +35700,163 @@
         <v>208</v>
       </c>
       <c r="P168" t="s">
-        <v>94</v>
+        <v>286</v>
       </c>
       <c r="Q168">
         <v>3</v>
       </c>
       <c r="R168">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="S168">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="T168">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="U168">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="V168">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="W168">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="X168">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y168">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="Z168">
-        <v>2.07</v>
+        <v>2.31</v>
       </c>
       <c r="AA168">
-        <v>2.85</v>
+        <v>3.2</v>
       </c>
       <c r="AB168">
-        <v>3.24</v>
+        <v>3</v>
       </c>
       <c r="AC168">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AD168">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AE168">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AF168">
-        <v>2.4</v>
+        <v>2.95</v>
       </c>
       <c r="AG168">
-        <v>2.45</v>
+        <v>2.23</v>
       </c>
       <c r="AH168">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="AI168">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AJ168">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AK168">
+        <v>1.35</v>
+      </c>
+      <c r="AL168">
         <v>1.28</v>
       </c>
-      <c r="AL168">
-        <v>1.3</v>
-      </c>
       <c r="AM168">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="AN168">
+        <v>2.14</v>
+      </c>
+      <c r="AO168">
         <v>1.75</v>
       </c>
-      <c r="AO168">
-        <v>1</v>
-      </c>
       <c r="AP168">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ168">
-        <v>0.89</v>
+        <v>1.67</v>
       </c>
       <c r="AR168">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="AS168">
-        <v>1.1</v>
+        <v>1.41</v>
       </c>
       <c r="AT168">
-        <v>2.54</v>
+        <v>3.06</v>
       </c>
       <c r="AU168">
+        <v>6</v>
+      </c>
+      <c r="AV168">
+        <v>4</v>
+      </c>
+      <c r="AW168">
+        <v>3</v>
+      </c>
+      <c r="AX168">
+        <v>0</v>
+      </c>
+      <c r="AY168">
+        <v>9</v>
+      </c>
+      <c r="AZ168">
+        <v>4</v>
+      </c>
+      <c r="BA168">
         <v>10</v>
       </c>
-      <c r="AV168">
-        <v>2</v>
-      </c>
-      <c r="AW168">
-        <v>5</v>
-      </c>
-      <c r="AX168">
-        <v>2</v>
-      </c>
-      <c r="AY168">
-        <v>22</v>
-      </c>
-      <c r="AZ168">
-        <v>5</v>
-      </c>
-      <c r="BA168">
-        <v>6</v>
-      </c>
       <c r="BB168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC168">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BD168">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="BE168">
-        <v>6.25</v>
+        <v>6.4</v>
       </c>
       <c r="BF168">
-        <v>2.33</v>
+        <v>2.18</v>
       </c>
       <c r="BG168">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="BH168">
-        <v>2.98</v>
+        <v>3.25</v>
       </c>
       <c r="BI168">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="BJ168">
-        <v>2.19</v>
+        <v>2.36</v>
       </c>
       <c r="BK168">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="BL168">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="BM168">
-        <v>2.6</v>
+        <v>2.39</v>
       </c>
       <c r="BN168">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="BO168">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="BP168">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="169" spans="1:68">
@@ -35852,7 +35864,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>7728374</v>
+        <v>7728369</v>
       </c>
       <c r="C169" t="s">
         <v>68</v>
@@ -35867,190 +35879,190 @@
         <v>16</v>
       </c>
       <c r="G169" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H169" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J169">
         <v>0</v>
       </c>
       <c r="K169">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L169">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N169">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O169" t="s">
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>284</v>
+        <v>94</v>
       </c>
       <c r="Q169">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R169">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="S169">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="T169">
+        <v>1.57</v>
+      </c>
+      <c r="U169">
+        <v>2.25</v>
+      </c>
+      <c r="V169">
+        <v>3.75</v>
+      </c>
+      <c r="W169">
+        <v>1.25</v>
+      </c>
+      <c r="X169">
+        <v>13</v>
+      </c>
+      <c r="Y169">
+        <v>1.04</v>
+      </c>
+      <c r="Z169">
+        <v>2.07</v>
+      </c>
+      <c r="AA169">
+        <v>2.85</v>
+      </c>
+      <c r="AB169">
+        <v>3.24</v>
+      </c>
+      <c r="AC169">
+        <v>1.11</v>
+      </c>
+      <c r="AD169">
+        <v>6.5</v>
+      </c>
+      <c r="AE169">
+        <v>1.5</v>
+      </c>
+      <c r="AF169">
+        <v>2.4</v>
+      </c>
+      <c r="AG169">
+        <v>2.45</v>
+      </c>
+      <c r="AH169">
+        <v>1.49</v>
+      </c>
+      <c r="AI169">
+        <v>2.2</v>
+      </c>
+      <c r="AJ169">
+        <v>1.62</v>
+      </c>
+      <c r="AK169">
+        <v>1.28</v>
+      </c>
+      <c r="AL169">
+        <v>1.3</v>
+      </c>
+      <c r="AM169">
+        <v>1.63</v>
+      </c>
+      <c r="AN169">
+        <v>1.75</v>
+      </c>
+      <c r="AO169">
+        <v>1</v>
+      </c>
+      <c r="AP169">
+        <v>1.89</v>
+      </c>
+      <c r="AQ169">
+        <v>0.89</v>
+      </c>
+      <c r="AR169">
         <v>1.44</v>
       </c>
-      <c r="U169">
-        <v>2.63</v>
-      </c>
-      <c r="V169">
-        <v>3</v>
-      </c>
-      <c r="W169">
-        <v>1.36</v>
-      </c>
-      <c r="X169">
-        <v>9</v>
-      </c>
-      <c r="Y169">
-        <v>1.07</v>
-      </c>
-      <c r="Z169">
-        <v>2.52</v>
-      </c>
-      <c r="AA169">
-        <v>3.06</v>
-      </c>
-      <c r="AB169">
-        <v>2.52</v>
-      </c>
-      <c r="AC169">
-        <v>1.07</v>
-      </c>
-      <c r="AD169">
-        <v>8</v>
-      </c>
-      <c r="AE169">
-        <v>1.33</v>
-      </c>
-      <c r="AF169">
-        <v>3.1</v>
-      </c>
-      <c r="AG169">
-        <v>2.04</v>
-      </c>
-      <c r="AH169">
-        <v>1.82</v>
-      </c>
-      <c r="AI169">
-        <v>1.8</v>
-      </c>
-      <c r="AJ169">
-        <v>1.91</v>
-      </c>
-      <c r="AK169">
-        <v>1.47</v>
-      </c>
-      <c r="AL169">
-        <v>1.28</v>
-      </c>
-      <c r="AM169">
-        <v>1.47</v>
-      </c>
-      <c r="AN169">
-        <v>1.71</v>
-      </c>
-      <c r="AO169">
-        <v>1.86</v>
-      </c>
-      <c r="AP169">
-        <v>1.63</v>
-      </c>
-      <c r="AQ169">
-        <v>1.75</v>
-      </c>
-      <c r="AR169">
-        <v>1.15</v>
-      </c>
       <c r="AS169">
-        <v>1.31</v>
+        <v>1.1</v>
       </c>
       <c r="AT169">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="AU169">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AV169">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AW169">
+        <v>5</v>
+      </c>
+      <c r="AX169">
+        <v>2</v>
+      </c>
+      <c r="AY169">
+        <v>22</v>
+      </c>
+      <c r="AZ169">
+        <v>5</v>
+      </c>
+      <c r="BA169">
         <v>6</v>
       </c>
-      <c r="AX169">
-        <v>8</v>
-      </c>
-      <c r="AY169">
-        <v>11</v>
-      </c>
-      <c r="AZ169">
-        <v>23</v>
-      </c>
-      <c r="BA169">
-        <v>4</v>
-      </c>
       <c r="BB169">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BC169">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BD169">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="BE169">
-        <v>6.4</v>
+        <v>6.25</v>
       </c>
       <c r="BF169">
-        <v>2.02</v>
+        <v>2.33</v>
       </c>
       <c r="BG169">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="BH169">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="BI169">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="BJ169">
-        <v>2.36</v>
+        <v>2.19</v>
       </c>
       <c r="BK169">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="BL169">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="BM169">
-        <v>2.39</v>
+        <v>2.6</v>
       </c>
       <c r="BN169">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="BO169">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="BP169">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="170" spans="1:68">
@@ -36058,7 +36070,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>7728365</v>
+        <v>7728374</v>
       </c>
       <c r="C170" t="s">
         <v>68</v>
@@ -36067,196 +36079,196 @@
         <v>69</v>
       </c>
       <c r="E170" s="2">
-        <v>45620.41666666666</v>
+        <v>45619.875</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G170" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H170" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170">
         <v>0</v>
       </c>
       <c r="K170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M170">
         <v>1</v>
       </c>
       <c r="N170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O170" t="s">
         <v>210</v>
       </c>
       <c r="P170" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q170">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="R170">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S170">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="T170">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U170">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V170">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="W170">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="X170">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y170">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="Z170">
+        <v>2.52</v>
+      </c>
+      <c r="AA170">
+        <v>3.06</v>
+      </c>
+      <c r="AB170">
+        <v>2.52</v>
+      </c>
+      <c r="AC170">
+        <v>1.07</v>
+      </c>
+      <c r="AD170">
+        <v>8</v>
+      </c>
+      <c r="AE170">
+        <v>1.33</v>
+      </c>
+      <c r="AF170">
+        <v>3.1</v>
+      </c>
+      <c r="AG170">
         <v>2.04</v>
       </c>
-      <c r="AA170">
-        <v>3.25</v>
-      </c>
-      <c r="AB170">
-        <v>3.55</v>
-      </c>
-      <c r="AC170">
-        <v>1.08</v>
-      </c>
-      <c r="AD170">
-        <v>7.5</v>
-      </c>
-      <c r="AE170">
-        <v>1.4</v>
-      </c>
-      <c r="AF170">
-        <v>2.8</v>
-      </c>
-      <c r="AG170">
-        <v>2.2</v>
-      </c>
       <c r="AH170">
-        <v>1.62</v>
+        <v>1.82</v>
       </c>
       <c r="AI170">
+        <v>1.8</v>
+      </c>
+      <c r="AJ170">
         <v>1.91</v>
       </c>
-      <c r="AJ170">
-        <v>1.8</v>
-      </c>
       <c r="AK170">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
       <c r="AL170">
         <v>1.28</v>
       </c>
       <c r="AM170">
-        <v>1.72</v>
+        <v>1.47</v>
       </c>
       <c r="AN170">
-        <v>1.29</v>
+        <v>1.71</v>
       </c>
       <c r="AO170">
-        <v>0.29</v>
+        <v>1.86</v>
       </c>
       <c r="AP170">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AQ170">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="AR170">
-        <v>1.71</v>
+        <v>1.15</v>
       </c>
       <c r="AS170">
-        <v>1.1</v>
+        <v>1.31</v>
       </c>
       <c r="AT170">
-        <v>2.81</v>
+        <v>2.46</v>
       </c>
       <c r="AU170">
         <v>4</v>
       </c>
       <c r="AV170">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AW170">
         <v>6</v>
       </c>
       <c r="AX170">
+        <v>8</v>
+      </c>
+      <c r="AY170">
+        <v>11</v>
+      </c>
+      <c r="AZ170">
+        <v>23</v>
+      </c>
+      <c r="BA170">
         <v>4</v>
       </c>
-      <c r="AY170">
-        <v>15</v>
-      </c>
-      <c r="AZ170">
-        <v>10</v>
-      </c>
-      <c r="BA170">
-        <v>5</v>
-      </c>
       <c r="BB170">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BC170">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD170">
-        <v>1.58</v>
+        <v>1.86</v>
       </c>
       <c r="BE170">
         <v>6.4</v>
       </c>
       <c r="BF170">
-        <v>2.48</v>
+        <v>2.02</v>
       </c>
       <c r="BG170">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="BH170">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="BI170">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="BJ170">
-        <v>2.07</v>
+        <v>2.36</v>
       </c>
       <c r="BK170">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="BL170">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="BM170">
-        <v>2.63</v>
+        <v>2.39</v>
       </c>
       <c r="BN170">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="BO170">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="BP170">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="171" spans="1:68">
@@ -36264,7 +36276,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>7728375</v>
+        <v>7728365</v>
       </c>
       <c r="C171" t="s">
         <v>68</v>
@@ -36273,130 +36285,130 @@
         <v>69</v>
       </c>
       <c r="E171" s="2">
-        <v>45620.51041666666</v>
+        <v>45620.41666666666</v>
       </c>
       <c r="F171">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G171" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="H171" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171">
         <v>0</v>
       </c>
       <c r="K171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N171">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O171" t="s">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="P171" t="s">
-        <v>94</v>
+        <v>288</v>
       </c>
       <c r="Q171">
         <v>2.88</v>
       </c>
       <c r="R171">
+        <v>2.05</v>
+      </c>
+      <c r="S171">
+        <v>4</v>
+      </c>
+      <c r="T171">
+        <v>1.5</v>
+      </c>
+      <c r="U171">
+        <v>2.5</v>
+      </c>
+      <c r="V171">
+        <v>3.4</v>
+      </c>
+      <c r="W171">
+        <v>1.3</v>
+      </c>
+      <c r="X171">
+        <v>10</v>
+      </c>
+      <c r="Y171">
+        <v>1.06</v>
+      </c>
+      <c r="Z171">
+        <v>2.04</v>
+      </c>
+      <c r="AA171">
+        <v>3.25</v>
+      </c>
+      <c r="AB171">
+        <v>3.55</v>
+      </c>
+      <c r="AC171">
+        <v>1.08</v>
+      </c>
+      <c r="AD171">
+        <v>7.5</v>
+      </c>
+      <c r="AE171">
+        <v>1.4</v>
+      </c>
+      <c r="AF171">
+        <v>2.8</v>
+      </c>
+      <c r="AG171">
+        <v>2.2</v>
+      </c>
+      <c r="AH171">
+        <v>1.62</v>
+      </c>
+      <c r="AI171">
         <v>1.91</v>
       </c>
-      <c r="S171">
-        <v>4.5</v>
-      </c>
-      <c r="T171">
-        <v>1.57</v>
-      </c>
-      <c r="U171">
-        <v>2.25</v>
-      </c>
-      <c r="V171">
-        <v>3.75</v>
-      </c>
-      <c r="W171">
-        <v>1.25</v>
-      </c>
-      <c r="X171">
-        <v>13</v>
-      </c>
-      <c r="Y171">
-        <v>1.04</v>
-      </c>
-      <c r="Z171">
-        <v>2.1</v>
-      </c>
-      <c r="AA171">
-        <v>2.86</v>
-      </c>
-      <c r="AB171">
-        <v>3.38</v>
-      </c>
-      <c r="AC171">
-        <v>1.09</v>
-      </c>
-      <c r="AD171">
-        <v>7</v>
-      </c>
-      <c r="AE171">
-        <v>1.55</v>
-      </c>
-      <c r="AF171">
-        <v>2.3</v>
-      </c>
-      <c r="AG171">
-        <v>2.4</v>
-      </c>
-      <c r="AH171">
-        <v>1.49</v>
-      </c>
-      <c r="AI171">
-        <v>2.2</v>
-      </c>
       <c r="AJ171">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AK171">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AL171">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AM171">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="AN171">
-        <v>2.13</v>
+        <v>1.29</v>
       </c>
       <c r="AO171">
-        <v>0.71</v>
+        <v>0.29</v>
       </c>
       <c r="AP171">
-        <v>2.22</v>
+        <v>1.5</v>
       </c>
       <c r="AQ171">
-        <v>0.63</v>
+        <v>0.25</v>
       </c>
       <c r="AR171">
-        <v>1.18</v>
+        <v>1.71</v>
       </c>
       <c r="AS171">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AT171">
-        <v>2.33</v>
+        <v>2.81</v>
       </c>
       <c r="AU171">
         <v>4</v>
@@ -36408,61 +36420,1091 @@
         <v>6</v>
       </c>
       <c r="AX171">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AY171">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ171">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA171">
+        <v>5</v>
+      </c>
+      <c r="BB171">
         <v>4</v>
-      </c>
-      <c r="BB171">
-        <v>5</v>
       </c>
       <c r="BC171">
         <v>9</v>
       </c>
       <c r="BD171">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="BE171">
-        <v>6.25</v>
+        <v>6.4</v>
       </c>
       <c r="BF171">
-        <v>2.33</v>
+        <v>2.48</v>
       </c>
       <c r="BG171">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="BH171">
-        <v>2.83</v>
+        <v>2.7</v>
       </c>
       <c r="BI171">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="BJ171">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="BK171">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="BL171">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="BM171">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="BN171">
         <v>1.4</v>
       </c>
       <c r="BO171">
+        <v>3.45</v>
+      </c>
+      <c r="BP171">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7728368</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45620.51041666666</v>
+      </c>
+      <c r="F172">
+        <v>16</v>
+      </c>
+      <c r="G172" t="s">
+        <v>75</v>
+      </c>
+      <c r="H172" t="s">
+        <v>77</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+      <c r="N172">
+        <v>2</v>
+      </c>
+      <c r="O172" t="s">
+        <v>132</v>
+      </c>
+      <c r="P172" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q172">
+        <v>2.75</v>
+      </c>
+      <c r="R172">
+        <v>2.05</v>
+      </c>
+      <c r="S172">
+        <v>4.33</v>
+      </c>
+      <c r="T172">
+        <v>1.44</v>
+      </c>
+      <c r="U172">
+        <v>2.63</v>
+      </c>
+      <c r="V172">
+        <v>3.25</v>
+      </c>
+      <c r="W172">
+        <v>1.33</v>
+      </c>
+      <c r="X172">
+        <v>10</v>
+      </c>
+      <c r="Y172">
+        <v>1.06</v>
+      </c>
+      <c r="Z172">
+        <v>2.08</v>
+      </c>
+      <c r="AA172">
+        <v>2.85</v>
+      </c>
+      <c r="AB172">
+        <v>2.96</v>
+      </c>
+      <c r="AC172">
+        <v>1.07</v>
+      </c>
+      <c r="AD172">
+        <v>8</v>
+      </c>
+      <c r="AE172">
+        <v>1.36</v>
+      </c>
+      <c r="AF172">
+        <v>3</v>
+      </c>
+      <c r="AG172">
+        <v>2.05</v>
+      </c>
+      <c r="AH172">
+        <v>1.68</v>
+      </c>
+      <c r="AI172">
+        <v>1.83</v>
+      </c>
+      <c r="AJ172">
+        <v>1.83</v>
+      </c>
+      <c r="AK172">
+        <v>1.28</v>
+      </c>
+      <c r="AL172">
+        <v>1.28</v>
+      </c>
+      <c r="AM172">
+        <v>1.7</v>
+      </c>
+      <c r="AN172">
+        <v>1.14</v>
+      </c>
+      <c r="AO172">
+        <v>1.29</v>
+      </c>
+      <c r="AP172">
+        <v>1.13</v>
+      </c>
+      <c r="AQ172">
+        <v>1.25</v>
+      </c>
+      <c r="AR172">
+        <v>1.57</v>
+      </c>
+      <c r="AS172">
+        <v>1.12</v>
+      </c>
+      <c r="AT172">
+        <v>2.69</v>
+      </c>
+      <c r="AU172">
+        <v>4</v>
+      </c>
+      <c r="AV172">
+        <v>6</v>
+      </c>
+      <c r="AW172">
+        <v>0</v>
+      </c>
+      <c r="AX172">
+        <v>7</v>
+      </c>
+      <c r="AY172">
+        <v>5</v>
+      </c>
+      <c r="AZ172">
+        <v>14</v>
+      </c>
+      <c r="BA172">
+        <v>1</v>
+      </c>
+      <c r="BB172">
+        <v>8</v>
+      </c>
+      <c r="BC172">
+        <v>9</v>
+      </c>
+      <c r="BD172">
+        <v>1.65</v>
+      </c>
+      <c r="BE172">
+        <v>6.4</v>
+      </c>
+      <c r="BF172">
+        <v>2.4</v>
+      </c>
+      <c r="BG172">
+        <v>1.25</v>
+      </c>
+      <c r="BH172">
+        <v>3.58</v>
+      </c>
+      <c r="BI172">
+        <v>1.45</v>
+      </c>
+      <c r="BJ172">
+        <v>2.55</v>
+      </c>
+      <c r="BK172">
+        <v>1.75</v>
+      </c>
+      <c r="BL172">
+        <v>1.96</v>
+      </c>
+      <c r="BM172">
+        <v>2.21</v>
+      </c>
+      <c r="BN172">
+        <v>1.59</v>
+      </c>
+      <c r="BO172">
+        <v>2.9</v>
+      </c>
+      <c r="BP172">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7728375</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45620.51041666666</v>
+      </c>
+      <c r="F173">
+        <v>16</v>
+      </c>
+      <c r="G173" t="s">
+        <v>71</v>
+      </c>
+      <c r="H173" t="s">
+        <v>80</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>1</v>
+      </c>
+      <c r="O173" t="s">
+        <v>133</v>
+      </c>
+      <c r="P173" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q173">
+        <v>2.88</v>
+      </c>
+      <c r="R173">
+        <v>1.91</v>
+      </c>
+      <c r="S173">
+        <v>4.5</v>
+      </c>
+      <c r="T173">
+        <v>1.57</v>
+      </c>
+      <c r="U173">
+        <v>2.25</v>
+      </c>
+      <c r="V173">
+        <v>3.75</v>
+      </c>
+      <c r="W173">
+        <v>1.25</v>
+      </c>
+      <c r="X173">
+        <v>13</v>
+      </c>
+      <c r="Y173">
+        <v>1.04</v>
+      </c>
+      <c r="Z173">
+        <v>2.1</v>
+      </c>
+      <c r="AA173">
+        <v>2.86</v>
+      </c>
+      <c r="AB173">
+        <v>3.38</v>
+      </c>
+      <c r="AC173">
+        <v>1.09</v>
+      </c>
+      <c r="AD173">
+        <v>7</v>
+      </c>
+      <c r="AE173">
+        <v>1.55</v>
+      </c>
+      <c r="AF173">
+        <v>2.3</v>
+      </c>
+      <c r="AG173">
+        <v>2.4</v>
+      </c>
+      <c r="AH173">
+        <v>1.49</v>
+      </c>
+      <c r="AI173">
+        <v>2.2</v>
+      </c>
+      <c r="AJ173">
+        <v>1.62</v>
+      </c>
+      <c r="AK173">
+        <v>1.25</v>
+      </c>
+      <c r="AL173">
+        <v>1.3</v>
+      </c>
+      <c r="AM173">
+        <v>1.7</v>
+      </c>
+      <c r="AN173">
+        <v>2.13</v>
+      </c>
+      <c r="AO173">
+        <v>0.71</v>
+      </c>
+      <c r="AP173">
+        <v>2.22</v>
+      </c>
+      <c r="AQ173">
+        <v>0.63</v>
+      </c>
+      <c r="AR173">
+        <v>1.18</v>
+      </c>
+      <c r="AS173">
+        <v>1.15</v>
+      </c>
+      <c r="AT173">
+        <v>2.33</v>
+      </c>
+      <c r="AU173">
+        <v>4</v>
+      </c>
+      <c r="AV173">
+        <v>3</v>
+      </c>
+      <c r="AW173">
+        <v>6</v>
+      </c>
+      <c r="AX173">
+        <v>7</v>
+      </c>
+      <c r="AY173">
+        <v>11</v>
+      </c>
+      <c r="AZ173">
+        <v>13</v>
+      </c>
+      <c r="BA173">
+        <v>4</v>
+      </c>
+      <c r="BB173">
+        <v>5</v>
+      </c>
+      <c r="BC173">
+        <v>9</v>
+      </c>
+      <c r="BD173">
+        <v>1.65</v>
+      </c>
+      <c r="BE173">
+        <v>6.25</v>
+      </c>
+      <c r="BF173">
+        <v>2.33</v>
+      </c>
+      <c r="BG173">
+        <v>1.37</v>
+      </c>
+      <c r="BH173">
+        <v>2.83</v>
+      </c>
+      <c r="BI173">
+        <v>1.65</v>
+      </c>
+      <c r="BJ173">
+        <v>2.1</v>
+      </c>
+      <c r="BK173">
+        <v>2.08</v>
+      </c>
+      <c r="BL173">
+        <v>1.67</v>
+      </c>
+      <c r="BM173">
+        <v>2.73</v>
+      </c>
+      <c r="BN173">
+        <v>1.4</v>
+      </c>
+      <c r="BO173">
         <v>3.7</v>
       </c>
-      <c r="BP171">
+      <c r="BP173">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7481488</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45622.6875</v>
+      </c>
+      <c r="F174">
+        <v>13</v>
+      </c>
+      <c r="G174" t="s">
+        <v>90</v>
+      </c>
+      <c r="H174" t="s">
+        <v>88</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>4</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>4</v>
+      </c>
+      <c r="O174" t="s">
+        <v>212</v>
+      </c>
+      <c r="P174" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q174">
+        <v>2.25</v>
+      </c>
+      <c r="R174">
+        <v>2.25</v>
+      </c>
+      <c r="S174">
+        <v>4.5</v>
+      </c>
+      <c r="T174">
+        <v>1.32</v>
+      </c>
+      <c r="U174">
+        <v>3.15</v>
+      </c>
+      <c r="V174">
+        <v>2.45</v>
+      </c>
+      <c r="W174">
+        <v>1.49</v>
+      </c>
+      <c r="X174">
+        <v>5.95</v>
+      </c>
+      <c r="Y174">
+        <v>1.1</v>
+      </c>
+      <c r="Z174">
+        <v>1.65</v>
+      </c>
+      <c r="AA174">
+        <v>3.8</v>
+      </c>
+      <c r="AB174">
+        <v>4.4</v>
+      </c>
+      <c r="AC174">
+        <v>1.04</v>
+      </c>
+      <c r="AD174">
+        <v>10</v>
+      </c>
+      <c r="AE174">
+        <v>1.2</v>
+      </c>
+      <c r="AF174">
+        <v>4.2</v>
+      </c>
+      <c r="AG174">
+        <v>1.63</v>
+      </c>
+      <c r="AH174">
+        <v>2.1</v>
+      </c>
+      <c r="AI174">
+        <v>1.66</v>
+      </c>
+      <c r="AJ174">
+        <v>2.15</v>
+      </c>
+      <c r="AK174">
+        <v>1.16</v>
+      </c>
+      <c r="AL174">
+        <v>1.2</v>
+      </c>
+      <c r="AM174">
+        <v>2.1</v>
+      </c>
+      <c r="AN174">
+        <v>1.83</v>
+      </c>
+      <c r="AO174">
+        <v>0.14</v>
+      </c>
+      <c r="AP174">
+        <v>2</v>
+      </c>
+      <c r="AQ174">
+        <v>0.13</v>
+      </c>
+      <c r="AR174">
+        <v>1.76</v>
+      </c>
+      <c r="AS174">
+        <v>1.3</v>
+      </c>
+      <c r="AT174">
+        <v>3.06</v>
+      </c>
+      <c r="AU174">
+        <v>8</v>
+      </c>
+      <c r="AV174">
+        <v>4</v>
+      </c>
+      <c r="AW174">
+        <v>2</v>
+      </c>
+      <c r="AX174">
+        <v>6</v>
+      </c>
+      <c r="AY174">
+        <v>11</v>
+      </c>
+      <c r="AZ174">
+        <v>11</v>
+      </c>
+      <c r="BA174">
+        <v>2</v>
+      </c>
+      <c r="BB174">
+        <v>3</v>
+      </c>
+      <c r="BC174">
+        <v>5</v>
+      </c>
+      <c r="BD174">
+        <v>1.69</v>
+      </c>
+      <c r="BE174">
+        <v>8</v>
+      </c>
+      <c r="BF174">
+        <v>2.62</v>
+      </c>
+      <c r="BG174">
+        <v>1.34</v>
+      </c>
+      <c r="BH174">
+        <v>2.98</v>
+      </c>
+      <c r="BI174">
+        <v>1.6</v>
+      </c>
+      <c r="BJ174">
+        <v>2.19</v>
+      </c>
+      <c r="BK174">
+        <v>2</v>
+      </c>
+      <c r="BL174">
+        <v>1.72</v>
+      </c>
+      <c r="BM174">
+        <v>2.6</v>
+      </c>
+      <c r="BN174">
+        <v>1.44</v>
+      </c>
+      <c r="BO174">
+        <v>3.5</v>
+      </c>
+      <c r="BP174">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7481490</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45623.625</v>
+      </c>
+      <c r="F175">
+        <v>13</v>
+      </c>
+      <c r="G175" t="s">
+        <v>86</v>
+      </c>
+      <c r="H175" t="s">
+        <v>73</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+      <c r="O175" t="s">
+        <v>94</v>
+      </c>
+      <c r="P175" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q175">
+        <v>2.15</v>
+      </c>
+      <c r="R175">
+        <v>2.25</v>
+      </c>
+      <c r="S175">
+        <v>4.75</v>
+      </c>
+      <c r="T175">
+        <v>1.36</v>
+      </c>
+      <c r="U175">
+        <v>2.9</v>
+      </c>
+      <c r="V175">
+        <v>2.7</v>
+      </c>
+      <c r="W175">
+        <v>1.4</v>
+      </c>
+      <c r="X175">
+        <v>6.4</v>
+      </c>
+      <c r="Y175">
+        <v>1.08</v>
+      </c>
+      <c r="Z175">
+        <v>1.63</v>
+      </c>
+      <c r="AA175">
+        <v>4.15</v>
+      </c>
+      <c r="AB175">
+        <v>5</v>
+      </c>
+      <c r="AC175">
+        <v>1.05</v>
+      </c>
+      <c r="AD175">
+        <v>9.5</v>
+      </c>
+      <c r="AE175">
+        <v>1.28</v>
+      </c>
+      <c r="AF175">
+        <v>3.65</v>
+      </c>
+      <c r="AG175">
+        <v>1.82</v>
+      </c>
+      <c r="AH175">
+        <v>1.99</v>
+      </c>
+      <c r="AI175">
+        <v>1.85</v>
+      </c>
+      <c r="AJ175">
+        <v>1.83</v>
+      </c>
+      <c r="AK175">
+        <v>1.15</v>
+      </c>
+      <c r="AL175">
+        <v>1.2</v>
+      </c>
+      <c r="AM175">
+        <v>2.25</v>
+      </c>
+      <c r="AN175">
+        <v>1</v>
+      </c>
+      <c r="AO175">
+        <v>0.83</v>
+      </c>
+      <c r="AP175">
+        <v>1</v>
+      </c>
+      <c r="AQ175">
+        <v>0.86</v>
+      </c>
+      <c r="AR175">
+        <v>1.6</v>
+      </c>
+      <c r="AS175">
+        <v>0.86</v>
+      </c>
+      <c r="AT175">
+        <v>2.46</v>
+      </c>
+      <c r="AU175">
+        <v>8</v>
+      </c>
+      <c r="AV175">
+        <v>6</v>
+      </c>
+      <c r="AW175">
+        <v>5</v>
+      </c>
+      <c r="AX175">
+        <v>7</v>
+      </c>
+      <c r="AY175">
+        <v>17</v>
+      </c>
+      <c r="AZ175">
+        <v>15</v>
+      </c>
+      <c r="BA175">
+        <v>8</v>
+      </c>
+      <c r="BB175">
+        <v>4</v>
+      </c>
+      <c r="BC175">
+        <v>12</v>
+      </c>
+      <c r="BD175">
+        <v>1.58</v>
+      </c>
+      <c r="BE175">
+        <v>8.35</v>
+      </c>
+      <c r="BF175">
+        <v>2.89</v>
+      </c>
+      <c r="BG175">
+        <v>1.37</v>
+      </c>
+      <c r="BH175">
+        <v>2.83</v>
+      </c>
+      <c r="BI175">
+        <v>1.65</v>
+      </c>
+      <c r="BJ175">
+        <v>2.1</v>
+      </c>
+      <c r="BK175">
+        <v>2.08</v>
+      </c>
+      <c r="BL175">
+        <v>1.67</v>
+      </c>
+      <c r="BM175">
+        <v>2.73</v>
+      </c>
+      <c r="BN175">
+        <v>1.4</v>
+      </c>
+      <c r="BO175">
+        <v>3.7</v>
+      </c>
+      <c r="BP175">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7481493</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45623.625</v>
+      </c>
+      <c r="F176">
+        <v>13</v>
+      </c>
+      <c r="G176" t="s">
+        <v>82</v>
+      </c>
+      <c r="H176" t="s">
+        <v>83</v>
+      </c>
+      <c r="I176">
+        <v>2</v>
+      </c>
+      <c r="J176">
+        <v>2</v>
+      </c>
+      <c r="K176">
+        <v>4</v>
+      </c>
+      <c r="L176">
+        <v>4</v>
+      </c>
+      <c r="M176">
+        <v>2</v>
+      </c>
+      <c r="N176">
+        <v>6</v>
+      </c>
+      <c r="O176" t="s">
+        <v>213</v>
+      </c>
+      <c r="P176" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q176">
+        <v>2.3</v>
+      </c>
+      <c r="R176">
+        <v>2.05</v>
+      </c>
+      <c r="S176">
+        <v>5</v>
+      </c>
+      <c r="T176">
+        <v>1.42</v>
+      </c>
+      <c r="U176">
+        <v>2.62</v>
+      </c>
+      <c r="V176">
+        <v>2.95</v>
+      </c>
+      <c r="W176">
+        <v>1.35</v>
+      </c>
+      <c r="X176">
+        <v>7.6</v>
+      </c>
+      <c r="Y176">
+        <v>1.05</v>
+      </c>
+      <c r="Z176">
+        <v>1.79</v>
+      </c>
+      <c r="AA176">
+        <v>3.7</v>
+      </c>
+      <c r="AB176">
+        <v>4.45</v>
+      </c>
+      <c r="AC176">
+        <v>1.01</v>
+      </c>
+      <c r="AD176">
+        <v>7.7</v>
+      </c>
+      <c r="AE176">
+        <v>1.36</v>
+      </c>
+      <c r="AF176">
+        <v>3.17</v>
+      </c>
+      <c r="AG176">
+        <v>2</v>
+      </c>
+      <c r="AH176">
+        <v>1.81</v>
+      </c>
+      <c r="AI176">
+        <v>1.95</v>
+      </c>
+      <c r="AJ176">
+        <v>1.73</v>
+      </c>
+      <c r="AK176">
+        <v>1.15</v>
+      </c>
+      <c r="AL176">
+        <v>1.22</v>
+      </c>
+      <c r="AM176">
+        <v>2.1</v>
+      </c>
+      <c r="AN176">
+        <v>2</v>
+      </c>
+      <c r="AO176">
+        <v>1</v>
+      </c>
+      <c r="AP176">
+        <v>2.14</v>
+      </c>
+      <c r="AQ176">
+        <v>0.88</v>
+      </c>
+      <c r="AR176">
+        <v>1.58</v>
+      </c>
+      <c r="AS176">
+        <v>1.06</v>
+      </c>
+      <c r="AT176">
+        <v>2.64</v>
+      </c>
+      <c r="AU176">
+        <v>8</v>
+      </c>
+      <c r="AV176">
+        <v>5</v>
+      </c>
+      <c r="AW176">
+        <v>8</v>
+      </c>
+      <c r="AX176">
+        <v>5</v>
+      </c>
+      <c r="AY176">
+        <v>21</v>
+      </c>
+      <c r="AZ176">
+        <v>14</v>
+      </c>
+      <c r="BA176">
+        <v>7</v>
+      </c>
+      <c r="BB176">
+        <v>3</v>
+      </c>
+      <c r="BC176">
+        <v>10</v>
+      </c>
+      <c r="BD176">
+        <v>1.41</v>
+      </c>
+      <c r="BE176">
+        <v>8.5</v>
+      </c>
+      <c r="BF176">
+        <v>3.5</v>
+      </c>
+      <c r="BG176">
+        <v>1.31</v>
+      </c>
+      <c r="BH176">
+        <v>3.15</v>
+      </c>
+      <c r="BI176">
+        <v>1.55</v>
+      </c>
+      <c r="BJ176">
+        <v>2.29</v>
+      </c>
+      <c r="BK176">
+        <v>1.92</v>
+      </c>
+      <c r="BL176">
+        <v>1.79</v>
+      </c>
+      <c r="BM176">
+        <v>2.47</v>
+      </c>
+      <c r="BN176">
+        <v>1.48</v>
+      </c>
+      <c r="BO176">
+        <v>3.3</v>
+      </c>
+      <c r="BP176">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -643,13 +643,13 @@
     <t>['30', '58']</t>
   </si>
   <si>
-    <t>['5', '45+3', '53', '83']</t>
+    <t>['34', '81']</t>
   </si>
   <si>
     <t>['83']</t>
   </si>
   <si>
-    <t>['34', '81']</t>
+    <t>['5', '45+3', '53', '83']</t>
   </si>
   <si>
     <t>['57', '61', '76', '82']</t>
@@ -877,10 +877,10 @@
     <t>['16', '56']</t>
   </si>
   <si>
-    <t>['70']</t>
+    <t>['76']</t>
   </si>
   <si>
-    <t>['76']</t>
+    <t>['70']</t>
   </si>
   <si>
     <t>['16', '41']</t>
@@ -34834,7 +34834,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>7728371</v>
+        <v>7728372</v>
       </c>
       <c r="C164" t="s">
         <v>68</v>
@@ -34843,94 +34843,94 @@
         <v>69</v>
       </c>
       <c r="E164" s="2">
-        <v>45618.875</v>
+        <v>45619.41666666666</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G164" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H164" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N164">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O164" t="s">
-        <v>94</v>
+        <v>206</v>
       </c>
       <c r="P164" t="s">
-        <v>94</v>
+        <v>285</v>
       </c>
       <c r="Q164">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="R164">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S164">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="T164">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="U164">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V164">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="W164">
+        <v>1.4</v>
+      </c>
+      <c r="X164">
+        <v>8</v>
+      </c>
+      <c r="Y164">
+        <v>1.08</v>
+      </c>
+      <c r="Z164">
+        <v>7.21</v>
+      </c>
+      <c r="AA164">
+        <v>1.4</v>
+      </c>
+      <c r="AB164">
+        <v>3.87</v>
+      </c>
+      <c r="AC164">
+        <v>1.05</v>
+      </c>
+      <c r="AD164">
+        <v>9</v>
+      </c>
+      <c r="AE164">
         <v>1.3</v>
       </c>
-      <c r="X164">
-        <v>10</v>
-      </c>
-      <c r="Y164">
-        <v>1.06</v>
-      </c>
-      <c r="Z164">
-        <v>2.35</v>
-      </c>
-      <c r="AA164">
-        <v>2.79</v>
-      </c>
-      <c r="AB164">
-        <v>2.58</v>
-      </c>
-      <c r="AC164">
-        <v>1.11</v>
-      </c>
-      <c r="AD164">
-        <v>6.5</v>
-      </c>
-      <c r="AE164">
-        <v>1.48</v>
-      </c>
       <c r="AF164">
-        <v>2.37</v>
+        <v>3.3</v>
       </c>
       <c r="AG164">
-        <v>2.25</v>
+        <v>2.01</v>
       </c>
       <c r="AH164">
-        <v>1.57</v>
+        <v>1.81</v>
       </c>
       <c r="AI164">
         <v>1.83</v>
@@ -34939,100 +34939,100 @@
         <v>1.83</v>
       </c>
       <c r="AK164">
-        <v>1.47</v>
+        <v>2</v>
       </c>
       <c r="AL164">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AM164">
-        <v>1.45</v>
+        <v>1.16</v>
       </c>
       <c r="AN164">
-        <v>2</v>
+        <v>0.57</v>
       </c>
       <c r="AO164">
+        <v>1.38</v>
+      </c>
+      <c r="AP164">
+        <v>0.5</v>
+      </c>
+      <c r="AQ164">
+        <v>1.56</v>
+      </c>
+      <c r="AR164">
+        <v>1.2</v>
+      </c>
+      <c r="AS164">
+        <v>1.39</v>
+      </c>
+      <c r="AT164">
+        <v>2.59</v>
+      </c>
+      <c r="AU164">
+        <v>5</v>
+      </c>
+      <c r="AV164">
+        <v>5</v>
+      </c>
+      <c r="AW164">
+        <v>4</v>
+      </c>
+      <c r="AX164">
+        <v>14</v>
+      </c>
+      <c r="AY164">
+        <v>9</v>
+      </c>
+      <c r="AZ164">
+        <v>19</v>
+      </c>
+      <c r="BA164">
+        <v>5</v>
+      </c>
+      <c r="BB164">
         <v>3</v>
       </c>
-      <c r="AP164">
-        <v>1.88</v>
-      </c>
-      <c r="AQ164">
-        <v>2.75</v>
-      </c>
-      <c r="AR164">
-        <v>1.29</v>
-      </c>
-      <c r="AS164">
-        <v>1.43</v>
-      </c>
-      <c r="AT164">
-        <v>2.72</v>
-      </c>
-      <c r="AU164">
-        <v>7</v>
-      </c>
-      <c r="AV164">
+      <c r="BC164">
         <v>8</v>
       </c>
-      <c r="AW164">
-        <v>5</v>
-      </c>
-      <c r="AX164">
-        <v>3</v>
-      </c>
-      <c r="AY164">
-        <v>20</v>
-      </c>
-      <c r="AZ164">
-        <v>12</v>
-      </c>
-      <c r="BA164">
-        <v>3</v>
-      </c>
-      <c r="BB164">
-        <v>2</v>
-      </c>
-      <c r="BC164">
-        <v>5</v>
-      </c>
       <c r="BD164">
-        <v>1.92</v>
+        <v>2.65</v>
       </c>
       <c r="BE164">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="BF164">
+        <v>1.52</v>
+      </c>
+      <c r="BG164">
+        <v>1.34</v>
+      </c>
+      <c r="BH164">
+        <v>2.85</v>
+      </c>
+      <c r="BI164">
+        <v>1.6</v>
+      </c>
+      <c r="BJ164">
+        <v>2.15</v>
+      </c>
+      <c r="BK164">
         <v>1.98</v>
       </c>
-      <c r="BG164">
-        <v>1.31</v>
-      </c>
-      <c r="BH164">
-        <v>3.15</v>
-      </c>
-      <c r="BI164">
-        <v>1.55</v>
-      </c>
-      <c r="BJ164">
-        <v>2.29</v>
-      </c>
-      <c r="BK164">
-        <v>1.92</v>
-      </c>
       <c r="BL164">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="BM164">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="BN164">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="BO164">
         <v>3.3</v>
       </c>
       <c r="BP164">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="165" spans="1:68">
@@ -35040,7 +35040,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>7728372</v>
+        <v>7728373</v>
       </c>
       <c r="C165" t="s">
         <v>68</v>
@@ -35049,94 +35049,94 @@
         <v>69</v>
       </c>
       <c r="E165" s="2">
-        <v>45618.875</v>
+        <v>45619.51041666666</v>
       </c>
       <c r="F165">
         <v>16</v>
       </c>
       <c r="G165" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="H165" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N165">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O165" t="s">
-        <v>206</v>
+        <v>94</v>
       </c>
       <c r="P165" t="s">
-        <v>285</v>
+        <v>94</v>
       </c>
       <c r="Q165">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="R165">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S165">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="T165">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U165">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V165">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="W165">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="X165">
+        <v>9</v>
+      </c>
+      <c r="Y165">
+        <v>1.07</v>
+      </c>
+      <c r="Z165">
+        <v>2.17</v>
+      </c>
+      <c r="AA165">
+        <v>3.16</v>
+      </c>
+      <c r="AB165">
+        <v>3.02</v>
+      </c>
+      <c r="AC165">
+        <v>1.07</v>
+      </c>
+      <c r="AD165">
         <v>8</v>
       </c>
-      <c r="Y165">
-        <v>1.08</v>
-      </c>
-      <c r="Z165">
-        <v>7.21</v>
-      </c>
-      <c r="AA165">
-        <v>1.4</v>
-      </c>
-      <c r="AB165">
-        <v>3.87</v>
-      </c>
-      <c r="AC165">
-        <v>1.05</v>
-      </c>
-      <c r="AD165">
-        <v>9</v>
-      </c>
       <c r="AE165">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AF165">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AG165">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="AH165">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="AI165">
         <v>1.83</v>
@@ -35145,82 +35145,82 @@
         <v>1.83</v>
       </c>
       <c r="AK165">
-        <v>2</v>
+        <v>1.28</v>
       </c>
       <c r="AL165">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM165">
-        <v>1.16</v>
+        <v>1.72</v>
       </c>
       <c r="AN165">
-        <v>0.57</v>
+        <v>1.38</v>
       </c>
       <c r="AO165">
-        <v>1.38</v>
+        <v>1.14</v>
       </c>
       <c r="AP165">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ165">
-        <v>1.56</v>
+        <v>1.13</v>
       </c>
       <c r="AR165">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="AS165">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="AT165">
-        <v>2.59</v>
+        <v>2.98</v>
       </c>
       <c r="AU165">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV165">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW165">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="AX165">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AY165">
+        <v>23</v>
+      </c>
+      <c r="AZ165">
         <v>8</v>
-      </c>
-      <c r="AZ165">
-        <v>18</v>
       </c>
       <c r="BA165">
         <v>5</v>
       </c>
       <c r="BB165">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC165">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD165">
-        <v>2.65</v>
+        <v>1.68</v>
       </c>
       <c r="BE165">
-        <v>6.4</v>
+        <v>6.25</v>
       </c>
       <c r="BF165">
-        <v>1.52</v>
+        <v>2.3</v>
       </c>
       <c r="BG165">
         <v>1.34</v>
       </c>
       <c r="BH165">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="BI165">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="BJ165">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="BK165">
         <v>1.98</v>
@@ -35246,7 +35246,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>7728373</v>
+        <v>7728366</v>
       </c>
       <c r="C166" t="s">
         <v>68</v>
@@ -35255,16 +35255,16 @@
         <v>69</v>
       </c>
       <c r="E166" s="2">
-        <v>45618.875</v>
+        <v>45619.60416666666</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G166" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H166" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -35276,175 +35276,175 @@
         <v>0</v>
       </c>
       <c r="L166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M166">
         <v>0</v>
       </c>
       <c r="N166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O166" t="s">
-        <v>94</v>
+        <v>207</v>
       </c>
       <c r="P166" t="s">
         <v>94</v>
       </c>
       <c r="Q166">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="R166">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S166">
         <v>4</v>
       </c>
       <c r="T166">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="U166">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="V166">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="W166">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="X166">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y166">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="Z166">
-        <v>2.17</v>
+        <v>2.31</v>
       </c>
       <c r="AA166">
-        <v>3.16</v>
+        <v>2.93</v>
       </c>
       <c r="AB166">
-        <v>3.02</v>
+        <v>3.3</v>
       </c>
       <c r="AC166">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="AD166">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE166">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="AF166">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="AG166">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AH166">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AI166">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AJ166">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AK166">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AL166">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AM166">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="AN166">
+        <v>1.14</v>
+      </c>
+      <c r="AO166">
+        <v>0.71</v>
+      </c>
+      <c r="AP166">
         <v>1.38</v>
       </c>
-      <c r="AO166">
+      <c r="AQ166">
+        <v>0.63</v>
+      </c>
+      <c r="AR166">
+        <v>1.42</v>
+      </c>
+      <c r="AS166">
         <v>1.14</v>
       </c>
-      <c r="AP166">
-        <v>1.33</v>
-      </c>
-      <c r="AQ166">
-        <v>1.13</v>
-      </c>
-      <c r="AR166">
-        <v>1.7</v>
-      </c>
-      <c r="AS166">
-        <v>1.28</v>
-      </c>
       <c r="AT166">
-        <v>2.98</v>
+        <v>2.56</v>
       </c>
       <c r="AU166">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV166">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW166">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="AX166">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AY166">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="AZ166">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BA166">
         <v>5</v>
       </c>
       <c r="BB166">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC166">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD166">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="BE166">
-        <v>6.25</v>
+        <v>6.4</v>
       </c>
       <c r="BF166">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="BG166">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="BH166">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="BI166">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="BJ166">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="BK166">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="BL166">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="BM166">
-        <v>2.5</v>
+        <v>2.39</v>
       </c>
       <c r="BN166">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="BO166">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="BP166">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="167" spans="1:68">
@@ -35452,7 +35452,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>7728366</v>
+        <v>7728367</v>
       </c>
       <c r="C167" t="s">
         <v>68</v>
@@ -35467,154 +35467,154 @@
         <v>16</v>
       </c>
       <c r="G167" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H167" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K167">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M167">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N167">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O167" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>94</v>
+        <v>286</v>
       </c>
       <c r="Q167">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="R167">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S167">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T167">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="U167">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="V167">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="W167">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="X167">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y167">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z167">
         <v>2.31</v>
       </c>
       <c r="AA167">
-        <v>2.93</v>
+        <v>3.2</v>
       </c>
       <c r="AB167">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="AC167">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AD167">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE167">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="AF167">
-        <v>2.6</v>
+        <v>2.95</v>
       </c>
       <c r="AG167">
-        <v>2.5</v>
+        <v>2.23</v>
       </c>
       <c r="AH167">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="AI167">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AJ167">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AK167">
         <v>1.35</v>
       </c>
       <c r="AL167">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AM167">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AN167">
-        <v>1.14</v>
+        <v>2.14</v>
       </c>
       <c r="AO167">
-        <v>0.71</v>
+        <v>1.75</v>
       </c>
       <c r="AP167">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="AQ167">
-        <v>0.63</v>
+        <v>1.67</v>
       </c>
       <c r="AR167">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="AS167">
-        <v>1.14</v>
+        <v>1.41</v>
       </c>
       <c r="AT167">
-        <v>2.56</v>
+        <v>3.06</v>
       </c>
       <c r="AU167">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV167">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW167">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX167">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AY167">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ167">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BA167">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BB167">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC167">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD167">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="BE167">
         <v>6.4</v>
@@ -35650,7 +35650,7 @@
         <v>3.2</v>
       </c>
       <c r="BP167">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="168" spans="1:68">
@@ -35658,7 +35658,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>7728367</v>
+        <v>7728371</v>
       </c>
       <c r="C168" t="s">
         <v>68</v>
@@ -35667,55 +35667,55 @@
         <v>69</v>
       </c>
       <c r="E168" s="2">
-        <v>45619.60416666666</v>
+        <v>45619.70833333334</v>
       </c>
       <c r="F168">
         <v>16</v>
       </c>
       <c r="G168" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H168" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N168">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O168" t="s">
-        <v>208</v>
+        <v>94</v>
       </c>
       <c r="P168" t="s">
-        <v>286</v>
+        <v>94</v>
       </c>
       <c r="Q168">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="R168">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S168">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="T168">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U168">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V168">
         <v>3.4</v>
@@ -35730,31 +35730,31 @@
         <v>1.06</v>
       </c>
       <c r="Z168">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AA168">
-        <v>3.2</v>
+        <v>2.79</v>
       </c>
       <c r="AB168">
-        <v>3</v>
+        <v>2.58</v>
       </c>
       <c r="AC168">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="AD168">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AE168">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="AF168">
-        <v>2.95</v>
+        <v>2.37</v>
       </c>
       <c r="AG168">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="AH168">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="AI168">
         <v>1.83</v>
@@ -35763,100 +35763,100 @@
         <v>1.83</v>
       </c>
       <c r="AK168">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="AL168">
         <v>1.28</v>
       </c>
       <c r="AM168">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AN168">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AO168">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="AP168">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ168">
-        <v>1.67</v>
+        <v>2.75</v>
       </c>
       <c r="AR168">
-        <v>1.65</v>
+        <v>1.29</v>
       </c>
       <c r="AS168">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="AT168">
-        <v>3.06</v>
+        <v>2.72</v>
       </c>
       <c r="AU168">
         <v>6</v>
       </c>
       <c r="AV168">
+        <v>8</v>
+      </c>
+      <c r="AW168">
+        <v>16</v>
+      </c>
+      <c r="AX168">
         <v>4</v>
       </c>
-      <c r="AW168">
+      <c r="AY168">
+        <v>22</v>
+      </c>
+      <c r="AZ168">
+        <v>12</v>
+      </c>
+      <c r="BA168">
         <v>3</v>
       </c>
-      <c r="AX168">
-        <v>0</v>
-      </c>
-      <c r="AY168">
-        <v>9</v>
-      </c>
-      <c r="AZ168">
-        <v>4</v>
-      </c>
-      <c r="BA168">
-        <v>10</v>
-      </c>
       <c r="BB168">
         <v>2</v>
       </c>
       <c r="BC168">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BD168">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="BE168">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="BF168">
-        <v>2.18</v>
+        <v>1.98</v>
       </c>
       <c r="BG168">
+        <v>1.31</v>
+      </c>
+      <c r="BH168">
+        <v>3.15</v>
+      </c>
+      <c r="BI168">
+        <v>1.55</v>
+      </c>
+      <c r="BJ168">
+        <v>2.29</v>
+      </c>
+      <c r="BK168">
+        <v>1.92</v>
+      </c>
+      <c r="BL168">
+        <v>1.79</v>
+      </c>
+      <c r="BM168">
+        <v>2.47</v>
+      </c>
+      <c r="BN168">
+        <v>1.48</v>
+      </c>
+      <c r="BO168">
+        <v>3.3</v>
+      </c>
+      <c r="BP168">
         <v>1.29</v>
-      </c>
-      <c r="BH168">
-        <v>3.25</v>
-      </c>
-      <c r="BI168">
-        <v>1.52</v>
-      </c>
-      <c r="BJ168">
-        <v>2.36</v>
-      </c>
-      <c r="BK168">
-        <v>1.87</v>
-      </c>
-      <c r="BL168">
-        <v>1.83</v>
-      </c>
-      <c r="BM168">
-        <v>2.39</v>
-      </c>
-      <c r="BN168">
-        <v>1.51</v>
-      </c>
-      <c r="BO168">
-        <v>3.2</v>
-      </c>
-      <c r="BP168">
-        <v>1.31</v>
       </c>
     </row>
     <row r="169" spans="1:68">
@@ -35864,7 +35864,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>7728369</v>
+        <v>7728365</v>
       </c>
       <c r="C169" t="s">
         <v>68</v>
@@ -35873,196 +35873,196 @@
         <v>69</v>
       </c>
       <c r="E169" s="2">
-        <v>45619.875</v>
+        <v>45620.41666666666</v>
       </c>
       <c r="F169">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G169" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H169" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J169">
         <v>0</v>
       </c>
       <c r="K169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L169">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N169">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O169" t="s">
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>94</v>
+        <v>287</v>
       </c>
       <c r="Q169">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="R169">
+        <v>2.05</v>
+      </c>
+      <c r="S169">
+        <v>4</v>
+      </c>
+      <c r="T169">
+        <v>1.5</v>
+      </c>
+      <c r="U169">
+        <v>2.5</v>
+      </c>
+      <c r="V169">
+        <v>3.4</v>
+      </c>
+      <c r="W169">
+        <v>1.3</v>
+      </c>
+      <c r="X169">
+        <v>10</v>
+      </c>
+      <c r="Y169">
+        <v>1.06</v>
+      </c>
+      <c r="Z169">
+        <v>2.04</v>
+      </c>
+      <c r="AA169">
+        <v>3.25</v>
+      </c>
+      <c r="AB169">
+        <v>3.55</v>
+      </c>
+      <c r="AC169">
+        <v>1.08</v>
+      </c>
+      <c r="AD169">
+        <v>7.5</v>
+      </c>
+      <c r="AE169">
+        <v>1.4</v>
+      </c>
+      <c r="AF169">
+        <v>2.8</v>
+      </c>
+      <c r="AG169">
+        <v>2.2</v>
+      </c>
+      <c r="AH169">
+        <v>1.62</v>
+      </c>
+      <c r="AI169">
         <v>1.91</v>
       </c>
-      <c r="S169">
-        <v>4.5</v>
-      </c>
-      <c r="T169">
-        <v>1.57</v>
-      </c>
-      <c r="U169">
-        <v>2.25</v>
-      </c>
-      <c r="V169">
-        <v>3.75</v>
-      </c>
-      <c r="W169">
-        <v>1.25</v>
-      </c>
-      <c r="X169">
-        <v>13</v>
-      </c>
-      <c r="Y169">
-        <v>1.04</v>
-      </c>
-      <c r="Z169">
-        <v>2.07</v>
-      </c>
-      <c r="AA169">
-        <v>2.85</v>
-      </c>
-      <c r="AB169">
-        <v>3.24</v>
-      </c>
-      <c r="AC169">
-        <v>1.11</v>
-      </c>
-      <c r="AD169">
-        <v>6.5</v>
-      </c>
-      <c r="AE169">
-        <v>1.5</v>
-      </c>
-      <c r="AF169">
-        <v>2.4</v>
-      </c>
-      <c r="AG169">
-        <v>2.45</v>
-      </c>
-      <c r="AH169">
-        <v>1.49</v>
-      </c>
-      <c r="AI169">
-        <v>2.2</v>
-      </c>
       <c r="AJ169">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AK169">
         <v>1.28</v>
       </c>
       <c r="AL169">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AM169">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="AN169">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="AO169">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="AP169">
-        <v>1.89</v>
+        <v>1.5</v>
       </c>
       <c r="AQ169">
-        <v>0.89</v>
+        <v>0.25</v>
       </c>
       <c r="AR169">
-        <v>1.44</v>
+        <v>1.71</v>
       </c>
       <c r="AS169">
         <v>1.1</v>
       </c>
       <c r="AT169">
-        <v>2.54</v>
+        <v>2.81</v>
       </c>
       <c r="AU169">
+        <v>4</v>
+      </c>
+      <c r="AV169">
+        <v>3</v>
+      </c>
+      <c r="AW169">
+        <v>6</v>
+      </c>
+      <c r="AX169">
+        <v>4</v>
+      </c>
+      <c r="AY169">
+        <v>15</v>
+      </c>
+      <c r="AZ169">
         <v>10</v>
       </c>
-      <c r="AV169">
-        <v>2</v>
-      </c>
-      <c r="AW169">
+      <c r="BA169">
         <v>5</v>
       </c>
-      <c r="AX169">
-        <v>2</v>
-      </c>
-      <c r="AY169">
-        <v>22</v>
-      </c>
-      <c r="AZ169">
-        <v>5</v>
-      </c>
-      <c r="BA169">
-        <v>6</v>
-      </c>
       <c r="BB169">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC169">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD169">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="BE169">
-        <v>6.25</v>
+        <v>6.4</v>
       </c>
       <c r="BF169">
-        <v>2.33</v>
+        <v>2.48</v>
       </c>
       <c r="BG169">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="BH169">
-        <v>2.98</v>
+        <v>2.7</v>
       </c>
       <c r="BI169">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="BJ169">
-        <v>2.19</v>
+        <v>2.07</v>
       </c>
       <c r="BK169">
         <v>2</v>
       </c>
       <c r="BL169">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="BM169">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="BN169">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="BO169">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="BP169">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="170" spans="1:68">
@@ -36070,7 +36070,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>7728374</v>
+        <v>7728375</v>
       </c>
       <c r="C170" t="s">
         <v>68</v>
@@ -36079,16 +36079,16 @@
         <v>69</v>
       </c>
       <c r="E170" s="2">
-        <v>45619.875</v>
+        <v>45620.51041666666</v>
       </c>
       <c r="F170">
         <v>16</v>
       </c>
       <c r="G170" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H170" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -36103,172 +36103,172 @@
         <v>1</v>
       </c>
       <c r="M170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O170" t="s">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="P170" t="s">
-        <v>287</v>
+        <v>94</v>
       </c>
       <c r="Q170">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="R170">
+        <v>1.91</v>
+      </c>
+      <c r="S170">
+        <v>4.5</v>
+      </c>
+      <c r="T170">
+        <v>1.57</v>
+      </c>
+      <c r="U170">
+        <v>2.25</v>
+      </c>
+      <c r="V170">
+        <v>3.75</v>
+      </c>
+      <c r="W170">
+        <v>1.25</v>
+      </c>
+      <c r="X170">
+        <v>13</v>
+      </c>
+      <c r="Y170">
+        <v>1.04</v>
+      </c>
+      <c r="Z170">
         <v>2.1</v>
       </c>
-      <c r="S170">
-        <v>3.25</v>
-      </c>
-      <c r="T170">
-        <v>1.44</v>
-      </c>
-      <c r="U170">
-        <v>2.63</v>
-      </c>
-      <c r="V170">
-        <v>3</v>
-      </c>
-      <c r="W170">
-        <v>1.36</v>
-      </c>
-      <c r="X170">
-        <v>9</v>
-      </c>
-      <c r="Y170">
-        <v>1.07</v>
-      </c>
-      <c r="Z170">
-        <v>2.52</v>
-      </c>
       <c r="AA170">
-        <v>3.06</v>
+        <v>2.86</v>
       </c>
       <c r="AB170">
-        <v>2.52</v>
+        <v>3.38</v>
       </c>
       <c r="AC170">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="AD170">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE170">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="AF170">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="AG170">
-        <v>2.04</v>
+        <v>2.4</v>
       </c>
       <c r="AH170">
-        <v>1.82</v>
+        <v>1.49</v>
       </c>
       <c r="AI170">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AJ170">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="AK170">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="AL170">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AM170">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="AN170">
-        <v>1.71</v>
+        <v>2.13</v>
       </c>
       <c r="AO170">
-        <v>1.86</v>
+        <v>0.71</v>
       </c>
       <c r="AP170">
-        <v>1.63</v>
+        <v>2.22</v>
       </c>
       <c r="AQ170">
-        <v>1.75</v>
+        <v>0.63</v>
       </c>
       <c r="AR170">
+        <v>1.18</v>
+      </c>
+      <c r="AS170">
         <v>1.15</v>
       </c>
-      <c r="AS170">
-        <v>1.31</v>
-      </c>
       <c r="AT170">
-        <v>2.46</v>
+        <v>2.33</v>
       </c>
       <c r="AU170">
         <v>4</v>
       </c>
       <c r="AV170">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AW170">
         <v>6</v>
       </c>
       <c r="AX170">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY170">
         <v>11</v>
       </c>
       <c r="AZ170">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="BA170">
         <v>4</v>
       </c>
       <c r="BB170">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BC170">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD170">
-        <v>1.86</v>
+        <v>1.65</v>
       </c>
       <c r="BE170">
-        <v>6.4</v>
+        <v>6.25</v>
       </c>
       <c r="BF170">
-        <v>2.02</v>
+        <v>2.33</v>
       </c>
       <c r="BG170">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="BH170">
-        <v>3.25</v>
+        <v>2.83</v>
       </c>
       <c r="BI170">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="BJ170">
-        <v>2.36</v>
+        <v>2.1</v>
       </c>
       <c r="BK170">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="BL170">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="BM170">
-        <v>2.39</v>
+        <v>2.73</v>
       </c>
       <c r="BN170">
-        <v>1.51</v>
+        <v>1.4</v>
       </c>
       <c r="BO170">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="BP170">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="171" spans="1:68">
@@ -36276,7 +36276,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>7728365</v>
+        <v>7728368</v>
       </c>
       <c r="C171" t="s">
         <v>68</v>
@@ -36285,61 +36285,61 @@
         <v>69</v>
       </c>
       <c r="E171" s="2">
-        <v>45620.41666666666</v>
+        <v>45620.51041666666</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G171" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H171" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171">
         <v>0</v>
       </c>
       <c r="K171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M171">
         <v>1</v>
       </c>
       <c r="N171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O171" t="s">
-        <v>211</v>
+        <v>132</v>
       </c>
       <c r="P171" t="s">
-        <v>288</v>
+        <v>110</v>
       </c>
       <c r="Q171">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="R171">
         <v>2.05</v>
       </c>
       <c r="S171">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T171">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U171">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V171">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W171">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X171">
         <v>10</v>
@@ -36348,37 +36348,37 @@
         <v>1.06</v>
       </c>
       <c r="Z171">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="AA171">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="AB171">
-        <v>3.55</v>
+        <v>2.96</v>
       </c>
       <c r="AC171">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AD171">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE171">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AF171">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AG171">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="AH171">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="AI171">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AJ171">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AK171">
         <v>1.28</v>
@@ -36387,94 +36387,94 @@
         <v>1.28</v>
       </c>
       <c r="AM171">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="AN171">
+        <v>1.14</v>
+      </c>
+      <c r="AO171">
         <v>1.29</v>
       </c>
-      <c r="AO171">
-        <v>0.29</v>
-      </c>
       <c r="AP171">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="AQ171">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="AR171">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AS171">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="AT171">
-        <v>2.81</v>
+        <v>2.69</v>
       </c>
       <c r="AU171">
         <v>4</v>
       </c>
       <c r="AV171">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW171">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AX171">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY171">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AZ171">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA171">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BB171">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BC171">
         <v>9</v>
       </c>
       <c r="BD171">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="BE171">
         <v>6.4</v>
       </c>
       <c r="BF171">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="BG171">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="BH171">
-        <v>2.7</v>
+        <v>3.58</v>
       </c>
       <c r="BI171">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="BJ171">
-        <v>2.07</v>
+        <v>2.55</v>
       </c>
       <c r="BK171">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="BL171">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="BM171">
-        <v>2.63</v>
+        <v>2.21</v>
       </c>
       <c r="BN171">
-        <v>1.4</v>
+        <v>1.59</v>
       </c>
       <c r="BO171">
-        <v>3.45</v>
+        <v>2.9</v>
       </c>
       <c r="BP171">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="172" spans="1:68">
@@ -36482,7 +36482,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>7728368</v>
+        <v>7728374</v>
       </c>
       <c r="C172" t="s">
         <v>68</v>
@@ -36491,16 +36491,16 @@
         <v>69</v>
       </c>
       <c r="E172" s="2">
-        <v>45620.51041666666</v>
+        <v>45620.60416666666</v>
       </c>
       <c r="F172">
         <v>16</v>
       </c>
       <c r="G172" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H172" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -36521,19 +36521,19 @@
         <v>2</v>
       </c>
       <c r="O172" t="s">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="P172" t="s">
-        <v>110</v>
+        <v>288</v>
       </c>
       <c r="Q172">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="R172">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S172">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="T172">
         <v>1.44</v>
@@ -36542,25 +36542,25 @@
         <v>2.63</v>
       </c>
       <c r="V172">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W172">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X172">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y172">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="Z172">
-        <v>2.08</v>
+        <v>2.52</v>
       </c>
       <c r="AA172">
-        <v>2.85</v>
+        <v>3.06</v>
       </c>
       <c r="AB172">
-        <v>2.96</v>
+        <v>2.52</v>
       </c>
       <c r="AC172">
         <v>1.07</v>
@@ -36569,118 +36569,118 @@
         <v>8</v>
       </c>
       <c r="AE172">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AF172">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AG172">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="AH172">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="AI172">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AJ172">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AK172">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
       <c r="AL172">
         <v>1.28</v>
       </c>
       <c r="AM172">
-        <v>1.7</v>
+        <v>1.47</v>
       </c>
       <c r="AN172">
-        <v>1.14</v>
+        <v>1.71</v>
       </c>
       <c r="AO172">
-        <v>1.29</v>
+        <v>1.86</v>
       </c>
       <c r="AP172">
-        <v>1.13</v>
+        <v>1.63</v>
       </c>
       <c r="AQ172">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AR172">
-        <v>1.57</v>
+        <v>1.15</v>
       </c>
       <c r="AS172">
-        <v>1.12</v>
+        <v>1.31</v>
       </c>
       <c r="AT172">
-        <v>2.69</v>
+        <v>2.46</v>
       </c>
       <c r="AU172">
         <v>4</v>
       </c>
       <c r="AV172">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW172">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AX172">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AY172">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AZ172">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="BA172">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB172">
         <v>8</v>
       </c>
       <c r="BC172">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD172">
-        <v>1.65</v>
+        <v>1.86</v>
       </c>
       <c r="BE172">
         <v>6.4</v>
       </c>
       <c r="BF172">
-        <v>2.4</v>
+        <v>2.02</v>
       </c>
       <c r="BG172">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="BH172">
-        <v>3.58</v>
+        <v>3.25</v>
       </c>
       <c r="BI172">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="BJ172">
-        <v>2.55</v>
+        <v>2.36</v>
       </c>
       <c r="BK172">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="BL172">
-        <v>1.96</v>
+        <v>1.83</v>
       </c>
       <c r="BM172">
-        <v>2.21</v>
+        <v>2.39</v>
       </c>
       <c r="BN172">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="BO172">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="BP172">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="173" spans="1:68">
@@ -36688,7 +36688,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>7728375</v>
+        <v>7728369</v>
       </c>
       <c r="C173" t="s">
         <v>68</v>
@@ -36697,43 +36697,43 @@
         <v>69</v>
       </c>
       <c r="E173" s="2">
-        <v>45620.51041666666</v>
+        <v>45620.70833333334</v>
       </c>
       <c r="F173">
         <v>16</v>
       </c>
       <c r="G173" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H173" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J173">
         <v>0</v>
       </c>
       <c r="K173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L173">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M173">
         <v>0</v>
       </c>
       <c r="N173">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O173" t="s">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="P173" t="s">
         <v>94</v>
       </c>
       <c r="Q173">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="R173">
         <v>1.91</v>
@@ -36760,28 +36760,28 @@
         <v>1.04</v>
       </c>
       <c r="Z173">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="AA173">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="AB173">
-        <v>3.38</v>
+        <v>3.24</v>
       </c>
       <c r="AC173">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="AD173">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE173">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AF173">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AG173">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AH173">
         <v>1.49</v>
@@ -36793,64 +36793,64 @@
         <v>1.62</v>
       </c>
       <c r="AK173">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AL173">
         <v>1.3</v>
       </c>
       <c r="AM173">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="AN173">
-        <v>2.13</v>
+        <v>1.75</v>
       </c>
       <c r="AO173">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AP173">
-        <v>2.22</v>
+        <v>1.89</v>
       </c>
       <c r="AQ173">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR173">
-        <v>1.18</v>
+        <v>1.44</v>
       </c>
       <c r="AS173">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AT173">
-        <v>2.33</v>
+        <v>2.54</v>
       </c>
       <c r="AU173">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AV173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW173">
+        <v>11</v>
+      </c>
+      <c r="AX173">
         <v>6</v>
       </c>
-      <c r="AX173">
-        <v>7</v>
-      </c>
       <c r="AY173">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AZ173">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BA173">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB173">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BC173">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BD173">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="BE173">
         <v>6.25</v>
@@ -36859,34 +36859,34 @@
         <v>2.33</v>
       </c>
       <c r="BG173">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="BH173">
-        <v>2.83</v>
+        <v>2.98</v>
       </c>
       <c r="BI173">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="BJ173">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
       <c r="BK173">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="BL173">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="BM173">
-        <v>2.73</v>
+        <v>2.6</v>
       </c>
       <c r="BN173">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="BO173">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="BP173">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="174" spans="1:68">
@@ -37100,7 +37100,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>7481490</v>
+        <v>7481493</v>
       </c>
       <c r="C175" t="s">
         <v>68</v>
@@ -37109,196 +37109,196 @@
         <v>69</v>
       </c>
       <c r="E175" s="2">
-        <v>45623.625</v>
+        <v>45622.875</v>
       </c>
       <c r="F175">
         <v>13</v>
       </c>
       <c r="G175" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H175" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K175">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L175">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N175">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O175" t="s">
-        <v>94</v>
+        <v>213</v>
       </c>
       <c r="P175" t="s">
-        <v>94</v>
+        <v>289</v>
       </c>
       <c r="Q175">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="R175">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="S175">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="T175">
+        <v>1.42</v>
+      </c>
+      <c r="U175">
+        <v>2.62</v>
+      </c>
+      <c r="V175">
+        <v>2.95</v>
+      </c>
+      <c r="W175">
+        <v>1.35</v>
+      </c>
+      <c r="X175">
+        <v>7.6</v>
+      </c>
+      <c r="Y175">
+        <v>1.05</v>
+      </c>
+      <c r="Z175">
+        <v>1.79</v>
+      </c>
+      <c r="AA175">
+        <v>3.7</v>
+      </c>
+      <c r="AB175">
+        <v>4.45</v>
+      </c>
+      <c r="AC175">
+        <v>1.01</v>
+      </c>
+      <c r="AD175">
+        <v>7.7</v>
+      </c>
+      <c r="AE175">
         <v>1.36</v>
       </c>
-      <c r="U175">
-        <v>2.9</v>
-      </c>
-      <c r="V175">
-        <v>2.7</v>
-      </c>
-      <c r="W175">
-        <v>1.4</v>
-      </c>
-      <c r="X175">
-        <v>6.4</v>
-      </c>
-      <c r="Y175">
-        <v>1.08</v>
-      </c>
-      <c r="Z175">
-        <v>1.63</v>
-      </c>
-      <c r="AA175">
-        <v>4.15</v>
-      </c>
-      <c r="AB175">
-        <v>5</v>
-      </c>
-      <c r="AC175">
-        <v>1.05</v>
-      </c>
-      <c r="AD175">
-        <v>9.5</v>
-      </c>
-      <c r="AE175">
-        <v>1.28</v>
-      </c>
       <c r="AF175">
-        <v>3.65</v>
+        <v>3.17</v>
       </c>
       <c r="AG175">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="AH175">
-        <v>1.99</v>
+        <v>1.81</v>
       </c>
       <c r="AI175">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="AJ175">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AK175">
         <v>1.15</v>
       </c>
       <c r="AL175">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AM175">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AN175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO175">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AP175">
-        <v>1</v>
+        <v>2.14</v>
       </c>
       <c r="AQ175">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR175">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="AS175">
-        <v>0.86</v>
+        <v>1.06</v>
       </c>
       <c r="AT175">
-        <v>2.46</v>
+        <v>2.64</v>
       </c>
       <c r="AU175">
         <v>8</v>
       </c>
       <c r="AV175">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW175">
+        <v>8</v>
+      </c>
+      <c r="AX175">
         <v>5</v>
       </c>
-      <c r="AX175">
+      <c r="AY175">
+        <v>21</v>
+      </c>
+      <c r="AZ175">
+        <v>14</v>
+      </c>
+      <c r="BA175">
         <v>7</v>
       </c>
-      <c r="AY175">
-        <v>17</v>
-      </c>
-      <c r="AZ175">
-        <v>15</v>
-      </c>
-      <c r="BA175">
-        <v>8</v>
-      </c>
       <c r="BB175">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC175">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD175">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
       <c r="BE175">
-        <v>8.35</v>
+        <v>8.5</v>
       </c>
       <c r="BF175">
-        <v>2.89</v>
+        <v>3.5</v>
       </c>
       <c r="BG175">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="BH175">
-        <v>2.83</v>
+        <v>3.15</v>
       </c>
       <c r="BI175">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="BJ175">
-        <v>2.1</v>
+        <v>2.29</v>
       </c>
       <c r="BK175">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="BL175">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="BM175">
-        <v>2.73</v>
+        <v>2.47</v>
       </c>
       <c r="BN175">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="BO175">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="BP175">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="176" spans="1:68">
@@ -37306,7 +37306,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>7481493</v>
+        <v>7481490</v>
       </c>
       <c r="C176" t="s">
         <v>68</v>
@@ -37321,190 +37321,190 @@
         <v>13</v>
       </c>
       <c r="G176" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H176" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K176">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L176">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N176">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O176" t="s">
-        <v>213</v>
+        <v>94</v>
       </c>
       <c r="P176" t="s">
-        <v>289</v>
+        <v>94</v>
       </c>
       <c r="Q176">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="R176">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="S176">
+        <v>4.75</v>
+      </c>
+      <c r="T176">
+        <v>1.36</v>
+      </c>
+      <c r="U176">
+        <v>2.9</v>
+      </c>
+      <c r="V176">
+        <v>2.7</v>
+      </c>
+      <c r="W176">
+        <v>1.4</v>
+      </c>
+      <c r="X176">
+        <v>6.4</v>
+      </c>
+      <c r="Y176">
+        <v>1.08</v>
+      </c>
+      <c r="Z176">
+        <v>1.63</v>
+      </c>
+      <c r="AA176">
+        <v>4.15</v>
+      </c>
+      <c r="AB176">
         <v>5</v>
       </c>
-      <c r="T176">
-        <v>1.42</v>
-      </c>
-      <c r="U176">
-        <v>2.62</v>
-      </c>
-      <c r="V176">
-        <v>2.95</v>
-      </c>
-      <c r="W176">
-        <v>1.35</v>
-      </c>
-      <c r="X176">
-        <v>7.6</v>
-      </c>
-      <c r="Y176">
+      <c r="AC176">
         <v>1.05</v>
       </c>
-      <c r="Z176">
-        <v>1.79</v>
-      </c>
-      <c r="AA176">
-        <v>3.7</v>
-      </c>
-      <c r="AB176">
-        <v>4.45</v>
-      </c>
-      <c r="AC176">
-        <v>1.01</v>
-      </c>
       <c r="AD176">
-        <v>7.7</v>
+        <v>9.5</v>
       </c>
       <c r="AE176">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="AF176">
-        <v>3.17</v>
+        <v>3.65</v>
       </c>
       <c r="AG176">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AH176">
-        <v>1.81</v>
+        <v>1.99</v>
       </c>
       <c r="AI176">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AJ176">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AK176">
         <v>1.15</v>
       </c>
       <c r="AL176">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AM176">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AN176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO176">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AP176">
-        <v>2.14</v>
+        <v>1</v>
       </c>
       <c r="AQ176">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="AR176">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="AS176">
-        <v>1.06</v>
+        <v>0.86</v>
       </c>
       <c r="AT176">
-        <v>2.64</v>
+        <v>2.46</v>
       </c>
       <c r="AU176">
         <v>8</v>
       </c>
       <c r="AV176">
+        <v>6</v>
+      </c>
+      <c r="AW176">
         <v>5</v>
       </c>
-      <c r="AW176">
+      <c r="AX176">
+        <v>7</v>
+      </c>
+      <c r="AY176">
+        <v>17</v>
+      </c>
+      <c r="AZ176">
+        <v>15</v>
+      </c>
+      <c r="BA176">
         <v>8</v>
       </c>
-      <c r="AX176">
-        <v>5</v>
-      </c>
-      <c r="AY176">
-        <v>21</v>
-      </c>
-      <c r="AZ176">
-        <v>14</v>
-      </c>
-      <c r="BA176">
-        <v>7</v>
-      </c>
       <c r="BB176">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC176">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD176">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
       <c r="BE176">
-        <v>8.5</v>
+        <v>8.35</v>
       </c>
       <c r="BF176">
-        <v>3.5</v>
+        <v>2.89</v>
       </c>
       <c r="BG176">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="BH176">
-        <v>3.15</v>
+        <v>2.83</v>
       </c>
       <c r="BI176">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="BJ176">
-        <v>2.29</v>
+        <v>2.1</v>
       </c>
       <c r="BK176">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="BL176">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="BM176">
-        <v>2.47</v>
+        <v>2.73</v>
       </c>
       <c r="BN176">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="BO176">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="BP176">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -37241,13 +37241,13 @@
         <v>5</v>
       </c>
       <c r="AW175">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX175">
         <v>5</v>
       </c>
       <c r="AY175">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ175">
         <v>14</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="295">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -658,6 +658,12 @@
     <t>['14', '33', '81', '90+5']</t>
   </si>
   <si>
+    <t>['83', '87']</t>
+  </si>
+  <si>
+    <t>['40', '66']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -884,6 +890,15 @@
   </si>
   <si>
     <t>['16', '41']</t>
+  </si>
+  <si>
+    <t>['15', '48', '81']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['35', '57', '81', '84']</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP176"/>
+  <dimension ref="A1:BP182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1504,7 +1519,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1585,7 +1600,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1916,7 +1931,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1994,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
         <v>1.67</v>
@@ -2534,7 +2549,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2740,7 +2755,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2818,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ8">
         <v>1.56</v>
@@ -2946,7 +2961,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -3358,7 +3373,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3439,7 +3454,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ11">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3564,7 +3579,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3770,7 +3785,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3848,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ13">
         <v>0.63</v>
@@ -3976,7 +3991,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4057,7 +4072,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4469,7 +4484,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR16">
         <v>1.33</v>
@@ -4881,7 +4896,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ18">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5006,7 +5021,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5084,7 +5099,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ19">
         <v>1.56</v>
@@ -5293,7 +5308,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ20">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5624,7 +5639,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5830,7 +5845,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6036,7 +6051,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6117,7 +6132,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ24">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR24">
         <v>2.51</v>
@@ -6242,7 +6257,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6320,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ25">
         <v>2.75</v>
@@ -6448,7 +6463,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6526,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
         <v>0.25</v>
@@ -6732,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ27">
         <v>1.25</v>
@@ -6860,7 +6875,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6941,7 +6956,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR28">
         <v>1.25</v>
@@ -7066,7 +7081,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7478,7 +7493,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q31">
         <v>2.75</v>
@@ -7890,7 +7905,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8302,7 +8317,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8380,7 +8395,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ35">
         <v>2.75</v>
@@ -8508,7 +8523,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8589,7 +8604,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR36">
         <v>2.09</v>
@@ -8920,7 +8935,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9413,7 +9428,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ40">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR40">
         <v>1.37</v>
@@ -10028,10 +10043,10 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ43">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR43">
         <v>0</v>
@@ -10156,7 +10171,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10649,7 +10664,7 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR46">
         <v>1.47</v>
@@ -10774,7 +10789,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11267,7 +11282,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ49">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR49">
         <v>1.38</v>
@@ -11470,7 +11485,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ50">
         <v>1.25</v>
@@ -11679,7 +11694,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR51">
         <v>0.76</v>
@@ -11882,7 +11897,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ52">
         <v>0.75</v>
@@ -12088,7 +12103,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ53">
         <v>0.86</v>
@@ -12422,7 +12437,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12503,7 +12518,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ55">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR55">
         <v>1.39</v>
@@ -12628,7 +12643,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12706,7 +12721,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ56">
         <v>1.75</v>
@@ -12834,7 +12849,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -13040,7 +13055,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13121,7 +13136,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR58">
         <v>1.22</v>
@@ -13246,7 +13261,7 @@
         <v>94</v>
       </c>
       <c r="P59" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13736,7 +13751,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ61">
         <v>1.38</v>
@@ -13942,7 +13957,7 @@
         <v>0.5</v>
       </c>
       <c r="AP62">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ62">
         <v>1.25</v>
@@ -14070,7 +14085,7 @@
         <v>94</v>
       </c>
       <c r="P63" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14276,7 +14291,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14563,7 +14578,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ65">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR65">
         <v>1.25</v>
@@ -14688,7 +14703,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14766,7 +14781,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ66">
         <v>0.63</v>
@@ -15100,7 +15115,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15181,7 +15196,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ68">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR68">
         <v>1.07</v>
@@ -15306,7 +15321,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15384,7 +15399,7 @@
         <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ69">
         <v>0.63</v>
@@ -15593,7 +15608,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ70">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR70">
         <v>1.04</v>
@@ -15924,7 +15939,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16005,7 +16020,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ72">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR72">
         <v>1.35</v>
@@ -16130,7 +16145,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16336,7 +16351,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16417,7 +16432,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ74">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR74">
         <v>1.54</v>
@@ -16542,7 +16557,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -17032,7 +17047,7 @@
         <v>1.67</v>
       </c>
       <c r="AP77">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ77">
         <v>0.63</v>
@@ -17160,7 +17175,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17238,7 +17253,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ78">
         <v>0.75</v>
@@ -17366,7 +17381,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q79">
         <v>3.85</v>
@@ -17653,7 +17668,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ80">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR80">
         <v>1.23</v>
@@ -17778,7 +17793,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q81">
         <v>2.65</v>
@@ -17984,7 +17999,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q82">
         <v>3.55</v>
@@ -18065,7 +18080,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ82">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR82">
         <v>1.07</v>
@@ -18268,7 +18283,7 @@
         <v>2.33</v>
       </c>
       <c r="AP83">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ83">
         <v>0.88</v>
@@ -18396,7 +18411,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18474,7 +18489,7 @@
         <v>3</v>
       </c>
       <c r="AP84">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ84">
         <v>2.75</v>
@@ -18680,7 +18695,7 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ85">
         <v>0.75</v>
@@ -19014,7 +19029,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19426,7 +19441,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19632,7 +19647,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19710,7 +19725,7 @@
         <v>1.4</v>
       </c>
       <c r="AP90">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ90">
         <v>1.67</v>
@@ -20250,7 +20265,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20328,7 +20343,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ93">
         <v>0.88</v>
@@ -20456,7 +20471,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -20537,7 +20552,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ94">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR94">
         <v>1.16</v>
@@ -20662,7 +20677,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20740,7 +20755,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ95">
         <v>1.56</v>
@@ -20946,7 +20961,7 @@
         <v>1.75</v>
       </c>
       <c r="AP96">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ96">
         <v>1.38</v>
@@ -21361,7 +21376,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ98">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR98">
         <v>1.35</v>
@@ -21567,7 +21582,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ99">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR99">
         <v>1.46</v>
@@ -21692,7 +21707,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -21898,7 +21913,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -23134,7 +23149,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23212,7 +23227,7 @@
         <v>3</v>
       </c>
       <c r="AP107">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ107">
         <v>2.75</v>
@@ -23421,7 +23436,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ108">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR108">
         <v>1.17</v>
@@ -23752,7 +23767,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -23830,7 +23845,7 @@
         <v>0.8</v>
       </c>
       <c r="AP110">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ110">
         <v>1.56</v>
@@ -24164,7 +24179,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q112">
         <v>2.45</v>
@@ -24242,10 +24257,10 @@
         <v>1.25</v>
       </c>
       <c r="AP112">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ112">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR112">
         <v>1.61</v>
@@ -24370,7 +24385,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -24451,7 +24466,7 @@
         <v>1</v>
       </c>
       <c r="AQ113">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR113">
         <v>1.63</v>
@@ -24576,7 +24591,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q114">
         <v>3.45</v>
@@ -25069,7 +25084,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ116">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR116">
         <v>1.16</v>
@@ -25272,7 +25287,7 @@
         <v>0.2</v>
       </c>
       <c r="AP117">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ117">
         <v>0.13</v>
@@ -25400,7 +25415,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q118">
         <v>2.8</v>
@@ -25481,7 +25496,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ118">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR118">
         <v>1.68</v>
@@ -25684,10 +25699,10 @@
         <v>1.4</v>
       </c>
       <c r="AP119">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ119">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR119">
         <v>1.69</v>
@@ -25812,7 +25827,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q120">
         <v>2.55</v>
@@ -25893,7 +25908,7 @@
         <v>2</v>
       </c>
       <c r="AQ120">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR120">
         <v>1.6</v>
@@ -26096,7 +26111,7 @@
         <v>1</v>
       </c>
       <c r="AP121">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ121">
         <v>0.88</v>
@@ -26224,7 +26239,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26430,7 +26445,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q123">
         <v>2.4</v>
@@ -26714,7 +26729,7 @@
         <v>1.17</v>
       </c>
       <c r="AP124">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ124">
         <v>0.89</v>
@@ -26842,7 +26857,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q125">
         <v>2.63</v>
@@ -26920,7 +26935,7 @@
         <v>1.8</v>
       </c>
       <c r="AP125">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ125">
         <v>1.75</v>
@@ -27460,7 +27475,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27872,7 +27887,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q130">
         <v>2.75</v>
@@ -28078,7 +28093,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q131">
         <v>3.25</v>
@@ -28284,7 +28299,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28490,7 +28505,7 @@
         <v>106</v>
       </c>
       <c r="P133" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q133">
         <v>3.1</v>
@@ -28696,7 +28711,7 @@
         <v>94</v>
       </c>
       <c r="P134" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q134">
         <v>3.1</v>
@@ -28777,7 +28792,7 @@
         <v>2</v>
       </c>
       <c r="AQ134">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR134">
         <v>1.4</v>
@@ -29108,7 +29123,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q136">
         <v>3.9</v>
@@ -29189,7 +29204,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ136">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR136">
         <v>1.12</v>
@@ -29392,10 +29407,10 @@
         <v>2.2</v>
       </c>
       <c r="AP137">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ137">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR137">
         <v>1.67</v>
@@ -29520,7 +29535,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -29598,10 +29613,10 @@
         <v>1.17</v>
       </c>
       <c r="AP138">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ138">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR138">
         <v>1.52</v>
@@ -29804,7 +29819,7 @@
         <v>1.17</v>
       </c>
       <c r="AP139">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ139">
         <v>0.88</v>
@@ -30010,10 +30025,10 @@
         <v>1</v>
       </c>
       <c r="AP140">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ140">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR140">
         <v>1.34</v>
@@ -30138,7 +30153,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q141">
         <v>2.62</v>
@@ -30344,7 +30359,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q142">
         <v>3.6</v>
@@ -30550,7 +30565,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q143">
         <v>3.75</v>
@@ -30756,7 +30771,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31168,7 +31183,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q146">
         <v>2.75</v>
@@ -31374,7 +31389,7 @@
         <v>98</v>
       </c>
       <c r="P147" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q147">
         <v>3.65</v>
@@ -31580,7 +31595,7 @@
         <v>94</v>
       </c>
       <c r="P148" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -32485,7 +32500,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ152">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR152">
         <v>1.54</v>
@@ -32610,7 +32625,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q153">
         <v>2.3</v>
@@ -32691,7 +32706,7 @@
         <v>1</v>
       </c>
       <c r="AQ153">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR153">
         <v>1.58</v>
@@ -32894,7 +32909,7 @@
         <v>1</v>
       </c>
       <c r="AP154">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ154">
         <v>0.88</v>
@@ -33022,7 +33037,7 @@
         <v>199</v>
       </c>
       <c r="P155" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33103,7 +33118,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ155">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR155">
         <v>1.67</v>
@@ -33228,7 +33243,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -33309,7 +33324,7 @@
         <v>2</v>
       </c>
       <c r="AQ156">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR156">
         <v>1.44</v>
@@ -33512,7 +33527,7 @@
         <v>0.33</v>
       </c>
       <c r="AP157">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ157">
         <v>0.25</v>
@@ -33718,7 +33733,7 @@
         <v>0.17</v>
       </c>
       <c r="AP158">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ158">
         <v>0.13</v>
@@ -33927,7 +33942,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ159">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR159">
         <v>1.21</v>
@@ -34130,10 +34145,10 @@
         <v>1.14</v>
       </c>
       <c r="AP160">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ160">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR160">
         <v>1.75</v>
@@ -34336,7 +34351,7 @@
         <v>1</v>
       </c>
       <c r="AP161">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ161">
         <v>0.88</v>
@@ -34545,7 +34560,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ162">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR162">
         <v>1.47</v>
@@ -34876,7 +34891,7 @@
         <v>206</v>
       </c>
       <c r="P164" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q164">
         <v>4.75</v>
@@ -35494,7 +35509,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35906,7 +35921,7 @@
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q169">
         <v>2.88</v>
@@ -36524,7 +36539,7 @@
         <v>210</v>
       </c>
       <c r="P172" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -37014,7 +37029,7 @@
         <v>0.14</v>
       </c>
       <c r="AP174">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ174">
         <v>0.13</v>
@@ -37100,7 +37115,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>7481493</v>
+        <v>7481490</v>
       </c>
       <c r="C175" t="s">
         <v>68</v>
@@ -37109,196 +37124,196 @@
         <v>69</v>
       </c>
       <c r="E175" s="2">
-        <v>45622.875</v>
+        <v>45623.625</v>
       </c>
       <c r="F175">
         <v>13</v>
       </c>
       <c r="G175" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H175" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K175">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L175">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N175">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O175" t="s">
-        <v>213</v>
+        <v>94</v>
       </c>
       <c r="P175" t="s">
-        <v>289</v>
+        <v>94</v>
       </c>
       <c r="Q175">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="R175">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="S175">
+        <v>4.75</v>
+      </c>
+      <c r="T175">
+        <v>1.36</v>
+      </c>
+      <c r="U175">
+        <v>2.9</v>
+      </c>
+      <c r="V175">
+        <v>2.7</v>
+      </c>
+      <c r="W175">
+        <v>1.4</v>
+      </c>
+      <c r="X175">
+        <v>6.4</v>
+      </c>
+      <c r="Y175">
+        <v>1.08</v>
+      </c>
+      <c r="Z175">
+        <v>1.63</v>
+      </c>
+      <c r="AA175">
+        <v>4.15</v>
+      </c>
+      <c r="AB175">
         <v>5</v>
       </c>
-      <c r="T175">
-        <v>1.42</v>
-      </c>
-      <c r="U175">
-        <v>2.62</v>
-      </c>
-      <c r="V175">
-        <v>2.95</v>
-      </c>
-      <c r="W175">
-        <v>1.35</v>
-      </c>
-      <c r="X175">
-        <v>7.6</v>
-      </c>
-      <c r="Y175">
+      <c r="AC175">
         <v>1.05</v>
       </c>
-      <c r="Z175">
-        <v>1.79</v>
-      </c>
-      <c r="AA175">
-        <v>3.7</v>
-      </c>
-      <c r="AB175">
-        <v>4.45</v>
-      </c>
-      <c r="AC175">
-        <v>1.01</v>
-      </c>
       <c r="AD175">
-        <v>7.7</v>
+        <v>9.5</v>
       </c>
       <c r="AE175">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="AF175">
-        <v>3.17</v>
+        <v>3.65</v>
       </c>
       <c r="AG175">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AH175">
-        <v>1.81</v>
+        <v>1.99</v>
       </c>
       <c r="AI175">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AJ175">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AK175">
         <v>1.15</v>
       </c>
       <c r="AL175">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AM175">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AN175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO175">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AP175">
-        <v>2.14</v>
+        <v>1</v>
       </c>
       <c r="AQ175">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="AR175">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="AS175">
-        <v>1.06</v>
+        <v>0.86</v>
       </c>
       <c r="AT175">
-        <v>2.64</v>
+        <v>2.46</v>
       </c>
       <c r="AU175">
         <v>8</v>
       </c>
       <c r="AV175">
+        <v>6</v>
+      </c>
+      <c r="AW175">
         <v>5</v>
       </c>
-      <c r="AW175">
-        <v>9</v>
-      </c>
       <c r="AX175">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY175">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AZ175">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA175">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB175">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC175">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD175">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
       <c r="BE175">
-        <v>8.5</v>
+        <v>8.35</v>
       </c>
       <c r="BF175">
-        <v>3.5</v>
+        <v>2.89</v>
       </c>
       <c r="BG175">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="BH175">
-        <v>3.15</v>
+        <v>2.83</v>
       </c>
       <c r="BI175">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="BJ175">
-        <v>2.29</v>
+        <v>2.1</v>
       </c>
       <c r="BK175">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="BL175">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="BM175">
-        <v>2.47</v>
+        <v>2.73</v>
       </c>
       <c r="BN175">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="BO175">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="BP175">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="176" spans="1:68">
@@ -37306,7 +37321,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>7481490</v>
+        <v>7481493</v>
       </c>
       <c r="C176" t="s">
         <v>68</v>
@@ -37321,190 +37336,1426 @@
         <v>13</v>
       </c>
       <c r="G176" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H176" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K176">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L176">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N176">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O176" t="s">
-        <v>94</v>
+        <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>94</v>
+        <v>291</v>
       </c>
       <c r="Q176">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="R176">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="S176">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="T176">
+        <v>1.42</v>
+      </c>
+      <c r="U176">
+        <v>2.62</v>
+      </c>
+      <c r="V176">
+        <v>2.95</v>
+      </c>
+      <c r="W176">
+        <v>1.35</v>
+      </c>
+      <c r="X176">
+        <v>7.6</v>
+      </c>
+      <c r="Y176">
+        <v>1.05</v>
+      </c>
+      <c r="Z176">
+        <v>1.79</v>
+      </c>
+      <c r="AA176">
+        <v>3.7</v>
+      </c>
+      <c r="AB176">
+        <v>4.45</v>
+      </c>
+      <c r="AC176">
+        <v>1.01</v>
+      </c>
+      <c r="AD176">
+        <v>7.7</v>
+      </c>
+      <c r="AE176">
         <v>1.36</v>
       </c>
-      <c r="U176">
-        <v>2.9</v>
-      </c>
-      <c r="V176">
-        <v>2.7</v>
-      </c>
-      <c r="W176">
-        <v>1.4</v>
-      </c>
-      <c r="X176">
-        <v>6.4</v>
-      </c>
-      <c r="Y176">
-        <v>1.08</v>
-      </c>
-      <c r="Z176">
-        <v>1.63</v>
-      </c>
-      <c r="AA176">
-        <v>4.15</v>
-      </c>
-      <c r="AB176">
-        <v>5</v>
-      </c>
-      <c r="AC176">
-        <v>1.05</v>
-      </c>
-      <c r="AD176">
-        <v>9.5</v>
-      </c>
-      <c r="AE176">
-        <v>1.28</v>
-      </c>
       <c r="AF176">
-        <v>3.65</v>
+        <v>3.17</v>
       </c>
       <c r="AG176">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="AH176">
-        <v>1.99</v>
+        <v>1.81</v>
       </c>
       <c r="AI176">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="AJ176">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AK176">
         <v>1.15</v>
       </c>
       <c r="AL176">
+        <v>1.22</v>
+      </c>
+      <c r="AM176">
+        <v>2.1</v>
+      </c>
+      <c r="AN176">
+        <v>2</v>
+      </c>
+      <c r="AO176">
+        <v>1</v>
+      </c>
+      <c r="AP176">
+        <v>2.14</v>
+      </c>
+      <c r="AQ176">
+        <v>0.88</v>
+      </c>
+      <c r="AR176">
+        <v>1.58</v>
+      </c>
+      <c r="AS176">
+        <v>1.06</v>
+      </c>
+      <c r="AT176">
+        <v>2.64</v>
+      </c>
+      <c r="AU176">
+        <v>-1</v>
+      </c>
+      <c r="AV176">
+        <v>-1</v>
+      </c>
+      <c r="AW176">
+        <v>-1</v>
+      </c>
+      <c r="AX176">
+        <v>-1</v>
+      </c>
+      <c r="AY176">
+        <v>-1</v>
+      </c>
+      <c r="AZ176">
+        <v>-1</v>
+      </c>
+      <c r="BA176">
+        <v>7</v>
+      </c>
+      <c r="BB176">
+        <v>3</v>
+      </c>
+      <c r="BC176">
+        <v>10</v>
+      </c>
+      <c r="BD176">
+        <v>1.41</v>
+      </c>
+      <c r="BE176">
+        <v>8.5</v>
+      </c>
+      <c r="BF176">
+        <v>3.5</v>
+      </c>
+      <c r="BG176">
+        <v>1.31</v>
+      </c>
+      <c r="BH176">
+        <v>3.15</v>
+      </c>
+      <c r="BI176">
+        <v>1.55</v>
+      </c>
+      <c r="BJ176">
+        <v>2.29</v>
+      </c>
+      <c r="BK176">
+        <v>1.92</v>
+      </c>
+      <c r="BL176">
+        <v>1.79</v>
+      </c>
+      <c r="BM176">
+        <v>2.47</v>
+      </c>
+      <c r="BN176">
+        <v>1.48</v>
+      </c>
+      <c r="BO176">
+        <v>3.3</v>
+      </c>
+      <c r="BP176">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7728385</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45625.6875</v>
+      </c>
+      <c r="F177">
+        <v>17</v>
+      </c>
+      <c r="G177" t="s">
+        <v>89</v>
+      </c>
+      <c r="H177" t="s">
+        <v>81</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>3</v>
+      </c>
+      <c r="N177">
+        <v>3</v>
+      </c>
+      <c r="O177" t="s">
+        <v>94</v>
+      </c>
+      <c r="P177" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q177">
+        <v>2.5</v>
+      </c>
+      <c r="R177">
+        <v>1.95</v>
+      </c>
+      <c r="S177">
+        <v>6</v>
+      </c>
+      <c r="T177">
+        <v>1.57</v>
+      </c>
+      <c r="U177">
+        <v>2.25</v>
+      </c>
+      <c r="V177">
+        <v>3.75</v>
+      </c>
+      <c r="W177">
+        <v>1.25</v>
+      </c>
+      <c r="X177">
+        <v>11</v>
+      </c>
+      <c r="Y177">
+        <v>1.05</v>
+      </c>
+      <c r="Z177">
+        <v>1.75</v>
+      </c>
+      <c r="AA177">
+        <v>3.35</v>
+      </c>
+      <c r="AB177">
+        <v>5.4</v>
+      </c>
+      <c r="AC177">
+        <v>1.09</v>
+      </c>
+      <c r="AD177">
+        <v>7</v>
+      </c>
+      <c r="AE177">
+        <v>1.53</v>
+      </c>
+      <c r="AF177">
+        <v>2.37</v>
+      </c>
+      <c r="AG177">
+        <v>2.6</v>
+      </c>
+      <c r="AH177">
+        <v>1.44</v>
+      </c>
+      <c r="AI177">
+        <v>2.38</v>
+      </c>
+      <c r="AJ177">
+        <v>1.53</v>
+      </c>
+      <c r="AK177">
+        <v>1.12</v>
+      </c>
+      <c r="AL177">
+        <v>1.25</v>
+      </c>
+      <c r="AM177">
+        <v>2.05</v>
+      </c>
+      <c r="AN177">
+        <v>2.57</v>
+      </c>
+      <c r="AO177">
+        <v>0.88</v>
+      </c>
+      <c r="AP177">
+        <v>2.25</v>
+      </c>
+      <c r="AQ177">
+        <v>1.11</v>
+      </c>
+      <c r="AR177">
+        <v>1.68</v>
+      </c>
+      <c r="AS177">
+        <v>1.12</v>
+      </c>
+      <c r="AT177">
+        <v>2.8</v>
+      </c>
+      <c r="AU177">
+        <v>5</v>
+      </c>
+      <c r="AV177">
+        <v>9</v>
+      </c>
+      <c r="AW177">
+        <v>12</v>
+      </c>
+      <c r="AX177">
+        <v>1</v>
+      </c>
+      <c r="AY177">
+        <v>19</v>
+      </c>
+      <c r="AZ177">
+        <v>13</v>
+      </c>
+      <c r="BA177">
+        <v>3</v>
+      </c>
+      <c r="BB177">
+        <v>4</v>
+      </c>
+      <c r="BC177">
+        <v>7</v>
+      </c>
+      <c r="BD177">
+        <v>1.41</v>
+      </c>
+      <c r="BE177">
+        <v>6.75</v>
+      </c>
+      <c r="BF177">
+        <v>3.05</v>
+      </c>
+      <c r="BG177">
+        <v>1.44</v>
+      </c>
+      <c r="BH177">
+        <v>2.5</v>
+      </c>
+      <c r="BI177">
+        <v>1.76</v>
+      </c>
+      <c r="BJ177">
+        <v>1.91</v>
+      </c>
+      <c r="BK177">
+        <v>2.23</v>
+      </c>
+      <c r="BL177">
+        <v>1.56</v>
+      </c>
+      <c r="BM177">
+        <v>2.9</v>
+      </c>
+      <c r="BN177">
+        <v>1.34</v>
+      </c>
+      <c r="BO177">
+        <v>3.8</v>
+      </c>
+      <c r="BP177">
         <v>1.2</v>
       </c>
-      <c r="AM176">
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7728380</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45626.51041666666</v>
+      </c>
+      <c r="F178">
+        <v>17</v>
+      </c>
+      <c r="G178" t="s">
+        <v>91</v>
+      </c>
+      <c r="H178" t="s">
+        <v>85</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>1</v>
+      </c>
+      <c r="O178" t="s">
+        <v>94</v>
+      </c>
+      <c r="P178" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q178">
+        <v>2.38</v>
+      </c>
+      <c r="R178">
+        <v>2.1</v>
+      </c>
+      <c r="S178">
+        <v>4.5</v>
+      </c>
+      <c r="T178">
+        <v>1.42</v>
+      </c>
+      <c r="U178">
+        <v>2.65</v>
+      </c>
+      <c r="V178">
+        <v>2.88</v>
+      </c>
+      <c r="W178">
+        <v>1.36</v>
+      </c>
+      <c r="X178">
+        <v>8</v>
+      </c>
+      <c r="Y178">
+        <v>1.04</v>
+      </c>
+      <c r="Z178">
+        <v>1.83</v>
+      </c>
+      <c r="AA178">
+        <v>3.5</v>
+      </c>
+      <c r="AB178">
+        <v>3.8</v>
+      </c>
+      <c r="AC178">
+        <v>1.06</v>
+      </c>
+      <c r="AD178">
+        <v>8.5</v>
+      </c>
+      <c r="AE178">
+        <v>1.33</v>
+      </c>
+      <c r="AF178">
+        <v>3.25</v>
+      </c>
+      <c r="AG178">
+        <v>1.95</v>
+      </c>
+      <c r="AH178">
+        <v>1.73</v>
+      </c>
+      <c r="AI178">
+        <v>1.83</v>
+      </c>
+      <c r="AJ178">
+        <v>1.85</v>
+      </c>
+      <c r="AK178">
+        <v>1.2</v>
+      </c>
+      <c r="AL178">
+        <v>1.25</v>
+      </c>
+      <c r="AM178">
+        <v>1.95</v>
+      </c>
+      <c r="AN178">
+        <v>1.43</v>
+      </c>
+      <c r="AO178">
+        <v>1</v>
+      </c>
+      <c r="AP178">
+        <v>1.25</v>
+      </c>
+      <c r="AQ178">
+        <v>1.22</v>
+      </c>
+      <c r="AR178">
+        <v>1.71</v>
+      </c>
+      <c r="AS178">
+        <v>1.36</v>
+      </c>
+      <c r="AT178">
+        <v>3.07</v>
+      </c>
+      <c r="AU178">
+        <v>3</v>
+      </c>
+      <c r="AV178">
+        <v>3</v>
+      </c>
+      <c r="AW178">
+        <v>10</v>
+      </c>
+      <c r="AX178">
+        <v>5</v>
+      </c>
+      <c r="AY178">
+        <v>18</v>
+      </c>
+      <c r="AZ178">
+        <v>8</v>
+      </c>
+      <c r="BA178">
+        <v>6</v>
+      </c>
+      <c r="BB178">
+        <v>1</v>
+      </c>
+      <c r="BC178">
+        <v>7</v>
+      </c>
+      <c r="BD178">
+        <v>1.54</v>
+      </c>
+      <c r="BE178">
+        <v>6.1</v>
+      </c>
+      <c r="BF178">
+        <v>2.65</v>
+      </c>
+      <c r="BG178">
+        <v>1.45</v>
+      </c>
+      <c r="BH178">
+        <v>2.48</v>
+      </c>
+      <c r="BI178">
+        <v>1.76</v>
+      </c>
+      <c r="BJ178">
+        <v>1.9</v>
+      </c>
+      <c r="BK178">
+        <v>2.23</v>
+      </c>
+      <c r="BL178">
+        <v>1.56</v>
+      </c>
+      <c r="BM178">
+        <v>2.9</v>
+      </c>
+      <c r="BN178">
+        <v>1.34</v>
+      </c>
+      <c r="BO178">
+        <v>3.9</v>
+      </c>
+      <c r="BP178">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7728376</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45626.51041666666</v>
+      </c>
+      <c r="F179">
+        <v>17</v>
+      </c>
+      <c r="G179" t="s">
+        <v>90</v>
+      </c>
+      <c r="H179" t="s">
+        <v>70</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>2</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+      <c r="N179">
+        <v>3</v>
+      </c>
+      <c r="O179" t="s">
+        <v>214</v>
+      </c>
+      <c r="P179" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q179">
+        <v>2.4</v>
+      </c>
+      <c r="R179">
+        <v>2.15</v>
+      </c>
+      <c r="S179">
+        <v>4.2</v>
+      </c>
+      <c r="T179">
+        <v>1.35</v>
+      </c>
+      <c r="U179">
+        <v>2.95</v>
+      </c>
+      <c r="V179">
+        <v>2.55</v>
+      </c>
+      <c r="W179">
+        <v>1.45</v>
+      </c>
+      <c r="X179">
+        <v>6.4</v>
+      </c>
+      <c r="Y179">
+        <v>1.08</v>
+      </c>
+      <c r="Z179">
+        <v>1.85</v>
+      </c>
+      <c r="AA179">
+        <v>3.5</v>
+      </c>
+      <c r="AB179">
+        <v>3.7</v>
+      </c>
+      <c r="AC179">
+        <v>1.05</v>
+      </c>
+      <c r="AD179">
+        <v>9.5</v>
+      </c>
+      <c r="AE179">
+        <v>1.25</v>
+      </c>
+      <c r="AF179">
+        <v>3.75</v>
+      </c>
+      <c r="AG179">
+        <v>1.75</v>
+      </c>
+      <c r="AH179">
+        <v>1.95</v>
+      </c>
+      <c r="AI179">
+        <v>1.67</v>
+      </c>
+      <c r="AJ179">
+        <v>2.05</v>
+      </c>
+      <c r="AK179">
+        <v>1.25</v>
+      </c>
+      <c r="AL179">
+        <v>1.22</v>
+      </c>
+      <c r="AM179">
+        <v>1.9</v>
+      </c>
+      <c r="AN179">
+        <v>2</v>
+      </c>
+      <c r="AO179">
+        <v>2</v>
+      </c>
+      <c r="AP179">
+        <v>2.13</v>
+      </c>
+      <c r="AQ179">
+        <v>1.75</v>
+      </c>
+      <c r="AR179">
+        <v>1.71</v>
+      </c>
+      <c r="AS179">
+        <v>1.16</v>
+      </c>
+      <c r="AT179">
+        <v>2.87</v>
+      </c>
+      <c r="AU179">
+        <v>8</v>
+      </c>
+      <c r="AV179">
+        <v>6</v>
+      </c>
+      <c r="AW179">
+        <v>9</v>
+      </c>
+      <c r="AX179">
+        <v>3</v>
+      </c>
+      <c r="AY179">
+        <v>20</v>
+      </c>
+      <c r="AZ179">
+        <v>9</v>
+      </c>
+      <c r="BA179">
+        <v>7</v>
+      </c>
+      <c r="BB179">
+        <v>1</v>
+      </c>
+      <c r="BC179">
+        <v>8</v>
+      </c>
+      <c r="BD179">
+        <v>1.6</v>
+      </c>
+      <c r="BE179">
+        <v>6.1</v>
+      </c>
+      <c r="BF179">
+        <v>2.45</v>
+      </c>
+      <c r="BG179">
+        <v>1.38</v>
+      </c>
+      <c r="BH179">
+        <v>2.7</v>
+      </c>
+      <c r="BI179">
+        <v>1.64</v>
+      </c>
+      <c r="BJ179">
+        <v>2.08</v>
+      </c>
+      <c r="BK179">
+        <v>2.02</v>
+      </c>
+      <c r="BL179">
+        <v>1.67</v>
+      </c>
+      <c r="BM179">
+        <v>2.63</v>
+      </c>
+      <c r="BN179">
+        <v>1.41</v>
+      </c>
+      <c r="BO179">
+        <v>3.45</v>
+      </c>
+      <c r="BP179">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7728386</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45626.60416666666</v>
+      </c>
+      <c r="F180">
+        <v>17</v>
+      </c>
+      <c r="G180" t="s">
+        <v>76</v>
+      </c>
+      <c r="H180" t="s">
+        <v>71</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <v>1</v>
+      </c>
+      <c r="O180" t="s">
+        <v>94</v>
+      </c>
+      <c r="P180" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q180">
+        <v>2.3</v>
+      </c>
+      <c r="R180">
+        <v>2.05</v>
+      </c>
+      <c r="S180">
+        <v>5</v>
+      </c>
+      <c r="T180">
+        <v>1.44</v>
+      </c>
+      <c r="U180">
+        <v>2.6</v>
+      </c>
+      <c r="V180">
+        <v>3</v>
+      </c>
+      <c r="W180">
+        <v>1.33</v>
+      </c>
+      <c r="X180">
+        <v>8</v>
+      </c>
+      <c r="Y180">
+        <v>1.04</v>
+      </c>
+      <c r="Z180">
+        <v>1.67</v>
+      </c>
+      <c r="AA180">
+        <v>3.22</v>
+      </c>
+      <c r="AB180">
+        <v>4.15</v>
+      </c>
+      <c r="AC180">
+        <v>1.07</v>
+      </c>
+      <c r="AD180">
+        <v>8</v>
+      </c>
+      <c r="AE180">
+        <v>1.36</v>
+      </c>
+      <c r="AF180">
+        <v>3.1</v>
+      </c>
+      <c r="AG180">
+        <v>1.93</v>
+      </c>
+      <c r="AH180">
+        <v>1.88</v>
+      </c>
+      <c r="AI180">
+        <v>1.95</v>
+      </c>
+      <c r="AJ180">
+        <v>1.73</v>
+      </c>
+      <c r="AK180">
+        <v>1.15</v>
+      </c>
+      <c r="AL180">
+        <v>1.22</v>
+      </c>
+      <c r="AM180">
+        <v>2.1</v>
+      </c>
+      <c r="AN180">
+        <v>1.88</v>
+      </c>
+      <c r="AO180">
+        <v>1.14</v>
+      </c>
+      <c r="AP180">
+        <v>1.67</v>
+      </c>
+      <c r="AQ180">
+        <v>1.38</v>
+      </c>
+      <c r="AR180">
+        <v>1.48</v>
+      </c>
+      <c r="AS180">
+        <v>1.06</v>
+      </c>
+      <c r="AT180">
+        <v>2.54</v>
+      </c>
+      <c r="AU180">
+        <v>3</v>
+      </c>
+      <c r="AV180">
+        <v>5</v>
+      </c>
+      <c r="AW180">
+        <v>8</v>
+      </c>
+      <c r="AX180">
+        <v>4</v>
+      </c>
+      <c r="AY180">
+        <v>18</v>
+      </c>
+      <c r="AZ180">
+        <v>11</v>
+      </c>
+      <c r="BA180">
+        <v>11</v>
+      </c>
+      <c r="BB180">
+        <v>3</v>
+      </c>
+      <c r="BC180">
+        <v>14</v>
+      </c>
+      <c r="BD180">
+        <v>1.45</v>
+      </c>
+      <c r="BE180">
+        <v>6.5</v>
+      </c>
+      <c r="BF180">
+        <v>2.9</v>
+      </c>
+      <c r="BG180">
+        <v>1.36</v>
+      </c>
+      <c r="BH180">
+        <v>2.8</v>
+      </c>
+      <c r="BI180">
+        <v>1.6</v>
+      </c>
+      <c r="BJ180">
+        <v>2.14</v>
+      </c>
+      <c r="BK180">
+        <v>1.97</v>
+      </c>
+      <c r="BL180">
+        <v>1.71</v>
+      </c>
+      <c r="BM180">
+        <v>2.55</v>
+      </c>
+      <c r="BN180">
+        <v>1.43</v>
+      </c>
+      <c r="BO180">
+        <v>3.3</v>
+      </c>
+      <c r="BP180">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7728377</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45626.60416666666</v>
+      </c>
+      <c r="F181">
+        <v>17</v>
+      </c>
+      <c r="G181" t="s">
+        <v>72</v>
+      </c>
+      <c r="H181" t="s">
+        <v>75</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <v>2</v>
+      </c>
+      <c r="L181">
+        <v>2</v>
+      </c>
+      <c r="M181">
+        <v>4</v>
+      </c>
+      <c r="N181">
+        <v>6</v>
+      </c>
+      <c r="O181" t="s">
+        <v>215</v>
+      </c>
+      <c r="P181" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q181">
+        <v>2.55</v>
+      </c>
+      <c r="R181">
+        <v>2.05</v>
+      </c>
+      <c r="S181">
+        <v>4.2</v>
+      </c>
+      <c r="T181">
+        <v>1.42</v>
+      </c>
+      <c r="U181">
+        <v>2.65</v>
+      </c>
+      <c r="V181">
+        <v>2.88</v>
+      </c>
+      <c r="W181">
+        <v>1.36</v>
+      </c>
+      <c r="X181">
+        <v>7.6</v>
+      </c>
+      <c r="Y181">
+        <v>1.05</v>
+      </c>
+      <c r="Z181">
+        <v>2.01</v>
+      </c>
+      <c r="AA181">
+        <v>2.97</v>
+      </c>
+      <c r="AB181">
+        <v>3.18</v>
+      </c>
+      <c r="AC181">
+        <v>1.07</v>
+      </c>
+      <c r="AD181">
+        <v>8</v>
+      </c>
+      <c r="AE181">
+        <v>1.35</v>
+      </c>
+      <c r="AF181">
+        <v>3.1</v>
+      </c>
+      <c r="AG181">
+        <v>2.04</v>
+      </c>
+      <c r="AH181">
+        <v>1.78</v>
+      </c>
+      <c r="AI181">
+        <v>1.8</v>
+      </c>
+      <c r="AJ181">
+        <v>1.85</v>
+      </c>
+      <c r="AK181">
+        <v>1.25</v>
+      </c>
+      <c r="AL181">
+        <v>1.25</v>
+      </c>
+      <c r="AM181">
+        <v>1.77</v>
+      </c>
+      <c r="AN181">
+        <v>1.13</v>
+      </c>
+      <c r="AO181">
+        <v>1</v>
+      </c>
+      <c r="AP181">
+        <v>1</v>
+      </c>
+      <c r="AQ181">
+        <v>1.22</v>
+      </c>
+      <c r="AR181">
+        <v>1.48</v>
+      </c>
+      <c r="AS181">
+        <v>1.42</v>
+      </c>
+      <c r="AT181">
+        <v>2.9</v>
+      </c>
+      <c r="AU181">
+        <v>6</v>
+      </c>
+      <c r="AV181">
+        <v>7</v>
+      </c>
+      <c r="AW181">
+        <v>3</v>
+      </c>
+      <c r="AX181">
+        <v>5</v>
+      </c>
+      <c r="AY181">
+        <v>12</v>
+      </c>
+      <c r="AZ181">
+        <v>14</v>
+      </c>
+      <c r="BA181">
+        <v>5</v>
+      </c>
+      <c r="BB181">
+        <v>3</v>
+      </c>
+      <c r="BC181">
+        <v>8</v>
+      </c>
+      <c r="BD181">
+        <v>1.63</v>
+      </c>
+      <c r="BE181">
+        <v>6.1</v>
+      </c>
+      <c r="BF181">
+        <v>2.43</v>
+      </c>
+      <c r="BG181">
+        <v>1.43</v>
+      </c>
+      <c r="BH181">
+        <v>2.55</v>
+      </c>
+      <c r="BI181">
+        <v>1.73</v>
+      </c>
+      <c r="BJ181">
+        <v>1.94</v>
+      </c>
+      <c r="BK181">
+        <v>2.18</v>
+      </c>
+      <c r="BL181">
+        <v>1.58</v>
+      </c>
+      <c r="BM181">
+        <v>2.8</v>
+      </c>
+      <c r="BN181">
+        <v>1.36</v>
+      </c>
+      <c r="BO181">
+        <v>3.9</v>
+      </c>
+      <c r="BP181">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7728384</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45626.70833333334</v>
+      </c>
+      <c r="F182">
+        <v>17</v>
+      </c>
+      <c r="G182" t="s">
+        <v>84</v>
+      </c>
+      <c r="H182" t="s">
+        <v>79</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>2</v>
+      </c>
+      <c r="O182" t="s">
+        <v>175</v>
+      </c>
+      <c r="P182" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q182">
+        <v>4</v>
+      </c>
+      <c r="R182">
+        <v>1.83</v>
+      </c>
+      <c r="S182">
+        <v>3.6</v>
+      </c>
+      <c r="T182">
+        <v>1.67</v>
+      </c>
+      <c r="U182">
+        <v>2.1</v>
+      </c>
+      <c r="V182">
+        <v>4.33</v>
+      </c>
+      <c r="W182">
+        <v>1.2</v>
+      </c>
+      <c r="X182">
+        <v>15</v>
+      </c>
+      <c r="Y182">
+        <v>1.03</v>
+      </c>
+      <c r="Z182">
+        <v>2.78</v>
+      </c>
+      <c r="AA182">
+        <v>2.76</v>
+      </c>
+      <c r="AB182">
+        <v>2.49</v>
+      </c>
+      <c r="AC182">
+        <v>1.12</v>
+      </c>
+      <c r="AD182">
+        <v>6</v>
+      </c>
+      <c r="AE182">
+        <v>1.57</v>
+      </c>
+      <c r="AF182">
         <v>2.25</v>
       </c>
-      <c r="AN176">
-        <v>1</v>
-      </c>
-      <c r="AO176">
-        <v>0.83</v>
-      </c>
-      <c r="AP176">
-        <v>1</v>
-      </c>
-      <c r="AQ176">
-        <v>0.86</v>
-      </c>
-      <c r="AR176">
+      <c r="AG182">
+        <v>2.75</v>
+      </c>
+      <c r="AH182">
+        <v>1.4</v>
+      </c>
+      <c r="AI182">
+        <v>2.25</v>
+      </c>
+      <c r="AJ182">
+        <v>1.57</v>
+      </c>
+      <c r="AK182">
+        <v>1.47</v>
+      </c>
+      <c r="AL182">
+        <v>1.33</v>
+      </c>
+      <c r="AM182">
+        <v>1.38</v>
+      </c>
+      <c r="AN182">
+        <v>1.14</v>
+      </c>
+      <c r="AO182">
+        <v>1.14</v>
+      </c>
+      <c r="AP182">
+        <v>1.13</v>
+      </c>
+      <c r="AQ182">
+        <v>1.13</v>
+      </c>
+      <c r="AR182">
+        <v>1.26</v>
+      </c>
+      <c r="AS182">
+        <v>1.36</v>
+      </c>
+      <c r="AT182">
+        <v>2.62</v>
+      </c>
+      <c r="AU182">
+        <v>3</v>
+      </c>
+      <c r="AV182">
+        <v>3</v>
+      </c>
+      <c r="AW182">
+        <v>9</v>
+      </c>
+      <c r="AX182">
+        <v>2</v>
+      </c>
+      <c r="AY182">
+        <v>13</v>
+      </c>
+      <c r="AZ182">
+        <v>8</v>
+      </c>
+      <c r="BA182">
+        <v>2</v>
+      </c>
+      <c r="BB182">
+        <v>6</v>
+      </c>
+      <c r="BC182">
+        <v>8</v>
+      </c>
+      <c r="BD182">
+        <v>1.93</v>
+      </c>
+      <c r="BE182">
+        <v>6.25</v>
+      </c>
+      <c r="BF182">
+        <v>1.98</v>
+      </c>
+      <c r="BG182">
+        <v>1.42</v>
+      </c>
+      <c r="BH182">
+        <v>2.55</v>
+      </c>
+      <c r="BI182">
+        <v>1.71</v>
+      </c>
+      <c r="BJ182">
+        <v>1.96</v>
+      </c>
+      <c r="BK182">
+        <v>2.15</v>
+      </c>
+      <c r="BL182">
         <v>1.6</v>
       </c>
-      <c r="AS176">
-        <v>0.86</v>
-      </c>
-      <c r="AT176">
-        <v>2.46</v>
-      </c>
-      <c r="AU176">
-        <v>8</v>
-      </c>
-      <c r="AV176">
-        <v>6</v>
-      </c>
-      <c r="AW176">
-        <v>5</v>
-      </c>
-      <c r="AX176">
-        <v>7</v>
-      </c>
-      <c r="AY176">
-        <v>17</v>
-      </c>
-      <c r="AZ176">
-        <v>15</v>
-      </c>
-      <c r="BA176">
-        <v>8</v>
-      </c>
-      <c r="BB176">
-        <v>4</v>
-      </c>
-      <c r="BC176">
-        <v>12</v>
-      </c>
-      <c r="BD176">
-        <v>1.58</v>
-      </c>
-      <c r="BE176">
-        <v>8.35</v>
-      </c>
-      <c r="BF176">
-        <v>2.89</v>
-      </c>
-      <c r="BG176">
-        <v>1.37</v>
-      </c>
-      <c r="BH176">
-        <v>2.83</v>
-      </c>
-      <c r="BI176">
-        <v>1.65</v>
-      </c>
-      <c r="BJ176">
-        <v>2.1</v>
-      </c>
-      <c r="BK176">
-        <v>2.08</v>
-      </c>
-      <c r="BL176">
-        <v>1.67</v>
-      </c>
-      <c r="BM176">
-        <v>2.73</v>
-      </c>
-      <c r="BN176">
-        <v>1.4</v>
-      </c>
-      <c r="BO176">
+      <c r="BM182">
+        <v>2.8</v>
+      </c>
+      <c r="BN182">
+        <v>1.36</v>
+      </c>
+      <c r="BO182">
         <v>3.7</v>
       </c>
-      <c r="BP176">
-        <v>1.23</v>
+      <c r="BP182">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -37456,22 +37456,22 @@
         <v>2.64</v>
       </c>
       <c r="AU176">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV176">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW176">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AX176">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY176">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="AZ176">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BA176">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="299">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -664,6 +664,15 @@
     <t>['40', '66']</t>
   </si>
   <si>
+    <t>['25', '72']</t>
+  </si>
+  <si>
+    <t>['35', '84', '90+2']</t>
+  </si>
+  <si>
+    <t>['44', '85']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -899,6 +908,9 @@
   </si>
   <si>
     <t>['35', '57', '81', '84']</t>
+  </si>
+  <si>
+    <t>['20']</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1272,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP182"/>
+  <dimension ref="A1:BP186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1519,7 +1531,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1806,7 +1818,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ3">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1931,7 +1943,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -2218,7 +2230,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ5">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2549,7 +2561,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2755,7 +2767,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2961,7 +2973,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -3039,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ9">
         <v>1.38</v>
@@ -3373,7 +3385,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3579,7 +3591,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3657,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ12">
         <v>0.25</v>
@@ -3785,7 +3797,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3991,7 +4003,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4275,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ15">
         <v>0.63</v>
@@ -4687,7 +4699,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ17">
         <v>1.13</v>
@@ -5021,7 +5033,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5511,7 +5523,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ21">
         <v>0.89</v>
@@ -5639,7 +5651,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5845,7 +5857,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5926,7 +5938,7 @@
         <v>2</v>
       </c>
       <c r="AQ23">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6051,7 +6063,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6257,7 +6269,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6463,7 +6475,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6875,7 +6887,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7081,7 +7093,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7368,7 +7380,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ30">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR30">
         <v>1.73</v>
@@ -7493,7 +7505,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q31">
         <v>2.75</v>
@@ -7571,7 +7583,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ31">
         <v>0.75</v>
@@ -7905,7 +7917,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8192,7 +8204,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ34">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR34">
         <v>1.17</v>
@@ -8317,7 +8329,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8523,7 +8535,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8810,7 +8822,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ37">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR37">
         <v>1.35</v>
@@ -8935,7 +8947,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9013,7 +9025,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ38">
         <v>0.89</v>
@@ -9222,7 +9234,7 @@
         <v>2</v>
       </c>
       <c r="AQ39">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR39">
         <v>1.32</v>
@@ -9837,7 +9849,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ42">
         <v>1.56</v>
@@ -10171,7 +10183,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10249,7 +10261,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ44">
         <v>1.13</v>
@@ -10789,7 +10801,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10867,7 +10879,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ47">
         <v>0.63</v>
@@ -12106,7 +12118,7 @@
         <v>1</v>
       </c>
       <c r="AQ53">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR53">
         <v>1.24</v>
@@ -12437,7 +12449,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12643,7 +12655,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12849,7 +12861,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12930,7 +12942,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ57">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR57">
         <v>1.77</v>
@@ -13055,7 +13067,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13261,7 +13273,7 @@
         <v>94</v>
       </c>
       <c r="P59" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13342,7 +13354,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ59">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR59">
         <v>1.47</v>
@@ -13545,7 +13557,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ60">
         <v>0.89</v>
@@ -14085,7 +14097,7 @@
         <v>94</v>
       </c>
       <c r="P63" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14163,7 +14175,7 @@
         <v>3</v>
       </c>
       <c r="AP63">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ63">
         <v>2.75</v>
@@ -14291,7 +14303,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14703,7 +14715,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14990,7 +15002,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ67">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR67">
         <v>1.16</v>
@@ -15115,7 +15127,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15321,7 +15333,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15811,7 +15823,7 @@
         <v>1.75</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ71">
         <v>1.67</v>
@@ -15939,7 +15951,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16145,7 +16157,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16223,7 +16235,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ73">
         <v>1.56</v>
@@ -16351,7 +16363,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16557,7 +16569,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -16635,7 +16647,7 @@
         <v>0.33</v>
       </c>
       <c r="AP75">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ75">
         <v>0.25</v>
@@ -16844,7 +16856,7 @@
         <v>2</v>
       </c>
       <c r="AQ76">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR76">
         <v>1.57</v>
@@ -17175,7 +17187,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17381,7 +17393,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q79">
         <v>3.85</v>
@@ -17793,7 +17805,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q81">
         <v>2.65</v>
@@ -17999,7 +18011,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q82">
         <v>3.55</v>
@@ -18286,7 +18298,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ83">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR83">
         <v>1.79</v>
@@ -18411,7 +18423,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18904,7 +18916,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ86">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR86">
         <v>1.47</v>
@@ -19029,7 +19041,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19107,7 +19119,7 @@
         <v>2</v>
       </c>
       <c r="AP87">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ87">
         <v>1.75</v>
@@ -19313,7 +19325,7 @@
         <v>1.25</v>
       </c>
       <c r="AP88">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ88">
         <v>0.89</v>
@@ -19441,7 +19453,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19522,7 +19534,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ89">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR89">
         <v>1.46</v>
@@ -19647,7 +19659,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19934,7 +19946,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ91">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR91">
         <v>1.18</v>
@@ -20265,7 +20277,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20346,7 +20358,7 @@
         <v>1</v>
       </c>
       <c r="AQ93">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR93">
         <v>1.42</v>
@@ -20471,7 +20483,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -20677,7 +20689,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -21170,7 +21182,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ97">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR97">
         <v>1.7</v>
@@ -21707,7 +21719,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -21785,7 +21797,7 @@
         <v>2.25</v>
       </c>
       <c r="AP100">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ100">
         <v>1.75</v>
@@ -21913,7 +21925,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -22609,7 +22621,7 @@
         <v>1.4</v>
       </c>
       <c r="AP104">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ104">
         <v>1.38</v>
@@ -23149,7 +23161,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23767,7 +23779,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -24054,7 +24066,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ111">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR111">
         <v>1.54</v>
@@ -24179,7 +24191,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q112">
         <v>2.45</v>
@@ -24385,7 +24397,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -24463,7 +24475,7 @@
         <v>2</v>
       </c>
       <c r="AP113">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ113">
         <v>1.75</v>
@@ -24591,7 +24603,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q114">
         <v>3.45</v>
@@ -24669,7 +24681,7 @@
         <v>1.67</v>
       </c>
       <c r="AP114">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ114">
         <v>1.67</v>
@@ -25290,7 +25302,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ117">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR117">
         <v>1.47</v>
@@ -25415,7 +25427,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q118">
         <v>2.8</v>
@@ -25493,7 +25505,7 @@
         <v>1</v>
       </c>
       <c r="AP118">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ118">
         <v>1.22</v>
@@ -25827,7 +25839,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q120">
         <v>2.55</v>
@@ -25905,7 +25917,7 @@
         <v>1.4</v>
       </c>
       <c r="AP120">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ120">
         <v>1.11</v>
@@ -26114,7 +26126,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ121">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR121">
         <v>1.32</v>
@@ -26239,7 +26251,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26320,7 +26332,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ122">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR122">
         <v>1.4</v>
@@ -26445,7 +26457,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q123">
         <v>2.4</v>
@@ -26857,7 +26869,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q125">
         <v>2.63</v>
@@ -27475,7 +27487,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27762,7 +27774,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ129">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR129">
         <v>1.3</v>
@@ -27887,7 +27899,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q130">
         <v>2.75</v>
@@ -28093,7 +28105,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q131">
         <v>3.25</v>
@@ -28299,7 +28311,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28505,7 +28517,7 @@
         <v>106</v>
       </c>
       <c r="P133" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q133">
         <v>3.1</v>
@@ -28711,7 +28723,7 @@
         <v>94</v>
       </c>
       <c r="P134" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q134">
         <v>3.1</v>
@@ -28995,7 +29007,7 @@
         <v>1.4</v>
       </c>
       <c r="AP135">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ135">
         <v>1.13</v>
@@ -29123,7 +29135,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q136">
         <v>3.9</v>
@@ -29535,7 +29547,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -29822,7 +29834,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ139">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR139">
         <v>1.66</v>
@@ -30153,7 +30165,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q141">
         <v>2.62</v>
@@ -30359,7 +30371,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q142">
         <v>3.6</v>
@@ -30565,7 +30577,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q143">
         <v>3.75</v>
@@ -30771,7 +30783,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31183,7 +31195,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q146">
         <v>2.75</v>
@@ -31389,7 +31401,7 @@
         <v>98</v>
       </c>
       <c r="P147" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q147">
         <v>3.65</v>
@@ -31595,7 +31607,7 @@
         <v>94</v>
       </c>
       <c r="P148" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -32294,7 +32306,7 @@
         <v>2</v>
       </c>
       <c r="AQ151">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR151">
         <v>1.43</v>
@@ -32497,7 +32509,7 @@
         <v>1.14</v>
       </c>
       <c r="AP152">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ152">
         <v>1.22</v>
@@ -32625,7 +32637,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q153">
         <v>2.3</v>
@@ -32703,7 +32715,7 @@
         <v>0.83</v>
       </c>
       <c r="AP153">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ153">
         <v>1.38</v>
@@ -32912,7 +32924,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ154">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR154">
         <v>1.59</v>
@@ -33037,7 +33049,7 @@
         <v>199</v>
       </c>
       <c r="P155" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33115,7 +33127,7 @@
         <v>1.17</v>
       </c>
       <c r="AP155">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ155">
         <v>1.13</v>
@@ -33243,7 +33255,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -33321,7 +33333,7 @@
         <v>1.83</v>
       </c>
       <c r="AP156">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ156">
         <v>1.75</v>
@@ -33736,7 +33748,7 @@
         <v>1</v>
       </c>
       <c r="AQ158">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR158">
         <v>1.49</v>
@@ -34354,7 +34366,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ161">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR161">
         <v>1.62</v>
@@ -34557,7 +34569,7 @@
         <v>1</v>
       </c>
       <c r="AP162">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ162">
         <v>1.11</v>
@@ -34891,7 +34903,7 @@
         <v>206</v>
       </c>
       <c r="P164" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q164">
         <v>4.75</v>
@@ -35509,7 +35521,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35921,7 +35933,7 @@
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q169">
         <v>2.88</v>
@@ -36539,7 +36551,7 @@
         <v>210</v>
       </c>
       <c r="P172" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -37032,7 +37044,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ174">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR174">
         <v>1.76</v>
@@ -37235,10 +37247,10 @@
         <v>0.83</v>
       </c>
       <c r="AP175">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ175">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR175">
         <v>1.6</v>
@@ -37363,7 +37375,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q176">
         <v>2.3</v>
@@ -37441,10 +37453,10 @@
         <v>1</v>
       </c>
       <c r="AP176">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ176">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR176">
         <v>1.58</v>
@@ -37569,7 +37581,7 @@
         <v>94</v>
       </c>
       <c r="P177" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q177">
         <v>2.5</v>
@@ -37775,7 +37787,7 @@
         <v>94</v>
       </c>
       <c r="P178" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q178">
         <v>2.38</v>
@@ -37981,7 +37993,7 @@
         <v>214</v>
       </c>
       <c r="P179" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q179">
         <v>2.4</v>
@@ -38187,7 +38199,7 @@
         <v>94</v>
       </c>
       <c r="P180" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q180">
         <v>2.3</v>
@@ -38393,7 +38405,7 @@
         <v>215</v>
       </c>
       <c r="P181" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q181">
         <v>2.55</v>
@@ -38756,6 +38768,830 @@
       </c>
       <c r="BP182">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7728378</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45627.41666666666</v>
+      </c>
+      <c r="F183">
+        <v>17</v>
+      </c>
+      <c r="G183" t="s">
+        <v>86</v>
+      </c>
+      <c r="H183" t="s">
+        <v>83</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <v>2</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>2</v>
+      </c>
+      <c r="O183" t="s">
+        <v>216</v>
+      </c>
+      <c r="P183" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q183">
+        <v>2.75</v>
+      </c>
+      <c r="R183">
+        <v>2.1</v>
+      </c>
+      <c r="S183">
+        <v>4.33</v>
+      </c>
+      <c r="T183">
+        <v>1.44</v>
+      </c>
+      <c r="U183">
+        <v>2.63</v>
+      </c>
+      <c r="V183">
+        <v>3</v>
+      </c>
+      <c r="W183">
+        <v>1.36</v>
+      </c>
+      <c r="X183">
+        <v>9</v>
+      </c>
+      <c r="Y183">
+        <v>1.07</v>
+      </c>
+      <c r="Z183">
+        <v>1.93</v>
+      </c>
+      <c r="AA183">
+        <v>3.41</v>
+      </c>
+      <c r="AB183">
+        <v>3.97</v>
+      </c>
+      <c r="AC183">
+        <v>1.07</v>
+      </c>
+      <c r="AD183">
+        <v>8</v>
+      </c>
+      <c r="AE183">
+        <v>1.55</v>
+      </c>
+      <c r="AF183">
+        <v>2.45</v>
+      </c>
+      <c r="AG183">
+        <v>1.93</v>
+      </c>
+      <c r="AH183">
+        <v>1.87</v>
+      </c>
+      <c r="AI183">
+        <v>1.8</v>
+      </c>
+      <c r="AJ183">
+        <v>1.91</v>
+      </c>
+      <c r="AK183">
+        <v>1.25</v>
+      </c>
+      <c r="AL183">
+        <v>1.28</v>
+      </c>
+      <c r="AM183">
+        <v>1.75</v>
+      </c>
+      <c r="AN183">
+        <v>1</v>
+      </c>
+      <c r="AO183">
+        <v>0.88</v>
+      </c>
+      <c r="AP183">
+        <v>1.22</v>
+      </c>
+      <c r="AQ183">
+        <v>0.78</v>
+      </c>
+      <c r="AR183">
+        <v>1.63</v>
+      </c>
+      <c r="AS183">
+        <v>1.11</v>
+      </c>
+      <c r="AT183">
+        <v>2.74</v>
+      </c>
+      <c r="AU183">
+        <v>9</v>
+      </c>
+      <c r="AV183">
+        <v>3</v>
+      </c>
+      <c r="AW183">
+        <v>2</v>
+      </c>
+      <c r="AX183">
+        <v>3</v>
+      </c>
+      <c r="AY183">
+        <v>15</v>
+      </c>
+      <c r="AZ183">
+        <v>8</v>
+      </c>
+      <c r="BA183">
+        <v>3</v>
+      </c>
+      <c r="BB183">
+        <v>3</v>
+      </c>
+      <c r="BC183">
+        <v>6</v>
+      </c>
+      <c r="BD183">
+        <v>1.66</v>
+      </c>
+      <c r="BE183">
+        <v>6.1</v>
+      </c>
+      <c r="BF183">
+        <v>2.33</v>
+      </c>
+      <c r="BG183">
+        <v>1.34</v>
+      </c>
+      <c r="BH183">
+        <v>2.98</v>
+      </c>
+      <c r="BI183">
+        <v>1.6</v>
+      </c>
+      <c r="BJ183">
+        <v>2.19</v>
+      </c>
+      <c r="BK183">
+        <v>2</v>
+      </c>
+      <c r="BL183">
+        <v>1.72</v>
+      </c>
+      <c r="BM183">
+        <v>2.6</v>
+      </c>
+      <c r="BN183">
+        <v>1.44</v>
+      </c>
+      <c r="BO183">
+        <v>3.5</v>
+      </c>
+      <c r="BP183">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7728379</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45627.60416666666</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184" t="s">
+        <v>80</v>
+      </c>
+      <c r="H184" t="s">
+        <v>73</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>0</v>
+      </c>
+      <c r="O184" t="s">
+        <v>94</v>
+      </c>
+      <c r="P184" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q184">
+        <v>2.75</v>
+      </c>
+      <c r="R184">
+        <v>1.95</v>
+      </c>
+      <c r="S184">
+        <v>5</v>
+      </c>
+      <c r="T184">
+        <v>1.57</v>
+      </c>
+      <c r="U184">
+        <v>2.25</v>
+      </c>
+      <c r="V184">
+        <v>3.75</v>
+      </c>
+      <c r="W184">
+        <v>1.25</v>
+      </c>
+      <c r="X184">
+        <v>13</v>
+      </c>
+      <c r="Y184">
+        <v>1.04</v>
+      </c>
+      <c r="Z184">
+        <v>1.96</v>
+      </c>
+      <c r="AA184">
+        <v>2.8</v>
+      </c>
+      <c r="AB184">
+        <v>3.56</v>
+      </c>
+      <c r="AC184">
+        <v>1.11</v>
+      </c>
+      <c r="AD184">
+        <v>6.25</v>
+      </c>
+      <c r="AE184">
+        <v>1.5</v>
+      </c>
+      <c r="AF184">
+        <v>2.37</v>
+      </c>
+      <c r="AG184">
+        <v>2.65</v>
+      </c>
+      <c r="AH184">
+        <v>1.42</v>
+      </c>
+      <c r="AI184">
+        <v>2.2</v>
+      </c>
+      <c r="AJ184">
+        <v>1.62</v>
+      </c>
+      <c r="AK184">
+        <v>1.2</v>
+      </c>
+      <c r="AL184">
+        <v>1.3</v>
+      </c>
+      <c r="AM184">
+        <v>1.8</v>
+      </c>
+      <c r="AN184">
+        <v>1.63</v>
+      </c>
+      <c r="AO184">
+        <v>0.86</v>
+      </c>
+      <c r="AP184">
+        <v>1.56</v>
+      </c>
+      <c r="AQ184">
+        <v>0.88</v>
+      </c>
+      <c r="AR184">
+        <v>1.42</v>
+      </c>
+      <c r="AS184">
+        <v>0.95</v>
+      </c>
+      <c r="AT184">
+        <v>2.37</v>
+      </c>
+      <c r="AU184">
+        <v>3</v>
+      </c>
+      <c r="AV184">
+        <v>2</v>
+      </c>
+      <c r="AW184">
+        <v>10</v>
+      </c>
+      <c r="AX184">
+        <v>2</v>
+      </c>
+      <c r="AY184">
+        <v>14</v>
+      </c>
+      <c r="AZ184">
+        <v>6</v>
+      </c>
+      <c r="BA184">
+        <v>6</v>
+      </c>
+      <c r="BB184">
+        <v>2</v>
+      </c>
+      <c r="BC184">
+        <v>8</v>
+      </c>
+      <c r="BD184">
+        <v>1.54</v>
+      </c>
+      <c r="BE184">
+        <v>6.25</v>
+      </c>
+      <c r="BF184">
+        <v>2.65</v>
+      </c>
+      <c r="BG184">
+        <v>1.43</v>
+      </c>
+      <c r="BH184">
+        <v>2.6</v>
+      </c>
+      <c r="BI184">
+        <v>1.75</v>
+      </c>
+      <c r="BJ184">
+        <v>1.96</v>
+      </c>
+      <c r="BK184">
+        <v>2.24</v>
+      </c>
+      <c r="BL184">
+        <v>1.57</v>
+      </c>
+      <c r="BM184">
+        <v>2.98</v>
+      </c>
+      <c r="BN184">
+        <v>1.34</v>
+      </c>
+      <c r="BO184">
+        <v>3.9</v>
+      </c>
+      <c r="BP184">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7728381</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45627.60416666666</v>
+      </c>
+      <c r="F185">
+        <v>17</v>
+      </c>
+      <c r="G185" t="s">
+        <v>82</v>
+      </c>
+      <c r="H185" t="s">
+        <v>78</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>2</v>
+      </c>
+      <c r="L185">
+        <v>3</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>4</v>
+      </c>
+      <c r="O185" t="s">
+        <v>217</v>
+      </c>
+      <c r="P185" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q185">
+        <v>2.5</v>
+      </c>
+      <c r="R185">
+        <v>2.1</v>
+      </c>
+      <c r="S185">
+        <v>5</v>
+      </c>
+      <c r="T185">
+        <v>1.44</v>
+      </c>
+      <c r="U185">
+        <v>2.63</v>
+      </c>
+      <c r="V185">
+        <v>3.25</v>
+      </c>
+      <c r="W185">
+        <v>1.33</v>
+      </c>
+      <c r="X185">
+        <v>9</v>
+      </c>
+      <c r="Y185">
+        <v>1.07</v>
+      </c>
+      <c r="Z185">
+        <v>1.69</v>
+      </c>
+      <c r="AA185">
+        <v>3.23</v>
+      </c>
+      <c r="AB185">
+        <v>4.03</v>
+      </c>
+      <c r="AC185">
+        <v>1.06</v>
+      </c>
+      <c r="AD185">
+        <v>8.5</v>
+      </c>
+      <c r="AE185">
+        <v>1.35</v>
+      </c>
+      <c r="AF185">
+        <v>3.1</v>
+      </c>
+      <c r="AG185">
+        <v>2.08</v>
+      </c>
+      <c r="AH185">
+        <v>1.78</v>
+      </c>
+      <c r="AI185">
+        <v>1.91</v>
+      </c>
+      <c r="AJ185">
+        <v>1.8</v>
+      </c>
+      <c r="AK185">
+        <v>1.2</v>
+      </c>
+      <c r="AL185">
+        <v>1.22</v>
+      </c>
+      <c r="AM185">
+        <v>1.95</v>
+      </c>
+      <c r="AN185">
+        <v>2.14</v>
+      </c>
+      <c r="AO185">
+        <v>0.88</v>
+      </c>
+      <c r="AP185">
+        <v>2.25</v>
+      </c>
+      <c r="AQ185">
+        <v>0.78</v>
+      </c>
+      <c r="AR185">
+        <v>1.69</v>
+      </c>
+      <c r="AS185">
+        <v>1.3</v>
+      </c>
+      <c r="AT185">
+        <v>2.99</v>
+      </c>
+      <c r="AU185">
+        <v>4</v>
+      </c>
+      <c r="AV185">
+        <v>4</v>
+      </c>
+      <c r="AW185">
+        <v>3</v>
+      </c>
+      <c r="AX185">
+        <v>3</v>
+      </c>
+      <c r="AY185">
+        <v>10</v>
+      </c>
+      <c r="AZ185">
+        <v>9</v>
+      </c>
+      <c r="BA185">
+        <v>3</v>
+      </c>
+      <c r="BB185">
+        <v>0</v>
+      </c>
+      <c r="BC185">
+        <v>3</v>
+      </c>
+      <c r="BD185">
+        <v>1.47</v>
+      </c>
+      <c r="BE185">
+        <v>6.4</v>
+      </c>
+      <c r="BF185">
+        <v>2.8</v>
+      </c>
+      <c r="BG185">
+        <v>1.29</v>
+      </c>
+      <c r="BH185">
+        <v>3.25</v>
+      </c>
+      <c r="BI185">
+        <v>1.52</v>
+      </c>
+      <c r="BJ185">
+        <v>2.36</v>
+      </c>
+      <c r="BK185">
+        <v>1.87</v>
+      </c>
+      <c r="BL185">
+        <v>1.83</v>
+      </c>
+      <c r="BM185">
+        <v>2.39</v>
+      </c>
+      <c r="BN185">
+        <v>1.51</v>
+      </c>
+      <c r="BO185">
+        <v>3.2</v>
+      </c>
+      <c r="BP185">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7728383</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45627.70833333334</v>
+      </c>
+      <c r="F186">
+        <v>17</v>
+      </c>
+      <c r="G186" t="s">
+        <v>77</v>
+      </c>
+      <c r="H186" t="s">
+        <v>88</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>2</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>2</v>
+      </c>
+      <c r="O186" t="s">
+        <v>218</v>
+      </c>
+      <c r="P186" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q186">
+        <v>2.5</v>
+      </c>
+      <c r="R186">
+        <v>2.1</v>
+      </c>
+      <c r="S186">
+        <v>4.75</v>
+      </c>
+      <c r="T186">
+        <v>1.44</v>
+      </c>
+      <c r="U186">
+        <v>2.63</v>
+      </c>
+      <c r="V186">
+        <v>3.25</v>
+      </c>
+      <c r="W186">
+        <v>1.33</v>
+      </c>
+      <c r="X186">
+        <v>9</v>
+      </c>
+      <c r="Y186">
+        <v>1.07</v>
+      </c>
+      <c r="Z186">
+        <v>1.86</v>
+      </c>
+      <c r="AA186">
+        <v>3.17</v>
+      </c>
+      <c r="AB186">
+        <v>3.73</v>
+      </c>
+      <c r="AC186">
+        <v>1.05</v>
+      </c>
+      <c r="AD186">
+        <v>9</v>
+      </c>
+      <c r="AE186">
+        <v>1.35</v>
+      </c>
+      <c r="AF186">
+        <v>3.1</v>
+      </c>
+      <c r="AG186">
+        <v>2</v>
+      </c>
+      <c r="AH186">
+        <v>1.75</v>
+      </c>
+      <c r="AI186">
+        <v>1.91</v>
+      </c>
+      <c r="AJ186">
+        <v>1.8</v>
+      </c>
+      <c r="AK186">
+        <v>1.22</v>
+      </c>
+      <c r="AL186">
+        <v>1.22</v>
+      </c>
+      <c r="AM186">
+        <v>1.95</v>
+      </c>
+      <c r="AN186">
+        <v>2</v>
+      </c>
+      <c r="AO186">
+        <v>0.13</v>
+      </c>
+      <c r="AP186">
+        <v>2.11</v>
+      </c>
+      <c r="AQ186">
+        <v>0.11</v>
+      </c>
+      <c r="AR186">
+        <v>1.44</v>
+      </c>
+      <c r="AS186">
+        <v>1.29</v>
+      </c>
+      <c r="AT186">
+        <v>2.73</v>
+      </c>
+      <c r="AU186">
+        <v>6</v>
+      </c>
+      <c r="AV186">
+        <v>5</v>
+      </c>
+      <c r="AW186">
+        <v>2</v>
+      </c>
+      <c r="AX186">
+        <v>4</v>
+      </c>
+      <c r="AY186">
+        <v>9</v>
+      </c>
+      <c r="AZ186">
+        <v>12</v>
+      </c>
+      <c r="BA186">
+        <v>5</v>
+      </c>
+      <c r="BB186">
+        <v>7</v>
+      </c>
+      <c r="BC186">
+        <v>12</v>
+      </c>
+      <c r="BD186">
+        <v>1.57</v>
+      </c>
+      <c r="BE186">
+        <v>6.25</v>
+      </c>
+      <c r="BF186">
+        <v>2.55</v>
+      </c>
+      <c r="BG186">
+        <v>1.34</v>
+      </c>
+      <c r="BH186">
+        <v>2.98</v>
+      </c>
+      <c r="BI186">
+        <v>1.6</v>
+      </c>
+      <c r="BJ186">
+        <v>2.19</v>
+      </c>
+      <c r="BK186">
+        <v>2</v>
+      </c>
+      <c r="BL186">
+        <v>1.72</v>
+      </c>
+      <c r="BM186">
+        <v>2.6</v>
+      </c>
+      <c r="BN186">
+        <v>1.44</v>
+      </c>
+      <c r="BO186">
+        <v>3.5</v>
+      </c>
+      <c r="BP186">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="299">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1272,7 +1272,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP186"/>
+  <dimension ref="A1:BP187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ6">
         <v>1.75</v>
@@ -3260,7 +3260,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ10">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -7586,7 +7586,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ31">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR31">
         <v>1.31</v>
@@ -7995,7 +7995,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ33">
         <v>1.38</v>
@@ -11085,7 +11085,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ48">
         <v>0.25</v>
@@ -11912,7 +11912,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ52">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR52">
         <v>1.28</v>
@@ -17268,7 +17268,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ78">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR78">
         <v>1.42</v>
@@ -17883,7 +17883,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ81">
         <v>1.25</v>
@@ -18710,7 +18710,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ85">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR85">
         <v>1.38</v>
@@ -20149,7 +20149,7 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ92">
         <v>0.63</v>
@@ -22006,7 +22006,7 @@
         <v>2</v>
       </c>
       <c r="AQ101">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR101">
         <v>1.58</v>
@@ -24887,7 +24887,7 @@
         <v>1.75</v>
       </c>
       <c r="AP115">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ115">
         <v>1.13</v>
@@ -26538,7 +26538,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ123">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR123">
         <v>1.12</v>
@@ -28801,7 +28801,7 @@
         <v>0.8</v>
       </c>
       <c r="AP134">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ134">
         <v>1.13</v>
@@ -31070,7 +31070,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ145">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR145">
         <v>1.15</v>
@@ -32303,7 +32303,7 @@
         <v>1</v>
       </c>
       <c r="AP151">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ151">
         <v>0.88</v>
@@ -38707,7 +38707,7 @@
         <v>3</v>
       </c>
       <c r="AV182">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW182">
         <v>9</v>
@@ -38719,7 +38719,7 @@
         <v>13</v>
       </c>
       <c r="AZ182">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA182">
         <v>2</v>
@@ -39592,6 +39592,212 @@
       </c>
       <c r="BP186">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7728382</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45628.6875</v>
+      </c>
+      <c r="F187">
+        <v>17</v>
+      </c>
+      <c r="G187" t="s">
+        <v>74</v>
+      </c>
+      <c r="H187" t="s">
+        <v>87</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>1</v>
+      </c>
+      <c r="O187" t="s">
+        <v>139</v>
+      </c>
+      <c r="P187" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q187">
+        <v>2.2</v>
+      </c>
+      <c r="R187">
+        <v>2.1</v>
+      </c>
+      <c r="S187">
+        <v>7</v>
+      </c>
+      <c r="T187">
+        <v>1.5</v>
+      </c>
+      <c r="U187">
+        <v>2.5</v>
+      </c>
+      <c r="V187">
+        <v>3.5</v>
+      </c>
+      <c r="W187">
+        <v>1.29</v>
+      </c>
+      <c r="X187">
+        <v>10</v>
+      </c>
+      <c r="Y187">
+        <v>1.06</v>
+      </c>
+      <c r="Z187">
+        <v>1.5</v>
+      </c>
+      <c r="AA187">
+        <v>3.6</v>
+      </c>
+      <c r="AB187">
+        <v>6</v>
+      </c>
+      <c r="AC187">
+        <v>1.07</v>
+      </c>
+      <c r="AD187">
+        <v>8</v>
+      </c>
+      <c r="AE187">
+        <v>1.42</v>
+      </c>
+      <c r="AF187">
+        <v>2.8</v>
+      </c>
+      <c r="AG187">
+        <v>2.25</v>
+      </c>
+      <c r="AH187">
+        <v>1.57</v>
+      </c>
+      <c r="AI187">
+        <v>2.38</v>
+      </c>
+      <c r="AJ187">
+        <v>1.53</v>
+      </c>
+      <c r="AK187">
+        <v>1.11</v>
+      </c>
+      <c r="AL187">
+        <v>1.2</v>
+      </c>
+      <c r="AM187">
+        <v>2.4</v>
+      </c>
+      <c r="AN187">
+        <v>2</v>
+      </c>
+      <c r="AO187">
+        <v>0.75</v>
+      </c>
+      <c r="AP187">
+        <v>2.11</v>
+      </c>
+      <c r="AQ187">
+        <v>0.67</v>
+      </c>
+      <c r="AR187">
+        <v>1.45</v>
+      </c>
+      <c r="AS187">
+        <v>0.91</v>
+      </c>
+      <c r="AT187">
+        <v>2.36</v>
+      </c>
+      <c r="AU187">
+        <v>8</v>
+      </c>
+      <c r="AV187">
+        <v>3</v>
+      </c>
+      <c r="AW187">
+        <v>6</v>
+      </c>
+      <c r="AX187">
+        <v>2</v>
+      </c>
+      <c r="AY187">
+        <v>18</v>
+      </c>
+      <c r="AZ187">
+        <v>7</v>
+      </c>
+      <c r="BA187">
+        <v>4</v>
+      </c>
+      <c r="BB187">
+        <v>1</v>
+      </c>
+      <c r="BC187">
+        <v>5</v>
+      </c>
+      <c r="BD187">
+        <v>1.41</v>
+      </c>
+      <c r="BE187">
+        <v>6.75</v>
+      </c>
+      <c r="BF187">
+        <v>3.05</v>
+      </c>
+      <c r="BG187">
+        <v>1.45</v>
+      </c>
+      <c r="BH187">
+        <v>2.48</v>
+      </c>
+      <c r="BI187">
+        <v>1.77</v>
+      </c>
+      <c r="BJ187">
+        <v>1.89</v>
+      </c>
+      <c r="BK187">
+        <v>2.23</v>
+      </c>
+      <c r="BL187">
+        <v>1.56</v>
+      </c>
+      <c r="BM187">
+        <v>2.9</v>
+      </c>
+      <c r="BN187">
+        <v>1.34</v>
+      </c>
+      <c r="BO187">
+        <v>3.9</v>
+      </c>
+      <c r="BP187">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="300">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -673,6 +673,9 @@
     <t>['44', '85']</t>
   </si>
   <si>
+    <t>['87', '90+3']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -1272,7 +1275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP187"/>
+  <dimension ref="A1:BP188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1531,7 +1534,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1815,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ3">
         <v>0.11</v>
@@ -1943,7 +1946,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -2561,7 +2564,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2767,7 +2770,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2973,7 +2976,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -3054,7 +3057,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ9">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3385,7 +3388,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3591,7 +3594,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3797,7 +3800,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -4003,7 +4006,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -5033,7 +5036,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5651,7 +5654,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5857,7 +5860,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6063,7 +6066,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6269,7 +6272,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6475,7 +6478,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6887,7 +6890,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7093,7 +7096,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7505,7 +7508,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q31">
         <v>2.75</v>
@@ -7789,7 +7792,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ32">
         <v>1.67</v>
@@ -7917,7 +7920,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7998,7 +8001,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ33">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR33">
         <v>0.95</v>
@@ -8329,7 +8332,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8535,7 +8538,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8947,7 +8950,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9646,7 +9649,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ41">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR41">
         <v>1</v>
@@ -10183,7 +10186,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10801,7 +10804,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11703,7 +11706,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ51">
         <v>1.22</v>
@@ -12449,7 +12452,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12655,7 +12658,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12861,7 +12864,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -13067,7 +13070,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13273,7 +13276,7 @@
         <v>94</v>
       </c>
       <c r="P59" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13766,7 +13769,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ61">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR61">
         <v>1.87</v>
@@ -14097,7 +14100,7 @@
         <v>94</v>
       </c>
       <c r="P63" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14303,7 +14306,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14715,7 +14718,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15127,7 +15130,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15333,7 +15336,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15617,7 +15620,7 @@
         <v>2</v>
       </c>
       <c r="AP70">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ70">
         <v>1.11</v>
@@ -15951,7 +15954,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16157,7 +16160,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16363,7 +16366,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16569,7 +16572,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -17187,7 +17190,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17393,7 +17396,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q79">
         <v>3.85</v>
@@ -17805,7 +17808,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q81">
         <v>2.65</v>
@@ -18011,7 +18014,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q82">
         <v>3.55</v>
@@ -18089,7 +18092,7 @@
         <v>1.67</v>
       </c>
       <c r="AP82">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ82">
         <v>1.75</v>
@@ -18423,7 +18426,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -19041,7 +19044,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19453,7 +19456,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19659,7 +19662,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20277,7 +20280,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20483,7 +20486,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -20689,7 +20692,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20976,7 +20979,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ96">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR96">
         <v>1.53</v>
@@ -21719,7 +21722,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -21925,7 +21928,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -22624,7 +22627,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ104">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR104">
         <v>1.64</v>
@@ -23033,7 +23036,7 @@
         <v>1.25</v>
       </c>
       <c r="AP106">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ106">
         <v>0.63</v>
@@ -23161,7 +23164,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23779,7 +23782,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -24191,7 +24194,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q112">
         <v>2.45</v>
@@ -24397,7 +24400,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -24603,7 +24606,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q114">
         <v>3.45</v>
@@ -25427,7 +25430,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q118">
         <v>2.8</v>
@@ -25839,7 +25842,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q120">
         <v>2.55</v>
@@ -26251,7 +26254,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26457,7 +26460,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q123">
         <v>2.4</v>
@@ -26535,7 +26538,7 @@
         <v>1</v>
       </c>
       <c r="AP123">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ123">
         <v>0.67</v>
@@ -26869,7 +26872,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q125">
         <v>2.63</v>
@@ -27487,7 +27490,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27899,7 +27902,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q130">
         <v>2.75</v>
@@ -28105,7 +28108,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q131">
         <v>3.25</v>
@@ -28311,7 +28314,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28392,7 +28395,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ132">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR132">
         <v>1.78</v>
@@ -28517,7 +28520,7 @@
         <v>106</v>
       </c>
       <c r="P133" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q133">
         <v>3.1</v>
@@ -28723,7 +28726,7 @@
         <v>94</v>
       </c>
       <c r="P134" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q134">
         <v>3.1</v>
@@ -29135,7 +29138,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q136">
         <v>3.9</v>
@@ -29547,7 +29550,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -30165,7 +30168,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q141">
         <v>2.62</v>
@@ -30371,7 +30374,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q142">
         <v>3.6</v>
@@ -30449,7 +30452,7 @@
         <v>1.17</v>
       </c>
       <c r="AP142">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ142">
         <v>1.13</v>
@@ -30577,7 +30580,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q143">
         <v>3.75</v>
@@ -30783,7 +30786,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31195,7 +31198,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q146">
         <v>2.75</v>
@@ -31401,7 +31404,7 @@
         <v>98</v>
       </c>
       <c r="P147" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q147">
         <v>3.65</v>
@@ -31607,7 +31610,7 @@
         <v>94</v>
       </c>
       <c r="P148" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -32637,7 +32640,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q153">
         <v>2.3</v>
@@ -33049,7 +33052,7 @@
         <v>199</v>
       </c>
       <c r="P155" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33255,7 +33258,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -34778,7 +34781,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ163">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR163">
         <v>1.14</v>
@@ -34903,7 +34906,7 @@
         <v>206</v>
       </c>
       <c r="P164" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q164">
         <v>4.75</v>
@@ -35521,7 +35524,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35933,7 +35936,7 @@
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q169">
         <v>2.88</v>
@@ -36217,7 +36220,7 @@
         <v>0.71</v>
       </c>
       <c r="AP170">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ170">
         <v>0.63</v>
@@ -36551,7 +36554,7 @@
         <v>210</v>
       </c>
       <c r="P172" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -37375,7 +37378,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q176">
         <v>2.3</v>
@@ -37581,7 +37584,7 @@
         <v>94</v>
       </c>
       <c r="P177" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q177">
         <v>2.5</v>
@@ -37787,7 +37790,7 @@
         <v>94</v>
       </c>
       <c r="P178" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q178">
         <v>2.38</v>
@@ -37993,7 +37996,7 @@
         <v>214</v>
       </c>
       <c r="P179" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q179">
         <v>2.4</v>
@@ -38199,7 +38202,7 @@
         <v>94</v>
       </c>
       <c r="P180" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q180">
         <v>2.3</v>
@@ -38405,7 +38408,7 @@
         <v>215</v>
       </c>
       <c r="P181" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q181">
         <v>2.55</v>
@@ -39229,7 +39232,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q185">
         <v>2.5</v>
@@ -39798,6 +39801,212 @@
       </c>
       <c r="BP187">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7728397</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45632.6875</v>
+      </c>
+      <c r="F188">
+        <v>18</v>
+      </c>
+      <c r="G188" t="s">
+        <v>71</v>
+      </c>
+      <c r="H188" t="s">
+        <v>82</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>2</v>
+      </c>
+      <c r="M188">
+        <v>1</v>
+      </c>
+      <c r="N188">
+        <v>3</v>
+      </c>
+      <c r="O188" t="s">
+        <v>219</v>
+      </c>
+      <c r="P188" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q188">
+        <v>3.5</v>
+      </c>
+      <c r="R188">
+        <v>1.95</v>
+      </c>
+      <c r="S188">
+        <v>3.6</v>
+      </c>
+      <c r="T188">
+        <v>1.53</v>
+      </c>
+      <c r="U188">
+        <v>2.38</v>
+      </c>
+      <c r="V188">
+        <v>3.75</v>
+      </c>
+      <c r="W188">
+        <v>1.25</v>
+      </c>
+      <c r="X188">
+        <v>11</v>
+      </c>
+      <c r="Y188">
+        <v>1.05</v>
+      </c>
+      <c r="Z188">
+        <v>2.74</v>
+      </c>
+      <c r="AA188">
+        <v>3.04</v>
+      </c>
+      <c r="AB188">
+        <v>2.79</v>
+      </c>
+      <c r="AC188">
+        <v>1.09</v>
+      </c>
+      <c r="AD188">
+        <v>7</v>
+      </c>
+      <c r="AE188">
+        <v>1.45</v>
+      </c>
+      <c r="AF188">
+        <v>2.65</v>
+      </c>
+      <c r="AG188">
+        <v>2.34</v>
+      </c>
+      <c r="AH188">
+        <v>1.6</v>
+      </c>
+      <c r="AI188">
+        <v>2</v>
+      </c>
+      <c r="AJ188">
+        <v>1.73</v>
+      </c>
+      <c r="AK188">
+        <v>1.45</v>
+      </c>
+      <c r="AL188">
+        <v>1.3</v>
+      </c>
+      <c r="AM188">
+        <v>1.47</v>
+      </c>
+      <c r="AN188">
+        <v>2.22</v>
+      </c>
+      <c r="AO188">
+        <v>1.38</v>
+      </c>
+      <c r="AP188">
+        <v>2.3</v>
+      </c>
+      <c r="AQ188">
+        <v>1.22</v>
+      </c>
+      <c r="AR188">
+        <v>1.17</v>
+      </c>
+      <c r="AS188">
+        <v>1.23</v>
+      </c>
+      <c r="AT188">
+        <v>2.4</v>
+      </c>
+      <c r="AU188">
+        <v>4</v>
+      </c>
+      <c r="AV188">
+        <v>3</v>
+      </c>
+      <c r="AW188">
+        <v>4</v>
+      </c>
+      <c r="AX188">
+        <v>9</v>
+      </c>
+      <c r="AY188">
+        <v>9</v>
+      </c>
+      <c r="AZ188">
+        <v>15</v>
+      </c>
+      <c r="BA188">
+        <v>2</v>
+      </c>
+      <c r="BB188">
+        <v>4</v>
+      </c>
+      <c r="BC188">
+        <v>6</v>
+      </c>
+      <c r="BD188">
+        <v>1.98</v>
+      </c>
+      <c r="BE188">
+        <v>6.25</v>
+      </c>
+      <c r="BF188">
+        <v>2.02</v>
+      </c>
+      <c r="BG188">
+        <v>1.49</v>
+      </c>
+      <c r="BH188">
+        <v>2.38</v>
+      </c>
+      <c r="BI188">
+        <v>1.84</v>
+      </c>
+      <c r="BJ188">
+        <v>1.82</v>
+      </c>
+      <c r="BK188">
+        <v>2.35</v>
+      </c>
+      <c r="BL188">
+        <v>1.5</v>
+      </c>
+      <c r="BM188">
+        <v>3.15</v>
+      </c>
+      <c r="BN188">
+        <v>1.29</v>
+      </c>
+      <c r="BO188">
+        <v>4.3</v>
+      </c>
+      <c r="BP188">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="305">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -676,6 +676,18 @@
     <t>['87', '90+3']</t>
   </si>
   <si>
+    <t>['82', '90+4']</t>
+  </si>
+  <si>
+    <t>['23', '52', '76']</t>
+  </si>
+  <si>
+    <t>['7']</t>
+  </si>
+  <si>
+    <t>['39', '78']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -880,9 +892,6 @@
     <t>['13', '33']</t>
   </si>
   <si>
-    <t>['39', '78']</t>
-  </si>
-  <si>
     <t>['20', '24', '29']</t>
   </si>
   <si>
@@ -914,6 +923,12 @@
   </si>
   <si>
     <t>['20']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['9']</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP188"/>
+  <dimension ref="A1:BP192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1534,7 +1549,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1612,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ2">
         <v>1.22</v>
@@ -1946,7 +1961,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -2027,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2564,7 +2579,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2642,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ7">
         <v>0.89</v>
@@ -2770,7 +2785,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2976,7 +2991,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -3388,7 +3403,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3466,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
         <v>1.11</v>
@@ -3594,7 +3609,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3800,7 +3815,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3881,7 +3896,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ13">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR13">
         <v>1.32</v>
@@ -4006,7 +4021,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4084,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ14">
         <v>1.22</v>
@@ -4705,7 +4720,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ17">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5036,7 +5051,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5654,7 +5669,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5735,7 +5750,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ22">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5860,7 +5875,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6066,7 +6081,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6144,7 +6159,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24">
         <v>1.11</v>
@@ -6272,7 +6287,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6353,7 +6368,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ25">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6478,7 +6493,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6890,7 +6905,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -7096,7 +7111,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7380,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ30">
         <v>0.88</v>
@@ -7508,7 +7523,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q31">
         <v>2.75</v>
@@ -7795,7 +7810,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ32">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR32">
         <v>0.48</v>
@@ -7920,7 +7935,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8204,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
         <v>0.11</v>
@@ -8332,7 +8347,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8413,7 +8428,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ35">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR35">
         <v>1.42</v>
@@ -8538,7 +8553,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8616,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36">
         <v>1.22</v>
@@ -8822,7 +8837,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ37">
         <v>0.78</v>
@@ -8950,7 +8965,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -10186,7 +10201,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10267,7 +10282,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ44">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>1.41</v>
@@ -10473,7 +10488,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR45">
         <v>0.96</v>
@@ -10804,7 +10819,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -12327,7 +12342,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ54">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR54">
         <v>1.46</v>
@@ -12452,7 +12467,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12530,7 +12545,7 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ55">
         <v>1.75</v>
@@ -12658,7 +12673,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12864,7 +12879,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12942,7 +12957,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ57">
         <v>0.78</v>
@@ -13070,7 +13085,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13276,7 +13291,7 @@
         <v>94</v>
       </c>
       <c r="P59" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13354,7 +13369,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ59">
         <v>0.78</v>
@@ -14100,7 +14115,7 @@
         <v>94</v>
       </c>
       <c r="P63" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14181,7 +14196,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ63">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR63">
         <v>1.39</v>
@@ -14306,7 +14321,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14387,7 +14402,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ64">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR64">
         <v>1.13</v>
@@ -14590,7 +14605,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ65">
         <v>1.38</v>
@@ -14718,7 +14733,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14799,7 +14814,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ66">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR66">
         <v>1.93</v>
@@ -15002,7 +15017,7 @@
         <v>0</v>
       </c>
       <c r="AP67">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ67">
         <v>0.11</v>
@@ -15130,7 +15145,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15336,7 +15351,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15829,7 +15844,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ71">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR71">
         <v>1.44</v>
@@ -15954,7 +15969,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16160,7 +16175,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16366,7 +16381,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16572,7 +16587,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -17065,7 +17080,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ77">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR77">
         <v>1.33</v>
@@ -17190,7 +17205,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17396,7 +17411,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q79">
         <v>3.85</v>
@@ -17474,10 +17489,10 @@
         <v>2.33</v>
       </c>
       <c r="AP79">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ79">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR79">
         <v>1.18</v>
@@ -17808,7 +17823,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q81">
         <v>2.65</v>
@@ -18014,7 +18029,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q82">
         <v>3.55</v>
@@ -18426,7 +18441,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18507,7 +18522,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ84">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR84">
         <v>1.8</v>
@@ -18916,7 +18931,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ86">
         <v>0.78</v>
@@ -19044,7 +19059,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19456,7 +19471,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19662,7 +19677,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19743,7 +19758,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ90">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR90">
         <v>1.45</v>
@@ -20280,7 +20295,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20486,7 +20501,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -20564,7 +20579,7 @@
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ94">
         <v>1.22</v>
@@ -20692,7 +20707,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -21182,7 +21197,7 @@
         <v>0.25</v>
       </c>
       <c r="AP97">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ97">
         <v>0.11</v>
@@ -21594,7 +21609,7 @@
         <v>1</v>
       </c>
       <c r="AP99">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ99">
         <v>1.22</v>
@@ -21722,7 +21737,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -21928,7 +21943,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -22212,7 +22227,7 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ102">
         <v>0.63</v>
@@ -22830,7 +22845,7 @@
         <v>0.25</v>
       </c>
       <c r="AP105">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ105">
         <v>0.25</v>
@@ -23039,7 +23054,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ106">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR106">
         <v>1.12</v>
@@ -23164,7 +23179,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23245,7 +23260,7 @@
         <v>1</v>
       </c>
       <c r="AQ107">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR107">
         <v>1.53</v>
@@ -23654,7 +23669,7 @@
         <v>1.25</v>
       </c>
       <c r="AP109">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ109">
         <v>1.25</v>
@@ -23782,7 +23797,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -24194,7 +24209,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q112">
         <v>2.45</v>
@@ -24400,7 +24415,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -24606,7 +24621,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q114">
         <v>3.45</v>
@@ -24687,7 +24702,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ114">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR114">
         <v>1.49</v>
@@ -24893,7 +24908,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ115">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR115">
         <v>1.43</v>
@@ -25430,7 +25445,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q118">
         <v>2.8</v>
@@ -25842,7 +25857,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q120">
         <v>2.55</v>
@@ -26254,7 +26269,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26460,7 +26475,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q123">
         <v>2.4</v>
@@ -26872,7 +26887,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q125">
         <v>2.63</v>
@@ -27365,7 +27380,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ127">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR127">
         <v>1.1</v>
@@ -27490,7 +27505,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27568,10 +27583,10 @@
         <v>3</v>
       </c>
       <c r="AP128">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ128">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR128">
         <v>1.61</v>
@@ -27774,7 +27789,7 @@
         <v>1.4</v>
       </c>
       <c r="AP129">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ129">
         <v>0.78</v>
@@ -27902,7 +27917,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q130">
         <v>2.75</v>
@@ -27980,7 +27995,7 @@
         <v>1.17</v>
       </c>
       <c r="AP130">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ130">
         <v>1.56</v>
@@ -28108,7 +28123,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q131">
         <v>3.25</v>
@@ -28314,7 +28329,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28392,7 +28407,7 @@
         <v>1.17</v>
       </c>
       <c r="AP132">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ132">
         <v>1.22</v>
@@ -28520,7 +28535,7 @@
         <v>106</v>
       </c>
       <c r="P133" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q133">
         <v>3.1</v>
@@ -28726,7 +28741,7 @@
         <v>94</v>
       </c>
       <c r="P134" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q134">
         <v>3.1</v>
@@ -29013,7 +29028,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ135">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR135">
         <v>1.55</v>
@@ -29138,7 +29153,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q136">
         <v>3.9</v>
@@ -29550,7 +29565,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -30168,7 +30183,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q141">
         <v>2.62</v>
@@ -30246,7 +30261,7 @@
         <v>1.14</v>
       </c>
       <c r="AP141">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ141">
         <v>1.56</v>
@@ -30374,7 +30389,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q142">
         <v>3.6</v>
@@ -30455,7 +30470,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ142">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR142">
         <v>1.16</v>
@@ -30580,7 +30595,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q143">
         <v>3.75</v>
@@ -30658,10 +30673,10 @@
         <v>1.86</v>
       </c>
       <c r="AP143">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ143">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR143">
         <v>1.11</v>
@@ -30786,7 +30801,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -30864,7 +30879,7 @@
         <v>0.83</v>
       </c>
       <c r="AP144">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ144">
         <v>0.63</v>
@@ -31198,7 +31213,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q146">
         <v>2.75</v>
@@ -31404,7 +31419,7 @@
         <v>98</v>
       </c>
       <c r="P147" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q147">
         <v>3.65</v>
@@ -31485,7 +31500,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ147">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR147">
         <v>1.13</v>
@@ -31610,7 +31625,7 @@
         <v>94</v>
       </c>
       <c r="P148" t="s">
-        <v>288</v>
+        <v>223</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -32100,10 +32115,10 @@
         <v>0.83</v>
       </c>
       <c r="AP150">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ150">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR150">
         <v>1.6</v>
@@ -32640,7 +32655,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q153">
         <v>2.3</v>
@@ -33052,7 +33067,7 @@
         <v>199</v>
       </c>
       <c r="P155" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33258,7 +33273,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -34906,7 +34921,7 @@
         <v>206</v>
       </c>
       <c r="P164" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q164">
         <v>4.75</v>
@@ -35190,10 +35205,10 @@
         <v>1.14</v>
       </c>
       <c r="AP165">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ165">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR165">
         <v>1.7</v>
@@ -35399,7 +35414,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ166">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR166">
         <v>1.42</v>
@@ -35524,7 +35539,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35605,7 +35620,7 @@
         <v>2</v>
       </c>
       <c r="AQ167">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR167">
         <v>1.65</v>
@@ -35811,7 +35826,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ168">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR168">
         <v>1.29</v>
@@ -35936,7 +35951,7 @@
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q169">
         <v>2.88</v>
@@ -36426,7 +36441,7 @@
         <v>1.29</v>
       </c>
       <c r="AP171">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ171">
         <v>1.25</v>
@@ -36554,7 +36569,7 @@
         <v>210</v>
       </c>
       <c r="P172" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -36632,7 +36647,7 @@
         <v>1.86</v>
       </c>
       <c r="AP172">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ172">
         <v>1.75</v>
@@ -36838,7 +36853,7 @@
         <v>1</v>
       </c>
       <c r="AP173">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ173">
         <v>0.89</v>
@@ -37378,7 +37393,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q176">
         <v>2.3</v>
@@ -37584,7 +37599,7 @@
         <v>94</v>
       </c>
       <c r="P177" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q177">
         <v>2.5</v>
@@ -37790,7 +37805,7 @@
         <v>94</v>
       </c>
       <c r="P178" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q178">
         <v>2.38</v>
@@ -37996,7 +38011,7 @@
         <v>214</v>
       </c>
       <c r="P179" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q179">
         <v>2.4</v>
@@ -38202,7 +38217,7 @@
         <v>94</v>
       </c>
       <c r="P180" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q180">
         <v>2.3</v>
@@ -38408,7 +38423,7 @@
         <v>215</v>
       </c>
       <c r="P181" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q181">
         <v>2.55</v>
@@ -39232,7 +39247,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q185">
         <v>2.5</v>
@@ -39850,7 +39865,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q188">
         <v>3.5</v>
@@ -40007,6 +40022,830 @@
       </c>
       <c r="BP188">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7728395</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45633.41666666666</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189" t="s">
+        <v>79</v>
+      </c>
+      <c r="H189" t="s">
+        <v>72</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+      <c r="K189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <v>2</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+      <c r="N189">
+        <v>3</v>
+      </c>
+      <c r="O189" t="s">
+        <v>220</v>
+      </c>
+      <c r="P189" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q189">
+        <v>2.5</v>
+      </c>
+      <c r="R189">
+        <v>2</v>
+      </c>
+      <c r="S189">
+        <v>4.75</v>
+      </c>
+      <c r="T189">
+        <v>1.49</v>
+      </c>
+      <c r="U189">
+        <v>2.45</v>
+      </c>
+      <c r="V189">
+        <v>3.4</v>
+      </c>
+      <c r="W189">
+        <v>1.28</v>
+      </c>
+      <c r="X189">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="Y189">
+        <v>1.04</v>
+      </c>
+      <c r="Z189">
+        <v>1.85</v>
+      </c>
+      <c r="AA189">
+        <v>3.1</v>
+      </c>
+      <c r="AB189">
+        <v>4.2</v>
+      </c>
+      <c r="AC189">
+        <v>1.08</v>
+      </c>
+      <c r="AD189">
+        <v>7.5</v>
+      </c>
+      <c r="AE189">
+        <v>1.42</v>
+      </c>
+      <c r="AF189">
+        <v>2.75</v>
+      </c>
+      <c r="AG189">
+        <v>2.19</v>
+      </c>
+      <c r="AH189">
+        <v>1.6</v>
+      </c>
+      <c r="AI189">
+        <v>2.05</v>
+      </c>
+      <c r="AJ189">
+        <v>1.72</v>
+      </c>
+      <c r="AK189">
+        <v>1.16</v>
+      </c>
+      <c r="AL189">
+        <v>1.25</v>
+      </c>
+      <c r="AM189">
+        <v>1.9</v>
+      </c>
+      <c r="AN189">
+        <v>1.89</v>
+      </c>
+      <c r="AO189">
+        <v>1.13</v>
+      </c>
+      <c r="AP189">
+        <v>2</v>
+      </c>
+      <c r="AQ189">
+        <v>1</v>
+      </c>
+      <c r="AR189">
+        <v>1.53</v>
+      </c>
+      <c r="AS189">
+        <v>1.25</v>
+      </c>
+      <c r="AT189">
+        <v>2.78</v>
+      </c>
+      <c r="AU189">
+        <v>10</v>
+      </c>
+      <c r="AV189">
+        <v>5</v>
+      </c>
+      <c r="AW189">
+        <v>7</v>
+      </c>
+      <c r="AX189">
+        <v>3</v>
+      </c>
+      <c r="AY189">
+        <v>19</v>
+      </c>
+      <c r="AZ189">
+        <v>10</v>
+      </c>
+      <c r="BA189">
+        <v>4</v>
+      </c>
+      <c r="BB189">
+        <v>1</v>
+      </c>
+      <c r="BC189">
+        <v>5</v>
+      </c>
+      <c r="BD189">
+        <v>1.54</v>
+      </c>
+      <c r="BE189">
+        <v>6.75</v>
+      </c>
+      <c r="BF189">
+        <v>2.7</v>
+      </c>
+      <c r="BG189">
+        <v>1.3</v>
+      </c>
+      <c r="BH189">
+        <v>3.05</v>
+      </c>
+      <c r="BI189">
+        <v>1.52</v>
+      </c>
+      <c r="BJ189">
+        <v>2.3</v>
+      </c>
+      <c r="BK189">
+        <v>2</v>
+      </c>
+      <c r="BL189">
+        <v>1.8</v>
+      </c>
+      <c r="BM189">
+        <v>2.28</v>
+      </c>
+      <c r="BN189">
+        <v>1.53</v>
+      </c>
+      <c r="BO189">
+        <v>2.9</v>
+      </c>
+      <c r="BP189">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7728393</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45633.51041666666</v>
+      </c>
+      <c r="F190">
+        <v>18</v>
+      </c>
+      <c r="G190" t="s">
+        <v>70</v>
+      </c>
+      <c r="H190" t="s">
+        <v>76</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="L190">
+        <v>3</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>3</v>
+      </c>
+      <c r="O190" t="s">
+        <v>221</v>
+      </c>
+      <c r="P190" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q190">
+        <v>2.6</v>
+      </c>
+      <c r="R190">
+        <v>2.1</v>
+      </c>
+      <c r="S190">
+        <v>3.85</v>
+      </c>
+      <c r="T190">
+        <v>1.36</v>
+      </c>
+      <c r="U190">
+        <v>2.88</v>
+      </c>
+      <c r="V190">
+        <v>2.62</v>
+      </c>
+      <c r="W190">
+        <v>1.42</v>
+      </c>
+      <c r="X190">
+        <v>6.45</v>
+      </c>
+      <c r="Y190">
+        <v>1.08</v>
+      </c>
+      <c r="Z190">
+        <v>1.95</v>
+      </c>
+      <c r="AA190">
+        <v>3.3</v>
+      </c>
+      <c r="AB190">
+        <v>3.3</v>
+      </c>
+      <c r="AC190">
+        <v>1.05</v>
+      </c>
+      <c r="AD190">
+        <v>9.5</v>
+      </c>
+      <c r="AE190">
+        <v>1.28</v>
+      </c>
+      <c r="AF190">
+        <v>3.65</v>
+      </c>
+      <c r="AG190">
+        <v>1.8</v>
+      </c>
+      <c r="AH190">
+        <v>1.9</v>
+      </c>
+      <c r="AI190">
+        <v>1.62</v>
+      </c>
+      <c r="AJ190">
+        <v>2.1</v>
+      </c>
+      <c r="AK190">
+        <v>1.3</v>
+      </c>
+      <c r="AL190">
+        <v>1.25</v>
+      </c>
+      <c r="AM190">
+        <v>1.73</v>
+      </c>
+      <c r="AN190">
+        <v>1.33</v>
+      </c>
+      <c r="AO190">
+        <v>2.75</v>
+      </c>
+      <c r="AP190">
+        <v>1.5</v>
+      </c>
+      <c r="AQ190">
+        <v>2.44</v>
+      </c>
+      <c r="AR190">
+        <v>1.74</v>
+      </c>
+      <c r="AS190">
+        <v>1.47</v>
+      </c>
+      <c r="AT190">
+        <v>3.21</v>
+      </c>
+      <c r="AU190">
+        <v>7</v>
+      </c>
+      <c r="AV190">
+        <v>4</v>
+      </c>
+      <c r="AW190">
+        <v>8</v>
+      </c>
+      <c r="AX190">
+        <v>4</v>
+      </c>
+      <c r="AY190">
+        <v>16</v>
+      </c>
+      <c r="AZ190">
+        <v>11</v>
+      </c>
+      <c r="BA190">
+        <v>2</v>
+      </c>
+      <c r="BB190">
+        <v>4</v>
+      </c>
+      <c r="BC190">
+        <v>6</v>
+      </c>
+      <c r="BD190">
+        <v>1.74</v>
+      </c>
+      <c r="BE190">
+        <v>6.4</v>
+      </c>
+      <c r="BF190">
+        <v>2.33</v>
+      </c>
+      <c r="BG190">
+        <v>1.36</v>
+      </c>
+      <c r="BH190">
+        <v>2.8</v>
+      </c>
+      <c r="BI190">
+        <v>1.61</v>
+      </c>
+      <c r="BJ190">
+        <v>2.12</v>
+      </c>
+      <c r="BK190">
+        <v>1.98</v>
+      </c>
+      <c r="BL190">
+        <v>1.7</v>
+      </c>
+      <c r="BM190">
+        <v>2.55</v>
+      </c>
+      <c r="BN190">
+        <v>1.43</v>
+      </c>
+      <c r="BO190">
+        <v>3.3</v>
+      </c>
+      <c r="BP190">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>7728391</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45633.60416666666</v>
+      </c>
+      <c r="F191">
+        <v>18</v>
+      </c>
+      <c r="G191" t="s">
+        <v>75</v>
+      </c>
+      <c r="H191" t="s">
+        <v>91</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+      <c r="M191">
+        <v>1</v>
+      </c>
+      <c r="N191">
+        <v>2</v>
+      </c>
+      <c r="O191" t="s">
+        <v>222</v>
+      </c>
+      <c r="P191" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q191">
+        <v>2.7</v>
+      </c>
+      <c r="R191">
+        <v>2</v>
+      </c>
+      <c r="S191">
+        <v>4</v>
+      </c>
+      <c r="T191">
+        <v>1.44</v>
+      </c>
+      <c r="U191">
+        <v>2.6</v>
+      </c>
+      <c r="V191">
+        <v>2.95</v>
+      </c>
+      <c r="W191">
+        <v>1.35</v>
+      </c>
+      <c r="X191">
+        <v>6.9</v>
+      </c>
+      <c r="Y191">
+        <v>1.07</v>
+      </c>
+      <c r="Z191">
+        <v>2.05</v>
+      </c>
+      <c r="AA191">
+        <v>3.47</v>
+      </c>
+      <c r="AB191">
+        <v>3.86</v>
+      </c>
+      <c r="AC191">
+        <v>1.07</v>
+      </c>
+      <c r="AD191">
+        <v>8</v>
+      </c>
+      <c r="AE191">
+        <v>1.35</v>
+      </c>
+      <c r="AF191">
+        <v>3.1</v>
+      </c>
+      <c r="AG191">
+        <v>2.02</v>
+      </c>
+      <c r="AH191">
+        <v>1.7</v>
+      </c>
+      <c r="AI191">
+        <v>1.83</v>
+      </c>
+      <c r="AJ191">
+        <v>1.85</v>
+      </c>
+      <c r="AK191">
+        <v>1.28</v>
+      </c>
+      <c r="AL191">
+        <v>1.25</v>
+      </c>
+      <c r="AM191">
+        <v>1.73</v>
+      </c>
+      <c r="AN191">
+        <v>1.13</v>
+      </c>
+      <c r="AO191">
+        <v>1.67</v>
+      </c>
+      <c r="AP191">
+        <v>1.11</v>
+      </c>
+      <c r="AQ191">
+        <v>1.6</v>
+      </c>
+      <c r="AR191">
+        <v>1.48</v>
+      </c>
+      <c r="AS191">
+        <v>1.33</v>
+      </c>
+      <c r="AT191">
+        <v>2.81</v>
+      </c>
+      <c r="AU191">
+        <v>3</v>
+      </c>
+      <c r="AV191">
+        <v>5</v>
+      </c>
+      <c r="AW191">
+        <v>3</v>
+      </c>
+      <c r="AX191">
+        <v>15</v>
+      </c>
+      <c r="AY191">
+        <v>7</v>
+      </c>
+      <c r="AZ191">
+        <v>24</v>
+      </c>
+      <c r="BA191">
+        <v>2</v>
+      </c>
+      <c r="BB191">
+        <v>5</v>
+      </c>
+      <c r="BC191">
+        <v>7</v>
+      </c>
+      <c r="BD191">
+        <v>1.65</v>
+      </c>
+      <c r="BE191">
+        <v>6.75</v>
+      </c>
+      <c r="BF191">
+        <v>2.55</v>
+      </c>
+      <c r="BG191">
+        <v>1.27</v>
+      </c>
+      <c r="BH191">
+        <v>3.3</v>
+      </c>
+      <c r="BI191">
+        <v>1.46</v>
+      </c>
+      <c r="BJ191">
+        <v>2.45</v>
+      </c>
+      <c r="BK191">
+        <v>1.75</v>
+      </c>
+      <c r="BL191">
+        <v>1.92</v>
+      </c>
+      <c r="BM191">
+        <v>2.18</v>
+      </c>
+      <c r="BN191">
+        <v>1.58</v>
+      </c>
+      <c r="BO191">
+        <v>2.8</v>
+      </c>
+      <c r="BP191">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="192" spans="1:68">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>7728396</v>
+      </c>
+      <c r="C192" t="s">
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45633.70833333334</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192" t="s">
+        <v>81</v>
+      </c>
+      <c r="H192" t="s">
+        <v>74</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192">
+        <v>2</v>
+      </c>
+      <c r="L192">
+        <v>2</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
+      </c>
+      <c r="N192">
+        <v>3</v>
+      </c>
+      <c r="O192" t="s">
+        <v>223</v>
+      </c>
+      <c r="P192" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q192">
+        <v>3.2</v>
+      </c>
+      <c r="R192">
+        <v>1.83</v>
+      </c>
+      <c r="S192">
+        <v>3.85</v>
+      </c>
+      <c r="T192">
+        <v>1.6</v>
+      </c>
+      <c r="U192">
+        <v>2.2</v>
+      </c>
+      <c r="V192">
+        <v>3.75</v>
+      </c>
+      <c r="W192">
+        <v>1.22</v>
+      </c>
+      <c r="X192">
+        <v>10.75</v>
+      </c>
+      <c r="Y192">
+        <v>1.01</v>
+      </c>
+      <c r="Z192">
+        <v>2.54</v>
+      </c>
+      <c r="AA192">
+        <v>2.96</v>
+      </c>
+      <c r="AB192">
+        <v>3.29</v>
+      </c>
+      <c r="AC192">
+        <v>1.11</v>
+      </c>
+      <c r="AD192">
+        <v>6.25</v>
+      </c>
+      <c r="AE192">
+        <v>1.5</v>
+      </c>
+      <c r="AF192">
+        <v>2.3</v>
+      </c>
+      <c r="AG192">
+        <v>2.8</v>
+      </c>
+      <c r="AH192">
+        <v>1.37</v>
+      </c>
+      <c r="AI192">
+        <v>2.1</v>
+      </c>
+      <c r="AJ192">
+        <v>1.62</v>
+      </c>
+      <c r="AK192">
+        <v>1.33</v>
+      </c>
+      <c r="AL192">
+        <v>1.33</v>
+      </c>
+      <c r="AM192">
+        <v>1.53</v>
+      </c>
+      <c r="AN192">
+        <v>1.63</v>
+      </c>
+      <c r="AO192">
+        <v>0.63</v>
+      </c>
+      <c r="AP192">
+        <v>1.78</v>
+      </c>
+      <c r="AQ192">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR192">
+        <v>1.15</v>
+      </c>
+      <c r="AS192">
+        <v>1.14</v>
+      </c>
+      <c r="AT192">
+        <v>2.29</v>
+      </c>
+      <c r="AU192">
+        <v>6</v>
+      </c>
+      <c r="AV192">
+        <v>7</v>
+      </c>
+      <c r="AW192">
+        <v>2</v>
+      </c>
+      <c r="AX192">
+        <v>5</v>
+      </c>
+      <c r="AY192">
+        <v>8</v>
+      </c>
+      <c r="AZ192">
+        <v>14</v>
+      </c>
+      <c r="BA192">
+        <v>4</v>
+      </c>
+      <c r="BB192">
+        <v>8</v>
+      </c>
+      <c r="BC192">
+        <v>12</v>
+      </c>
+      <c r="BD192">
+        <v>1.85</v>
+      </c>
+      <c r="BE192">
+        <v>6.4</v>
+      </c>
+      <c r="BF192">
+        <v>2.18</v>
+      </c>
+      <c r="BG192">
+        <v>1.4</v>
+      </c>
+      <c r="BH192">
+        <v>2.65</v>
+      </c>
+      <c r="BI192">
+        <v>1.66</v>
+      </c>
+      <c r="BJ192">
+        <v>2.04</v>
+      </c>
+      <c r="BK192">
+        <v>2.06</v>
+      </c>
+      <c r="BL192">
+        <v>1.64</v>
+      </c>
+      <c r="BM192">
+        <v>2.65</v>
+      </c>
+      <c r="BN192">
+        <v>1.38</v>
+      </c>
+      <c r="BO192">
+        <v>3.55</v>
+      </c>
+      <c r="BP192">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="309">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -676,6 +676,9 @@
     <t>['87', '90+3']</t>
   </si>
   <si>
+    <t>['39', '78']</t>
+  </si>
+  <si>
     <t>['82', '90+4']</t>
   </si>
   <si>
@@ -685,7 +688,13 @@
     <t>['7']</t>
   </si>
   <si>
-    <t>['39', '78']</t>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['45', '83', '90+8']</t>
   </si>
   <si>
     <t>['42', '45+3']</t>
@@ -701,9 +710,6 @@
   </si>
   <si>
     <t>['14', '42']</t>
-  </si>
-  <si>
-    <t>['87']</t>
   </si>
   <si>
     <t>['63']</t>
@@ -925,10 +931,16 @@
     <t>['20']</t>
   </si>
   <si>
+    <t>['9']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
-    <t>['9']</t>
+    <t>['42', '52', '63', '90+1', '90+8']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP192"/>
+  <dimension ref="A1:BP197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1549,7 +1561,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1961,7 +1973,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -2245,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ5">
         <v>0.78</v>
@@ -2454,7 +2466,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ6">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2579,7 +2591,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2660,7 +2672,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ7">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2785,7 +2797,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2866,7 +2878,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ8">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2991,7 +3003,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -3275,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ10">
         <v>0.67</v>
@@ -3403,7 +3415,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3609,7 +3621,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3690,7 +3702,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ12">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3815,7 +3827,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -4021,7 +4033,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4308,7 +4320,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ15">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR15">
         <v>1.13</v>
@@ -4511,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ16">
         <v>1.75</v>
@@ -4923,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ18">
         <v>1.38</v>
@@ -5051,7 +5063,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5132,7 +5144,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ19">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5335,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ20">
         <v>1.13</v>
@@ -5544,7 +5556,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ21">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5669,7 +5681,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5875,7 +5887,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5953,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ23">
         <v>0.78</v>
@@ -6081,7 +6093,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6287,7 +6299,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6493,7 +6505,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6574,7 +6586,7 @@
         <v>1</v>
       </c>
       <c r="AQ26">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -6905,7 +6917,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6983,7 +6995,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ28">
         <v>1.22</v>
@@ -7111,7 +7123,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7189,10 +7201,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ29">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR29">
         <v>1.44</v>
@@ -7523,7 +7535,7 @@
         <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q31">
         <v>2.75</v>
@@ -7935,7 +7947,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8347,7 +8359,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8553,7 +8565,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8965,7 +8977,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9046,7 +9058,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ38">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR38">
         <v>1.41</v>
@@ -9249,7 +9261,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ39">
         <v>0.78</v>
@@ -9455,7 +9467,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ40">
         <v>1.38</v>
@@ -9870,7 +9882,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ42">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR42">
         <v>1.8</v>
@@ -10201,7 +10213,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10485,7 +10497,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ45">
         <v>0.5600000000000001</v>
@@ -10691,7 +10703,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ46">
         <v>1.22</v>
@@ -10819,7 +10831,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10900,7 +10912,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ47">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR47">
         <v>1.72</v>
@@ -11106,7 +11118,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ48">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR48">
         <v>1.67</v>
@@ -11309,7 +11321,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ49">
         <v>1.11</v>
@@ -12339,7 +12351,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ54">
         <v>1.6</v>
@@ -12467,7 +12479,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12673,7 +12685,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12754,7 +12766,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ56">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR56">
         <v>1.94</v>
@@ -12879,7 +12891,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -13085,7 +13097,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13163,7 +13175,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ58">
         <v>1.22</v>
@@ -13291,7 +13303,7 @@
         <v>94</v>
       </c>
       <c r="P59" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13578,7 +13590,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ60">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR60">
         <v>1.51</v>
@@ -14115,7 +14127,7 @@
         <v>94</v>
       </c>
       <c r="P63" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14321,7 +14333,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14733,7 +14745,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15145,7 +15157,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15223,7 +15235,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ68">
         <v>1.22</v>
@@ -15351,7 +15363,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15432,7 +15444,7 @@
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR69">
         <v>1.25</v>
@@ -15969,7 +15981,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16047,7 +16059,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ72">
         <v>1.13</v>
@@ -16175,7 +16187,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16256,7 +16268,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ73">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR73">
         <v>2.06</v>
@@ -16381,7 +16393,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16459,7 +16471,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ74">
         <v>1.75</v>
@@ -16587,7 +16599,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -16668,7 +16680,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ75">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR75">
         <v>1.58</v>
@@ -16871,7 +16883,7 @@
         <v>0.5</v>
       </c>
       <c r="AP76">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ76">
         <v>0.88</v>
@@ -17205,7 +17217,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17411,7 +17423,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q79">
         <v>3.85</v>
@@ -17695,7 +17707,7 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ80">
         <v>1.13</v>
@@ -17823,7 +17835,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q81">
         <v>2.65</v>
@@ -18029,7 +18041,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q82">
         <v>3.55</v>
@@ -18441,7 +18453,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -19059,7 +19071,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19140,7 +19152,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ87">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR87">
         <v>1.47</v>
@@ -19346,7 +19358,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ88">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR88">
         <v>1.96</v>
@@ -19471,7 +19483,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19549,7 +19561,7 @@
         <v>0</v>
       </c>
       <c r="AP89">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ89">
         <v>0.11</v>
@@ -19677,7 +19689,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20170,7 +20182,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ92">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR92">
         <v>1.5</v>
@@ -20295,7 +20307,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20501,7 +20513,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -20707,7 +20719,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20788,7 +20800,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ95">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR95">
         <v>1.44</v>
@@ -21403,7 +21415,7 @@
         <v>0.67</v>
       </c>
       <c r="AP98">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ98">
         <v>1.38</v>
@@ -21737,7 +21749,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -21818,7 +21830,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ100">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR100">
         <v>1.65</v>
@@ -21943,7 +21955,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -22021,7 +22033,7 @@
         <v>1.2</v>
       </c>
       <c r="AP101">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ101">
         <v>0.67</v>
@@ -22230,7 +22242,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ102">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR102">
         <v>1.55</v>
@@ -22433,10 +22445,10 @@
         <v>1.2</v>
       </c>
       <c r="AP103">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ103">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR103">
         <v>1.13</v>
@@ -22848,7 +22860,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ105">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR105">
         <v>1.71</v>
@@ -23179,7 +23191,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23463,7 +23475,7 @@
         <v>1.5</v>
       </c>
       <c r="AP108">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ108">
         <v>1.11</v>
@@ -23797,7 +23809,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -23878,7 +23890,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ110">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR110">
         <v>1.96</v>
@@ -24081,7 +24093,7 @@
         <v>1.75</v>
       </c>
       <c r="AP111">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ111">
         <v>0.78</v>
@@ -24209,7 +24221,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q112">
         <v>2.45</v>
@@ -24415,7 +24427,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -24621,7 +24633,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q114">
         <v>3.45</v>
@@ -25445,7 +25457,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q118">
         <v>2.8</v>
@@ -25857,7 +25869,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="Q120">
         <v>2.55</v>
@@ -26269,7 +26281,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26347,7 +26359,7 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ122">
         <v>0.88</v>
@@ -26475,7 +26487,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q123">
         <v>2.4</v>
@@ -26762,7 +26774,7 @@
         <v>1</v>
       </c>
       <c r="AQ124">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR124">
         <v>1.53</v>
@@ -26887,7 +26899,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q125">
         <v>2.63</v>
@@ -26968,7 +26980,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ125">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR125">
         <v>1.8</v>
@@ -27171,10 +27183,10 @@
         <v>1</v>
       </c>
       <c r="AP126">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ126">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR126">
         <v>1.56</v>
@@ -27377,7 +27389,7 @@
         <v>1</v>
       </c>
       <c r="AP127">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ127">
         <v>0.5600000000000001</v>
@@ -27505,7 +27517,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27917,7 +27929,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q130">
         <v>2.75</v>
@@ -27998,7 +28010,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ130">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR130">
         <v>1.16</v>
@@ -28123,7 +28135,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q131">
         <v>3.25</v>
@@ -28201,7 +28213,7 @@
         <v>1</v>
       </c>
       <c r="AP131">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ131">
         <v>1.25</v>
@@ -28329,7 +28341,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28535,7 +28547,7 @@
         <v>106</v>
       </c>
       <c r="P133" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q133">
         <v>3.1</v>
@@ -28613,10 +28625,10 @@
         <v>0.2</v>
       </c>
       <c r="AP133">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ133">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR133">
         <v>1.15</v>
@@ -28741,7 +28753,7 @@
         <v>94</v>
       </c>
       <c r="P134" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q134">
         <v>3.1</v>
@@ -29153,7 +29165,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q136">
         <v>3.9</v>
@@ -29565,7 +29577,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -30183,7 +30195,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q141">
         <v>2.62</v>
@@ -30264,7 +30276,7 @@
         <v>2</v>
       </c>
       <c r="AQ141">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR141">
         <v>1.42</v>
@@ -30389,7 +30401,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q142">
         <v>3.6</v>
@@ -30595,7 +30607,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q143">
         <v>3.75</v>
@@ -30801,7 +30813,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -30882,7 +30894,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ144">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR144">
         <v>1.75</v>
@@ -31085,7 +31097,7 @@
         <v>0.86</v>
       </c>
       <c r="AP145">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ145">
         <v>0.67</v>
@@ -31213,7 +31225,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q146">
         <v>2.75</v>
@@ -31291,10 +31303,10 @@
         <v>2</v>
       </c>
       <c r="AP146">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ146">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR146">
         <v>1.62</v>
@@ -31419,7 +31431,7 @@
         <v>98</v>
       </c>
       <c r="P147" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q147">
         <v>3.65</v>
@@ -31497,7 +31509,7 @@
         <v>3</v>
       </c>
       <c r="AP147">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ147">
         <v>2.44</v>
@@ -31625,7 +31637,7 @@
         <v>94</v>
       </c>
       <c r="P148" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31703,7 +31715,7 @@
         <v>1</v>
       </c>
       <c r="AP148">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ148">
         <v>1.25</v>
@@ -31909,10 +31921,10 @@
         <v>1</v>
       </c>
       <c r="AP149">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ149">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR149">
         <v>1.82</v>
@@ -32655,7 +32667,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q153">
         <v>2.3</v>
@@ -33067,7 +33079,7 @@
         <v>199</v>
       </c>
       <c r="P155" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33273,7 +33285,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -33560,7 +33572,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ157">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR157">
         <v>1.68</v>
@@ -34793,7 +34805,7 @@
         <v>1.43</v>
       </c>
       <c r="AP163">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ163">
         <v>1.22</v>
@@ -34921,7 +34933,7 @@
         <v>206</v>
       </c>
       <c r="P164" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q164">
         <v>4.75</v>
@@ -35002,7 +35014,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ164">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR164">
         <v>1.2</v>
@@ -35411,7 +35423,7 @@
         <v>0.71</v>
       </c>
       <c r="AP166">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ166">
         <v>0.5600000000000001</v>
@@ -35539,7 +35551,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35617,7 +35629,7 @@
         <v>1.75</v>
       </c>
       <c r="AP167">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ167">
         <v>1.6</v>
@@ -35823,7 +35835,7 @@
         <v>3</v>
       </c>
       <c r="AP168">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ168">
         <v>2.44</v>
@@ -35951,7 +35963,7 @@
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q169">
         <v>2.88</v>
@@ -36029,10 +36041,10 @@
         <v>0.29</v>
       </c>
       <c r="AP169">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ169">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR169">
         <v>1.71</v>
@@ -36238,7 +36250,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ170">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR170">
         <v>1.18</v>
@@ -36569,7 +36581,7 @@
         <v>210</v>
       </c>
       <c r="P172" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -36650,7 +36662,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ172">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR172">
         <v>1.15</v>
@@ -36856,7 +36868,7 @@
         <v>2</v>
       </c>
       <c r="AQ173">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR173">
         <v>1.44</v>
@@ -37393,7 +37405,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q176">
         <v>2.3</v>
@@ -37599,7 +37611,7 @@
         <v>94</v>
       </c>
       <c r="P177" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q177">
         <v>2.5</v>
@@ -37805,7 +37817,7 @@
         <v>94</v>
       </c>
       <c r="P178" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q178">
         <v>2.38</v>
@@ -38011,7 +38023,7 @@
         <v>214</v>
       </c>
       <c r="P179" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q179">
         <v>2.4</v>
@@ -38217,7 +38229,7 @@
         <v>94</v>
       </c>
       <c r="P180" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q180">
         <v>2.3</v>
@@ -38423,7 +38435,7 @@
         <v>215</v>
       </c>
       <c r="P181" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q181">
         <v>2.55</v>
@@ -39247,7 +39259,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q185">
         <v>2.5</v>
@@ -39865,7 +39877,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q188">
         <v>3.5</v>
@@ -40029,7 +40041,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>7728395</v>
+        <v>7728396</v>
       </c>
       <c r="C189" t="s">
         <v>68</v>
@@ -40038,25 +40050,25 @@
         <v>69</v>
       </c>
       <c r="E189" s="2">
-        <v>45633.41666666666</v>
+        <v>45632.875</v>
       </c>
       <c r="F189">
         <v>0</v>
       </c>
       <c r="G189" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H189" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189">
         <v>1</v>
       </c>
       <c r="K189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L189">
         <v>2</v>
@@ -40071,163 +40083,163 @@
         <v>220</v>
       </c>
       <c r="P189" t="s">
-        <v>178</v>
+        <v>305</v>
       </c>
       <c r="Q189">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="R189">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S189">
-        <v>4.75</v>
+        <v>3.85</v>
       </c>
       <c r="T189">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="U189">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="V189">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="W189">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="X189">
-        <v>8.949999999999999</v>
+        <v>10.75</v>
       </c>
       <c r="Y189">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="Z189">
-        <v>1.85</v>
+        <v>2.54</v>
       </c>
       <c r="AA189">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="AB189">
-        <v>4.2</v>
+        <v>3.29</v>
       </c>
       <c r="AC189">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AD189">
-        <v>7.5</v>
+        <v>6.25</v>
       </c>
       <c r="AE189">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AF189">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="AG189">
-        <v>2.19</v>
+        <v>2.8</v>
       </c>
       <c r="AH189">
-        <v>1.6</v>
+        <v>1.37</v>
       </c>
       <c r="AI189">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AJ189">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="AK189">
-        <v>1.16</v>
+        <v>1.33</v>
       </c>
       <c r="AL189">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AM189">
-        <v>1.9</v>
+        <v>1.53</v>
       </c>
       <c r="AN189">
-        <v>1.89</v>
+        <v>1.63</v>
       </c>
       <c r="AO189">
-        <v>1.13</v>
+        <v>0.63</v>
       </c>
       <c r="AP189">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ189">
-        <v>1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR189">
-        <v>1.53</v>
+        <v>1.15</v>
       </c>
       <c r="AS189">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="AT189">
-        <v>2.78</v>
+        <v>2.29</v>
       </c>
       <c r="AU189">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AV189">
+        <v>7</v>
+      </c>
+      <c r="AW189">
+        <v>2</v>
+      </c>
+      <c r="AX189">
         <v>5</v>
       </c>
-      <c r="AW189">
-        <v>7</v>
-      </c>
-      <c r="AX189">
-        <v>3</v>
-      </c>
       <c r="AY189">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="AZ189">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA189">
         <v>4</v>
       </c>
       <c r="BB189">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BC189">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BD189">
-        <v>1.54</v>
+        <v>1.85</v>
       </c>
       <c r="BE189">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF189">
-        <v>2.7</v>
+        <v>2.18</v>
       </c>
       <c r="BG189">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="BH189">
-        <v>3.05</v>
+        <v>2.65</v>
       </c>
       <c r="BI189">
-        <v>1.52</v>
+        <v>1.66</v>
       </c>
       <c r="BJ189">
-        <v>2.3</v>
+        <v>2.04</v>
       </c>
       <c r="BK189">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="BL189">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="BM189">
-        <v>2.28</v>
+        <v>2.65</v>
       </c>
       <c r="BN189">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="BO189">
-        <v>2.9</v>
+        <v>3.55</v>
       </c>
       <c r="BP189">
-        <v>1.34</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="190" spans="1:68">
@@ -40235,7 +40247,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>7728393</v>
+        <v>7728395</v>
       </c>
       <c r="C190" t="s">
         <v>68</v>
@@ -40244,31 +40256,31 @@
         <v>69</v>
       </c>
       <c r="E190" s="2">
-        <v>45633.51041666666</v>
+        <v>45633.41666666666</v>
       </c>
       <c r="F190">
         <v>18</v>
       </c>
       <c r="G190" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H190" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K190">
         <v>1</v>
       </c>
       <c r="L190">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N190">
         <v>3</v>
@@ -40277,163 +40289,163 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>94</v>
+        <v>178</v>
       </c>
       <c r="Q190">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R190">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S190">
-        <v>3.85</v>
+        <v>4.75</v>
       </c>
       <c r="T190">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
       <c r="U190">
-        <v>2.88</v>
+        <v>2.45</v>
       </c>
       <c r="V190">
-        <v>2.62</v>
+        <v>3.4</v>
       </c>
       <c r="W190">
+        <v>1.28</v>
+      </c>
+      <c r="X190">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="Y190">
+        <v>1.04</v>
+      </c>
+      <c r="Z190">
+        <v>1.85</v>
+      </c>
+      <c r="AA190">
+        <v>3.1</v>
+      </c>
+      <c r="AB190">
+        <v>4.2</v>
+      </c>
+      <c r="AC190">
+        <v>1.08</v>
+      </c>
+      <c r="AD190">
+        <v>7.5</v>
+      </c>
+      <c r="AE190">
         <v>1.42</v>
       </c>
-      <c r="X190">
-        <v>6.45</v>
-      </c>
-      <c r="Y190">
-        <v>1.08</v>
-      </c>
-      <c r="Z190">
-        <v>1.95</v>
-      </c>
-      <c r="AA190">
-        <v>3.3</v>
-      </c>
-      <c r="AB190">
-        <v>3.3</v>
-      </c>
-      <c r="AC190">
-        <v>1.05</v>
-      </c>
-      <c r="AD190">
-        <v>9.5</v>
-      </c>
-      <c r="AE190">
-        <v>1.28</v>
-      </c>
       <c r="AF190">
-        <v>3.65</v>
+        <v>2.75</v>
       </c>
       <c r="AG190">
-        <v>1.8</v>
+        <v>2.19</v>
       </c>
       <c r="AH190">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AI190">
-        <v>1.62</v>
+        <v>2.05</v>
       </c>
       <c r="AJ190">
-        <v>2.1</v>
+        <v>1.72</v>
       </c>
       <c r="AK190">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="AL190">
         <v>1.25</v>
       </c>
       <c r="AM190">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="AN190">
-        <v>1.33</v>
+        <v>1.89</v>
       </c>
       <c r="AO190">
-        <v>2.75</v>
+        <v>1.13</v>
       </c>
       <c r="AP190">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ190">
-        <v>2.44</v>
+        <v>1</v>
       </c>
       <c r="AR190">
-        <v>1.74</v>
+        <v>1.53</v>
       </c>
       <c r="AS190">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="AT190">
-        <v>3.21</v>
+        <v>2.78</v>
       </c>
       <c r="AU190">
+        <v>10</v>
+      </c>
+      <c r="AV190">
+        <v>5</v>
+      </c>
+      <c r="AW190">
         <v>7</v>
       </c>
-      <c r="AV190">
+      <c r="AX190">
+        <v>3</v>
+      </c>
+      <c r="AY190">
+        <v>19</v>
+      </c>
+      <c r="AZ190">
+        <v>10</v>
+      </c>
+      <c r="BA190">
         <v>4</v>
       </c>
-      <c r="AW190">
-        <v>8</v>
-      </c>
-      <c r="AX190">
-        <v>4</v>
-      </c>
-      <c r="AY190">
-        <v>16</v>
-      </c>
-      <c r="AZ190">
-        <v>11</v>
-      </c>
-      <c r="BA190">
-        <v>2</v>
-      </c>
       <c r="BB190">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC190">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD190">
-        <v>1.74</v>
+        <v>1.54</v>
       </c>
       <c r="BE190">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF190">
-        <v>2.33</v>
+        <v>2.7</v>
       </c>
       <c r="BG190">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="BH190">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="BI190">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="BJ190">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="BK190">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BL190">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="BM190">
-        <v>2.55</v>
+        <v>2.28</v>
       </c>
       <c r="BN190">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="BO190">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="BP190">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="191" spans="1:68">
@@ -40441,7 +40453,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>7728391</v>
+        <v>7728393</v>
       </c>
       <c r="C191" t="s">
         <v>68</v>
@@ -40450,16 +40462,16 @@
         <v>69</v>
       </c>
       <c r="E191" s="2">
-        <v>45633.60416666666</v>
+        <v>45633.51041666666</v>
       </c>
       <c r="F191">
         <v>18</v>
       </c>
       <c r="G191" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H191" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="I191">
         <v>1</v>
@@ -40471,82 +40483,82 @@
         <v>1</v>
       </c>
       <c r="L191">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N191">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O191" t="s">
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>303</v>
+        <v>94</v>
       </c>
       <c r="Q191">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R191">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S191">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="T191">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="U191">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="V191">
-        <v>2.95</v>
+        <v>2.62</v>
       </c>
       <c r="W191">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="X191">
-        <v>6.9</v>
+        <v>6.45</v>
       </c>
       <c r="Y191">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z191">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AA191">
-        <v>3.47</v>
+        <v>3.3</v>
       </c>
       <c r="AB191">
-        <v>3.86</v>
+        <v>3.3</v>
       </c>
       <c r="AC191">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AD191">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AE191">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AF191">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="AG191">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="AH191">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AI191">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AJ191">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="AK191">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AL191">
         <v>1.25</v>
@@ -40555,91 +40567,91 @@
         <v>1.73</v>
       </c>
       <c r="AN191">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AO191">
-        <v>1.67</v>
+        <v>2.75</v>
       </c>
       <c r="AP191">
-        <v>1.11</v>
+        <v>1.5</v>
       </c>
       <c r="AQ191">
-        <v>1.6</v>
+        <v>2.44</v>
       </c>
       <c r="AR191">
-        <v>1.48</v>
+        <v>1.74</v>
       </c>
       <c r="AS191">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="AT191">
-        <v>2.81</v>
+        <v>3.21</v>
       </c>
       <c r="AU191">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV191">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW191">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AX191">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="AY191">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AZ191">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="BA191">
         <v>2</v>
       </c>
       <c r="BB191">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC191">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD191">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="BE191">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF191">
+        <v>2.33</v>
+      </c>
+      <c r="BG191">
+        <v>1.36</v>
+      </c>
+      <c r="BH191">
+        <v>2.8</v>
+      </c>
+      <c r="BI191">
+        <v>1.61</v>
+      </c>
+      <c r="BJ191">
+        <v>2.12</v>
+      </c>
+      <c r="BK191">
+        <v>1.98</v>
+      </c>
+      <c r="BL191">
+        <v>1.7</v>
+      </c>
+      <c r="BM191">
         <v>2.55</v>
       </c>
-      <c r="BG191">
+      <c r="BN191">
+        <v>1.43</v>
+      </c>
+      <c r="BO191">
+        <v>3.3</v>
+      </c>
+      <c r="BP191">
         <v>1.27</v>
-      </c>
-      <c r="BH191">
-        <v>3.3</v>
-      </c>
-      <c r="BI191">
-        <v>1.46</v>
-      </c>
-      <c r="BJ191">
-        <v>2.45</v>
-      </c>
-      <c r="BK191">
-        <v>1.75</v>
-      </c>
-      <c r="BL191">
-        <v>1.92</v>
-      </c>
-      <c r="BM191">
-        <v>2.18</v>
-      </c>
-      <c r="BN191">
-        <v>1.58</v>
-      </c>
-      <c r="BO191">
-        <v>2.8</v>
-      </c>
-      <c r="BP191">
-        <v>1.36</v>
       </c>
     </row>
     <row r="192" spans="1:68">
@@ -40647,7 +40659,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>7728396</v>
+        <v>7728391</v>
       </c>
       <c r="C192" t="s">
         <v>68</v>
@@ -40656,196 +40668,1226 @@
         <v>69</v>
       </c>
       <c r="E192" s="2">
-        <v>45633.70833333334</v>
+        <v>45633.60416666666</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G192" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H192" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="I192">
         <v>1</v>
       </c>
       <c r="J192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M192">
         <v>1</v>
       </c>
       <c r="N192">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O192" t="s">
         <v>223</v>
       </c>
       <c r="P192" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q192">
+        <v>2.7</v>
+      </c>
+      <c r="R192">
+        <v>2</v>
+      </c>
+      <c r="S192">
+        <v>4</v>
+      </c>
+      <c r="T192">
+        <v>1.44</v>
+      </c>
+      <c r="U192">
+        <v>2.6</v>
+      </c>
+      <c r="V192">
+        <v>2.95</v>
+      </c>
+      <c r="W192">
+        <v>1.35</v>
+      </c>
+      <c r="X192">
+        <v>6.9</v>
+      </c>
+      <c r="Y192">
+        <v>1.07</v>
+      </c>
+      <c r="Z192">
+        <v>2.05</v>
+      </c>
+      <c r="AA192">
+        <v>3.47</v>
+      </c>
+      <c r="AB192">
+        <v>3.86</v>
+      </c>
+      <c r="AC192">
+        <v>1.07</v>
+      </c>
+      <c r="AD192">
+        <v>8</v>
+      </c>
+      <c r="AE192">
+        <v>1.35</v>
+      </c>
+      <c r="AF192">
+        <v>3.1</v>
+      </c>
+      <c r="AG192">
+        <v>2.02</v>
+      </c>
+      <c r="AH192">
+        <v>1.7</v>
+      </c>
+      <c r="AI192">
+        <v>1.83</v>
+      </c>
+      <c r="AJ192">
+        <v>1.85</v>
+      </c>
+      <c r="AK192">
+        <v>1.28</v>
+      </c>
+      <c r="AL192">
+        <v>1.25</v>
+      </c>
+      <c r="AM192">
+        <v>1.73</v>
+      </c>
+      <c r="AN192">
+        <v>1.13</v>
+      </c>
+      <c r="AO192">
+        <v>1.67</v>
+      </c>
+      <c r="AP192">
+        <v>1.11</v>
+      </c>
+      <c r="AQ192">
+        <v>1.6</v>
+      </c>
+      <c r="AR192">
+        <v>1.48</v>
+      </c>
+      <c r="AS192">
+        <v>1.33</v>
+      </c>
+      <c r="AT192">
+        <v>2.81</v>
+      </c>
+      <c r="AU192">
+        <v>3</v>
+      </c>
+      <c r="AV192">
+        <v>5</v>
+      </c>
+      <c r="AW192">
+        <v>3</v>
+      </c>
+      <c r="AX192">
+        <v>15</v>
+      </c>
+      <c r="AY192">
+        <v>7</v>
+      </c>
+      <c r="AZ192">
+        <v>24</v>
+      </c>
+      <c r="BA192">
+        <v>2</v>
+      </c>
+      <c r="BB192">
+        <v>5</v>
+      </c>
+      <c r="BC192">
+        <v>7</v>
+      </c>
+      <c r="BD192">
+        <v>1.65</v>
+      </c>
+      <c r="BE192">
+        <v>6.75</v>
+      </c>
+      <c r="BF192">
+        <v>2.55</v>
+      </c>
+      <c r="BG192">
+        <v>1.27</v>
+      </c>
+      <c r="BH192">
+        <v>3.3</v>
+      </c>
+      <c r="BI192">
+        <v>1.46</v>
+      </c>
+      <c r="BJ192">
+        <v>2.45</v>
+      </c>
+      <c r="BK192">
+        <v>1.75</v>
+      </c>
+      <c r="BL192">
+        <v>1.92</v>
+      </c>
+      <c r="BM192">
+        <v>2.18</v>
+      </c>
+      <c r="BN192">
+        <v>1.58</v>
+      </c>
+      <c r="BO192">
+        <v>2.8</v>
+      </c>
+      <c r="BP192">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7728392</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45634.41666666666</v>
+      </c>
+      <c r="F193">
+        <v>18</v>
+      </c>
+      <c r="G193" t="s">
+        <v>73</v>
+      </c>
+      <c r="H193" t="s">
+        <v>89</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>5</v>
+      </c>
+      <c r="N193">
+        <v>6</v>
+      </c>
+      <c r="O193" t="s">
+        <v>224</v>
+      </c>
+      <c r="P193" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q193">
+        <v>4.33</v>
+      </c>
+      <c r="R193">
+        <v>1.83</v>
+      </c>
+      <c r="S193">
+        <v>3.25</v>
+      </c>
+      <c r="T193">
+        <v>1.62</v>
+      </c>
+      <c r="U193">
+        <v>2.2</v>
+      </c>
+      <c r="V193">
+        <v>4</v>
+      </c>
+      <c r="W193">
+        <v>1.22</v>
+      </c>
+      <c r="X193">
+        <v>13</v>
+      </c>
+      <c r="Y193">
+        <v>1.04</v>
+      </c>
+      <c r="Z193">
+        <v>3.4</v>
+      </c>
+      <c r="AA193">
+        <v>2.9</v>
+      </c>
+      <c r="AB193">
+        <v>2.23</v>
+      </c>
+      <c r="AC193">
+        <v>1.12</v>
+      </c>
+      <c r="AD193">
+        <v>6.5</v>
+      </c>
+      <c r="AE193">
+        <v>1.57</v>
+      </c>
+      <c r="AF193">
+        <v>2.25</v>
+      </c>
+      <c r="AG193">
+        <v>2.6</v>
+      </c>
+      <c r="AH193">
+        <v>1.43</v>
+      </c>
+      <c r="AI193">
+        <v>2.25</v>
+      </c>
+      <c r="AJ193">
+        <v>1.57</v>
+      </c>
+      <c r="AK193">
+        <v>1.55</v>
+      </c>
+      <c r="AL193">
+        <v>1.33</v>
+      </c>
+      <c r="AM193">
+        <v>1.33</v>
+      </c>
+      <c r="AN193">
+        <v>0.89</v>
+      </c>
+      <c r="AO193">
+        <v>0.89</v>
+      </c>
+      <c r="AP193">
+        <v>0.8</v>
+      </c>
+      <c r="AQ193">
+        <v>1.1</v>
+      </c>
+      <c r="AR193">
+        <v>1.13</v>
+      </c>
+      <c r="AS193">
+        <v>1.08</v>
+      </c>
+      <c r="AT193">
+        <v>2.21</v>
+      </c>
+      <c r="AU193">
+        <v>3</v>
+      </c>
+      <c r="AV193">
+        <v>14</v>
+      </c>
+      <c r="AW193">
+        <v>1</v>
+      </c>
+      <c r="AX193">
+        <v>6</v>
+      </c>
+      <c r="AY193">
+        <v>9</v>
+      </c>
+      <c r="AZ193">
+        <v>28</v>
+      </c>
+      <c r="BA193">
+        <v>1</v>
+      </c>
+      <c r="BB193">
+        <v>5</v>
+      </c>
+      <c r="BC193">
+        <v>6</v>
+      </c>
+      <c r="BD193">
+        <v>2.3</v>
+      </c>
+      <c r="BE193">
+        <v>6.4</v>
+      </c>
+      <c r="BF193">
+        <v>1.77</v>
+      </c>
+      <c r="BG193">
+        <v>1.36</v>
+      </c>
+      <c r="BH193">
+        <v>2.8</v>
+      </c>
+      <c r="BI193">
+        <v>1.61</v>
+      </c>
+      <c r="BJ193">
+        <v>2.12</v>
+      </c>
+      <c r="BK193">
+        <v>1.98</v>
+      </c>
+      <c r="BL193">
+        <v>1.71</v>
+      </c>
+      <c r="BM193">
+        <v>2.5</v>
+      </c>
+      <c r="BN193">
+        <v>1.44</v>
+      </c>
+      <c r="BO193">
+        <v>3.3</v>
+      </c>
+      <c r="BP193">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7728394</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45634.51041666666</v>
+      </c>
+      <c r="F194">
+        <v>18</v>
+      </c>
+      <c r="G194" t="s">
+        <v>83</v>
+      </c>
+      <c r="H194" t="s">
+        <v>90</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+      <c r="M194">
+        <v>1</v>
+      </c>
+      <c r="N194">
+        <v>2</v>
+      </c>
+      <c r="O194" t="s">
+        <v>108</v>
+      </c>
+      <c r="P194" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q194">
+        <v>3.75</v>
+      </c>
+      <c r="R194">
+        <v>2.1</v>
+      </c>
+      <c r="S194">
+        <v>2.88</v>
+      </c>
+      <c r="T194">
+        <v>1.4</v>
+      </c>
+      <c r="U194">
+        <v>2.75</v>
+      </c>
+      <c r="V194">
+        <v>3</v>
+      </c>
+      <c r="W194">
+        <v>1.36</v>
+      </c>
+      <c r="X194">
+        <v>8</v>
+      </c>
+      <c r="Y194">
+        <v>1.08</v>
+      </c>
+      <c r="Z194">
+        <v>3.18</v>
+      </c>
+      <c r="AA194">
+        <v>3.4</v>
+      </c>
+      <c r="AB194">
+        <v>2.24</v>
+      </c>
+      <c r="AC194">
+        <v>1.06</v>
+      </c>
+      <c r="AD194">
+        <v>8.5</v>
+      </c>
+      <c r="AE194">
+        <v>1.3</v>
+      </c>
+      <c r="AF194">
+        <v>3.3</v>
+      </c>
+      <c r="AG194">
+        <v>1.85</v>
+      </c>
+      <c r="AH194">
+        <v>1.85</v>
+      </c>
+      <c r="AI194">
+        <v>1.73</v>
+      </c>
+      <c r="AJ194">
+        <v>2</v>
+      </c>
+      <c r="AK194">
+        <v>1.6</v>
+      </c>
+      <c r="AL194">
+        <v>1.25</v>
+      </c>
+      <c r="AM194">
+        <v>1.36</v>
+      </c>
+      <c r="AN194">
+        <v>1.88</v>
+      </c>
+      <c r="AO194">
+        <v>1.56</v>
+      </c>
+      <c r="AP194">
+        <v>1.78</v>
+      </c>
+      <c r="AQ194">
+        <v>1.5</v>
+      </c>
+      <c r="AR194">
+        <v>1.4</v>
+      </c>
+      <c r="AS194">
+        <v>1.43</v>
+      </c>
+      <c r="AT194">
+        <v>2.83</v>
+      </c>
+      <c r="AU194">
+        <v>0</v>
+      </c>
+      <c r="AV194">
+        <v>8</v>
+      </c>
+      <c r="AW194">
+        <v>4</v>
+      </c>
+      <c r="AX194">
+        <v>9</v>
+      </c>
+      <c r="AY194">
+        <v>9</v>
+      </c>
+      <c r="AZ194">
+        <v>22</v>
+      </c>
+      <c r="BA194">
+        <v>3</v>
+      </c>
+      <c r="BB194">
+        <v>10</v>
+      </c>
+      <c r="BC194">
+        <v>13</v>
+      </c>
+      <c r="BD194">
+        <v>2.18</v>
+      </c>
+      <c r="BE194">
+        <v>6.4</v>
+      </c>
+      <c r="BF194">
+        <v>1.83</v>
+      </c>
+      <c r="BG194">
+        <v>1.41</v>
+      </c>
+      <c r="BH194">
+        <v>2.6</v>
+      </c>
+      <c r="BI194">
+        <v>1.7</v>
+      </c>
+      <c r="BJ194">
+        <v>1.98</v>
+      </c>
+      <c r="BK194">
+        <v>2.12</v>
+      </c>
+      <c r="BL194">
+        <v>1.61</v>
+      </c>
+      <c r="BM194">
+        <v>2.75</v>
+      </c>
+      <c r="BN194">
+        <v>1.37</v>
+      </c>
+      <c r="BO194">
+        <v>3.65</v>
+      </c>
+      <c r="BP194">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="195" spans="1:68">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>7728387</v>
+      </c>
+      <c r="C195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45634.60416666666</v>
+      </c>
+      <c r="F195">
+        <v>18</v>
+      </c>
+      <c r="G195" t="s">
+        <v>85</v>
+      </c>
+      <c r="H195" t="s">
+        <v>86</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>0</v>
+      </c>
+      <c r="O195" t="s">
+        <v>94</v>
+      </c>
+      <c r="P195" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q195">
+        <v>2.75</v>
+      </c>
+      <c r="R195">
+        <v>2.38</v>
+      </c>
+      <c r="S195">
+        <v>3.4</v>
+      </c>
+      <c r="T195">
+        <v>1.3</v>
+      </c>
+      <c r="U195">
+        <v>3.4</v>
+      </c>
+      <c r="V195">
+        <v>2.5</v>
+      </c>
+      <c r="W195">
+        <v>1.5</v>
+      </c>
+      <c r="X195">
+        <v>6</v>
+      </c>
+      <c r="Y195">
+        <v>1.13</v>
+      </c>
+      <c r="Z195">
+        <v>2.2</v>
+      </c>
+      <c r="AA195">
+        <v>3.6</v>
+      </c>
+      <c r="AB195">
+        <v>2.88</v>
+      </c>
+      <c r="AC195">
+        <v>1.04</v>
+      </c>
+      <c r="AD195">
+        <v>10</v>
+      </c>
+      <c r="AE195">
+        <v>1.18</v>
+      </c>
+      <c r="AF195">
+        <v>4.5</v>
+      </c>
+      <c r="AG195">
+        <v>1.6</v>
+      </c>
+      <c r="AH195">
+        <v>2.2</v>
+      </c>
+      <c r="AI195">
+        <v>1.5</v>
+      </c>
+      <c r="AJ195">
+        <v>2.5</v>
+      </c>
+      <c r="AK195">
+        <v>1.4</v>
+      </c>
+      <c r="AL195">
+        <v>1.22</v>
+      </c>
+      <c r="AM195">
+        <v>1.63</v>
+      </c>
+      <c r="AN195">
+        <v>1.5</v>
+      </c>
+      <c r="AO195">
+        <v>1.75</v>
+      </c>
+      <c r="AP195">
+        <v>1.44</v>
+      </c>
+      <c r="AQ195">
+        <v>1.67</v>
+      </c>
+      <c r="AR195">
+        <v>1.66</v>
+      </c>
+      <c r="AS195">
+        <v>1.44</v>
+      </c>
+      <c r="AT195">
+        <v>3.1</v>
+      </c>
+      <c r="AU195">
+        <v>3</v>
+      </c>
+      <c r="AV195">
+        <v>0</v>
+      </c>
+      <c r="AW195">
+        <v>5</v>
+      </c>
+      <c r="AX195">
+        <v>3</v>
+      </c>
+      <c r="AY195">
+        <v>10</v>
+      </c>
+      <c r="AZ195">
+        <v>6</v>
+      </c>
+      <c r="BA195">
+        <v>4</v>
+      </c>
+      <c r="BB195">
+        <v>6</v>
+      </c>
+      <c r="BC195">
+        <v>10</v>
+      </c>
+      <c r="BD195">
+        <v>1.83</v>
+      </c>
+      <c r="BE195">
+        <v>6.25</v>
+      </c>
+      <c r="BF195">
+        <v>2.18</v>
+      </c>
+      <c r="BG195">
+        <v>1.3</v>
+      </c>
+      <c r="BH195">
+        <v>3.05</v>
+      </c>
+      <c r="BI195">
+        <v>1.55</v>
+      </c>
+      <c r="BJ195">
+        <v>2.25</v>
+      </c>
+      <c r="BK195">
+        <v>1.88</v>
+      </c>
+      <c r="BL195">
+        <v>1.78</v>
+      </c>
+      <c r="BM195">
+        <v>2.38</v>
+      </c>
+      <c r="BN195">
+        <v>1.48</v>
+      </c>
+      <c r="BO195">
+        <v>3.05</v>
+      </c>
+      <c r="BP195">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:68">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>7728388</v>
+      </c>
+      <c r="C196" t="s">
+        <v>68</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45634.60416666666</v>
+      </c>
+      <c r="F196">
+        <v>18</v>
+      </c>
+      <c r="G196" t="s">
+        <v>78</v>
+      </c>
+      <c r="H196" t="s">
+        <v>80</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>1</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>1</v>
+      </c>
+      <c r="O196" t="s">
+        <v>225</v>
+      </c>
+      <c r="P196" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q196">
+        <v>3</v>
+      </c>
+      <c r="R196">
+        <v>2.05</v>
+      </c>
+      <c r="S196">
+        <v>4</v>
+      </c>
+      <c r="T196">
+        <v>1.5</v>
+      </c>
+      <c r="U196">
+        <v>2.5</v>
+      </c>
+      <c r="V196">
+        <v>3.4</v>
+      </c>
+      <c r="W196">
+        <v>1.3</v>
+      </c>
+      <c r="X196">
+        <v>10</v>
+      </c>
+      <c r="Y196">
+        <v>1.06</v>
+      </c>
+      <c r="Z196">
+        <v>2.1</v>
+      </c>
+      <c r="AA196">
+        <v>3.3</v>
+      </c>
+      <c r="AB196">
+        <v>3.4</v>
+      </c>
+      <c r="AC196">
+        <v>1.07</v>
+      </c>
+      <c r="AD196">
+        <v>8</v>
+      </c>
+      <c r="AE196">
+        <v>1.38</v>
+      </c>
+      <c r="AF196">
+        <v>2.9</v>
+      </c>
+      <c r="AG196">
+        <v>2.15</v>
+      </c>
+      <c r="AH196">
+        <v>1.62</v>
+      </c>
+      <c r="AI196">
+        <v>1.91</v>
+      </c>
+      <c r="AJ196">
+        <v>1.8</v>
+      </c>
+      <c r="AK196">
+        <v>1.3</v>
+      </c>
+      <c r="AL196">
+        <v>1.28</v>
+      </c>
+      <c r="AM196">
+        <v>1.68</v>
+      </c>
+      <c r="AN196">
+        <v>1.38</v>
+      </c>
+      <c r="AO196">
+        <v>0.63</v>
+      </c>
+      <c r="AP196">
+        <v>1.56</v>
+      </c>
+      <c r="AQ196">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR196">
+        <v>1.42</v>
+      </c>
+      <c r="AS196">
+        <v>1.15</v>
+      </c>
+      <c r="AT196">
+        <v>2.57</v>
+      </c>
+      <c r="AU196">
+        <v>5</v>
+      </c>
+      <c r="AV196">
+        <v>3</v>
+      </c>
+      <c r="AW196">
+        <v>4</v>
+      </c>
+      <c r="AX196">
+        <v>3</v>
+      </c>
+      <c r="AY196">
+        <v>15</v>
+      </c>
+      <c r="AZ196">
+        <v>11</v>
+      </c>
+      <c r="BA196">
+        <v>12</v>
+      </c>
+      <c r="BB196">
+        <v>2</v>
+      </c>
+      <c r="BC196">
+        <v>14</v>
+      </c>
+      <c r="BD196">
+        <v>1.73</v>
+      </c>
+      <c r="BE196">
+        <v>6.75</v>
+      </c>
+      <c r="BF196">
+        <v>2.33</v>
+      </c>
+      <c r="BG196">
+        <v>1.28</v>
+      </c>
+      <c r="BH196">
         <v>3.2</v>
       </c>
-      <c r="R192">
-        <v>1.83</v>
-      </c>
-      <c r="S192">
-        <v>3.85</v>
-      </c>
-      <c r="T192">
-        <v>1.6</v>
-      </c>
-      <c r="U192">
+      <c r="BI196">
+        <v>1.48</v>
+      </c>
+      <c r="BJ196">
+        <v>2.4</v>
+      </c>
+      <c r="BK196">
+        <v>1.78</v>
+      </c>
+      <c r="BL196">
+        <v>1.88</v>
+      </c>
+      <c r="BM196">
         <v>2.2</v>
       </c>
-      <c r="V192">
-        <v>3.75</v>
-      </c>
-      <c r="W192">
+      <c r="BN196">
+        <v>1.56</v>
+      </c>
+      <c r="BO196">
+        <v>2.85</v>
+      </c>
+      <c r="BP196">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="197" spans="1:68">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>7728390</v>
+      </c>
+      <c r="C197" t="s">
+        <v>68</v>
+      </c>
+      <c r="D197" t="s">
+        <v>69</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45634.70833333334</v>
+      </c>
+      <c r="F197">
+        <v>18</v>
+      </c>
+      <c r="G197" t="s">
+        <v>88</v>
+      </c>
+      <c r="H197" t="s">
+        <v>84</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>1</v>
+      </c>
+      <c r="L197">
+        <v>3</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <v>3</v>
+      </c>
+      <c r="O197" t="s">
+        <v>226</v>
+      </c>
+      <c r="P197" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q197">
+        <v>2.75</v>
+      </c>
+      <c r="R197">
+        <v>2</v>
+      </c>
+      <c r="S197">
+        <v>4.75</v>
+      </c>
+      <c r="T197">
+        <v>1.5</v>
+      </c>
+      <c r="U197">
+        <v>2.5</v>
+      </c>
+      <c r="V197">
+        <v>3.5</v>
+      </c>
+      <c r="W197">
+        <v>1.29</v>
+      </c>
+      <c r="X197">
+        <v>11</v>
+      </c>
+      <c r="Y197">
+        <v>1.05</v>
+      </c>
+      <c r="Z197">
+        <v>1.85</v>
+      </c>
+      <c r="AA197">
+        <v>3.4</v>
+      </c>
+      <c r="AB197">
+        <v>4</v>
+      </c>
+      <c r="AC197">
+        <v>1.08</v>
+      </c>
+      <c r="AD197">
+        <v>7.5</v>
+      </c>
+      <c r="AE197">
+        <v>1.42</v>
+      </c>
+      <c r="AF197">
+        <v>2.75</v>
+      </c>
+      <c r="AG197">
+        <v>2.25</v>
+      </c>
+      <c r="AH197">
+        <v>1.57</v>
+      </c>
+      <c r="AI197">
+        <v>2</v>
+      </c>
+      <c r="AJ197">
+        <v>1.73</v>
+      </c>
+      <c r="AK197">
         <v>1.22</v>
       </c>
-      <c r="X192">
-        <v>10.75</v>
-      </c>
-      <c r="Y192">
-        <v>1.01</v>
-      </c>
-      <c r="Z192">
-        <v>2.54</v>
-      </c>
-      <c r="AA192">
-        <v>2.96</v>
-      </c>
-      <c r="AB192">
-        <v>3.29</v>
-      </c>
-      <c r="AC192">
-        <v>1.11</v>
-      </c>
-      <c r="AD192">
-        <v>6.25</v>
-      </c>
-      <c r="AE192">
-        <v>1.5</v>
-      </c>
-      <c r="AF192">
-        <v>2.3</v>
-      </c>
-      <c r="AG192">
-        <v>2.8</v>
-      </c>
-      <c r="AH192">
-        <v>1.37</v>
-      </c>
-      <c r="AI192">
-        <v>2.1</v>
-      </c>
-      <c r="AJ192">
-        <v>1.62</v>
-      </c>
-      <c r="AK192">
+      <c r="AL197">
+        <v>1.28</v>
+      </c>
+      <c r="AM197">
+        <v>1.8</v>
+      </c>
+      <c r="AN197">
+        <v>2</v>
+      </c>
+      <c r="AO197">
+        <v>0.25</v>
+      </c>
+      <c r="AP197">
+        <v>2.11</v>
+      </c>
+      <c r="AQ197">
+        <v>0.22</v>
+      </c>
+      <c r="AR197">
+        <v>1.63</v>
+      </c>
+      <c r="AS197">
+        <v>1.09</v>
+      </c>
+      <c r="AT197">
+        <v>2.72</v>
+      </c>
+      <c r="AU197">
+        <v>8</v>
+      </c>
+      <c r="AV197">
+        <v>2</v>
+      </c>
+      <c r="AW197">
+        <v>11</v>
+      </c>
+      <c r="AX197">
+        <v>3</v>
+      </c>
+      <c r="AY197">
+        <v>21</v>
+      </c>
+      <c r="AZ197">
+        <v>7</v>
+      </c>
+      <c r="BA197">
+        <v>12</v>
+      </c>
+      <c r="BB197">
+        <v>4</v>
+      </c>
+      <c r="BC197">
+        <v>16</v>
+      </c>
+      <c r="BD197">
+        <v>1.47</v>
+      </c>
+      <c r="BE197">
+        <v>7</v>
+      </c>
+      <c r="BF197">
+        <v>3.05</v>
+      </c>
+      <c r="BG197">
         <v>1.33</v>
       </c>
-      <c r="AL192">
-        <v>1.33</v>
-      </c>
-      <c r="AM192">
-        <v>1.53</v>
-      </c>
-      <c r="AN192">
-        <v>1.63</v>
-      </c>
-      <c r="AO192">
-        <v>0.63</v>
-      </c>
-      <c r="AP192">
-        <v>1.78</v>
-      </c>
-      <c r="AQ192">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AR192">
-        <v>1.15</v>
-      </c>
-      <c r="AS192">
-        <v>1.14</v>
-      </c>
-      <c r="AT192">
-        <v>2.29</v>
-      </c>
-      <c r="AU192">
-        <v>6</v>
-      </c>
-      <c r="AV192">
-        <v>7</v>
-      </c>
-      <c r="AW192">
-        <v>2</v>
-      </c>
-      <c r="AX192">
-        <v>5</v>
-      </c>
-      <c r="AY192">
-        <v>8</v>
-      </c>
-      <c r="AZ192">
-        <v>14</v>
-      </c>
-      <c r="BA192">
-        <v>4</v>
-      </c>
-      <c r="BB192">
-        <v>8</v>
-      </c>
-      <c r="BC192">
-        <v>12</v>
-      </c>
-      <c r="BD192">
-        <v>1.85</v>
-      </c>
-      <c r="BE192">
-        <v>6.4</v>
-      </c>
-      <c r="BF192">
-        <v>2.18</v>
-      </c>
-      <c r="BG192">
-        <v>1.4</v>
-      </c>
-      <c r="BH192">
-        <v>2.65</v>
-      </c>
-      <c r="BI192">
-        <v>1.66</v>
-      </c>
-      <c r="BJ192">
-        <v>2.04</v>
-      </c>
-      <c r="BK192">
-        <v>2.06</v>
-      </c>
-      <c r="BL192">
-        <v>1.64</v>
-      </c>
-      <c r="BM192">
-        <v>2.65</v>
-      </c>
-      <c r="BN192">
-        <v>1.38</v>
-      </c>
-      <c r="BO192">
-        <v>3.55</v>
-      </c>
-      <c r="BP192">
-        <v>1.23</v>
+      <c r="BH197">
+        <v>2.95</v>
+      </c>
+      <c r="BI197">
+        <v>1.55</v>
+      </c>
+      <c r="BJ197">
+        <v>2.25</v>
+      </c>
+      <c r="BK197">
+        <v>1.89</v>
+      </c>
+      <c r="BL197">
+        <v>1.77</v>
+      </c>
+      <c r="BM197">
+        <v>2.38</v>
+      </c>
+      <c r="BN197">
+        <v>1.49</v>
+      </c>
+      <c r="BO197">
+        <v>3.05</v>
+      </c>
+      <c r="BP197">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="309">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -676,9 +676,6 @@
     <t>['87', '90+3']</t>
   </si>
   <si>
-    <t>['39', '78']</t>
-  </si>
-  <si>
     <t>['82', '90+4']</t>
   </si>
   <si>
@@ -688,10 +685,13 @@
     <t>['7']</t>
   </si>
   <si>
-    <t>['87']</t>
+    <t>['39', '78']</t>
   </si>
   <si>
     <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['87']</t>
   </si>
   <si>
     <t>['45', '83', '90+8']</t>
@@ -931,10 +931,10 @@
     <t>['20']</t>
   </si>
   <si>
-    <t>['9']</t>
+    <t>['90+2']</t>
   </si>
   <si>
-    <t>['90+2']</t>
+    <t>['9']</t>
   </si>
   <si>
     <t>['42', '52', '63', '90+1', '90+8']</t>
@@ -1302,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP197"/>
+  <dimension ref="A1:BP198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3415,7 +3415,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -5759,7 +5759,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ22">
         <v>1.6</v>
@@ -6792,7 +6792,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ27">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -9673,7 +9673,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ41">
         <v>1.22</v>
@@ -11530,7 +11530,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ50">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR50">
         <v>1.56</v>
@@ -14002,7 +14002,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ62">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR62">
         <v>1.36</v>
@@ -14411,7 +14411,7 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ64">
         <v>1</v>
@@ -17916,7 +17916,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ81">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR81">
         <v>1.41</v>
@@ -19973,7 +19973,7 @@
         <v>0.33</v>
       </c>
       <c r="AP91">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ91">
         <v>0.88</v>
@@ -23684,7 +23684,7 @@
         <v>2</v>
       </c>
       <c r="AQ109">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR109">
         <v>1.4</v>
@@ -25123,7 +25123,7 @@
         <v>0.75</v>
       </c>
       <c r="AP116">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ116">
         <v>1.13</v>
@@ -25869,7 +25869,7 @@
         <v>174</v>
       </c>
       <c r="P120" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q120">
         <v>2.55</v>
@@ -28216,7 +28216,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ131">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR131">
         <v>1.64</v>
@@ -29243,7 +29243,7 @@
         <v>0.83</v>
       </c>
       <c r="AP136">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ136">
         <v>1.22</v>
@@ -31637,7 +31637,7 @@
         <v>94</v>
       </c>
       <c r="P148" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31718,7 +31718,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ148">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR148">
         <v>1.4</v>
@@ -33981,7 +33981,7 @@
         <v>1.17</v>
       </c>
       <c r="AP159">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ159">
         <v>1.11</v>
@@ -35011,7 +35011,7 @@
         <v>1.38</v>
       </c>
       <c r="AP164">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ164">
         <v>1.5</v>
@@ -36456,7 +36456,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ171">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR171">
         <v>1.57</v>
@@ -40041,7 +40041,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>7728396</v>
+        <v>7728395</v>
       </c>
       <c r="C189" t="s">
         <v>68</v>
@@ -40050,25 +40050,25 @@
         <v>69</v>
       </c>
       <c r="E189" s="2">
-        <v>45632.875</v>
+        <v>45633.41666666666</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G189" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H189" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189">
         <v>1</v>
       </c>
       <c r="K189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L189">
         <v>2</v>
@@ -40083,163 +40083,163 @@
         <v>220</v>
       </c>
       <c r="P189" t="s">
-        <v>305</v>
+        <v>178</v>
       </c>
       <c r="Q189">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="R189">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S189">
-        <v>3.85</v>
+        <v>4.75</v>
       </c>
       <c r="T189">
+        <v>1.49</v>
+      </c>
+      <c r="U189">
+        <v>2.45</v>
+      </c>
+      <c r="V189">
+        <v>3.4</v>
+      </c>
+      <c r="W189">
+        <v>1.28</v>
+      </c>
+      <c r="X189">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="Y189">
+        <v>1.04</v>
+      </c>
+      <c r="Z189">
+        <v>1.85</v>
+      </c>
+      <c r="AA189">
+        <v>3.1</v>
+      </c>
+      <c r="AB189">
+        <v>4.2</v>
+      </c>
+      <c r="AC189">
+        <v>1.08</v>
+      </c>
+      <c r="AD189">
+        <v>7.5</v>
+      </c>
+      <c r="AE189">
+        <v>1.42</v>
+      </c>
+      <c r="AF189">
+        <v>2.75</v>
+      </c>
+      <c r="AG189">
+        <v>2.19</v>
+      </c>
+      <c r="AH189">
         <v>1.6</v>
       </c>
-      <c r="U189">
-        <v>2.2</v>
-      </c>
-      <c r="V189">
-        <v>3.75</v>
-      </c>
-      <c r="W189">
-        <v>1.22</v>
-      </c>
-      <c r="X189">
-        <v>10.75</v>
-      </c>
-      <c r="Y189">
-        <v>1.01</v>
-      </c>
-      <c r="Z189">
-        <v>2.54</v>
-      </c>
-      <c r="AA189">
-        <v>2.96</v>
-      </c>
-      <c r="AB189">
-        <v>3.29</v>
-      </c>
-      <c r="AC189">
-        <v>1.11</v>
-      </c>
-      <c r="AD189">
-        <v>6.25</v>
-      </c>
-      <c r="AE189">
-        <v>1.5</v>
-      </c>
-      <c r="AF189">
-        <v>2.3</v>
-      </c>
-      <c r="AG189">
-        <v>2.8</v>
-      </c>
-      <c r="AH189">
-        <v>1.37</v>
-      </c>
       <c r="AI189">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AJ189">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="AK189">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="AL189">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AM189">
+        <v>1.9</v>
+      </c>
+      <c r="AN189">
+        <v>1.89</v>
+      </c>
+      <c r="AO189">
+        <v>1.13</v>
+      </c>
+      <c r="AP189">
+        <v>2</v>
+      </c>
+      <c r="AQ189">
+        <v>1</v>
+      </c>
+      <c r="AR189">
         <v>1.53</v>
       </c>
-      <c r="AN189">
-        <v>1.63</v>
-      </c>
-      <c r="AO189">
-        <v>0.63</v>
-      </c>
-      <c r="AP189">
-        <v>1.78</v>
-      </c>
-      <c r="AQ189">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AR189">
-        <v>1.15</v>
-      </c>
       <c r="AS189">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AT189">
-        <v>2.29</v>
+        <v>2.78</v>
       </c>
       <c r="AU189">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AV189">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW189">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AX189">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY189">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AZ189">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA189">
         <v>4</v>
       </c>
       <c r="BB189">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BC189">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BD189">
-        <v>1.85</v>
+        <v>1.54</v>
       </c>
       <c r="BE189">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF189">
-        <v>2.18</v>
+        <v>2.7</v>
       </c>
       <c r="BG189">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="BH189">
-        <v>2.65</v>
+        <v>3.05</v>
       </c>
       <c r="BI189">
-        <v>1.66</v>
+        <v>1.52</v>
       </c>
       <c r="BJ189">
-        <v>2.04</v>
+        <v>2.3</v>
       </c>
       <c r="BK189">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="BL189">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="BM189">
-        <v>2.65</v>
+        <v>2.28</v>
       </c>
       <c r="BN189">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="BO189">
-        <v>3.55</v>
+        <v>2.9</v>
       </c>
       <c r="BP189">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="190" spans="1:68">
@@ -40247,7 +40247,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>7728395</v>
+        <v>7728393</v>
       </c>
       <c r="C190" t="s">
         <v>68</v>
@@ -40256,31 +40256,31 @@
         <v>69</v>
       </c>
       <c r="E190" s="2">
-        <v>45633.41666666666</v>
+        <v>45633.51041666666</v>
       </c>
       <c r="F190">
         <v>18</v>
       </c>
       <c r="G190" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H190" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K190">
         <v>1</v>
       </c>
       <c r="L190">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N190">
         <v>3</v>
@@ -40289,163 +40289,163 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>178</v>
+        <v>94</v>
       </c>
       <c r="Q190">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R190">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S190">
-        <v>4.75</v>
+        <v>3.85</v>
       </c>
       <c r="T190">
-        <v>1.49</v>
+        <v>1.36</v>
       </c>
       <c r="U190">
-        <v>2.45</v>
+        <v>2.88</v>
       </c>
       <c r="V190">
-        <v>3.4</v>
+        <v>2.62</v>
       </c>
       <c r="W190">
+        <v>1.42</v>
+      </c>
+      <c r="X190">
+        <v>6.45</v>
+      </c>
+      <c r="Y190">
+        <v>1.08</v>
+      </c>
+      <c r="Z190">
+        <v>1.95</v>
+      </c>
+      <c r="AA190">
+        <v>3.3</v>
+      </c>
+      <c r="AB190">
+        <v>3.3</v>
+      </c>
+      <c r="AC190">
+        <v>1.05</v>
+      </c>
+      <c r="AD190">
+        <v>9.5</v>
+      </c>
+      <c r="AE190">
         <v>1.28</v>
       </c>
-      <c r="X190">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="Y190">
-        <v>1.04</v>
-      </c>
-      <c r="Z190">
-        <v>1.85</v>
-      </c>
-      <c r="AA190">
-        <v>3.1</v>
-      </c>
-      <c r="AB190">
-        <v>4.2</v>
-      </c>
-      <c r="AC190">
-        <v>1.08</v>
-      </c>
-      <c r="AD190">
-        <v>7.5</v>
-      </c>
-      <c r="AE190">
-        <v>1.42</v>
-      </c>
       <c r="AF190">
-        <v>2.75</v>
+        <v>3.65</v>
       </c>
       <c r="AG190">
-        <v>2.19</v>
+        <v>1.8</v>
       </c>
       <c r="AH190">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AI190">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="AJ190">
-        <v>1.72</v>
+        <v>2.1</v>
       </c>
       <c r="AK190">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="AL190">
         <v>1.25</v>
       </c>
       <c r="AM190">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AN190">
-        <v>1.89</v>
+        <v>1.33</v>
       </c>
       <c r="AO190">
-        <v>1.13</v>
+        <v>2.75</v>
       </c>
       <c r="AP190">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ190">
-        <v>1</v>
+        <v>2.44</v>
       </c>
       <c r="AR190">
-        <v>1.53</v>
+        <v>1.74</v>
       </c>
       <c r="AS190">
-        <v>1.25</v>
+        <v>1.47</v>
       </c>
       <c r="AT190">
-        <v>2.78</v>
+        <v>3.21</v>
       </c>
       <c r="AU190">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AV190">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW190">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX190">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY190">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ190">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA190">
+        <v>2</v>
+      </c>
+      <c r="BB190">
         <v>4</v>
       </c>
-      <c r="BB190">
-        <v>1</v>
-      </c>
       <c r="BC190">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD190">
-        <v>1.54</v>
+        <v>1.74</v>
       </c>
       <c r="BE190">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF190">
-        <v>2.7</v>
+        <v>2.33</v>
       </c>
       <c r="BG190">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="BH190">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="BI190">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="BJ190">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="BK190">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="BL190">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="BM190">
-        <v>2.28</v>
+        <v>2.55</v>
       </c>
       <c r="BN190">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="BO190">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="BP190">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="191" spans="1:68">
@@ -40453,7 +40453,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>7728393</v>
+        <v>7728391</v>
       </c>
       <c r="C191" t="s">
         <v>68</v>
@@ -40462,16 +40462,16 @@
         <v>69</v>
       </c>
       <c r="E191" s="2">
-        <v>45633.51041666666</v>
+        <v>45633.60416666666</v>
       </c>
       <c r="F191">
         <v>18</v>
       </c>
       <c r="G191" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H191" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="I191">
         <v>1</v>
@@ -40483,82 +40483,82 @@
         <v>1</v>
       </c>
       <c r="L191">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N191">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O191" t="s">
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>94</v>
+        <v>305</v>
       </c>
       <c r="Q191">
+        <v>2.7</v>
+      </c>
+      <c r="R191">
+        <v>2</v>
+      </c>
+      <c r="S191">
+        <v>4</v>
+      </c>
+      <c r="T191">
+        <v>1.44</v>
+      </c>
+      <c r="U191">
         <v>2.6</v>
       </c>
-      <c r="R191">
-        <v>2.1</v>
-      </c>
-      <c r="S191">
-        <v>3.85</v>
-      </c>
-      <c r="T191">
-        <v>1.36</v>
-      </c>
-      <c r="U191">
-        <v>2.88</v>
-      </c>
       <c r="V191">
-        <v>2.62</v>
+        <v>2.95</v>
       </c>
       <c r="W191">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="X191">
-        <v>6.45</v>
+        <v>6.9</v>
       </c>
       <c r="Y191">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z191">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AA191">
-        <v>3.3</v>
+        <v>3.47</v>
       </c>
       <c r="AB191">
-        <v>3.3</v>
+        <v>3.86</v>
       </c>
       <c r="AC191">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AD191">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AE191">
+        <v>1.35</v>
+      </c>
+      <c r="AF191">
+        <v>3.1</v>
+      </c>
+      <c r="AG191">
+        <v>2.02</v>
+      </c>
+      <c r="AH191">
+        <v>1.7</v>
+      </c>
+      <c r="AI191">
+        <v>1.83</v>
+      </c>
+      <c r="AJ191">
+        <v>1.85</v>
+      </c>
+      <c r="AK191">
         <v>1.28</v>
-      </c>
-      <c r="AF191">
-        <v>3.65</v>
-      </c>
-      <c r="AG191">
-        <v>1.8</v>
-      </c>
-      <c r="AH191">
-        <v>1.9</v>
-      </c>
-      <c r="AI191">
-        <v>1.62</v>
-      </c>
-      <c r="AJ191">
-        <v>2.1</v>
-      </c>
-      <c r="AK191">
-        <v>1.3</v>
       </c>
       <c r="AL191">
         <v>1.25</v>
@@ -40567,91 +40567,91 @@
         <v>1.73</v>
       </c>
       <c r="AN191">
+        <v>1.13</v>
+      </c>
+      <c r="AO191">
+        <v>1.67</v>
+      </c>
+      <c r="AP191">
+        <v>1.11</v>
+      </c>
+      <c r="AQ191">
+        <v>1.6</v>
+      </c>
+      <c r="AR191">
+        <v>1.48</v>
+      </c>
+      <c r="AS191">
         <v>1.33</v>
       </c>
-      <c r="AO191">
-        <v>2.75</v>
-      </c>
-      <c r="AP191">
-        <v>1.5</v>
-      </c>
-      <c r="AQ191">
-        <v>2.44</v>
-      </c>
-      <c r="AR191">
-        <v>1.74</v>
-      </c>
-      <c r="AS191">
-        <v>1.47</v>
-      </c>
       <c r="AT191">
-        <v>3.21</v>
+        <v>2.81</v>
       </c>
       <c r="AU191">
+        <v>3</v>
+      </c>
+      <c r="AV191">
+        <v>5</v>
+      </c>
+      <c r="AW191">
+        <v>3</v>
+      </c>
+      <c r="AX191">
+        <v>15</v>
+      </c>
+      <c r="AY191">
         <v>7</v>
       </c>
-      <c r="AV191">
-        <v>4</v>
-      </c>
-      <c r="AW191">
-        <v>8</v>
-      </c>
-      <c r="AX191">
-        <v>4</v>
-      </c>
-      <c r="AY191">
-        <v>16</v>
-      </c>
       <c r="AZ191">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="BA191">
         <v>2</v>
       </c>
       <c r="BB191">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC191">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD191">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="BE191">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF191">
-        <v>2.33</v>
+        <v>2.55</v>
       </c>
       <c r="BG191">
+        <v>1.27</v>
+      </c>
+      <c r="BH191">
+        <v>3.3</v>
+      </c>
+      <c r="BI191">
+        <v>1.46</v>
+      </c>
+      <c r="BJ191">
+        <v>2.45</v>
+      </c>
+      <c r="BK191">
+        <v>1.75</v>
+      </c>
+      <c r="BL191">
+        <v>1.92</v>
+      </c>
+      <c r="BM191">
+        <v>2.18</v>
+      </c>
+      <c r="BN191">
+        <v>1.58</v>
+      </c>
+      <c r="BO191">
+        <v>2.8</v>
+      </c>
+      <c r="BP191">
         <v>1.36</v>
-      </c>
-      <c r="BH191">
-        <v>2.8</v>
-      </c>
-      <c r="BI191">
-        <v>1.61</v>
-      </c>
-      <c r="BJ191">
-        <v>2.12</v>
-      </c>
-      <c r="BK191">
-        <v>1.98</v>
-      </c>
-      <c r="BL191">
-        <v>1.7</v>
-      </c>
-      <c r="BM191">
-        <v>2.55</v>
-      </c>
-      <c r="BN191">
-        <v>1.43</v>
-      </c>
-      <c r="BO191">
-        <v>3.3</v>
-      </c>
-      <c r="BP191">
-        <v>1.27</v>
       </c>
     </row>
     <row r="192" spans="1:68">
@@ -40659,7 +40659,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>7728391</v>
+        <v>7728396</v>
       </c>
       <c r="C192" t="s">
         <v>68</v>
@@ -40668,34 +40668,34 @@
         <v>69</v>
       </c>
       <c r="E192" s="2">
-        <v>45633.60416666666</v>
+        <v>45633.70833333334</v>
       </c>
       <c r="F192">
         <v>18</v>
       </c>
       <c r="G192" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H192" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="I192">
         <v>1</v>
       </c>
       <c r="J192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M192">
         <v>1</v>
       </c>
       <c r="N192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O192" t="s">
         <v>223</v>
@@ -40704,160 +40704,160 @@
         <v>306</v>
       </c>
       <c r="Q192">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="R192">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S192">
+        <v>3.85</v>
+      </c>
+      <c r="T192">
+        <v>1.6</v>
+      </c>
+      <c r="U192">
+        <v>2.2</v>
+      </c>
+      <c r="V192">
+        <v>3.75</v>
+      </c>
+      <c r="W192">
+        <v>1.22</v>
+      </c>
+      <c r="X192">
+        <v>10.75</v>
+      </c>
+      <c r="Y192">
+        <v>1.01</v>
+      </c>
+      <c r="Z192">
+        <v>2.54</v>
+      </c>
+      <c r="AA192">
+        <v>2.96</v>
+      </c>
+      <c r="AB192">
+        <v>3.29</v>
+      </c>
+      <c r="AC192">
+        <v>1.11</v>
+      </c>
+      <c r="AD192">
+        <v>6.25</v>
+      </c>
+      <c r="AE192">
+        <v>1.5</v>
+      </c>
+      <c r="AF192">
+        <v>2.3</v>
+      </c>
+      <c r="AG192">
+        <v>2.8</v>
+      </c>
+      <c r="AH192">
+        <v>1.37</v>
+      </c>
+      <c r="AI192">
+        <v>2.1</v>
+      </c>
+      <c r="AJ192">
+        <v>1.62</v>
+      </c>
+      <c r="AK192">
+        <v>1.33</v>
+      </c>
+      <c r="AL192">
+        <v>1.33</v>
+      </c>
+      <c r="AM192">
+        <v>1.53</v>
+      </c>
+      <c r="AN192">
+        <v>1.63</v>
+      </c>
+      <c r="AO192">
+        <v>0.63</v>
+      </c>
+      <c r="AP192">
+        <v>1.78</v>
+      </c>
+      <c r="AQ192">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR192">
+        <v>1.15</v>
+      </c>
+      <c r="AS192">
+        <v>1.14</v>
+      </c>
+      <c r="AT192">
+        <v>2.29</v>
+      </c>
+      <c r="AU192">
+        <v>6</v>
+      </c>
+      <c r="AV192">
+        <v>7</v>
+      </c>
+      <c r="AW192">
+        <v>2</v>
+      </c>
+      <c r="AX192">
+        <v>5</v>
+      </c>
+      <c r="AY192">
+        <v>8</v>
+      </c>
+      <c r="AZ192">
+        <v>14</v>
+      </c>
+      <c r="BA192">
         <v>4</v>
       </c>
-      <c r="T192">
-        <v>1.44</v>
-      </c>
-      <c r="U192">
-        <v>2.6</v>
-      </c>
-      <c r="V192">
-        <v>2.95</v>
-      </c>
-      <c r="W192">
-        <v>1.35</v>
-      </c>
-      <c r="X192">
-        <v>6.9</v>
-      </c>
-      <c r="Y192">
-        <v>1.07</v>
-      </c>
-      <c r="Z192">
-        <v>2.05</v>
-      </c>
-      <c r="AA192">
-        <v>3.47</v>
-      </c>
-      <c r="AB192">
-        <v>3.86</v>
-      </c>
-      <c r="AC192">
-        <v>1.07</v>
-      </c>
-      <c r="AD192">
+      <c r="BB192">
         <v>8</v>
       </c>
-      <c r="AE192">
-        <v>1.35</v>
-      </c>
-      <c r="AF192">
-        <v>3.1</v>
-      </c>
-      <c r="AG192">
-        <v>2.02</v>
-      </c>
-      <c r="AH192">
-        <v>1.7</v>
-      </c>
-      <c r="AI192">
-        <v>1.83</v>
-      </c>
-      <c r="AJ192">
+      <c r="BC192">
+        <v>12</v>
+      </c>
+      <c r="BD192">
         <v>1.85</v>
       </c>
-      <c r="AK192">
-        <v>1.28</v>
-      </c>
-      <c r="AL192">
-        <v>1.25</v>
-      </c>
-      <c r="AM192">
-        <v>1.73</v>
-      </c>
-      <c r="AN192">
-        <v>1.13</v>
-      </c>
-      <c r="AO192">
-        <v>1.67</v>
-      </c>
-      <c r="AP192">
-        <v>1.11</v>
-      </c>
-      <c r="AQ192">
-        <v>1.6</v>
-      </c>
-      <c r="AR192">
-        <v>1.48</v>
-      </c>
-      <c r="AS192">
-        <v>1.33</v>
-      </c>
-      <c r="AT192">
-        <v>2.81</v>
-      </c>
-      <c r="AU192">
-        <v>3</v>
-      </c>
-      <c r="AV192">
-        <v>5</v>
-      </c>
-      <c r="AW192">
-        <v>3</v>
-      </c>
-      <c r="AX192">
-        <v>15</v>
-      </c>
-      <c r="AY192">
-        <v>7</v>
-      </c>
-      <c r="AZ192">
-        <v>24</v>
-      </c>
-      <c r="BA192">
-        <v>2</v>
-      </c>
-      <c r="BB192">
-        <v>5</v>
-      </c>
-      <c r="BC192">
-        <v>7</v>
-      </c>
-      <c r="BD192">
-        <v>1.65</v>
-      </c>
       <c r="BE192">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF192">
-        <v>2.55</v>
+        <v>2.18</v>
       </c>
       <c r="BG192">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="BH192">
-        <v>3.3</v>
+        <v>2.65</v>
       </c>
       <c r="BI192">
-        <v>1.46</v>
+        <v>1.66</v>
       </c>
       <c r="BJ192">
-        <v>2.45</v>
+        <v>2.04</v>
       </c>
       <c r="BK192">
-        <v>1.75</v>
+        <v>2.06</v>
       </c>
       <c r="BL192">
-        <v>1.92</v>
+        <v>1.64</v>
       </c>
       <c r="BM192">
-        <v>2.18</v>
+        <v>2.65</v>
       </c>
       <c r="BN192">
-        <v>1.58</v>
+        <v>1.38</v>
       </c>
       <c r="BO192">
-        <v>2.8</v>
+        <v>3.55</v>
       </c>
       <c r="BP192">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="193" spans="1:68">
@@ -40865,7 +40865,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>7728392</v>
+        <v>7728388</v>
       </c>
       <c r="C193" t="s">
         <v>68</v>
@@ -40874,196 +40874,196 @@
         <v>69</v>
       </c>
       <c r="E193" s="2">
-        <v>45634.41666666666</v>
+        <v>45633.875</v>
       </c>
       <c r="F193">
         <v>18</v>
       </c>
       <c r="G193" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H193" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I193">
         <v>0</v>
       </c>
       <c r="J193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L193">
         <v>1</v>
       </c>
       <c r="M193">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N193">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O193" t="s">
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>307</v>
+        <v>94</v>
       </c>
       <c r="Q193">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="R193">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="S193">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="T193">
+        <v>1.5</v>
+      </c>
+      <c r="U193">
+        <v>2.5</v>
+      </c>
+      <c r="V193">
+        <v>3.4</v>
+      </c>
+      <c r="W193">
+        <v>1.3</v>
+      </c>
+      <c r="X193">
+        <v>10</v>
+      </c>
+      <c r="Y193">
+        <v>1.06</v>
+      </c>
+      <c r="Z193">
+        <v>2.1</v>
+      </c>
+      <c r="AA193">
+        <v>3.3</v>
+      </c>
+      <c r="AB193">
+        <v>3.4</v>
+      </c>
+      <c r="AC193">
+        <v>1.07</v>
+      </c>
+      <c r="AD193">
+        <v>8</v>
+      </c>
+      <c r="AE193">
+        <v>1.38</v>
+      </c>
+      <c r="AF193">
+        <v>2.9</v>
+      </c>
+      <c r="AG193">
+        <v>2.15</v>
+      </c>
+      <c r="AH193">
         <v>1.62</v>
       </c>
-      <c r="U193">
+      <c r="AI193">
+        <v>1.91</v>
+      </c>
+      <c r="AJ193">
+        <v>1.8</v>
+      </c>
+      <c r="AK193">
+        <v>1.3</v>
+      </c>
+      <c r="AL193">
+        <v>1.28</v>
+      </c>
+      <c r="AM193">
+        <v>1.68</v>
+      </c>
+      <c r="AN193">
+        <v>1.38</v>
+      </c>
+      <c r="AO193">
+        <v>0.63</v>
+      </c>
+      <c r="AP193">
+        <v>1.56</v>
+      </c>
+      <c r="AQ193">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR193">
+        <v>1.42</v>
+      </c>
+      <c r="AS193">
+        <v>1.15</v>
+      </c>
+      <c r="AT193">
+        <v>2.57</v>
+      </c>
+      <c r="AU193">
+        <v>5</v>
+      </c>
+      <c r="AV193">
+        <v>3</v>
+      </c>
+      <c r="AW193">
+        <v>5</v>
+      </c>
+      <c r="AX193">
+        <v>3</v>
+      </c>
+      <c r="AY193">
+        <v>16</v>
+      </c>
+      <c r="AZ193">
+        <v>11</v>
+      </c>
+      <c r="BA193">
+        <v>12</v>
+      </c>
+      <c r="BB193">
+        <v>2</v>
+      </c>
+      <c r="BC193">
+        <v>14</v>
+      </c>
+      <c r="BD193">
+        <v>1.73</v>
+      </c>
+      <c r="BE193">
+        <v>6.75</v>
+      </c>
+      <c r="BF193">
+        <v>2.33</v>
+      </c>
+      <c r="BG193">
+        <v>1.28</v>
+      </c>
+      <c r="BH193">
+        <v>3.2</v>
+      </c>
+      <c r="BI193">
+        <v>1.48</v>
+      </c>
+      <c r="BJ193">
+        <v>2.4</v>
+      </c>
+      <c r="BK193">
+        <v>1.78</v>
+      </c>
+      <c r="BL193">
+        <v>1.88</v>
+      </c>
+      <c r="BM193">
         <v>2.2</v>
       </c>
-      <c r="V193">
-        <v>4</v>
-      </c>
-      <c r="W193">
-        <v>1.22</v>
-      </c>
-      <c r="X193">
-        <v>13</v>
-      </c>
-      <c r="Y193">
-        <v>1.04</v>
-      </c>
-      <c r="Z193">
-        <v>3.4</v>
-      </c>
-      <c r="AA193">
-        <v>2.9</v>
-      </c>
-      <c r="AB193">
-        <v>2.23</v>
-      </c>
-      <c r="AC193">
-        <v>1.12</v>
-      </c>
-      <c r="AD193">
-        <v>6.5</v>
-      </c>
-      <c r="AE193">
-        <v>1.57</v>
-      </c>
-      <c r="AF193">
-        <v>2.25</v>
-      </c>
-      <c r="AG193">
-        <v>2.6</v>
-      </c>
-      <c r="AH193">
-        <v>1.43</v>
-      </c>
-      <c r="AI193">
-        <v>2.25</v>
-      </c>
-      <c r="AJ193">
-        <v>1.57</v>
-      </c>
-      <c r="AK193">
-        <v>1.55</v>
-      </c>
-      <c r="AL193">
-        <v>1.33</v>
-      </c>
-      <c r="AM193">
-        <v>1.33</v>
-      </c>
-      <c r="AN193">
-        <v>0.89</v>
-      </c>
-      <c r="AO193">
-        <v>0.89</v>
-      </c>
-      <c r="AP193">
-        <v>0.8</v>
-      </c>
-      <c r="AQ193">
-        <v>1.1</v>
-      </c>
-      <c r="AR193">
-        <v>1.13</v>
-      </c>
-      <c r="AS193">
-        <v>1.08</v>
-      </c>
-      <c r="AT193">
-        <v>2.21</v>
-      </c>
-      <c r="AU193">
-        <v>3</v>
-      </c>
-      <c r="AV193">
-        <v>14</v>
-      </c>
-      <c r="AW193">
-        <v>1</v>
-      </c>
-      <c r="AX193">
-        <v>6</v>
-      </c>
-      <c r="AY193">
-        <v>9</v>
-      </c>
-      <c r="AZ193">
-        <v>28</v>
-      </c>
-      <c r="BA193">
-        <v>1</v>
-      </c>
-      <c r="BB193">
-        <v>5</v>
-      </c>
-      <c r="BC193">
-        <v>6</v>
-      </c>
-      <c r="BD193">
-        <v>2.3</v>
-      </c>
-      <c r="BE193">
-        <v>6.4</v>
-      </c>
-      <c r="BF193">
-        <v>1.77</v>
-      </c>
-      <c r="BG193">
-        <v>1.36</v>
-      </c>
-      <c r="BH193">
-        <v>2.8</v>
-      </c>
-      <c r="BI193">
-        <v>1.61</v>
-      </c>
-      <c r="BJ193">
-        <v>2.12</v>
-      </c>
-      <c r="BK193">
-        <v>1.98</v>
-      </c>
-      <c r="BL193">
-        <v>1.71</v>
-      </c>
-      <c r="BM193">
-        <v>2.5</v>
-      </c>
       <c r="BN193">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="BO193">
-        <v>3.3</v>
+        <v>2.85</v>
       </c>
       <c r="BP193">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="194" spans="1:68">
@@ -41071,7 +41071,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>7728394</v>
+        <v>7728392</v>
       </c>
       <c r="C194" t="s">
         <v>68</v>
@@ -41080,22 +41080,22 @@
         <v>69</v>
       </c>
       <c r="E194" s="2">
-        <v>45634.51041666666</v>
+        <v>45634.41666666666</v>
       </c>
       <c r="F194">
         <v>18</v>
       </c>
       <c r="G194" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H194" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K194">
         <v>1</v>
@@ -41104,172 +41104,172 @@
         <v>1</v>
       </c>
       <c r="M194">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N194">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O194" t="s">
-        <v>108</v>
+        <v>225</v>
       </c>
       <c r="P194" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q194">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="R194">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="S194">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="T194">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="U194">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="V194">
+        <v>4</v>
+      </c>
+      <c r="W194">
+        <v>1.22</v>
+      </c>
+      <c r="X194">
+        <v>13</v>
+      </c>
+      <c r="Y194">
+        <v>1.04</v>
+      </c>
+      <c r="Z194">
+        <v>3.4</v>
+      </c>
+      <c r="AA194">
+        <v>2.9</v>
+      </c>
+      <c r="AB194">
+        <v>2.23</v>
+      </c>
+      <c r="AC194">
+        <v>1.12</v>
+      </c>
+      <c r="AD194">
+        <v>6.5</v>
+      </c>
+      <c r="AE194">
+        <v>1.57</v>
+      </c>
+      <c r="AF194">
+        <v>2.25</v>
+      </c>
+      <c r="AG194">
+        <v>2.6</v>
+      </c>
+      <c r="AH194">
+        <v>1.43</v>
+      </c>
+      <c r="AI194">
+        <v>2.25</v>
+      </c>
+      <c r="AJ194">
+        <v>1.57</v>
+      </c>
+      <c r="AK194">
+        <v>1.55</v>
+      </c>
+      <c r="AL194">
+        <v>1.33</v>
+      </c>
+      <c r="AM194">
+        <v>1.33</v>
+      </c>
+      <c r="AN194">
+        <v>0.89</v>
+      </c>
+      <c r="AO194">
+        <v>0.89</v>
+      </c>
+      <c r="AP194">
+        <v>0.8</v>
+      </c>
+      <c r="AQ194">
+        <v>1.1</v>
+      </c>
+      <c r="AR194">
+        <v>1.13</v>
+      </c>
+      <c r="AS194">
+        <v>1.08</v>
+      </c>
+      <c r="AT194">
+        <v>2.21</v>
+      </c>
+      <c r="AU194">
         <v>3</v>
       </c>
-      <c r="W194">
-        <v>1.36</v>
-      </c>
-      <c r="X194">
-        <v>8</v>
-      </c>
-      <c r="Y194">
-        <v>1.08</v>
-      </c>
-      <c r="Z194">
-        <v>3.18</v>
-      </c>
-      <c r="AA194">
-        <v>3.4</v>
-      </c>
-      <c r="AB194">
-        <v>2.24</v>
-      </c>
-      <c r="AC194">
-        <v>1.06</v>
-      </c>
-      <c r="AD194">
-        <v>8.5</v>
-      </c>
-      <c r="AE194">
-        <v>1.3</v>
-      </c>
-      <c r="AF194">
-        <v>3.3</v>
-      </c>
-      <c r="AG194">
-        <v>1.85</v>
-      </c>
-      <c r="AH194">
-        <v>1.85</v>
-      </c>
-      <c r="AI194">
-        <v>1.73</v>
-      </c>
-      <c r="AJ194">
-        <v>2</v>
-      </c>
-      <c r="AK194">
-        <v>1.6</v>
-      </c>
-      <c r="AL194">
-        <v>1.25</v>
-      </c>
-      <c r="AM194">
-        <v>1.36</v>
-      </c>
-      <c r="AN194">
-        <v>1.88</v>
-      </c>
-      <c r="AO194">
-        <v>1.56</v>
-      </c>
-      <c r="AP194">
-        <v>1.78</v>
-      </c>
-      <c r="AQ194">
-        <v>1.5</v>
-      </c>
-      <c r="AR194">
-        <v>1.4</v>
-      </c>
-      <c r="AS194">
-        <v>1.43</v>
-      </c>
-      <c r="AT194">
-        <v>2.83</v>
-      </c>
-      <c r="AU194">
-        <v>0</v>
-      </c>
       <c r="AV194">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AW194">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX194">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AY194">
         <v>9</v>
       </c>
       <c r="AZ194">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="BA194">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB194">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BC194">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BD194">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="BE194">
         <v>6.4</v>
       </c>
       <c r="BF194">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="BG194">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="BH194">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="BI194">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="BJ194">
+        <v>2.12</v>
+      </c>
+      <c r="BK194">
         <v>1.98</v>
       </c>
-      <c r="BK194">
-        <v>2.12</v>
-      </c>
       <c r="BL194">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="BM194">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="BN194">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="BO194">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="BP194">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="195" spans="1:68">
@@ -41277,7 +41277,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>7728387</v>
+        <v>7728394</v>
       </c>
       <c r="C195" t="s">
         <v>68</v>
@@ -41286,196 +41286,196 @@
         <v>69</v>
       </c>
       <c r="E195" s="2">
-        <v>45634.60416666666</v>
+        <v>45634.51041666666</v>
       </c>
       <c r="F195">
         <v>18</v>
       </c>
       <c r="G195" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H195" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195">
         <v>0</v>
       </c>
       <c r="K195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O195" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="P195" t="s">
-        <v>94</v>
+        <v>308</v>
       </c>
       <c r="Q195">
+        <v>3.75</v>
+      </c>
+      <c r="R195">
+        <v>2.1</v>
+      </c>
+      <c r="S195">
+        <v>2.88</v>
+      </c>
+      <c r="T195">
+        <v>1.4</v>
+      </c>
+      <c r="U195">
         <v>2.75</v>
       </c>
-      <c r="R195">
-        <v>2.38</v>
-      </c>
-      <c r="S195">
+      <c r="V195">
+        <v>3</v>
+      </c>
+      <c r="W195">
+        <v>1.36</v>
+      </c>
+      <c r="X195">
+        <v>8</v>
+      </c>
+      <c r="Y195">
+        <v>1.08</v>
+      </c>
+      <c r="Z195">
+        <v>3.18</v>
+      </c>
+      <c r="AA195">
         <v>3.4</v>
       </c>
-      <c r="T195">
+      <c r="AB195">
+        <v>2.24</v>
+      </c>
+      <c r="AC195">
+        <v>1.06</v>
+      </c>
+      <c r="AD195">
+        <v>8.5</v>
+      </c>
+      <c r="AE195">
         <v>1.3</v>
       </c>
-      <c r="U195">
-        <v>3.4</v>
-      </c>
-      <c r="V195">
-        <v>2.5</v>
-      </c>
-      <c r="W195">
+      <c r="AF195">
+        <v>3.3</v>
+      </c>
+      <c r="AG195">
+        <v>1.85</v>
+      </c>
+      <c r="AH195">
+        <v>1.85</v>
+      </c>
+      <c r="AI195">
+        <v>1.73</v>
+      </c>
+      <c r="AJ195">
+        <v>2</v>
+      </c>
+      <c r="AK195">
+        <v>1.6</v>
+      </c>
+      <c r="AL195">
+        <v>1.25</v>
+      </c>
+      <c r="AM195">
+        <v>1.36</v>
+      </c>
+      <c r="AN195">
+        <v>1.88</v>
+      </c>
+      <c r="AO195">
+        <v>1.56</v>
+      </c>
+      <c r="AP195">
+        <v>1.78</v>
+      </c>
+      <c r="AQ195">
         <v>1.5</v>
       </c>
-      <c r="X195">
-        <v>6</v>
-      </c>
-      <c r="Y195">
-        <v>1.13</v>
-      </c>
-      <c r="Z195">
-        <v>2.2</v>
-      </c>
-      <c r="AA195">
-        <v>3.6</v>
-      </c>
-      <c r="AB195">
-        <v>2.88</v>
-      </c>
-      <c r="AC195">
-        <v>1.04</v>
-      </c>
-      <c r="AD195">
+      <c r="AR195">
+        <v>1.4</v>
+      </c>
+      <c r="AS195">
+        <v>1.43</v>
+      </c>
+      <c r="AT195">
+        <v>2.83</v>
+      </c>
+      <c r="AU195">
+        <v>0</v>
+      </c>
+      <c r="AV195">
+        <v>8</v>
+      </c>
+      <c r="AW195">
+        <v>4</v>
+      </c>
+      <c r="AX195">
+        <v>9</v>
+      </c>
+      <c r="AY195">
+        <v>9</v>
+      </c>
+      <c r="AZ195">
+        <v>22</v>
+      </c>
+      <c r="BA195">
+        <v>3</v>
+      </c>
+      <c r="BB195">
         <v>10</v>
       </c>
-      <c r="AE195">
-        <v>1.18</v>
-      </c>
-      <c r="AF195">
-        <v>4.5</v>
-      </c>
-      <c r="AG195">
-        <v>1.6</v>
-      </c>
-      <c r="AH195">
-        <v>2.2</v>
-      </c>
-      <c r="AI195">
-        <v>1.5</v>
-      </c>
-      <c r="AJ195">
-        <v>2.5</v>
-      </c>
-      <c r="AK195">
-        <v>1.4</v>
-      </c>
-      <c r="AL195">
+      <c r="BC195">
+        <v>13</v>
+      </c>
+      <c r="BD195">
+        <v>2.18</v>
+      </c>
+      <c r="BE195">
+        <v>6.4</v>
+      </c>
+      <c r="BF195">
+        <v>1.83</v>
+      </c>
+      <c r="BG195">
+        <v>1.41</v>
+      </c>
+      <c r="BH195">
+        <v>2.6</v>
+      </c>
+      <c r="BI195">
+        <v>1.7</v>
+      </c>
+      <c r="BJ195">
+        <v>1.98</v>
+      </c>
+      <c r="BK195">
+        <v>2.12</v>
+      </c>
+      <c r="BL195">
+        <v>1.61</v>
+      </c>
+      <c r="BM195">
+        <v>2.75</v>
+      </c>
+      <c r="BN195">
+        <v>1.37</v>
+      </c>
+      <c r="BO195">
+        <v>3.65</v>
+      </c>
+      <c r="BP195">
         <v>1.22</v>
-      </c>
-      <c r="AM195">
-        <v>1.63</v>
-      </c>
-      <c r="AN195">
-        <v>1.5</v>
-      </c>
-      <c r="AO195">
-        <v>1.75</v>
-      </c>
-      <c r="AP195">
-        <v>1.44</v>
-      </c>
-      <c r="AQ195">
-        <v>1.67</v>
-      </c>
-      <c r="AR195">
-        <v>1.66</v>
-      </c>
-      <c r="AS195">
-        <v>1.44</v>
-      </c>
-      <c r="AT195">
-        <v>3.1</v>
-      </c>
-      <c r="AU195">
-        <v>3</v>
-      </c>
-      <c r="AV195">
-        <v>0</v>
-      </c>
-      <c r="AW195">
-        <v>5</v>
-      </c>
-      <c r="AX195">
-        <v>3</v>
-      </c>
-      <c r="AY195">
-        <v>10</v>
-      </c>
-      <c r="AZ195">
-        <v>6</v>
-      </c>
-      <c r="BA195">
-        <v>4</v>
-      </c>
-      <c r="BB195">
-        <v>6</v>
-      </c>
-      <c r="BC195">
-        <v>10</v>
-      </c>
-      <c r="BD195">
-        <v>1.83</v>
-      </c>
-      <c r="BE195">
-        <v>6.25</v>
-      </c>
-      <c r="BF195">
-        <v>2.18</v>
-      </c>
-      <c r="BG195">
-        <v>1.3</v>
-      </c>
-      <c r="BH195">
-        <v>3.05</v>
-      </c>
-      <c r="BI195">
-        <v>1.55</v>
-      </c>
-      <c r="BJ195">
-        <v>2.25</v>
-      </c>
-      <c r="BK195">
-        <v>1.88</v>
-      </c>
-      <c r="BL195">
-        <v>1.78</v>
-      </c>
-      <c r="BM195">
-        <v>2.38</v>
-      </c>
-      <c r="BN195">
-        <v>1.48</v>
-      </c>
-      <c r="BO195">
-        <v>3.05</v>
-      </c>
-      <c r="BP195">
-        <v>1.3</v>
       </c>
     </row>
     <row r="196" spans="1:68">
@@ -41483,7 +41483,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>7728388</v>
+        <v>7728387</v>
       </c>
       <c r="C196" t="s">
         <v>68</v>
@@ -41498,10 +41498,10 @@
         <v>18</v>
       </c>
       <c r="G196" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H196" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I196">
         <v>0</v>
@@ -41513,175 +41513,175 @@
         <v>0</v>
       </c>
       <c r="L196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M196">
         <v>0</v>
       </c>
       <c r="N196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O196" t="s">
-        <v>225</v>
+        <v>94</v>
       </c>
       <c r="P196" t="s">
         <v>94</v>
       </c>
       <c r="Q196">
+        <v>2.75</v>
+      </c>
+      <c r="R196">
+        <v>2.38</v>
+      </c>
+      <c r="S196">
+        <v>3.4</v>
+      </c>
+      <c r="T196">
+        <v>1.3</v>
+      </c>
+      <c r="U196">
+        <v>3.4</v>
+      </c>
+      <c r="V196">
+        <v>2.5</v>
+      </c>
+      <c r="W196">
+        <v>1.5</v>
+      </c>
+      <c r="X196">
+        <v>6</v>
+      </c>
+      <c r="Y196">
+        <v>1.13</v>
+      </c>
+      <c r="Z196">
+        <v>2.2</v>
+      </c>
+      <c r="AA196">
+        <v>3.6</v>
+      </c>
+      <c r="AB196">
+        <v>2.88</v>
+      </c>
+      <c r="AC196">
+        <v>1.04</v>
+      </c>
+      <c r="AD196">
+        <v>10</v>
+      </c>
+      <c r="AE196">
+        <v>1.18</v>
+      </c>
+      <c r="AF196">
+        <v>4.5</v>
+      </c>
+      <c r="AG196">
+        <v>1.6</v>
+      </c>
+      <c r="AH196">
+        <v>2.2</v>
+      </c>
+      <c r="AI196">
+        <v>1.5</v>
+      </c>
+      <c r="AJ196">
+        <v>2.5</v>
+      </c>
+      <c r="AK196">
+        <v>1.4</v>
+      </c>
+      <c r="AL196">
+        <v>1.22</v>
+      </c>
+      <c r="AM196">
+        <v>1.63</v>
+      </c>
+      <c r="AN196">
+        <v>1.5</v>
+      </c>
+      <c r="AO196">
+        <v>1.75</v>
+      </c>
+      <c r="AP196">
+        <v>1.44</v>
+      </c>
+      <c r="AQ196">
+        <v>1.67</v>
+      </c>
+      <c r="AR196">
+        <v>1.66</v>
+      </c>
+      <c r="AS196">
+        <v>1.44</v>
+      </c>
+      <c r="AT196">
+        <v>3.1</v>
+      </c>
+      <c r="AU196">
         <v>3</v>
       </c>
-      <c r="R196">
-        <v>2.05</v>
-      </c>
-      <c r="S196">
-        <v>4</v>
-      </c>
-      <c r="T196">
-        <v>1.5</v>
-      </c>
-      <c r="U196">
-        <v>2.5</v>
-      </c>
-      <c r="V196">
-        <v>3.4</v>
-      </c>
-      <c r="W196">
-        <v>1.3</v>
-      </c>
-      <c r="X196">
-        <v>10</v>
-      </c>
-      <c r="Y196">
-        <v>1.06</v>
-      </c>
-      <c r="Z196">
-        <v>2.1</v>
-      </c>
-      <c r="AA196">
-        <v>3.3</v>
-      </c>
-      <c r="AB196">
-        <v>3.4</v>
-      </c>
-      <c r="AC196">
-        <v>1.07</v>
-      </c>
-      <c r="AD196">
-        <v>8</v>
-      </c>
-      <c r="AE196">
-        <v>1.38</v>
-      </c>
-      <c r="AF196">
-        <v>2.9</v>
-      </c>
-      <c r="AG196">
-        <v>2.15</v>
-      </c>
-      <c r="AH196">
-        <v>1.62</v>
-      </c>
-      <c r="AI196">
-        <v>1.91</v>
-      </c>
-      <c r="AJ196">
-        <v>1.8</v>
-      </c>
-      <c r="AK196">
-        <v>1.3</v>
-      </c>
-      <c r="AL196">
-        <v>1.28</v>
-      </c>
-      <c r="AM196">
-        <v>1.68</v>
-      </c>
-      <c r="AN196">
-        <v>1.38</v>
-      </c>
-      <c r="AO196">
-        <v>0.63</v>
-      </c>
-      <c r="AP196">
-        <v>1.56</v>
-      </c>
-      <c r="AQ196">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AR196">
-        <v>1.42</v>
-      </c>
-      <c r="AS196">
-        <v>1.15</v>
-      </c>
-      <c r="AT196">
-        <v>2.57</v>
-      </c>
-      <c r="AU196">
+      <c r="AV196">
+        <v>0</v>
+      </c>
+      <c r="AW196">
         <v>5</v>
-      </c>
-      <c r="AV196">
-        <v>3</v>
-      </c>
-      <c r="AW196">
-        <v>4</v>
       </c>
       <c r="AX196">
         <v>3</v>
       </c>
       <c r="AY196">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AZ196">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BA196">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="BB196">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC196">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BD196">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="BE196">
-        <v>6.75</v>
+        <v>6.25</v>
       </c>
       <c r="BF196">
-        <v>2.33</v>
+        <v>2.18</v>
       </c>
       <c r="BG196">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="BH196">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="BI196">
+        <v>1.55</v>
+      </c>
+      <c r="BJ196">
+        <v>2.25</v>
+      </c>
+      <c r="BK196">
+        <v>1.88</v>
+      </c>
+      <c r="BL196">
+        <v>1.78</v>
+      </c>
+      <c r="BM196">
+        <v>2.38</v>
+      </c>
+      <c r="BN196">
         <v>1.48</v>
       </c>
-      <c r="BJ196">
-        <v>2.4</v>
-      </c>
-      <c r="BK196">
-        <v>1.78</v>
-      </c>
-      <c r="BL196">
-        <v>1.88</v>
-      </c>
-      <c r="BM196">
-        <v>2.2</v>
-      </c>
-      <c r="BN196">
-        <v>1.56</v>
-      </c>
       <c r="BO196">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="BP196">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="197" spans="1:68">
@@ -41888,6 +41888,212 @@
       </c>
       <c r="BP197">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:68">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>7728389</v>
+      </c>
+      <c r="C198" t="s">
+        <v>68</v>
+      </c>
+      <c r="D198" t="s">
+        <v>69</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45635.6875</v>
+      </c>
+      <c r="F198">
+        <v>18</v>
+      </c>
+      <c r="G198" t="s">
+        <v>87</v>
+      </c>
+      <c r="H198" t="s">
+        <v>77</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>1</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <v>1</v>
+      </c>
+      <c r="O198" t="s">
+        <v>133</v>
+      </c>
+      <c r="P198" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q198">
+        <v>5</v>
+      </c>
+      <c r="R198">
+        <v>2</v>
+      </c>
+      <c r="S198">
+        <v>2.63</v>
+      </c>
+      <c r="T198">
+        <v>1.5</v>
+      </c>
+      <c r="U198">
+        <v>2.5</v>
+      </c>
+      <c r="V198">
+        <v>3.5</v>
+      </c>
+      <c r="W198">
+        <v>1.29</v>
+      </c>
+      <c r="X198">
+        <v>11</v>
+      </c>
+      <c r="Y198">
+        <v>1.05</v>
+      </c>
+      <c r="Z198">
+        <v>3.8</v>
+      </c>
+      <c r="AA198">
+        <v>3.4</v>
+      </c>
+      <c r="AB198">
+        <v>1.95</v>
+      </c>
+      <c r="AC198">
+        <v>1.08</v>
+      </c>
+      <c r="AD198">
+        <v>7.5</v>
+      </c>
+      <c r="AE198">
+        <v>1.42</v>
+      </c>
+      <c r="AF198">
+        <v>2.75</v>
+      </c>
+      <c r="AG198">
+        <v>2.14</v>
+      </c>
+      <c r="AH198">
+        <v>1.63</v>
+      </c>
+      <c r="AI198">
+        <v>2.1</v>
+      </c>
+      <c r="AJ198">
+        <v>1.67</v>
+      </c>
+      <c r="AK198">
+        <v>1.85</v>
+      </c>
+      <c r="AL198">
+        <v>1.25</v>
+      </c>
+      <c r="AM198">
+        <v>1.18</v>
+      </c>
+      <c r="AN198">
+        <v>0.5</v>
+      </c>
+      <c r="AO198">
+        <v>1.25</v>
+      </c>
+      <c r="AP198">
+        <v>0.78</v>
+      </c>
+      <c r="AQ198">
+        <v>1.11</v>
+      </c>
+      <c r="AR198">
+        <v>1.19</v>
+      </c>
+      <c r="AS198">
+        <v>1.19</v>
+      </c>
+      <c r="AT198">
+        <v>2.38</v>
+      </c>
+      <c r="AU198">
+        <v>9</v>
+      </c>
+      <c r="AV198">
+        <v>4</v>
+      </c>
+      <c r="AW198">
+        <v>2</v>
+      </c>
+      <c r="AX198">
+        <v>5</v>
+      </c>
+      <c r="AY198">
+        <v>12</v>
+      </c>
+      <c r="AZ198">
+        <v>11</v>
+      </c>
+      <c r="BA198">
+        <v>3</v>
+      </c>
+      <c r="BB198">
+        <v>6</v>
+      </c>
+      <c r="BC198">
+        <v>9</v>
+      </c>
+      <c r="BD198">
+        <v>2.46</v>
+      </c>
+      <c r="BE198">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF198">
+        <v>1.79</v>
+      </c>
+      <c r="BG198">
+        <v>1.28</v>
+      </c>
+      <c r="BH198">
+        <v>2.94</v>
+      </c>
+      <c r="BI198">
+        <v>1.56</v>
+      </c>
+      <c r="BJ198">
+        <v>2.16</v>
+      </c>
+      <c r="BK198">
+        <v>2</v>
+      </c>
+      <c r="BL198">
+        <v>1.72</v>
+      </c>
+      <c r="BM198">
+        <v>2.59</v>
+      </c>
+      <c r="BN198">
+        <v>1.39</v>
+      </c>
+      <c r="BO198">
+        <v>3.54</v>
+      </c>
+      <c r="BP198">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -42039,13 +42039,13 @@
         <v>2</v>
       </c>
       <c r="AX198">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY198">
         <v>12</v>
       </c>
       <c r="AZ198">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA198">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="314">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -697,6 +697,21 @@
     <t>['45', '83', '90+8']</t>
   </si>
   <si>
+    <t>['56', '72']</t>
+  </si>
+  <si>
+    <t>['11', '14', '50', '70']</t>
+  </si>
+  <si>
+    <t>['89']</t>
+  </si>
+  <si>
+    <t>['21', '53']</t>
+  </si>
+  <si>
+    <t>['81', '85']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -835,9 +850,6 @@
     <t>['21']</t>
   </si>
   <si>
-    <t>['89']</t>
-  </si>
-  <si>
     <t>['56']</t>
   </si>
   <si>
@@ -941,6 +953,9 @@
   </si>
   <si>
     <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['46', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1317,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP199"/>
+  <dimension ref="A1:BP205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1561,7 +1576,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1642,7 +1657,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ2">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1848,7 +1863,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ3">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1973,7 +1988,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -2051,10 +2066,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ4">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2257,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ5">
         <v>1.67</v>
@@ -2591,7 +2606,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2797,7 +2812,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -3003,7 +3018,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -3290,7 +3305,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ10">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3621,7 +3636,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3699,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
         <v>0.22</v>
@@ -3827,7 +3842,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -4033,7 +4048,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4526,7 +4541,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ16">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR16">
         <v>1.33</v>
@@ -4729,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -5063,7 +5078,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5350,7 +5365,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ20">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5553,7 +5568,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ21">
         <v>1.1</v>
@@ -5681,7 +5696,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5762,7 +5777,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ22">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5887,7 +5902,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6093,7 +6108,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6299,7 +6314,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6377,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ25">
         <v>2.44</v>
@@ -6505,7 +6520,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6583,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ26">
         <v>0.22</v>
@@ -6711,7 +6726,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6792,7 +6807,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ27">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR27">
         <v>1.25</v>
@@ -7123,7 +7138,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7616,7 +7631,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ31">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR31">
         <v>0.48</v>
@@ -7741,7 +7756,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7819,10 +7834,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR32">
         <v>1.31</v>
@@ -7947,7 +7962,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8025,7 +8040,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ33">
         <v>1.22</v>
@@ -8234,7 +8249,7 @@
         <v>2</v>
       </c>
       <c r="AQ34">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AR34">
         <v>1.17</v>
@@ -8359,7 +8374,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8565,7 +8580,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8977,7 +8992,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9879,7 +9894,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ42">
         <v>1.5</v>
@@ -10088,7 +10103,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ43">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR43">
         <v>0</v>
@@ -10213,7 +10228,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10291,7 +10306,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ44">
         <v>1</v>
@@ -10831,7 +10846,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10909,7 +10924,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ47">
         <v>0.5600000000000001</v>
@@ -11115,7 +11130,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ48">
         <v>0.22</v>
@@ -11736,7 +11751,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ51">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR51">
         <v>0.76</v>
@@ -11939,10 +11954,10 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ52">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR52">
         <v>1.28</v>
@@ -12148,7 +12163,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ53">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR53">
         <v>1.46</v>
@@ -12351,7 +12366,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ54">
         <v>0.88</v>
@@ -12479,7 +12494,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12560,7 +12575,7 @@
         <v>2</v>
       </c>
       <c r="AQ55">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR55">
         <v>1.39</v>
@@ -12685,7 +12700,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12891,7 +12906,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -13097,7 +13112,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13178,7 +13193,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ58">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR58">
         <v>1.22</v>
@@ -13381,7 +13396,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ59">
         <v>1.1</v>
@@ -13509,7 +13524,7 @@
         <v>94</v>
       </c>
       <c r="P60" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -14127,7 +14142,7 @@
         <v>97</v>
       </c>
       <c r="P63" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14333,7 +14348,7 @@
         <v>94</v>
       </c>
       <c r="P64" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14411,7 +14426,7 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ64">
         <v>2.44</v>
@@ -14745,7 +14760,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15032,7 +15047,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ67">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AR67">
         <v>1.16</v>
@@ -15157,7 +15172,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15363,7 +15378,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15441,7 +15456,7 @@
         <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ69">
         <v>0.5600000000000001</v>
@@ -15856,7 +15871,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ71">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR71">
         <v>1.44</v>
@@ -15981,7 +15996,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16062,7 +16077,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ72">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR72">
         <v>1.35</v>
@@ -16187,7 +16202,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16265,7 +16280,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ73">
         <v>1.5</v>
@@ -16393,7 +16408,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16474,7 +16489,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ74">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR74">
         <v>1.54</v>
@@ -16599,7 +16614,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -16677,7 +16692,7 @@
         <v>0.33</v>
       </c>
       <c r="AP75">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ75">
         <v>0.22</v>
@@ -17089,7 +17104,7 @@
         <v>1.67</v>
       </c>
       <c r="AP77">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ77">
         <v>0.5600000000000001</v>
@@ -17217,7 +17232,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17298,7 +17313,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ78">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR78">
         <v>1.42</v>
@@ -17423,7 +17438,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q79">
         <v>3.85</v>
@@ -17710,7 +17725,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ80">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR80">
         <v>1.23</v>
@@ -17835,7 +17850,7 @@
         <v>94</v>
       </c>
       <c r="P81" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q81">
         <v>3.55</v>
@@ -17916,7 +17931,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ81">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR81">
         <v>1.07</v>
@@ -18041,7 +18056,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q82">
         <v>2.65</v>
@@ -18119,7 +18134,7 @@
         <v>0.67</v>
       </c>
       <c r="AP82">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ82">
         <v>1.11</v>
@@ -18247,7 +18262,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18740,7 +18755,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ85">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR85">
         <v>1.38</v>
@@ -19071,7 +19086,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19149,7 +19164,7 @@
         <v>2</v>
       </c>
       <c r="AP87">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ87">
         <v>1.67</v>
@@ -19355,7 +19370,7 @@
         <v>1.25</v>
       </c>
       <c r="AP88">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ88">
         <v>1.1</v>
@@ -19483,7 +19498,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19564,7 +19579,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ89">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AR89">
         <v>1.46</v>
@@ -19689,7 +19704,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19770,7 +19785,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ90">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR90">
         <v>1.45</v>
@@ -20101,7 +20116,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20179,7 +20194,7 @@
         <v>1</v>
       </c>
       <c r="AP92">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ92">
         <v>0.78</v>
@@ -20385,7 +20400,7 @@
         <v>1.33</v>
       </c>
       <c r="AP93">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ93">
         <v>0.5600000000000001</v>
@@ -20513,7 +20528,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -20594,7 +20609,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ94">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR94">
         <v>1.16</v>
@@ -20719,7 +20734,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20797,7 +20812,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ95">
         <v>1.5</v>
@@ -21212,7 +21227,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ97">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AR97">
         <v>1.7</v>
@@ -21749,7 +21764,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -21955,7 +21970,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -22036,7 +22051,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ101">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR101">
         <v>1.58</v>
@@ -22857,7 +22872,7 @@
         <v>1.4</v>
       </c>
       <c r="AP105">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ105">
         <v>1.22</v>
@@ -23191,7 +23206,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23269,7 +23284,7 @@
         <v>3</v>
       </c>
       <c r="AP107">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ107">
         <v>2.44</v>
@@ -23809,7 +23824,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -24221,7 +24236,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q112">
         <v>2.45</v>
@@ -24299,7 +24314,7 @@
         <v>1.25</v>
       </c>
       <c r="AP112">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ112">
         <v>1.22</v>
@@ -24427,7 +24442,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -24505,10 +24520,10 @@
         <v>2</v>
       </c>
       <c r="AP113">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ113">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR113">
         <v>1.63</v>
@@ -24711,7 +24726,7 @@
         <v>1.75</v>
       </c>
       <c r="AP114">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ114">
         <v>1</v>
@@ -24839,7 +24854,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q115">
         <v>3.45</v>
@@ -24917,10 +24932,10 @@
         <v>1.67</v>
       </c>
       <c r="AP115">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ115">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR115">
         <v>1.49</v>
@@ -25126,7 +25141,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ116">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AR116">
         <v>1.47</v>
@@ -25332,7 +25347,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ117">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR117">
         <v>1.16</v>
@@ -25538,7 +25553,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ118">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR118">
         <v>1.69</v>
@@ -25663,7 +25678,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q119">
         <v>2.8</v>
@@ -25741,7 +25756,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ119">
         <v>1.22</v>
@@ -26281,7 +26296,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26565,7 +26580,7 @@
         <v>1.17</v>
       </c>
       <c r="AP123">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ123">
         <v>1.1</v>
@@ -26693,7 +26708,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q124">
         <v>2.4</v>
@@ -26774,7 +26789,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ124">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR124">
         <v>1.12</v>
@@ -27105,7 +27120,7 @@
         <v>179</v>
       </c>
       <c r="P126" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27517,7 +27532,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27929,7 +27944,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q130">
         <v>3.25</v>
@@ -28135,7 +28150,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q131">
         <v>2.75</v>
@@ -28341,7 +28356,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28547,7 +28562,7 @@
         <v>106</v>
       </c>
       <c r="P133" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q133">
         <v>3.1</v>
@@ -28753,7 +28768,7 @@
         <v>94</v>
       </c>
       <c r="P134" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q134">
         <v>3.1</v>
@@ -28831,10 +28846,10 @@
         <v>0.8</v>
       </c>
       <c r="AP134">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ134">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR134">
         <v>1.4</v>
@@ -28959,7 +28974,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q135">
         <v>3.9</v>
@@ -29452,7 +29467,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ137">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR137">
         <v>1.67</v>
@@ -29577,7 +29592,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -29658,7 +29673,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ138">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR138">
         <v>1.52</v>
@@ -29861,7 +29876,7 @@
         <v>1.17</v>
       </c>
       <c r="AP139">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ139">
         <v>0.78</v>
@@ -30195,7 +30210,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q141">
         <v>2.62</v>
@@ -30401,7 +30416,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q142">
         <v>3.6</v>
@@ -30607,7 +30622,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q143">
         <v>3.75</v>
@@ -30688,7 +30703,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ143">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR143">
         <v>1.11</v>
@@ -30813,7 +30828,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31100,7 +31115,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ145">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR145">
         <v>1.15</v>
@@ -31225,7 +31240,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q146">
         <v>2.75</v>
@@ -31637,7 +31652,7 @@
         <v>97</v>
       </c>
       <c r="P148" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q148">
         <v>3.65</v>
@@ -32333,7 +32348,7 @@
         <v>1</v>
       </c>
       <c r="AP151">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ151">
         <v>0.88</v>
@@ -32461,7 +32476,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q152">
         <v>2.3</v>
@@ -32539,7 +32554,7 @@
         <v>0.83</v>
       </c>
       <c r="AP152">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ152">
         <v>1.22</v>
@@ -32745,10 +32760,10 @@
         <v>1.14</v>
       </c>
       <c r="AP153">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ153">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR153">
         <v>1.54</v>
@@ -32873,7 +32888,7 @@
         <v>198</v>
       </c>
       <c r="P154" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -32951,10 +32966,10 @@
         <v>1.17</v>
       </c>
       <c r="AP154">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ154">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR154">
         <v>1.67</v>
@@ -33285,7 +33300,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -33366,7 +33381,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ156">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR156">
         <v>1.44</v>
@@ -33569,7 +33584,7 @@
         <v>0.33</v>
       </c>
       <c r="AP157">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ157">
         <v>0.22</v>
@@ -33775,10 +33790,10 @@
         <v>0.17</v>
       </c>
       <c r="AP158">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ158">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AR158">
         <v>1.49</v>
@@ -34599,7 +34614,7 @@
         <v>1</v>
       </c>
       <c r="AP162">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ162">
         <v>1.11</v>
@@ -34933,7 +34948,7 @@
         <v>206</v>
       </c>
       <c r="P164" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q164">
         <v>4.75</v>
@@ -35551,7 +35566,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35632,7 +35647,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ167">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR167">
         <v>1.65</v>
@@ -35963,7 +35978,7 @@
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q169">
         <v>2.88</v>
@@ -36581,7 +36596,7 @@
         <v>210</v>
       </c>
       <c r="P172" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -37074,7 +37089,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ174">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AR174">
         <v>1.76</v>
@@ -37199,7 +37214,7 @@
         <v>213</v>
       </c>
       <c r="P175" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q175">
         <v>2.3</v>
@@ -37277,7 +37292,7 @@
         <v>1</v>
       </c>
       <c r="AP175">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ175">
         <v>0.78</v>
@@ -37483,7 +37498,7 @@
         <v>0.83</v>
       </c>
       <c r="AP176">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ176">
         <v>0.88</v>
@@ -37611,7 +37626,7 @@
         <v>94</v>
       </c>
       <c r="P177" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q177">
         <v>2.5</v>
@@ -37689,7 +37704,7 @@
         <v>0.88</v>
       </c>
       <c r="AP177">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ177">
         <v>1.11</v>
@@ -37817,7 +37832,7 @@
         <v>214</v>
       </c>
       <c r="P178" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q178">
         <v>2.4</v>
@@ -37898,7 +37913,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ178">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR178">
         <v>1.71</v>
@@ -38023,7 +38038,7 @@
         <v>94</v>
       </c>
       <c r="P179" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q179">
         <v>2.38</v>
@@ -38104,7 +38119,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ179">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR179">
         <v>1.71</v>
@@ -38229,7 +38244,7 @@
         <v>215</v>
       </c>
       <c r="P180" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q180">
         <v>2.55</v>
@@ -38307,7 +38322,7 @@
         <v>1</v>
       </c>
       <c r="AP180">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ180">
         <v>1.22</v>
@@ -38435,7 +38450,7 @@
         <v>94</v>
       </c>
       <c r="P181" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="Q181">
         <v>2.3</v>
@@ -38722,7 +38737,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ182">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR182">
         <v>1.26</v>
@@ -38925,7 +38940,7 @@
         <v>0.88</v>
       </c>
       <c r="AP183">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ183">
         <v>0.78</v>
@@ -39053,7 +39068,7 @@
         <v>217</v>
       </c>
       <c r="P184" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -39131,7 +39146,7 @@
         <v>0.88</v>
       </c>
       <c r="AP184">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ184">
         <v>0.78</v>
@@ -39337,7 +39352,7 @@
         <v>0.86</v>
       </c>
       <c r="AP185">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ185">
         <v>0.88</v>
@@ -39546,7 +39561,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ186">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AR186">
         <v>1.44</v>
@@ -39749,10 +39764,10 @@
         <v>0.75</v>
       </c>
       <c r="AP187">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ187">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR187">
         <v>1.45</v>
@@ -39877,7 +39892,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q188">
         <v>3.5</v>
@@ -40495,7 +40510,7 @@
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q191">
         <v>2.7</v>
@@ -40576,7 +40591,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ191">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR191">
         <v>1.48</v>
@@ -40701,7 +40716,7 @@
         <v>223</v>
       </c>
       <c r="P192" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q192">
         <v>3.2</v>
@@ -40907,7 +40922,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q193">
         <v>4.33</v>
@@ -41113,7 +41128,7 @@
         <v>108</v>
       </c>
       <c r="P194" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q194">
         <v>3.75</v>
@@ -42300,6 +42315,1242 @@
       </c>
       <c r="BP199">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:68">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>7728402</v>
+      </c>
+      <c r="C200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D200" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45640.41666666666</v>
+      </c>
+      <c r="F200">
+        <v>19</v>
+      </c>
+      <c r="G200" t="s">
+        <v>82</v>
+      </c>
+      <c r="H200" t="s">
+        <v>88</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>2</v>
+      </c>
+      <c r="M200">
+        <v>2</v>
+      </c>
+      <c r="N200">
+        <v>4</v>
+      </c>
+      <c r="O200" t="s">
+        <v>227</v>
+      </c>
+      <c r="P200" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q200">
+        <v>2.38</v>
+      </c>
+      <c r="R200">
+        <v>2.3</v>
+      </c>
+      <c r="S200">
+        <v>4.5</v>
+      </c>
+      <c r="T200">
+        <v>1.33</v>
+      </c>
+      <c r="U200">
+        <v>3.25</v>
+      </c>
+      <c r="V200">
+        <v>2.63</v>
+      </c>
+      <c r="W200">
+        <v>1.44</v>
+      </c>
+      <c r="X200">
+        <v>6.5</v>
+      </c>
+      <c r="Y200">
+        <v>1.11</v>
+      </c>
+      <c r="Z200">
+        <v>1.75</v>
+      </c>
+      <c r="AA200">
+        <v>3.75</v>
+      </c>
+      <c r="AB200">
+        <v>4.2</v>
+      </c>
+      <c r="AC200">
+        <v>1.05</v>
+      </c>
+      <c r="AD200">
+        <v>9.5</v>
+      </c>
+      <c r="AE200">
+        <v>1.22</v>
+      </c>
+      <c r="AF200">
+        <v>4</v>
+      </c>
+      <c r="AG200">
+        <v>1.73</v>
+      </c>
+      <c r="AH200">
+        <v>1.95</v>
+      </c>
+      <c r="AI200">
+        <v>1.67</v>
+      </c>
+      <c r="AJ200">
+        <v>2.1</v>
+      </c>
+      <c r="AK200">
+        <v>1.18</v>
+      </c>
+      <c r="AL200">
+        <v>1.2</v>
+      </c>
+      <c r="AM200">
+        <v>2</v>
+      </c>
+      <c r="AN200">
+        <v>2.25</v>
+      </c>
+      <c r="AO200">
+        <v>0.11</v>
+      </c>
+      <c r="AP200">
+        <v>2.11</v>
+      </c>
+      <c r="AQ200">
+        <v>0.2</v>
+      </c>
+      <c r="AR200">
+        <v>1.61</v>
+      </c>
+      <c r="AS200">
+        <v>1.29</v>
+      </c>
+      <c r="AT200">
+        <v>2.9</v>
+      </c>
+      <c r="AU200">
+        <v>4</v>
+      </c>
+      <c r="AV200">
+        <v>5</v>
+      </c>
+      <c r="AW200">
+        <v>3</v>
+      </c>
+      <c r="AX200">
+        <v>5</v>
+      </c>
+      <c r="AY200">
+        <v>11</v>
+      </c>
+      <c r="AZ200">
+        <v>17</v>
+      </c>
+      <c r="BA200">
+        <v>5</v>
+      </c>
+      <c r="BB200">
+        <v>5</v>
+      </c>
+      <c r="BC200">
+        <v>10</v>
+      </c>
+      <c r="BD200">
+        <v>1.58</v>
+      </c>
+      <c r="BE200">
+        <v>6.75</v>
+      </c>
+      <c r="BF200">
+        <v>2.65</v>
+      </c>
+      <c r="BG200">
+        <v>1.32</v>
+      </c>
+      <c r="BH200">
+        <v>3</v>
+      </c>
+      <c r="BI200">
+        <v>1.56</v>
+      </c>
+      <c r="BJ200">
+        <v>2.23</v>
+      </c>
+      <c r="BK200">
+        <v>1.89</v>
+      </c>
+      <c r="BL200">
+        <v>1.77</v>
+      </c>
+      <c r="BM200">
+        <v>2.4</v>
+      </c>
+      <c r="BN200">
+        <v>1.48</v>
+      </c>
+      <c r="BO200">
+        <v>3.1</v>
+      </c>
+      <c r="BP200">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:68">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>7728401</v>
+      </c>
+      <c r="C201" t="s">
+        <v>68</v>
+      </c>
+      <c r="D201" t="s">
+        <v>69</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45640.51041666666</v>
+      </c>
+      <c r="F201">
+        <v>19</v>
+      </c>
+      <c r="G201" t="s">
+        <v>86</v>
+      </c>
+      <c r="H201" t="s">
+        <v>87</v>
+      </c>
+      <c r="I201">
+        <v>2</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>2</v>
+      </c>
+      <c r="L201">
+        <v>4</v>
+      </c>
+      <c r="M201">
+        <v>1</v>
+      </c>
+      <c r="N201">
+        <v>5</v>
+      </c>
+      <c r="O201" t="s">
+        <v>228</v>
+      </c>
+      <c r="P201" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q201">
+        <v>1.95</v>
+      </c>
+      <c r="R201">
+        <v>2.4</v>
+      </c>
+      <c r="S201">
+        <v>6.5</v>
+      </c>
+      <c r="T201">
+        <v>1.33</v>
+      </c>
+      <c r="U201">
+        <v>3.25</v>
+      </c>
+      <c r="V201">
+        <v>2.63</v>
+      </c>
+      <c r="W201">
+        <v>1.44</v>
+      </c>
+      <c r="X201">
+        <v>6.5</v>
+      </c>
+      <c r="Y201">
+        <v>1.11</v>
+      </c>
+      <c r="Z201">
+        <v>1.5</v>
+      </c>
+      <c r="AA201">
+        <v>3.9</v>
+      </c>
+      <c r="AB201">
+        <v>6.5</v>
+      </c>
+      <c r="AC201">
+        <v>1.04</v>
+      </c>
+      <c r="AD201">
+        <v>10</v>
+      </c>
+      <c r="AE201">
+        <v>1.22</v>
+      </c>
+      <c r="AF201">
+        <v>4</v>
+      </c>
+      <c r="AG201">
+        <v>2</v>
+      </c>
+      <c r="AH201">
+        <v>1.71</v>
+      </c>
+      <c r="AI201">
+        <v>1.83</v>
+      </c>
+      <c r="AJ201">
+        <v>1.83</v>
+      </c>
+      <c r="AK201">
+        <v>1.05</v>
+      </c>
+      <c r="AL201">
+        <v>1.15</v>
+      </c>
+      <c r="AM201">
+        <v>2.85</v>
+      </c>
+      <c r="AN201">
+        <v>1.22</v>
+      </c>
+      <c r="AO201">
+        <v>0.67</v>
+      </c>
+      <c r="AP201">
+        <v>1.4</v>
+      </c>
+      <c r="AQ201">
+        <v>0.6</v>
+      </c>
+      <c r="AR201">
+        <v>1.63</v>
+      </c>
+      <c r="AS201">
+        <v>0.91</v>
+      </c>
+      <c r="AT201">
+        <v>2.54</v>
+      </c>
+      <c r="AU201">
+        <v>13</v>
+      </c>
+      <c r="AV201">
+        <v>8</v>
+      </c>
+      <c r="AW201">
+        <v>8</v>
+      </c>
+      <c r="AX201">
+        <v>2</v>
+      </c>
+      <c r="AY201">
+        <v>24</v>
+      </c>
+      <c r="AZ201">
+        <v>10</v>
+      </c>
+      <c r="BA201">
+        <v>5</v>
+      </c>
+      <c r="BB201">
+        <v>1</v>
+      </c>
+      <c r="BC201">
+        <v>6</v>
+      </c>
+      <c r="BD201">
+        <v>1.28</v>
+      </c>
+      <c r="BE201">
+        <v>7.5</v>
+      </c>
+      <c r="BF201">
+        <v>4</v>
+      </c>
+      <c r="BG201">
+        <v>1.41</v>
+      </c>
+      <c r="BH201">
+        <v>2.6</v>
+      </c>
+      <c r="BI201">
+        <v>1.7</v>
+      </c>
+      <c r="BJ201">
+        <v>2</v>
+      </c>
+      <c r="BK201">
+        <v>2.1</v>
+      </c>
+      <c r="BL201">
+        <v>1.62</v>
+      </c>
+      <c r="BM201">
+        <v>2.7</v>
+      </c>
+      <c r="BN201">
+        <v>1.38</v>
+      </c>
+      <c r="BO201">
+        <v>3.55</v>
+      </c>
+      <c r="BP201">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="202" spans="1:68">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>7728400</v>
+      </c>
+      <c r="C202" t="s">
+        <v>68</v>
+      </c>
+      <c r="D202" t="s">
+        <v>69</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45640.51041666666</v>
+      </c>
+      <c r="F202">
+        <v>19</v>
+      </c>
+      <c r="G202" t="s">
+        <v>72</v>
+      </c>
+      <c r="H202" t="s">
+        <v>85</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202">
+        <v>1</v>
+      </c>
+      <c r="O202" t="s">
+        <v>229</v>
+      </c>
+      <c r="P202" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q202">
+        <v>2.88</v>
+      </c>
+      <c r="R202">
+        <v>2.1</v>
+      </c>
+      <c r="S202">
+        <v>4</v>
+      </c>
+      <c r="T202">
+        <v>1.4</v>
+      </c>
+      <c r="U202">
+        <v>2.75</v>
+      </c>
+      <c r="V202">
+        <v>3</v>
+      </c>
+      <c r="W202">
+        <v>1.36</v>
+      </c>
+      <c r="X202">
+        <v>8</v>
+      </c>
+      <c r="Y202">
+        <v>1.08</v>
+      </c>
+      <c r="Z202">
+        <v>2</v>
+      </c>
+      <c r="AA202">
+        <v>3.4</v>
+      </c>
+      <c r="AB202">
+        <v>3.5</v>
+      </c>
+      <c r="AC202">
+        <v>1.06</v>
+      </c>
+      <c r="AD202">
+        <v>8.5</v>
+      </c>
+      <c r="AE202">
+        <v>1.33</v>
+      </c>
+      <c r="AF202">
+        <v>3.2</v>
+      </c>
+      <c r="AG202">
+        <v>2</v>
+      </c>
+      <c r="AH202">
+        <v>1.81</v>
+      </c>
+      <c r="AI202">
+        <v>1.8</v>
+      </c>
+      <c r="AJ202">
+        <v>1.91</v>
+      </c>
+      <c r="AK202">
+        <v>1.33</v>
+      </c>
+      <c r="AL202">
+        <v>1.25</v>
+      </c>
+      <c r="AM202">
+        <v>1.68</v>
+      </c>
+      <c r="AN202">
+        <v>1</v>
+      </c>
+      <c r="AO202">
+        <v>1.22</v>
+      </c>
+      <c r="AP202">
+        <v>1.2</v>
+      </c>
+      <c r="AQ202">
+        <v>1.1</v>
+      </c>
+      <c r="AR202">
+        <v>1.46</v>
+      </c>
+      <c r="AS202">
+        <v>1.31</v>
+      </c>
+      <c r="AT202">
+        <v>2.77</v>
+      </c>
+      <c r="AU202">
+        <v>4</v>
+      </c>
+      <c r="AV202">
+        <v>2</v>
+      </c>
+      <c r="AW202">
+        <v>9</v>
+      </c>
+      <c r="AX202">
+        <v>5</v>
+      </c>
+      <c r="AY202">
+        <v>14</v>
+      </c>
+      <c r="AZ202">
+        <v>10</v>
+      </c>
+      <c r="BA202">
+        <v>2</v>
+      </c>
+      <c r="BB202">
+        <v>2</v>
+      </c>
+      <c r="BC202">
+        <v>4</v>
+      </c>
+      <c r="BD202">
+        <v>1.64</v>
+      </c>
+      <c r="BE202">
+        <v>6.5</v>
+      </c>
+      <c r="BF202">
+        <v>2.55</v>
+      </c>
+      <c r="BG202">
+        <v>1.4</v>
+      </c>
+      <c r="BH202">
+        <v>2.65</v>
+      </c>
+      <c r="BI202">
+        <v>1.68</v>
+      </c>
+      <c r="BJ202">
+        <v>2.02</v>
+      </c>
+      <c r="BK202">
+        <v>2.1</v>
+      </c>
+      <c r="BL202">
+        <v>1.62</v>
+      </c>
+      <c r="BM202">
+        <v>2.65</v>
+      </c>
+      <c r="BN202">
+        <v>1.4</v>
+      </c>
+      <c r="BO202">
+        <v>3.55</v>
+      </c>
+      <c r="BP202">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="203" spans="1:68">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>7728842</v>
+      </c>
+      <c r="C203" t="s">
+        <v>68</v>
+      </c>
+      <c r="D203" t="s">
+        <v>69</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45640.60416666666</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203" t="s">
+        <v>73</v>
+      </c>
+      <c r="H203" t="s">
+        <v>91</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>1</v>
+      </c>
+      <c r="L203">
+        <v>2</v>
+      </c>
+      <c r="M203">
+        <v>1</v>
+      </c>
+      <c r="N203">
+        <v>3</v>
+      </c>
+      <c r="O203" t="s">
+        <v>230</v>
+      </c>
+      <c r="P203" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q203">
+        <v>3.25</v>
+      </c>
+      <c r="R203">
+        <v>1.87</v>
+      </c>
+      <c r="S203">
+        <v>3.75</v>
+      </c>
+      <c r="T203">
+        <v>1.56</v>
+      </c>
+      <c r="U203">
+        <v>2.29</v>
+      </c>
+      <c r="V203">
+        <v>3.6</v>
+      </c>
+      <c r="W203">
+        <v>1.25</v>
+      </c>
+      <c r="X203">
+        <v>9.85</v>
+      </c>
+      <c r="Y203">
+        <v>1.03</v>
+      </c>
+      <c r="Z203">
+        <v>2.4</v>
+      </c>
+      <c r="AA203">
+        <v>3.05</v>
+      </c>
+      <c r="AB203">
+        <v>2.83</v>
+      </c>
+      <c r="AC203">
+        <v>1.1</v>
+      </c>
+      <c r="AD203">
+        <v>6.5</v>
+      </c>
+      <c r="AE203">
+        <v>1.47</v>
+      </c>
+      <c r="AF203">
+        <v>2.55</v>
+      </c>
+      <c r="AG203">
+        <v>2.33</v>
+      </c>
+      <c r="AH203">
+        <v>1.6</v>
+      </c>
+      <c r="AI203">
+        <v>2.05</v>
+      </c>
+      <c r="AJ203">
+        <v>1.72</v>
+      </c>
+      <c r="AK203">
+        <v>1.38</v>
+      </c>
+      <c r="AL203">
+        <v>1.3</v>
+      </c>
+      <c r="AM203">
+        <v>1.53</v>
+      </c>
+      <c r="AN203">
+        <v>2.11</v>
+      </c>
+      <c r="AO203">
+        <v>1.6</v>
+      </c>
+      <c r="AP203">
+        <v>2.2</v>
+      </c>
+      <c r="AQ203">
+        <v>1.45</v>
+      </c>
+      <c r="AR203">
+        <v>1.49</v>
+      </c>
+      <c r="AS203">
+        <v>1.41</v>
+      </c>
+      <c r="AT203">
+        <v>2.9</v>
+      </c>
+      <c r="AU203">
+        <v>7</v>
+      </c>
+      <c r="AV203">
+        <v>4</v>
+      </c>
+      <c r="AW203">
+        <v>3</v>
+      </c>
+      <c r="AX203">
+        <v>1</v>
+      </c>
+      <c r="AY203">
+        <v>14</v>
+      </c>
+      <c r="AZ203">
+        <v>7</v>
+      </c>
+      <c r="BA203">
+        <v>5</v>
+      </c>
+      <c r="BB203">
+        <v>6</v>
+      </c>
+      <c r="BC203">
+        <v>11</v>
+      </c>
+      <c r="BD203">
+        <v>1.73</v>
+      </c>
+      <c r="BE203">
+        <v>6.5</v>
+      </c>
+      <c r="BF203">
+        <v>2.33</v>
+      </c>
+      <c r="BG203">
+        <v>1.37</v>
+      </c>
+      <c r="BH203">
+        <v>2.75</v>
+      </c>
+      <c r="BI203">
+        <v>1.64</v>
+      </c>
+      <c r="BJ203">
+        <v>2.07</v>
+      </c>
+      <c r="BK203">
+        <v>2.05</v>
+      </c>
+      <c r="BL203">
+        <v>1.65</v>
+      </c>
+      <c r="BM203">
+        <v>2.63</v>
+      </c>
+      <c r="BN203">
+        <v>1.4</v>
+      </c>
+      <c r="BO203">
+        <v>3.45</v>
+      </c>
+      <c r="BP203">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="204" spans="1:68">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>7728404</v>
+      </c>
+      <c r="C204" t="s">
+        <v>68</v>
+      </c>
+      <c r="D204" t="s">
+        <v>69</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45640.60416666666</v>
+      </c>
+      <c r="F204">
+        <v>19</v>
+      </c>
+      <c r="G204" t="s">
+        <v>80</v>
+      </c>
+      <c r="H204" t="s">
+        <v>79</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+      <c r="L204">
+        <v>0</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <v>0</v>
+      </c>
+      <c r="O204" t="s">
+        <v>94</v>
+      </c>
+      <c r="P204" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q204">
+        <v>4</v>
+      </c>
+      <c r="R204">
+        <v>1.95</v>
+      </c>
+      <c r="S204">
+        <v>3.1</v>
+      </c>
+      <c r="T204">
+        <v>1.57</v>
+      </c>
+      <c r="U204">
+        <v>2.25</v>
+      </c>
+      <c r="V204">
+        <v>3.75</v>
+      </c>
+      <c r="W204">
+        <v>1.25</v>
+      </c>
+      <c r="X204">
+        <v>11</v>
+      </c>
+      <c r="Y204">
+        <v>1.05</v>
+      </c>
+      <c r="Z204">
+        <v>3.45</v>
+      </c>
+      <c r="AA204">
+        <v>3</v>
+      </c>
+      <c r="AB204">
+        <v>2.2</v>
+      </c>
+      <c r="AC204">
+        <v>1.1</v>
+      </c>
+      <c r="AD204">
+        <v>6.5</v>
+      </c>
+      <c r="AE204">
+        <v>1.47</v>
+      </c>
+      <c r="AF204">
+        <v>2.55</v>
+      </c>
+      <c r="AG204">
+        <v>2.52</v>
+      </c>
+      <c r="AH204">
+        <v>1.52</v>
+      </c>
+      <c r="AI204">
+        <v>2.1</v>
+      </c>
+      <c r="AJ204">
+        <v>1.67</v>
+      </c>
+      <c r="AK204">
+        <v>1.57</v>
+      </c>
+      <c r="AL204">
+        <v>1.3</v>
+      </c>
+      <c r="AM204">
+        <v>1.3</v>
+      </c>
+      <c r="AN204">
+        <v>1.56</v>
+      </c>
+      <c r="AO204">
+        <v>1.13</v>
+      </c>
+      <c r="AP204">
+        <v>1.5</v>
+      </c>
+      <c r="AQ204">
+        <v>1.11</v>
+      </c>
+      <c r="AR204">
+        <v>1.41</v>
+      </c>
+      <c r="AS204">
+        <v>1.3</v>
+      </c>
+      <c r="AT204">
+        <v>2.71</v>
+      </c>
+      <c r="AU204">
+        <v>2</v>
+      </c>
+      <c r="AV204">
+        <v>2</v>
+      </c>
+      <c r="AW204">
+        <v>8</v>
+      </c>
+      <c r="AX204">
+        <v>4</v>
+      </c>
+      <c r="AY204">
+        <v>13</v>
+      </c>
+      <c r="AZ204">
+        <v>10</v>
+      </c>
+      <c r="BA204">
+        <v>3</v>
+      </c>
+      <c r="BB204">
+        <v>5</v>
+      </c>
+      <c r="BC204">
+        <v>8</v>
+      </c>
+      <c r="BD204">
+        <v>2.05</v>
+      </c>
+      <c r="BE204">
+        <v>6.5</v>
+      </c>
+      <c r="BF204">
+        <v>1.93</v>
+      </c>
+      <c r="BG204">
+        <v>1.36</v>
+      </c>
+      <c r="BH204">
+        <v>2.8</v>
+      </c>
+      <c r="BI204">
+        <v>1.61</v>
+      </c>
+      <c r="BJ204">
+        <v>2.12</v>
+      </c>
+      <c r="BK204">
+        <v>2</v>
+      </c>
+      <c r="BL204">
+        <v>1.7</v>
+      </c>
+      <c r="BM204">
+        <v>2.55</v>
+      </c>
+      <c r="BN204">
+        <v>1.43</v>
+      </c>
+      <c r="BO204">
+        <v>3.3</v>
+      </c>
+      <c r="BP204">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="205" spans="1:68">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>7728406</v>
+      </c>
+      <c r="C205" t="s">
+        <v>68</v>
+      </c>
+      <c r="D205" t="s">
+        <v>69</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45640.70833333334</v>
+      </c>
+      <c r="F205">
+        <v>19</v>
+      </c>
+      <c r="G205" t="s">
+        <v>89</v>
+      </c>
+      <c r="H205" t="s">
+        <v>70</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <v>2</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <v>2</v>
+      </c>
+      <c r="O205" t="s">
+        <v>231</v>
+      </c>
+      <c r="P205" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q205">
+        <v>2.7</v>
+      </c>
+      <c r="R205">
+        <v>2</v>
+      </c>
+      <c r="S205">
+        <v>4</v>
+      </c>
+      <c r="T205">
+        <v>1.48</v>
+      </c>
+      <c r="U205">
+        <v>2.5</v>
+      </c>
+      <c r="V205">
+        <v>3.2</v>
+      </c>
+      <c r="W205">
+        <v>1.3</v>
+      </c>
+      <c r="X205">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y205">
+        <v>1.03</v>
+      </c>
+      <c r="Z205">
+        <v>2.03</v>
+      </c>
+      <c r="AA205">
+        <v>3.25</v>
+      </c>
+      <c r="AB205">
+        <v>3.55</v>
+      </c>
+      <c r="AC205">
+        <v>1.07</v>
+      </c>
+      <c r="AD205">
+        <v>8</v>
+      </c>
+      <c r="AE205">
+        <v>1.4</v>
+      </c>
+      <c r="AF205">
+        <v>2.9</v>
+      </c>
+      <c r="AG205">
+        <v>2.15</v>
+      </c>
+      <c r="AH205">
+        <v>1.7</v>
+      </c>
+      <c r="AI205">
+        <v>1.9</v>
+      </c>
+      <c r="AJ205">
+        <v>1.77</v>
+      </c>
+      <c r="AK205">
+        <v>1.28</v>
+      </c>
+      <c r="AL205">
+        <v>1.25</v>
+      </c>
+      <c r="AM205">
+        <v>1.7</v>
+      </c>
+      <c r="AN205">
+        <v>2.25</v>
+      </c>
+      <c r="AO205">
+        <v>1.75</v>
+      </c>
+      <c r="AP205">
+        <v>2.33</v>
+      </c>
+      <c r="AQ205">
+        <v>1.56</v>
+      </c>
+      <c r="AR205">
+        <v>1.69</v>
+      </c>
+      <c r="AS205">
+        <v>1.15</v>
+      </c>
+      <c r="AT205">
+        <v>2.84</v>
+      </c>
+      <c r="AU205">
+        <v>5</v>
+      </c>
+      <c r="AV205">
+        <v>2</v>
+      </c>
+      <c r="AW205">
+        <v>3</v>
+      </c>
+      <c r="AX205">
+        <v>2</v>
+      </c>
+      <c r="AY205">
+        <v>9</v>
+      </c>
+      <c r="AZ205">
+        <v>11</v>
+      </c>
+      <c r="BA205">
+        <v>6</v>
+      </c>
+      <c r="BB205">
+        <v>8</v>
+      </c>
+      <c r="BC205">
+        <v>14</v>
+      </c>
+      <c r="BD205">
+        <v>1.65</v>
+      </c>
+      <c r="BE205">
+        <v>6.5</v>
+      </c>
+      <c r="BF205">
+        <v>2.48</v>
+      </c>
+      <c r="BG205">
+        <v>1.37</v>
+      </c>
+      <c r="BH205">
+        <v>2.75</v>
+      </c>
+      <c r="BI205">
+        <v>1.62</v>
+      </c>
+      <c r="BJ205">
+        <v>2.1</v>
+      </c>
+      <c r="BK205">
+        <v>2</v>
+      </c>
+      <c r="BL205">
+        <v>1.68</v>
+      </c>
+      <c r="BM205">
+        <v>2.55</v>
+      </c>
+      <c r="BN205">
+        <v>1.42</v>
+      </c>
+      <c r="BO205">
+        <v>3.4</v>
+      </c>
+      <c r="BP205">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="316">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -604,10 +604,10 @@
     <t>['46', '67']</t>
   </si>
   <si>
-    <t>['90']</t>
+    <t>['20', '52']</t>
   </si>
   <si>
-    <t>['20', '52']</t>
+    <t>['90']</t>
   </si>
   <si>
     <t>['73']</t>
@@ -619,16 +619,16 @@
     <t>['60']</t>
   </si>
   <si>
+    <t>['38', '45+1']</t>
+  </si>
+  <si>
     <t>['9', '16', '68']</t>
   </si>
   <si>
-    <t>['38', '45+1']</t>
+    <t>['31', '45+1']</t>
   </si>
   <si>
     <t>['14']</t>
-  </si>
-  <si>
-    <t>['31', '45+1']</t>
   </si>
   <si>
     <t>['45', '79']</t>
@@ -700,16 +700,19 @@
     <t>['56', '72']</t>
   </si>
   <si>
-    <t>['11', '14', '50', '70']</t>
+    <t>['89']</t>
   </si>
   <si>
-    <t>['89']</t>
+    <t>['11', '14', '50', '70']</t>
   </si>
   <si>
     <t>['21', '53']</t>
   </si>
   <si>
     <t>['81', '85']</t>
+  </si>
+  <si>
+    <t>['33']</t>
   </si>
   <si>
     <t>['42', '45+3']</t>
@@ -913,9 +916,6 @@
     <t>['20', '24', '29']</t>
   </si>
   <si>
-    <t>['33']</t>
-  </si>
-  <si>
     <t>['24', '65']</t>
   </si>
   <si>
@@ -956,6 +956,12 @@
   </si>
   <si>
     <t>['46', '90+4']</t>
+  </si>
+  <si>
+    <t>['15', '27', '44']</t>
+  </si>
+  <si>
+    <t>['68']</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP205"/>
+  <dimension ref="A1:BP208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1576,7 +1582,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1988,7 +1994,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -2481,7 +2487,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ6">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2606,7 +2612,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2812,7 +2818,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2890,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ8">
         <v>1.22</v>
@@ -3018,7 +3024,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -3096,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9">
         <v>1.5</v>
@@ -3224,7 +3230,7 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3302,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
         <v>0.6</v>
@@ -3511,7 +3517,7 @@
         <v>2</v>
       </c>
       <c r="AQ11">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3636,7 +3642,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3842,7 +3848,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3920,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
         <v>0.5600000000000001</v>
@@ -4048,7 +4054,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4332,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ15">
         <v>0.5600000000000001</v>
@@ -5078,7 +5084,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5696,7 +5702,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5902,7 +5908,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6108,7 +6114,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6189,7 +6195,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ24">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR24">
         <v>2.51</v>
@@ -6314,7 +6320,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6520,7 +6526,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6726,7 +6732,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -7138,7 +7144,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7216,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ29">
         <v>1.67</v>
@@ -7425,7 +7431,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ30">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR30">
         <v>1.73</v>
@@ -7756,7 +7762,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7962,7 +7968,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8374,7 +8380,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8580,7 +8586,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8992,7 +8998,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9070,7 +9076,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ38">
         <v>1.1</v>
@@ -9279,7 +9285,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ39">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR39">
         <v>1.32</v>
@@ -10228,7 +10234,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10846,7 +10852,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11339,7 +11345,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ49">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR49">
         <v>1.38</v>
@@ -11542,7 +11548,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50">
         <v>1.11</v>
@@ -12160,7 +12166,7 @@
         <v>2.33</v>
       </c>
       <c r="AP53">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53">
         <v>1.45</v>
@@ -12369,7 +12375,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ54">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR54">
         <v>1.24</v>
@@ -12494,7 +12500,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12700,7 +12706,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12906,7 +12912,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12987,7 +12993,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ57">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR57">
         <v>1.77</v>
@@ -13112,7 +13118,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13524,7 +13530,7 @@
         <v>94</v>
       </c>
       <c r="P60" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -14142,7 +14148,7 @@
         <v>97</v>
       </c>
       <c r="P63" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14348,7 +14354,7 @@
         <v>94</v>
       </c>
       <c r="P64" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14760,7 +14766,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15172,7 +15178,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15378,7 +15384,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15665,7 +15671,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ70">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR70">
         <v>1.04</v>
@@ -15868,7 +15874,7 @@
         <v>1.75</v>
       </c>
       <c r="AP71">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ71">
         <v>1.45</v>
@@ -15996,7 +16002,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16202,7 +16208,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16408,7 +16414,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16486,7 +16492,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ74">
         <v>1.56</v>
@@ -16614,7 +16620,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -16901,7 +16907,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ76">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR76">
         <v>1.57</v>
@@ -17232,7 +17238,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17310,7 +17316,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ78">
         <v>0.6</v>
@@ -17438,7 +17444,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q79">
         <v>3.85</v>
@@ -17850,7 +17856,7 @@
         <v>94</v>
       </c>
       <c r="P81" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q81">
         <v>3.55</v>
@@ -18056,7 +18062,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q82">
         <v>2.65</v>
@@ -18262,7 +18268,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18961,7 +18967,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ86">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR86">
         <v>1.47</v>
@@ -19086,7 +19092,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19498,7 +19504,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19704,7 +19710,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19991,7 +19997,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ91">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR91">
         <v>1.18</v>
@@ -20116,7 +20122,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20197,7 +20203,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ92">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR92">
         <v>1.42</v>
@@ -20528,7 +20534,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -20734,7 +20740,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -21018,7 +21024,7 @@
         <v>1.75</v>
       </c>
       <c r="AP96">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ96">
         <v>1.22</v>
@@ -21430,7 +21436,7 @@
         <v>0.67</v>
       </c>
       <c r="AP98">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ98">
         <v>1.22</v>
@@ -21764,7 +21770,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -21842,7 +21848,7 @@
         <v>2.25</v>
       </c>
       <c r="AP100">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ100">
         <v>1.67</v>
@@ -21970,7 +21976,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -23206,7 +23212,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23493,7 +23499,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ108">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR108">
         <v>1.17</v>
@@ -23824,7 +23830,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -24236,7 +24242,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q112">
         <v>2.45</v>
@@ -24442,7 +24448,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -24854,7 +24860,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q115">
         <v>3.45</v>
@@ -25138,7 +25144,7 @@
         <v>0.2</v>
       </c>
       <c r="AP116">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ116">
         <v>0.2</v>
@@ -25678,7 +25684,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q119">
         <v>2.8</v>
@@ -25962,10 +25968,10 @@
         <v>1.4</v>
       </c>
       <c r="AP120">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ120">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR120">
         <v>1.6</v>
@@ -26171,7 +26177,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ121">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR121">
         <v>1.32</v>
@@ -26296,7 +26302,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26374,10 +26380,10 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ122">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR122">
         <v>1.4</v>
@@ -26708,7 +26714,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q124">
         <v>2.4</v>
@@ -27120,7 +27126,7 @@
         <v>179</v>
       </c>
       <c r="P126" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27532,7 +27538,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27944,7 +27950,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q130">
         <v>3.25</v>
@@ -28150,7 +28156,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q131">
         <v>2.75</v>
@@ -28356,7 +28362,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28562,7 +28568,7 @@
         <v>106</v>
       </c>
       <c r="P133" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q133">
         <v>3.1</v>
@@ -28768,7 +28774,7 @@
         <v>94</v>
       </c>
       <c r="P134" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q134">
         <v>3.1</v>
@@ -28974,7 +28980,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q135">
         <v>3.9</v>
@@ -29258,7 +29264,7 @@
         <v>1.4</v>
       </c>
       <c r="AP136">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ136">
         <v>1</v>
@@ -29592,7 +29598,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -29670,7 +29676,7 @@
         <v>1.17</v>
       </c>
       <c r="AP138">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ138">
         <v>1.1</v>
@@ -30210,7 +30216,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q141">
         <v>2.62</v>
@@ -30416,7 +30422,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q142">
         <v>3.6</v>
@@ -30622,7 +30628,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q143">
         <v>3.75</v>
@@ -30828,7 +30834,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31240,7 +31246,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q146">
         <v>2.75</v>
@@ -31524,7 +31530,7 @@
         <v>1</v>
       </c>
       <c r="AP147">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ147">
         <v>1.11</v>
@@ -31652,7 +31658,7 @@
         <v>97</v>
       </c>
       <c r="P148" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q148">
         <v>3.65</v>
@@ -32351,7 +32357,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ151">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR151">
         <v>1.43</v>
@@ -32434,7 +32440,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>7481513</v>
+        <v>7481516</v>
       </c>
       <c r="C152" t="s">
         <v>68</v>
@@ -32449,70 +32455,70 @@
         <v>15</v>
       </c>
       <c r="G152" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H152" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M152">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N152">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O152" t="s">
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>298</v>
+        <v>94</v>
       </c>
       <c r="Q152">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="R152">
         <v>2.1</v>
       </c>
       <c r="S152">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="T152">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U152">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V152">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="W152">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="X152">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="Y152">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="Z152">
-        <v>1.7</v>
+        <v>2.18</v>
       </c>
       <c r="AA152">
-        <v>3.75</v>
+        <v>3.27</v>
       </c>
       <c r="AB152">
-        <v>4.45</v>
+        <v>3.18</v>
       </c>
       <c r="AC152">
         <v>1.06</v>
@@ -32521,118 +32527,118 @@
         <v>8.5</v>
       </c>
       <c r="AE152">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AF152">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="AG152">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="AH152">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AI152">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AJ152">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AK152">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AL152">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AM152">
-        <v>2.05</v>
+        <v>1.57</v>
       </c>
       <c r="AN152">
         <v>1.17</v>
       </c>
       <c r="AO152">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AP152">
+        <v>1.5</v>
+      </c>
+      <c r="AQ152">
+        <v>1.1</v>
+      </c>
+      <c r="AR152">
+        <v>1.54</v>
+      </c>
+      <c r="AS152">
         <v>1.4</v>
       </c>
-      <c r="AQ152">
-        <v>1.22</v>
-      </c>
-      <c r="AR152">
-        <v>1.58</v>
-      </c>
-      <c r="AS152">
-        <v>0.91</v>
-      </c>
       <c r="AT152">
-        <v>2.49</v>
+        <v>2.94</v>
       </c>
       <c r="AU152">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV152">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AW152">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX152">
         <v>7</v>
       </c>
       <c r="AY152">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AZ152">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="BA152">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BB152">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC152">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BD152">
-        <v>1.51</v>
+        <v>1.77</v>
       </c>
       <c r="BE152">
-        <v>8.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF152">
-        <v>3.16</v>
+        <v>2.15</v>
       </c>
       <c r="BG152">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="BH152">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="BI152">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="BJ152">
-        <v>2.19</v>
+        <v>2.28</v>
       </c>
       <c r="BK152">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="BL152">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="BM152">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="BN152">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="BO152">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="BP152">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="153" spans="1:68">
@@ -32640,7 +32646,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>7481516</v>
+        <v>7481513</v>
       </c>
       <c r="C153" t="s">
         <v>68</v>
@@ -32655,70 +32661,70 @@
         <v>15</v>
       </c>
       <c r="G153" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H153" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N153">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O153" t="s">
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>94</v>
+        <v>299</v>
       </c>
       <c r="Q153">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="R153">
         <v>2.1</v>
       </c>
       <c r="S153">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="T153">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U153">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V153">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="W153">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="X153">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="Y153">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="Z153">
-        <v>2.18</v>
+        <v>1.7</v>
       </c>
       <c r="AA153">
-        <v>3.27</v>
+        <v>3.75</v>
       </c>
       <c r="AB153">
-        <v>3.18</v>
+        <v>4.45</v>
       </c>
       <c r="AC153">
         <v>1.06</v>
@@ -32727,118 +32733,118 @@
         <v>8.5</v>
       </c>
       <c r="AE153">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AF153">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="AG153">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="AH153">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AI153">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AJ153">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AK153">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AL153">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AM153">
-        <v>1.57</v>
+        <v>2.05</v>
       </c>
       <c r="AN153">
         <v>1.17</v>
       </c>
       <c r="AO153">
-        <v>1.14</v>
+        <v>0.83</v>
       </c>
       <c r="AP153">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ153">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="AR153">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="AS153">
-        <v>1.4</v>
+        <v>0.91</v>
       </c>
       <c r="AT153">
-        <v>2.94</v>
+        <v>2.49</v>
       </c>
       <c r="AU153">
+        <v>7</v>
+      </c>
+      <c r="AV153">
+        <v>10</v>
+      </c>
+      <c r="AW153">
         <v>4</v>
-      </c>
-      <c r="AV153">
-        <v>2</v>
-      </c>
-      <c r="AW153">
-        <v>5</v>
       </c>
       <c r="AX153">
         <v>7</v>
       </c>
       <c r="AY153">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ153">
+        <v>19</v>
+      </c>
+      <c r="BA153">
+        <v>7</v>
+      </c>
+      <c r="BB153">
+        <v>7</v>
+      </c>
+      <c r="BC153">
         <v>14</v>
       </c>
-      <c r="BA153">
-        <v>4</v>
-      </c>
-      <c r="BB153">
-        <v>6</v>
-      </c>
-      <c r="BC153">
-        <v>10</v>
-      </c>
       <c r="BD153">
-        <v>1.77</v>
+        <v>1.51</v>
       </c>
       <c r="BE153">
-        <v>6.4</v>
+        <v>8.5</v>
       </c>
       <c r="BF153">
-        <v>2.15</v>
+        <v>3.16</v>
       </c>
       <c r="BG153">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="BH153">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="BI153">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="BJ153">
-        <v>2.28</v>
+        <v>2.19</v>
       </c>
       <c r="BK153">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="BL153">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="BM153">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="BN153">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="BO153">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="BP153">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="154" spans="1:68">
@@ -32888,7 +32894,7 @@
         <v>198</v>
       </c>
       <c r="P154" t="s">
-        <v>299</v>
+        <v>232</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -33172,7 +33178,7 @@
         <v>1</v>
       </c>
       <c r="AP155">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ155">
         <v>0.78</v>
@@ -33300,7 +33306,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -33378,7 +33384,7 @@
         <v>1.83</v>
       </c>
       <c r="AP156">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ156">
         <v>1.56</v>
@@ -33464,7 +33470,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>7481515</v>
+        <v>7481511</v>
       </c>
       <c r="C157" t="s">
         <v>68</v>
@@ -33476,13 +33482,13 @@
         <v>45613.51041666666</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G157" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="H157" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I157">
         <v>2</v>
@@ -33494,175 +33500,175 @@
         <v>2</v>
       </c>
       <c r="L157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N157">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O157" t="s">
         <v>201</v>
       </c>
       <c r="P157" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="Q157">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R157">
+        <v>2.05</v>
+      </c>
+      <c r="S157">
+        <v>4.33</v>
+      </c>
+      <c r="T157">
+        <v>1.42</v>
+      </c>
+      <c r="U157">
+        <v>2.65</v>
+      </c>
+      <c r="V157">
+        <v>2.9</v>
+      </c>
+      <c r="W157">
+        <v>1.36</v>
+      </c>
+      <c r="X157">
+        <v>6.9</v>
+      </c>
+      <c r="Y157">
+        <v>1.07</v>
+      </c>
+      <c r="Z157">
+        <v>1.8</v>
+      </c>
+      <c r="AA157">
+        <v>3.3</v>
+      </c>
+      <c r="AB157">
+        <v>3.9</v>
+      </c>
+      <c r="AC157">
+        <v>1.07</v>
+      </c>
+      <c r="AD157">
+        <v>8</v>
+      </c>
+      <c r="AE157">
+        <v>1.35</v>
+      </c>
+      <c r="AF157">
+        <v>3.1</v>
+      </c>
+      <c r="AG157">
         <v>1.95</v>
       </c>
-      <c r="S157">
-        <v>6</v>
-      </c>
-      <c r="T157">
-        <v>1.57</v>
-      </c>
-      <c r="U157">
-        <v>2.25</v>
-      </c>
-      <c r="V157">
-        <v>3.75</v>
-      </c>
-      <c r="W157">
-        <v>1.25</v>
-      </c>
-      <c r="X157">
-        <v>13</v>
-      </c>
-      <c r="Y157">
-        <v>1.04</v>
-      </c>
-      <c r="Z157">
-        <v>1.75</v>
-      </c>
-      <c r="AA157">
-        <v>3.1</v>
-      </c>
-      <c r="AB157">
-        <v>4.5</v>
-      </c>
-      <c r="AC157">
-        <v>1.1</v>
-      </c>
-      <c r="AD157">
-        <v>6.5</v>
-      </c>
-      <c r="AE157">
-        <v>1.48</v>
-      </c>
-      <c r="AF157">
-        <v>2.37</v>
-      </c>
-      <c r="AG157">
-        <v>2.47</v>
-      </c>
       <c r="AH157">
-        <v>1.48</v>
+        <v>1.73</v>
       </c>
       <c r="AI157">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="AJ157">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="AK157">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AL157">
         <v>1.25</v>
       </c>
       <c r="AM157">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AN157">
-        <v>2.5</v>
+        <v>0.86</v>
       </c>
       <c r="AO157">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="AP157">
-        <v>2.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ157">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR157">
-        <v>1.68</v>
+        <v>1.49</v>
       </c>
       <c r="AS157">
-        <v>1.06</v>
+        <v>1.27</v>
       </c>
       <c r="AT157">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="AU157">
+        <v>6</v>
+      </c>
+      <c r="AV157">
+        <v>3</v>
+      </c>
+      <c r="AW157">
+        <v>5</v>
+      </c>
+      <c r="AX157">
+        <v>10</v>
+      </c>
+      <c r="AY157">
+        <v>13</v>
+      </c>
+      <c r="AZ157">
+        <v>21</v>
+      </c>
+      <c r="BA157">
+        <v>5</v>
+      </c>
+      <c r="BB157">
+        <v>9</v>
+      </c>
+      <c r="BC157">
+        <v>14</v>
+      </c>
+      <c r="BD157">
+        <v>1.64</v>
+      </c>
+      <c r="BE157">
         <v>8</v>
       </c>
-      <c r="AV157">
-        <v>4</v>
-      </c>
-      <c r="AW157">
-        <v>6</v>
-      </c>
-      <c r="AX157">
-        <v>8</v>
-      </c>
-      <c r="AY157">
-        <v>16</v>
-      </c>
-      <c r="AZ157">
-        <v>14</v>
-      </c>
-      <c r="BA157">
-        <v>4</v>
-      </c>
-      <c r="BB157">
-        <v>4</v>
-      </c>
-      <c r="BC157">
-        <v>8</v>
-      </c>
-      <c r="BD157">
-        <v>1.38</v>
-      </c>
-      <c r="BE157">
-        <v>6.75</v>
-      </c>
       <c r="BF157">
-        <v>3.15</v>
+        <v>2.77</v>
       </c>
       <c r="BG157">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="BH157">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="BI157">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="BJ157">
-        <v>2.28</v>
+        <v>2.19</v>
       </c>
       <c r="BK157">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BL157">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="BM157">
-        <v>2.32</v>
+        <v>2.6</v>
       </c>
       <c r="BN157">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="BO157">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="BP157">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="158" spans="1:68">
@@ -33670,7 +33676,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>7481511</v>
+        <v>7481515</v>
       </c>
       <c r="C158" t="s">
         <v>68</v>
@@ -33682,13 +33688,13 @@
         <v>45613.51041666666</v>
       </c>
       <c r="F158">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G158" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="H158" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I158">
         <v>2</v>
@@ -33700,175 +33706,175 @@
         <v>2</v>
       </c>
       <c r="L158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N158">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O158" t="s">
         <v>202</v>
       </c>
       <c r="P158" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="Q158">
+        <v>2.4</v>
+      </c>
+      <c r="R158">
+        <v>1.95</v>
+      </c>
+      <c r="S158">
+        <v>6</v>
+      </c>
+      <c r="T158">
+        <v>1.57</v>
+      </c>
+      <c r="U158">
+        <v>2.25</v>
+      </c>
+      <c r="V158">
+        <v>3.75</v>
+      </c>
+      <c r="W158">
+        <v>1.25</v>
+      </c>
+      <c r="X158">
+        <v>13</v>
+      </c>
+      <c r="Y158">
+        <v>1.04</v>
+      </c>
+      <c r="Z158">
+        <v>1.75</v>
+      </c>
+      <c r="AA158">
+        <v>3.1</v>
+      </c>
+      <c r="AB158">
+        <v>4.5</v>
+      </c>
+      <c r="AC158">
+        <v>1.1</v>
+      </c>
+      <c r="AD158">
+        <v>6.5</v>
+      </c>
+      <c r="AE158">
+        <v>1.48</v>
+      </c>
+      <c r="AF158">
+        <v>2.37</v>
+      </c>
+      <c r="AG158">
+        <v>2.47</v>
+      </c>
+      <c r="AH158">
+        <v>1.48</v>
+      </c>
+      <c r="AI158">
         <v>2.5</v>
       </c>
-      <c r="R158">
-        <v>2.05</v>
-      </c>
-      <c r="S158">
-        <v>4.33</v>
-      </c>
-      <c r="T158">
-        <v>1.42</v>
-      </c>
-      <c r="U158">
-        <v>2.65</v>
-      </c>
-      <c r="V158">
-        <v>2.9</v>
-      </c>
-      <c r="W158">
-        <v>1.36</v>
-      </c>
-      <c r="X158">
-        <v>6.9</v>
-      </c>
-      <c r="Y158">
-        <v>1.07</v>
-      </c>
-      <c r="Z158">
-        <v>1.8</v>
-      </c>
-      <c r="AA158">
-        <v>3.3</v>
-      </c>
-      <c r="AB158">
-        <v>3.9</v>
-      </c>
-      <c r="AC158">
-        <v>1.07</v>
-      </c>
-      <c r="AD158">
-        <v>8</v>
-      </c>
-      <c r="AE158">
-        <v>1.35</v>
-      </c>
-      <c r="AF158">
-        <v>3.1</v>
-      </c>
-      <c r="AG158">
-        <v>1.95</v>
-      </c>
-      <c r="AH158">
-        <v>1.73</v>
-      </c>
-      <c r="AI158">
-        <v>1.83</v>
-      </c>
       <c r="AJ158">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="AK158">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AL158">
         <v>1.25</v>
       </c>
       <c r="AM158">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AN158">
-        <v>0.86</v>
+        <v>2.5</v>
       </c>
       <c r="AO158">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="AP158">
-        <v>1.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ158">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="AR158">
-        <v>1.49</v>
+        <v>1.68</v>
       </c>
       <c r="AS158">
-        <v>1.27</v>
+        <v>1.06</v>
       </c>
       <c r="AT158">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="AU158">
+        <v>8</v>
+      </c>
+      <c r="AV158">
+        <v>4</v>
+      </c>
+      <c r="AW158">
         <v>6</v>
       </c>
-      <c r="AV158">
+      <c r="AX158">
+        <v>8</v>
+      </c>
+      <c r="AY158">
+        <v>16</v>
+      </c>
+      <c r="AZ158">
+        <v>14</v>
+      </c>
+      <c r="BA158">
+        <v>4</v>
+      </c>
+      <c r="BB158">
+        <v>4</v>
+      </c>
+      <c r="BC158">
+        <v>8</v>
+      </c>
+      <c r="BD158">
+        <v>1.38</v>
+      </c>
+      <c r="BE158">
+        <v>6.75</v>
+      </c>
+      <c r="BF158">
+        <v>3.15</v>
+      </c>
+      <c r="BG158">
+        <v>1.3</v>
+      </c>
+      <c r="BH158">
+        <v>3.05</v>
+      </c>
+      <c r="BI158">
+        <v>1.53</v>
+      </c>
+      <c r="BJ158">
+        <v>2.28</v>
+      </c>
+      <c r="BK158">
+        <v>1.98</v>
+      </c>
+      <c r="BL158">
+        <v>1.82</v>
+      </c>
+      <c r="BM158">
+        <v>2.32</v>
+      </c>
+      <c r="BN158">
+        <v>1.52</v>
+      </c>
+      <c r="BO158">
         <v>3</v>
       </c>
-      <c r="AW158">
-        <v>5</v>
-      </c>
-      <c r="AX158">
-        <v>10</v>
-      </c>
-      <c r="AY158">
-        <v>13</v>
-      </c>
-      <c r="AZ158">
-        <v>21</v>
-      </c>
-      <c r="BA158">
-        <v>5</v>
-      </c>
-      <c r="BB158">
-        <v>9</v>
-      </c>
-      <c r="BC158">
-        <v>14</v>
-      </c>
-      <c r="BD158">
-        <v>1.64</v>
-      </c>
-      <c r="BE158">
-        <v>8</v>
-      </c>
-      <c r="BF158">
-        <v>2.77</v>
-      </c>
-      <c r="BG158">
-        <v>1.34</v>
-      </c>
-      <c r="BH158">
-        <v>2.98</v>
-      </c>
-      <c r="BI158">
-        <v>1.6</v>
-      </c>
-      <c r="BJ158">
-        <v>2.19</v>
-      </c>
-      <c r="BK158">
-        <v>2</v>
-      </c>
-      <c r="BL158">
-        <v>1.72</v>
-      </c>
-      <c r="BM158">
-        <v>2.6</v>
-      </c>
-      <c r="BN158">
-        <v>1.44</v>
-      </c>
-      <c r="BO158">
-        <v>3.5</v>
-      </c>
       <c r="BP158">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="159" spans="1:68">
@@ -33876,7 +33882,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>7481512</v>
+        <v>7481510</v>
       </c>
       <c r="C159" t="s">
         <v>68</v>
@@ -33891,190 +33897,190 @@
         <v>15</v>
       </c>
       <c r="G159" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H159" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O159" t="s">
         <v>203</v>
       </c>
       <c r="P159" t="s">
-        <v>94</v>
+        <v>206</v>
       </c>
       <c r="Q159">
+        <v>2.75</v>
+      </c>
+      <c r="R159">
+        <v>2.25</v>
+      </c>
+      <c r="S159">
         <v>3.75</v>
       </c>
-      <c r="R159">
-        <v>1.83</v>
-      </c>
-      <c r="S159">
-        <v>3.6</v>
-      </c>
       <c r="T159">
+        <v>1.36</v>
+      </c>
+      <c r="U159">
+        <v>3</v>
+      </c>
+      <c r="V159">
+        <v>2.63</v>
+      </c>
+      <c r="W159">
+        <v>1.44</v>
+      </c>
+      <c r="X159">
+        <v>7</v>
+      </c>
+      <c r="Y159">
+        <v>1.1</v>
+      </c>
+      <c r="Z159">
+        <v>1.73</v>
+      </c>
+      <c r="AA159">
+        <v>3.5</v>
+      </c>
+      <c r="AB159">
+        <v>3.9</v>
+      </c>
+      <c r="AC159">
+        <v>1.05</v>
+      </c>
+      <c r="AD159">
+        <v>9.5</v>
+      </c>
+      <c r="AE159">
+        <v>1.25</v>
+      </c>
+      <c r="AF159">
+        <v>3.8</v>
+      </c>
+      <c r="AG159">
+        <v>1.65</v>
+      </c>
+      <c r="AH159">
+        <v>2.05</v>
+      </c>
+      <c r="AI159">
         <v>1.62</v>
       </c>
-      <c r="U159">
+      <c r="AJ159">
         <v>2.2</v>
       </c>
-      <c r="V159">
-        <v>4</v>
-      </c>
-      <c r="W159">
+      <c r="AK159">
+        <v>1.3</v>
+      </c>
+      <c r="AL159">
+        <v>1.25</v>
+      </c>
+      <c r="AM159">
+        <v>1.7</v>
+      </c>
+      <c r="AN159">
+        <v>1.6</v>
+      </c>
+      <c r="AO159">
+        <v>1.14</v>
+      </c>
+      <c r="AP159">
+        <v>2.22</v>
+      </c>
+      <c r="AQ159">
         <v>1.22</v>
       </c>
-      <c r="X159">
-        <v>13</v>
-      </c>
-      <c r="Y159">
-        <v>1.04</v>
-      </c>
-      <c r="Z159">
-        <v>2.75</v>
-      </c>
-      <c r="AA159">
-        <v>2.75</v>
-      </c>
-      <c r="AB159">
-        <v>2.6</v>
-      </c>
-      <c r="AC159">
-        <v>1.12</v>
-      </c>
-      <c r="AD159">
-        <v>5.75</v>
-      </c>
-      <c r="AE159">
-        <v>1.55</v>
-      </c>
-      <c r="AF159">
-        <v>2.2</v>
-      </c>
-      <c r="AG159">
-        <v>2.85</v>
-      </c>
-      <c r="AH159">
-        <v>1.37</v>
-      </c>
-      <c r="AI159">
-        <v>2.2</v>
-      </c>
-      <c r="AJ159">
-        <v>1.62</v>
-      </c>
-      <c r="AK159">
-        <v>1.44</v>
-      </c>
-      <c r="AL159">
-        <v>1.36</v>
-      </c>
-      <c r="AM159">
-        <v>1.4</v>
-      </c>
-      <c r="AN159">
-        <v>0.17</v>
-      </c>
-      <c r="AO159">
-        <v>1.17</v>
-      </c>
-      <c r="AP159">
-        <v>0.78</v>
-      </c>
-      <c r="AQ159">
-        <v>1.11</v>
-      </c>
       <c r="AR159">
-        <v>1.21</v>
+        <v>1.75</v>
       </c>
       <c r="AS159">
-        <v>1.04</v>
+        <v>1.46</v>
       </c>
       <c r="AT159">
-        <v>2.25</v>
+        <v>3.21</v>
       </c>
       <c r="AU159">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV159">
         <v>6</v>
       </c>
       <c r="AW159">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX159">
+        <v>2</v>
+      </c>
+      <c r="AY159">
+        <v>17</v>
+      </c>
+      <c r="AZ159">
         <v>8</v>
       </c>
-      <c r="AY159">
+      <c r="BA159">
+        <v>7</v>
+      </c>
+      <c r="BB159">
+        <v>4</v>
+      </c>
+      <c r="BC159">
         <v>11</v>
       </c>
-      <c r="AZ159">
-        <v>16</v>
-      </c>
-      <c r="BA159">
-        <v>4</v>
-      </c>
-      <c r="BB159">
-        <v>5</v>
-      </c>
-      <c r="BC159">
-        <v>9</v>
-      </c>
       <c r="BD159">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="BE159">
-        <v>7.5</v>
+        <v>6.25</v>
       </c>
       <c r="BF159">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="BG159">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="BH159">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="BI159">
-        <v>1.87</v>
+        <v>1.64</v>
       </c>
       <c r="BJ159">
-        <v>1.83</v>
+        <v>2.08</v>
       </c>
       <c r="BK159">
-        <v>2.43</v>
+        <v>2.04</v>
       </c>
       <c r="BL159">
-        <v>1.49</v>
+        <v>1.66</v>
       </c>
       <c r="BM159">
-        <v>3.3</v>
+        <v>2.63</v>
       </c>
       <c r="BN159">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="BO159">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="BP159">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="160" spans="1:68">
@@ -34082,7 +34088,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>7481510</v>
+        <v>7481512</v>
       </c>
       <c r="C160" t="s">
         <v>68</v>
@@ -34097,190 +34103,190 @@
         <v>15</v>
       </c>
       <c r="G160" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H160" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K160">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N160">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O160" t="s">
         <v>204</v>
       </c>
       <c r="P160" t="s">
-        <v>206</v>
+        <v>94</v>
       </c>
       <c r="Q160">
+        <v>3.75</v>
+      </c>
+      <c r="R160">
+        <v>1.83</v>
+      </c>
+      <c r="S160">
+        <v>3.6</v>
+      </c>
+      <c r="T160">
+        <v>1.62</v>
+      </c>
+      <c r="U160">
+        <v>2.2</v>
+      </c>
+      <c r="V160">
+        <v>4</v>
+      </c>
+      <c r="W160">
+        <v>1.22</v>
+      </c>
+      <c r="X160">
+        <v>13</v>
+      </c>
+      <c r="Y160">
+        <v>1.04</v>
+      </c>
+      <c r="Z160">
         <v>2.75</v>
       </c>
-      <c r="R160">
+      <c r="AA160">
+        <v>2.75</v>
+      </c>
+      <c r="AB160">
+        <v>2.6</v>
+      </c>
+      <c r="AC160">
+        <v>1.12</v>
+      </c>
+      <c r="AD160">
+        <v>5.75</v>
+      </c>
+      <c r="AE160">
+        <v>1.55</v>
+      </c>
+      <c r="AF160">
+        <v>2.2</v>
+      </c>
+      <c r="AG160">
+        <v>2.85</v>
+      </c>
+      <c r="AH160">
+        <v>1.37</v>
+      </c>
+      <c r="AI160">
+        <v>2.2</v>
+      </c>
+      <c r="AJ160">
+        <v>1.62</v>
+      </c>
+      <c r="AK160">
+        <v>1.44</v>
+      </c>
+      <c r="AL160">
+        <v>1.36</v>
+      </c>
+      <c r="AM160">
+        <v>1.4</v>
+      </c>
+      <c r="AN160">
+        <v>0.17</v>
+      </c>
+      <c r="AO160">
+        <v>1.17</v>
+      </c>
+      <c r="AP160">
+        <v>0.78</v>
+      </c>
+      <c r="AQ160">
+        <v>1.3</v>
+      </c>
+      <c r="AR160">
+        <v>1.21</v>
+      </c>
+      <c r="AS160">
+        <v>1.04</v>
+      </c>
+      <c r="AT160">
         <v>2.25</v>
       </c>
-      <c r="S160">
-        <v>3.75</v>
-      </c>
-      <c r="T160">
-        <v>1.36</v>
-      </c>
-      <c r="U160">
-        <v>3</v>
-      </c>
-      <c r="V160">
-        <v>2.63</v>
-      </c>
-      <c r="W160">
-        <v>1.44</v>
-      </c>
-      <c r="X160">
-        <v>7</v>
-      </c>
-      <c r="Y160">
-        <v>1.1</v>
-      </c>
-      <c r="Z160">
-        <v>1.73</v>
-      </c>
-      <c r="AA160">
-        <v>3.5</v>
-      </c>
-      <c r="AB160">
-        <v>3.9</v>
-      </c>
-      <c r="AC160">
-        <v>1.05</v>
-      </c>
-      <c r="AD160">
-        <v>9.5</v>
-      </c>
-      <c r="AE160">
-        <v>1.25</v>
-      </c>
-      <c r="AF160">
-        <v>3.8</v>
-      </c>
-      <c r="AG160">
-        <v>1.65</v>
-      </c>
-      <c r="AH160">
-        <v>2.05</v>
-      </c>
-      <c r="AI160">
-        <v>1.62</v>
-      </c>
-      <c r="AJ160">
-        <v>2.2</v>
-      </c>
-      <c r="AK160">
-        <v>1.3</v>
-      </c>
-      <c r="AL160">
-        <v>1.25</v>
-      </c>
-      <c r="AM160">
-        <v>1.7</v>
-      </c>
-      <c r="AN160">
-        <v>1.6</v>
-      </c>
-      <c r="AO160">
-        <v>1.14</v>
-      </c>
-      <c r="AP160">
-        <v>2.22</v>
-      </c>
-      <c r="AQ160">
-        <v>1.22</v>
-      </c>
-      <c r="AR160">
-        <v>1.75</v>
-      </c>
-      <c r="AS160">
-        <v>1.46</v>
-      </c>
-      <c r="AT160">
-        <v>3.21</v>
-      </c>
       <c r="AU160">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV160">
         <v>6</v>
       </c>
       <c r="AW160">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX160">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AY160">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AZ160">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BA160">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BB160">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC160">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD160">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="BE160">
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="BF160">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="BG160">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="BH160">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="BI160">
-        <v>1.64</v>
+        <v>1.87</v>
       </c>
       <c r="BJ160">
-        <v>2.08</v>
+        <v>1.83</v>
       </c>
       <c r="BK160">
-        <v>2.04</v>
+        <v>2.43</v>
       </c>
       <c r="BL160">
-        <v>1.66</v>
+        <v>1.49</v>
       </c>
       <c r="BM160">
-        <v>2.63</v>
+        <v>3.3</v>
       </c>
       <c r="BN160">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="BO160">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="BP160">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="161" spans="1:68">
@@ -34411,7 +34417,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ161">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR161">
         <v>1.62</v>
@@ -34617,7 +34623,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ162">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR162">
         <v>1.47</v>
@@ -35438,7 +35444,7 @@
         <v>0.71</v>
       </c>
       <c r="AP166">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ166">
         <v>0.5600000000000001</v>
@@ -37295,7 +37301,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ175">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR175">
         <v>1.58</v>
@@ -37501,7 +37507,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ176">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR176">
         <v>1.6</v>
@@ -37707,7 +37713,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ177">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR177">
         <v>1.68</v>
@@ -37790,7 +37796,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>7728376</v>
+        <v>7728380</v>
       </c>
       <c r="C178" t="s">
         <v>68</v>
@@ -37805,190 +37811,190 @@
         <v>17</v>
       </c>
       <c r="G178" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H178" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="I178">
         <v>0</v>
       </c>
       <c r="J178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M178">
         <v>1</v>
       </c>
       <c r="N178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O178" t="s">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="P178" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="Q178">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R178">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S178">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="T178">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="U178">
-        <v>2.95</v>
+        <v>2.65</v>
       </c>
       <c r="V178">
-        <v>2.55</v>
+        <v>2.88</v>
       </c>
       <c r="W178">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="X178">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="Y178">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="Z178">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AA178">
         <v>3.5</v>
       </c>
       <c r="AB178">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AC178">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD178">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE178">
+        <v>1.33</v>
+      </c>
+      <c r="AF178">
+        <v>3.25</v>
+      </c>
+      <c r="AG178">
+        <v>1.95</v>
+      </c>
+      <c r="AH178">
+        <v>1.73</v>
+      </c>
+      <c r="AI178">
+        <v>1.83</v>
+      </c>
+      <c r="AJ178">
+        <v>1.85</v>
+      </c>
+      <c r="AK178">
+        <v>1.2</v>
+      </c>
+      <c r="AL178">
         <v>1.25</v>
       </c>
-      <c r="AF178">
-        <v>3.75</v>
-      </c>
-      <c r="AG178">
-        <v>1.75</v>
-      </c>
-      <c r="AH178">
+      <c r="AM178">
         <v>1.95</v>
       </c>
-      <c r="AI178">
-        <v>1.67</v>
-      </c>
-      <c r="AJ178">
-        <v>2.05</v>
-      </c>
-      <c r="AK178">
+      <c r="AN178">
+        <v>1.43</v>
+      </c>
+      <c r="AO178">
+        <v>1</v>
+      </c>
+      <c r="AP178">
         <v>1.25</v>
       </c>
-      <c r="AL178">
-        <v>1.22</v>
-      </c>
-      <c r="AM178">
-        <v>1.9</v>
-      </c>
-      <c r="AN178">
-        <v>2</v>
-      </c>
-      <c r="AO178">
-        <v>2</v>
-      </c>
-      <c r="AP178">
-        <v>2.22</v>
-      </c>
       <c r="AQ178">
-        <v>1.56</v>
+        <v>1.1</v>
       </c>
       <c r="AR178">
         <v>1.71</v>
       </c>
       <c r="AS178">
-        <v>1.16</v>
+        <v>1.36</v>
       </c>
       <c r="AT178">
-        <v>2.87</v>
+        <v>3.07</v>
       </c>
       <c r="AU178">
+        <v>3</v>
+      </c>
+      <c r="AV178">
+        <v>3</v>
+      </c>
+      <c r="AW178">
+        <v>10</v>
+      </c>
+      <c r="AX178">
+        <v>5</v>
+      </c>
+      <c r="AY178">
+        <v>18</v>
+      </c>
+      <c r="AZ178">
         <v>8</v>
       </c>
-      <c r="AV178">
+      <c r="BA178">
         <v>6</v>
       </c>
-      <c r="AW178">
-        <v>9</v>
-      </c>
-      <c r="AX178">
-        <v>3</v>
-      </c>
-      <c r="AY178">
-        <v>20</v>
-      </c>
-      <c r="AZ178">
-        <v>9</v>
-      </c>
-      <c r="BA178">
+      <c r="BB178">
+        <v>1</v>
+      </c>
+      <c r="BC178">
         <v>7</v>
       </c>
-      <c r="BB178">
-        <v>1</v>
-      </c>
-      <c r="BC178">
-        <v>8</v>
-      </c>
       <c r="BD178">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="BE178">
         <v>6.1</v>
       </c>
       <c r="BF178">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
       <c r="BG178">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="BH178">
-        <v>2.7</v>
+        <v>2.48</v>
       </c>
       <c r="BI178">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="BJ178">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="BK178">
-        <v>2.02</v>
+        <v>2.23</v>
       </c>
       <c r="BL178">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="BM178">
-        <v>2.63</v>
+        <v>2.9</v>
       </c>
       <c r="BN178">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="BO178">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="BP178">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="179" spans="1:68">
@@ -37996,7 +38002,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>7728380</v>
+        <v>7728376</v>
       </c>
       <c r="C179" t="s">
         <v>68</v>
@@ -38011,190 +38017,190 @@
         <v>17</v>
       </c>
       <c r="G179" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H179" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I179">
         <v>0</v>
       </c>
       <c r="J179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M179">
         <v>1</v>
       </c>
       <c r="N179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O179" t="s">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="P179" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="Q179">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R179">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S179">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="T179">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="U179">
-        <v>2.65</v>
+        <v>2.95</v>
       </c>
       <c r="V179">
-        <v>2.88</v>
+        <v>2.55</v>
       </c>
       <c r="W179">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="X179">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="Y179">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="Z179">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AA179">
         <v>3.5</v>
       </c>
       <c r="AB179">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AC179">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD179">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE179">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AF179">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="AG179">
+        <v>1.75</v>
+      </c>
+      <c r="AH179">
         <v>1.95</v>
       </c>
-      <c r="AH179">
-        <v>1.73</v>
-      </c>
       <c r="AI179">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AJ179">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="AK179">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AL179">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM179">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AN179">
-        <v>1.43</v>
+        <v>2</v>
       </c>
       <c r="AO179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP179">
-        <v>1.25</v>
+        <v>2.22</v>
       </c>
       <c r="AQ179">
-        <v>1.1</v>
+        <v>1.56</v>
       </c>
       <c r="AR179">
         <v>1.71</v>
       </c>
       <c r="AS179">
-        <v>1.36</v>
+        <v>1.16</v>
       </c>
       <c r="AT179">
-        <v>3.07</v>
+        <v>2.87</v>
       </c>
       <c r="AU179">
+        <v>8</v>
+      </c>
+      <c r="AV179">
+        <v>6</v>
+      </c>
+      <c r="AW179">
+        <v>9</v>
+      </c>
+      <c r="AX179">
         <v>3</v>
       </c>
-      <c r="AV179">
-        <v>3</v>
-      </c>
-      <c r="AW179">
-        <v>10</v>
-      </c>
-      <c r="AX179">
-        <v>5</v>
-      </c>
       <c r="AY179">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ179">
+        <v>9</v>
+      </c>
+      <c r="BA179">
+        <v>7</v>
+      </c>
+      <c r="BB179">
+        <v>1</v>
+      </c>
+      <c r="BC179">
         <v>8</v>
       </c>
-      <c r="BA179">
-        <v>6</v>
-      </c>
-      <c r="BB179">
-        <v>1</v>
-      </c>
-      <c r="BC179">
-        <v>7</v>
-      </c>
       <c r="BD179">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="BE179">
         <v>6.1</v>
       </c>
       <c r="BF179">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="BG179">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="BH179">
-        <v>2.48</v>
+        <v>2.7</v>
       </c>
       <c r="BI179">
-        <v>1.76</v>
+        <v>1.64</v>
       </c>
       <c r="BJ179">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="BK179">
-        <v>2.23</v>
+        <v>2.02</v>
       </c>
       <c r="BL179">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="BM179">
-        <v>2.9</v>
+        <v>2.63</v>
       </c>
       <c r="BN179">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="BO179">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="BP179">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="180" spans="1:68">
@@ -38450,7 +38456,7 @@
         <v>94</v>
       </c>
       <c r="P181" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q181">
         <v>2.3</v>
@@ -38528,7 +38534,7 @@
         <v>1.14</v>
       </c>
       <c r="AP181">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ181">
         <v>1.22</v>
@@ -38656,7 +38662,7 @@
         <v>175</v>
       </c>
       <c r="P182" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q182">
         <v>4</v>
@@ -38943,7 +38949,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ183">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR183">
         <v>1.63</v>
@@ -39355,7 +39361,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ185">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR185">
         <v>1.42</v>
@@ -39558,7 +39564,7 @@
         <v>0.13</v>
       </c>
       <c r="AP186">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ186">
         <v>0.2</v>
@@ -39892,7 +39898,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q188">
         <v>3.5</v>
@@ -41618,7 +41624,7 @@
         <v>0.63</v>
       </c>
       <c r="AP196">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ196">
         <v>0.5600000000000001</v>
@@ -42528,7 +42534,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>7728401</v>
+        <v>7728400</v>
       </c>
       <c r="C201" t="s">
         <v>68</v>
@@ -42543,172 +42549,172 @@
         <v>19</v>
       </c>
       <c r="G201" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="H201" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J201">
         <v>0</v>
       </c>
       <c r="K201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L201">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N201">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O201" t="s">
         <v>228</v>
       </c>
       <c r="P201" t="s">
-        <v>240</v>
+        <v>94</v>
       </c>
       <c r="Q201">
-        <v>1.95</v>
+        <v>2.88</v>
       </c>
       <c r="R201">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="S201">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="T201">
+        <v>1.4</v>
+      </c>
+      <c r="U201">
+        <v>2.75</v>
+      </c>
+      <c r="V201">
+        <v>3</v>
+      </c>
+      <c r="W201">
+        <v>1.36</v>
+      </c>
+      <c r="X201">
+        <v>8</v>
+      </c>
+      <c r="Y201">
+        <v>1.08</v>
+      </c>
+      <c r="Z201">
+        <v>2</v>
+      </c>
+      <c r="AA201">
+        <v>3.4</v>
+      </c>
+      <c r="AB201">
+        <v>3.5</v>
+      </c>
+      <c r="AC201">
+        <v>1.06</v>
+      </c>
+      <c r="AD201">
+        <v>8.5</v>
+      </c>
+      <c r="AE201">
         <v>1.33</v>
       </c>
-      <c r="U201">
-        <v>3.25</v>
-      </c>
-      <c r="V201">
-        <v>2.63</v>
-      </c>
-      <c r="W201">
-        <v>1.44</v>
-      </c>
-      <c r="X201">
-        <v>6.5</v>
-      </c>
-      <c r="Y201">
-        <v>1.11</v>
-      </c>
-      <c r="Z201">
-        <v>1.5</v>
-      </c>
-      <c r="AA201">
-        <v>3.9</v>
-      </c>
-      <c r="AB201">
-        <v>6.5</v>
-      </c>
-      <c r="AC201">
-        <v>1.04</v>
-      </c>
-      <c r="AD201">
-        <v>10</v>
-      </c>
-      <c r="AE201">
+      <c r="AF201">
+        <v>3.2</v>
+      </c>
+      <c r="AG201">
+        <v>2</v>
+      </c>
+      <c r="AH201">
+        <v>1.81</v>
+      </c>
+      <c r="AI201">
+        <v>1.8</v>
+      </c>
+      <c r="AJ201">
+        <v>1.91</v>
+      </c>
+      <c r="AK201">
+        <v>1.33</v>
+      </c>
+      <c r="AL201">
+        <v>1.25</v>
+      </c>
+      <c r="AM201">
+        <v>1.68</v>
+      </c>
+      <c r="AN201">
+        <v>1</v>
+      </c>
+      <c r="AO201">
         <v>1.22</v>
       </c>
-      <c r="AF201">
+      <c r="AP201">
+        <v>1.2</v>
+      </c>
+      <c r="AQ201">
+        <v>1.1</v>
+      </c>
+      <c r="AR201">
+        <v>1.46</v>
+      </c>
+      <c r="AS201">
+        <v>1.31</v>
+      </c>
+      <c r="AT201">
+        <v>2.77</v>
+      </c>
+      <c r="AU201">
         <v>4</v>
       </c>
-      <c r="AG201">
-        <v>2</v>
-      </c>
-      <c r="AH201">
-        <v>1.71</v>
-      </c>
-      <c r="AI201">
-        <v>1.83</v>
-      </c>
-      <c r="AJ201">
-        <v>1.83</v>
-      </c>
-      <c r="AK201">
-        <v>1.05</v>
-      </c>
-      <c r="AL201">
-        <v>1.15</v>
-      </c>
-      <c r="AM201">
-        <v>2.85</v>
-      </c>
-      <c r="AN201">
-        <v>1.22</v>
-      </c>
-      <c r="AO201">
-        <v>0.67</v>
-      </c>
-      <c r="AP201">
-        <v>1.4</v>
-      </c>
-      <c r="AQ201">
-        <v>0.6</v>
-      </c>
-      <c r="AR201">
-        <v>1.63</v>
-      </c>
-      <c r="AS201">
-        <v>0.91</v>
-      </c>
-      <c r="AT201">
-        <v>2.54</v>
-      </c>
-      <c r="AU201">
-        <v>13</v>
-      </c>
       <c r="AV201">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AW201">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX201">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY201">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AZ201">
         <v>10</v>
       </c>
       <c r="BA201">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC201">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BD201">
-        <v>1.28</v>
+        <v>1.64</v>
       </c>
       <c r="BE201">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="BF201">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="BG201">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="BH201">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="BI201">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="BJ201">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="BK201">
         <v>2.1</v>
@@ -42717,10 +42723,10 @@
         <v>1.62</v>
       </c>
       <c r="BM201">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="BN201">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="BO201">
         <v>3.55</v>
@@ -42734,7 +42740,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>7728400</v>
+        <v>7728401</v>
       </c>
       <c r="C202" t="s">
         <v>68</v>
@@ -42749,172 +42755,172 @@
         <v>19</v>
       </c>
       <c r="G202" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="H202" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J202">
         <v>0</v>
       </c>
       <c r="K202">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L202">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N202">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O202" t="s">
         <v>229</v>
       </c>
       <c r="P202" t="s">
-        <v>94</v>
+        <v>241</v>
       </c>
       <c r="Q202">
-        <v>2.88</v>
+        <v>1.95</v>
       </c>
       <c r="R202">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="S202">
+        <v>6.5</v>
+      </c>
+      <c r="T202">
+        <v>1.33</v>
+      </c>
+      <c r="U202">
+        <v>3.25</v>
+      </c>
+      <c r="V202">
+        <v>2.63</v>
+      </c>
+      <c r="W202">
+        <v>1.44</v>
+      </c>
+      <c r="X202">
+        <v>6.5</v>
+      </c>
+      <c r="Y202">
+        <v>1.11</v>
+      </c>
+      <c r="Z202">
+        <v>1.5</v>
+      </c>
+      <c r="AA202">
+        <v>3.9</v>
+      </c>
+      <c r="AB202">
+        <v>6.5</v>
+      </c>
+      <c r="AC202">
+        <v>1.04</v>
+      </c>
+      <c r="AD202">
+        <v>10</v>
+      </c>
+      <c r="AE202">
+        <v>1.22</v>
+      </c>
+      <c r="AF202">
         <v>4</v>
       </c>
-      <c r="T202">
+      <c r="AG202">
+        <v>2</v>
+      </c>
+      <c r="AH202">
+        <v>1.71</v>
+      </c>
+      <c r="AI202">
+        <v>1.83</v>
+      </c>
+      <c r="AJ202">
+        <v>1.83</v>
+      </c>
+      <c r="AK202">
+        <v>1.05</v>
+      </c>
+      <c r="AL202">
+        <v>1.15</v>
+      </c>
+      <c r="AM202">
+        <v>2.85</v>
+      </c>
+      <c r="AN202">
+        <v>1.22</v>
+      </c>
+      <c r="AO202">
+        <v>0.67</v>
+      </c>
+      <c r="AP202">
         <v>1.4</v>
       </c>
-      <c r="U202">
-        <v>2.75</v>
-      </c>
-      <c r="V202">
-        <v>3</v>
-      </c>
-      <c r="W202">
-        <v>1.36</v>
-      </c>
-      <c r="X202">
+      <c r="AQ202">
+        <v>0.6</v>
+      </c>
+      <c r="AR202">
+        <v>1.63</v>
+      </c>
+      <c r="AS202">
+        <v>0.91</v>
+      </c>
+      <c r="AT202">
+        <v>2.54</v>
+      </c>
+      <c r="AU202">
+        <v>13</v>
+      </c>
+      <c r="AV202">
         <v>8</v>
       </c>
-      <c r="Y202">
-        <v>1.08</v>
-      </c>
-      <c r="Z202">
-        <v>2</v>
-      </c>
-      <c r="AA202">
-        <v>3.4</v>
-      </c>
-      <c r="AB202">
-        <v>3.5</v>
-      </c>
-      <c r="AC202">
-        <v>1.06</v>
-      </c>
-      <c r="AD202">
-        <v>8.5</v>
-      </c>
-      <c r="AE202">
-        <v>1.33</v>
-      </c>
-      <c r="AF202">
-        <v>3.2</v>
-      </c>
-      <c r="AG202">
-        <v>2</v>
-      </c>
-      <c r="AH202">
-        <v>1.81</v>
-      </c>
-      <c r="AI202">
-        <v>1.8</v>
-      </c>
-      <c r="AJ202">
-        <v>1.91</v>
-      </c>
-      <c r="AK202">
-        <v>1.33</v>
-      </c>
-      <c r="AL202">
-        <v>1.25</v>
-      </c>
-      <c r="AM202">
-        <v>1.68</v>
-      </c>
-      <c r="AN202">
-        <v>1</v>
-      </c>
-      <c r="AO202">
-        <v>1.22</v>
-      </c>
-      <c r="AP202">
-        <v>1.2</v>
-      </c>
-      <c r="AQ202">
-        <v>1.1</v>
-      </c>
-      <c r="AR202">
-        <v>1.46</v>
-      </c>
-      <c r="AS202">
-        <v>1.31</v>
-      </c>
-      <c r="AT202">
-        <v>2.77</v>
-      </c>
-      <c r="AU202">
-        <v>4</v>
-      </c>
-      <c r="AV202">
-        <v>2</v>
-      </c>
       <c r="AW202">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX202">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY202">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AZ202">
         <v>10</v>
       </c>
       <c r="BA202">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC202">
+        <v>6</v>
+      </c>
+      <c r="BD202">
+        <v>1.28</v>
+      </c>
+      <c r="BE202">
+        <v>7.5</v>
+      </c>
+      <c r="BF202">
         <v>4</v>
       </c>
-      <c r="BD202">
-        <v>1.64</v>
-      </c>
-      <c r="BE202">
-        <v>6.5</v>
-      </c>
-      <c r="BF202">
-        <v>2.55</v>
-      </c>
       <c r="BG202">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="BH202">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="BI202">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="BJ202">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="BK202">
         <v>2.1</v>
@@ -42923,10 +42929,10 @@
         <v>1.62</v>
       </c>
       <c r="BM202">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="BN202">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="BO202">
         <v>3.55</v>
@@ -42940,7 +42946,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>7728842</v>
+        <v>7728404</v>
       </c>
       <c r="C203" t="s">
         <v>68</v>
@@ -42952,73 +42958,73 @@
         <v>45640.60416666666</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G203" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H203" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203">
         <v>0</v>
       </c>
       <c r="K203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L203">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N203">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O203" t="s">
-        <v>230</v>
+        <v>94</v>
       </c>
       <c r="P203" t="s">
-        <v>272</v>
+        <v>94</v>
       </c>
       <c r="Q203">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="R203">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="S203">
+        <v>3.1</v>
+      </c>
+      <c r="T203">
+        <v>1.57</v>
+      </c>
+      <c r="U203">
+        <v>2.25</v>
+      </c>
+      <c r="V203">
         <v>3.75</v>
-      </c>
-      <c r="T203">
-        <v>1.56</v>
-      </c>
-      <c r="U203">
-        <v>2.29</v>
-      </c>
-      <c r="V203">
-        <v>3.6</v>
       </c>
       <c r="W203">
         <v>1.25</v>
       </c>
       <c r="X203">
-        <v>9.85</v>
+        <v>11</v>
       </c>
       <c r="Y203">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="Z203">
-        <v>2.4</v>
+        <v>3.45</v>
       </c>
       <c r="AA203">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AB203">
-        <v>2.83</v>
+        <v>2.2</v>
       </c>
       <c r="AC203">
         <v>1.1</v>
@@ -43033,112 +43039,112 @@
         <v>2.55</v>
       </c>
       <c r="AG203">
-        <v>2.33</v>
+        <v>2.52</v>
       </c>
       <c r="AH203">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AI203">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AJ203">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="AK203">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="AL203">
         <v>1.3</v>
       </c>
       <c r="AM203">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="AN203">
-        <v>2.11</v>
+        <v>1.56</v>
       </c>
       <c r="AO203">
-        <v>1.6</v>
+        <v>1.13</v>
       </c>
       <c r="AP203">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ203">
-        <v>1.45</v>
+        <v>1.11</v>
       </c>
       <c r="AR203">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="AS203">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="AT203">
-        <v>2.9</v>
+        <v>2.71</v>
       </c>
       <c r="AU203">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AV203">
+        <v>2</v>
+      </c>
+      <c r="AW203">
+        <v>8</v>
+      </c>
+      <c r="AX203">
         <v>4</v>
       </c>
-      <c r="AW203">
+      <c r="AY203">
+        <v>13</v>
+      </c>
+      <c r="AZ203">
+        <v>10</v>
+      </c>
+      <c r="BA203">
         <v>3</v>
       </c>
-      <c r="AX203">
-        <v>1</v>
-      </c>
-      <c r="AY203">
-        <v>14</v>
-      </c>
-      <c r="AZ203">
-        <v>7</v>
-      </c>
-      <c r="BA203">
+      <c r="BB203">
         <v>5</v>
       </c>
-      <c r="BB203">
-        <v>6</v>
-      </c>
       <c r="BC203">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD203">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="BE203">
         <v>6.5</v>
       </c>
       <c r="BF203">
-        <v>2.33</v>
+        <v>1.93</v>
       </c>
       <c r="BG203">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="BH203">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="BI203">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="BJ203">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="BK203">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="BL203">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="BM203">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="BN203">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="BO203">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="BP203">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="204" spans="1:68">
@@ -43146,7 +43152,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>7728404</v>
+        <v>7728842</v>
       </c>
       <c r="C204" t="s">
         <v>68</v>
@@ -43158,73 +43164,73 @@
         <v>45640.60416666666</v>
       </c>
       <c r="F204">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G204" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H204" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204">
         <v>0</v>
       </c>
       <c r="K204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N204">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O204" t="s">
-        <v>94</v>
+        <v>230</v>
       </c>
       <c r="P204" t="s">
-        <v>94</v>
+        <v>273</v>
       </c>
       <c r="Q204">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="R204">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S204">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="T204">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="U204">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="V204">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="W204">
         <v>1.25</v>
       </c>
       <c r="X204">
-        <v>11</v>
+        <v>9.85</v>
       </c>
       <c r="Y204">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="Z204">
-        <v>3.45</v>
+        <v>2.4</v>
       </c>
       <c r="AA204">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AB204">
-        <v>2.2</v>
+        <v>2.83</v>
       </c>
       <c r="AC204">
         <v>1.1</v>
@@ -43239,112 +43245,112 @@
         <v>2.55</v>
       </c>
       <c r="AG204">
-        <v>2.52</v>
+        <v>2.33</v>
       </c>
       <c r="AH204">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="AI204">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AJ204">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AK204">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AL204">
         <v>1.3</v>
       </c>
       <c r="AM204">
-        <v>1.3</v>
+        <v>1.53</v>
       </c>
       <c r="AN204">
-        <v>1.56</v>
+        <v>2.11</v>
       </c>
       <c r="AO204">
-        <v>1.13</v>
+        <v>1.6</v>
       </c>
       <c r="AP204">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ204">
-        <v>1.11</v>
+        <v>1.45</v>
       </c>
       <c r="AR204">
+        <v>1.49</v>
+      </c>
+      <c r="AS204">
         <v>1.41</v>
       </c>
-      <c r="AS204">
-        <v>1.3</v>
-      </c>
       <c r="AT204">
-        <v>2.71</v>
+        <v>2.9</v>
       </c>
       <c r="AU204">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV204">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW204">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AX204">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY204">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ204">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA204">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB204">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC204">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD204">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="BE204">
         <v>6.5</v>
       </c>
       <c r="BF204">
-        <v>1.93</v>
+        <v>2.33</v>
       </c>
       <c r="BG204">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="BH204">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="BI204">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="BJ204">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="BK204">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="BL204">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="BM204">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="BN204">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="BO204">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="BP204">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="205" spans="1:68">
@@ -43551,6 +43557,624 @@
       </c>
       <c r="BP205">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="206" spans="1:68">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>7728405</v>
+      </c>
+      <c r="C206" t="s">
+        <v>68</v>
+      </c>
+      <c r="D206" t="s">
+        <v>69</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45641.41666666666</v>
+      </c>
+      <c r="F206">
+        <v>19</v>
+      </c>
+      <c r="G206" t="s">
+        <v>76</v>
+      </c>
+      <c r="H206" t="s">
+        <v>74</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206">
+        <v>3</v>
+      </c>
+      <c r="K206">
+        <v>4</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+      <c r="M206">
+        <v>3</v>
+      </c>
+      <c r="N206">
+        <v>4</v>
+      </c>
+      <c r="O206" t="s">
+        <v>232</v>
+      </c>
+      <c r="P206" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q206">
+        <v>2.25</v>
+      </c>
+      <c r="R206">
+        <v>2.05</v>
+      </c>
+      <c r="S206">
+        <v>7</v>
+      </c>
+      <c r="T206">
+        <v>1.53</v>
+      </c>
+      <c r="U206">
+        <v>2.38</v>
+      </c>
+      <c r="V206">
+        <v>3.5</v>
+      </c>
+      <c r="W206">
+        <v>1.29</v>
+      </c>
+      <c r="X206">
+        <v>11</v>
+      </c>
+      <c r="Y206">
+        <v>1.05</v>
+      </c>
+      <c r="Z206">
+        <v>1.61</v>
+      </c>
+      <c r="AA206">
+        <v>3.6</v>
+      </c>
+      <c r="AB206">
+        <v>5.6</v>
+      </c>
+      <c r="AC206">
+        <v>1.09</v>
+      </c>
+      <c r="AD206">
+        <v>7</v>
+      </c>
+      <c r="AE206">
+        <v>1.45</v>
+      </c>
+      <c r="AF206">
+        <v>2.65</v>
+      </c>
+      <c r="AG206">
+        <v>2.3</v>
+      </c>
+      <c r="AH206">
+        <v>1.55</v>
+      </c>
+      <c r="AI206">
+        <v>2.38</v>
+      </c>
+      <c r="AJ206">
+        <v>1.53</v>
+      </c>
+      <c r="AK206">
+        <v>1.08</v>
+      </c>
+      <c r="AL206">
+        <v>1.22</v>
+      </c>
+      <c r="AM206">
+        <v>2.3</v>
+      </c>
+      <c r="AN206">
+        <v>2.11</v>
+      </c>
+      <c r="AO206">
+        <v>0.88</v>
+      </c>
+      <c r="AP206">
+        <v>1.9</v>
+      </c>
+      <c r="AQ206">
+        <v>1.11</v>
+      </c>
+      <c r="AR206">
+        <v>1.42</v>
+      </c>
+      <c r="AS206">
+        <v>0.91</v>
+      </c>
+      <c r="AT206">
+        <v>2.33</v>
+      </c>
+      <c r="AU206">
+        <v>8</v>
+      </c>
+      <c r="AV206">
+        <v>4</v>
+      </c>
+      <c r="AW206">
+        <v>9</v>
+      </c>
+      <c r="AX206">
+        <v>3</v>
+      </c>
+      <c r="AY206">
+        <v>23</v>
+      </c>
+      <c r="AZ206">
+        <v>9</v>
+      </c>
+      <c r="BA206">
+        <v>5</v>
+      </c>
+      <c r="BB206">
+        <v>2</v>
+      </c>
+      <c r="BC206">
+        <v>7</v>
+      </c>
+      <c r="BD206">
+        <v>1.44</v>
+      </c>
+      <c r="BE206">
+        <v>6.75</v>
+      </c>
+      <c r="BF206">
+        <v>3.15</v>
+      </c>
+      <c r="BG206">
+        <v>1.42</v>
+      </c>
+      <c r="BH206">
+        <v>2.55</v>
+      </c>
+      <c r="BI206">
+        <v>1.71</v>
+      </c>
+      <c r="BJ206">
+        <v>1.96</v>
+      </c>
+      <c r="BK206">
+        <v>2.14</v>
+      </c>
+      <c r="BL206">
+        <v>1.6</v>
+      </c>
+      <c r="BM206">
+        <v>2.8</v>
+      </c>
+      <c r="BN206">
+        <v>1.36</v>
+      </c>
+      <c r="BO206">
+        <v>3.65</v>
+      </c>
+      <c r="BP206">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="207" spans="1:68">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>7728399</v>
+      </c>
+      <c r="C207" t="s">
+        <v>68</v>
+      </c>
+      <c r="D207" t="s">
+        <v>69</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45641.51041666666</v>
+      </c>
+      <c r="F207">
+        <v>19</v>
+      </c>
+      <c r="G207" t="s">
+        <v>78</v>
+      </c>
+      <c r="H207" t="s">
+        <v>83</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+      <c r="L207">
+        <v>0</v>
+      </c>
+      <c r="M207">
+        <v>0</v>
+      </c>
+      <c r="N207">
+        <v>0</v>
+      </c>
+      <c r="O207" t="s">
+        <v>94</v>
+      </c>
+      <c r="P207" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q207">
+        <v>2.63</v>
+      </c>
+      <c r="R207">
+        <v>2</v>
+      </c>
+      <c r="S207">
+        <v>4.75</v>
+      </c>
+      <c r="T207">
+        <v>1.5</v>
+      </c>
+      <c r="U207">
+        <v>2.5</v>
+      </c>
+      <c r="V207">
+        <v>3.5</v>
+      </c>
+      <c r="W207">
+        <v>1.29</v>
+      </c>
+      <c r="X207">
+        <v>11</v>
+      </c>
+      <c r="Y207">
+        <v>1.05</v>
+      </c>
+      <c r="Z207">
+        <v>1.94</v>
+      </c>
+      <c r="AA207">
+        <v>2.9</v>
+      </c>
+      <c r="AB207">
+        <v>3.5</v>
+      </c>
+      <c r="AC207">
+        <v>1.08</v>
+      </c>
+      <c r="AD207">
+        <v>7.5</v>
+      </c>
+      <c r="AE207">
+        <v>1.44</v>
+      </c>
+      <c r="AF207">
+        <v>2.65</v>
+      </c>
+      <c r="AG207">
+        <v>2.33</v>
+      </c>
+      <c r="AH207">
+        <v>1.53</v>
+      </c>
+      <c r="AI207">
+        <v>2.1</v>
+      </c>
+      <c r="AJ207">
+        <v>1.67</v>
+      </c>
+      <c r="AK207">
+        <v>1.22</v>
+      </c>
+      <c r="AL207">
+        <v>1.28</v>
+      </c>
+      <c r="AM207">
+        <v>1.8</v>
+      </c>
+      <c r="AN207">
+        <v>1.56</v>
+      </c>
+      <c r="AO207">
+        <v>0.78</v>
+      </c>
+      <c r="AP207">
+        <v>1.5</v>
+      </c>
+      <c r="AQ207">
+        <v>0.8</v>
+      </c>
+      <c r="AR207">
+        <v>1.45</v>
+      </c>
+      <c r="AS207">
+        <v>1.11</v>
+      </c>
+      <c r="AT207">
+        <v>2.56</v>
+      </c>
+      <c r="AU207">
+        <v>4</v>
+      </c>
+      <c r="AV207">
+        <v>2</v>
+      </c>
+      <c r="AW207">
+        <v>6</v>
+      </c>
+      <c r="AX207">
+        <v>6</v>
+      </c>
+      <c r="AY207">
+        <v>12</v>
+      </c>
+      <c r="AZ207">
+        <v>10</v>
+      </c>
+      <c r="BA207">
+        <v>6</v>
+      </c>
+      <c r="BB207">
+        <v>7</v>
+      </c>
+      <c r="BC207">
+        <v>13</v>
+      </c>
+      <c r="BD207">
+        <v>1.55</v>
+      </c>
+      <c r="BE207">
+        <v>6.75</v>
+      </c>
+      <c r="BF207">
+        <v>2.7</v>
+      </c>
+      <c r="BG207">
+        <v>1.34</v>
+      </c>
+      <c r="BH207">
+        <v>2.88</v>
+      </c>
+      <c r="BI207">
+        <v>1.58</v>
+      </c>
+      <c r="BJ207">
+        <v>2.15</v>
+      </c>
+      <c r="BK207">
+        <v>1.96</v>
+      </c>
+      <c r="BL207">
+        <v>1.72</v>
+      </c>
+      <c r="BM207">
+        <v>2.48</v>
+      </c>
+      <c r="BN207">
+        <v>1.45</v>
+      </c>
+      <c r="BO207">
+        <v>3.25</v>
+      </c>
+      <c r="BP207">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="208" spans="1:68">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>7728407</v>
+      </c>
+      <c r="C208" t="s">
+        <v>68</v>
+      </c>
+      <c r="D208" t="s">
+        <v>69</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45641.60416666666</v>
+      </c>
+      <c r="F208">
+        <v>19</v>
+      </c>
+      <c r="G208" t="s">
+        <v>77</v>
+      </c>
+      <c r="H208" t="s">
+        <v>81</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <v>0</v>
+      </c>
+      <c r="M208">
+        <v>1</v>
+      </c>
+      <c r="N208">
+        <v>1</v>
+      </c>
+      <c r="O208" t="s">
+        <v>94</v>
+      </c>
+      <c r="P208" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q208">
+        <v>2.3</v>
+      </c>
+      <c r="R208">
+        <v>2.2</v>
+      </c>
+      <c r="S208">
+        <v>5</v>
+      </c>
+      <c r="T208">
+        <v>1.4</v>
+      </c>
+      <c r="U208">
+        <v>2.75</v>
+      </c>
+      <c r="V208">
+        <v>3</v>
+      </c>
+      <c r="W208">
+        <v>1.36</v>
+      </c>
+      <c r="X208">
+        <v>8</v>
+      </c>
+      <c r="Y208">
+        <v>1.08</v>
+      </c>
+      <c r="Z208">
+        <v>1.67</v>
+      </c>
+      <c r="AA208">
+        <v>3.4</v>
+      </c>
+      <c r="AB208">
+        <v>4.4</v>
+      </c>
+      <c r="AC208">
+        <v>1.05</v>
+      </c>
+      <c r="AD208">
+        <v>9</v>
+      </c>
+      <c r="AE208">
+        <v>1.3</v>
+      </c>
+      <c r="AF208">
+        <v>3.3</v>
+      </c>
+      <c r="AG208">
+        <v>2</v>
+      </c>
+      <c r="AH208">
+        <v>1.72</v>
+      </c>
+      <c r="AI208">
+        <v>1.91</v>
+      </c>
+      <c r="AJ208">
+        <v>1.8</v>
+      </c>
+      <c r="AK208">
+        <v>1.14</v>
+      </c>
+      <c r="AL208">
+        <v>1.22</v>
+      </c>
+      <c r="AM208">
+        <v>2.1</v>
+      </c>
+      <c r="AN208">
+        <v>1.67</v>
+      </c>
+      <c r="AO208">
+        <v>1.11</v>
+      </c>
+      <c r="AP208">
+        <v>1.5</v>
+      </c>
+      <c r="AQ208">
+        <v>1.3</v>
+      </c>
+      <c r="AR208">
+        <v>1.46</v>
+      </c>
+      <c r="AS208">
+        <v>1.16</v>
+      </c>
+      <c r="AT208">
+        <v>2.62</v>
+      </c>
+      <c r="AU208">
+        <v>8</v>
+      </c>
+      <c r="AV208">
+        <v>5</v>
+      </c>
+      <c r="AW208">
+        <v>6</v>
+      </c>
+      <c r="AX208">
+        <v>2</v>
+      </c>
+      <c r="AY208">
+        <v>17</v>
+      </c>
+      <c r="AZ208">
+        <v>8</v>
+      </c>
+      <c r="BA208">
+        <v>7</v>
+      </c>
+      <c r="BB208">
+        <v>1</v>
+      </c>
+      <c r="BC208">
+        <v>8</v>
+      </c>
+      <c r="BD208">
+        <v>1.45</v>
+      </c>
+      <c r="BE208">
+        <v>7</v>
+      </c>
+      <c r="BF208">
+        <v>3.05</v>
+      </c>
+      <c r="BG208">
+        <v>1.3</v>
+      </c>
+      <c r="BH208">
+        <v>3.05</v>
+      </c>
+      <c r="BI208">
+        <v>1.52</v>
+      </c>
+      <c r="BJ208">
+        <v>2.3</v>
+      </c>
+      <c r="BK208">
+        <v>1.85</v>
+      </c>
+      <c r="BL208">
+        <v>1.82</v>
+      </c>
+      <c r="BM208">
+        <v>2.3</v>
+      </c>
+      <c r="BN208">
+        <v>1.52</v>
+      </c>
+      <c r="BO208">
+        <v>2.95</v>
+      </c>
+      <c r="BP208">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -43087,13 +43087,13 @@
         <v>2</v>
       </c>
       <c r="AW203">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX203">
         <v>4</v>
       </c>
       <c r="AY203">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ203">
         <v>10</v>
@@ -43573,7 +43573,7 @@
         <v>69</v>
       </c>
       <c r="E206" s="2">
-        <v>45641.41666666666</v>
+        <v>45640.875</v>
       </c>
       <c r="F206">
         <v>19</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="321">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -715,6 +715,15 @@
     <t>['33']</t>
   </si>
   <si>
+    <t>['14', '27', '35', '73']</t>
+  </si>
+  <si>
+    <t>['17', '87']</t>
+  </si>
+  <si>
+    <t>['21', '32']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -962,6 +971,12 @@
   </si>
   <si>
     <t>['68']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['50', '65', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1338,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP208"/>
+  <dimension ref="A1:BP212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1582,7 +1597,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1660,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ2">
         <v>1.1</v>
@@ -1994,7 +2009,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -2612,7 +2627,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2693,7 +2708,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ7">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2818,7 +2833,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2899,7 +2914,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ8">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3024,7 +3039,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -3311,7 +3326,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3642,7 +3657,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3848,7 +3863,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3929,7 +3944,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR13">
         <v>1.32</v>
@@ -4054,7 +4069,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -5084,7 +5099,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5368,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ20">
         <v>1.11</v>
@@ -5577,7 +5592,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ21">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5702,7 +5717,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5908,7 +5923,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5986,7 +6001,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ23">
         <v>0.78</v>
@@ -6114,7 +6129,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6192,7 +6207,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ24">
         <v>1.3</v>
@@ -6320,7 +6335,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6526,7 +6541,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6732,7 +6747,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -7144,7 +7159,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7762,7 +7777,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7843,7 +7858,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ32">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR32">
         <v>1.31</v>
@@ -7968,7 +7983,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8049,7 +8064,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ33">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR33">
         <v>0.95</v>
@@ -8380,7 +8395,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8586,7 +8601,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8664,7 +8679,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ36">
         <v>1.22</v>
@@ -8998,7 +9013,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9079,7 +9094,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ38">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR38">
         <v>1.41</v>
@@ -9282,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ39">
         <v>0.8</v>
@@ -9697,7 +9712,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ41">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR41">
         <v>1</v>
@@ -10106,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ43">
         <v>1.11</v>
@@ -10234,7 +10249,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10518,10 +10533,10 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ45">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR45">
         <v>0.96</v>
@@ -10724,7 +10739,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ46">
         <v>1.22</v>
@@ -10852,7 +10867,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11963,7 +11978,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ52">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR52">
         <v>1.28</v>
@@ -12500,7 +12515,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12706,7 +12721,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12912,7 +12927,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12990,7 +13005,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ57">
         <v>0.8</v>
@@ -13118,7 +13133,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13405,7 +13420,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ59">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR59">
         <v>1.51</v>
@@ -13530,7 +13545,7 @@
         <v>94</v>
       </c>
       <c r="P60" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13814,10 +13829,10 @@
         <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ61">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR61">
         <v>1.87</v>
@@ -14148,7 +14163,7 @@
         <v>97</v>
       </c>
       <c r="P63" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14354,7 +14369,7 @@
         <v>94</v>
       </c>
       <c r="P64" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14766,7 +14781,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14847,7 +14862,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ66">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR66">
         <v>1.93</v>
@@ -15178,7 +15193,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15256,7 +15271,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ68">
         <v>1.22</v>
@@ -15384,7 +15399,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -16002,7 +16017,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16208,7 +16223,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16414,7 +16429,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16620,7 +16635,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -16904,7 +16919,7 @@
         <v>0.5</v>
       </c>
       <c r="AP76">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ76">
         <v>1.11</v>
@@ -17113,7 +17128,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ77">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR77">
         <v>1.33</v>
@@ -17238,7 +17253,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17319,7 +17334,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ78">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR78">
         <v>1.42</v>
@@ -17444,7 +17459,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q79">
         <v>3.85</v>
@@ -17856,7 +17871,7 @@
         <v>94</v>
       </c>
       <c r="P81" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q81">
         <v>3.55</v>
@@ -18062,7 +18077,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q82">
         <v>2.65</v>
@@ -18268,7 +18283,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18346,7 +18361,7 @@
         <v>3</v>
       </c>
       <c r="AP83">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ83">
         <v>2.44</v>
@@ -18761,7 +18776,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ85">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR85">
         <v>1.38</v>
@@ -19092,7 +19107,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19379,7 +19394,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ88">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR88">
         <v>1.96</v>
@@ -19504,7 +19519,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19582,7 +19597,7 @@
         <v>0</v>
       </c>
       <c r="AP89">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ89">
         <v>0.2</v>
@@ -19710,7 +19725,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20122,7 +20137,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20534,7 +20549,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -20740,7 +20755,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -21027,7 +21042,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ96">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR96">
         <v>1.53</v>
@@ -21230,7 +21245,7 @@
         <v>0.25</v>
       </c>
       <c r="AP97">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ97">
         <v>0.2</v>
@@ -21770,7 +21785,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -22054,10 +22069,10 @@
         <v>1.2</v>
       </c>
       <c r="AP101">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ101">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR101">
         <v>1.58</v>
@@ -22263,7 +22278,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ102">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR102">
         <v>1.13</v>
@@ -22672,7 +22687,7 @@
         <v>0.25</v>
       </c>
       <c r="AP104">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ104">
         <v>0.22</v>
@@ -22881,7 +22896,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ105">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR105">
         <v>1.64</v>
@@ -23087,7 +23102,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ106">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR106">
         <v>1.12</v>
@@ -23212,7 +23227,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23830,7 +23845,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -23908,7 +23923,7 @@
         <v>0.8</v>
       </c>
       <c r="AP110">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ110">
         <v>1.5</v>
@@ -24114,7 +24129,7 @@
         <v>1.75</v>
       </c>
       <c r="AP111">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ111">
         <v>0.78</v>
@@ -24242,7 +24257,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q112">
         <v>2.45</v>
@@ -24448,7 +24463,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -24860,7 +24875,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q115">
         <v>3.45</v>
@@ -25684,7 +25699,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q119">
         <v>2.8</v>
@@ -26302,7 +26317,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26589,7 +26604,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ123">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR123">
         <v>1.53</v>
@@ -26714,7 +26729,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q124">
         <v>2.4</v>
@@ -26795,7 +26810,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ124">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR124">
         <v>1.12</v>
@@ -26998,7 +27013,7 @@
         <v>1</v>
       </c>
       <c r="AP125">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ125">
         <v>0.5600000000000001</v>
@@ -27126,7 +27141,7 @@
         <v>179</v>
       </c>
       <c r="P126" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27204,7 +27219,7 @@
         <v>1.8</v>
       </c>
       <c r="AP126">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ126">
         <v>1.67</v>
@@ -27413,7 +27428,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ127">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR127">
         <v>1.1</v>
@@ -27538,7 +27553,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27950,7 +27965,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q130">
         <v>3.25</v>
@@ -28028,7 +28043,7 @@
         <v>1</v>
       </c>
       <c r="AP130">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ130">
         <v>1.11</v>
@@ -28156,7 +28171,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q131">
         <v>2.75</v>
@@ -28362,7 +28377,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28440,10 +28455,10 @@
         <v>1.17</v>
       </c>
       <c r="AP132">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ132">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR132">
         <v>1.78</v>
@@ -28568,7 +28583,7 @@
         <v>106</v>
       </c>
       <c r="P133" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q133">
         <v>3.1</v>
@@ -28774,7 +28789,7 @@
         <v>94</v>
       </c>
       <c r="P134" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q134">
         <v>3.1</v>
@@ -28980,7 +28995,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q135">
         <v>3.9</v>
@@ -29470,7 +29485,7 @@
         <v>2.2</v>
       </c>
       <c r="AP137">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ137">
         <v>1.56</v>
@@ -29598,7 +29613,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -30216,7 +30231,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q141">
         <v>2.62</v>
@@ -30422,7 +30437,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q142">
         <v>3.6</v>
@@ -30628,7 +30643,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q143">
         <v>3.75</v>
@@ -30834,7 +30849,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -30912,7 +30927,7 @@
         <v>0.83</v>
       </c>
       <c r="AP144">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ144">
         <v>0.5600000000000001</v>
@@ -31121,7 +31136,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ145">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR145">
         <v>1.15</v>
@@ -31246,7 +31261,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q146">
         <v>2.75</v>
@@ -31324,7 +31339,7 @@
         <v>2</v>
       </c>
       <c r="AP146">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ146">
         <v>1.67</v>
@@ -31658,7 +31673,7 @@
         <v>97</v>
       </c>
       <c r="P148" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q148">
         <v>3.65</v>
@@ -31942,10 +31957,10 @@
         <v>1</v>
       </c>
       <c r="AP149">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ149">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR149">
         <v>1.82</v>
@@ -32151,7 +32166,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ150">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR150">
         <v>1.6</v>
@@ -32688,7 +32703,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q153">
         <v>2.3</v>
@@ -33306,7 +33321,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -34414,7 +34429,7 @@
         <v>1</v>
       </c>
       <c r="AP161">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ161">
         <v>0.8</v>
@@ -34829,7 +34844,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ163">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR163">
         <v>1.14</v>
@@ -34954,7 +34969,7 @@
         <v>206</v>
       </c>
       <c r="P164" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q164">
         <v>4.75</v>
@@ -35238,7 +35253,7 @@
         <v>1.14</v>
       </c>
       <c r="AP165">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ165">
         <v>1</v>
@@ -35447,7 +35462,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ166">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR166">
         <v>1.42</v>
@@ -35572,7 +35587,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35650,7 +35665,7 @@
         <v>1.75</v>
       </c>
       <c r="AP167">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ167">
         <v>1.45</v>
@@ -35984,7 +35999,7 @@
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q169">
         <v>2.88</v>
@@ -36062,7 +36077,7 @@
         <v>0.29</v>
       </c>
       <c r="AP169">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ169">
         <v>0.22</v>
@@ -36602,7 +36617,7 @@
         <v>210</v>
       </c>
       <c r="P172" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -36889,7 +36904,7 @@
         <v>2</v>
       </c>
       <c r="AQ173">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR173">
         <v>1.44</v>
@@ -37220,7 +37235,7 @@
         <v>213</v>
       </c>
       <c r="P175" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q175">
         <v>2.3</v>
@@ -37632,7 +37647,7 @@
         <v>94</v>
       </c>
       <c r="P177" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q177">
         <v>2.5</v>
@@ -37838,7 +37853,7 @@
         <v>94</v>
       </c>
       <c r="P178" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q178">
         <v>2.38</v>
@@ -37916,7 +37931,7 @@
         <v>1</v>
       </c>
       <c r="AP178">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ178">
         <v>1.1</v>
@@ -38044,7 +38059,7 @@
         <v>214</v>
       </c>
       <c r="P179" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q179">
         <v>2.4</v>
@@ -38250,7 +38265,7 @@
         <v>215</v>
       </c>
       <c r="P180" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q180">
         <v>2.55</v>
@@ -39074,7 +39089,7 @@
         <v>217</v>
       </c>
       <c r="P184" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -39773,7 +39788,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ187">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR187">
         <v>1.45</v>
@@ -39898,7 +39913,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q188">
         <v>3.5</v>
@@ -39979,7 +39994,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ188">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR188">
         <v>1.17</v>
@@ -40388,7 +40403,7 @@
         <v>2.75</v>
       </c>
       <c r="AP190">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ190">
         <v>2.44</v>
@@ -40516,7 +40531,7 @@
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q191">
         <v>2.7</v>
@@ -40722,7 +40737,7 @@
         <v>223</v>
       </c>
       <c r="P192" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q192">
         <v>3.2</v>
@@ -40803,7 +40818,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ192">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR192">
         <v>1.15</v>
@@ -40928,7 +40943,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q193">
         <v>4.33</v>
@@ -41009,7 +41024,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ193">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR193">
         <v>1.13</v>
@@ -41134,7 +41149,7 @@
         <v>108</v>
       </c>
       <c r="P194" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q194">
         <v>3.75</v>
@@ -41418,7 +41433,7 @@
         <v>1.75</v>
       </c>
       <c r="AP195">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ195">
         <v>1.67</v>
@@ -41830,7 +41845,7 @@
         <v>0.25</v>
       </c>
       <c r="AP197">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ197">
         <v>0.22</v>
@@ -42370,7 +42385,7 @@
         <v>227</v>
       </c>
       <c r="P200" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q200">
         <v>2.38</v>
@@ -42782,7 +42797,7 @@
         <v>229</v>
       </c>
       <c r="P202" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q202">
         <v>1.95</v>
@@ -42863,7 +42878,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ202">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR202">
         <v>1.63</v>
@@ -43194,7 +43209,7 @@
         <v>230</v>
       </c>
       <c r="P204" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q204">
         <v>3.25</v>
@@ -43573,7 +43588,7 @@
         <v>69</v>
       </c>
       <c r="E206" s="2">
-        <v>45640.875</v>
+        <v>45641.41666666666</v>
       </c>
       <c r="F206">
         <v>19</v>
@@ -43606,7 +43621,7 @@
         <v>232</v>
       </c>
       <c r="P206" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q206">
         <v>2.25</v>
@@ -44018,7 +44033,7 @@
         <v>94</v>
       </c>
       <c r="P208" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44175,6 +44190,830 @@
       </c>
       <c r="BP208">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="209" spans="1:68">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>7728415</v>
+      </c>
+      <c r="C209" t="s">
+        <v>68</v>
+      </c>
+      <c r="D209" t="s">
+        <v>69</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45643.625</v>
+      </c>
+      <c r="F209">
+        <v>20</v>
+      </c>
+      <c r="G209" t="s">
+        <v>70</v>
+      </c>
+      <c r="H209" t="s">
+        <v>87</v>
+      </c>
+      <c r="I209">
+        <v>3</v>
+      </c>
+      <c r="J209">
+        <v>1</v>
+      </c>
+      <c r="K209">
+        <v>4</v>
+      </c>
+      <c r="L209">
+        <v>4</v>
+      </c>
+      <c r="M209">
+        <v>1</v>
+      </c>
+      <c r="N209">
+        <v>5</v>
+      </c>
+      <c r="O209" t="s">
+        <v>233</v>
+      </c>
+      <c r="P209" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q209">
+        <v>2</v>
+      </c>
+      <c r="R209">
+        <v>2.25</v>
+      </c>
+      <c r="S209">
+        <v>6</v>
+      </c>
+      <c r="T209">
+        <v>1.37</v>
+      </c>
+      <c r="U209">
+        <v>2.85</v>
+      </c>
+      <c r="V209">
+        <v>2.75</v>
+      </c>
+      <c r="W209">
+        <v>1.4</v>
+      </c>
+      <c r="X209">
+        <v>6.95</v>
+      </c>
+      <c r="Y209">
+        <v>1.07</v>
+      </c>
+      <c r="Z209">
+        <v>1.46</v>
+      </c>
+      <c r="AA209">
+        <v>4.27</v>
+      </c>
+      <c r="AB209">
+        <v>6.59</v>
+      </c>
+      <c r="AC209">
+        <v>1.05</v>
+      </c>
+      <c r="AD209">
+        <v>9.5</v>
+      </c>
+      <c r="AE209">
+        <v>1.28</v>
+      </c>
+      <c r="AF209">
+        <v>3.5</v>
+      </c>
+      <c r="AG209">
+        <v>1.88</v>
+      </c>
+      <c r="AH209">
+        <v>1.92</v>
+      </c>
+      <c r="AI209">
+        <v>2</v>
+      </c>
+      <c r="AJ209">
+        <v>1.75</v>
+      </c>
+      <c r="AK209">
+        <v>1.06</v>
+      </c>
+      <c r="AL209">
+        <v>1.16</v>
+      </c>
+      <c r="AM209">
+        <v>2.65</v>
+      </c>
+      <c r="AN209">
+        <v>1.5</v>
+      </c>
+      <c r="AO209">
+        <v>0.6</v>
+      </c>
+      <c r="AP209">
+        <v>1.64</v>
+      </c>
+      <c r="AQ209">
+        <v>0.55</v>
+      </c>
+      <c r="AR209">
+        <v>1.74</v>
+      </c>
+      <c r="AS209">
+        <v>0.96</v>
+      </c>
+      <c r="AT209">
+        <v>2.7</v>
+      </c>
+      <c r="AU209">
+        <v>6</v>
+      </c>
+      <c r="AV209">
+        <v>4</v>
+      </c>
+      <c r="AW209">
+        <v>7</v>
+      </c>
+      <c r="AX209">
+        <v>4</v>
+      </c>
+      <c r="AY209">
+        <v>19</v>
+      </c>
+      <c r="AZ209">
+        <v>11</v>
+      </c>
+      <c r="BA209">
+        <v>4</v>
+      </c>
+      <c r="BB209">
+        <v>4</v>
+      </c>
+      <c r="BC209">
+        <v>8</v>
+      </c>
+      <c r="BD209">
+        <v>1.29</v>
+      </c>
+      <c r="BE209">
+        <v>7.5</v>
+      </c>
+      <c r="BF209">
+        <v>3.95</v>
+      </c>
+      <c r="BG209">
+        <v>1.36</v>
+      </c>
+      <c r="BH209">
+        <v>2.8</v>
+      </c>
+      <c r="BI209">
+        <v>1.6</v>
+      </c>
+      <c r="BJ209">
+        <v>2.14</v>
+      </c>
+      <c r="BK209">
+        <v>1.97</v>
+      </c>
+      <c r="BL209">
+        <v>1.71</v>
+      </c>
+      <c r="BM209">
+        <v>2.5</v>
+      </c>
+      <c r="BN209">
+        <v>1.44</v>
+      </c>
+      <c r="BO209">
+        <v>3.3</v>
+      </c>
+      <c r="BP209">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="210" spans="1:68">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>7728408</v>
+      </c>
+      <c r="C210" t="s">
+        <v>68</v>
+      </c>
+      <c r="D210" t="s">
+        <v>69</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45643.625</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210" t="s">
+        <v>85</v>
+      </c>
+      <c r="H210" t="s">
+        <v>82</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="L210">
+        <v>0</v>
+      </c>
+      <c r="M210">
+        <v>0</v>
+      </c>
+      <c r="N210">
+        <v>0</v>
+      </c>
+      <c r="O210" t="s">
+        <v>94</v>
+      </c>
+      <c r="P210" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q210">
+        <v>3</v>
+      </c>
+      <c r="R210">
+        <v>2.05</v>
+      </c>
+      <c r="S210">
+        <v>3.35</v>
+      </c>
+      <c r="T210">
+        <v>1.38</v>
+      </c>
+      <c r="U210">
+        <v>2.8</v>
+      </c>
+      <c r="V210">
+        <v>2.7</v>
+      </c>
+      <c r="W210">
+        <v>1.4</v>
+      </c>
+      <c r="X210">
+        <v>7.3</v>
+      </c>
+      <c r="Y210">
+        <v>1.06</v>
+      </c>
+      <c r="Z210">
+        <v>2.45</v>
+      </c>
+      <c r="AA210">
+        <v>3.34</v>
+      </c>
+      <c r="AB210">
+        <v>2.83</v>
+      </c>
+      <c r="AC210">
+        <v>1.06</v>
+      </c>
+      <c r="AD210">
+        <v>8.5</v>
+      </c>
+      <c r="AE210">
+        <v>1.3</v>
+      </c>
+      <c r="AF210">
+        <v>3.45</v>
+      </c>
+      <c r="AG210">
+        <v>1.85</v>
+      </c>
+      <c r="AH210">
+        <v>1.96</v>
+      </c>
+      <c r="AI210">
+        <v>1.65</v>
+      </c>
+      <c r="AJ210">
+        <v>2.05</v>
+      </c>
+      <c r="AK210">
+        <v>1.42</v>
+      </c>
+      <c r="AL210">
+        <v>1.25</v>
+      </c>
+      <c r="AM210">
+        <v>1.53</v>
+      </c>
+      <c r="AN210">
+        <v>1.44</v>
+      </c>
+      <c r="AO210">
+        <v>1.22</v>
+      </c>
+      <c r="AP210">
+        <v>1.4</v>
+      </c>
+      <c r="AQ210">
+        <v>1.2</v>
+      </c>
+      <c r="AR210">
+        <v>1.59</v>
+      </c>
+      <c r="AS210">
+        <v>1.23</v>
+      </c>
+      <c r="AT210">
+        <v>2.82</v>
+      </c>
+      <c r="AU210">
+        <v>3</v>
+      </c>
+      <c r="AV210">
+        <v>5</v>
+      </c>
+      <c r="AW210">
+        <v>8</v>
+      </c>
+      <c r="AX210">
+        <v>4</v>
+      </c>
+      <c r="AY210">
+        <v>13</v>
+      </c>
+      <c r="AZ210">
+        <v>13</v>
+      </c>
+      <c r="BA210">
+        <v>3</v>
+      </c>
+      <c r="BB210">
+        <v>5</v>
+      </c>
+      <c r="BC210">
+        <v>8</v>
+      </c>
+      <c r="BD210">
+        <v>1.85</v>
+      </c>
+      <c r="BE210">
+        <v>6.4</v>
+      </c>
+      <c r="BF210">
+        <v>2.15</v>
+      </c>
+      <c r="BG210">
+        <v>1.36</v>
+      </c>
+      <c r="BH210">
+        <v>2.8</v>
+      </c>
+      <c r="BI210">
+        <v>1.61</v>
+      </c>
+      <c r="BJ210">
+        <v>2.12</v>
+      </c>
+      <c r="BK210">
+        <v>2</v>
+      </c>
+      <c r="BL210">
+        <v>1.68</v>
+      </c>
+      <c r="BM210">
+        <v>2.55</v>
+      </c>
+      <c r="BN210">
+        <v>1.43</v>
+      </c>
+      <c r="BO210">
+        <v>3.3</v>
+      </c>
+      <c r="BP210">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="211" spans="1:68">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>7728409</v>
+      </c>
+      <c r="C211" t="s">
+        <v>68</v>
+      </c>
+      <c r="D211" t="s">
+        <v>69</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45643.71875</v>
+      </c>
+      <c r="F211">
+        <v>20</v>
+      </c>
+      <c r="G211" t="s">
+        <v>88</v>
+      </c>
+      <c r="H211" t="s">
+        <v>73</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211">
+        <v>1</v>
+      </c>
+      <c r="K211">
+        <v>2</v>
+      </c>
+      <c r="L211">
+        <v>2</v>
+      </c>
+      <c r="M211">
+        <v>1</v>
+      </c>
+      <c r="N211">
+        <v>3</v>
+      </c>
+      <c r="O211" t="s">
+        <v>234</v>
+      </c>
+      <c r="P211" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q211">
+        <v>2.75</v>
+      </c>
+      <c r="R211">
+        <v>2</v>
+      </c>
+      <c r="S211">
+        <v>4</v>
+      </c>
+      <c r="T211">
+        <v>1.45</v>
+      </c>
+      <c r="U211">
+        <v>2.55</v>
+      </c>
+      <c r="V211">
+        <v>3.05</v>
+      </c>
+      <c r="W211">
+        <v>1.33</v>
+      </c>
+      <c r="X211">
+        <v>7.9</v>
+      </c>
+      <c r="Y211">
+        <v>1.05</v>
+      </c>
+      <c r="Z211">
+        <v>2.12</v>
+      </c>
+      <c r="AA211">
+        <v>3.27</v>
+      </c>
+      <c r="AB211">
+        <v>3.53</v>
+      </c>
+      <c r="AC211">
+        <v>1.07</v>
+      </c>
+      <c r="AD211">
+        <v>8</v>
+      </c>
+      <c r="AE211">
+        <v>1.36</v>
+      </c>
+      <c r="AF211">
+        <v>3</v>
+      </c>
+      <c r="AG211">
+        <v>2.05</v>
+      </c>
+      <c r="AH211">
+        <v>1.67</v>
+      </c>
+      <c r="AI211">
+        <v>1.85</v>
+      </c>
+      <c r="AJ211">
+        <v>1.9</v>
+      </c>
+      <c r="AK211">
+        <v>1.3</v>
+      </c>
+      <c r="AL211">
+        <v>1.25</v>
+      </c>
+      <c r="AM211">
+        <v>1.7</v>
+      </c>
+      <c r="AN211">
+        <v>2.11</v>
+      </c>
+      <c r="AO211">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP211">
+        <v>2.2</v>
+      </c>
+      <c r="AQ211">
+        <v>0.5</v>
+      </c>
+      <c r="AR211">
+        <v>1.69</v>
+      </c>
+      <c r="AS211">
+        <v>1.2</v>
+      </c>
+      <c r="AT211">
+        <v>2.89</v>
+      </c>
+      <c r="AU211">
+        <v>6</v>
+      </c>
+      <c r="AV211">
+        <v>6</v>
+      </c>
+      <c r="AW211">
+        <v>6</v>
+      </c>
+      <c r="AX211">
+        <v>7</v>
+      </c>
+      <c r="AY211">
+        <v>13</v>
+      </c>
+      <c r="AZ211">
+        <v>14</v>
+      </c>
+      <c r="BA211">
+        <v>2</v>
+      </c>
+      <c r="BB211">
+        <v>1</v>
+      </c>
+      <c r="BC211">
+        <v>3</v>
+      </c>
+      <c r="BD211">
+        <v>1.64</v>
+      </c>
+      <c r="BE211">
+        <v>6.5</v>
+      </c>
+      <c r="BF211">
+        <v>2.55</v>
+      </c>
+      <c r="BG211">
+        <v>1.36</v>
+      </c>
+      <c r="BH211">
+        <v>2.8</v>
+      </c>
+      <c r="BI211">
+        <v>1.6</v>
+      </c>
+      <c r="BJ211">
+        <v>2.14</v>
+      </c>
+      <c r="BK211">
+        <v>1.95</v>
+      </c>
+      <c r="BL211">
+        <v>1.72</v>
+      </c>
+      <c r="BM211">
+        <v>2.48</v>
+      </c>
+      <c r="BN211">
+        <v>1.45</v>
+      </c>
+      <c r="BO211">
+        <v>3.2</v>
+      </c>
+      <c r="BP211">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="212" spans="1:68">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>7728418</v>
+      </c>
+      <c r="C212" t="s">
+        <v>68</v>
+      </c>
+      <c r="D212" t="s">
+        <v>69</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45643.71875</v>
+      </c>
+      <c r="F212">
+        <v>20</v>
+      </c>
+      <c r="G212" t="s">
+        <v>91</v>
+      </c>
+      <c r="H212" t="s">
+        <v>89</v>
+      </c>
+      <c r="I212">
+        <v>2</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>2</v>
+      </c>
+      <c r="L212">
+        <v>2</v>
+      </c>
+      <c r="M212">
+        <v>3</v>
+      </c>
+      <c r="N212">
+        <v>5</v>
+      </c>
+      <c r="O212" t="s">
+        <v>235</v>
+      </c>
+      <c r="P212" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q212">
+        <v>3.25</v>
+      </c>
+      <c r="R212">
+        <v>1.9</v>
+      </c>
+      <c r="S212">
+        <v>3.6</v>
+      </c>
+      <c r="T212">
+        <v>1.55</v>
+      </c>
+      <c r="U212">
+        <v>2.32</v>
+      </c>
+      <c r="V212">
+        <v>3.45</v>
+      </c>
+      <c r="W212">
+        <v>1.27</v>
+      </c>
+      <c r="X212">
+        <v>9.4</v>
+      </c>
+      <c r="Y212">
+        <v>1.03</v>
+      </c>
+      <c r="Z212">
+        <v>2.48</v>
+      </c>
+      <c r="AA212">
+        <v>2.98</v>
+      </c>
+      <c r="AB212">
+        <v>3.11</v>
+      </c>
+      <c r="AC212">
+        <v>1.1</v>
+      </c>
+      <c r="AD212">
+        <v>6.5</v>
+      </c>
+      <c r="AE212">
+        <v>1.45</v>
+      </c>
+      <c r="AF212">
+        <v>2.6</v>
+      </c>
+      <c r="AG212">
+        <v>2.4</v>
+      </c>
+      <c r="AH212">
+        <v>1.5</v>
+      </c>
+      <c r="AI212">
+        <v>2</v>
+      </c>
+      <c r="AJ212">
+        <v>1.75</v>
+      </c>
+      <c r="AK212">
+        <v>1.38</v>
+      </c>
+      <c r="AL212">
+        <v>1.3</v>
+      </c>
+      <c r="AM212">
+        <v>1.53</v>
+      </c>
+      <c r="AN212">
+        <v>1.25</v>
+      </c>
+      <c r="AO212">
+        <v>1.1</v>
+      </c>
+      <c r="AP212">
+        <v>1.11</v>
+      </c>
+      <c r="AQ212">
+        <v>1.27</v>
+      </c>
+      <c r="AR212">
+        <v>1.69</v>
+      </c>
+      <c r="AS212">
+        <v>1.24</v>
+      </c>
+      <c r="AT212">
+        <v>2.93</v>
+      </c>
+      <c r="AU212">
+        <v>11</v>
+      </c>
+      <c r="AV212">
+        <v>6</v>
+      </c>
+      <c r="AW212">
+        <v>3</v>
+      </c>
+      <c r="AX212">
+        <v>7</v>
+      </c>
+      <c r="AY212">
+        <v>22</v>
+      </c>
+      <c r="AZ212">
+        <v>16</v>
+      </c>
+      <c r="BA212">
+        <v>3</v>
+      </c>
+      <c r="BB212">
+        <v>5</v>
+      </c>
+      <c r="BC212">
+        <v>8</v>
+      </c>
+      <c r="BD212">
+        <v>1.75</v>
+      </c>
+      <c r="BE212">
+        <v>6.5</v>
+      </c>
+      <c r="BF212">
+        <v>2.3</v>
+      </c>
+      <c r="BG212">
+        <v>1.36</v>
+      </c>
+      <c r="BH212">
+        <v>2.8</v>
+      </c>
+      <c r="BI212">
+        <v>1.62</v>
+      </c>
+      <c r="BJ212">
+        <v>2.1</v>
+      </c>
+      <c r="BK212">
+        <v>2</v>
+      </c>
+      <c r="BL212">
+        <v>1.68</v>
+      </c>
+      <c r="BM212">
+        <v>2.55</v>
+      </c>
+      <c r="BN212">
+        <v>1.42</v>
+      </c>
+      <c r="BO212">
+        <v>3.4</v>
+      </c>
+      <c r="BP212">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="323">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -724,6 +724,12 @@
     <t>['21', '32']</t>
   </si>
   <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['8', '28', '90+3']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -776,9 +782,6 @@
   </si>
   <si>
     <t>['4', '79']</t>
-  </si>
-  <si>
-    <t>['48']</t>
   </si>
   <si>
     <t>['49']</t>
@@ -977,6 +980,9 @@
   </si>
   <si>
     <t>['50', '65', '90+2']</t>
+  </si>
+  <si>
+    <t>['33', '51', '57', '63']</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP212"/>
+  <dimension ref="A1:BP215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1597,7 +1603,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1881,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ3">
         <v>0.2</v>
@@ -2009,7 +2015,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -2499,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ6">
         <v>0.8</v>
@@ -2627,7 +2633,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2833,7 +2839,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -3039,7 +3045,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -3120,7 +3126,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3657,7 +3663,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3863,7 +3869,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -4069,7 +4075,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4356,7 +4362,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ15">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR15">
         <v>1.13</v>
@@ -4559,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ16">
         <v>1.56</v>
@@ -4971,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ18">
         <v>1.22</v>
@@ -5099,7 +5105,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5180,7 +5186,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ19">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5717,7 +5723,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5923,7 +5929,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6129,7 +6135,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6335,7 +6341,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6541,7 +6547,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6747,7 +6753,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6825,7 +6831,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ27">
         <v>1.1</v>
@@ -7034,7 +7040,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ28">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -7159,7 +7165,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7649,7 +7655,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ31">
         <v>1.45</v>
@@ -7777,7 +7783,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7983,7 +7989,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8395,7 +8401,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8601,7 +8607,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -9013,7 +9019,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9503,7 +9509,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ40">
         <v>1.22</v>
@@ -9918,7 +9924,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ42">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR42">
         <v>1.8</v>
@@ -10249,7 +10255,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10867,7 +10873,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10948,7 +10954,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ47">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR47">
         <v>1.72</v>
@@ -11357,7 +11363,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ49">
         <v>1.3</v>
@@ -11566,7 +11572,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR50">
         <v>1.56</v>
@@ -11769,7 +11775,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ51">
         <v>1.1</v>
@@ -12515,7 +12521,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12721,7 +12727,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12927,7 +12933,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -13133,7 +13139,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13211,7 +13217,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ58">
         <v>1.1</v>
@@ -13545,7 +13551,7 @@
         <v>94</v>
       </c>
       <c r="P60" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -14038,7 +14044,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ62">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR62">
         <v>1.36</v>
@@ -14163,7 +14169,7 @@
         <v>97</v>
       </c>
       <c r="P63" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14369,7 +14375,7 @@
         <v>94</v>
       </c>
       <c r="P64" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14781,7 +14787,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15193,7 +15199,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15399,7 +15405,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15480,7 +15486,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ69">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR69">
         <v>1.25</v>
@@ -15683,7 +15689,7 @@
         <v>2</v>
       </c>
       <c r="AP70">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ70">
         <v>1.3</v>
@@ -16017,7 +16023,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16095,7 +16101,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ72">
         <v>1.11</v>
@@ -16223,7 +16229,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16304,7 +16310,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ73">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR73">
         <v>2.06</v>
@@ -16429,7 +16435,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16635,7 +16641,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -17253,7 +17259,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17459,7 +17465,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q79">
         <v>3.85</v>
@@ -17743,7 +17749,7 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ80">
         <v>1.11</v>
@@ -17871,7 +17877,7 @@
         <v>94</v>
       </c>
       <c r="P81" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q81">
         <v>3.55</v>
@@ -17949,7 +17955,7 @@
         <v>1.67</v>
       </c>
       <c r="AP81">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ81">
         <v>1.56</v>
@@ -18077,7 +18083,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q82">
         <v>2.65</v>
@@ -18158,7 +18164,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ82">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR82">
         <v>1.41</v>
@@ -18283,7 +18289,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -19107,7 +19113,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19519,7 +19525,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19725,7 +19731,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20137,7 +20143,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20424,7 +20430,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ93">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR93">
         <v>1.5</v>
@@ -20549,7 +20555,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -20755,7 +20761,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20836,7 +20842,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ95">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR95">
         <v>1.44</v>
@@ -21785,7 +21791,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -22275,7 +22281,7 @@
         <v>1.2</v>
       </c>
       <c r="AP102">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ102">
         <v>1.27</v>
@@ -22484,7 +22490,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ103">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR103">
         <v>1.55</v>
@@ -23099,7 +23105,7 @@
         <v>1.25</v>
       </c>
       <c r="AP106">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ106">
         <v>0.5</v>
@@ -23227,7 +23233,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23511,7 +23517,7 @@
         <v>1.5</v>
       </c>
       <c r="AP108">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ108">
         <v>1.3</v>
@@ -23720,7 +23726,7 @@
         <v>2</v>
       </c>
       <c r="AQ109">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR109">
         <v>1.4</v>
@@ -23845,7 +23851,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -23926,7 +23932,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ110">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR110">
         <v>1.96</v>
@@ -24257,7 +24263,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q112">
         <v>2.45</v>
@@ -24463,7 +24469,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -24875,7 +24881,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q115">
         <v>3.45</v>
@@ -25699,7 +25705,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q119">
         <v>2.8</v>
@@ -26317,7 +26323,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26729,7 +26735,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q124">
         <v>2.4</v>
@@ -26807,7 +26813,7 @@
         <v>1</v>
       </c>
       <c r="AP124">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ124">
         <v>0.55</v>
@@ -27016,7 +27022,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ125">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR125">
         <v>1.56</v>
@@ -27141,7 +27147,7 @@
         <v>179</v>
       </c>
       <c r="P126" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27425,7 +27431,7 @@
         <v>1</v>
       </c>
       <c r="AP127">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ127">
         <v>0.5</v>
@@ -27553,7 +27559,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27965,7 +27971,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q130">
         <v>3.25</v>
@@ -28046,7 +28052,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ130">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR130">
         <v>1.64</v>
@@ -28171,7 +28177,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q131">
         <v>2.75</v>
@@ -28252,7 +28258,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ131">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR131">
         <v>1.16</v>
@@ -28377,7 +28383,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28583,7 +28589,7 @@
         <v>106</v>
       </c>
       <c r="P133" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q133">
         <v>3.1</v>
@@ -28661,7 +28667,7 @@
         <v>0.2</v>
       </c>
       <c r="AP133">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ133">
         <v>0.22</v>
@@ -28789,7 +28795,7 @@
         <v>94</v>
       </c>
       <c r="P134" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q134">
         <v>3.1</v>
@@ -28995,7 +29001,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q135">
         <v>3.9</v>
@@ -29613,7 +29619,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -30231,7 +30237,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q141">
         <v>2.62</v>
@@ -30312,7 +30318,7 @@
         <v>2</v>
       </c>
       <c r="AQ141">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR141">
         <v>1.42</v>
@@ -30437,7 +30443,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q142">
         <v>3.6</v>
@@ -30515,7 +30521,7 @@
         <v>1.17</v>
       </c>
       <c r="AP142">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ142">
         <v>1</v>
@@ -30643,7 +30649,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q143">
         <v>3.75</v>
@@ -30849,7 +30855,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -30930,7 +30936,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ144">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR144">
         <v>1.75</v>
@@ -31133,7 +31139,7 @@
         <v>0.86</v>
       </c>
       <c r="AP145">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ145">
         <v>0.55</v>
@@ -31261,7 +31267,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q146">
         <v>2.75</v>
@@ -31548,7 +31554,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ147">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR147">
         <v>1.4</v>
@@ -31673,7 +31679,7 @@
         <v>97</v>
       </c>
       <c r="P148" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q148">
         <v>3.65</v>
@@ -31751,7 +31757,7 @@
         <v>3</v>
       </c>
       <c r="AP148">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ148">
         <v>2.44</v>
@@ -32703,7 +32709,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q153">
         <v>2.3</v>
@@ -33321,7 +33327,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -34841,7 +34847,7 @@
         <v>1.43</v>
       </c>
       <c r="AP163">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ163">
         <v>1.2</v>
@@ -34969,7 +34975,7 @@
         <v>206</v>
       </c>
       <c r="P164" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q164">
         <v>4.75</v>
@@ -35050,7 +35056,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ164">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR164">
         <v>1.2</v>
@@ -35587,7 +35593,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35871,7 +35877,7 @@
         <v>3</v>
       </c>
       <c r="AP168">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ168">
         <v>2.44</v>
@@ -35999,7 +36005,7 @@
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q169">
         <v>2.88</v>
@@ -36286,7 +36292,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ170">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR170">
         <v>1.57</v>
@@ -36489,10 +36495,10 @@
         <v>0.71</v>
       </c>
       <c r="AP171">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ171">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR171">
         <v>1.18</v>
@@ -36617,7 +36623,7 @@
         <v>210</v>
       </c>
       <c r="P172" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -37235,7 +37241,7 @@
         <v>213</v>
       </c>
       <c r="P175" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q175">
         <v>2.3</v>
@@ -37647,7 +37653,7 @@
         <v>94</v>
       </c>
       <c r="P177" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q177">
         <v>2.5</v>
@@ -37853,7 +37859,7 @@
         <v>94</v>
       </c>
       <c r="P178" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q178">
         <v>2.38</v>
@@ -38059,7 +38065,7 @@
         <v>214</v>
       </c>
       <c r="P179" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q179">
         <v>2.4</v>
@@ -38265,7 +38271,7 @@
         <v>215</v>
       </c>
       <c r="P180" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q180">
         <v>2.55</v>
@@ -39089,7 +39095,7 @@
         <v>217</v>
       </c>
       <c r="P184" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -39913,7 +39919,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q188">
         <v>3.5</v>
@@ -39991,7 +39997,7 @@
         <v>1.38</v>
       </c>
       <c r="AP188">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AQ188">
         <v>1.2</v>
@@ -40531,7 +40537,7 @@
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q191">
         <v>2.7</v>
@@ -40737,7 +40743,7 @@
         <v>223</v>
       </c>
       <c r="P192" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q192">
         <v>3.2</v>
@@ -40943,7 +40949,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q193">
         <v>4.33</v>
@@ -41021,7 +41027,7 @@
         <v>0.89</v>
       </c>
       <c r="AP193">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ193">
         <v>1.27</v>
@@ -41149,7 +41155,7 @@
         <v>108</v>
       </c>
       <c r="P194" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q194">
         <v>3.75</v>
@@ -41227,10 +41233,10 @@
         <v>1.56</v>
       </c>
       <c r="AP194">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ194">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR194">
         <v>1.4</v>
@@ -41642,7 +41648,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ196">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR196">
         <v>1.42</v>
@@ -42054,7 +42060,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ198">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR198">
         <v>1.19</v>
@@ -42385,7 +42391,7 @@
         <v>227</v>
       </c>
       <c r="P200" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q200">
         <v>2.38</v>
@@ -42797,7 +42803,7 @@
         <v>229</v>
       </c>
       <c r="P202" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q202">
         <v>1.95</v>
@@ -43209,7 +43215,7 @@
         <v>230</v>
       </c>
       <c r="P204" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q204">
         <v>3.25</v>
@@ -43621,7 +43627,7 @@
         <v>232</v>
       </c>
       <c r="P206" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q206">
         <v>2.25</v>
@@ -44033,7 +44039,7 @@
         <v>94</v>
       </c>
       <c r="P208" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44651,7 +44657,7 @@
         <v>234</v>
       </c>
       <c r="P211" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q211">
         <v>2.75</v>
@@ -44857,7 +44863,7 @@
         <v>235</v>
       </c>
       <c r="P212" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q212">
         <v>3.25</v>
@@ -45014,6 +45020,624 @@
       </c>
       <c r="BP212">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="213" spans="1:68">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>7728413</v>
+      </c>
+      <c r="C213" t="s">
+        <v>68</v>
+      </c>
+      <c r="D213" t="s">
+        <v>69</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45644.625</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213" t="s">
+        <v>74</v>
+      </c>
+      <c r="H213" t="s">
+        <v>90</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>1</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
+      </c>
+      <c r="L213">
+        <v>1</v>
+      </c>
+      <c r="M213">
+        <v>4</v>
+      </c>
+      <c r="N213">
+        <v>5</v>
+      </c>
+      <c r="O213" t="s">
+        <v>236</v>
+      </c>
+      <c r="P213" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q213">
+        <v>4.2</v>
+      </c>
+      <c r="R213">
+        <v>2.1</v>
+      </c>
+      <c r="S213">
+        <v>2.5</v>
+      </c>
+      <c r="T213">
+        <v>1.41</v>
+      </c>
+      <c r="U213">
+        <v>2.7</v>
+      </c>
+      <c r="V213">
+        <v>2.9</v>
+      </c>
+      <c r="W213">
+        <v>1.36</v>
+      </c>
+      <c r="X213">
+        <v>7.4</v>
+      </c>
+      <c r="Y213">
+        <v>1.06</v>
+      </c>
+      <c r="Z213">
+        <v>4</v>
+      </c>
+      <c r="AA213">
+        <v>3.3</v>
+      </c>
+      <c r="AB213">
+        <v>1.9</v>
+      </c>
+      <c r="AC213">
+        <v>1.06</v>
+      </c>
+      <c r="AD213">
+        <v>8.5</v>
+      </c>
+      <c r="AE213">
+        <v>1.32</v>
+      </c>
+      <c r="AF213">
+        <v>3.49</v>
+      </c>
+      <c r="AG213">
+        <v>1.91</v>
+      </c>
+      <c r="AH213">
+        <v>1.8</v>
+      </c>
+      <c r="AI213">
+        <v>1.8</v>
+      </c>
+      <c r="AJ213">
+        <v>1.95</v>
+      </c>
+      <c r="AK213">
+        <v>1.85</v>
+      </c>
+      <c r="AL213">
+        <v>1.25</v>
+      </c>
+      <c r="AM213">
+        <v>1.2</v>
+      </c>
+      <c r="AN213">
+        <v>0.8</v>
+      </c>
+      <c r="AO213">
+        <v>1.5</v>
+      </c>
+      <c r="AP213">
+        <v>0.73</v>
+      </c>
+      <c r="AQ213">
+        <v>1.64</v>
+      </c>
+      <c r="AR213">
+        <v>1.08</v>
+      </c>
+      <c r="AS213">
+        <v>1.5</v>
+      </c>
+      <c r="AT213">
+        <v>2.58</v>
+      </c>
+      <c r="AU213">
+        <v>11</v>
+      </c>
+      <c r="AV213">
+        <v>5</v>
+      </c>
+      <c r="AW213">
+        <v>5</v>
+      </c>
+      <c r="AX213">
+        <v>4</v>
+      </c>
+      <c r="AY213">
+        <v>17</v>
+      </c>
+      <c r="AZ213">
+        <v>9</v>
+      </c>
+      <c r="BA213">
+        <v>8</v>
+      </c>
+      <c r="BB213">
+        <v>3</v>
+      </c>
+      <c r="BC213">
+        <v>11</v>
+      </c>
+      <c r="BD213">
+        <v>2.08</v>
+      </c>
+      <c r="BE213">
+        <v>6.4</v>
+      </c>
+      <c r="BF213">
+        <v>1.9</v>
+      </c>
+      <c r="BG213">
+        <v>1.34</v>
+      </c>
+      <c r="BH213">
+        <v>2.9</v>
+      </c>
+      <c r="BI213">
+        <v>1.56</v>
+      </c>
+      <c r="BJ213">
+        <v>2.2</v>
+      </c>
+      <c r="BK213">
+        <v>1.9</v>
+      </c>
+      <c r="BL213">
+        <v>1.76</v>
+      </c>
+      <c r="BM213">
+        <v>2.4</v>
+      </c>
+      <c r="BN213">
+        <v>1.48</v>
+      </c>
+      <c r="BO213">
+        <v>3.15</v>
+      </c>
+      <c r="BP213">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="214" spans="1:68">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>7728417</v>
+      </c>
+      <c r="C214" t="s">
+        <v>68</v>
+      </c>
+      <c r="D214" t="s">
+        <v>69</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45644.71875</v>
+      </c>
+      <c r="F214">
+        <v>20</v>
+      </c>
+      <c r="G214" t="s">
+        <v>83</v>
+      </c>
+      <c r="H214" t="s">
+        <v>80</v>
+      </c>
+      <c r="I214">
+        <v>2</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>2</v>
+      </c>
+      <c r="L214">
+        <v>3</v>
+      </c>
+      <c r="M214">
+        <v>0</v>
+      </c>
+      <c r="N214">
+        <v>3</v>
+      </c>
+      <c r="O214" t="s">
+        <v>237</v>
+      </c>
+      <c r="P214" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q214">
+        <v>2.95</v>
+      </c>
+      <c r="R214">
+        <v>1.85</v>
+      </c>
+      <c r="S214">
+        <v>4.2</v>
+      </c>
+      <c r="T214">
+        <v>1.57</v>
+      </c>
+      <c r="U214">
+        <v>2.25</v>
+      </c>
+      <c r="V214">
+        <v>3.65</v>
+      </c>
+      <c r="W214">
+        <v>1.25</v>
+      </c>
+      <c r="X214">
+        <v>10.75</v>
+      </c>
+      <c r="Y214">
+        <v>1.01</v>
+      </c>
+      <c r="Z214">
+        <v>2.3</v>
+      </c>
+      <c r="AA214">
+        <v>2.85</v>
+      </c>
+      <c r="AB214">
+        <v>3.4</v>
+      </c>
+      <c r="AC214">
+        <v>1.1</v>
+      </c>
+      <c r="AD214">
+        <v>6.5</v>
+      </c>
+      <c r="AE214">
+        <v>1.5</v>
+      </c>
+      <c r="AF214">
+        <v>2.4</v>
+      </c>
+      <c r="AG214">
+        <v>2.55</v>
+      </c>
+      <c r="AH214">
+        <v>1.45</v>
+      </c>
+      <c r="AI214">
+        <v>2.1</v>
+      </c>
+      <c r="AJ214">
+        <v>1.62</v>
+      </c>
+      <c r="AK214">
+        <v>1.28</v>
+      </c>
+      <c r="AL214">
+        <v>1.3</v>
+      </c>
+      <c r="AM214">
+        <v>1.65</v>
+      </c>
+      <c r="AN214">
+        <v>1.78</v>
+      </c>
+      <c r="AO214">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP214">
+        <v>1.9</v>
+      </c>
+      <c r="AQ214">
+        <v>0.5</v>
+      </c>
+      <c r="AR214">
+        <v>1.3</v>
+      </c>
+      <c r="AS214">
+        <v>1.15</v>
+      </c>
+      <c r="AT214">
+        <v>2.45</v>
+      </c>
+      <c r="AU214">
+        <v>7</v>
+      </c>
+      <c r="AV214">
+        <v>5</v>
+      </c>
+      <c r="AW214">
+        <v>12</v>
+      </c>
+      <c r="AX214">
+        <v>7</v>
+      </c>
+      <c r="AY214">
+        <v>23</v>
+      </c>
+      <c r="AZ214">
+        <v>16</v>
+      </c>
+      <c r="BA214">
+        <v>3</v>
+      </c>
+      <c r="BB214">
+        <v>2</v>
+      </c>
+      <c r="BC214">
+        <v>5</v>
+      </c>
+      <c r="BD214">
+        <v>1.7</v>
+      </c>
+      <c r="BE214">
+        <v>6.4</v>
+      </c>
+      <c r="BF214">
+        <v>2.4</v>
+      </c>
+      <c r="BG214">
+        <v>1.38</v>
+      </c>
+      <c r="BH214">
+        <v>2.7</v>
+      </c>
+      <c r="BI214">
+        <v>1.65</v>
+      </c>
+      <c r="BJ214">
+        <v>2.05</v>
+      </c>
+      <c r="BK214">
+        <v>2.06</v>
+      </c>
+      <c r="BL214">
+        <v>1.65</v>
+      </c>
+      <c r="BM214">
+        <v>2.65</v>
+      </c>
+      <c r="BN214">
+        <v>1.4</v>
+      </c>
+      <c r="BO214">
+        <v>3.55</v>
+      </c>
+      <c r="BP214">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="215" spans="1:68">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>7728412</v>
+      </c>
+      <c r="C215" t="s">
+        <v>68</v>
+      </c>
+      <c r="D215" t="s">
+        <v>69</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45644.71875</v>
+      </c>
+      <c r="F215">
+        <v>20</v>
+      </c>
+      <c r="G215" t="s">
+        <v>71</v>
+      </c>
+      <c r="H215" t="s">
+        <v>76</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
+      </c>
+      <c r="L215">
+        <v>1</v>
+      </c>
+      <c r="M215">
+        <v>1</v>
+      </c>
+      <c r="N215">
+        <v>2</v>
+      </c>
+      <c r="O215" t="s">
+        <v>139</v>
+      </c>
+      <c r="P215" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q215">
+        <v>3.6</v>
+      </c>
+      <c r="R215">
+        <v>1.83</v>
+      </c>
+      <c r="S215">
+        <v>3.5</v>
+      </c>
+      <c r="T215">
+        <v>1.62</v>
+      </c>
+      <c r="U215">
+        <v>2.19</v>
+      </c>
+      <c r="V215">
+        <v>3.95</v>
+      </c>
+      <c r="W215">
+        <v>1.21</v>
+      </c>
+      <c r="X215">
+        <v>10.5</v>
+      </c>
+      <c r="Y215">
+        <v>1.02</v>
+      </c>
+      <c r="Z215">
+        <v>2.7</v>
+      </c>
+      <c r="AA215">
+        <v>2.7</v>
+      </c>
+      <c r="AB215">
+        <v>2.95</v>
+      </c>
+      <c r="AC215">
+        <v>1.11</v>
+      </c>
+      <c r="AD215">
+        <v>6.12</v>
+      </c>
+      <c r="AE215">
+        <v>1.53</v>
+      </c>
+      <c r="AF215">
+        <v>2.37</v>
+      </c>
+      <c r="AG215">
+        <v>2.85</v>
+      </c>
+      <c r="AH215">
+        <v>1.36</v>
+      </c>
+      <c r="AI215">
+        <v>2.15</v>
+      </c>
+      <c r="AJ215">
+        <v>1.66</v>
+      </c>
+      <c r="AK215">
+        <v>1.45</v>
+      </c>
+      <c r="AL215">
+        <v>1.33</v>
+      </c>
+      <c r="AM215">
+        <v>1.4</v>
+      </c>
+      <c r="AN215">
+        <v>2.3</v>
+      </c>
+      <c r="AO215">
+        <v>1.11</v>
+      </c>
+      <c r="AP215">
+        <v>2.18</v>
+      </c>
+      <c r="AQ215">
+        <v>1.1</v>
+      </c>
+      <c r="AR215">
+        <v>1.17</v>
+      </c>
+      <c r="AS215">
+        <v>1.2</v>
+      </c>
+      <c r="AT215">
+        <v>2.37</v>
+      </c>
+      <c r="AU215">
+        <v>4</v>
+      </c>
+      <c r="AV215">
+        <v>6</v>
+      </c>
+      <c r="AW215">
+        <v>3</v>
+      </c>
+      <c r="AX215">
+        <v>4</v>
+      </c>
+      <c r="AY215">
+        <v>7</v>
+      </c>
+      <c r="AZ215">
+        <v>14</v>
+      </c>
+      <c r="BA215">
+        <v>1</v>
+      </c>
+      <c r="BB215">
+        <v>4</v>
+      </c>
+      <c r="BC215">
+        <v>5</v>
+      </c>
+      <c r="BD215">
+        <v>1.86</v>
+      </c>
+      <c r="BE215">
+        <v>6.4</v>
+      </c>
+      <c r="BF215">
+        <v>2.15</v>
+      </c>
+      <c r="BG215">
+        <v>1.47</v>
+      </c>
+      <c r="BH215">
+        <v>2.43</v>
+      </c>
+      <c r="BI215">
+        <v>1.8</v>
+      </c>
+      <c r="BJ215">
+        <v>1.86</v>
+      </c>
+      <c r="BK215">
+        <v>2.28</v>
+      </c>
+      <c r="BL215">
+        <v>1.53</v>
+      </c>
+      <c r="BM215">
+        <v>3</v>
+      </c>
+      <c r="BN215">
+        <v>1.32</v>
+      </c>
+      <c r="BO215">
+        <v>4.1</v>
+      </c>
+      <c r="BP215">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="325">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -730,6 +730,15 @@
     <t>['8', '28', '90+3']</t>
   </si>
   <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['25', '73', '90+6']</t>
+  </si>
+  <si>
+    <t>['36', '39', '45', '49', '52']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -944,9 +953,6 @@
   </si>
   <si>
     <t>['15', '48', '81']</t>
-  </si>
-  <si>
-    <t>['75']</t>
   </si>
   <si>
     <t>['35', '57', '81', '84']</t>
@@ -1344,7 +1350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP215"/>
+  <dimension ref="A1:BP219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1603,7 +1609,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -2015,7 +2021,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -2093,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ4">
         <v>1.45</v>
@@ -2302,7 +2308,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ5">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2633,7 +2639,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2711,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ7">
         <v>1.27</v>
@@ -2839,7 +2845,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -3045,7 +3051,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -3535,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ11">
         <v>1.3</v>
@@ -3663,7 +3669,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3744,7 +3750,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3869,7 +3875,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -4075,7 +4081,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4153,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ14">
         <v>1.22</v>
@@ -5105,7 +5111,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5723,7 +5729,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5929,7 +5935,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6010,7 +6016,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ23">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6135,7 +6141,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6341,7 +6347,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6422,7 +6428,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ25">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6547,7 +6553,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6625,10 +6631,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ26">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -6753,7 +6759,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -7165,7 +7171,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7246,7 +7252,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ29">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR29">
         <v>1.44</v>
@@ -7449,7 +7455,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ30">
         <v>1.11</v>
@@ -7783,7 +7789,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7989,7 +7995,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8273,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ34">
         <v>0.2</v>
@@ -8401,7 +8407,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8482,7 +8488,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ35">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AR35">
         <v>1.42</v>
@@ -8891,10 +8897,10 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ37">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR37">
         <v>1.35</v>
@@ -9019,7 +9025,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -10255,7 +10261,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10873,7 +10879,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11160,7 +11166,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ48">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR48">
         <v>1.67</v>
@@ -12393,7 +12399,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ54">
         <v>1.11</v>
@@ -12521,7 +12527,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12599,7 +12605,7 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ55">
         <v>1.56</v>
@@ -12727,7 +12733,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12808,7 +12814,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ56">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR56">
         <v>1.94</v>
@@ -12933,7 +12939,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -13139,7 +13145,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13551,7 +13557,7 @@
         <v>94</v>
       </c>
       <c r="P60" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13629,10 +13635,10 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ60">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR60">
         <v>1.47</v>
@@ -14169,7 +14175,7 @@
         <v>97</v>
       </c>
       <c r="P63" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14456,7 +14462,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ64">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AR64">
         <v>1.39</v>
@@ -14659,7 +14665,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ65">
         <v>1.22</v>
@@ -14787,7 +14793,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15071,7 +15077,7 @@
         <v>0</v>
       </c>
       <c r="AP67">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ67">
         <v>0.2</v>
@@ -15199,7 +15205,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15405,7 +15411,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15483,7 +15489,7 @@
         <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ69">
         <v>0.5</v>
@@ -16023,7 +16029,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16229,7 +16235,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16435,7 +16441,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16641,7 +16647,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -16722,7 +16728,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ75">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR75">
         <v>1.58</v>
@@ -17259,7 +17265,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17465,7 +17471,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q79">
         <v>3.85</v>
@@ -17543,7 +17549,7 @@
         <v>2.33</v>
       </c>
       <c r="AP79">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ79">
         <v>1</v>
@@ -17877,7 +17883,7 @@
         <v>94</v>
       </c>
       <c r="P81" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q81">
         <v>3.55</v>
@@ -18083,7 +18089,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q82">
         <v>2.65</v>
@@ -18289,7 +18295,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18370,7 +18376,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ83">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AR83">
         <v>1.8</v>
@@ -18576,7 +18582,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ84">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR84">
         <v>1.79</v>
@@ -18985,7 +18991,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ86">
         <v>0.8</v>
@@ -19113,7 +19119,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19194,7 +19200,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ87">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR87">
         <v>1.47</v>
@@ -19525,7 +19531,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19731,7 +19737,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20143,7 +20149,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20221,7 +20227,7 @@
         <v>1</v>
       </c>
       <c r="AP92">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ92">
         <v>0.8</v>
@@ -20555,7 +20561,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -20633,7 +20639,7 @@
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ94">
         <v>1.1</v>
@@ -20761,7 +20767,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -21663,7 +21669,7 @@
         <v>1</v>
       </c>
       <c r="AP99">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ99">
         <v>1.22</v>
@@ -21791,7 +21797,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -21872,7 +21878,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ100">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR100">
         <v>1.65</v>
@@ -22487,7 +22493,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ103">
         <v>0.5</v>
@@ -22696,7 +22702,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ104">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR104">
         <v>1.71</v>
@@ -23233,7 +23239,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23311,10 +23317,10 @@
         <v>3</v>
       </c>
       <c r="AP107">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ107">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AR107">
         <v>1.53</v>
@@ -23723,7 +23729,7 @@
         <v>1.25</v>
       </c>
       <c r="AP109">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ109">
         <v>1.1</v>
@@ -23851,7 +23857,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -24138,7 +24144,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ111">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR111">
         <v>1.54</v>
@@ -24263,7 +24269,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q112">
         <v>2.45</v>
@@ -24469,7 +24475,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -24881,7 +24887,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q115">
         <v>3.45</v>
@@ -25705,7 +25711,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q119">
         <v>2.8</v>
@@ -26323,7 +26329,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26607,7 +26613,7 @@
         <v>1.17</v>
       </c>
       <c r="AP123">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ123">
         <v>1.27</v>
@@ -26735,7 +26741,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q124">
         <v>2.4</v>
@@ -27147,7 +27153,7 @@
         <v>179</v>
       </c>
       <c r="P126" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27228,7 +27234,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ126">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR126">
         <v>1.8</v>
@@ -27559,7 +27565,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27637,10 +27643,10 @@
         <v>3</v>
       </c>
       <c r="AP128">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ128">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AR128">
         <v>1.61</v>
@@ -27843,10 +27849,10 @@
         <v>1.4</v>
       </c>
       <c r="AP129">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ129">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR129">
         <v>1.3</v>
@@ -27971,7 +27977,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q130">
         <v>3.25</v>
@@ -28177,7 +28183,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q131">
         <v>2.75</v>
@@ -28255,7 +28261,7 @@
         <v>1.17</v>
       </c>
       <c r="AP131">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ131">
         <v>1.64</v>
@@ -28383,7 +28389,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28589,7 +28595,7 @@
         <v>106</v>
       </c>
       <c r="P133" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q133">
         <v>3.1</v>
@@ -28670,7 +28676,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ133">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR133">
         <v>1.15</v>
@@ -28795,7 +28801,7 @@
         <v>94</v>
       </c>
       <c r="P134" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q134">
         <v>3.1</v>
@@ -29001,7 +29007,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q135">
         <v>3.9</v>
@@ -29619,7 +29625,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -29906,7 +29912,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ139">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR139">
         <v>1.66</v>
@@ -30237,7 +30243,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q141">
         <v>2.62</v>
@@ -30315,7 +30321,7 @@
         <v>1.14</v>
       </c>
       <c r="AP141">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ141">
         <v>1.64</v>
@@ -30443,7 +30449,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q142">
         <v>3.6</v>
@@ -30649,7 +30655,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q143">
         <v>3.75</v>
@@ -30727,7 +30733,7 @@
         <v>1.86</v>
       </c>
       <c r="AP143">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ143">
         <v>1.45</v>
@@ -30855,7 +30861,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31267,7 +31273,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q146">
         <v>2.75</v>
@@ -31348,7 +31354,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ146">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR146">
         <v>1.62</v>
@@ -31679,7 +31685,7 @@
         <v>97</v>
       </c>
       <c r="P148" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q148">
         <v>3.65</v>
@@ -31760,7 +31766,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ148">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AR148">
         <v>1.13</v>
@@ -32169,7 +32175,7 @@
         <v>0.83</v>
       </c>
       <c r="AP150">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ150">
         <v>0.5</v>
@@ -32709,7 +32715,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q153">
         <v>2.3</v>
@@ -33202,7 +33208,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ155">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR155">
         <v>1.59</v>
@@ -33327,7 +33333,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -33611,7 +33617,7 @@
         <v>0.17</v>
       </c>
       <c r="AP157">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ157">
         <v>0.2</v>
@@ -33820,7 +33826,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ158">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR158">
         <v>1.68</v>
@@ -34975,7 +34981,7 @@
         <v>206</v>
       </c>
       <c r="P164" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q164">
         <v>4.75</v>
@@ -35593,7 +35599,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35880,7 +35886,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ168">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AR168">
         <v>1.29</v>
@@ -36005,7 +36011,7 @@
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q169">
         <v>2.88</v>
@@ -36086,7 +36092,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ169">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR169">
         <v>1.71</v>
@@ -36289,7 +36295,7 @@
         <v>1.29</v>
       </c>
       <c r="AP170">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ170">
         <v>1.1</v>
@@ -36623,7 +36629,7 @@
         <v>210</v>
       </c>
       <c r="P172" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -36701,10 +36707,10 @@
         <v>1.86</v>
       </c>
       <c r="AP172">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ172">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR172">
         <v>1.15</v>
@@ -36907,7 +36913,7 @@
         <v>1</v>
       </c>
       <c r="AP173">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ173">
         <v>1.27</v>
@@ -37241,7 +37247,7 @@
         <v>213</v>
       </c>
       <c r="P175" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q175">
         <v>2.3</v>
@@ -37653,7 +37659,7 @@
         <v>94</v>
       </c>
       <c r="P177" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q177">
         <v>2.5</v>
@@ -37859,7 +37865,7 @@
         <v>94</v>
       </c>
       <c r="P178" t="s">
-        <v>310</v>
+        <v>238</v>
       </c>
       <c r="Q178">
         <v>2.38</v>
@@ -38065,7 +38071,7 @@
         <v>214</v>
       </c>
       <c r="P179" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q179">
         <v>2.4</v>
@@ -38271,7 +38277,7 @@
         <v>215</v>
       </c>
       <c r="P180" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q180">
         <v>2.55</v>
@@ -38349,7 +38355,7 @@
         <v>1</v>
       </c>
       <c r="AP180">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ180">
         <v>1.22</v>
@@ -39095,7 +39101,7 @@
         <v>217</v>
       </c>
       <c r="P184" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -39176,7 +39182,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ184">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR184">
         <v>1.69</v>
@@ -39919,7 +39925,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q188">
         <v>3.5</v>
@@ -40203,7 +40209,7 @@
         <v>1.13</v>
       </c>
       <c r="AP189">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ189">
         <v>1</v>
@@ -40412,7 +40418,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ190">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AR190">
         <v>1.74</v>
@@ -40537,7 +40543,7 @@
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q191">
         <v>2.7</v>
@@ -40615,7 +40621,7 @@
         <v>1.67</v>
       </c>
       <c r="AP191">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ191">
         <v>1.45</v>
@@ -40743,7 +40749,7 @@
         <v>223</v>
       </c>
       <c r="P192" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q192">
         <v>3.2</v>
@@ -40821,7 +40827,7 @@
         <v>0.63</v>
       </c>
       <c r="AP192">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ192">
         <v>0.5</v>
@@ -40949,7 +40955,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q193">
         <v>4.33</v>
@@ -41155,7 +41161,7 @@
         <v>108</v>
       </c>
       <c r="P194" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q194">
         <v>3.75</v>
@@ -41442,7 +41448,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ195">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR195">
         <v>1.66</v>
@@ -41854,7 +41860,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ197">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR197">
         <v>1.63</v>
@@ -42391,7 +42397,7 @@
         <v>227</v>
       </c>
       <c r="P200" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q200">
         <v>2.38</v>
@@ -42675,7 +42681,7 @@
         <v>1.22</v>
       </c>
       <c r="AP201">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ201">
         <v>1.1</v>
@@ -42803,7 +42809,7 @@
         <v>229</v>
       </c>
       <c r="P202" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q202">
         <v>1.95</v>
@@ -43215,7 +43221,7 @@
         <v>230</v>
       </c>
       <c r="P204" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q204">
         <v>3.25</v>
@@ -43627,7 +43633,7 @@
         <v>232</v>
       </c>
       <c r="P206" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q206">
         <v>2.25</v>
@@ -44039,7 +44045,7 @@
         <v>94</v>
       </c>
       <c r="P208" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44657,7 +44663,7 @@
         <v>234</v>
       </c>
       <c r="P211" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q211">
         <v>2.75</v>
@@ -44863,7 +44869,7 @@
         <v>235</v>
       </c>
       <c r="P212" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q212">
         <v>3.25</v>
@@ -45069,7 +45075,7 @@
         <v>236</v>
       </c>
       <c r="P213" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q213">
         <v>4.2</v>
@@ -45481,7 +45487,7 @@
         <v>139</v>
       </c>
       <c r="P215" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q215">
         <v>3.6</v>
@@ -45638,6 +45644,830 @@
       </c>
       <c r="BP215">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="216" spans="1:68">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>7728414</v>
+      </c>
+      <c r="C216" t="s">
+        <v>68</v>
+      </c>
+      <c r="D216" t="s">
+        <v>69</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45645.625</v>
+      </c>
+      <c r="F216">
+        <v>20</v>
+      </c>
+      <c r="G216" t="s">
+        <v>72</v>
+      </c>
+      <c r="H216" t="s">
+        <v>78</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+      <c r="L216">
+        <v>1</v>
+      </c>
+      <c r="M216">
+        <v>1</v>
+      </c>
+      <c r="N216">
+        <v>2</v>
+      </c>
+      <c r="O216" t="s">
+        <v>238</v>
+      </c>
+      <c r="P216" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q216">
+        <v>2.62</v>
+      </c>
+      <c r="R216">
+        <v>1.95</v>
+      </c>
+      <c r="S216">
+        <v>4.33</v>
+      </c>
+      <c r="T216">
+        <v>1.48</v>
+      </c>
+      <c r="U216">
+        <v>2.5</v>
+      </c>
+      <c r="V216">
+        <v>3.2</v>
+      </c>
+      <c r="W216">
+        <v>1.3</v>
+      </c>
+      <c r="X216">
+        <v>9.1</v>
+      </c>
+      <c r="Y216">
+        <v>1.03</v>
+      </c>
+      <c r="Z216">
+        <v>1.91</v>
+      </c>
+      <c r="AA216">
+        <v>3.2</v>
+      </c>
+      <c r="AB216">
+        <v>4</v>
+      </c>
+      <c r="AC216">
+        <v>1.08</v>
+      </c>
+      <c r="AD216">
+        <v>7.5</v>
+      </c>
+      <c r="AE216">
+        <v>1.4</v>
+      </c>
+      <c r="AF216">
+        <v>2.88</v>
+      </c>
+      <c r="AG216">
+        <v>2.15</v>
+      </c>
+      <c r="AH216">
+        <v>1.62</v>
+      </c>
+      <c r="AI216">
+        <v>1.91</v>
+      </c>
+      <c r="AJ216">
+        <v>1.77</v>
+      </c>
+      <c r="AK216">
+        <v>1.25</v>
+      </c>
+      <c r="AL216">
+        <v>1.28</v>
+      </c>
+      <c r="AM216">
+        <v>1.77</v>
+      </c>
+      <c r="AN216">
+        <v>1.2</v>
+      </c>
+      <c r="AO216">
+        <v>0.78</v>
+      </c>
+      <c r="AP216">
+        <v>1.18</v>
+      </c>
+      <c r="AQ216">
+        <v>0.8</v>
+      </c>
+      <c r="AR216">
+        <v>1.46</v>
+      </c>
+      <c r="AS216">
+        <v>1.27</v>
+      </c>
+      <c r="AT216">
+        <v>2.73</v>
+      </c>
+      <c r="AU216">
+        <v>4</v>
+      </c>
+      <c r="AV216">
+        <v>3</v>
+      </c>
+      <c r="AW216">
+        <v>5</v>
+      </c>
+      <c r="AX216">
+        <v>3</v>
+      </c>
+      <c r="AY216">
+        <v>12</v>
+      </c>
+      <c r="AZ216">
+        <v>9</v>
+      </c>
+      <c r="BA216">
+        <v>2</v>
+      </c>
+      <c r="BB216">
+        <v>6</v>
+      </c>
+      <c r="BC216">
+        <v>8</v>
+      </c>
+      <c r="BD216">
+        <v>1.56</v>
+      </c>
+      <c r="BE216">
+        <v>6.5</v>
+      </c>
+      <c r="BF216">
+        <v>2.7</v>
+      </c>
+      <c r="BG216">
+        <v>1.4</v>
+      </c>
+      <c r="BH216">
+        <v>2.63</v>
+      </c>
+      <c r="BI216">
+        <v>1.68</v>
+      </c>
+      <c r="BJ216">
+        <v>2</v>
+      </c>
+      <c r="BK216">
+        <v>2.1</v>
+      </c>
+      <c r="BL216">
+        <v>1.62</v>
+      </c>
+      <c r="BM216">
+        <v>2.7</v>
+      </c>
+      <c r="BN216">
+        <v>1.38</v>
+      </c>
+      <c r="BO216">
+        <v>3.55</v>
+      </c>
+      <c r="BP216">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="217" spans="1:68">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>7728410</v>
+      </c>
+      <c r="C217" t="s">
+        <v>68</v>
+      </c>
+      <c r="D217" t="s">
+        <v>69</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45645.625</v>
+      </c>
+      <c r="F217">
+        <v>20</v>
+      </c>
+      <c r="G217" t="s">
+        <v>79</v>
+      </c>
+      <c r="H217" t="s">
+        <v>77</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>1</v>
+      </c>
+      <c r="L217">
+        <v>3</v>
+      </c>
+      <c r="M217">
+        <v>0</v>
+      </c>
+      <c r="N217">
+        <v>3</v>
+      </c>
+      <c r="O217" t="s">
+        <v>239</v>
+      </c>
+      <c r="P217" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q217">
+        <v>2.6</v>
+      </c>
+      <c r="R217">
+        <v>2.1</v>
+      </c>
+      <c r="S217">
+        <v>4.5</v>
+      </c>
+      <c r="T217">
+        <v>1.44</v>
+      </c>
+      <c r="U217">
+        <v>2.63</v>
+      </c>
+      <c r="V217">
+        <v>3</v>
+      </c>
+      <c r="W217">
+        <v>1.36</v>
+      </c>
+      <c r="X217">
+        <v>9</v>
+      </c>
+      <c r="Y217">
+        <v>1.07</v>
+      </c>
+      <c r="Z217">
+        <v>1.85</v>
+      </c>
+      <c r="AA217">
+        <v>3.4</v>
+      </c>
+      <c r="AB217">
+        <v>4</v>
+      </c>
+      <c r="AC217">
+        <v>1.06</v>
+      </c>
+      <c r="AD217">
+        <v>8.5</v>
+      </c>
+      <c r="AE217">
+        <v>1.3</v>
+      </c>
+      <c r="AF217">
+        <v>3.3</v>
+      </c>
+      <c r="AG217">
+        <v>2.03</v>
+      </c>
+      <c r="AH217">
+        <v>1.81</v>
+      </c>
+      <c r="AI217">
+        <v>1.83</v>
+      </c>
+      <c r="AJ217">
+        <v>1.83</v>
+      </c>
+      <c r="AK217">
+        <v>1.2</v>
+      </c>
+      <c r="AL217">
+        <v>1.25</v>
+      </c>
+      <c r="AM217">
+        <v>1.87</v>
+      </c>
+      <c r="AN217">
+        <v>2</v>
+      </c>
+      <c r="AO217">
+        <v>2.44</v>
+      </c>
+      <c r="AP217">
+        <v>2.09</v>
+      </c>
+      <c r="AQ217">
+        <v>2.2</v>
+      </c>
+      <c r="AR217">
+        <v>1.61</v>
+      </c>
+      <c r="AS217">
+        <v>1.42</v>
+      </c>
+      <c r="AT217">
+        <v>3.03</v>
+      </c>
+      <c r="AU217">
+        <v>8</v>
+      </c>
+      <c r="AV217">
+        <v>4</v>
+      </c>
+      <c r="AW217">
+        <v>5</v>
+      </c>
+      <c r="AX217">
+        <v>4</v>
+      </c>
+      <c r="AY217">
+        <v>17</v>
+      </c>
+      <c r="AZ217">
+        <v>15</v>
+      </c>
+      <c r="BA217">
+        <v>8</v>
+      </c>
+      <c r="BB217">
+        <v>5</v>
+      </c>
+      <c r="BC217">
+        <v>13</v>
+      </c>
+      <c r="BD217">
+        <v>1.57</v>
+      </c>
+      <c r="BE217">
+        <v>6.75</v>
+      </c>
+      <c r="BF217">
+        <v>2.65</v>
+      </c>
+      <c r="BG217">
+        <v>1.25</v>
+      </c>
+      <c r="BH217">
+        <v>3.4</v>
+      </c>
+      <c r="BI217">
+        <v>1.44</v>
+      </c>
+      <c r="BJ217">
+        <v>2.55</v>
+      </c>
+      <c r="BK217">
+        <v>1.72</v>
+      </c>
+      <c r="BL217">
+        <v>1.96</v>
+      </c>
+      <c r="BM217">
+        <v>2.14</v>
+      </c>
+      <c r="BN217">
+        <v>1.6</v>
+      </c>
+      <c r="BO217">
+        <v>2.7</v>
+      </c>
+      <c r="BP217">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="218" spans="1:68">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>7728411</v>
+      </c>
+      <c r="C218" t="s">
+        <v>68</v>
+      </c>
+      <c r="D218" t="s">
+        <v>69</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45645.71875</v>
+      </c>
+      <c r="F218">
+        <v>20</v>
+      </c>
+      <c r="G218" t="s">
+        <v>81</v>
+      </c>
+      <c r="H218" t="s">
+        <v>84</v>
+      </c>
+      <c r="I218">
+        <v>1</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>1</v>
+      </c>
+      <c r="L218">
+        <v>1</v>
+      </c>
+      <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218">
+        <v>1</v>
+      </c>
+      <c r="O218" t="s">
+        <v>206</v>
+      </c>
+      <c r="P218" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q218">
+        <v>3.2</v>
+      </c>
+      <c r="R218">
+        <v>1.8</v>
+      </c>
+      <c r="S218">
+        <v>4.75</v>
+      </c>
+      <c r="T218">
+        <v>1.67</v>
+      </c>
+      <c r="U218">
+        <v>2.1</v>
+      </c>
+      <c r="V218">
+        <v>4.5</v>
+      </c>
+      <c r="W218">
+        <v>1.18</v>
+      </c>
+      <c r="X218">
+        <v>15</v>
+      </c>
+      <c r="Y218">
+        <v>1.03</v>
+      </c>
+      <c r="Z218">
+        <v>2.3</v>
+      </c>
+      <c r="AA218">
+        <v>2.8</v>
+      </c>
+      <c r="AB218">
+        <v>3.4</v>
+      </c>
+      <c r="AC218">
+        <v>1.12</v>
+      </c>
+      <c r="AD218">
+        <v>6</v>
+      </c>
+      <c r="AE218">
+        <v>1.67</v>
+      </c>
+      <c r="AF218">
+        <v>2.2</v>
+      </c>
+      <c r="AG218">
+        <v>2.9</v>
+      </c>
+      <c r="AH218">
+        <v>1.36</v>
+      </c>
+      <c r="AI218">
+        <v>2.5</v>
+      </c>
+      <c r="AJ218">
+        <v>1.5</v>
+      </c>
+      <c r="AK218">
+        <v>1.25</v>
+      </c>
+      <c r="AL218">
+        <v>1.33</v>
+      </c>
+      <c r="AM218">
+        <v>1.63</v>
+      </c>
+      <c r="AN218">
+        <v>1.78</v>
+      </c>
+      <c r="AO218">
+        <v>0.22</v>
+      </c>
+      <c r="AP218">
+        <v>1.9</v>
+      </c>
+      <c r="AQ218">
+        <v>0.2</v>
+      </c>
+      <c r="AR218">
+        <v>1.15</v>
+      </c>
+      <c r="AS218">
+        <v>1.03</v>
+      </c>
+      <c r="AT218">
+        <v>2.18</v>
+      </c>
+      <c r="AU218">
+        <v>5</v>
+      </c>
+      <c r="AV218">
+        <v>3</v>
+      </c>
+      <c r="AW218">
+        <v>4</v>
+      </c>
+      <c r="AX218">
+        <v>7</v>
+      </c>
+      <c r="AY218">
+        <v>11</v>
+      </c>
+      <c r="AZ218">
+        <v>13</v>
+      </c>
+      <c r="BA218">
+        <v>5</v>
+      </c>
+      <c r="BB218">
+        <v>4</v>
+      </c>
+      <c r="BC218">
+        <v>9</v>
+      </c>
+      <c r="BD218">
+        <v>1.56</v>
+      </c>
+      <c r="BE218">
+        <v>6.75</v>
+      </c>
+      <c r="BF218">
+        <v>2.65</v>
+      </c>
+      <c r="BG218">
+        <v>1.38</v>
+      </c>
+      <c r="BH218">
+        <v>2.7</v>
+      </c>
+      <c r="BI218">
+        <v>1.64</v>
+      </c>
+      <c r="BJ218">
+        <v>2.06</v>
+      </c>
+      <c r="BK218">
+        <v>2.02</v>
+      </c>
+      <c r="BL218">
+        <v>1.66</v>
+      </c>
+      <c r="BM218">
+        <v>2.63</v>
+      </c>
+      <c r="BN218">
+        <v>1.41</v>
+      </c>
+      <c r="BO218">
+        <v>3.4</v>
+      </c>
+      <c r="BP218">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="219" spans="1:68">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>7728416</v>
+      </c>
+      <c r="C219" t="s">
+        <v>68</v>
+      </c>
+      <c r="D219" t="s">
+        <v>69</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45645.71875</v>
+      </c>
+      <c r="F219">
+        <v>20</v>
+      </c>
+      <c r="G219" t="s">
+        <v>75</v>
+      </c>
+      <c r="H219" t="s">
+        <v>86</v>
+      </c>
+      <c r="I219">
+        <v>3</v>
+      </c>
+      <c r="J219">
+        <v>1</v>
+      </c>
+      <c r="K219">
+        <v>4</v>
+      </c>
+      <c r="L219">
+        <v>5</v>
+      </c>
+      <c r="M219">
+        <v>1</v>
+      </c>
+      <c r="N219">
+        <v>6</v>
+      </c>
+      <c r="O219" t="s">
+        <v>240</v>
+      </c>
+      <c r="P219" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q219">
+        <v>2.63</v>
+      </c>
+      <c r="R219">
+        <v>2.3</v>
+      </c>
+      <c r="S219">
+        <v>3.75</v>
+      </c>
+      <c r="T219">
+        <v>1.33</v>
+      </c>
+      <c r="U219">
+        <v>3.25</v>
+      </c>
+      <c r="V219">
+        <v>2.63</v>
+      </c>
+      <c r="W219">
+        <v>1.44</v>
+      </c>
+      <c r="X219">
+        <v>6.5</v>
+      </c>
+      <c r="Y219">
+        <v>1.11</v>
+      </c>
+      <c r="Z219">
+        <v>2.05</v>
+      </c>
+      <c r="AA219">
+        <v>3.5</v>
+      </c>
+      <c r="AB219">
+        <v>3.25</v>
+      </c>
+      <c r="AC219">
+        <v>1.04</v>
+      </c>
+      <c r="AD219">
+        <v>10</v>
+      </c>
+      <c r="AE219">
+        <v>1.22</v>
+      </c>
+      <c r="AF219">
+        <v>4</v>
+      </c>
+      <c r="AG219">
+        <v>1.69</v>
+      </c>
+      <c r="AH219">
+        <v>2.17</v>
+      </c>
+      <c r="AI219">
+        <v>1.62</v>
+      </c>
+      <c r="AJ219">
+        <v>2.2</v>
+      </c>
+      <c r="AK219">
+        <v>1.3</v>
+      </c>
+      <c r="AL219">
+        <v>1.22</v>
+      </c>
+      <c r="AM219">
+        <v>1.78</v>
+      </c>
+      <c r="AN219">
+        <v>1.11</v>
+      </c>
+      <c r="AO219">
+        <v>1.67</v>
+      </c>
+      <c r="AP219">
+        <v>1.3</v>
+      </c>
+      <c r="AQ219">
+        <v>1.5</v>
+      </c>
+      <c r="AR219">
+        <v>1.41</v>
+      </c>
+      <c r="AS219">
+        <v>1.37</v>
+      </c>
+      <c r="AT219">
+        <v>2.78</v>
+      </c>
+      <c r="AU219">
+        <v>12</v>
+      </c>
+      <c r="AV219">
+        <v>4</v>
+      </c>
+      <c r="AW219">
+        <v>5</v>
+      </c>
+      <c r="AX219">
+        <v>4</v>
+      </c>
+      <c r="AY219">
+        <v>18</v>
+      </c>
+      <c r="AZ219">
+        <v>11</v>
+      </c>
+      <c r="BA219">
+        <v>7</v>
+      </c>
+      <c r="BB219">
+        <v>0</v>
+      </c>
+      <c r="BC219">
+        <v>7</v>
+      </c>
+      <c r="BD219">
+        <v>1.67</v>
+      </c>
+      <c r="BE219">
+        <v>6.75</v>
+      </c>
+      <c r="BF219">
+        <v>2.43</v>
+      </c>
+      <c r="BG219">
+        <v>1.17</v>
+      </c>
+      <c r="BH219">
+        <v>4.1</v>
+      </c>
+      <c r="BI219">
+        <v>1.32</v>
+      </c>
+      <c r="BJ219">
+        <v>3</v>
+      </c>
+      <c r="BK219">
+        <v>1.53</v>
+      </c>
+      <c r="BL219">
+        <v>2.28</v>
+      </c>
+      <c r="BM219">
+        <v>1.83</v>
+      </c>
+      <c r="BN219">
+        <v>1.83</v>
+      </c>
+      <c r="BO219">
+        <v>2.28</v>
+      </c>
+      <c r="BP219">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="325">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1350,7 +1350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP219"/>
+  <dimension ref="A1:BP220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1690,7 +1690,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ2">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -5807,7 +5807,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ22">
         <v>1.45</v>
@@ -6840,7 +6840,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ27">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR27">
         <v>1.25</v>
@@ -9721,7 +9721,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ41">
         <v>1.2</v>
@@ -11784,7 +11784,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ51">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR51">
         <v>0.76</v>
@@ -13226,7 +13226,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ58">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR58">
         <v>1.22</v>
@@ -14253,7 +14253,7 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -20021,7 +20021,7 @@
         <v>0.33</v>
       </c>
       <c r="AP91">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ91">
         <v>1.11</v>
@@ -20642,7 +20642,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ94">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR94">
         <v>1.16</v>
@@ -25377,7 +25377,7 @@
         <v>0.75</v>
       </c>
       <c r="AP117">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ117">
         <v>1.11</v>
@@ -25586,7 +25586,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ118">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR118">
         <v>1.69</v>
@@ -29085,7 +29085,7 @@
         <v>0.83</v>
       </c>
       <c r="AP135">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ135">
         <v>1.22</v>
@@ -29706,7 +29706,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ138">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR138">
         <v>1.52</v>
@@ -32590,7 +32590,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ152">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR152">
         <v>1.54</v>
@@ -34235,7 +34235,7 @@
         <v>1.17</v>
       </c>
       <c r="AP160">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ160">
         <v>1.3</v>
@@ -35059,7 +35059,7 @@
         <v>1.38</v>
       </c>
       <c r="AP164">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ164">
         <v>1.64</v>
@@ -37946,7 +37946,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ178">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR178">
         <v>1.71</v>
@@ -42063,7 +42063,7 @@
         <v>1.25</v>
       </c>
       <c r="AP198">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ198">
         <v>1.1</v>
@@ -42684,7 +42684,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ201">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR201">
         <v>1.46</v>
@@ -46468,6 +46468,212 @@
       </c>
       <c r="BP219">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="220" spans="1:68">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>7728424</v>
+      </c>
+      <c r="C220" t="s">
+        <v>68</v>
+      </c>
+      <c r="D220" t="s">
+        <v>69</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45646.6875</v>
+      </c>
+      <c r="F220">
+        <v>21</v>
+      </c>
+      <c r="G220" t="s">
+        <v>87</v>
+      </c>
+      <c r="H220" t="s">
+        <v>85</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>0</v>
+      </c>
+      <c r="M220">
+        <v>0</v>
+      </c>
+      <c r="N220">
+        <v>0</v>
+      </c>
+      <c r="O220" t="s">
+        <v>94</v>
+      </c>
+      <c r="P220" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q220">
+        <v>4</v>
+      </c>
+      <c r="R220">
+        <v>2.05</v>
+      </c>
+      <c r="S220">
+        <v>2.88</v>
+      </c>
+      <c r="T220">
+        <v>1.44</v>
+      </c>
+      <c r="U220">
+        <v>2.63</v>
+      </c>
+      <c r="V220">
+        <v>3.25</v>
+      </c>
+      <c r="W220">
+        <v>1.33</v>
+      </c>
+      <c r="X220">
+        <v>9</v>
+      </c>
+      <c r="Y220">
+        <v>1.07</v>
+      </c>
+      <c r="Z220">
+        <v>3.2</v>
+      </c>
+      <c r="AA220">
+        <v>3.1</v>
+      </c>
+      <c r="AB220">
+        <v>2.1</v>
+      </c>
+      <c r="AC220">
+        <v>1.07</v>
+      </c>
+      <c r="AD220">
+        <v>8</v>
+      </c>
+      <c r="AE220">
+        <v>1.36</v>
+      </c>
+      <c r="AF220">
+        <v>3</v>
+      </c>
+      <c r="AG220">
+        <v>2</v>
+      </c>
+      <c r="AH220">
+        <v>1.67</v>
+      </c>
+      <c r="AI220">
+        <v>1.83</v>
+      </c>
+      <c r="AJ220">
+        <v>1.83</v>
+      </c>
+      <c r="AK220">
+        <v>1.66</v>
+      </c>
+      <c r="AL220">
+        <v>1.28</v>
+      </c>
+      <c r="AM220">
+        <v>1.33</v>
+      </c>
+      <c r="AN220">
+        <v>0.78</v>
+      </c>
+      <c r="AO220">
+        <v>1.1</v>
+      </c>
+      <c r="AP220">
+        <v>0.8</v>
+      </c>
+      <c r="AQ220">
+        <v>1.09</v>
+      </c>
+      <c r="AR220">
+        <v>1.23</v>
+      </c>
+      <c r="AS220">
+        <v>1.26</v>
+      </c>
+      <c r="AT220">
+        <v>2.49</v>
+      </c>
+      <c r="AU220">
+        <v>0</v>
+      </c>
+      <c r="AV220">
+        <v>5</v>
+      </c>
+      <c r="AW220">
+        <v>7</v>
+      </c>
+      <c r="AX220">
+        <v>7</v>
+      </c>
+      <c r="AY220">
+        <v>11</v>
+      </c>
+      <c r="AZ220">
+        <v>13</v>
+      </c>
+      <c r="BA220">
+        <v>3</v>
+      </c>
+      <c r="BB220">
+        <v>4</v>
+      </c>
+      <c r="BC220">
+        <v>7</v>
+      </c>
+      <c r="BD220">
+        <v>2.3</v>
+      </c>
+      <c r="BE220">
+        <v>6.4</v>
+      </c>
+      <c r="BF220">
+        <v>1.76</v>
+      </c>
+      <c r="BG220">
+        <v>1.36</v>
+      </c>
+      <c r="BH220">
+        <v>2.8</v>
+      </c>
+      <c r="BI220">
+        <v>1.61</v>
+      </c>
+      <c r="BJ220">
+        <v>2.12</v>
+      </c>
+      <c r="BK220">
+        <v>2</v>
+      </c>
+      <c r="BL220">
+        <v>1.68</v>
+      </c>
+      <c r="BM220">
+        <v>2.55</v>
+      </c>
+      <c r="BN220">
+        <v>1.43</v>
+      </c>
+      <c r="BO220">
+        <v>3.4</v>
+      </c>
+      <c r="BP220">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="328">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -739,6 +739,12 @@
     <t>['36', '39', '45', '49', '52']</t>
   </si>
   <si>
+    <t>['44', '61']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -752,9 +758,6 @@
   </si>
   <si>
     <t>['65', '71']</t>
-  </si>
-  <si>
-    <t>['63']</t>
   </si>
   <si>
     <t>['27', '56']</t>
@@ -989,6 +992,12 @@
   </si>
   <si>
     <t>['33', '51', '57', '63']</t>
+  </si>
+  <si>
+    <t>['6', '21', '45+5']</t>
+  </si>
+  <si>
+    <t>['46', '86', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP220"/>
+  <dimension ref="A1:BP224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1609,7 +1618,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1896,7 +1905,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ3">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2021,7 +2030,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -2305,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ5">
         <v>1.5</v>
@@ -2514,7 +2523,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2639,7 +2648,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2845,7 +2854,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2923,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ8">
         <v>1.2</v>
@@ -3051,7 +3060,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -3669,7 +3678,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3875,7 +3884,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -4081,7 +4090,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4365,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ15">
         <v>0.5</v>
@@ -4574,7 +4583,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ16">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR16">
         <v>1.33</v>
@@ -5111,7 +5120,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5729,7 +5738,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5935,7 +5944,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6141,7 +6150,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6347,7 +6356,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6425,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ25">
         <v>2.2</v>
@@ -6553,7 +6562,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6759,7 +6768,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -7171,7 +7180,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7458,7 +7467,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ30">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>1.73</v>
@@ -7789,7 +7798,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7995,7 +8004,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8073,7 +8082,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ33">
         <v>1.2</v>
@@ -8282,7 +8291,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ34">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AR34">
         <v>1.17</v>
@@ -8407,7 +8416,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -9025,7 +9034,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9103,7 +9112,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ38">
         <v>1.27</v>
@@ -9312,7 +9321,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ39">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>1.32</v>
@@ -10133,7 +10142,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ43">
         <v>1.11</v>
@@ -10261,7 +10270,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10879,7 +10888,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -11163,7 +11172,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ48">
         <v>0.2</v>
@@ -11987,7 +11996,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ52">
         <v>0.55</v>
@@ -12402,7 +12411,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ54">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR54">
         <v>1.24</v>
@@ -12527,7 +12536,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12608,7 +12617,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ55">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR55">
         <v>1.39</v>
@@ -12733,7 +12742,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12939,7 +12948,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -13020,7 +13029,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ57">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR57">
         <v>1.77</v>
@@ -13145,7 +13154,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13557,7 +13566,7 @@
         <v>94</v>
       </c>
       <c r="P60" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13841,7 +13850,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ61">
         <v>1.2</v>
@@ -14175,7 +14184,7 @@
         <v>97</v>
       </c>
       <c r="P63" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14793,7 +14802,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15080,7 +15089,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ67">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AR67">
         <v>1.16</v>
@@ -15205,7 +15214,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15411,7 +15420,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15901,7 +15910,7 @@
         <v>1.75</v>
       </c>
       <c r="AP71">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ71">
         <v>1.45</v>
@@ -16029,7 +16038,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16235,7 +16244,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16441,7 +16450,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16522,7 +16531,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ74">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR74">
         <v>1.54</v>
@@ -16647,7 +16656,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -16934,7 +16943,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ76">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR76">
         <v>1.57</v>
@@ -17137,7 +17146,7 @@
         <v>1.67</v>
       </c>
       <c r="AP77">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ77">
         <v>0.5</v>
@@ -17265,7 +17274,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17471,7 +17480,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q79">
         <v>3.85</v>
@@ -17883,7 +17892,7 @@
         <v>94</v>
       </c>
       <c r="P81" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q81">
         <v>3.55</v>
@@ -17964,7 +17973,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ81">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR81">
         <v>1.07</v>
@@ -18089,7 +18098,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q82">
         <v>2.65</v>
@@ -18167,7 +18176,7 @@
         <v>0.67</v>
       </c>
       <c r="AP82">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ82">
         <v>1.1</v>
@@ -18295,7 +18304,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18373,7 +18382,7 @@
         <v>3</v>
       </c>
       <c r="AP83">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ83">
         <v>2.2</v>
@@ -18994,7 +19003,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ86">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR86">
         <v>1.47</v>
@@ -19119,7 +19128,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19531,7 +19540,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19612,7 +19621,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ89">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AR89">
         <v>1.46</v>
@@ -19737,7 +19746,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20024,7 +20033,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ91">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR91">
         <v>1.18</v>
@@ -20149,7 +20158,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20230,7 +20239,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ92">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR92">
         <v>1.42</v>
@@ -20433,7 +20442,7 @@
         <v>1.33</v>
       </c>
       <c r="AP93">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ93">
         <v>0.5</v>
@@ -20561,7 +20570,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -20767,7 +20776,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -20845,7 +20854,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ95">
         <v>1.64</v>
@@ -21260,7 +21269,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ97">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AR97">
         <v>1.7</v>
@@ -21797,7 +21806,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -21875,7 +21884,7 @@
         <v>2.25</v>
       </c>
       <c r="AP100">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ100">
         <v>1.5</v>
@@ -23239,7 +23248,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23857,7 +23866,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -23935,7 +23944,7 @@
         <v>0.8</v>
       </c>
       <c r="AP110">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ110">
         <v>1.64</v>
@@ -24269,7 +24278,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q112">
         <v>2.45</v>
@@ -24347,7 +24356,7 @@
         <v>1.25</v>
       </c>
       <c r="AP112">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ112">
         <v>1.22</v>
@@ -24475,7 +24484,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -24556,7 +24565,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ113">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR113">
         <v>1.63</v>
@@ -24759,7 +24768,7 @@
         <v>1.75</v>
       </c>
       <c r="AP114">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ114">
         <v>1</v>
@@ -24887,7 +24896,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q115">
         <v>3.45</v>
@@ -25174,7 +25183,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ116">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AR116">
         <v>1.47</v>
@@ -25711,7 +25720,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q119">
         <v>2.8</v>
@@ -25995,7 +26004,7 @@
         <v>1.4</v>
       </c>
       <c r="AP120">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ120">
         <v>1.3</v>
@@ -26204,7 +26213,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ121">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR121">
         <v>1.32</v>
@@ -26329,7 +26338,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26410,7 +26419,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ122">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR122">
         <v>1.4</v>
@@ -26741,7 +26750,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q124">
         <v>2.4</v>
@@ -27153,7 +27162,7 @@
         <v>179</v>
       </c>
       <c r="P126" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27231,7 +27240,7 @@
         <v>1.8</v>
       </c>
       <c r="AP126">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ126">
         <v>1.5</v>
@@ -27565,7 +27574,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27977,7 +27986,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q130">
         <v>3.25</v>
@@ -28183,7 +28192,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q131">
         <v>2.75</v>
@@ -28389,7 +28398,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28595,7 +28604,7 @@
         <v>106</v>
       </c>
       <c r="P133" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q133">
         <v>3.1</v>
@@ -28801,7 +28810,7 @@
         <v>94</v>
       </c>
       <c r="P134" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q134">
         <v>3.1</v>
@@ -28879,7 +28888,7 @@
         <v>0.8</v>
       </c>
       <c r="AP134">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ134">
         <v>1.11</v>
@@ -29007,7 +29016,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q135">
         <v>3.9</v>
@@ -29291,7 +29300,7 @@
         <v>1.4</v>
       </c>
       <c r="AP136">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ136">
         <v>1</v>
@@ -29497,10 +29506,10 @@
         <v>2.2</v>
       </c>
       <c r="AP137">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ137">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR137">
         <v>1.67</v>
@@ -29625,7 +29634,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -29909,7 +29918,7 @@
         <v>1.17</v>
       </c>
       <c r="AP139">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ139">
         <v>0.8</v>
@@ -30243,7 +30252,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q141">
         <v>2.62</v>
@@ -30449,7 +30458,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q142">
         <v>3.6</v>
@@ -30655,7 +30664,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q143">
         <v>3.75</v>
@@ -30861,7 +30870,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31273,7 +31282,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q146">
         <v>2.75</v>
@@ -31685,7 +31694,7 @@
         <v>97</v>
       </c>
       <c r="P148" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q148">
         <v>3.65</v>
@@ -32381,10 +32390,10 @@
         <v>1</v>
       </c>
       <c r="AP151">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ151">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR151">
         <v>1.43</v>
@@ -32715,7 +32724,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q153">
         <v>2.3</v>
@@ -33333,7 +33342,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -33411,10 +33420,10 @@
         <v>1.83</v>
       </c>
       <c r="AP156">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ156">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR156">
         <v>1.44</v>
@@ -33620,7 +33629,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ157">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AR157">
         <v>1.49</v>
@@ -33823,7 +33832,7 @@
         <v>0.33</v>
       </c>
       <c r="AP158">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ158">
         <v>0.2</v>
@@ -34441,10 +34450,10 @@
         <v>1</v>
       </c>
       <c r="AP161">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ161">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR161">
         <v>1.62</v>
@@ -34981,7 +34990,7 @@
         <v>206</v>
       </c>
       <c r="P164" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q164">
         <v>4.75</v>
@@ -35599,7 +35608,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -36011,7 +36020,7 @@
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q169">
         <v>2.88</v>
@@ -36629,7 +36638,7 @@
         <v>210</v>
       </c>
       <c r="P172" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -37122,7 +37131,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ174">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AR174">
         <v>1.76</v>
@@ -37247,7 +37256,7 @@
         <v>213</v>
       </c>
       <c r="P175" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q175">
         <v>2.3</v>
@@ -37328,7 +37337,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ175">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR175">
         <v>1.58</v>
@@ -37534,7 +37543,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ176">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR176">
         <v>1.6</v>
@@ -37659,7 +37668,7 @@
         <v>94</v>
       </c>
       <c r="P177" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q177">
         <v>2.5</v>
@@ -37737,7 +37746,7 @@
         <v>0.88</v>
       </c>
       <c r="AP177">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ177">
         <v>1.3</v>
@@ -37943,7 +37952,7 @@
         <v>1</v>
       </c>
       <c r="AP178">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ178">
         <v>1.09</v>
@@ -38071,7 +38080,7 @@
         <v>214</v>
       </c>
       <c r="P179" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q179">
         <v>2.4</v>
@@ -38152,7 +38161,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ179">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR179">
         <v>1.71</v>
@@ -38277,7 +38286,7 @@
         <v>215</v>
       </c>
       <c r="P180" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q180">
         <v>2.55</v>
@@ -38976,7 +38985,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ183">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR183">
         <v>1.63</v>
@@ -39101,7 +39110,7 @@
         <v>217</v>
       </c>
       <c r="P184" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -39388,7 +39397,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ185">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR185">
         <v>1.42</v>
@@ -39591,10 +39600,10 @@
         <v>0.13</v>
       </c>
       <c r="AP186">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ186">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AR186">
         <v>1.44</v>
@@ -39797,7 +39806,7 @@
         <v>0.75</v>
       </c>
       <c r="AP187">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ187">
         <v>0.55</v>
@@ -39925,7 +39934,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q188">
         <v>3.5</v>
@@ -40543,7 +40552,7 @@
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q191">
         <v>2.7</v>
@@ -40749,7 +40758,7 @@
         <v>223</v>
       </c>
       <c r="P192" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q192">
         <v>3.2</v>
@@ -40955,7 +40964,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q193">
         <v>4.33</v>
@@ -41161,7 +41170,7 @@
         <v>108</v>
       </c>
       <c r="P194" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q194">
         <v>3.75</v>
@@ -42397,7 +42406,7 @@
         <v>227</v>
       </c>
       <c r="P200" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q200">
         <v>2.38</v>
@@ -42478,7 +42487,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ200">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AR200">
         <v>1.61</v>
@@ -42809,7 +42818,7 @@
         <v>229</v>
       </c>
       <c r="P202" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q202">
         <v>1.95</v>
@@ -43221,7 +43230,7 @@
         <v>230</v>
       </c>
       <c r="P204" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q204">
         <v>3.25</v>
@@ -43299,7 +43308,7 @@
         <v>1.6</v>
       </c>
       <c r="AP204">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ204">
         <v>1.45</v>
@@ -43505,10 +43514,10 @@
         <v>1.75</v>
       </c>
       <c r="AP205">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ205">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR205">
         <v>1.69</v>
@@ -43633,7 +43642,7 @@
         <v>232</v>
       </c>
       <c r="P206" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q206">
         <v>2.25</v>
@@ -43711,10 +43720,10 @@
         <v>0.88</v>
       </c>
       <c r="AP206">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ206">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR206">
         <v>1.42</v>
@@ -43920,7 +43929,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ207">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR207">
         <v>1.45</v>
@@ -44045,7 +44054,7 @@
         <v>94</v>
       </c>
       <c r="P208" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44663,7 +44672,7 @@
         <v>234</v>
       </c>
       <c r="P211" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q211">
         <v>2.75</v>
@@ -44869,7 +44878,7 @@
         <v>235</v>
       </c>
       <c r="P212" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q212">
         <v>3.25</v>
@@ -44947,7 +44956,7 @@
         <v>1.1</v>
       </c>
       <c r="AP212">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ212">
         <v>1.27</v>
@@ -45075,7 +45084,7 @@
         <v>236</v>
       </c>
       <c r="P213" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q213">
         <v>4.2</v>
@@ -45487,7 +45496,7 @@
         <v>139</v>
       </c>
       <c r="P215" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q215">
         <v>3.6</v>
@@ -45693,7 +45702,7 @@
         <v>238</v>
       </c>
       <c r="P216" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q216">
         <v>2.62</v>
@@ -46674,6 +46683,830 @@
       </c>
       <c r="BP220">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="221" spans="1:68">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>7728423</v>
+      </c>
+      <c r="C221" t="s">
+        <v>68</v>
+      </c>
+      <c r="D221" t="s">
+        <v>69</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45647.41666666666</v>
+      </c>
+      <c r="F221">
+        <v>21</v>
+      </c>
+      <c r="G221" t="s">
+        <v>73</v>
+      </c>
+      <c r="H221" t="s">
+        <v>70</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>1</v>
+      </c>
+      <c r="L221">
+        <v>1</v>
+      </c>
+      <c r="M221">
+        <v>1</v>
+      </c>
+      <c r="N221">
+        <v>2</v>
+      </c>
+      <c r="O221" t="s">
+        <v>106</v>
+      </c>
+      <c r="P221" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q221">
+        <v>3.25</v>
+      </c>
+      <c r="R221">
+        <v>2</v>
+      </c>
+      <c r="S221">
+        <v>3.6</v>
+      </c>
+      <c r="T221">
+        <v>1.5</v>
+      </c>
+      <c r="U221">
+        <v>2.5</v>
+      </c>
+      <c r="V221">
+        <v>3.4</v>
+      </c>
+      <c r="W221">
+        <v>1.3</v>
+      </c>
+      <c r="X221">
+        <v>10</v>
+      </c>
+      <c r="Y221">
+        <v>1.06</v>
+      </c>
+      <c r="Z221">
+        <v>2.43</v>
+      </c>
+      <c r="AA221">
+        <v>2.83</v>
+      </c>
+      <c r="AB221">
+        <v>3.44</v>
+      </c>
+      <c r="AC221">
+        <v>1.07</v>
+      </c>
+      <c r="AD221">
+        <v>8</v>
+      </c>
+      <c r="AE221">
+        <v>1.38</v>
+      </c>
+      <c r="AF221">
+        <v>2.9</v>
+      </c>
+      <c r="AG221">
+        <v>2.2</v>
+      </c>
+      <c r="AH221">
+        <v>1.6</v>
+      </c>
+      <c r="AI221">
+        <v>1.91</v>
+      </c>
+      <c r="AJ221">
+        <v>1.8</v>
+      </c>
+      <c r="AK221">
+        <v>1.38</v>
+      </c>
+      <c r="AL221">
+        <v>1.28</v>
+      </c>
+      <c r="AM221">
+        <v>1.55</v>
+      </c>
+      <c r="AN221">
+        <v>2.2</v>
+      </c>
+      <c r="AO221">
+        <v>1.56</v>
+      </c>
+      <c r="AP221">
+        <v>2.09</v>
+      </c>
+      <c r="AQ221">
+        <v>1.5</v>
+      </c>
+      <c r="AR221">
+        <v>1.48</v>
+      </c>
+      <c r="AS221">
+        <v>1.1</v>
+      </c>
+      <c r="AT221">
+        <v>2.58</v>
+      </c>
+      <c r="AU221">
+        <v>7</v>
+      </c>
+      <c r="AV221">
+        <v>5</v>
+      </c>
+      <c r="AW221">
+        <v>5</v>
+      </c>
+      <c r="AX221">
+        <v>4</v>
+      </c>
+      <c r="AY221">
+        <v>15</v>
+      </c>
+      <c r="AZ221">
+        <v>10</v>
+      </c>
+      <c r="BA221">
+        <v>9</v>
+      </c>
+      <c r="BB221">
+        <v>6</v>
+      </c>
+      <c r="BC221">
+        <v>15</v>
+      </c>
+      <c r="BD221">
+        <v>1.7</v>
+      </c>
+      <c r="BE221">
+        <v>6.75</v>
+      </c>
+      <c r="BF221">
+        <v>2.4</v>
+      </c>
+      <c r="BG221">
+        <v>1.4</v>
+      </c>
+      <c r="BH221">
+        <v>2.65</v>
+      </c>
+      <c r="BI221">
+        <v>1.68</v>
+      </c>
+      <c r="BJ221">
+        <v>2.02</v>
+      </c>
+      <c r="BK221">
+        <v>2.08</v>
+      </c>
+      <c r="BL221">
+        <v>1.63</v>
+      </c>
+      <c r="BM221">
+        <v>2.65</v>
+      </c>
+      <c r="BN221">
+        <v>1.4</v>
+      </c>
+      <c r="BO221">
+        <v>3.55</v>
+      </c>
+      <c r="BP221">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="222" spans="1:68">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>7728425</v>
+      </c>
+      <c r="C222" t="s">
+        <v>68</v>
+      </c>
+      <c r="D222" t="s">
+        <v>69</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45647.51041666666</v>
+      </c>
+      <c r="F222">
+        <v>21</v>
+      </c>
+      <c r="G222" t="s">
+        <v>89</v>
+      </c>
+      <c r="H222" t="s">
+        <v>88</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <v>3</v>
+      </c>
+      <c r="K222">
+        <v>4</v>
+      </c>
+      <c r="L222">
+        <v>2</v>
+      </c>
+      <c r="M222">
+        <v>3</v>
+      </c>
+      <c r="N222">
+        <v>5</v>
+      </c>
+      <c r="O222" t="s">
+        <v>241</v>
+      </c>
+      <c r="P222" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q222">
+        <v>2.25</v>
+      </c>
+      <c r="R222">
+        <v>2.1</v>
+      </c>
+      <c r="S222">
+        <v>6</v>
+      </c>
+      <c r="T222">
+        <v>1.44</v>
+      </c>
+      <c r="U222">
+        <v>2.63</v>
+      </c>
+      <c r="V222">
+        <v>3.25</v>
+      </c>
+      <c r="W222">
+        <v>1.33</v>
+      </c>
+      <c r="X222">
+        <v>9</v>
+      </c>
+      <c r="Y222">
+        <v>1.07</v>
+      </c>
+      <c r="Z222">
+        <v>1.51</v>
+      </c>
+      <c r="AA222">
+        <v>4.61</v>
+      </c>
+      <c r="AB222">
+        <v>4.32</v>
+      </c>
+      <c r="AC222">
+        <v>1.06</v>
+      </c>
+      <c r="AD222">
+        <v>8.5</v>
+      </c>
+      <c r="AE222">
+        <v>1.33</v>
+      </c>
+      <c r="AF222">
+        <v>3.1</v>
+      </c>
+      <c r="AG222">
+        <v>2.03</v>
+      </c>
+      <c r="AH222">
+        <v>1.7</v>
+      </c>
+      <c r="AI222">
+        <v>2.1</v>
+      </c>
+      <c r="AJ222">
+        <v>1.67</v>
+      </c>
+      <c r="AK222">
+        <v>1.11</v>
+      </c>
+      <c r="AL222">
+        <v>1.2</v>
+      </c>
+      <c r="AM222">
+        <v>2.2</v>
+      </c>
+      <c r="AN222">
+        <v>2.33</v>
+      </c>
+      <c r="AO222">
+        <v>0.2</v>
+      </c>
+      <c r="AP222">
+        <v>2.1</v>
+      </c>
+      <c r="AQ222">
+        <v>0.45</v>
+      </c>
+      <c r="AR222">
+        <v>1.64</v>
+      </c>
+      <c r="AS222">
+        <v>1.3</v>
+      </c>
+      <c r="AT222">
+        <v>2.94</v>
+      </c>
+      <c r="AU222">
+        <v>6</v>
+      </c>
+      <c r="AV222">
+        <v>8</v>
+      </c>
+      <c r="AW222">
+        <v>4</v>
+      </c>
+      <c r="AX222">
+        <v>4</v>
+      </c>
+      <c r="AY222">
+        <v>16</v>
+      </c>
+      <c r="AZ222">
+        <v>14</v>
+      </c>
+      <c r="BA222">
+        <v>7</v>
+      </c>
+      <c r="BB222">
+        <v>2</v>
+      </c>
+      <c r="BC222">
+        <v>9</v>
+      </c>
+      <c r="BD222">
+        <v>1.49</v>
+      </c>
+      <c r="BE222">
+        <v>6.75</v>
+      </c>
+      <c r="BF222">
+        <v>2.9</v>
+      </c>
+      <c r="BG222">
+        <v>1.36</v>
+      </c>
+      <c r="BH222">
+        <v>2.8</v>
+      </c>
+      <c r="BI222">
+        <v>1.6</v>
+      </c>
+      <c r="BJ222">
+        <v>2.14</v>
+      </c>
+      <c r="BK222">
+        <v>1.98</v>
+      </c>
+      <c r="BL222">
+        <v>1.71</v>
+      </c>
+      <c r="BM222">
+        <v>2.5</v>
+      </c>
+      <c r="BN222">
+        <v>1.44</v>
+      </c>
+      <c r="BO222">
+        <v>3.3</v>
+      </c>
+      <c r="BP222">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="223" spans="1:68">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>7728429</v>
+      </c>
+      <c r="C223" t="s">
+        <v>68</v>
+      </c>
+      <c r="D223" t="s">
+        <v>69</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45647.60416666666</v>
+      </c>
+      <c r="F223">
+        <v>21</v>
+      </c>
+      <c r="G223" t="s">
+        <v>76</v>
+      </c>
+      <c r="H223" t="s">
+        <v>83</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>1</v>
+      </c>
+      <c r="M223">
+        <v>3</v>
+      </c>
+      <c r="N223">
+        <v>4</v>
+      </c>
+      <c r="O223" t="s">
+        <v>117</v>
+      </c>
+      <c r="P223" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q223">
+        <v>2.5</v>
+      </c>
+      <c r="R223">
+        <v>2</v>
+      </c>
+      <c r="S223">
+        <v>5.5</v>
+      </c>
+      <c r="T223">
+        <v>1.5</v>
+      </c>
+      <c r="U223">
+        <v>2.5</v>
+      </c>
+      <c r="V223">
+        <v>3.5</v>
+      </c>
+      <c r="W223">
+        <v>1.29</v>
+      </c>
+      <c r="X223">
+        <v>11</v>
+      </c>
+      <c r="Y223">
+        <v>1.05</v>
+      </c>
+      <c r="Z223">
+        <v>2.11</v>
+      </c>
+      <c r="AA223">
+        <v>2.36</v>
+      </c>
+      <c r="AB223">
+        <v>4.77</v>
+      </c>
+      <c r="AC223">
+        <v>1.09</v>
+      </c>
+      <c r="AD223">
+        <v>7</v>
+      </c>
+      <c r="AE223">
+        <v>1.44</v>
+      </c>
+      <c r="AF223">
+        <v>2.7</v>
+      </c>
+      <c r="AG223">
+        <v>2.3</v>
+      </c>
+      <c r="AH223">
+        <v>1.55</v>
+      </c>
+      <c r="AI223">
+        <v>2.2</v>
+      </c>
+      <c r="AJ223">
+        <v>1.62</v>
+      </c>
+      <c r="AK223">
+        <v>1.12</v>
+      </c>
+      <c r="AL223">
+        <v>1.25</v>
+      </c>
+      <c r="AM223">
+        <v>2</v>
+      </c>
+      <c r="AN223">
+        <v>1.9</v>
+      </c>
+      <c r="AO223">
+        <v>0.8</v>
+      </c>
+      <c r="AP223">
+        <v>1.73</v>
+      </c>
+      <c r="AQ223">
+        <v>1</v>
+      </c>
+      <c r="AR223">
+        <v>1.5</v>
+      </c>
+      <c r="AS223">
+        <v>1.1</v>
+      </c>
+      <c r="AT223">
+        <v>2.6</v>
+      </c>
+      <c r="AU223">
+        <v>9</v>
+      </c>
+      <c r="AV223">
+        <v>5</v>
+      </c>
+      <c r="AW223">
+        <v>8</v>
+      </c>
+      <c r="AX223">
+        <v>1</v>
+      </c>
+      <c r="AY223">
+        <v>24</v>
+      </c>
+      <c r="AZ223">
+        <v>8</v>
+      </c>
+      <c r="BA223">
+        <v>10</v>
+      </c>
+      <c r="BB223">
+        <v>2</v>
+      </c>
+      <c r="BC223">
+        <v>12</v>
+      </c>
+      <c r="BD223">
+        <v>1.53</v>
+      </c>
+      <c r="BE223">
+        <v>6.75</v>
+      </c>
+      <c r="BF223">
+        <v>2.8</v>
+      </c>
+      <c r="BG223">
+        <v>1.38</v>
+      </c>
+      <c r="BH223">
+        <v>2.7</v>
+      </c>
+      <c r="BI223">
+        <v>1.65</v>
+      </c>
+      <c r="BJ223">
+        <v>2.05</v>
+      </c>
+      <c r="BK223">
+        <v>2.04</v>
+      </c>
+      <c r="BL223">
+        <v>1.65</v>
+      </c>
+      <c r="BM223">
+        <v>2.63</v>
+      </c>
+      <c r="BN223">
+        <v>1.4</v>
+      </c>
+      <c r="BO223">
+        <v>3.45</v>
+      </c>
+      <c r="BP223">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="224" spans="1:68">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>7728427</v>
+      </c>
+      <c r="C224" t="s">
+        <v>68</v>
+      </c>
+      <c r="D224" t="s">
+        <v>69</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45647.60416666666</v>
+      </c>
+      <c r="F224">
+        <v>21</v>
+      </c>
+      <c r="G224" t="s">
+        <v>91</v>
+      </c>
+      <c r="H224" t="s">
+        <v>74</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>1</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>1</v>
+      </c>
+      <c r="O224" t="s">
+        <v>242</v>
+      </c>
+      <c r="P224" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q224">
+        <v>2.3</v>
+      </c>
+      <c r="R224">
+        <v>2.05</v>
+      </c>
+      <c r="S224">
+        <v>6.5</v>
+      </c>
+      <c r="T224">
+        <v>1.5</v>
+      </c>
+      <c r="U224">
+        <v>2.5</v>
+      </c>
+      <c r="V224">
+        <v>3.4</v>
+      </c>
+      <c r="W224">
+        <v>1.3</v>
+      </c>
+      <c r="X224">
+        <v>10</v>
+      </c>
+      <c r="Y224">
+        <v>1.06</v>
+      </c>
+      <c r="Z224">
+        <v>1.95</v>
+      </c>
+      <c r="AA224">
+        <v>2.49</v>
+      </c>
+      <c r="AB224">
+        <v>5.15</v>
+      </c>
+      <c r="AC224">
+        <v>1.08</v>
+      </c>
+      <c r="AD224">
+        <v>7.5</v>
+      </c>
+      <c r="AE224">
+        <v>1.42</v>
+      </c>
+      <c r="AF224">
+        <v>2.75</v>
+      </c>
+      <c r="AG224">
+        <v>2.2</v>
+      </c>
+      <c r="AH224">
+        <v>1.6</v>
+      </c>
+      <c r="AI224">
+        <v>2.2</v>
+      </c>
+      <c r="AJ224">
+        <v>1.62</v>
+      </c>
+      <c r="AK224">
+        <v>1.1</v>
+      </c>
+      <c r="AL224">
+        <v>1.22</v>
+      </c>
+      <c r="AM224">
+        <v>2.25</v>
+      </c>
+      <c r="AN224">
+        <v>1.11</v>
+      </c>
+      <c r="AO224">
+        <v>1.11</v>
+      </c>
+      <c r="AP224">
+        <v>1.3</v>
+      </c>
+      <c r="AQ224">
+        <v>1</v>
+      </c>
+      <c r="AR224">
+        <v>1.71</v>
+      </c>
+      <c r="AS224">
+        <v>0.9</v>
+      </c>
+      <c r="AT224">
+        <v>2.61</v>
+      </c>
+      <c r="AU224">
+        <v>5</v>
+      </c>
+      <c r="AV224">
+        <v>2</v>
+      </c>
+      <c r="AW224">
+        <v>6</v>
+      </c>
+      <c r="AX224">
+        <v>1</v>
+      </c>
+      <c r="AY224">
+        <v>14</v>
+      </c>
+      <c r="AZ224">
+        <v>6</v>
+      </c>
+      <c r="BA224">
+        <v>7</v>
+      </c>
+      <c r="BB224">
+        <v>2</v>
+      </c>
+      <c r="BC224">
+        <v>9</v>
+      </c>
+      <c r="BD224">
+        <v>1.49</v>
+      </c>
+      <c r="BE224">
+        <v>7</v>
+      </c>
+      <c r="BF224">
+        <v>2.9</v>
+      </c>
+      <c r="BG224">
+        <v>1.33</v>
+      </c>
+      <c r="BH224">
+        <v>2.95</v>
+      </c>
+      <c r="BI224">
+        <v>1.56</v>
+      </c>
+      <c r="BJ224">
+        <v>2.2</v>
+      </c>
+      <c r="BK224">
+        <v>1.9</v>
+      </c>
+      <c r="BL224">
+        <v>1.76</v>
+      </c>
+      <c r="BM224">
+        <v>2.4</v>
+      </c>
+      <c r="BN224">
+        <v>1.47</v>
+      </c>
+      <c r="BO224">
+        <v>3.15</v>
+      </c>
+      <c r="BP224">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="334">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -745,6 +745,12 @@
     <t>['63']</t>
   </si>
   <si>
+    <t>['62', '70']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
     <t>['42', '45+3']</t>
   </si>
   <si>
@@ -998,6 +1004,18 @@
   </si>
   <si>
     <t>['46', '86', '90+4']</t>
+  </si>
+  <si>
+    <t>['27', '45+1']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['36', '40', '55', '63']</t>
+  </si>
+  <si>
+    <t>['45']</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP224"/>
+  <dimension ref="A1:BP230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1618,7 +1636,7 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -2030,7 +2048,7 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -2648,7 +2666,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2726,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ7">
         <v>1.27</v>
@@ -2854,7 +2872,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -3060,7 +3078,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -3138,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ9">
         <v>1.64</v>
@@ -3344,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ10">
         <v>0.55</v>
@@ -3553,7 +3571,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ11">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3759,7 +3777,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3884,7 +3902,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q13">
         <v>3.03</v>
@@ -3962,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ13">
         <v>0.5</v>
@@ -4090,7 +4108,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4377,7 +4395,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ15">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR15">
         <v>1.13</v>
@@ -4786,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -4995,7 +5013,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ18">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5120,7 +5138,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5407,7 +5425,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ20">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5610,7 +5628,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ21">
         <v>1.27</v>
@@ -5738,7 +5756,7 @@
         <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5944,7 +5962,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6150,7 +6168,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6231,7 +6249,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ24">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR24">
         <v>2.51</v>
@@ -6356,7 +6374,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6562,7 +6580,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6643,7 +6661,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ26">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -6768,7 +6786,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -7052,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ28">
         <v>1.1</v>
@@ -7180,7 +7198,7 @@
         <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q29">
         <v>3.25</v>
@@ -7258,7 +7276,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ29">
         <v>1.5</v>
@@ -7464,7 +7482,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7798,7 +7816,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -8004,7 +8022,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -8416,7 +8434,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -9034,7 +9052,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9527,7 +9545,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ40">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR40">
         <v>1.37</v>
@@ -10145,7 +10163,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ43">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR43">
         <v>0</v>
@@ -10270,7 +10288,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10348,7 +10366,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ44">
         <v>1</v>
@@ -10888,7 +10906,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10966,10 +10984,10 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR47">
         <v>1.72</v>
@@ -11175,7 +11193,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ48">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR48">
         <v>1.67</v>
@@ -11381,7 +11399,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ49">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR49">
         <v>1.38</v>
@@ -11584,7 +11602,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ50">
         <v>1.1</v>
@@ -12202,7 +12220,7 @@
         <v>2.33</v>
       </c>
       <c r="AP53">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ53">
         <v>1.45</v>
@@ -12536,7 +12554,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12742,7 +12760,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q56">
         <v>2.88</v>
@@ -12820,7 +12838,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ56">
         <v>1.5</v>
@@ -12948,7 +12966,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -13154,7 +13172,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q58">
         <v>3.15</v>
@@ -13566,7 +13584,7 @@
         <v>94</v>
       </c>
       <c r="P60" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13644,7 +13662,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ60">
         <v>0.8</v>
@@ -14184,7 +14202,7 @@
         <v>97</v>
       </c>
       <c r="P63" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14468,7 +14486,7 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ64">
         <v>2.2</v>
@@ -14677,7 +14695,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ65">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR65">
         <v>1.25</v>
@@ -14802,7 +14820,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14880,7 +14898,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ66">
         <v>0.5</v>
@@ -15214,7 +15232,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15420,7 +15438,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15501,7 +15519,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ69">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR69">
         <v>1.25</v>
@@ -15707,7 +15725,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ70">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR70">
         <v>1.04</v>
@@ -16038,7 +16056,7 @@
         <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16119,7 +16137,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ72">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR72">
         <v>1.35</v>
@@ -16244,7 +16262,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16322,7 +16340,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ73">
         <v>1.64</v>
@@ -16450,7 +16468,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q74">
         <v>2.93</v>
@@ -16528,7 +16546,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ74">
         <v>1.5</v>
@@ -16734,10 +16752,10 @@
         <v>0.33</v>
       </c>
       <c r="AP75">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ75">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR75">
         <v>1.58</v>
@@ -17274,7 +17292,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q78">
         <v>2.05</v>
@@ -17352,7 +17370,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ78">
         <v>0.55</v>
@@ -17480,7 +17498,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q79">
         <v>3.85</v>
@@ -17767,7 +17785,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ80">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR80">
         <v>1.23</v>
@@ -17892,7 +17910,7 @@
         <v>94</v>
       </c>
       <c r="P81" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q81">
         <v>3.55</v>
@@ -18098,7 +18116,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q82">
         <v>2.65</v>
@@ -18304,7 +18322,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18588,7 +18606,7 @@
         <v>2.33</v>
       </c>
       <c r="AP84">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ84">
         <v>0.8</v>
@@ -19000,7 +19018,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ86">
         <v>1</v>
@@ -19128,7 +19146,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19412,7 +19430,7 @@
         <v>1.25</v>
       </c>
       <c r="AP88">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ88">
         <v>1.27</v>
@@ -19540,7 +19558,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19746,7 +19764,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20158,7 +20176,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20445,7 +20463,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ93">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR93">
         <v>1.5</v>
@@ -20570,7 +20588,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q94">
         <v>3.25</v>
@@ -20776,7 +20794,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -21060,7 +21078,7 @@
         <v>1.75</v>
       </c>
       <c r="AP96">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ96">
         <v>1.2</v>
@@ -21472,10 +21490,10 @@
         <v>0.67</v>
       </c>
       <c r="AP98">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ98">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR98">
         <v>1.35</v>
@@ -21806,7 +21824,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -22502,10 +22520,10 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ103">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR103">
         <v>1.55</v>
@@ -22711,7 +22729,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ104">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR104">
         <v>1.71</v>
@@ -22914,7 +22932,7 @@
         <v>1.4</v>
       </c>
       <c r="AP105">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ105">
         <v>1.2</v>
@@ -23248,7 +23266,7 @@
         <v>94</v>
       </c>
       <c r="P107" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23535,7 +23553,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ108">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR108">
         <v>1.17</v>
@@ -23866,7 +23884,7 @@
         <v>108</v>
       </c>
       <c r="P110" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -24278,7 +24296,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q112">
         <v>2.45</v>
@@ -24359,7 +24377,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ112">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR112">
         <v>1.61</v>
@@ -24484,7 +24502,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q113">
         <v>2.65</v>
@@ -24562,7 +24580,7 @@
         <v>2</v>
       </c>
       <c r="AP113">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ113">
         <v>1.5</v>
@@ -24896,7 +24914,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q115">
         <v>3.45</v>
@@ -25180,7 +25198,7 @@
         <v>0.2</v>
       </c>
       <c r="AP116">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ116">
         <v>0.45</v>
@@ -25389,7 +25407,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ117">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR117">
         <v>1.16</v>
@@ -25592,7 +25610,7 @@
         <v>1.4</v>
       </c>
       <c r="AP118">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ118">
         <v>1.09</v>
@@ -25720,7 +25738,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q119">
         <v>2.8</v>
@@ -25798,7 +25816,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ119">
         <v>1.22</v>
@@ -26007,7 +26025,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ120">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR120">
         <v>1.6</v>
@@ -26338,7 +26356,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26416,7 +26434,7 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ122">
         <v>1</v>
@@ -26750,7 +26768,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q124">
         <v>2.4</v>
@@ -27037,7 +27055,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ125">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR125">
         <v>1.56</v>
@@ -27162,7 +27180,7 @@
         <v>179</v>
       </c>
       <c r="P126" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27574,7 +27592,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27652,7 +27670,7 @@
         <v>3</v>
       </c>
       <c r="AP128">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ128">
         <v>2.2</v>
@@ -27986,7 +28004,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q130">
         <v>3.25</v>
@@ -28192,7 +28210,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q131">
         <v>2.75</v>
@@ -28398,7 +28416,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28604,7 +28622,7 @@
         <v>106</v>
       </c>
       <c r="P133" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q133">
         <v>3.1</v>
@@ -28685,7 +28703,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ133">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR133">
         <v>1.15</v>
@@ -28810,7 +28828,7 @@
         <v>94</v>
       </c>
       <c r="P134" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q134">
         <v>3.1</v>
@@ -28891,7 +28909,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ134">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR134">
         <v>1.4</v>
@@ -29016,7 +29034,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q135">
         <v>3.9</v>
@@ -29634,7 +29652,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q138">
         <v>2.4</v>
@@ -29712,7 +29730,7 @@
         <v>1.17</v>
       </c>
       <c r="AP138">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ138">
         <v>1.09</v>
@@ -30127,7 +30145,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ140">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR140">
         <v>1.34</v>
@@ -30252,7 +30270,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q141">
         <v>2.62</v>
@@ -30458,7 +30476,7 @@
         <v>189</v>
       </c>
       <c r="P142" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q142">
         <v>3.6</v>
@@ -30664,7 +30682,7 @@
         <v>190</v>
       </c>
       <c r="P143" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q143">
         <v>3.75</v>
@@ -30870,7 +30888,7 @@
         <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -30951,7 +30969,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ144">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR144">
         <v>1.75</v>
@@ -31282,7 +31300,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q146">
         <v>2.75</v>
@@ -31566,7 +31584,7 @@
         <v>1</v>
       </c>
       <c r="AP147">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ147">
         <v>1.1</v>
@@ -31694,7 +31712,7 @@
         <v>97</v>
       </c>
       <c r="P148" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q148">
         <v>3.65</v>
@@ -32184,7 +32202,7 @@
         <v>0.83</v>
       </c>
       <c r="AP150">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ150">
         <v>0.5</v>
@@ -32724,7 +32742,7 @@
         <v>197</v>
       </c>
       <c r="P153" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q153">
         <v>2.3</v>
@@ -32802,10 +32820,10 @@
         <v>0.83</v>
       </c>
       <c r="AP153">
+        <v>1.27</v>
+      </c>
+      <c r="AQ153">
         <v>1.4</v>
-      </c>
-      <c r="AQ153">
-        <v>1.22</v>
       </c>
       <c r="AR153">
         <v>1.58</v>
@@ -33008,10 +33026,10 @@
         <v>1.17</v>
       </c>
       <c r="AP154">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ154">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR154">
         <v>1.67</v>
@@ -33214,7 +33232,7 @@
         <v>1</v>
       </c>
       <c r="AP155">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ155">
         <v>0.8</v>
@@ -33342,7 +33360,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -33835,7 +33853,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ158">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR158">
         <v>1.68</v>
@@ -34038,7 +34056,7 @@
         <v>1.14</v>
       </c>
       <c r="AP159">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ159">
         <v>1.22</v>
@@ -34247,7 +34265,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ160">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR160">
         <v>1.21</v>
@@ -34659,7 +34677,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ162">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR162">
         <v>1.47</v>
@@ -34990,7 +35008,7 @@
         <v>206</v>
       </c>
       <c r="P164" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q164">
         <v>4.75</v>
@@ -35480,7 +35498,7 @@
         <v>0.71</v>
       </c>
       <c r="AP166">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ166">
         <v>0.5</v>
@@ -35608,7 +35626,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -36020,7 +36038,7 @@
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q169">
         <v>2.88</v>
@@ -36101,7 +36119,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ169">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR169">
         <v>1.71</v>
@@ -36304,7 +36322,7 @@
         <v>1.29</v>
       </c>
       <c r="AP170">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ170">
         <v>1.1</v>
@@ -36513,7 +36531,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ171">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR171">
         <v>1.18</v>
@@ -36638,7 +36656,7 @@
         <v>210</v>
       </c>
       <c r="P172" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -37128,7 +37146,7 @@
         <v>0.14</v>
       </c>
       <c r="AP174">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ174">
         <v>0.45</v>
@@ -37256,7 +37274,7 @@
         <v>213</v>
       </c>
       <c r="P175" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q175">
         <v>2.3</v>
@@ -37334,7 +37352,7 @@
         <v>1</v>
       </c>
       <c r="AP175">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ175">
         <v>1</v>
@@ -37540,7 +37558,7 @@
         <v>0.83</v>
       </c>
       <c r="AP176">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ176">
         <v>1</v>
@@ -37668,7 +37686,7 @@
         <v>94</v>
       </c>
       <c r="P177" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q177">
         <v>2.5</v>
@@ -37749,7 +37767,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ177">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR177">
         <v>1.68</v>
@@ -38080,7 +38098,7 @@
         <v>214</v>
       </c>
       <c r="P179" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q179">
         <v>2.4</v>
@@ -38158,7 +38176,7 @@
         <v>2</v>
       </c>
       <c r="AP179">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ179">
         <v>1.5</v>
@@ -38286,7 +38304,7 @@
         <v>215</v>
       </c>
       <c r="P180" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q180">
         <v>2.55</v>
@@ -38570,10 +38588,10 @@
         <v>1.14</v>
       </c>
       <c r="AP181">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ181">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR181">
         <v>1.48</v>
@@ -38779,7 +38797,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ182">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR182">
         <v>1.26</v>
@@ -38982,7 +39000,7 @@
         <v>0.88</v>
       </c>
       <c r="AP183">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ183">
         <v>1</v>
@@ -39110,7 +39128,7 @@
         <v>217</v>
       </c>
       <c r="P184" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -39188,7 +39206,7 @@
         <v>0.88</v>
       </c>
       <c r="AP184">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ184">
         <v>0.8</v>
@@ -39934,7 +39952,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q188">
         <v>3.5</v>
@@ -40552,7 +40570,7 @@
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q191">
         <v>2.7</v>
@@ -40630,7 +40648,7 @@
         <v>1.67</v>
       </c>
       <c r="AP191">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ191">
         <v>1.45</v>
@@ -40758,7 +40776,7 @@
         <v>223</v>
       </c>
       <c r="P192" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q192">
         <v>3.2</v>
@@ -40964,7 +40982,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q193">
         <v>4.33</v>
@@ -41170,7 +41188,7 @@
         <v>108</v>
       </c>
       <c r="P194" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q194">
         <v>3.75</v>
@@ -41660,10 +41678,10 @@
         <v>0.63</v>
       </c>
       <c r="AP196">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ196">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR196">
         <v>1.42</v>
@@ -41869,7 +41887,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ197">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR197">
         <v>1.63</v>
@@ -42278,10 +42296,10 @@
         <v>1.38</v>
       </c>
       <c r="AP199">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ199">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR199">
         <v>1.74</v>
@@ -42406,7 +42424,7 @@
         <v>227</v>
       </c>
       <c r="P200" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q200">
         <v>2.38</v>
@@ -42484,7 +42502,7 @@
         <v>0.11</v>
       </c>
       <c r="AP200">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ200">
         <v>0.45</v>
@@ -42818,7 +42836,7 @@
         <v>229</v>
       </c>
       <c r="P202" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q202">
         <v>1.95</v>
@@ -42896,7 +42914,7 @@
         <v>0.67</v>
       </c>
       <c r="AP202">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ202">
         <v>0.55</v>
@@ -43105,7 +43123,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ203">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR203">
         <v>1.41</v>
@@ -43230,7 +43248,7 @@
         <v>230</v>
       </c>
       <c r="P204" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q204">
         <v>3.25</v>
@@ -43642,7 +43660,7 @@
         <v>232</v>
       </c>
       <c r="P206" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q206">
         <v>2.25</v>
@@ -43926,7 +43944,7 @@
         <v>0.78</v>
       </c>
       <c r="AP207">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ207">
         <v>1</v>
@@ -44054,7 +44072,7 @@
         <v>94</v>
       </c>
       <c r="P208" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44132,10 +44150,10 @@
         <v>1.11</v>
       </c>
       <c r="AP208">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ208">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR208">
         <v>1.46</v>
@@ -44672,7 +44690,7 @@
         <v>234</v>
       </c>
       <c r="P211" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q211">
         <v>2.75</v>
@@ -44878,7 +44896,7 @@
         <v>235</v>
       </c>
       <c r="P212" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q212">
         <v>3.25</v>
@@ -45084,7 +45102,7 @@
         <v>236</v>
       </c>
       <c r="P213" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q213">
         <v>4.2</v>
@@ -45371,7 +45389,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ214">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR214">
         <v>1.3</v>
@@ -45496,7 +45514,7 @@
         <v>139</v>
       </c>
       <c r="P215" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q215">
         <v>3.6</v>
@@ -45702,7 +45720,7 @@
         <v>238</v>
       </c>
       <c r="P216" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q216">
         <v>2.62</v>
@@ -46195,7 +46213,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ218">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR218">
         <v>1.15</v>
@@ -46398,7 +46416,7 @@
         <v>1.67</v>
       </c>
       <c r="AP219">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ219">
         <v>1.5</v>
@@ -46938,7 +46956,7 @@
         <v>241</v>
       </c>
       <c r="P222" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q222">
         <v>2.25</v>
@@ -47144,7 +47162,7 @@
         <v>117</v>
       </c>
       <c r="P223" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q223">
         <v>2.5</v>
@@ -47506,6 +47524,1242 @@
         <v>3.15</v>
       </c>
       <c r="BP224">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="225" spans="1:68">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>7728420</v>
+      </c>
+      <c r="C225" t="s">
+        <v>68</v>
+      </c>
+      <c r="D225" t="s">
+        <v>69</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45648.41666666666</v>
+      </c>
+      <c r="F225">
+        <v>21</v>
+      </c>
+      <c r="G225" t="s">
+        <v>78</v>
+      </c>
+      <c r="H225" t="s">
+        <v>84</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>1</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>1</v>
+      </c>
+      <c r="O225" t="s">
+        <v>132</v>
+      </c>
+      <c r="P225" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q225">
+        <v>2.63</v>
+      </c>
+      <c r="R225">
+        <v>2</v>
+      </c>
+      <c r="S225">
+        <v>5</v>
+      </c>
+      <c r="T225">
+        <v>1.5</v>
+      </c>
+      <c r="U225">
+        <v>2.5</v>
+      </c>
+      <c r="V225">
+        <v>3.5</v>
+      </c>
+      <c r="W225">
+        <v>1.29</v>
+      </c>
+      <c r="X225">
+        <v>11</v>
+      </c>
+      <c r="Y225">
+        <v>1.05</v>
+      </c>
+      <c r="Z225">
+        <v>1.76</v>
+      </c>
+      <c r="AA225">
+        <v>3.6</v>
+      </c>
+      <c r="AB225">
+        <v>5.3</v>
+      </c>
+      <c r="AC225">
+        <v>1.09</v>
+      </c>
+      <c r="AD225">
+        <v>7</v>
+      </c>
+      <c r="AE225">
+        <v>1.5</v>
+      </c>
+      <c r="AF225">
+        <v>2.4</v>
+      </c>
+      <c r="AG225">
+        <v>2.2</v>
+      </c>
+      <c r="AH225">
+        <v>1.55</v>
+      </c>
+      <c r="AI225">
+        <v>2.1</v>
+      </c>
+      <c r="AJ225">
+        <v>1.67</v>
+      </c>
+      <c r="AK225">
+        <v>1.12</v>
+      </c>
+      <c r="AL225">
+        <v>1.25</v>
+      </c>
+      <c r="AM225">
+        <v>2.05</v>
+      </c>
+      <c r="AN225">
+        <v>1.5</v>
+      </c>
+      <c r="AO225">
+        <v>0.2</v>
+      </c>
+      <c r="AP225">
+        <v>1.64</v>
+      </c>
+      <c r="AQ225">
+        <v>0.18</v>
+      </c>
+      <c r="AR225">
+        <v>1.43</v>
+      </c>
+      <c r="AS225">
+        <v>1.05</v>
+      </c>
+      <c r="AT225">
+        <v>2.48</v>
+      </c>
+      <c r="AU225">
+        <v>4</v>
+      </c>
+      <c r="AV225">
+        <v>0</v>
+      </c>
+      <c r="AW225">
+        <v>3</v>
+      </c>
+      <c r="AX225">
+        <v>3</v>
+      </c>
+      <c r="AY225">
+        <v>10</v>
+      </c>
+      <c r="AZ225">
+        <v>6</v>
+      </c>
+      <c r="BA225">
+        <v>5</v>
+      </c>
+      <c r="BB225">
+        <v>4</v>
+      </c>
+      <c r="BC225">
+        <v>9</v>
+      </c>
+      <c r="BD225">
+        <v>1.36</v>
+      </c>
+      <c r="BE225">
+        <v>7</v>
+      </c>
+      <c r="BF225">
+        <v>3.4</v>
+      </c>
+      <c r="BG225">
+        <v>1.34</v>
+      </c>
+      <c r="BH225">
+        <v>2.9</v>
+      </c>
+      <c r="BI225">
+        <v>1.57</v>
+      </c>
+      <c r="BJ225">
+        <v>2.2</v>
+      </c>
+      <c r="BK225">
+        <v>1.93</v>
+      </c>
+      <c r="BL225">
+        <v>1.74</v>
+      </c>
+      <c r="BM225">
+        <v>2.45</v>
+      </c>
+      <c r="BN225">
+        <v>1.46</v>
+      </c>
+      <c r="BO225">
+        <v>3.15</v>
+      </c>
+      <c r="BP225">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="226" spans="1:68">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>7728421</v>
+      </c>
+      <c r="C226" t="s">
+        <v>68</v>
+      </c>
+      <c r="D226" t="s">
+        <v>69</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45648.51041666666</v>
+      </c>
+      <c r="F226">
+        <v>21</v>
+      </c>
+      <c r="G226" t="s">
+        <v>86</v>
+      </c>
+      <c r="H226" t="s">
+        <v>79</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>2</v>
+      </c>
+      <c r="K226">
+        <v>2</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>2</v>
+      </c>
+      <c r="N226">
+        <v>2</v>
+      </c>
+      <c r="O226" t="s">
+        <v>94</v>
+      </c>
+      <c r="P226" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q226">
+        <v>2.88</v>
+      </c>
+      <c r="R226">
+        <v>2.2</v>
+      </c>
+      <c r="S226">
+        <v>3.75</v>
+      </c>
+      <c r="T226">
+        <v>1.4</v>
+      </c>
+      <c r="U226">
+        <v>2.75</v>
+      </c>
+      <c r="V226">
+        <v>2.75</v>
+      </c>
+      <c r="W226">
+        <v>1.4</v>
+      </c>
+      <c r="X226">
+        <v>8</v>
+      </c>
+      <c r="Y226">
+        <v>1.08</v>
+      </c>
+      <c r="Z226">
+        <v>2.23</v>
+      </c>
+      <c r="AA226">
+        <v>3.36</v>
+      </c>
+      <c r="AB226">
+        <v>3.47</v>
+      </c>
+      <c r="AC226">
+        <v>1.07</v>
+      </c>
+      <c r="AD226">
+        <v>8</v>
+      </c>
+      <c r="AE226">
+        <v>1.42</v>
+      </c>
+      <c r="AF226">
+        <v>2.75</v>
+      </c>
+      <c r="AG226">
+        <v>2.15</v>
+      </c>
+      <c r="AH226">
+        <v>1.61</v>
+      </c>
+      <c r="AI226">
+        <v>1.73</v>
+      </c>
+      <c r="AJ226">
+        <v>2</v>
+      </c>
+      <c r="AK226">
+        <v>1.3</v>
+      </c>
+      <c r="AL226">
+        <v>1.28</v>
+      </c>
+      <c r="AM226">
+        <v>1.66</v>
+      </c>
+      <c r="AN226">
+        <v>1.4</v>
+      </c>
+      <c r="AO226">
+        <v>1.11</v>
+      </c>
+      <c r="AP226">
+        <v>1.27</v>
+      </c>
+      <c r="AQ226">
+        <v>1.3</v>
+      </c>
+      <c r="AR226">
+        <v>1.73</v>
+      </c>
+      <c r="AS226">
+        <v>1.26</v>
+      </c>
+      <c r="AT226">
+        <v>2.99</v>
+      </c>
+      <c r="AU226">
+        <v>4</v>
+      </c>
+      <c r="AV226">
+        <v>4</v>
+      </c>
+      <c r="AW226">
+        <v>4</v>
+      </c>
+      <c r="AX226">
+        <v>3</v>
+      </c>
+      <c r="AY226">
+        <v>11</v>
+      </c>
+      <c r="AZ226">
+        <v>8</v>
+      </c>
+      <c r="BA226">
+        <v>4</v>
+      </c>
+      <c r="BB226">
+        <v>3</v>
+      </c>
+      <c r="BC226">
+        <v>7</v>
+      </c>
+      <c r="BD226">
+        <v>1.66</v>
+      </c>
+      <c r="BE226">
+        <v>6.4</v>
+      </c>
+      <c r="BF226">
+        <v>2.48</v>
+      </c>
+      <c r="BG226">
+        <v>1.38</v>
+      </c>
+      <c r="BH226">
+        <v>2.7</v>
+      </c>
+      <c r="BI226">
+        <v>1.63</v>
+      </c>
+      <c r="BJ226">
+        <v>2.07</v>
+      </c>
+      <c r="BK226">
+        <v>2.04</v>
+      </c>
+      <c r="BL226">
+        <v>1.66</v>
+      </c>
+      <c r="BM226">
+        <v>2.63</v>
+      </c>
+      <c r="BN226">
+        <v>1.41</v>
+      </c>
+      <c r="BO226">
+        <v>3.4</v>
+      </c>
+      <c r="BP226">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="227" spans="1:68">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>7728426</v>
+      </c>
+      <c r="C227" t="s">
+        <v>68</v>
+      </c>
+      <c r="D227" t="s">
+        <v>69</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45648.60416666666</v>
+      </c>
+      <c r="F227">
+        <v>21</v>
+      </c>
+      <c r="G227" t="s">
+        <v>77</v>
+      </c>
+      <c r="H227" t="s">
+        <v>80</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>2</v>
+      </c>
+      <c r="M227">
+        <v>2</v>
+      </c>
+      <c r="N227">
+        <v>4</v>
+      </c>
+      <c r="O227" t="s">
+        <v>243</v>
+      </c>
+      <c r="P227" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q227">
+        <v>2.3</v>
+      </c>
+      <c r="R227">
+        <v>2.2</v>
+      </c>
+      <c r="S227">
+        <v>5</v>
+      </c>
+      <c r="T227">
+        <v>1.4</v>
+      </c>
+      <c r="U227">
+        <v>2.75</v>
+      </c>
+      <c r="V227">
+        <v>2.75</v>
+      </c>
+      <c r="W227">
+        <v>1.4</v>
+      </c>
+      <c r="X227">
+        <v>8</v>
+      </c>
+      <c r="Y227">
+        <v>1.08</v>
+      </c>
+      <c r="Z227">
+        <v>1.49</v>
+      </c>
+      <c r="AA227">
+        <v>4.2</v>
+      </c>
+      <c r="AB227">
+        <v>8.1</v>
+      </c>
+      <c r="AC227">
+        <v>1.05</v>
+      </c>
+      <c r="AD227">
+        <v>9</v>
+      </c>
+      <c r="AE227">
+        <v>1.28</v>
+      </c>
+      <c r="AF227">
+        <v>3.4</v>
+      </c>
+      <c r="AG227">
+        <v>2.15</v>
+      </c>
+      <c r="AH227">
+        <v>1.61</v>
+      </c>
+      <c r="AI227">
+        <v>1.83</v>
+      </c>
+      <c r="AJ227">
+        <v>1.83</v>
+      </c>
+      <c r="AK227">
+        <v>1.14</v>
+      </c>
+      <c r="AL227">
+        <v>1.22</v>
+      </c>
+      <c r="AM227">
+        <v>2.1</v>
+      </c>
+      <c r="AN227">
+        <v>1.5</v>
+      </c>
+      <c r="AO227">
+        <v>0.5</v>
+      </c>
+      <c r="AP227">
+        <v>1.45</v>
+      </c>
+      <c r="AQ227">
+        <v>0.55</v>
+      </c>
+      <c r="AR227">
+        <v>1.5</v>
+      </c>
+      <c r="AS227">
+        <v>1.17</v>
+      </c>
+      <c r="AT227">
+        <v>2.67</v>
+      </c>
+      <c r="AU227">
+        <v>6</v>
+      </c>
+      <c r="AV227">
+        <v>6</v>
+      </c>
+      <c r="AW227">
+        <v>7</v>
+      </c>
+      <c r="AX227">
+        <v>5</v>
+      </c>
+      <c r="AY227">
+        <v>14</v>
+      </c>
+      <c r="AZ227">
+        <v>16</v>
+      </c>
+      <c r="BA227">
+        <v>3</v>
+      </c>
+      <c r="BB227">
+        <v>4</v>
+      </c>
+      <c r="BC227">
+        <v>7</v>
+      </c>
+      <c r="BD227">
+        <v>1.49</v>
+      </c>
+      <c r="BE227">
+        <v>6.75</v>
+      </c>
+      <c r="BF227">
+        <v>2.9</v>
+      </c>
+      <c r="BG227">
+        <v>1.34</v>
+      </c>
+      <c r="BH227">
+        <v>2.9</v>
+      </c>
+      <c r="BI227">
+        <v>1.58</v>
+      </c>
+      <c r="BJ227">
+        <v>2.18</v>
+      </c>
+      <c r="BK227">
+        <v>1.9</v>
+      </c>
+      <c r="BL227">
+        <v>1.76</v>
+      </c>
+      <c r="BM227">
+        <v>2.4</v>
+      </c>
+      <c r="BN227">
+        <v>1.48</v>
+      </c>
+      <c r="BO227">
+        <v>3.1</v>
+      </c>
+      <c r="BP227">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:68">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>7728419</v>
+      </c>
+      <c r="C228" t="s">
+        <v>68</v>
+      </c>
+      <c r="D228" t="s">
+        <v>69</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45648.60416666666</v>
+      </c>
+      <c r="F228">
+        <v>21</v>
+      </c>
+      <c r="G228" t="s">
+        <v>90</v>
+      </c>
+      <c r="H228" t="s">
+        <v>72</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>1</v>
+      </c>
+      <c r="K228">
+        <v>1</v>
+      </c>
+      <c r="L228">
+        <v>1</v>
+      </c>
+      <c r="M228">
+        <v>1</v>
+      </c>
+      <c r="N228">
+        <v>2</v>
+      </c>
+      <c r="O228" t="s">
+        <v>200</v>
+      </c>
+      <c r="P228" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q228">
+        <v>2.25</v>
+      </c>
+      <c r="R228">
+        <v>2.2</v>
+      </c>
+      <c r="S228">
+        <v>6</v>
+      </c>
+      <c r="T228">
+        <v>1.44</v>
+      </c>
+      <c r="U228">
+        <v>2.63</v>
+      </c>
+      <c r="V228">
+        <v>3</v>
+      </c>
+      <c r="W228">
+        <v>1.36</v>
+      </c>
+      <c r="X228">
+        <v>9</v>
+      </c>
+      <c r="Y228">
+        <v>1.07</v>
+      </c>
+      <c r="Z228">
+        <v>1.55</v>
+      </c>
+      <c r="AA228">
+        <v>4.2</v>
+      </c>
+      <c r="AB228">
+        <v>6.7</v>
+      </c>
+      <c r="AC228">
+        <v>1.05</v>
+      </c>
+      <c r="AD228">
+        <v>9</v>
+      </c>
+      <c r="AE228">
+        <v>1.3</v>
+      </c>
+      <c r="AF228">
+        <v>3.3</v>
+      </c>
+      <c r="AG228">
+        <v>2.01</v>
+      </c>
+      <c r="AH228">
+        <v>1.81</v>
+      </c>
+      <c r="AI228">
+        <v>2</v>
+      </c>
+      <c r="AJ228">
+        <v>1.73</v>
+      </c>
+      <c r="AK228">
+        <v>1.1</v>
+      </c>
+      <c r="AL228">
+        <v>1.2</v>
+      </c>
+      <c r="AM228">
+        <v>2.25</v>
+      </c>
+      <c r="AN228">
+        <v>2.22</v>
+      </c>
+      <c r="AO228">
+        <v>1</v>
+      </c>
+      <c r="AP228">
+        <v>2.1</v>
+      </c>
+      <c r="AQ228">
+        <v>1</v>
+      </c>
+      <c r="AR228">
+        <v>1.67</v>
+      </c>
+      <c r="AS228">
+        <v>1.22</v>
+      </c>
+      <c r="AT228">
+        <v>2.89</v>
+      </c>
+      <c r="AU228">
+        <v>7</v>
+      </c>
+      <c r="AV228">
+        <v>5</v>
+      </c>
+      <c r="AW228">
+        <v>10</v>
+      </c>
+      <c r="AX228">
+        <v>1</v>
+      </c>
+      <c r="AY228">
+        <v>21</v>
+      </c>
+      <c r="AZ228">
+        <v>6</v>
+      </c>
+      <c r="BA228">
+        <v>6</v>
+      </c>
+      <c r="BB228">
+        <v>0</v>
+      </c>
+      <c r="BC228">
+        <v>6</v>
+      </c>
+      <c r="BD228">
+        <v>1.36</v>
+      </c>
+      <c r="BE228">
+        <v>7.5</v>
+      </c>
+      <c r="BF228">
+        <v>3.45</v>
+      </c>
+      <c r="BG228">
+        <v>1.28</v>
+      </c>
+      <c r="BH228">
+        <v>3.2</v>
+      </c>
+      <c r="BI228">
+        <v>1.47</v>
+      </c>
+      <c r="BJ228">
+        <v>2.43</v>
+      </c>
+      <c r="BK228">
+        <v>1.77</v>
+      </c>
+      <c r="BL228">
+        <v>1.89</v>
+      </c>
+      <c r="BM228">
+        <v>2.23</v>
+      </c>
+      <c r="BN228">
+        <v>1.56</v>
+      </c>
+      <c r="BO228">
+        <v>2.8</v>
+      </c>
+      <c r="BP228">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="229" spans="1:68">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>7728422</v>
+      </c>
+      <c r="C229" t="s">
+        <v>68</v>
+      </c>
+      <c r="D229" t="s">
+        <v>69</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45648.70833333334</v>
+      </c>
+      <c r="F229">
+        <v>21</v>
+      </c>
+      <c r="G229" t="s">
+        <v>75</v>
+      </c>
+      <c r="H229" t="s">
+        <v>71</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>2</v>
+      </c>
+      <c r="K229">
+        <v>2</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>4</v>
+      </c>
+      <c r="N229">
+        <v>4</v>
+      </c>
+      <c r="O229" t="s">
+        <v>94</v>
+      </c>
+      <c r="P229" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q229">
+        <v>2.63</v>
+      </c>
+      <c r="R229">
+        <v>2</v>
+      </c>
+      <c r="S229">
+        <v>5</v>
+      </c>
+      <c r="T229">
+        <v>1.5</v>
+      </c>
+      <c r="U229">
+        <v>2.5</v>
+      </c>
+      <c r="V229">
+        <v>3.5</v>
+      </c>
+      <c r="W229">
+        <v>1.29</v>
+      </c>
+      <c r="X229">
+        <v>11</v>
+      </c>
+      <c r="Y229">
+        <v>1.05</v>
+      </c>
+      <c r="Z229">
+        <v>2.94</v>
+      </c>
+      <c r="AA229">
+        <v>3.21</v>
+      </c>
+      <c r="AB229">
+        <v>2.61</v>
+      </c>
+      <c r="AC229">
+        <v>1.08</v>
+      </c>
+      <c r="AD229">
+        <v>7.5</v>
+      </c>
+      <c r="AE229">
+        <v>1.42</v>
+      </c>
+      <c r="AF229">
+        <v>2.75</v>
+      </c>
+      <c r="AG229">
+        <v>2.25</v>
+      </c>
+      <c r="AH229">
+        <v>1.57</v>
+      </c>
+      <c r="AI229">
+        <v>2.1</v>
+      </c>
+      <c r="AJ229">
+        <v>1.67</v>
+      </c>
+      <c r="AK229">
+        <v>1.18</v>
+      </c>
+      <c r="AL229">
+        <v>1.25</v>
+      </c>
+      <c r="AM229">
+        <v>1.85</v>
+      </c>
+      <c r="AN229">
+        <v>1.3</v>
+      </c>
+      <c r="AO229">
+        <v>1.22</v>
+      </c>
+      <c r="AP229">
+        <v>1.18</v>
+      </c>
+      <c r="AQ229">
+        <v>1.4</v>
+      </c>
+      <c r="AR229">
+        <v>1.48</v>
+      </c>
+      <c r="AS229">
+        <v>1.11</v>
+      </c>
+      <c r="AT229">
+        <v>2.59</v>
+      </c>
+      <c r="AU229">
+        <v>3</v>
+      </c>
+      <c r="AV229">
+        <v>7</v>
+      </c>
+      <c r="AW229">
+        <v>3</v>
+      </c>
+      <c r="AX229">
+        <v>5</v>
+      </c>
+      <c r="AY229">
+        <v>6</v>
+      </c>
+      <c r="AZ229">
+        <v>13</v>
+      </c>
+      <c r="BA229">
+        <v>5</v>
+      </c>
+      <c r="BB229">
+        <v>2</v>
+      </c>
+      <c r="BC229">
+        <v>7</v>
+      </c>
+      <c r="BD229">
+        <v>1.7</v>
+      </c>
+      <c r="BE229">
+        <v>6.4</v>
+      </c>
+      <c r="BF229">
+        <v>2.4</v>
+      </c>
+      <c r="BG229">
+        <v>1.3</v>
+      </c>
+      <c r="BH229">
+        <v>3.05</v>
+      </c>
+      <c r="BI229">
+        <v>1.54</v>
+      </c>
+      <c r="BJ229">
+        <v>2.25</v>
+      </c>
+      <c r="BK229">
+        <v>1.87</v>
+      </c>
+      <c r="BL229">
+        <v>1.79</v>
+      </c>
+      <c r="BM229">
+        <v>2.35</v>
+      </c>
+      <c r="BN229">
+        <v>1.5</v>
+      </c>
+      <c r="BO229">
+        <v>3.05</v>
+      </c>
+      <c r="BP229">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:68">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>7728428</v>
+      </c>
+      <c r="C230" t="s">
+        <v>68</v>
+      </c>
+      <c r="D230" t="s">
+        <v>69</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45648.70833333334</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230" t="s">
+        <v>82</v>
+      </c>
+      <c r="H230" t="s">
+        <v>81</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>1</v>
+      </c>
+      <c r="K230">
+        <v>1</v>
+      </c>
+      <c r="L230">
+        <v>1</v>
+      </c>
+      <c r="M230">
+        <v>1</v>
+      </c>
+      <c r="N230">
+        <v>2</v>
+      </c>
+      <c r="O230" t="s">
+        <v>244</v>
+      </c>
+      <c r="P230" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q230">
+        <v>2.5</v>
+      </c>
+      <c r="R230">
+        <v>2.1</v>
+      </c>
+      <c r="S230">
+        <v>5</v>
+      </c>
+      <c r="T230">
+        <v>1.44</v>
+      </c>
+      <c r="U230">
+        <v>2.63</v>
+      </c>
+      <c r="V230">
+        <v>3.25</v>
+      </c>
+      <c r="W230">
+        <v>1.33</v>
+      </c>
+      <c r="X230">
+        <v>10</v>
+      </c>
+      <c r="Y230">
+        <v>1.06</v>
+      </c>
+      <c r="Z230">
+        <v>2.07</v>
+      </c>
+      <c r="AA230">
+        <v>3.47</v>
+      </c>
+      <c r="AB230">
+        <v>3.79</v>
+      </c>
+      <c r="AC230">
+        <v>1.06</v>
+      </c>
+      <c r="AD230">
+        <v>8.5</v>
+      </c>
+      <c r="AE230">
+        <v>1.36</v>
+      </c>
+      <c r="AF230">
+        <v>3</v>
+      </c>
+      <c r="AG230">
+        <v>2.12</v>
+      </c>
+      <c r="AH230">
+        <v>1.71</v>
+      </c>
+      <c r="AI230">
+        <v>2</v>
+      </c>
+      <c r="AJ230">
+        <v>1.73</v>
+      </c>
+      <c r="AK230">
+        <v>1.16</v>
+      </c>
+      <c r="AL230">
+        <v>1.25</v>
+      </c>
+      <c r="AM230">
+        <v>1.95</v>
+      </c>
+      <c r="AN230">
+        <v>2.11</v>
+      </c>
+      <c r="AO230">
+        <v>1.3</v>
+      </c>
+      <c r="AP230">
+        <v>2</v>
+      </c>
+      <c r="AQ230">
+        <v>1.27</v>
+      </c>
+      <c r="AR230">
+        <v>1.54</v>
+      </c>
+      <c r="AS230">
+        <v>1.14</v>
+      </c>
+      <c r="AT230">
+        <v>2.68</v>
+      </c>
+      <c r="AU230">
+        <v>6</v>
+      </c>
+      <c r="AV230">
+        <v>3</v>
+      </c>
+      <c r="AW230">
+        <v>4</v>
+      </c>
+      <c r="AX230">
+        <v>3</v>
+      </c>
+      <c r="AY230">
+        <v>15</v>
+      </c>
+      <c r="AZ230">
+        <v>7</v>
+      </c>
+      <c r="BA230">
+        <v>10</v>
+      </c>
+      <c r="BB230">
+        <v>2</v>
+      </c>
+      <c r="BC230">
+        <v>12</v>
+      </c>
+      <c r="BD230">
+        <v>1.46</v>
+      </c>
+      <c r="BE230">
+        <v>6.75</v>
+      </c>
+      <c r="BF230">
+        <v>3.05</v>
+      </c>
+      <c r="BG230">
+        <v>1.33</v>
+      </c>
+      <c r="BH230">
+        <v>2.95</v>
+      </c>
+      <c r="BI230">
+        <v>1.56</v>
+      </c>
+      <c r="BJ230">
+        <v>2.23</v>
+      </c>
+      <c r="BK230">
+        <v>1.92</v>
+      </c>
+      <c r="BL230">
+        <v>1.75</v>
+      </c>
+      <c r="BM230">
+        <v>2.43</v>
+      </c>
+      <c r="BN230">
+        <v>1.47</v>
+      </c>
+      <c r="BO230">
+        <v>3.15</v>
+      </c>
+      <c r="BP230">
         <v>1.29</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -47532,7 +47532,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>7728420</v>
+        <v>7728426</v>
       </c>
       <c r="C225" t="s">
         <v>68</v>
@@ -47541,16 +47541,16 @@
         <v>69</v>
       </c>
       <c r="E225" s="2">
-        <v>45648.41666666666</v>
+        <v>45647.875</v>
       </c>
       <c r="F225">
         <v>21</v>
       </c>
       <c r="G225" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H225" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I225">
         <v>0</v>
@@ -47562,145 +47562,145 @@
         <v>0</v>
       </c>
       <c r="L225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N225">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O225" t="s">
-        <v>132</v>
+        <v>243</v>
       </c>
       <c r="P225" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="Q225">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="R225">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S225">
         <v>5</v>
       </c>
       <c r="T225">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="U225">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V225">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="W225">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="X225">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y225">
+        <v>1.08</v>
+      </c>
+      <c r="Z225">
+        <v>1.49</v>
+      </c>
+      <c r="AA225">
+        <v>4.2</v>
+      </c>
+      <c r="AB225">
+        <v>8.1</v>
+      </c>
+      <c r="AC225">
         <v>1.05</v>
       </c>
-      <c r="Z225">
-        <v>1.76</v>
-      </c>
-      <c r="AA225">
-        <v>3.6</v>
-      </c>
-      <c r="AB225">
-        <v>5.3</v>
-      </c>
-      <c r="AC225">
-        <v>1.09</v>
-      </c>
       <c r="AD225">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE225">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
       <c r="AF225">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="AG225">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="AH225">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="AI225">
+        <v>1.83</v>
+      </c>
+      <c r="AJ225">
+        <v>1.83</v>
+      </c>
+      <c r="AK225">
+        <v>1.14</v>
+      </c>
+      <c r="AL225">
+        <v>1.22</v>
+      </c>
+      <c r="AM225">
         <v>2.1</v>
-      </c>
-      <c r="AJ225">
-        <v>1.67</v>
-      </c>
-      <c r="AK225">
-        <v>1.12</v>
-      </c>
-      <c r="AL225">
-        <v>1.25</v>
-      </c>
-      <c r="AM225">
-        <v>2.05</v>
       </c>
       <c r="AN225">
         <v>1.5</v>
       </c>
       <c r="AO225">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AP225">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="AQ225">
-        <v>0.18</v>
+        <v>0.55</v>
       </c>
       <c r="AR225">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AS225">
-        <v>1.05</v>
+        <v>1.17</v>
       </c>
       <c r="AT225">
-        <v>2.48</v>
+        <v>2.67</v>
       </c>
       <c r="AU225">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV225">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AW225">
+        <v>7</v>
+      </c>
+      <c r="AX225">
+        <v>5</v>
+      </c>
+      <c r="AY225">
+        <v>14</v>
+      </c>
+      <c r="AZ225">
+        <v>16</v>
+      </c>
+      <c r="BA225">
         <v>3</v>
-      </c>
-      <c r="AX225">
-        <v>3</v>
-      </c>
-      <c r="AY225">
-        <v>10</v>
-      </c>
-      <c r="AZ225">
-        <v>6</v>
-      </c>
-      <c r="BA225">
-        <v>5</v>
       </c>
       <c r="BB225">
         <v>4</v>
       </c>
       <c r="BC225">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD225">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
       <c r="BE225">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="BF225">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="BG225">
         <v>1.34</v>
@@ -47709,28 +47709,28 @@
         <v>2.9</v>
       </c>
       <c r="BI225">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="BJ225">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="BK225">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="BL225">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="BM225">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="BN225">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="BO225">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="BP225">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="226" spans="1:68">
@@ -47738,7 +47738,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>7728421</v>
+        <v>7728420</v>
       </c>
       <c r="C226" t="s">
         <v>68</v>
@@ -47747,196 +47747,196 @@
         <v>69</v>
       </c>
       <c r="E226" s="2">
-        <v>45648.51041666666</v>
+        <v>45648.41666666666</v>
       </c>
       <c r="F226">
         <v>21</v>
       </c>
       <c r="G226" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H226" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I226">
         <v>0</v>
       </c>
       <c r="J226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O226" t="s">
+        <v>132</v>
+      </c>
+      <c r="P226" t="s">
         <v>94</v>
       </c>
-      <c r="P226" t="s">
-        <v>330</v>
-      </c>
       <c r="Q226">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="R226">
+        <v>2</v>
+      </c>
+      <c r="S226">
+        <v>5</v>
+      </c>
+      <c r="T226">
+        <v>1.5</v>
+      </c>
+      <c r="U226">
+        <v>2.5</v>
+      </c>
+      <c r="V226">
+        <v>3.5</v>
+      </c>
+      <c r="W226">
+        <v>1.29</v>
+      </c>
+      <c r="X226">
+        <v>11</v>
+      </c>
+      <c r="Y226">
+        <v>1.05</v>
+      </c>
+      <c r="Z226">
+        <v>1.76</v>
+      </c>
+      <c r="AA226">
+        <v>3.6</v>
+      </c>
+      <c r="AB226">
+        <v>5.3</v>
+      </c>
+      <c r="AC226">
+        <v>1.09</v>
+      </c>
+      <c r="AD226">
+        <v>7</v>
+      </c>
+      <c r="AE226">
+        <v>1.5</v>
+      </c>
+      <c r="AF226">
+        <v>2.4</v>
+      </c>
+      <c r="AG226">
         <v>2.2</v>
       </c>
-      <c r="S226">
-        <v>3.75</v>
-      </c>
-      <c r="T226">
-        <v>1.4</v>
-      </c>
-      <c r="U226">
-        <v>2.75</v>
-      </c>
-      <c r="V226">
-        <v>2.75</v>
-      </c>
-      <c r="W226">
-        <v>1.4</v>
-      </c>
-      <c r="X226">
-        <v>8</v>
-      </c>
-      <c r="Y226">
-        <v>1.08</v>
-      </c>
-      <c r="Z226">
-        <v>2.23</v>
-      </c>
-      <c r="AA226">
-        <v>3.36</v>
-      </c>
-      <c r="AB226">
-        <v>3.47</v>
-      </c>
-      <c r="AC226">
-        <v>1.07</v>
-      </c>
-      <c r="AD226">
-        <v>8</v>
-      </c>
-      <c r="AE226">
-        <v>1.42</v>
-      </c>
-      <c r="AF226">
-        <v>2.75</v>
-      </c>
-      <c r="AG226">
-        <v>2.15</v>
-      </c>
       <c r="AH226">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="AI226">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="AJ226">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AK226">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="AL226">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM226">
-        <v>1.66</v>
+        <v>2.05</v>
       </c>
       <c r="AN226">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AO226">
-        <v>1.11</v>
+        <v>0.2</v>
       </c>
       <c r="AP226">
-        <v>1.27</v>
+        <v>1.64</v>
       </c>
       <c r="AQ226">
-        <v>1.3</v>
+        <v>0.18</v>
       </c>
       <c r="AR226">
-        <v>1.73</v>
+        <v>1.43</v>
       </c>
       <c r="AS226">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="AT226">
-        <v>2.99</v>
+        <v>2.48</v>
       </c>
       <c r="AU226">
         <v>4</v>
       </c>
       <c r="AV226">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AW226">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX226">
         <v>3</v>
       </c>
       <c r="AY226">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ226">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA226">
+        <v>5</v>
+      </c>
+      <c r="BB226">
         <v>4</v>
       </c>
-      <c r="BB226">
-        <v>3</v>
-      </c>
       <c r="BC226">
+        <v>9</v>
+      </c>
+      <c r="BD226">
+        <v>1.36</v>
+      </c>
+      <c r="BE226">
         <v>7</v>
       </c>
-      <c r="BD226">
-        <v>1.66</v>
-      </c>
-      <c r="BE226">
-        <v>6.4</v>
-      </c>
       <c r="BF226">
-        <v>2.48</v>
+        <v>3.4</v>
       </c>
       <c r="BG226">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="BH226">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="BI226">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="BJ226">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="BK226">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="BL226">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="BM226">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="BN226">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="BO226">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="BP226">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="227" spans="1:68">
@@ -47944,7 +47944,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>7728426</v>
+        <v>7728421</v>
       </c>
       <c r="C227" t="s">
         <v>68</v>
@@ -47953,49 +47953,49 @@
         <v>69</v>
       </c>
       <c r="E227" s="2">
-        <v>45648.60416666666</v>
+        <v>45648.51041666666</v>
       </c>
       <c r="F227">
         <v>21</v>
       </c>
       <c r="G227" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H227" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I227">
         <v>0</v>
       </c>
       <c r="J227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L227">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M227">
         <v>2</v>
       </c>
       <c r="N227">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O227" t="s">
-        <v>243</v>
+        <v>94</v>
       </c>
       <c r="P227" t="s">
-        <v>101</v>
+        <v>330</v>
       </c>
       <c r="Q227">
-        <v>2.3</v>
+        <v>2.88</v>
       </c>
       <c r="R227">
         <v>2.2</v>
       </c>
       <c r="S227">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="T227">
         <v>1.4</v>
@@ -48016,25 +48016,25 @@
         <v>1.08</v>
       </c>
       <c r="Z227">
-        <v>1.49</v>
+        <v>2.23</v>
       </c>
       <c r="AA227">
-        <v>4.2</v>
+        <v>3.36</v>
       </c>
       <c r="AB227">
-        <v>8.1</v>
+        <v>3.47</v>
       </c>
       <c r="AC227">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AD227">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE227">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="AF227">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="AG227">
         <v>2.15</v>
@@ -48043,106 +48043,106 @@
         <v>1.61</v>
       </c>
       <c r="AI227">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AJ227">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AK227">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="AL227">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AM227">
-        <v>2.1</v>
+        <v>1.66</v>
       </c>
       <c r="AN227">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AO227">
-        <v>0.5</v>
+        <v>1.11</v>
       </c>
       <c r="AP227">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
       <c r="AQ227">
-        <v>0.55</v>
+        <v>1.3</v>
       </c>
       <c r="AR227">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="AS227">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT227">
-        <v>2.67</v>
+        <v>2.99</v>
       </c>
       <c r="AU227">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV227">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW227">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX227">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY227">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ227">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="BA227">
+        <v>4</v>
+      </c>
+      <c r="BB227">
         <v>3</v>
-      </c>
-      <c r="BB227">
-        <v>4</v>
       </c>
       <c r="BC227">
         <v>7</v>
       </c>
       <c r="BD227">
-        <v>1.49</v>
+        <v>1.66</v>
       </c>
       <c r="BE227">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF227">
-        <v>2.9</v>
+        <v>2.48</v>
       </c>
       <c r="BG227">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="BH227">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="BI227">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="BJ227">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="BK227">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="BL227">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="BM227">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="BN227">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="BO227">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="BP227">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="228" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -47532,7 +47532,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>7728426</v>
+        <v>7728420</v>
       </c>
       <c r="C225" t="s">
         <v>68</v>
@@ -47541,16 +47541,16 @@
         <v>69</v>
       </c>
       <c r="E225" s="2">
-        <v>45647.875</v>
+        <v>45648.41666666666</v>
       </c>
       <c r="F225">
         <v>21</v>
       </c>
       <c r="G225" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H225" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I225">
         <v>0</v>
@@ -47562,145 +47562,145 @@
         <v>0</v>
       </c>
       <c r="L225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M225">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N225">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O225" t="s">
-        <v>243</v>
+        <v>132</v>
       </c>
       <c r="P225" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="Q225">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="R225">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S225">
         <v>5</v>
       </c>
       <c r="T225">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="U225">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V225">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="W225">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="X225">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Y225">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="Z225">
-        <v>1.49</v>
+        <v>1.76</v>
       </c>
       <c r="AA225">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="AB225">
-        <v>8.1</v>
+        <v>5.3</v>
       </c>
       <c r="AC225">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="AD225">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE225">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
       <c r="AF225">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="AG225">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="AH225">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="AI225">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="AJ225">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AK225">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="AL225">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM225">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AN225">
         <v>1.5</v>
       </c>
       <c r="AO225">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AP225">
-        <v>1.45</v>
+        <v>1.64</v>
       </c>
       <c r="AQ225">
-        <v>0.55</v>
+        <v>0.18</v>
       </c>
       <c r="AR225">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AS225">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="AT225">
-        <v>2.67</v>
+        <v>2.48</v>
       </c>
       <c r="AU225">
+        <v>4</v>
+      </c>
+      <c r="AV225">
+        <v>0</v>
+      </c>
+      <c r="AW225">
+        <v>3</v>
+      </c>
+      <c r="AX225">
+        <v>3</v>
+      </c>
+      <c r="AY225">
+        <v>10</v>
+      </c>
+      <c r="AZ225">
         <v>6</v>
       </c>
-      <c r="AV225">
-        <v>6</v>
-      </c>
-      <c r="AW225">
-        <v>7</v>
-      </c>
-      <c r="AX225">
+      <c r="BA225">
         <v>5</v>
-      </c>
-      <c r="AY225">
-        <v>14</v>
-      </c>
-      <c r="AZ225">
-        <v>16</v>
-      </c>
-      <c r="BA225">
-        <v>3</v>
       </c>
       <c r="BB225">
         <v>4</v>
       </c>
       <c r="BC225">
+        <v>9</v>
+      </c>
+      <c r="BD225">
+        <v>1.36</v>
+      </c>
+      <c r="BE225">
         <v>7</v>
       </c>
-      <c r="BD225">
-        <v>1.49</v>
-      </c>
-      <c r="BE225">
-        <v>6.75</v>
-      </c>
       <c r="BF225">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="BG225">
         <v>1.34</v>
@@ -47709,28 +47709,28 @@
         <v>2.9</v>
       </c>
       <c r="BI225">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="BJ225">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="BK225">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="BL225">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="BM225">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="BN225">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="BO225">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="BP225">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="226" spans="1:68">
@@ -47738,7 +47738,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>7728420</v>
+        <v>7728421</v>
       </c>
       <c r="C226" t="s">
         <v>68</v>
@@ -47747,196 +47747,196 @@
         <v>69</v>
       </c>
       <c r="E226" s="2">
-        <v>45648.41666666666</v>
+        <v>45648.51041666666</v>
       </c>
       <c r="F226">
         <v>21</v>
       </c>
       <c r="G226" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H226" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I226">
         <v>0</v>
       </c>
       <c r="J226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O226" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="P226" t="s">
-        <v>94</v>
+        <v>330</v>
       </c>
       <c r="Q226">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="R226">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S226">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="T226">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="U226">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V226">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="W226">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="X226">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y226">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="Z226">
-        <v>1.76</v>
+        <v>2.23</v>
       </c>
       <c r="AA226">
-        <v>3.6</v>
+        <v>3.36</v>
       </c>
       <c r="AB226">
-        <v>5.3</v>
+        <v>3.47</v>
       </c>
       <c r="AC226">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AD226">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE226">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AF226">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="AG226">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="AH226">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="AI226">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="AJ226">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AK226">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="AL226">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM226">
-        <v>2.05</v>
+        <v>1.66</v>
       </c>
       <c r="AN226">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AO226">
-        <v>0.2</v>
+        <v>1.11</v>
       </c>
       <c r="AP226">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="AQ226">
-        <v>0.18</v>
+        <v>1.3</v>
       </c>
       <c r="AR226">
-        <v>1.43</v>
+        <v>1.73</v>
       </c>
       <c r="AS226">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AT226">
-        <v>2.48</v>
+        <v>2.99</v>
       </c>
       <c r="AU226">
         <v>4</v>
       </c>
       <c r="AV226">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW226">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX226">
         <v>3</v>
       </c>
       <c r="AY226">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ226">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA226">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB226">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC226">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD226">
-        <v>1.36</v>
+        <v>1.66</v>
       </c>
       <c r="BE226">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="BF226">
+        <v>2.48</v>
+      </c>
+      <c r="BG226">
+        <v>1.38</v>
+      </c>
+      <c r="BH226">
+        <v>2.7</v>
+      </c>
+      <c r="BI226">
+        <v>1.63</v>
+      </c>
+      <c r="BJ226">
+        <v>2.07</v>
+      </c>
+      <c r="BK226">
+        <v>2.04</v>
+      </c>
+      <c r="BL226">
+        <v>1.66</v>
+      </c>
+      <c r="BM226">
+        <v>2.63</v>
+      </c>
+      <c r="BN226">
+        <v>1.41</v>
+      </c>
+      <c r="BO226">
         <v>3.4</v>
       </c>
-      <c r="BG226">
-        <v>1.34</v>
-      </c>
-      <c r="BH226">
-        <v>2.9</v>
-      </c>
-      <c r="BI226">
-        <v>1.57</v>
-      </c>
-      <c r="BJ226">
-        <v>2.2</v>
-      </c>
-      <c r="BK226">
-        <v>1.93</v>
-      </c>
-      <c r="BL226">
-        <v>1.74</v>
-      </c>
-      <c r="BM226">
-        <v>2.45</v>
-      </c>
-      <c r="BN226">
-        <v>1.46</v>
-      </c>
-      <c r="BO226">
-        <v>3.15</v>
-      </c>
       <c r="BP226">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="227" spans="1:68">
@@ -47944,7 +47944,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>7728421</v>
+        <v>7728426</v>
       </c>
       <c r="C227" t="s">
         <v>68</v>
@@ -47953,49 +47953,49 @@
         <v>69</v>
       </c>
       <c r="E227" s="2">
-        <v>45648.51041666666</v>
+        <v>45648.60416666666</v>
       </c>
       <c r="F227">
         <v>21</v>
       </c>
       <c r="G227" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H227" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I227">
         <v>0</v>
       </c>
       <c r="J227">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K227">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M227">
         <v>2</v>
       </c>
       <c r="N227">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O227" t="s">
-        <v>94</v>
+        <v>243</v>
       </c>
       <c r="P227" t="s">
-        <v>330</v>
+        <v>101</v>
       </c>
       <c r="Q227">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="R227">
         <v>2.2</v>
       </c>
       <c r="S227">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="T227">
         <v>1.4</v>
@@ -48016,25 +48016,25 @@
         <v>1.08</v>
       </c>
       <c r="Z227">
-        <v>2.23</v>
+        <v>1.49</v>
       </c>
       <c r="AA227">
-        <v>3.36</v>
+        <v>4.2</v>
       </c>
       <c r="AB227">
-        <v>3.47</v>
+        <v>8.1</v>
       </c>
       <c r="AC227">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AD227">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE227">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="AF227">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="AG227">
         <v>2.15</v>
@@ -48043,106 +48043,106 @@
         <v>1.61</v>
       </c>
       <c r="AI227">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AJ227">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AK227">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="AL227">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AM227">
-        <v>1.66</v>
+        <v>2.1</v>
       </c>
       <c r="AN227">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AO227">
-        <v>1.11</v>
+        <v>0.5</v>
       </c>
       <c r="AP227">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="AQ227">
-        <v>1.3</v>
+        <v>0.55</v>
       </c>
       <c r="AR227">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="AS227">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="AT227">
-        <v>2.99</v>
+        <v>2.67</v>
       </c>
       <c r="AU227">
+        <v>6</v>
+      </c>
+      <c r="AV227">
+        <v>6</v>
+      </c>
+      <c r="AW227">
+        <v>7</v>
+      </c>
+      <c r="AX227">
+        <v>5</v>
+      </c>
+      <c r="AY227">
+        <v>14</v>
+      </c>
+      <c r="AZ227">
+        <v>16</v>
+      </c>
+      <c r="BA227">
+        <v>3</v>
+      </c>
+      <c r="BB227">
         <v>4</v>
-      </c>
-      <c r="AV227">
-        <v>4</v>
-      </c>
-      <c r="AW227">
-        <v>4</v>
-      </c>
-      <c r="AX227">
-        <v>3</v>
-      </c>
-      <c r="AY227">
-        <v>11</v>
-      </c>
-      <c r="AZ227">
-        <v>8</v>
-      </c>
-      <c r="BA227">
-        <v>4</v>
-      </c>
-      <c r="BB227">
-        <v>3</v>
       </c>
       <c r="BC227">
         <v>7</v>
       </c>
       <c r="BD227">
-        <v>1.66</v>
+        <v>1.49</v>
       </c>
       <c r="BE227">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF227">
-        <v>2.48</v>
+        <v>2.9</v>
       </c>
       <c r="BG227">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="BH227">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="BI227">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="BJ227">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="BK227">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="BL227">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="BM227">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="BN227">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="BO227">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="BP227">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="228" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -43000,7 +43000,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>7728404</v>
+        <v>7728842</v>
       </c>
       <c r="C203" t="s">
         <v>68</v>
@@ -43012,73 +43012,73 @@
         <v>45640.60416666666</v>
       </c>
       <c r="F203">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G203" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H203" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203">
         <v>0</v>
       </c>
       <c r="K203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L203">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N203">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O203" t="s">
-        <v>94</v>
+        <v>230</v>
       </c>
       <c r="P203" t="s">
-        <v>94</v>
+        <v>283</v>
       </c>
       <c r="Q203">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="R203">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S203">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="T203">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="U203">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="V203">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="W203">
         <v>1.25</v>
       </c>
       <c r="X203">
-        <v>11</v>
+        <v>9.85</v>
       </c>
       <c r="Y203">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="Z203">
-        <v>3.45</v>
+        <v>2.4</v>
       </c>
       <c r="AA203">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AB203">
-        <v>2.2</v>
+        <v>2.83</v>
       </c>
       <c r="AC203">
         <v>1.1</v>
@@ -43093,112 +43093,112 @@
         <v>2.55</v>
       </c>
       <c r="AG203">
-        <v>2.52</v>
+        <v>2.33</v>
       </c>
       <c r="AH203">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="AI203">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AJ203">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AK203">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AL203">
         <v>1.3</v>
       </c>
       <c r="AM203">
-        <v>1.3</v>
+        <v>1.53</v>
       </c>
       <c r="AN203">
-        <v>1.56</v>
+        <v>2.11</v>
       </c>
       <c r="AO203">
-        <v>1.13</v>
+        <v>1.6</v>
       </c>
       <c r="AP203">
-        <v>1.5</v>
+        <v>2.09</v>
       </c>
       <c r="AQ203">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR203">
+        <v>1.49</v>
+      </c>
+      <c r="AS203">
         <v>1.41</v>
       </c>
-      <c r="AS203">
-        <v>1.3</v>
-      </c>
       <c r="AT203">
-        <v>2.71</v>
+        <v>2.9</v>
       </c>
       <c r="AU203">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV203">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW203">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AX203">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY203">
         <v>14</v>
       </c>
       <c r="AZ203">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA203">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB203">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC203">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD203">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="BE203">
         <v>6.5</v>
       </c>
       <c r="BF203">
-        <v>1.93</v>
+        <v>2.33</v>
       </c>
       <c r="BG203">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="BH203">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="BI203">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="BJ203">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="BK203">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="BL203">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="BM203">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="BN203">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="BO203">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="BP203">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="204" spans="1:68">
@@ -43206,7 +43206,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>7728842</v>
+        <v>7728404</v>
       </c>
       <c r="C204" t="s">
         <v>68</v>
@@ -43218,73 +43218,73 @@
         <v>45640.60416666666</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G204" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H204" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204">
         <v>0</v>
       </c>
       <c r="K204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L204">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N204">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O204" t="s">
-        <v>230</v>
+        <v>94</v>
       </c>
       <c r="P204" t="s">
-        <v>283</v>
+        <v>94</v>
       </c>
       <c r="Q204">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="R204">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="S204">
+        <v>3.1</v>
+      </c>
+      <c r="T204">
+        <v>1.57</v>
+      </c>
+      <c r="U204">
+        <v>2.25</v>
+      </c>
+      <c r="V204">
         <v>3.75</v>
-      </c>
-      <c r="T204">
-        <v>1.56</v>
-      </c>
-      <c r="U204">
-        <v>2.29</v>
-      </c>
-      <c r="V204">
-        <v>3.6</v>
       </c>
       <c r="W204">
         <v>1.25</v>
       </c>
       <c r="X204">
-        <v>9.85</v>
+        <v>11</v>
       </c>
       <c r="Y204">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="Z204">
-        <v>2.4</v>
+        <v>3.45</v>
       </c>
       <c r="AA204">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AB204">
-        <v>2.83</v>
+        <v>2.2</v>
       </c>
       <c r="AC204">
         <v>1.1</v>
@@ -43299,112 +43299,112 @@
         <v>2.55</v>
       </c>
       <c r="AG204">
-        <v>2.33</v>
+        <v>2.52</v>
       </c>
       <c r="AH204">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AI204">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AJ204">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="AK204">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="AL204">
         <v>1.3</v>
       </c>
       <c r="AM204">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="AN204">
-        <v>2.11</v>
+        <v>1.56</v>
       </c>
       <c r="AO204">
-        <v>1.6</v>
+        <v>1.13</v>
       </c>
       <c r="AP204">
-        <v>2.09</v>
+        <v>1.5</v>
       </c>
       <c r="AQ204">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AR204">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="AS204">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="AT204">
-        <v>2.9</v>
+        <v>2.71</v>
       </c>
       <c r="AU204">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AV204">
+        <v>2</v>
+      </c>
+      <c r="AW204">
+        <v>9</v>
+      </c>
+      <c r="AX204">
         <v>4</v>
-      </c>
-      <c r="AW204">
-        <v>3</v>
-      </c>
-      <c r="AX204">
-        <v>1</v>
       </c>
       <c r="AY204">
         <v>14</v>
       </c>
       <c r="AZ204">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA204">
+        <v>3</v>
+      </c>
+      <c r="BB204">
         <v>5</v>
       </c>
-      <c r="BB204">
-        <v>6</v>
-      </c>
       <c r="BC204">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD204">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="BE204">
         <v>6.5</v>
       </c>
       <c r="BF204">
-        <v>2.33</v>
+        <v>1.93</v>
       </c>
       <c r="BG204">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="BH204">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="BI204">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="BJ204">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="BK204">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="BL204">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="BM204">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="BN204">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="BO204">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="BP204">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="205" spans="1:68">
@@ -45266,7 +45266,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>7728417</v>
+        <v>7728412</v>
       </c>
       <c r="C214" t="s">
         <v>68</v>
@@ -45281,190 +45281,190 @@
         <v>20</v>
       </c>
       <c r="G214" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H214" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J214">
         <v>0</v>
       </c>
       <c r="K214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L214">
+        <v>1</v>
+      </c>
+      <c r="M214">
+        <v>1</v>
+      </c>
+      <c r="N214">
+        <v>2</v>
+      </c>
+      <c r="O214" t="s">
+        <v>139</v>
+      </c>
+      <c r="P214" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q214">
+        <v>3.6</v>
+      </c>
+      <c r="R214">
+        <v>1.83</v>
+      </c>
+      <c r="S214">
+        <v>3.5</v>
+      </c>
+      <c r="T214">
+        <v>1.62</v>
+      </c>
+      <c r="U214">
+        <v>2.19</v>
+      </c>
+      <c r="V214">
+        <v>3.95</v>
+      </c>
+      <c r="W214">
+        <v>1.21</v>
+      </c>
+      <c r="X214">
+        <v>10.5</v>
+      </c>
+      <c r="Y214">
+        <v>1.02</v>
+      </c>
+      <c r="Z214">
+        <v>2.7</v>
+      </c>
+      <c r="AA214">
+        <v>2.7</v>
+      </c>
+      <c r="AB214">
+        <v>2.95</v>
+      </c>
+      <c r="AC214">
+        <v>1.11</v>
+      </c>
+      <c r="AD214">
+        <v>6.12</v>
+      </c>
+      <c r="AE214">
+        <v>1.53</v>
+      </c>
+      <c r="AF214">
+        <v>2.37</v>
+      </c>
+      <c r="AG214">
+        <v>2.85</v>
+      </c>
+      <c r="AH214">
+        <v>1.36</v>
+      </c>
+      <c r="AI214">
+        <v>2.15</v>
+      </c>
+      <c r="AJ214">
+        <v>1.66</v>
+      </c>
+      <c r="AK214">
+        <v>1.45</v>
+      </c>
+      <c r="AL214">
+        <v>1.33</v>
+      </c>
+      <c r="AM214">
+        <v>1.4</v>
+      </c>
+      <c r="AN214">
+        <v>2.3</v>
+      </c>
+      <c r="AO214">
+        <v>1.11</v>
+      </c>
+      <c r="AP214">
+        <v>2.18</v>
+      </c>
+      <c r="AQ214">
+        <v>1.1</v>
+      </c>
+      <c r="AR214">
+        <v>1.17</v>
+      </c>
+      <c r="AS214">
+        <v>1.2</v>
+      </c>
+      <c r="AT214">
+        <v>2.37</v>
+      </c>
+      <c r="AU214">
+        <v>4</v>
+      </c>
+      <c r="AV214">
+        <v>6</v>
+      </c>
+      <c r="AW214">
         <v>3</v>
       </c>
-      <c r="M214">
-        <v>0</v>
-      </c>
-      <c r="N214">
-        <v>3</v>
-      </c>
-      <c r="O214" t="s">
-        <v>237</v>
-      </c>
-      <c r="P214" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q214">
-        <v>2.95</v>
-      </c>
-      <c r="R214">
-        <v>1.85</v>
-      </c>
-      <c r="S214">
-        <v>4.2</v>
-      </c>
-      <c r="T214">
-        <v>1.57</v>
-      </c>
-      <c r="U214">
-        <v>2.25</v>
-      </c>
-      <c r="V214">
-        <v>3.65</v>
-      </c>
-      <c r="W214">
-        <v>1.25</v>
-      </c>
-      <c r="X214">
-        <v>10.75</v>
-      </c>
-      <c r="Y214">
-        <v>1.01</v>
-      </c>
-      <c r="Z214">
-        <v>2.3</v>
-      </c>
-      <c r="AA214">
-        <v>2.85</v>
-      </c>
-      <c r="AB214">
-        <v>3.4</v>
-      </c>
-      <c r="AC214">
-        <v>1.1</v>
-      </c>
-      <c r="AD214">
-        <v>6.5</v>
-      </c>
-      <c r="AE214">
-        <v>1.5</v>
-      </c>
-      <c r="AF214">
-        <v>2.4</v>
-      </c>
-      <c r="AG214">
-        <v>2.55</v>
-      </c>
-      <c r="AH214">
-        <v>1.45</v>
-      </c>
-      <c r="AI214">
-        <v>2.1</v>
-      </c>
-      <c r="AJ214">
-        <v>1.62</v>
-      </c>
-      <c r="AK214">
-        <v>1.28</v>
-      </c>
-      <c r="AL214">
-        <v>1.3</v>
-      </c>
-      <c r="AM214">
-        <v>1.65</v>
-      </c>
-      <c r="AN214">
-        <v>1.78</v>
-      </c>
-      <c r="AO214">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AP214">
-        <v>1.9</v>
-      </c>
-      <c r="AQ214">
-        <v>0.55</v>
-      </c>
-      <c r="AR214">
-        <v>1.3</v>
-      </c>
-      <c r="AS214">
-        <v>1.15</v>
-      </c>
-      <c r="AT214">
-        <v>2.45</v>
-      </c>
-      <c r="AU214">
+      <c r="AX214">
+        <v>4</v>
+      </c>
+      <c r="AY214">
         <v>7</v>
       </c>
-      <c r="AV214">
-        <v>5</v>
-      </c>
-      <c r="AW214">
-        <v>12</v>
-      </c>
-      <c r="AX214">
-        <v>7</v>
-      </c>
-      <c r="AY214">
-        <v>23</v>
-      </c>
       <c r="AZ214">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB214">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC214">
         <v>5</v>
       </c>
       <c r="BD214">
-        <v>1.7</v>
+        <v>1.86</v>
       </c>
       <c r="BE214">
         <v>6.4</v>
       </c>
       <c r="BF214">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="BG214">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="BH214">
-        <v>2.7</v>
+        <v>2.43</v>
       </c>
       <c r="BI214">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="BJ214">
-        <v>2.05</v>
+        <v>1.86</v>
       </c>
       <c r="BK214">
-        <v>2.06</v>
+        <v>2.28</v>
       </c>
       <c r="BL214">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="BM214">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="BN214">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="BO214">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="BP214">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="215" spans="1:68">
@@ -45472,7 +45472,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>7728412</v>
+        <v>7728417</v>
       </c>
       <c r="C215" t="s">
         <v>68</v>
@@ -45487,190 +45487,190 @@
         <v>20</v>
       </c>
       <c r="G215" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="H215" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J215">
         <v>0</v>
       </c>
       <c r="K215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L215">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N215">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O215" t="s">
-        <v>139</v>
+        <v>237</v>
       </c>
       <c r="P215" t="s">
-        <v>283</v>
+        <v>94</v>
       </c>
       <c r="Q215">
-        <v>3.6</v>
+        <v>2.95</v>
       </c>
       <c r="R215">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S215">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="T215">
+        <v>1.57</v>
+      </c>
+      <c r="U215">
+        <v>2.25</v>
+      </c>
+      <c r="V215">
+        <v>3.65</v>
+      </c>
+      <c r="W215">
+        <v>1.25</v>
+      </c>
+      <c r="X215">
+        <v>10.75</v>
+      </c>
+      <c r="Y215">
+        <v>1.01</v>
+      </c>
+      <c r="Z215">
+        <v>2.3</v>
+      </c>
+      <c r="AA215">
+        <v>2.85</v>
+      </c>
+      <c r="AB215">
+        <v>3.4</v>
+      </c>
+      <c r="AC215">
+        <v>1.1</v>
+      </c>
+      <c r="AD215">
+        <v>6.5</v>
+      </c>
+      <c r="AE215">
+        <v>1.5</v>
+      </c>
+      <c r="AF215">
+        <v>2.4</v>
+      </c>
+      <c r="AG215">
+        <v>2.55</v>
+      </c>
+      <c r="AH215">
+        <v>1.45</v>
+      </c>
+      <c r="AI215">
+        <v>2.1</v>
+      </c>
+      <c r="AJ215">
         <v>1.62</v>
       </c>
-      <c r="U215">
-        <v>2.19</v>
-      </c>
-      <c r="V215">
-        <v>3.95</v>
-      </c>
-      <c r="W215">
-        <v>1.21</v>
-      </c>
-      <c r="X215">
-        <v>10.5</v>
-      </c>
-      <c r="Y215">
-        <v>1.02</v>
-      </c>
-      <c r="Z215">
-        <v>2.7</v>
-      </c>
-      <c r="AA215">
-        <v>2.7</v>
-      </c>
-      <c r="AB215">
-        <v>2.95</v>
-      </c>
-      <c r="AC215">
-        <v>1.11</v>
-      </c>
-      <c r="AD215">
-        <v>6.12</v>
-      </c>
-      <c r="AE215">
-        <v>1.53</v>
-      </c>
-      <c r="AF215">
-        <v>2.37</v>
-      </c>
-      <c r="AG215">
-        <v>2.85</v>
-      </c>
-      <c r="AH215">
-        <v>1.36</v>
-      </c>
-      <c r="AI215">
-        <v>2.15</v>
-      </c>
-      <c r="AJ215">
-        <v>1.66</v>
-      </c>
       <c r="AK215">
-        <v>1.45</v>
+        <v>1.28</v>
       </c>
       <c r="AL215">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AM215">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="AN215">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="AO215">
-        <v>1.11</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP215">
-        <v>2.18</v>
+        <v>1.9</v>
       </c>
       <c r="AQ215">
-        <v>1.1</v>
+        <v>0.55</v>
       </c>
       <c r="AR215">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="AS215">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AT215">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AU215">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV215">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW215">
+        <v>12</v>
+      </c>
+      <c r="AX215">
+        <v>7</v>
+      </c>
+      <c r="AY215">
+        <v>23</v>
+      </c>
+      <c r="AZ215">
+        <v>16</v>
+      </c>
+      <c r="BA215">
         <v>3</v>
       </c>
-      <c r="AX215">
-        <v>4</v>
-      </c>
-      <c r="AY215">
-        <v>7</v>
-      </c>
-      <c r="AZ215">
-        <v>14</v>
-      </c>
-      <c r="BA215">
-        <v>1</v>
-      </c>
       <c r="BB215">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC215">
         <v>5</v>
       </c>
       <c r="BD215">
-        <v>1.86</v>
+        <v>1.7</v>
       </c>
       <c r="BE215">
         <v>6.4</v>
       </c>
       <c r="BF215">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="BG215">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="BH215">
-        <v>2.43</v>
+        <v>2.7</v>
       </c>
       <c r="BI215">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="BJ215">
-        <v>1.86</v>
+        <v>2.05</v>
       </c>
       <c r="BK215">
-        <v>2.28</v>
+        <v>2.06</v>
       </c>
       <c r="BL215">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="BM215">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="BN215">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="BO215">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="BP215">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="216" spans="1:68">
@@ -46090,7 +46090,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>7728411</v>
+        <v>7728416</v>
       </c>
       <c r="C218" t="s">
         <v>68</v>
@@ -46105,190 +46105,190 @@
         <v>20</v>
       </c>
       <c r="G218" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H218" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I218">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K218">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L218">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N218">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O218" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="P218" t="s">
-        <v>94</v>
+        <v>222</v>
       </c>
       <c r="Q218">
-        <v>3.2</v>
+        <v>2.63</v>
       </c>
       <c r="R218">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="S218">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="T218">
+        <v>1.33</v>
+      </c>
+      <c r="U218">
+        <v>3.25</v>
+      </c>
+      <c r="V218">
+        <v>2.63</v>
+      </c>
+      <c r="W218">
+        <v>1.44</v>
+      </c>
+      <c r="X218">
+        <v>6.5</v>
+      </c>
+      <c r="Y218">
+        <v>1.11</v>
+      </c>
+      <c r="Z218">
+        <v>2.05</v>
+      </c>
+      <c r="AA218">
+        <v>3.5</v>
+      </c>
+      <c r="AB218">
+        <v>3.25</v>
+      </c>
+      <c r="AC218">
+        <v>1.04</v>
+      </c>
+      <c r="AD218">
+        <v>10</v>
+      </c>
+      <c r="AE218">
+        <v>1.22</v>
+      </c>
+      <c r="AF218">
+        <v>4</v>
+      </c>
+      <c r="AG218">
+        <v>1.69</v>
+      </c>
+      <c r="AH218">
+        <v>2.17</v>
+      </c>
+      <c r="AI218">
+        <v>1.62</v>
+      </c>
+      <c r="AJ218">
+        <v>2.2</v>
+      </c>
+      <c r="AK218">
+        <v>1.3</v>
+      </c>
+      <c r="AL218">
+        <v>1.22</v>
+      </c>
+      <c r="AM218">
+        <v>1.78</v>
+      </c>
+      <c r="AN218">
+        <v>1.11</v>
+      </c>
+      <c r="AO218">
         <v>1.67</v>
       </c>
-      <c r="U218">
-        <v>2.1</v>
-      </c>
-      <c r="V218">
-        <v>4.5</v>
-      </c>
-      <c r="W218">
+      <c r="AP218">
         <v>1.18</v>
       </c>
-      <c r="X218">
-        <v>15</v>
-      </c>
-      <c r="Y218">
-        <v>1.03</v>
-      </c>
-      <c r="Z218">
-        <v>2.3</v>
-      </c>
-      <c r="AA218">
-        <v>2.8</v>
-      </c>
-      <c r="AB218">
-        <v>3.4</v>
-      </c>
-      <c r="AC218">
-        <v>1.12</v>
-      </c>
-      <c r="AD218">
-        <v>6</v>
-      </c>
-      <c r="AE218">
+      <c r="AQ218">
+        <v>1.5</v>
+      </c>
+      <c r="AR218">
+        <v>1.41</v>
+      </c>
+      <c r="AS218">
+        <v>1.37</v>
+      </c>
+      <c r="AT218">
+        <v>2.78</v>
+      </c>
+      <c r="AU218">
+        <v>12</v>
+      </c>
+      <c r="AV218">
+        <v>4</v>
+      </c>
+      <c r="AW218">
+        <v>5</v>
+      </c>
+      <c r="AX218">
+        <v>4</v>
+      </c>
+      <c r="AY218">
+        <v>18</v>
+      </c>
+      <c r="AZ218">
+        <v>11</v>
+      </c>
+      <c r="BA218">
+        <v>7</v>
+      </c>
+      <c r="BB218">
+        <v>0</v>
+      </c>
+      <c r="BC218">
+        <v>7</v>
+      </c>
+      <c r="BD218">
         <v>1.67</v>
-      </c>
-      <c r="AF218">
-        <v>2.2</v>
-      </c>
-      <c r="AG218">
-        <v>2.9</v>
-      </c>
-      <c r="AH218">
-        <v>1.36</v>
-      </c>
-      <c r="AI218">
-        <v>2.5</v>
-      </c>
-      <c r="AJ218">
-        <v>1.5</v>
-      </c>
-      <c r="AK218">
-        <v>1.25</v>
-      </c>
-      <c r="AL218">
-        <v>1.33</v>
-      </c>
-      <c r="AM218">
-        <v>1.63</v>
-      </c>
-      <c r="AN218">
-        <v>1.78</v>
-      </c>
-      <c r="AO218">
-        <v>0.22</v>
-      </c>
-      <c r="AP218">
-        <v>1.9</v>
-      </c>
-      <c r="AQ218">
-        <v>0.18</v>
-      </c>
-      <c r="AR218">
-        <v>1.15</v>
-      </c>
-      <c r="AS218">
-        <v>1.03</v>
-      </c>
-      <c r="AT218">
-        <v>2.18</v>
-      </c>
-      <c r="AU218">
-        <v>5</v>
-      </c>
-      <c r="AV218">
-        <v>3</v>
-      </c>
-      <c r="AW218">
-        <v>4</v>
-      </c>
-      <c r="AX218">
-        <v>7</v>
-      </c>
-      <c r="AY218">
-        <v>11</v>
-      </c>
-      <c r="AZ218">
-        <v>13</v>
-      </c>
-      <c r="BA218">
-        <v>5</v>
-      </c>
-      <c r="BB218">
-        <v>4</v>
-      </c>
-      <c r="BC218">
-        <v>9</v>
-      </c>
-      <c r="BD218">
-        <v>1.56</v>
       </c>
       <c r="BE218">
         <v>6.75</v>
       </c>
       <c r="BF218">
-        <v>2.65</v>
+        <v>2.43</v>
       </c>
       <c r="BG218">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="BH218">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="BI218">
-        <v>1.64</v>
+        <v>1.32</v>
       </c>
       <c r="BJ218">
-        <v>2.06</v>
+        <v>3</v>
       </c>
       <c r="BK218">
-        <v>2.02</v>
+        <v>1.53</v>
       </c>
       <c r="BL218">
-        <v>1.66</v>
+        <v>2.28</v>
       </c>
       <c r="BM218">
-        <v>2.63</v>
+        <v>1.83</v>
       </c>
       <c r="BN218">
-        <v>1.41</v>
+        <v>1.83</v>
       </c>
       <c r="BO218">
-        <v>3.4</v>
+        <v>2.28</v>
       </c>
       <c r="BP218">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="219" spans="1:68">
@@ -46296,7 +46296,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>7728416</v>
+        <v>7728411</v>
       </c>
       <c r="C219" t="s">
         <v>68</v>
@@ -46311,190 +46311,190 @@
         <v>20</v>
       </c>
       <c r="G219" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H219" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>1</v>
+      </c>
+      <c r="L219">
+        <v>1</v>
+      </c>
+      <c r="M219">
+        <v>0</v>
+      </c>
+      <c r="N219">
+        <v>1</v>
+      </c>
+      <c r="O219" t="s">
+        <v>206</v>
+      </c>
+      <c r="P219" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q219">
+        <v>3.2</v>
+      </c>
+      <c r="R219">
+        <v>1.8</v>
+      </c>
+      <c r="S219">
+        <v>4.75</v>
+      </c>
+      <c r="T219">
+        <v>1.67</v>
+      </c>
+      <c r="U219">
+        <v>2.1</v>
+      </c>
+      <c r="V219">
+        <v>4.5</v>
+      </c>
+      <c r="W219">
+        <v>1.18</v>
+      </c>
+      <c r="X219">
+        <v>15</v>
+      </c>
+      <c r="Y219">
+        <v>1.03</v>
+      </c>
+      <c r="Z219">
+        <v>2.3</v>
+      </c>
+      <c r="AA219">
+        <v>2.8</v>
+      </c>
+      <c r="AB219">
+        <v>3.4</v>
+      </c>
+      <c r="AC219">
+        <v>1.12</v>
+      </c>
+      <c r="AD219">
+        <v>6</v>
+      </c>
+      <c r="AE219">
+        <v>1.67</v>
+      </c>
+      <c r="AF219">
+        <v>2.2</v>
+      </c>
+      <c r="AG219">
+        <v>2.9</v>
+      </c>
+      <c r="AH219">
+        <v>1.36</v>
+      </c>
+      <c r="AI219">
+        <v>2.5</v>
+      </c>
+      <c r="AJ219">
+        <v>1.5</v>
+      </c>
+      <c r="AK219">
+        <v>1.25</v>
+      </c>
+      <c r="AL219">
+        <v>1.33</v>
+      </c>
+      <c r="AM219">
+        <v>1.63</v>
+      </c>
+      <c r="AN219">
+        <v>1.78</v>
+      </c>
+      <c r="AO219">
+        <v>0.22</v>
+      </c>
+      <c r="AP219">
+        <v>1.9</v>
+      </c>
+      <c r="AQ219">
+        <v>0.18</v>
+      </c>
+      <c r="AR219">
+        <v>1.15</v>
+      </c>
+      <c r="AS219">
+        <v>1.03</v>
+      </c>
+      <c r="AT219">
+        <v>2.18</v>
+      </c>
+      <c r="AU219">
+        <v>5</v>
+      </c>
+      <c r="AV219">
         <v>3</v>
       </c>
-      <c r="J219">
-        <v>1</v>
-      </c>
-      <c r="K219">
+      <c r="AW219">
         <v>4</v>
       </c>
-      <c r="L219">
+      <c r="AX219">
+        <v>7</v>
+      </c>
+      <c r="AY219">
+        <v>11</v>
+      </c>
+      <c r="AZ219">
+        <v>13</v>
+      </c>
+      <c r="BA219">
         <v>5</v>
       </c>
-      <c r="M219">
-        <v>1</v>
-      </c>
-      <c r="N219">
-        <v>6</v>
-      </c>
-      <c r="O219" t="s">
-        <v>240</v>
-      </c>
-      <c r="P219" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q219">
-        <v>2.63</v>
-      </c>
-      <c r="R219">
-        <v>2.3</v>
-      </c>
-      <c r="S219">
-        <v>3.75</v>
-      </c>
-      <c r="T219">
-        <v>1.33</v>
-      </c>
-      <c r="U219">
-        <v>3.25</v>
-      </c>
-      <c r="V219">
-        <v>2.63</v>
-      </c>
-      <c r="W219">
-        <v>1.44</v>
-      </c>
-      <c r="X219">
-        <v>6.5</v>
-      </c>
-      <c r="Y219">
-        <v>1.11</v>
-      </c>
-      <c r="Z219">
-        <v>2.05</v>
-      </c>
-      <c r="AA219">
-        <v>3.5</v>
-      </c>
-      <c r="AB219">
-        <v>3.25</v>
-      </c>
-      <c r="AC219">
-        <v>1.04</v>
-      </c>
-      <c r="AD219">
-        <v>10</v>
-      </c>
-      <c r="AE219">
-        <v>1.22</v>
-      </c>
-      <c r="AF219">
+      <c r="BB219">
         <v>4</v>
       </c>
-      <c r="AG219">
-        <v>1.69</v>
-      </c>
-      <c r="AH219">
-        <v>2.17</v>
-      </c>
-      <c r="AI219">
-        <v>1.62</v>
-      </c>
-      <c r="AJ219">
-        <v>2.2</v>
-      </c>
-      <c r="AK219">
-        <v>1.3</v>
-      </c>
-      <c r="AL219">
-        <v>1.22</v>
-      </c>
-      <c r="AM219">
-        <v>1.78</v>
-      </c>
-      <c r="AN219">
-        <v>1.11</v>
-      </c>
-      <c r="AO219">
-        <v>1.67</v>
-      </c>
-      <c r="AP219">
-        <v>1.18</v>
-      </c>
-      <c r="AQ219">
-        <v>1.5</v>
-      </c>
-      <c r="AR219">
-        <v>1.41</v>
-      </c>
-      <c r="AS219">
-        <v>1.37</v>
-      </c>
-      <c r="AT219">
-        <v>2.78</v>
-      </c>
-      <c r="AU219">
-        <v>12</v>
-      </c>
-      <c r="AV219">
-        <v>4</v>
-      </c>
-      <c r="AW219">
-        <v>5</v>
-      </c>
-      <c r="AX219">
-        <v>4</v>
-      </c>
-      <c r="AY219">
-        <v>18</v>
-      </c>
-      <c r="AZ219">
-        <v>11</v>
-      </c>
-      <c r="BA219">
-        <v>7</v>
-      </c>
-      <c r="BB219">
-        <v>0</v>
-      </c>
       <c r="BC219">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD219">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="BE219">
         <v>6.75</v>
       </c>
       <c r="BF219">
-        <v>2.43</v>
+        <v>2.65</v>
       </c>
       <c r="BG219">
-        <v>1.17</v>
+        <v>1.38</v>
       </c>
       <c r="BH219">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="BI219">
-        <v>1.32</v>
+        <v>1.64</v>
       </c>
       <c r="BJ219">
-        <v>3</v>
+        <v>2.06</v>
       </c>
       <c r="BK219">
-        <v>1.53</v>
+        <v>2.02</v>
       </c>
       <c r="BL219">
-        <v>2.28</v>
+        <v>1.66</v>
       </c>
       <c r="BM219">
-        <v>1.83</v>
+        <v>2.63</v>
       </c>
       <c r="BN219">
-        <v>1.83</v>
+        <v>1.41</v>
       </c>
       <c r="BO219">
-        <v>2.28</v>
+        <v>3.4</v>
       </c>
       <c r="BP219">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="220" spans="1:68">
@@ -47120,7 +47120,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>7728429</v>
+        <v>7728427</v>
       </c>
       <c r="C223" t="s">
         <v>68</v>
@@ -47135,10 +47135,10 @@
         <v>21</v>
       </c>
       <c r="G223" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="H223" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I223">
         <v>0</v>
@@ -47153,25 +47153,25 @@
         <v>1</v>
       </c>
       <c r="M223">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N223">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O223" t="s">
-        <v>117</v>
+        <v>242</v>
       </c>
       <c r="P223" t="s">
-        <v>329</v>
+        <v>94</v>
       </c>
       <c r="Q223">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="R223">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S223">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="T223">
         <v>1.5</v>
@@ -47180,43 +47180,43 @@
         <v>2.5</v>
       </c>
       <c r="V223">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W223">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X223">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y223">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z223">
-        <v>2.11</v>
+        <v>1.95</v>
       </c>
       <c r="AA223">
-        <v>2.36</v>
+        <v>2.49</v>
       </c>
       <c r="AB223">
-        <v>4.77</v>
+        <v>5.15</v>
       </c>
       <c r="AC223">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AD223">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE223">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AF223">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="AG223">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AH223">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AI223">
         <v>2.2</v>
@@ -47225,100 +47225,100 @@
         <v>1.62</v>
       </c>
       <c r="AK223">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="AL223">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM223">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AN223">
+        <v>1.11</v>
+      </c>
+      <c r="AO223">
+        <v>1.11</v>
+      </c>
+      <c r="AP223">
+        <v>1.3</v>
+      </c>
+      <c r="AQ223">
+        <v>1</v>
+      </c>
+      <c r="AR223">
+        <v>1.71</v>
+      </c>
+      <c r="AS223">
+        <v>0.9</v>
+      </c>
+      <c r="AT223">
+        <v>2.61</v>
+      </c>
+      <c r="AU223">
+        <v>5</v>
+      </c>
+      <c r="AV223">
+        <v>2</v>
+      </c>
+      <c r="AW223">
+        <v>6</v>
+      </c>
+      <c r="AX223">
+        <v>1</v>
+      </c>
+      <c r="AY223">
+        <v>14</v>
+      </c>
+      <c r="AZ223">
+        <v>6</v>
+      </c>
+      <c r="BA223">
+        <v>7</v>
+      </c>
+      <c r="BB223">
+        <v>2</v>
+      </c>
+      <c r="BC223">
+        <v>9</v>
+      </c>
+      <c r="BD223">
+        <v>1.49</v>
+      </c>
+      <c r="BE223">
+        <v>7</v>
+      </c>
+      <c r="BF223">
+        <v>2.9</v>
+      </c>
+      <c r="BG223">
+        <v>1.33</v>
+      </c>
+      <c r="BH223">
+        <v>2.95</v>
+      </c>
+      <c r="BI223">
+        <v>1.56</v>
+      </c>
+      <c r="BJ223">
+        <v>2.2</v>
+      </c>
+      <c r="BK223">
         <v>1.9</v>
       </c>
-      <c r="AO223">
-        <v>0.8</v>
-      </c>
-      <c r="AP223">
-        <v>1.73</v>
-      </c>
-      <c r="AQ223">
-        <v>1</v>
-      </c>
-      <c r="AR223">
-        <v>1.5</v>
-      </c>
-      <c r="AS223">
-        <v>1.1</v>
-      </c>
-      <c r="AT223">
-        <v>2.6</v>
-      </c>
-      <c r="AU223">
-        <v>9</v>
-      </c>
-      <c r="AV223">
-        <v>5</v>
-      </c>
-      <c r="AW223">
-        <v>8</v>
-      </c>
-      <c r="AX223">
-        <v>1</v>
-      </c>
-      <c r="AY223">
-        <v>24</v>
-      </c>
-      <c r="AZ223">
-        <v>8</v>
-      </c>
-      <c r="BA223">
-        <v>10</v>
-      </c>
-      <c r="BB223">
-        <v>2</v>
-      </c>
-      <c r="BC223">
-        <v>12</v>
-      </c>
-      <c r="BD223">
-        <v>1.53</v>
-      </c>
-      <c r="BE223">
-        <v>6.75</v>
-      </c>
-      <c r="BF223">
-        <v>2.8</v>
-      </c>
-      <c r="BG223">
-        <v>1.38</v>
-      </c>
-      <c r="BH223">
-        <v>2.7</v>
-      </c>
-      <c r="BI223">
-        <v>1.65</v>
-      </c>
-      <c r="BJ223">
-        <v>2.05</v>
-      </c>
-      <c r="BK223">
-        <v>2.04</v>
-      </c>
       <c r="BL223">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="BM223">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="BN223">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="BO223">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="BP223">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="224" spans="1:68">
@@ -47326,7 +47326,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>7728427</v>
+        <v>7728429</v>
       </c>
       <c r="C224" t="s">
         <v>68</v>
@@ -47341,10 +47341,10 @@
         <v>21</v>
       </c>
       <c r="G224" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="H224" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I224">
         <v>0</v>
@@ -47359,25 +47359,25 @@
         <v>1</v>
       </c>
       <c r="M224">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N224">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O224" t="s">
-        <v>242</v>
+        <v>117</v>
       </c>
       <c r="P224" t="s">
-        <v>94</v>
+        <v>329</v>
       </c>
       <c r="Q224">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="R224">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S224">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="T224">
         <v>1.5</v>
@@ -47386,43 +47386,43 @@
         <v>2.5</v>
       </c>
       <c r="V224">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W224">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X224">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y224">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z224">
-        <v>1.95</v>
+        <v>2.11</v>
       </c>
       <c r="AA224">
-        <v>2.49</v>
+        <v>2.36</v>
       </c>
       <c r="AB224">
-        <v>5.15</v>
+        <v>4.77</v>
       </c>
       <c r="AC224">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AD224">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE224">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AF224">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="AG224">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AH224">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AI224">
         <v>2.2</v>
@@ -47431,100 +47431,100 @@
         <v>1.62</v>
       </c>
       <c r="AK224">
+        <v>1.12</v>
+      </c>
+      <c r="AL224">
+        <v>1.25</v>
+      </c>
+      <c r="AM224">
+        <v>2</v>
+      </c>
+      <c r="AN224">
+        <v>1.9</v>
+      </c>
+      <c r="AO224">
+        <v>0.8</v>
+      </c>
+      <c r="AP224">
+        <v>1.73</v>
+      </c>
+      <c r="AQ224">
+        <v>1</v>
+      </c>
+      <c r="AR224">
+        <v>1.5</v>
+      </c>
+      <c r="AS224">
         <v>1.1</v>
       </c>
-      <c r="AL224">
-        <v>1.22</v>
-      </c>
-      <c r="AM224">
-        <v>2.25</v>
-      </c>
-      <c r="AN224">
-        <v>1.11</v>
-      </c>
-      <c r="AO224">
-        <v>1.11</v>
-      </c>
-      <c r="AP224">
-        <v>1.3</v>
-      </c>
-      <c r="AQ224">
-        <v>1</v>
-      </c>
-      <c r="AR224">
-        <v>1.71</v>
-      </c>
-      <c r="AS224">
-        <v>0.9</v>
-      </c>
       <c r="AT224">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="AU224">
+        <v>9</v>
+      </c>
+      <c r="AV224">
         <v>5</v>
       </c>
-      <c r="AV224">
-        <v>2</v>
-      </c>
       <c r="AW224">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX224">
         <v>1</v>
       </c>
       <c r="AY224">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AZ224">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA224">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BB224">
         <v>2</v>
       </c>
       <c r="BC224">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD224">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="BE224">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="BF224">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="BG224">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="BH224">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="BI224">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="BJ224">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="BK224">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="BL224">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="BM224">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="BN224">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="BO224">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="BP224">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="225" spans="1:68">
@@ -47944,7 +47944,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>7728426</v>
+        <v>7728419</v>
       </c>
       <c r="C227" t="s">
         <v>68</v>
@@ -47959,70 +47959,70 @@
         <v>21</v>
       </c>
       <c r="G227" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H227" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I227">
         <v>0</v>
       </c>
       <c r="J227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N227">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O227" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="P227" t="s">
-        <v>101</v>
+        <v>331</v>
       </c>
       <c r="Q227">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R227">
         <v>2.2</v>
       </c>
       <c r="S227">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T227">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U227">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V227">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W227">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X227">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y227">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z227">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="AA227">
         <v>4.2</v>
       </c>
       <c r="AB227">
-        <v>8.1</v>
+        <v>6.7</v>
       </c>
       <c r="AC227">
         <v>1.05</v>
@@ -48031,118 +48031,118 @@
         <v>9</v>
       </c>
       <c r="AE227">
+        <v>1.3</v>
+      </c>
+      <c r="AF227">
+        <v>3.3</v>
+      </c>
+      <c r="AG227">
+        <v>2.01</v>
+      </c>
+      <c r="AH227">
+        <v>1.81</v>
+      </c>
+      <c r="AI227">
+        <v>2</v>
+      </c>
+      <c r="AJ227">
+        <v>1.73</v>
+      </c>
+      <c r="AK227">
+        <v>1.1</v>
+      </c>
+      <c r="AL227">
+        <v>1.2</v>
+      </c>
+      <c r="AM227">
+        <v>2.25</v>
+      </c>
+      <c r="AN227">
+        <v>2.22</v>
+      </c>
+      <c r="AO227">
+        <v>1</v>
+      </c>
+      <c r="AP227">
+        <v>2.1</v>
+      </c>
+      <c r="AQ227">
+        <v>1</v>
+      </c>
+      <c r="AR227">
+        <v>1.67</v>
+      </c>
+      <c r="AS227">
+        <v>1.22</v>
+      </c>
+      <c r="AT227">
+        <v>2.89</v>
+      </c>
+      <c r="AU227">
+        <v>7</v>
+      </c>
+      <c r="AV227">
+        <v>5</v>
+      </c>
+      <c r="AW227">
+        <v>10</v>
+      </c>
+      <c r="AX227">
+        <v>1</v>
+      </c>
+      <c r="AY227">
+        <v>21</v>
+      </c>
+      <c r="AZ227">
+        <v>6</v>
+      </c>
+      <c r="BA227">
+        <v>6</v>
+      </c>
+      <c r="BB227">
+        <v>0</v>
+      </c>
+      <c r="BC227">
+        <v>6</v>
+      </c>
+      <c r="BD227">
+        <v>1.36</v>
+      </c>
+      <c r="BE227">
+        <v>7.5</v>
+      </c>
+      <c r="BF227">
+        <v>3.45</v>
+      </c>
+      <c r="BG227">
         <v>1.28</v>
       </c>
-      <c r="AF227">
-        <v>3.4</v>
-      </c>
-      <c r="AG227">
-        <v>2.15</v>
-      </c>
-      <c r="AH227">
-        <v>1.61</v>
-      </c>
-      <c r="AI227">
-        <v>1.83</v>
-      </c>
-      <c r="AJ227">
-        <v>1.83</v>
-      </c>
-      <c r="AK227">
-        <v>1.14</v>
-      </c>
-      <c r="AL227">
-        <v>1.22</v>
-      </c>
-      <c r="AM227">
-        <v>2.1</v>
-      </c>
-      <c r="AN227">
-        <v>1.5</v>
-      </c>
-      <c r="AO227">
-        <v>0.5</v>
-      </c>
-      <c r="AP227">
-        <v>1.45</v>
-      </c>
-      <c r="AQ227">
-        <v>0.55</v>
-      </c>
-      <c r="AR227">
-        <v>1.5</v>
-      </c>
-      <c r="AS227">
-        <v>1.17</v>
-      </c>
-      <c r="AT227">
-        <v>2.67</v>
-      </c>
-      <c r="AU227">
-        <v>6</v>
-      </c>
-      <c r="AV227">
-        <v>6</v>
-      </c>
-      <c r="AW227">
-        <v>7</v>
-      </c>
-      <c r="AX227">
-        <v>5</v>
-      </c>
-      <c r="AY227">
-        <v>14</v>
-      </c>
-      <c r="AZ227">
-        <v>16</v>
-      </c>
-      <c r="BA227">
-        <v>3</v>
-      </c>
-      <c r="BB227">
-        <v>4</v>
-      </c>
-      <c r="BC227">
-        <v>7</v>
-      </c>
-      <c r="BD227">
-        <v>1.49</v>
-      </c>
-      <c r="BE227">
-        <v>6.75</v>
-      </c>
-      <c r="BF227">
-        <v>2.9</v>
-      </c>
-      <c r="BG227">
-        <v>1.34</v>
-      </c>
       <c r="BH227">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="BI227">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="BJ227">
-        <v>2.18</v>
+        <v>2.43</v>
       </c>
       <c r="BK227">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="BL227">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="BM227">
-        <v>2.4</v>
+        <v>2.23</v>
       </c>
       <c r="BN227">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="BO227">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="BP227">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="228" spans="1:68">
@@ -48150,7 +48150,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>7728419</v>
+        <v>7728426</v>
       </c>
       <c r="C228" t="s">
         <v>68</v>
@@ -48165,70 +48165,70 @@
         <v>21</v>
       </c>
       <c r="G228" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="H228" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I228">
         <v>0</v>
       </c>
       <c r="J228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N228">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O228" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="P228" t="s">
-        <v>331</v>
+        <v>101</v>
       </c>
       <c r="Q228">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R228">
         <v>2.2</v>
       </c>
       <c r="S228">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T228">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U228">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V228">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W228">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X228">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y228">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z228">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="AA228">
         <v>4.2</v>
       </c>
       <c r="AB228">
-        <v>6.7</v>
+        <v>8.1</v>
       </c>
       <c r="AC228">
         <v>1.05</v>
@@ -48237,118 +48237,118 @@
         <v>9</v>
       </c>
       <c r="AE228">
+        <v>1.28</v>
+      </c>
+      <c r="AF228">
+        <v>3.4</v>
+      </c>
+      <c r="AG228">
+        <v>2.15</v>
+      </c>
+      <c r="AH228">
+        <v>1.61</v>
+      </c>
+      <c r="AI228">
+        <v>1.83</v>
+      </c>
+      <c r="AJ228">
+        <v>1.83</v>
+      </c>
+      <c r="AK228">
+        <v>1.14</v>
+      </c>
+      <c r="AL228">
+        <v>1.22</v>
+      </c>
+      <c r="AM228">
+        <v>2.1</v>
+      </c>
+      <c r="AN228">
+        <v>1.5</v>
+      </c>
+      <c r="AO228">
+        <v>0.5</v>
+      </c>
+      <c r="AP228">
+        <v>1.45</v>
+      </c>
+      <c r="AQ228">
+        <v>0.55</v>
+      </c>
+      <c r="AR228">
+        <v>1.5</v>
+      </c>
+      <c r="AS228">
+        <v>1.17</v>
+      </c>
+      <c r="AT228">
+        <v>2.67</v>
+      </c>
+      <c r="AU228">
+        <v>6</v>
+      </c>
+      <c r="AV228">
+        <v>6</v>
+      </c>
+      <c r="AW228">
+        <v>7</v>
+      </c>
+      <c r="AX228">
+        <v>5</v>
+      </c>
+      <c r="AY228">
+        <v>14</v>
+      </c>
+      <c r="AZ228">
+        <v>16</v>
+      </c>
+      <c r="BA228">
+        <v>3</v>
+      </c>
+      <c r="BB228">
+        <v>4</v>
+      </c>
+      <c r="BC228">
+        <v>7</v>
+      </c>
+      <c r="BD228">
+        <v>1.49</v>
+      </c>
+      <c r="BE228">
+        <v>6.75</v>
+      </c>
+      <c r="BF228">
+        <v>2.9</v>
+      </c>
+      <c r="BG228">
+        <v>1.34</v>
+      </c>
+      <c r="BH228">
+        <v>2.9</v>
+      </c>
+      <c r="BI228">
+        <v>1.58</v>
+      </c>
+      <c r="BJ228">
+        <v>2.18</v>
+      </c>
+      <c r="BK228">
+        <v>1.9</v>
+      </c>
+      <c r="BL228">
+        <v>1.76</v>
+      </c>
+      <c r="BM228">
+        <v>2.4</v>
+      </c>
+      <c r="BN228">
+        <v>1.48</v>
+      </c>
+      <c r="BO228">
+        <v>3.1</v>
+      </c>
+      <c r="BP228">
         <v>1.3</v>
-      </c>
-      <c r="AF228">
-        <v>3.3</v>
-      </c>
-      <c r="AG228">
-        <v>2.01</v>
-      </c>
-      <c r="AH228">
-        <v>1.81</v>
-      </c>
-      <c r="AI228">
-        <v>2</v>
-      </c>
-      <c r="AJ228">
-        <v>1.73</v>
-      </c>
-      <c r="AK228">
-        <v>1.1</v>
-      </c>
-      <c r="AL228">
-        <v>1.2</v>
-      </c>
-      <c r="AM228">
-        <v>2.25</v>
-      </c>
-      <c r="AN228">
-        <v>2.22</v>
-      </c>
-      <c r="AO228">
-        <v>1</v>
-      </c>
-      <c r="AP228">
-        <v>2.1</v>
-      </c>
-      <c r="AQ228">
-        <v>1</v>
-      </c>
-      <c r="AR228">
-        <v>1.67</v>
-      </c>
-      <c r="AS228">
-        <v>1.22</v>
-      </c>
-      <c r="AT228">
-        <v>2.89</v>
-      </c>
-      <c r="AU228">
-        <v>7</v>
-      </c>
-      <c r="AV228">
-        <v>5</v>
-      </c>
-      <c r="AW228">
-        <v>10</v>
-      </c>
-      <c r="AX228">
-        <v>1</v>
-      </c>
-      <c r="AY228">
-        <v>21</v>
-      </c>
-      <c r="AZ228">
-        <v>6</v>
-      </c>
-      <c r="BA228">
-        <v>6</v>
-      </c>
-      <c r="BB228">
-        <v>0</v>
-      </c>
-      <c r="BC228">
-        <v>6</v>
-      </c>
-      <c r="BD228">
-        <v>1.36</v>
-      </c>
-      <c r="BE228">
-        <v>7.5</v>
-      </c>
-      <c r="BF228">
-        <v>3.45</v>
-      </c>
-      <c r="BG228">
-        <v>1.28</v>
-      </c>
-      <c r="BH228">
-        <v>3.2</v>
-      </c>
-      <c r="BI228">
-        <v>1.47</v>
-      </c>
-      <c r="BJ228">
-        <v>2.43</v>
-      </c>
-      <c r="BK228">
-        <v>1.77</v>
-      </c>
-      <c r="BL228">
-        <v>1.89</v>
-      </c>
-      <c r="BM228">
-        <v>2.23</v>
-      </c>
-      <c r="BN228">
-        <v>1.56</v>
-      </c>
-      <c r="BO228">
-        <v>2.8</v>
-      </c>
-      <c r="BP228">
-        <v>1.36</v>
       </c>
     </row>
     <row r="229" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="335">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1017,6 +1017,9 @@
   <si>
     <t>['45']</t>
   </si>
+  <si>
+    <t>['49', '71', '85']</t>
+  </si>
 </sst>
 </file>
 
@@ -1377,7 +1380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP230"/>
+  <dimension ref="A1:BP231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2953,7 +2956,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ8">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -5216,7 +5219,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>1.64</v>
@@ -8103,7 +8106,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ33">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR33">
         <v>0.95</v>
@@ -8512,7 +8515,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
         <v>2.2</v>
@@ -9751,7 +9754,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ41">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR41">
         <v>1</v>
@@ -13871,7 +13874,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ61">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR61">
         <v>1.87</v>
@@ -14074,7 +14077,7 @@
         <v>0.5</v>
       </c>
       <c r="AP62">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ62">
         <v>1.1</v>
@@ -18812,7 +18815,7 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
         <v>0.55</v>
@@ -19842,7 +19845,7 @@
         <v>1.4</v>
       </c>
       <c r="AP90">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ90">
         <v>1.45</v>
@@ -21081,7 +21084,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ96">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR96">
         <v>1.53</v>
@@ -22935,7 +22938,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ105">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR105">
         <v>1.64</v>
@@ -26228,7 +26231,7 @@
         <v>1</v>
       </c>
       <c r="AP121">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ121">
         <v>1</v>
@@ -28497,7 +28500,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ132">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR132">
         <v>1.78</v>
@@ -30142,7 +30145,7 @@
         <v>1</v>
       </c>
       <c r="AP140">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ140">
         <v>1.4</v>
@@ -34883,7 +34886,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ163">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR163">
         <v>1.14</v>
@@ -38794,7 +38797,7 @@
         <v>1.14</v>
       </c>
       <c r="AP182">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ182">
         <v>1.3</v>
@@ -40033,7 +40036,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ188">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR188">
         <v>1.17</v>
@@ -44565,7 +44568,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ210">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR210">
         <v>1.59</v>
@@ -48761,6 +48764,212 @@
       </c>
       <c r="BP230">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="231" spans="1:68">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>7481509</v>
+      </c>
+      <c r="C231" t="s">
+        <v>68</v>
+      </c>
+      <c r="D231" t="s">
+        <v>69</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45664.72916666666</v>
+      </c>
+      <c r="F231">
+        <v>14</v>
+      </c>
+      <c r="G231" t="s">
+        <v>84</v>
+      </c>
+      <c r="H231" t="s">
+        <v>82</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>3</v>
+      </c>
+      <c r="N231">
+        <v>3</v>
+      </c>
+      <c r="O231" t="s">
+        <v>94</v>
+      </c>
+      <c r="P231" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q231">
+        <v>3.1</v>
+      </c>
+      <c r="R231">
+        <v>2</v>
+      </c>
+      <c r="S231">
+        <v>4</v>
+      </c>
+      <c r="T231">
+        <v>1.5</v>
+      </c>
+      <c r="U231">
+        <v>2.5</v>
+      </c>
+      <c r="V231">
+        <v>3.5</v>
+      </c>
+      <c r="W231">
+        <v>1.29</v>
+      </c>
+      <c r="X231">
+        <v>10</v>
+      </c>
+      <c r="Y231">
+        <v>1.06</v>
+      </c>
+      <c r="Z231">
+        <v>2.75</v>
+      </c>
+      <c r="AA231">
+        <v>3</v>
+      </c>
+      <c r="AB231">
+        <v>2.8</v>
+      </c>
+      <c r="AC231">
+        <v>1.08</v>
+      </c>
+      <c r="AD231">
+        <v>7.5</v>
+      </c>
+      <c r="AE231">
+        <v>1.42</v>
+      </c>
+      <c r="AF231">
+        <v>2.8</v>
+      </c>
+      <c r="AG231">
+        <v>2.25</v>
+      </c>
+      <c r="AH231">
+        <v>1.53</v>
+      </c>
+      <c r="AI231">
+        <v>2</v>
+      </c>
+      <c r="AJ231">
+        <v>1.73</v>
+      </c>
+      <c r="AK231">
+        <v>1.35</v>
+      </c>
+      <c r="AL231">
+        <v>1.3</v>
+      </c>
+      <c r="AM231">
+        <v>1.57</v>
+      </c>
+      <c r="AN231">
+        <v>1.13</v>
+      </c>
+      <c r="AO231">
+        <v>1.2</v>
+      </c>
+      <c r="AP231">
+        <v>1</v>
+      </c>
+      <c r="AQ231">
+        <v>1.36</v>
+      </c>
+      <c r="AR231">
+        <v>1.26</v>
+      </c>
+      <c r="AS231">
+        <v>1.24</v>
+      </c>
+      <c r="AT231">
+        <v>2.5</v>
+      </c>
+      <c r="AU231">
+        <v>3</v>
+      </c>
+      <c r="AV231">
+        <v>6</v>
+      </c>
+      <c r="AW231">
+        <v>4</v>
+      </c>
+      <c r="AX231">
+        <v>6</v>
+      </c>
+      <c r="AY231">
+        <v>11</v>
+      </c>
+      <c r="AZ231">
+        <v>18</v>
+      </c>
+      <c r="BA231">
+        <v>3</v>
+      </c>
+      <c r="BB231">
+        <v>5</v>
+      </c>
+      <c r="BC231">
+        <v>8</v>
+      </c>
+      <c r="BD231">
+        <v>1.95</v>
+      </c>
+      <c r="BE231">
+        <v>8</v>
+      </c>
+      <c r="BF231">
+        <v>2.1</v>
+      </c>
+      <c r="BG231">
+        <v>1.29</v>
+      </c>
+      <c r="BH231">
+        <v>3.25</v>
+      </c>
+      <c r="BI231">
+        <v>1.52</v>
+      </c>
+      <c r="BJ231">
+        <v>2.36</v>
+      </c>
+      <c r="BK231">
+        <v>1.87</v>
+      </c>
+      <c r="BL231">
+        <v>1.83</v>
+      </c>
+      <c r="BM231">
+        <v>2.39</v>
+      </c>
+      <c r="BN231">
+        <v>1.51</v>
+      </c>
+      <c r="BO231">
+        <v>3.2</v>
+      </c>
+      <c r="BP231">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="335">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1380,7 +1380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP231"/>
+  <dimension ref="A1:BP232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ2">
         <v>1.09</v>
@@ -6046,7 +6046,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ23">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6249,7 +6249,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ24">
         <v>1.27</v>
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ36">
         <v>1.22</v>
@@ -8930,7 +8930,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ37">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR37">
         <v>1.35</v>
@@ -13047,7 +13047,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -13668,7 +13668,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ60">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR60">
         <v>1.47</v>
@@ -18612,7 +18612,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ84">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR84">
         <v>1.79</v>
@@ -21287,7 +21287,7 @@
         <v>0.25</v>
       </c>
       <c r="AP97">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ97">
         <v>0.45</v>
@@ -22729,7 +22729,7 @@
         <v>0.25</v>
       </c>
       <c r="AP104">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ104">
         <v>0.18</v>
@@ -24174,7 +24174,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ111">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR111">
         <v>1.54</v>
@@ -27882,7 +27882,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ129">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR129">
         <v>1.3</v>
@@ -28497,7 +28497,7 @@
         <v>1.17</v>
       </c>
       <c r="AP132">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ132">
         <v>1.36</v>
@@ -29942,7 +29942,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ139">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR139">
         <v>1.66</v>
@@ -30969,7 +30969,7 @@
         <v>0.83</v>
       </c>
       <c r="AP144">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ144">
         <v>0.55</v>
@@ -33238,7 +33238,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ155">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR155">
         <v>1.59</v>
@@ -35295,7 +35295,7 @@
         <v>1.14</v>
       </c>
       <c r="AP165">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ165">
         <v>1</v>
@@ -39212,7 +39212,7 @@
         <v>2</v>
       </c>
       <c r="AQ184">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR184">
         <v>1.69</v>
@@ -40445,7 +40445,7 @@
         <v>2.75</v>
       </c>
       <c r="AP190">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ190">
         <v>2.2</v>
@@ -44359,7 +44359,7 @@
         <v>0.6</v>
       </c>
       <c r="AP209">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ209">
         <v>0.55</v>
@@ -45804,7 +45804,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ216">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR216">
         <v>1.46</v>
@@ -48970,6 +48970,212 @@
       </c>
       <c r="BP231">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:68">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>7728436</v>
+      </c>
+      <c r="C232" t="s">
+        <v>68</v>
+      </c>
+      <c r="D232" t="s">
+        <v>69</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45667.6875</v>
+      </c>
+      <c r="F232">
+        <v>22</v>
+      </c>
+      <c r="G232" t="s">
+        <v>70</v>
+      </c>
+      <c r="H232" t="s">
+        <v>78</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232" t="s">
+        <v>94</v>
+      </c>
+      <c r="P232" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q232">
+        <v>2.5</v>
+      </c>
+      <c r="R232">
+        <v>2.1</v>
+      </c>
+      <c r="S232">
+        <v>5</v>
+      </c>
+      <c r="T232">
+        <v>1.44</v>
+      </c>
+      <c r="U232">
+        <v>2.63</v>
+      </c>
+      <c r="V232">
+        <v>3.25</v>
+      </c>
+      <c r="W232">
+        <v>1.33</v>
+      </c>
+      <c r="X232">
+        <v>9</v>
+      </c>
+      <c r="Y232">
+        <v>1.07</v>
+      </c>
+      <c r="Z232">
+        <v>1.83</v>
+      </c>
+      <c r="AA232">
+        <v>3.3</v>
+      </c>
+      <c r="AB232">
+        <v>4.33</v>
+      </c>
+      <c r="AC232">
+        <v>1.06</v>
+      </c>
+      <c r="AD232">
+        <v>8.5</v>
+      </c>
+      <c r="AE232">
+        <v>1.36</v>
+      </c>
+      <c r="AF232">
+        <v>3</v>
+      </c>
+      <c r="AG232">
+        <v>2.2</v>
+      </c>
+      <c r="AH232">
+        <v>1.62</v>
+      </c>
+      <c r="AI232">
+        <v>2</v>
+      </c>
+      <c r="AJ232">
+        <v>1.73</v>
+      </c>
+      <c r="AK232">
+        <v>1.16</v>
+      </c>
+      <c r="AL232">
+        <v>1.22</v>
+      </c>
+      <c r="AM232">
+        <v>2</v>
+      </c>
+      <c r="AN232">
+        <v>1.64</v>
+      </c>
+      <c r="AO232">
+        <v>0.8</v>
+      </c>
+      <c r="AP232">
+        <v>1.58</v>
+      </c>
+      <c r="AQ232">
+        <v>0.82</v>
+      </c>
+      <c r="AR232">
+        <v>1.73</v>
+      </c>
+      <c r="AS232">
+        <v>1.22</v>
+      </c>
+      <c r="AT232">
+        <v>2.95</v>
+      </c>
+      <c r="AU232">
+        <v>5</v>
+      </c>
+      <c r="AV232">
+        <v>3</v>
+      </c>
+      <c r="AW232">
+        <v>12</v>
+      </c>
+      <c r="AX232">
+        <v>7</v>
+      </c>
+      <c r="AY232">
+        <v>20</v>
+      </c>
+      <c r="AZ232">
+        <v>14</v>
+      </c>
+      <c r="BA232">
+        <v>5</v>
+      </c>
+      <c r="BB232">
+        <v>2</v>
+      </c>
+      <c r="BC232">
+        <v>7</v>
+      </c>
+      <c r="BD232">
+        <v>1.53</v>
+      </c>
+      <c r="BE232">
+        <v>6.5</v>
+      </c>
+      <c r="BF232">
+        <v>2.8</v>
+      </c>
+      <c r="BG232">
+        <v>1.4</v>
+      </c>
+      <c r="BH232">
+        <v>2.63</v>
+      </c>
+      <c r="BI232">
+        <v>1.7</v>
+      </c>
+      <c r="BJ232">
+        <v>2</v>
+      </c>
+      <c r="BK232">
+        <v>2.12</v>
+      </c>
+      <c r="BL232">
+        <v>1.61</v>
+      </c>
+      <c r="BM232">
+        <v>2.7</v>
+      </c>
+      <c r="BN232">
+        <v>1.38</v>
+      </c>
+      <c r="BO232">
+        <v>3.65</v>
+      </c>
+      <c r="BP232">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>
